--- a/Label.xlsx
+++ b/Label.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="121">
   <si>
     <t>Note</t>
   </si>
@@ -469,16 +469,25 @@
     <t>Haciahmet et al.</t>
   </si>
   <si>
+    <t>PSYCHOLOGY</t>
+  </si>
+  <si>
     <t>Pt2E1</t>
   </si>
   <si>
     <t>Hobbs et al.</t>
   </si>
   <si>
+    <t>Psychological Medicine</t>
+  </si>
+  <si>
     <t>Pt3E1</t>
   </si>
   <si>
     <t>Liang et al.</t>
+  </si>
+  <si>
+    <t>Human Brain Mapping</t>
   </si>
   <si>
     <r>
@@ -537,6 +546,18 @@
     </r>
   </si>
   <si>
+    <t>Non-trial level</t>
+  </si>
+  <si>
+    <t>Pt5E1</t>
+  </si>
+  <si>
+    <t>Schäfer et al.</t>
+  </si>
+  <si>
+    <t>Experimental Psychology</t>
+  </si>
+  <si>
     <t>Pt6E1</t>
   </si>
   <si>
@@ -547,6 +568,18 @@
   </si>
   <si>
     <t>Pt6E2</t>
+  </si>
+  <si>
+    <t>0-N;30-m;38-n</t>
+  </si>
+  <si>
+    <t>Pt7E1</t>
+  </si>
+  <si>
+    <t>Perrykkad et al.</t>
+  </si>
+  <si>
+    <t>BMC Psychology</t>
   </si>
 </sst>
 </file>
@@ -559,7 +592,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -582,20 +615,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -698,14 +717,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1053,19 +1064,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1074,58 +1094,49 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1137,7 +1148,7 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1149,7 +1160,7 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1161,7 +1172,7 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1173,7 +1184,7 @@
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1185,7 +1196,7 @@
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1217,7 +1228,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1539,22 +1550,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T32"/>
+  <dimension ref="A1:T34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C5" sqref="C5"/>
+      <selection pane="topRight" activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="1" max="1" width="14.4166666666667" customWidth="1"/>
     <col min="2" max="2" width="3.625" customWidth="1"/>
     <col min="3" max="3" width="9.16666666666667" customWidth="1"/>
     <col min="4" max="4" width="19.75" customWidth="1"/>
     <col min="6" max="6" width="38.8333333333333" customWidth="1"/>
     <col min="7" max="7" width="4.625" customWidth="1"/>
+    <col min="10" max="10" width="20.0833333333333" customWidth="1"/>
     <col min="11" max="11" width="8.625" customWidth="1"/>
     <col min="13" max="13" width="10.5" customWidth="1"/>
     <col min="14" max="14" width="11.625" customWidth="1"/>
@@ -2495,6 +2507,7 @@
       <c r="E20" s="1">
         <v>2023</v>
       </c>
+      <c r="F20" s="1"/>
       <c r="G20" s="1">
         <v>1</v>
       </c>
@@ -2538,6 +2551,7 @@
       <c r="E21" s="1">
         <v>2014</v>
       </c>
+      <c r="F21" s="1"/>
       <c r="G21" s="1">
         <v>1</v>
       </c>
@@ -2578,6 +2592,7 @@
       <c r="E22" s="1">
         <v>2015</v>
       </c>
+      <c r="F22" s="1"/>
       <c r="G22" s="1">
         <v>1</v>
       </c>
@@ -2618,6 +2633,7 @@
       <c r="E23" s="1">
         <v>2015</v>
       </c>
+      <c r="F23" s="1"/>
       <c r="G23" s="1">
         <v>2</v>
       </c>
@@ -2661,6 +2677,7 @@
       <c r="E24" s="1">
         <v>2014</v>
       </c>
+      <c r="F24" s="1"/>
       <c r="G24" s="1">
         <v>1</v>
       </c>
@@ -2707,6 +2724,7 @@
       <c r="E25" s="1">
         <v>2014</v>
       </c>
+      <c r="F25" s="1"/>
       <c r="G25" s="1">
         <v>2</v>
       </c>
@@ -2753,6 +2771,7 @@
       <c r="E26" s="1">
         <v>2014</v>
       </c>
+      <c r="F26" s="1"/>
       <c r="G26" s="1">
         <v>3</v>
       </c>
@@ -2799,6 +2818,7 @@
       <c r="E27" s="1">
         <v>2014</v>
       </c>
+      <c r="F27" s="1"/>
       <c r="G27" s="1">
         <v>4</v>
       </c>
@@ -2842,6 +2862,9 @@
       <c r="E28" s="1">
         <v>2023</v>
       </c>
+      <c r="F28" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="G28" s="1">
         <v>1</v>
       </c>
@@ -2871,13 +2894,16 @@
         <v>28</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D29" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E29" s="1">
         <v>2023</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="G29" s="1">
         <v>1</v>
@@ -2913,13 +2939,16 @@
         <v>29</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E30" s="1">
         <v>2021</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="G30" s="1">
         <v>1</v>
@@ -2950,24 +2979,30 @@
         <v>108</v>
       </c>
       <c r="S30" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="T30" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="31" ht="15.5" spans="2:19">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" ht="15.5" spans="1:20">
+      <c r="A31" t="s">
+        <v>109</v>
+      </c>
       <c r="B31">
         <v>30</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D31" t="s">
-        <v>107</v>
+        <v>110</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="E31" s="1">
-        <v>2022</v>
+        <v>2023</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="G31" s="1">
         <v>1</v>
@@ -2978,45 +3013,43 @@
       <c r="I31" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J31" s="1"/>
-      <c r="L31" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="J31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L31" s="1"/>
       <c r="N31" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="O31" s="1">
-        <v>60</v>
-      </c>
-      <c r="Q31">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="P31">
+        <v>1</v>
       </c>
       <c r="R31" s="1">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="S31" t="s">
-        <v>108</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="T31" s="6"/>
     </row>
     <row r="32" ht="15.5" spans="2:19">
       <c r="B32">
         <v>31</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D32" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E32" s="1">
         <v>2022</v>
       </c>
+      <c r="F32" s="1"/>
       <c r="G32" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>8</v>
@@ -3026,20 +3059,113 @@
         <v>11</v>
       </c>
       <c r="N32" s="1">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="O32" s="1">
         <v>60</v>
       </c>
       <c r="Q32">
+        <v>3</v>
+      </c>
+      <c r="R32" s="1">
+        <f>N32-P32-Q32</f>
+        <v>27</v>
+      </c>
+      <c r="S32" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" ht="15.5" spans="2:19">
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D33" t="s">
+        <v>114</v>
+      </c>
+      <c r="E33" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1">
         <v>2</v>
       </c>
-      <c r="R32" s="1">
-        <f t="shared" si="0"/>
+      <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J33" s="1"/>
+      <c r="L33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N33" s="1">
+        <v>48</v>
+      </c>
+      <c r="O33" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q33">
+        <v>2</v>
+      </c>
+      <c r="R33" s="1">
+        <f>N33-P33-Q33</f>
         <v>46</v>
       </c>
-      <c r="S32" t="s">
-        <v>108</v>
+      <c r="S33" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" ht="15.5" spans="1:18">
+      <c r="A34" t="s">
+        <v>117</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>118</v>
+      </c>
+      <c r="D34" t="s">
+        <v>119</v>
+      </c>
+      <c r="E34">
+        <v>2022</v>
+      </c>
+      <c r="F34" t="s">
+        <v>120</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N34" s="1">
+        <v>328</v>
+      </c>
+      <c r="O34" s="1">
+        <v>120</v>
+      </c>
+      <c r="P34" s="1">
+        <v>40</v>
+      </c>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1">
+        <v>288</v>
       </c>
     </row>
   </sheetData>

--- a/Label.xlsx
+++ b/Label.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="131">
   <si>
     <t>Note</t>
   </si>
@@ -134,6 +134,39 @@
     <t>1, 2, 3, 4, 5, 6</t>
   </si>
   <si>
+    <t>P5E1</t>
+  </si>
+  <si>
+    <t>Constable et al.</t>
+  </si>
+  <si>
+    <t>Journal of Experimental Psychology:  Human Perception and Performance</t>
+  </si>
+  <si>
+    <t>We</t>
+  </si>
+  <si>
+    <t>They/Alone</t>
+  </si>
+  <si>
+    <t>P5E2</t>
+  </si>
+  <si>
+    <t>P5E3</t>
+  </si>
+  <si>
+    <t>P5E4</t>
+  </si>
+  <si>
+    <t>P1/P2</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>Stranger/Stranger Team</t>
+  </si>
+  <si>
     <t>P6E1</t>
   </si>
   <si>
@@ -173,9 +206,6 @@
   </si>
   <si>
     <t>P46E2</t>
-  </si>
-  <si>
-    <t>Constable et al.</t>
   </si>
   <si>
     <t>Cognition and Emotion</t>
@@ -592,7 +622,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -601,13 +631,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <strike/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -1079,64 +1102,64 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1148,7 +1171,7 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1160,7 +1183,7 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1172,7 +1195,7 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1184,7 +1207,7 @@
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1196,7 +1219,7 @@
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1209,7 +1232,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1217,15 +1240,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1550,12 +1570,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T34"/>
+  <dimension ref="A1:T38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="A34" sqref="A34"/>
+      <selection pane="topRight" activeCell="M1" sqref="M$1:M$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1564,10 +1584,11 @@
     <col min="2" max="2" width="3.625" customWidth="1"/>
     <col min="3" max="3" width="9.16666666666667" customWidth="1"/>
     <col min="4" max="4" width="19.75" customWidth="1"/>
-    <col min="6" max="6" width="38.8333333333333" customWidth="1"/>
+    <col min="6" max="6" width="67.0833333333333" customWidth="1"/>
     <col min="7" max="7" width="4.625" customWidth="1"/>
     <col min="10" max="10" width="20.0833333333333" customWidth="1"/>
     <col min="11" max="11" width="8.625" customWidth="1"/>
+    <col min="12" max="12" width="21.5833333333333" customWidth="1"/>
     <col min="13" max="13" width="10.5" customWidth="1"/>
     <col min="14" max="14" width="11.625" customWidth="1"/>
     <col min="15" max="15" width="6" customWidth="1"/>
@@ -1687,7 +1708,7 @@
       <c r="S2" t="s">
         <v>23</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="T2" s="4" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1702,7 +1723,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="1">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>27</v>
@@ -1721,43 +1742,31 @@
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="M3" s="1"/>
-      <c r="N3" s="1">
-        <v>46</v>
-      </c>
-      <c r="O3" s="1">
-        <v>20</v>
-      </c>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
-      <c r="R3" s="1">
-        <f t="shared" ref="R3:R32" si="0">N3-P3-Q3</f>
-        <v>46</v>
-      </c>
-      <c r="S3" t="s">
-        <v>29</v>
-      </c>
-      <c r="T3" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" ht="15.5" spans="2:18">
+      <c r="R3" s="1"/>
+      <c r="T3" s="5"/>
+    </row>
+    <row r="4" ht="15.5" spans="2:20">
       <c r="B4" s="1">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E4" s="1">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G4" s="1">
         <v>2</v>
@@ -1768,168 +1777,151 @@
       <c r="I4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="1"/>
+      <c r="J4" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="M4" s="1"/>
-      <c r="N4" s="1">
-        <v>56</v>
-      </c>
-      <c r="O4" s="1">
-        <v>48</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>1</v>
-      </c>
-      <c r="R4" s="1">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" ht="15.5" spans="1:19">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="3">
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="T4" s="5"/>
+    </row>
+    <row r="5" ht="15.5" spans="2:20">
+      <c r="B5" s="1">
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E5" s="1">
-        <v>2020</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>37</v>
+        <v>2019</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="G5" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H5" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="J5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="1"/>
       <c r="L5" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="M5" s="1"/>
-      <c r="N5" s="1">
-        <v>24</v>
-      </c>
-      <c r="O5" s="1">
-        <v>24</v>
-      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
-      <c r="R5" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="S5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" ht="15.5" spans="2:19">
+      <c r="R5" s="1"/>
+      <c r="T5" s="5"/>
+    </row>
+    <row r="6" ht="15.5" spans="2:20">
       <c r="B6" s="1">
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E6" s="1">
-        <v>2020</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>37</v>
+        <v>2019</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="G6" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H6" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="M6" s="1"/>
-      <c r="N6" s="1">
-        <v>25</v>
-      </c>
-      <c r="O6" s="1">
-        <v>25</v>
-      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-      <c r="R6" s="1">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="S6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" ht="15.5" spans="2:18">
+      <c r="R6" s="1"/>
+      <c r="T6" s="5"/>
+    </row>
+    <row r="7" ht="15.5" spans="2:20">
       <c r="B7" s="1">
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2020</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1">
+        <v>46</v>
+      </c>
+      <c r="O7" s="1">
+        <v>20</v>
+      </c>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1">
+        <f t="shared" ref="R7:R36" si="0">N7-P7-Q7</f>
+        <v>46</v>
+      </c>
+      <c r="S7" t="s">
+        <v>40</v>
+      </c>
+      <c r="T7" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="1">
-        <v>2019</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N7" s="1">
-        <v>32</v>
-      </c>
-      <c r="O7" s="1">
-        <v>18</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>1</v>
-      </c>
-      <c r="R7" s="1">
-        <f t="shared" si="0"/>
-        <v>31</v>
       </c>
     </row>
     <row r="8" ht="15.5" spans="2:18">
@@ -1937,62 +1929,65 @@
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="E8" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G8" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H8" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
+      <c r="L8" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="O8" s="1">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" ht="15.5" spans="2:19">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" ht="15.5" spans="1:19">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
       <c r="B9" s="1">
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2020</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="1">
-        <v>2021</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="G9" s="1">
         <v>1</v>
       </c>
@@ -2002,72 +1997,73 @@
       <c r="I9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="L9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="O9" s="1">
-        <v>30</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>1</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="Q9" s="1"/>
       <c r="R9" s="1">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="S9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" ht="15.5" spans="2:18">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" ht="15.5" spans="2:19">
       <c r="B10" s="1">
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E10" s="1">
-        <v>2021</v>
-      </c>
-      <c r="F10" s="1"/>
+        <v>2020</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="G10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="O10" s="1">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>25</v>
+      </c>
+      <c r="S10" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="11" ht="15.5" spans="2:18">
@@ -2075,42 +2071,46 @@
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="E11" s="1">
-        <v>2021</v>
-      </c>
-      <c r="F11" s="1"/>
+        <v>2019</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="G11" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H11" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K11" s="1"/>
-      <c r="L11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="N11" s="1">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="O11" s="1">
-        <v>60</v>
-      </c>
-      <c r="Q11" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>1</v>
+      </c>
       <c r="R11" s="1">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" ht="15.5" spans="2:18">
@@ -2118,59 +2118,61 @@
         <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2019</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="1">
+        <v>3</v>
+      </c>
+      <c r="H12" s="1">
+        <v>3</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="1">
-        <v>2021</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1">
-        <v>4</v>
-      </c>
-      <c r="H12" s="1">
-        <v>4</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="K12" s="1"/>
-      <c r="L12" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="O12" s="1">
-        <v>60</v>
-      </c>
-      <c r="Q12" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>2</v>
+      </c>
       <c r="R12" s="1">
         <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" ht="15.5" spans="2:18">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" ht="15.5" spans="2:19">
       <c r="B13" s="1">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E13" s="1">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="G13" s="1">
         <v>1</v>
@@ -2185,41 +2187,46 @@
         <v>22</v>
       </c>
       <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
+      <c r="L13" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="O13" s="1">
-        <v>50</v>
-      </c>
-      <c r="Q13" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>1</v>
+      </c>
       <c r="R13" s="1">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" ht="15.5" spans="2:19">
+        <v>29</v>
+      </c>
+      <c r="S13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" ht="15.5" spans="2:18">
       <c r="B14" s="1">
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E14" s="1">
-        <v>2022</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>57</v>
-      </c>
+        <v>2021</v>
+      </c>
+      <c r="F14" s="1"/>
       <c r="G14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>8</v>
@@ -2228,39 +2235,36 @@
         <v>22</v>
       </c>
       <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
+      <c r="L14" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="O14" s="1">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1">
         <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="S14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" ht="15.5" spans="2:19">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" ht="15.5" spans="2:18">
       <c r="B15" s="1">
         <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E15" s="1">
-        <v>2022</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>57</v>
-      </c>
+        <v>2021</v>
+      </c>
+      <c r="F15" s="1"/>
       <c r="G15" s="1">
         <v>3</v>
       </c>
@@ -2271,49 +2275,44 @@
         <v>8</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
+      <c r="L15" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O15" s="1">
-        <v>100</v>
-      </c>
-      <c r="Q15" s="1">
-        <v>1</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="Q15" s="1"/>
       <c r="R15" s="1">
         <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="S15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" ht="15.5" spans="2:19">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" ht="15.5" spans="2:18">
       <c r="B16" s="1">
         <v>15</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E16" s="1">
         <v>2021</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="F16" s="1"/>
       <c r="G16" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H16" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>8</v>
@@ -2327,7 +2326,7 @@
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="O16" s="1">
         <v>60</v>
@@ -2335,30 +2334,24 @@
       <c r="Q16" s="1"/>
       <c r="R16" s="1">
         <f t="shared" si="0"/>
-        <v>105</v>
-      </c>
-      <c r="S16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" ht="15.5" spans="1:19">
-      <c r="A17" t="s">
-        <v>66</v>
-      </c>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" ht="15.5" spans="2:18">
       <c r="B17" s="1">
         <v>16</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" s="1">
-        <v>2018</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="G17" s="1">
         <v>1</v>
@@ -2373,43 +2366,35 @@
         <v>22</v>
       </c>
       <c r="K17" s="1"/>
-      <c r="L17" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O17" s="1">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="S17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" ht="15.5" spans="1:19">
-      <c r="A18" t="s">
-        <v>66</v>
-      </c>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" ht="15.5" spans="2:19">
       <c r="B18" s="1">
         <v>17</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E18" s="1">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G18" s="1">
         <v>2</v>
@@ -2424,139 +2409,143 @@
         <v>22</v>
       </c>
       <c r="K18" s="1"/>
-      <c r="L18" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="O18" s="1">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="S18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" ht="15.5" spans="1:18">
-      <c r="A19" t="s">
-        <v>66</v>
-      </c>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" ht="15.5" spans="2:19">
       <c r="B19" s="1">
         <v>18</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E19" s="1">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="G19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J19" s="1"/>
+      <c r="J19" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="K19" s="1"/>
-      <c r="L19" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1">
-        <v>298</v>
+        <v>25</v>
       </c>
       <c r="O19" s="1">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="Q19" s="1">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="R19" s="1">
         <f t="shared" si="0"/>
-        <v>280</v>
-      </c>
-    </row>
-    <row r="20" ht="15.5" spans="1:19">
-      <c r="A20" t="s">
-        <v>75</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="S19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" ht="15.5" spans="2:19">
       <c r="B20" s="1">
         <v>19</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="E20" s="1">
-        <v>2023</v>
-      </c>
-      <c r="F20" s="1"/>
+        <v>2021</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="G20" s="1">
         <v>1</v>
       </c>
-      <c r="H20" t="s">
-        <v>77</v>
+      <c r="H20" s="1">
+        <v>1</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20" s="1"/>
       <c r="L20" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="M20" s="1"/>
       <c r="N20" s="1">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="O20" s="1">
-        <v>90</v>
-      </c>
-      <c r="P20" s="1">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1">
         <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="S20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" ht="15.5" spans="1:19">
+      <c r="A21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="1">
         <v>20</v>
       </c>
-      <c r="S20" t="s">
+      <c r="C21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="21" ht="15.5" spans="2:18">
-      <c r="B21">
-        <v>20</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="E21" s="1">
+        <v>2018</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E21" s="1">
-        <v>2014</v>
-      </c>
-      <c r="F21" s="1"/>
       <c r="G21" s="1">
         <v>1</v>
       </c>
-      <c r="H21" t="s">
-        <v>81</v>
+      <c r="H21" s="1">
+        <v>1</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>8</v>
@@ -2564,40 +2553,50 @@
       <c r="J21" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="K21" s="1"/>
       <c r="L21" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="M21" s="1"/>
       <c r="N21" s="1">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="O21" s="1">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1">
         <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" ht="15.5" spans="2:18">
-      <c r="B22">
+        <v>18</v>
+      </c>
+      <c r="S21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" ht="15.5" spans="1:19">
+      <c r="A22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="1">
         <v>21</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E22" s="1">
-        <v>2015</v>
-      </c>
-      <c r="F22" s="1"/>
+        <v>2018</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="G22" s="1">
-        <v>1</v>
-      </c>
-      <c r="H22" t="s">
-        <v>81</v>
+        <v>2</v>
+      </c>
+      <c r="H22" s="1">
+        <v>2</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>8</v>
@@ -2605,280 +2604,278 @@
       <c r="J22" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="K22" s="1"/>
       <c r="L22" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="M22" s="1"/>
       <c r="N22" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O22" s="1">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="Q22" s="1"/>
       <c r="R22" s="1">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" ht="15.5" spans="2:18">
-      <c r="B23">
+        <v>18</v>
+      </c>
+      <c r="S22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" ht="15.5" spans="1:18">
+      <c r="A23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="1">
         <v>22</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="E23" s="1">
-        <v>2015</v>
-      </c>
-      <c r="F23" s="1"/>
+        <v>2023</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="G23" s="1">
-        <v>2</v>
-      </c>
-      <c r="H23" t="s">
-        <v>81</v>
+        <v>1</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
       <c r="L23" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="M23" s="1"/>
       <c r="N23" s="1">
-        <v>21</v>
+        <v>298</v>
       </c>
       <c r="O23" s="1">
-        <v>40</v>
-      </c>
-      <c r="Q23" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>18</v>
+      </c>
       <c r="R23" s="1">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" ht="15.5" spans="1:19">
       <c r="A24" t="s">
-        <v>84</v>
-      </c>
-      <c r="B24">
+        <v>85</v>
+      </c>
+      <c r="B24" s="1">
         <v>23</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="E24" s="1">
-        <v>2014</v>
+        <v>2023</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1">
         <v>1</v>
       </c>
-      <c r="H24">
-        <v>1</v>
+      <c r="H24" t="s">
+        <v>87</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>11</v>
       </c>
       <c r="N24" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O24" s="1">
-        <v>60</v>
+        <v>90</v>
+      </c>
+      <c r="P24" s="1">
+        <v>3</v>
       </c>
       <c r="Q24" s="1"/>
       <c r="R24" s="1">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="S24" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="25" ht="15.5" spans="1:19">
-      <c r="A25" t="s">
+    <row r="25" ht="15.5" spans="2:18">
+      <c r="B25" s="1">
+        <v>24</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B25">
-        <v>24</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="E25" s="1">
         <v>2014</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1">
-        <v>2</v>
-      </c>
-      <c r="H25">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>91</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>11</v>
       </c>
       <c r="N25" s="1">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="O25" s="1">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="Q25" s="1"/>
       <c r="R25" s="1">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="S25" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" ht="15.5" spans="1:19">
-      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" ht="15.5" spans="2:18">
+      <c r="B26" s="1">
+        <v>25</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B26">
-        <v>25</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="D26" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E26" s="1">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1">
-        <v>3</v>
-      </c>
-      <c r="H26">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>91</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>11</v>
       </c>
       <c r="N26" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O26" s="1">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="Q26" s="1"/>
       <c r="R26" s="1">
         <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="S26" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="27" ht="15.5" spans="1:19">
-      <c r="A27" t="s">
-        <v>95</v>
-      </c>
-      <c r="B27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" ht="15.5" spans="2:18">
+      <c r="B27" s="1">
         <v>26</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E27" s="1">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1">
-        <v>4</v>
-      </c>
-      <c r="H27">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="H27" t="s">
+        <v>91</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>11</v>
       </c>
       <c r="N27" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O27" s="1">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="Q27" s="1"/>
       <c r="R27" s="1">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="S27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" ht="15.5" spans="1:19">
+      <c r="A28" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="1">
+        <v>27</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2014</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="28" ht="15.5" spans="2:18">
-      <c r="B28">
-        <v>27</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D28" t="s">
-        <v>99</v>
-      </c>
-      <c r="E28" s="1">
-        <v>2023</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G28" s="1">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>11</v>
       </c>
       <c r="N28" s="1">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="O28" s="1">
         <v>60</v>
@@ -2886,165 +2883,169 @@
       <c r="Q28" s="1"/>
       <c r="R28" s="1">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" ht="15.5" spans="2:18">
-      <c r="B29">
+        <v>24</v>
+      </c>
+      <c r="S28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" ht="15.5" spans="1:19">
+      <c r="A29" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" s="1">
         <v>28</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D29" t="s">
-        <v>102</v>
+        <v>100</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="E29" s="1">
-        <v>2023</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>103</v>
-      </c>
+        <v>2014</v>
+      </c>
+      <c r="F29" s="1"/>
       <c r="G29" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>11</v>
       </c>
       <c r="N29" s="1">
-        <v>144</v>
+        <v>18</v>
       </c>
       <c r="O29" s="1">
-        <v>20</v>
-      </c>
-      <c r="Q29" s="1">
-        <v>2</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="Q29" s="1"/>
       <c r="R29" s="1">
         <f t="shared" si="0"/>
-        <v>142</v>
-      </c>
-    </row>
-    <row r="30" ht="15.5" spans="2:20">
-      <c r="B30">
+        <v>18</v>
+      </c>
+      <c r="S29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" ht="15.5" spans="1:19">
+      <c r="A30" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" s="1">
         <v>29</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E30" s="1">
-        <v>2021</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>106</v>
-      </c>
+        <v>2014</v>
+      </c>
+      <c r="F30" s="1"/>
       <c r="G30" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>11</v>
       </c>
       <c r="N30" s="1">
-        <v>109</v>
+        <v>22</v>
       </c>
       <c r="O30" s="1">
         <v>60</v>
       </c>
-      <c r="Q30">
-        <v>1</v>
-      </c>
+      <c r="Q30" s="1"/>
       <c r="R30" s="1">
         <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="S30" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" ht="15.5" spans="1:19">
+      <c r="A31" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" s="1">
+        <v>30</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" s="1">
+        <v>2014</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1">
+        <v>4</v>
+      </c>
+      <c r="H31">
+        <v>4</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N31" s="1">
+        <v>20</v>
+      </c>
+      <c r="O31" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="S31" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" ht="15.5" spans="2:18">
+      <c r="B32" s="1">
+        <v>31</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="S30" t="s">
-        <v>107</v>
-      </c>
-      <c r="T30" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="31" ht="15.5" spans="1:20">
-      <c r="A31" t="s">
+      <c r="D32" t="s">
         <v>109</v>
       </c>
-      <c r="B31">
-        <v>30</v>
-      </c>
-      <c r="C31" s="2" t="s">
+      <c r="E32" s="1">
+        <v>2023</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E31" s="1">
-        <v>2023</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G31" s="1">
-        <v>1</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L31" s="1"/>
-      <c r="N31" s="1">
-        <v>40</v>
-      </c>
-      <c r="O31" s="1">
-        <v>100</v>
-      </c>
-      <c r="P31">
-        <v>1</v>
-      </c>
-      <c r="R31" s="1">
-        <v>38</v>
-      </c>
-      <c r="T31" s="6"/>
-    </row>
-    <row r="32" ht="15.5" spans="2:19">
-      <c r="B32">
-        <v>31</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D32" t="s">
-        <v>114</v>
-      </c>
-      <c r="E32" s="1">
-        <v>2022</v>
-      </c>
-      <c r="F32" s="1"/>
       <c r="G32" s="1">
         <v>1</v>
       </c>
@@ -3054,91 +3055,83 @@
       <c r="I32" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J32" s="1"/>
       <c r="L32" s="1" t="s">
         <v>11</v>
       </c>
       <c r="N32" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="O32" s="1">
         <v>60</v>
       </c>
-      <c r="Q32">
-        <v>3</v>
-      </c>
+      <c r="Q32" s="1"/>
       <c r="R32" s="1">
-        <f>N32-P32-Q32</f>
-        <v>27</v>
-      </c>
-      <c r="S32" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="33" ht="15.5" spans="2:19">
-      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" ht="15.5" spans="2:18">
+      <c r="B33" s="1">
         <v>32</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D33" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E33" s="1">
-        <v>2022</v>
-      </c>
-      <c r="F33" s="1"/>
+        <v>2023</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="G33" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J33" s="1"/>
+      <c r="J33" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="L33" s="1" t="s">
         <v>11</v>
       </c>
       <c r="N33" s="1">
-        <v>48</v>
+        <v>144</v>
       </c>
       <c r="O33" s="1">
-        <v>60</v>
-      </c>
-      <c r="Q33">
+        <v>20</v>
+      </c>
+      <c r="Q33" s="1">
         <v>2</v>
       </c>
       <c r="R33" s="1">
-        <f>N33-P33-Q33</f>
-        <v>46</v>
-      </c>
-      <c r="S33" t="s">
+        <f t="shared" si="0"/>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="34" ht="15.5" spans="2:20">
+      <c r="B34" s="1">
+        <v>33</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="34" ht="15.5" spans="1:18">
-      <c r="A34" t="s">
-        <v>117</v>
-      </c>
-      <c r="B34">
-        <v>33</v>
-      </c>
-      <c r="C34" t="s">
-        <v>118</v>
-      </c>
-      <c r="D34" t="s">
-        <v>119</v>
-      </c>
-      <c r="E34">
-        <v>2022</v>
-      </c>
-      <c r="F34" t="s">
-        <v>120</v>
-      </c>
-      <c r="G34">
+      <c r="E34" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G34" s="1">
         <v>1</v>
       </c>
       <c r="H34">
@@ -3150,21 +3143,209 @@
       <c r="J34" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K34" s="1"/>
       <c r="L34" s="1" t="s">
         <v>11</v>
       </c>
       <c r="N34" s="1">
+        <v>109</v>
+      </c>
+      <c r="O34" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q34">
+        <v>1</v>
+      </c>
+      <c r="R34" s="1">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="S34" t="s">
+        <v>117</v>
+      </c>
+      <c r="T34" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" ht="15.5" spans="1:20">
+      <c r="A35" t="s">
+        <v>119</v>
+      </c>
+      <c r="B35" s="1">
+        <v>34</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E35" s="1">
+        <v>2023</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L35" s="1"/>
+      <c r="N35" s="1">
+        <v>40</v>
+      </c>
+      <c r="O35" s="1">
+        <v>100</v>
+      </c>
+      <c r="P35">
+        <v>1</v>
+      </c>
+      <c r="R35" s="1">
+        <v>38</v>
+      </c>
+      <c r="T35" s="5"/>
+    </row>
+    <row r="36" ht="15.5" spans="2:19">
+      <c r="B36" s="1">
+        <v>35</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D36" t="s">
+        <v>124</v>
+      </c>
+      <c r="E36" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J36" s="1"/>
+      <c r="L36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N36" s="1">
+        <v>30</v>
+      </c>
+      <c r="O36" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q36">
+        <v>3</v>
+      </c>
+      <c r="R36" s="1">
+        <f>N36-P36-Q36</f>
+        <v>27</v>
+      </c>
+      <c r="S36" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" ht="15.5" spans="2:19">
+      <c r="B37" s="1">
+        <v>36</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D37" t="s">
+        <v>124</v>
+      </c>
+      <c r="E37" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1">
+        <v>2</v>
+      </c>
+      <c r="H37">
+        <v>2</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J37" s="1"/>
+      <c r="L37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N37" s="1">
+        <v>48</v>
+      </c>
+      <c r="O37" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q37">
+        <v>2</v>
+      </c>
+      <c r="R37" s="1">
+        <f>N37-P37-Q37</f>
+        <v>46</v>
+      </c>
+      <c r="S37" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="38" ht="15.5" spans="1:18">
+      <c r="A38" t="s">
+        <v>127</v>
+      </c>
+      <c r="B38" s="1">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>128</v>
+      </c>
+      <c r="D38" t="s">
+        <v>129</v>
+      </c>
+      <c r="E38">
+        <v>2022</v>
+      </c>
+      <c r="F38" t="s">
+        <v>130</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N38" s="1">
         <v>328</v>
       </c>
-      <c r="O34" s="1">
+      <c r="O38" s="1">
         <v>120</v>
       </c>
-      <c r="P34" s="1">
+      <c r="P38" s="1">
         <v>40</v>
       </c>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1">
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1">
         <v>288</v>
       </c>
     </row>

--- a/Label.xlsx
+++ b/Label.xlsx
@@ -1572,10 +1572,10 @@
   <sheetPr/>
   <dimension ref="A1:T38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="M1" sqref="M$1:M$1048576"/>
+      <selection pane="topRight" activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -3037,7 +3037,7 @@
       <c r="C32" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="2" t="s">
         <v>109</v>
       </c>
       <c r="E32" s="1">
@@ -3077,7 +3077,7 @@
       <c r="C33" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="2" t="s">
         <v>112</v>
       </c>
       <c r="E33" s="1">
@@ -3122,7 +3122,7 @@
       <c r="C34" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="2" t="s">
         <v>115</v>
       </c>
       <c r="E34" s="1">
@@ -3176,7 +3176,7 @@
       <c r="C35" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E35" s="1">
@@ -3219,7 +3219,7 @@
       <c r="C36" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="2" t="s">
         <v>124</v>
       </c>
       <c r="E36" s="1">
@@ -3263,7 +3263,7 @@
       <c r="C37" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="2" t="s">
         <v>124</v>
       </c>
       <c r="E37" s="1">
@@ -3307,10 +3307,10 @@
       <c r="B38" s="1">
         <v>37</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="2" t="s">
         <v>129</v>
       </c>
       <c r="E38">

--- a/Label.xlsx
+++ b/Label.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="132">
   <si>
     <t>Note</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>1, 2, 3, 4, 5, 6</t>
+  </si>
+  <si>
+    <t>Pair Number</t>
   </si>
   <si>
     <t>P5E1</t>
@@ -1572,10 +1575,10 @@
   <sheetPr/>
   <dimension ref="A1:T38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="F43" sqref="F43"/>
+      <selection pane="topRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1712,21 +1715,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" ht="15.5" spans="2:20">
+    <row r="3" ht="15.5" spans="1:20">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3" s="1">
         <v>2019</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
@@ -1738,11 +1744,11 @@
         <v>8</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -1752,21 +1758,24 @@
       <c r="R3" s="1"/>
       <c r="T3" s="5"/>
     </row>
-    <row r="4" ht="15.5" spans="2:20">
+    <row r="4" ht="15.5" spans="1:20">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
       <c r="B4" s="1">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1">
         <v>2019</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G4" s="1">
         <v>2</v>
@@ -1778,11 +1787,11 @@
         <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -1792,21 +1801,24 @@
       <c r="R4" s="1"/>
       <c r="T4" s="5"/>
     </row>
-    <row r="5" ht="15.5" spans="2:20">
+    <row r="5" ht="15.5" spans="1:20">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
       <c r="B5" s="1">
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5" s="1">
         <v>2019</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G5" s="1">
         <v>3</v>
@@ -1818,11 +1830,11 @@
         <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -1832,21 +1844,24 @@
       <c r="R5" s="1"/>
       <c r="T5" s="5"/>
     </row>
-    <row r="6" ht="15.5" spans="2:20">
+    <row r="6" ht="15.5" spans="1:20">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
       <c r="B6" s="1">
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6" s="1">
         <v>2019</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G6" s="1">
         <v>4</v>
@@ -1855,14 +1870,14 @@
         <v>4</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -1872,21 +1887,24 @@
       <c r="R6" s="1"/>
       <c r="T6" s="5"/>
     </row>
-    <row r="7" ht="15.5" spans="2:20">
+    <row r="7" ht="15.5" spans="1:20">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
       <c r="B7" s="1">
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E7" s="1">
         <v>2020</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
@@ -1898,7 +1916,7 @@
         <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1" t="s">
@@ -1918,10 +1936,10 @@
         <v>46</v>
       </c>
       <c r="S7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T7" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" ht="15.5" spans="2:18">
@@ -1929,16 +1947,16 @@
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8" s="1">
         <v>2020</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G8" s="1">
         <v>2</v>
@@ -1971,22 +1989,22 @@
     </row>
     <row r="9" ht="15.5" spans="1:19">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B9" s="1">
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E9" s="1">
         <v>2020</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
@@ -2017,7 +2035,7 @@
         <v>24</v>
       </c>
       <c r="S9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" ht="15.5" spans="2:19">
@@ -2025,16 +2043,16 @@
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E10" s="1">
         <v>2020</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G10" s="1">
         <v>2</v>
@@ -2063,7 +2081,7 @@
         <v>25</v>
       </c>
       <c r="S10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" ht="15.5" spans="2:18">
@@ -2071,16 +2089,16 @@
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E11" s="1">
         <v>2019</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G11" s="1">
         <v>1</v>
@@ -2092,12 +2110,12 @@
         <v>8</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N11" s="1">
         <v>32</v>
@@ -2118,16 +2136,16 @@
         <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E12" s="1">
         <v>2019</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G12" s="1">
         <v>3</v>
@@ -2139,7 +2157,7 @@
         <v>8</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -2163,16 +2181,16 @@
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E13" s="1">
         <v>2021</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G13" s="1">
         <v>1</v>
@@ -2205,7 +2223,7 @@
         <v>29</v>
       </c>
       <c r="S13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" ht="15.5" spans="2:18">
@@ -2213,10 +2231,10 @@
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E14" s="1">
         <v>2021</v>
@@ -2256,10 +2274,10 @@
         <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="E15" s="1">
         <v>2021</v>
@@ -2275,7 +2293,7 @@
         <v>8</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1" t="s">
@@ -2299,10 +2317,10 @@
         <v>15</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E16" s="1">
         <v>2021</v>
@@ -2342,16 +2360,16 @@
         <v>16</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E17" s="1">
         <v>2022</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G17" s="1">
         <v>1</v>
@@ -2385,16 +2403,16 @@
         <v>17</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E18" s="1">
         <v>2022</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G18" s="1">
         <v>2</v>
@@ -2423,7 +2441,7 @@
         <v>24</v>
       </c>
       <c r="S18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" ht="15.5" spans="2:19">
@@ -2431,16 +2449,16 @@
         <v>18</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E19" s="1">
         <v>2022</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G19" s="1">
         <v>3</v>
@@ -2471,7 +2489,7 @@
         <v>24</v>
       </c>
       <c r="S19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" ht="15.5" spans="2:19">
@@ -2479,16 +2497,16 @@
         <v>19</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E20" s="1">
         <v>2021</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G20" s="1">
         <v>1</v>
@@ -2519,27 +2537,27 @@
         <v>105</v>
       </c>
       <c r="S20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" ht="15.5" spans="1:19">
       <c r="A21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B21" s="1">
         <v>20</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E21" s="1">
         <v>2018</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G21" s="1">
         <v>1</v>
@@ -2570,27 +2588,27 @@
         <v>18</v>
       </c>
       <c r="S21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" ht="15.5" spans="1:19">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B22" s="1">
         <v>21</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E22" s="1">
         <v>2018</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G22" s="1">
         <v>2</v>
@@ -2621,27 +2639,27 @@
         <v>18</v>
       </c>
       <c r="S22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" ht="15.5" spans="1:18">
       <c r="A23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B23" s="1">
         <v>22</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E23" s="1">
         <v>2023</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G23" s="1">
         <v>1</v>
@@ -2674,13 +2692,13 @@
     </row>
     <row r="24" ht="15.5" spans="1:19">
       <c r="A24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B24" s="1">
         <v>23</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>21</v>
@@ -2693,7 +2711,7 @@
         <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>8</v>
@@ -2716,7 +2734,7 @@
         <v>20</v>
       </c>
       <c r="S24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" ht="15.5" spans="2:18">
@@ -2724,10 +2742,10 @@
         <v>24</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E25" s="1">
         <v>2014</v>
@@ -2737,7 +2755,7 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>8</v>
@@ -2765,10 +2783,10 @@
         <v>25</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E26" s="1">
         <v>2015</v>
@@ -2778,7 +2796,7 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>8</v>
@@ -2806,10 +2824,10 @@
         <v>26</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E27" s="1">
         <v>2015</v>
@@ -2819,7 +2837,7 @@
         <v>2</v>
       </c>
       <c r="H27" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>8</v>
@@ -2844,16 +2862,16 @@
     </row>
     <row r="28" ht="15.5" spans="1:19">
       <c r="A28" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B28" s="1">
         <v>27</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E28" s="1">
         <v>2014</v>
@@ -2869,7 +2887,7 @@
         <v>8</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>11</v>
@@ -2886,21 +2904,21 @@
         <v>24</v>
       </c>
       <c r="S28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" ht="15.5" spans="1:19">
       <c r="A29" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B29" s="1">
         <v>28</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E29" s="1">
         <v>2014</v>
@@ -2916,7 +2934,7 @@
         <v>8</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>11</v>
@@ -2933,21 +2951,21 @@
         <v>18</v>
       </c>
       <c r="S29" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" ht="15.5" spans="1:19">
       <c r="A30" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B30" s="1">
         <v>29</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E30" s="1">
         <v>2014</v>
@@ -2963,7 +2981,7 @@
         <v>8</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>11</v>
@@ -2980,21 +2998,21 @@
         <v>22</v>
       </c>
       <c r="S30" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" ht="15.5" spans="1:19">
       <c r="A31" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B31" s="1">
         <v>30</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E31" s="1">
         <v>2014</v>
@@ -3010,7 +3028,7 @@
         <v>8</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>11</v>
@@ -3027,7 +3045,7 @@
         <v>20</v>
       </c>
       <c r="S31" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" ht="15.5" spans="2:18">
@@ -3035,16 +3053,16 @@
         <v>31</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E32" s="1">
         <v>2023</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G32" s="1">
         <v>1</v>
@@ -3075,16 +3093,16 @@
         <v>32</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E33" s="1">
         <v>2023</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G33" s="1">
         <v>1</v>
@@ -3120,16 +3138,16 @@
         <v>33</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E34" s="1">
         <v>2021</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G34" s="1">
         <v>1</v>
@@ -3160,30 +3178,30 @@
         <v>108</v>
       </c>
       <c r="S34" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="T34" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" ht="15.5" spans="1:20">
       <c r="A35" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B35" s="1">
         <v>34</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E35" s="1">
         <v>2023</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G35" s="1">
         <v>1</v>
@@ -3195,7 +3213,7 @@
         <v>8</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L35" s="1"/>
       <c r="N35" s="1">
@@ -3217,10 +3235,10 @@
         <v>35</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E36" s="1">
         <v>2022</v>
@@ -3253,7 +3271,7 @@
         <v>27</v>
       </c>
       <c r="S36" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37" ht="15.5" spans="2:19">
@@ -3261,10 +3279,10 @@
         <v>36</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E37" s="1">
         <v>2022</v>
@@ -3297,27 +3315,27 @@
         <v>46</v>
       </c>
       <c r="S37" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" ht="15.5" spans="1:18">
       <c r="A38" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B38" s="1">
         <v>37</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E38">
+        <v>130</v>
+      </c>
+      <c r="E38" s="1">
         <v>2022</v>
       </c>
-      <c r="F38" t="s">
-        <v>130</v>
+      <c r="F38" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="G38">
         <v>1</v>

--- a/Label.xlsx
+++ b/Label.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="134">
   <si>
     <t>Note</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>Session</t>
+  </si>
+  <si>
+    <t>Label</t>
   </si>
   <si>
     <t>P0E1</t>
@@ -437,6 +440,9 @@
   </si>
   <si>
     <t xml:space="preserve">Moral: </t>
+  </si>
+  <si>
+    <t>Citation()</t>
   </si>
   <si>
     <t>Ps3E1</t>
@@ -1573,12 +1579,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T38"/>
+  <dimension ref="A1:U38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="A6" sqref="A6"/>
+      <selection pane="topRight" activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1601,7 +1607,7 @@
     <col min="20" max="20" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.5" spans="1:20">
+    <row r="1" ht="15.5" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1662,16 +1668,19 @@
       <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2" ht="15.5" spans="2:20">
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" s="1">
         <v>2023</v>
@@ -1687,7 +1696,7 @@
         <v>8</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1" t="s">
@@ -1709,30 +1718,30 @@
         <v>33</v>
       </c>
       <c r="S2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" ht="15.5" spans="1:20">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E3" s="1">
         <v>2019</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
@@ -1744,11 +1753,11 @@
         <v>8</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -1760,22 +1769,22 @@
     </row>
     <row r="4" ht="15.5" spans="1:20">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4" s="1">
         <v>2019</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G4" s="1">
         <v>2</v>
@@ -1787,11 +1796,11 @@
         <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -1803,22 +1812,22 @@
     </row>
     <row r="5" ht="15.5" spans="1:20">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5" s="1">
         <v>2019</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G5" s="1">
         <v>3</v>
@@ -1830,11 +1839,11 @@
         <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -1846,22 +1855,22 @@
     </row>
     <row r="6" ht="15.5" spans="1:20">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6" s="1">
         <v>2019</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G6" s="1">
         <v>4</v>
@@ -1870,14 +1879,14 @@
         <v>4</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -1889,22 +1898,22 @@
     </row>
     <row r="7" ht="15.5" spans="1:20">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7" s="1">
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E7" s="1">
         <v>2020</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
@@ -1916,7 +1925,7 @@
         <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1" t="s">
@@ -1936,10 +1945,10 @@
         <v>46</v>
       </c>
       <c r="S7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T7" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" ht="15.5" spans="2:18">
@@ -1947,16 +1956,16 @@
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E8" s="1">
         <v>2020</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G8" s="1">
         <v>2</v>
@@ -1989,22 +1998,22 @@
     </row>
     <row r="9" ht="15.5" spans="1:19">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B9" s="1">
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E9" s="1">
         <v>2020</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
@@ -2035,7 +2044,7 @@
         <v>24</v>
       </c>
       <c r="S9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" ht="15.5" spans="2:19">
@@ -2043,16 +2052,16 @@
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E10" s="1">
         <v>2020</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G10" s="1">
         <v>2</v>
@@ -2081,7 +2090,7 @@
         <v>25</v>
       </c>
       <c r="S10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" ht="15.5" spans="2:18">
@@ -2089,16 +2098,16 @@
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E11" s="1">
         <v>2019</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G11" s="1">
         <v>1</v>
@@ -2110,12 +2119,12 @@
         <v>8</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N11" s="1">
         <v>32</v>
@@ -2136,16 +2145,16 @@
         <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E12" s="1">
         <v>2019</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G12" s="1">
         <v>3</v>
@@ -2157,7 +2166,7 @@
         <v>8</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -2181,16 +2190,16 @@
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E13" s="1">
         <v>2021</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G13" s="1">
         <v>1</v>
@@ -2202,7 +2211,7 @@
         <v>8</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1" t="s">
@@ -2223,7 +2232,7 @@
         <v>29</v>
       </c>
       <c r="S13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" ht="15.5" spans="2:18">
@@ -2231,10 +2240,10 @@
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E14" s="1">
         <v>2021</v>
@@ -2250,7 +2259,7 @@
         <v>8</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1" t="s">
@@ -2274,10 +2283,10 @@
         <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="E15" s="1">
         <v>2021</v>
@@ -2293,7 +2302,7 @@
         <v>8</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1" t="s">
@@ -2317,10 +2326,10 @@
         <v>15</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E16" s="1">
         <v>2021</v>
@@ -2336,7 +2345,7 @@
         <v>8</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1" t="s">
@@ -2360,16 +2369,16 @@
         <v>16</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E17" s="1">
         <v>2022</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G17" s="1">
         <v>1</v>
@@ -2381,7 +2390,7 @@
         <v>8</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -2403,16 +2412,16 @@
         <v>17</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E18" s="1">
         <v>2022</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G18" s="1">
         <v>2</v>
@@ -2424,7 +2433,7 @@
         <v>8</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -2441,7 +2450,7 @@
         <v>24</v>
       </c>
       <c r="S18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" ht="15.5" spans="2:19">
@@ -2449,16 +2458,16 @@
         <v>18</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E19" s="1">
         <v>2022</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G19" s="1">
         <v>3</v>
@@ -2470,7 +2479,7 @@
         <v>8</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -2489,7 +2498,7 @@
         <v>24</v>
       </c>
       <c r="S19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" ht="15.5" spans="2:19">
@@ -2497,16 +2506,16 @@
         <v>19</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E20" s="1">
         <v>2021</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G20" s="1">
         <v>1</v>
@@ -2518,7 +2527,7 @@
         <v>8</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1" t="s">
@@ -2537,27 +2546,27 @@
         <v>105</v>
       </c>
       <c r="S20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" ht="15.5" spans="1:19">
       <c r="A21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B21" s="1">
         <v>20</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E21" s="1">
         <v>2018</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G21" s="1">
         <v>1</v>
@@ -2569,7 +2578,7 @@
         <v>8</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1" t="s">
@@ -2588,27 +2597,27 @@
         <v>18</v>
       </c>
       <c r="S21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" ht="15.5" spans="1:19">
       <c r="A22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B22" s="1">
         <v>21</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E22" s="1">
         <v>2018</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G22" s="1">
         <v>2</v>
@@ -2620,7 +2629,7 @@
         <v>8</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1" t="s">
@@ -2639,27 +2648,27 @@
         <v>18</v>
       </c>
       <c r="S22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" ht="15.5" spans="1:18">
       <c r="A23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B23" s="1">
         <v>22</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E23" s="1">
         <v>2023</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G23" s="1">
         <v>1</v>
@@ -2690,18 +2699,18 @@
         <v>280</v>
       </c>
     </row>
-    <row r="24" ht="15.5" spans="1:19">
+    <row r="24" ht="15.5" spans="1:21">
       <c r="A24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B24" s="1">
         <v>23</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E24" s="1">
         <v>2023</v>
@@ -2711,7 +2720,7 @@
         <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>8</v>
@@ -2734,7 +2743,10 @@
         <v>20</v>
       </c>
       <c r="S24" t="s">
-        <v>89</v>
+        <v>90</v>
+      </c>
+      <c r="U24" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="25" ht="15.5" spans="2:18">
@@ -2742,10 +2754,10 @@
         <v>24</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E25" s="1">
         <v>2014</v>
@@ -2755,13 +2767,13 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>11</v>
@@ -2783,10 +2795,10 @@
         <v>25</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="E26" s="1">
         <v>2015</v>
@@ -2796,13 +2808,13 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>11</v>
@@ -2824,10 +2836,10 @@
         <v>26</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E27" s="1">
         <v>2015</v>
@@ -2837,13 +2849,13 @@
         <v>2</v>
       </c>
       <c r="H27" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>11</v>
@@ -2862,16 +2874,16 @@
     </row>
     <row r="28" ht="15.5" spans="1:19">
       <c r="A28" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B28" s="1">
         <v>27</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E28" s="1">
         <v>2014</v>
@@ -2887,7 +2899,7 @@
         <v>8</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>11</v>
@@ -2904,21 +2916,21 @@
         <v>24</v>
       </c>
       <c r="S28" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" ht="15.5" spans="1:19">
       <c r="A29" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B29" s="1">
         <v>28</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E29" s="1">
         <v>2014</v>
@@ -2934,7 +2946,7 @@
         <v>8</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>11</v>
@@ -2951,21 +2963,21 @@
         <v>18</v>
       </c>
       <c r="S29" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" ht="15.5" spans="1:19">
       <c r="A30" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B30" s="1">
         <v>29</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E30" s="1">
         <v>2014</v>
@@ -2981,7 +2993,7 @@
         <v>8</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>11</v>
@@ -2998,21 +3010,21 @@
         <v>22</v>
       </c>
       <c r="S30" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" ht="15.5" spans="1:19">
       <c r="A31" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B31" s="1">
         <v>30</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E31" s="1">
         <v>2014</v>
@@ -3028,7 +3040,7 @@
         <v>8</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>11</v>
@@ -3045,7 +3057,7 @@
         <v>20</v>
       </c>
       <c r="S31" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" ht="15.5" spans="2:18">
@@ -3053,16 +3065,16 @@
         <v>31</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E32" s="1">
         <v>2023</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G32" s="1">
         <v>1</v>
@@ -3093,16 +3105,16 @@
         <v>32</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E33" s="1">
         <v>2023</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G33" s="1">
         <v>1</v>
@@ -3114,7 +3126,7 @@
         <v>8</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>11</v>
@@ -3138,16 +3150,16 @@
         <v>33</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E34" s="1">
         <v>2021</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G34" s="1">
         <v>1</v>
@@ -3159,7 +3171,7 @@
         <v>8</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>11</v>
@@ -3178,30 +3190,30 @@
         <v>108</v>
       </c>
       <c r="S34" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="T34" s="5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" ht="15.5" spans="1:20">
       <c r="A35" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B35" s="1">
         <v>34</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E35" s="1">
         <v>2023</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G35" s="1">
         <v>1</v>
@@ -3213,7 +3225,7 @@
         <v>8</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L35" s="1"/>
       <c r="N35" s="1">
@@ -3235,10 +3247,10 @@
         <v>35</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E36" s="1">
         <v>2022</v>
@@ -3271,7 +3283,7 @@
         <v>27</v>
       </c>
       <c r="S36" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" ht="15.5" spans="2:19">
@@ -3279,10 +3291,10 @@
         <v>36</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="E37" s="1">
         <v>2022</v>
@@ -3315,27 +3327,27 @@
         <v>46</v>
       </c>
       <c r="S37" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38" ht="15.5" spans="1:18">
       <c r="A38" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B38" s="1">
         <v>37</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E38" s="1">
         <v>2022</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -3347,7 +3359,7 @@
         <v>8</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K38" s="1"/>
       <c r="L38" s="1" t="s">

--- a/Label.xlsx
+++ b/Label.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="135">
   <si>
     <t>Note</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>Friend</t>
+  </si>
+  <si>
+    <t>√</t>
   </si>
   <si>
     <r>
@@ -1581,10 +1584,10 @@
   <sheetPr/>
   <dimension ref="A1:U38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="J1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="U24" sqref="U24"/>
+      <selection pane="topRight" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1702,7 +1705,9 @@
       <c r="L2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="N2" s="1">
         <v>36</v>
       </c>
@@ -1718,30 +1723,30 @@
         <v>33</v>
       </c>
       <c r="S2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" ht="15.5" spans="1:20">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E3" s="1">
         <v>2019</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
@@ -1753,11 +1758,11 @@
         <v>8</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -1769,22 +1774,22 @@
     </row>
     <row r="4" ht="15.5" spans="1:20">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" s="1">
         <v>2019</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G4" s="1">
         <v>2</v>
@@ -1796,11 +1801,11 @@
         <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -1812,22 +1817,22 @@
     </row>
     <row r="5" ht="15.5" spans="1:20">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E5" s="1">
         <v>2019</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G5" s="1">
         <v>3</v>
@@ -1839,11 +1844,11 @@
         <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -1855,22 +1860,22 @@
     </row>
     <row r="6" ht="15.5" spans="1:20">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6" s="1">
         <v>2019</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G6" s="1">
         <v>4</v>
@@ -1879,14 +1884,14 @@
         <v>4</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -1898,22 +1903,22 @@
     </row>
     <row r="7" ht="15.5" spans="1:20">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1">
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E7" s="1">
         <v>2020</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
@@ -1925,7 +1930,7 @@
         <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1" t="s">
@@ -1945,10 +1950,10 @@
         <v>46</v>
       </c>
       <c r="S7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T7" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" ht="15.5" spans="2:18">
@@ -1956,16 +1961,16 @@
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E8" s="1">
         <v>2020</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G8" s="1">
         <v>2</v>
@@ -1998,22 +2003,22 @@
     </row>
     <row r="9" ht="15.5" spans="1:19">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B9" s="1">
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E9" s="1">
         <v>2020</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
@@ -2044,7 +2049,7 @@
         <v>24</v>
       </c>
       <c r="S9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" ht="15.5" spans="2:19">
@@ -2052,16 +2057,16 @@
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E10" s="1">
         <v>2020</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G10" s="1">
         <v>2</v>
@@ -2090,7 +2095,7 @@
         <v>25</v>
       </c>
       <c r="S10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" ht="15.5" spans="2:18">
@@ -2098,16 +2103,16 @@
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E11" s="1">
         <v>2019</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G11" s="1">
         <v>1</v>
@@ -2119,12 +2124,12 @@
         <v>8</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N11" s="1">
         <v>32</v>
@@ -2145,16 +2150,16 @@
         <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E12" s="1">
         <v>2019</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G12" s="1">
         <v>3</v>
@@ -2166,7 +2171,7 @@
         <v>8</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -2190,16 +2195,16 @@
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E13" s="1">
         <v>2021</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G13" s="1">
         <v>1</v>
@@ -2232,7 +2237,7 @@
         <v>29</v>
       </c>
       <c r="S13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" ht="15.5" spans="2:18">
@@ -2240,10 +2245,10 @@
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E14" s="1">
         <v>2021</v>
@@ -2283,10 +2288,10 @@
         <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="E15" s="1">
         <v>2021</v>
@@ -2302,7 +2307,7 @@
         <v>8</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1" t="s">
@@ -2326,10 +2331,10 @@
         <v>15</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E16" s="1">
         <v>2021</v>
@@ -2369,16 +2374,16 @@
         <v>16</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E17" s="1">
         <v>2022</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G17" s="1">
         <v>1</v>
@@ -2412,16 +2417,16 @@
         <v>17</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E18" s="1">
         <v>2022</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G18" s="1">
         <v>2</v>
@@ -2450,7 +2455,7 @@
         <v>24</v>
       </c>
       <c r="S18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" ht="15.5" spans="2:19">
@@ -2458,16 +2463,16 @@
         <v>18</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E19" s="1">
         <v>2022</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G19" s="1">
         <v>3</v>
@@ -2498,7 +2503,7 @@
         <v>24</v>
       </c>
       <c r="S19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" ht="15.5" spans="2:19">
@@ -2506,16 +2511,16 @@
         <v>19</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E20" s="1">
         <v>2021</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G20" s="1">
         <v>1</v>
@@ -2546,27 +2551,27 @@
         <v>105</v>
       </c>
       <c r="S20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" ht="15.5" spans="1:19">
       <c r="A21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B21" s="1">
         <v>20</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E21" s="1">
         <v>2018</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G21" s="1">
         <v>1</v>
@@ -2597,27 +2602,27 @@
         <v>18</v>
       </c>
       <c r="S21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" ht="15.5" spans="1:19">
       <c r="A22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B22" s="1">
         <v>21</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E22" s="1">
         <v>2018</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G22" s="1">
         <v>2</v>
@@ -2648,27 +2653,27 @@
         <v>18</v>
       </c>
       <c r="S22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" ht="15.5" spans="1:18">
       <c r="A23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B23" s="1">
         <v>22</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E23" s="1">
         <v>2023</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G23" s="1">
         <v>1</v>
@@ -2701,13 +2706,13 @@
     </row>
     <row r="24" ht="15.5" spans="1:21">
       <c r="A24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B24" s="1">
         <v>23</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>22</v>
@@ -2720,7 +2725,7 @@
         <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>8</v>
@@ -2743,10 +2748,10 @@
         <v>20</v>
       </c>
       <c r="S24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="U24" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" ht="15.5" spans="2:18">
@@ -2754,10 +2759,10 @@
         <v>24</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E25" s="1">
         <v>2014</v>
@@ -2767,7 +2772,7 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>8</v>
@@ -2795,10 +2800,10 @@
         <v>25</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E26" s="1">
         <v>2015</v>
@@ -2808,7 +2813,7 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>8</v>
@@ -2836,10 +2841,10 @@
         <v>26</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E27" s="1">
         <v>2015</v>
@@ -2849,7 +2854,7 @@
         <v>2</v>
       </c>
       <c r="H27" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>8</v>
@@ -2874,16 +2879,16 @@
     </row>
     <row r="28" ht="15.5" spans="1:19">
       <c r="A28" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B28" s="1">
         <v>27</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E28" s="1">
         <v>2014</v>
@@ -2899,7 +2904,7 @@
         <v>8</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>11</v>
@@ -2916,21 +2921,21 @@
         <v>24</v>
       </c>
       <c r="S28" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" ht="15.5" spans="1:19">
       <c r="A29" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B29" s="1">
         <v>28</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E29" s="1">
         <v>2014</v>
@@ -2946,7 +2951,7 @@
         <v>8</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>11</v>
@@ -2963,21 +2968,21 @@
         <v>18</v>
       </c>
       <c r="S29" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" ht="15.5" spans="1:19">
       <c r="A30" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B30" s="1">
         <v>29</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E30" s="1">
         <v>2014</v>
@@ -2993,7 +2998,7 @@
         <v>8</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>11</v>
@@ -3010,21 +3015,21 @@
         <v>22</v>
       </c>
       <c r="S30" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" ht="15.5" spans="1:19">
       <c r="A31" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B31" s="1">
         <v>30</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E31" s="1">
         <v>2014</v>
@@ -3040,7 +3045,7 @@
         <v>8</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>11</v>
@@ -3057,7 +3062,7 @@
         <v>20</v>
       </c>
       <c r="S31" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" ht="15.5" spans="2:18">
@@ -3065,16 +3070,16 @@
         <v>31</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E32" s="1">
         <v>2023</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G32" s="1">
         <v>1</v>
@@ -3105,16 +3110,16 @@
         <v>32</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E33" s="1">
         <v>2023</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G33" s="1">
         <v>1</v>
@@ -3150,16 +3155,16 @@
         <v>33</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E34" s="1">
         <v>2021</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G34" s="1">
         <v>1</v>
@@ -3190,30 +3195,30 @@
         <v>108</v>
       </c>
       <c r="S34" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="T34" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35" ht="15.5" spans="1:20">
       <c r="A35" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B35" s="1">
         <v>34</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E35" s="1">
         <v>2023</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G35" s="1">
         <v>1</v>
@@ -3225,7 +3230,7 @@
         <v>8</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L35" s="1"/>
       <c r="N35" s="1">
@@ -3247,10 +3252,10 @@
         <v>35</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E36" s="1">
         <v>2022</v>
@@ -3283,7 +3288,7 @@
         <v>27</v>
       </c>
       <c r="S36" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" ht="15.5" spans="2:19">
@@ -3291,10 +3296,10 @@
         <v>36</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E37" s="1">
         <v>2022</v>
@@ -3327,27 +3332,27 @@
         <v>46</v>
       </c>
       <c r="S37" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38" ht="15.5" spans="1:18">
       <c r="A38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B38" s="1">
         <v>37</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E38" s="1">
         <v>2022</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G38">
         <v>1</v>

--- a/Label.xlsx
+++ b/Label.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="134">
   <si>
     <t>Note</t>
   </si>
@@ -99,9 +99,6 @@
   </si>
   <si>
     <t>Friend</t>
-  </si>
-  <si>
-    <t>√</t>
   </si>
   <si>
     <r>
@@ -1584,10 +1581,10 @@
   <sheetPr/>
   <dimension ref="A1:U38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="M2" sqref="M2"/>
+      <selection pane="topRight" activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1705,9 +1702,7 @@
       <c r="L2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="M2" s="1"/>
       <c r="N2" s="1">
         <v>36</v>
       </c>
@@ -1723,46 +1718,46 @@
         <v>33</v>
       </c>
       <c r="S2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" ht="15.5" spans="1:20">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="E3" s="1">
         <v>2019</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -1774,22 +1769,22 @@
     </row>
     <row r="4" ht="15.5" spans="1:20">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" s="1">
         <v>2019</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" s="1">
         <v>2</v>
@@ -1801,11 +1796,11 @@
         <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -1817,22 +1812,22 @@
     </row>
     <row r="5" ht="15.5" spans="1:20">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" s="1">
         <v>2019</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G5" s="1">
         <v>3</v>
@@ -1844,11 +1839,11 @@
         <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -1860,22 +1855,22 @@
     </row>
     <row r="6" ht="15.5" spans="1:20">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" s="1">
         <v>2019</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G6" s="1">
         <v>4</v>
@@ -1884,14 +1879,14 @@
         <v>4</v>
       </c>
       <c r="I6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -1903,34 +1898,34 @@
     </row>
     <row r="7" ht="15.5" spans="1:20">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="1">
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="E7" s="1">
         <v>2020</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1" t="s">
@@ -1950,10 +1945,10 @@
         <v>46</v>
       </c>
       <c r="S7" t="s">
+        <v>42</v>
+      </c>
+      <c r="T7" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="T7" s="5" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="8" ht="15.5" spans="2:18">
@@ -1961,16 +1956,16 @@
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" s="1">
         <v>2020</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G8" s="1">
         <v>2</v>
@@ -2003,22 +1998,22 @@
     </row>
     <row r="9" ht="15.5" spans="1:19">
       <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="1">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="1">
-        <v>8</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="E9" s="1">
         <v>2020</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
@@ -2049,7 +2044,7 @@
         <v>24</v>
       </c>
       <c r="S9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" ht="15.5" spans="2:19">
@@ -2057,16 +2052,16 @@
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E10" s="1">
         <v>2020</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G10" s="1">
         <v>2</v>
@@ -2095,7 +2090,7 @@
         <v>25</v>
       </c>
       <c r="S10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" ht="15.5" spans="2:18">
@@ -2103,33 +2098,33 @@
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="E11" s="1">
         <v>2019</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1">
-        <v>1</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N11" s="1">
         <v>32</v>
@@ -2150,16 +2145,16 @@
         <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E12" s="1">
         <v>2019</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G12" s="1">
         <v>3</v>
@@ -2171,7 +2166,7 @@
         <v>8</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -2195,16 +2190,16 @@
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="E13" s="1">
         <v>2021</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G13" s="1">
         <v>1</v>
@@ -2237,7 +2232,7 @@
         <v>29</v>
       </c>
       <c r="S13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" ht="15.5" spans="2:18">
@@ -2245,10 +2240,10 @@
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="E14" s="1">
         <v>2021</v>
@@ -2288,10 +2283,10 @@
         <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E15" s="1">
         <v>2021</v>
@@ -2307,7 +2302,7 @@
         <v>8</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1" t="s">
@@ -2331,10 +2326,10 @@
         <v>15</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E16" s="1">
         <v>2021</v>
@@ -2374,16 +2369,16 @@
         <v>16</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="E17" s="1">
         <v>2022</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G17" s="1">
         <v>1</v>
@@ -2417,16 +2412,16 @@
         <v>17</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E18" s="1">
         <v>2022</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G18" s="1">
         <v>2</v>
@@ -2455,7 +2450,7 @@
         <v>24</v>
       </c>
       <c r="S18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" ht="15.5" spans="2:19">
@@ -2463,16 +2458,16 @@
         <v>18</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E19" s="1">
         <v>2022</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G19" s="1">
         <v>3</v>
@@ -2503,7 +2498,7 @@
         <v>24</v>
       </c>
       <c r="S19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" ht="15.5" spans="2:19">
@@ -2511,16 +2506,16 @@
         <v>19</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="E20" s="1">
         <v>2021</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G20" s="1">
         <v>1</v>
@@ -2551,27 +2546,27 @@
         <v>105</v>
       </c>
       <c r="S20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" ht="15.5" spans="1:19">
       <c r="A21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B21" s="1">
         <v>20</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="E21" s="1">
         <v>2018</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G21" s="1">
         <v>1</v>
@@ -2602,27 +2597,27 @@
         <v>18</v>
       </c>
       <c r="S21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" ht="15.5" spans="1:19">
       <c r="A22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B22" s="1">
         <v>21</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E22" s="1">
         <v>2018</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G22" s="1">
         <v>2</v>
@@ -2653,27 +2648,27 @@
         <v>18</v>
       </c>
       <c r="S22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" ht="15.5" spans="1:18">
       <c r="A23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B23" s="1">
         <v>22</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="E23" s="1">
         <v>2023</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G23" s="1">
         <v>1</v>
@@ -2706,13 +2701,13 @@
     </row>
     <row r="24" ht="15.5" spans="1:21">
       <c r="A24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B24" s="1">
         <v>23</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>22</v>
@@ -2725,7 +2720,7 @@
         <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>8</v>
@@ -2748,10 +2743,10 @@
         <v>20</v>
       </c>
       <c r="S24" t="s">
+        <v>90</v>
+      </c>
+      <c r="U24" t="s">
         <v>91</v>
-      </c>
-      <c r="U24" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="25" ht="15.5" spans="2:18">
@@ -2759,10 +2754,10 @@
         <v>24</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="E25" s="1">
         <v>2014</v>
@@ -2772,7 +2767,7 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>8</v>
@@ -2800,10 +2795,10 @@
         <v>25</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E26" s="1">
         <v>2015</v>
@@ -2813,7 +2808,7 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>8</v>
@@ -2841,10 +2836,10 @@
         <v>26</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E27" s="1">
         <v>2015</v>
@@ -2854,7 +2849,7 @@
         <v>2</v>
       </c>
       <c r="H27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>8</v>
@@ -2879,16 +2874,16 @@
     </row>
     <row r="28" ht="15.5" spans="1:19">
       <c r="A28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B28" s="1">
         <v>27</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="E28" s="1">
         <v>2014</v>
@@ -2904,7 +2899,7 @@
         <v>8</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>11</v>
@@ -2921,21 +2916,21 @@
         <v>24</v>
       </c>
       <c r="S28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" ht="15.5" spans="1:19">
       <c r="A29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B29" s="1">
         <v>28</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E29" s="1">
         <v>2014</v>
@@ -2951,7 +2946,7 @@
         <v>8</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>11</v>
@@ -2968,21 +2963,21 @@
         <v>18</v>
       </c>
       <c r="S29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" ht="15.5" spans="1:19">
       <c r="A30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B30" s="1">
         <v>29</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E30" s="1">
         <v>2014</v>
@@ -2998,7 +2993,7 @@
         <v>8</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>11</v>
@@ -3015,21 +3010,21 @@
         <v>22</v>
       </c>
       <c r="S30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" ht="15.5" spans="1:19">
       <c r="A31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B31" s="1">
         <v>30</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E31" s="1">
         <v>2014</v>
@@ -3045,7 +3040,7 @@
         <v>8</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>11</v>
@@ -3062,7 +3057,7 @@
         <v>20</v>
       </c>
       <c r="S31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" ht="15.5" spans="2:18">
@@ -3070,16 +3065,16 @@
         <v>31</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="E32" s="1">
         <v>2023</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G32" s="1">
         <v>1</v>
@@ -3110,16 +3105,16 @@
         <v>32</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="E33" s="1">
         <v>2023</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G33" s="1">
         <v>1</v>
@@ -3155,16 +3150,16 @@
         <v>33</v>
       </c>
       <c r="C34" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="E34" s="1">
         <v>2021</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G34" s="1">
         <v>1</v>
@@ -3195,30 +3190,30 @@
         <v>108</v>
       </c>
       <c r="S34" t="s">
+        <v>120</v>
+      </c>
+      <c r="T34" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="T34" s="5" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="35" ht="15.5" spans="1:20">
       <c r="A35" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B35" s="1">
         <v>34</v>
       </c>
       <c r="C35" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="E35" s="1">
         <v>2023</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G35" s="1">
         <v>1</v>
@@ -3230,7 +3225,7 @@
         <v>8</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L35" s="1"/>
       <c r="N35" s="1">
@@ -3252,10 +3247,10 @@
         <v>35</v>
       </c>
       <c r="C36" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="E36" s="1">
         <v>2022</v>
@@ -3288,7 +3283,7 @@
         <v>27</v>
       </c>
       <c r="S36" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" ht="15.5" spans="2:19">
@@ -3296,10 +3291,10 @@
         <v>36</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E37" s="1">
         <v>2022</v>
@@ -3332,27 +3327,27 @@
         <v>46</v>
       </c>
       <c r="S37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38" ht="15.5" spans="1:18">
       <c r="A38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B38" s="1">
         <v>37</v>
       </c>
       <c r="C38" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="E38" s="1">
         <v>2022</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G38">
         <v>1</v>

--- a/Label.xlsx
+++ b/Label.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Label" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Label!$A$1:$U$39</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="140">
   <si>
     <t>Note</t>
   </si>
@@ -90,6 +93,9 @@
   </si>
   <si>
     <t>Label</t>
+  </si>
+  <si>
+    <t>Behavior  Data</t>
   </si>
   <si>
     <t>P0E1</t>
@@ -211,6 +217,12 @@
     </r>
   </si>
   <si>
+    <t>P20E1</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
     <t>P46E2</t>
   </si>
   <si>
@@ -286,6 +298,24 @@
     <t>P54E3</t>
   </si>
   <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>P95E1</t>
+  </si>
+  <si>
+    <t>Woźniak et al.</t>
+  </si>
+  <si>
+    <t>PloS one</t>
+  </si>
+  <si>
+    <t>Facial Gender: (Male, Female)</t>
+  </si>
+  <si>
+    <t>P95E2</t>
+  </si>
+  <si>
     <t>Pn4E1</t>
   </si>
   <si>
@@ -403,24 +433,6 @@
     </r>
   </si>
   <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>P95E1</t>
-  </si>
-  <si>
-    <t>Woźniak et al.</t>
-  </si>
-  <si>
-    <t>PloS one</t>
-  </si>
-  <si>
-    <t>Facial Gender: (Male, Female)</t>
-  </si>
-  <si>
-    <t>P95E2</t>
-  </si>
-  <si>
     <t>Ps1E1</t>
   </si>
   <si>
@@ -619,6 +631,15 @@
   </si>
   <si>
     <t>BMC Psychology</t>
+  </si>
+  <si>
+    <t>Pt9E1</t>
+  </si>
+  <si>
+    <t>Pt9E2</t>
+  </si>
+  <si>
+    <t>Pt9E3</t>
   </si>
 </sst>
 </file>
@@ -782,12 +803,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1117,7 +1144,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1141,16 +1168,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1159,19 +1186,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1180,10 +1204,10 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1192,10 +1216,10 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1204,10 +1228,10 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1216,10 +1240,10 @@
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1228,10 +1252,10 @@
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1240,8 +1264,11 @@
     <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1255,6 +1282,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1579,12 +1609,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U38"/>
+  <dimension ref="A1:V66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="U24" sqref="U24"/>
+      <selection pane="topRight" activeCell="N2" sqref="N2:N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1605,9 +1635,10 @@
     <col min="17" max="17" width="9.375" customWidth="1"/>
     <col min="19" max="19" width="37" customWidth="1"/>
     <col min="20" max="20" width="29" customWidth="1"/>
+    <col min="22" max="22" width="13.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.5" spans="1:21">
+    <row r="1" ht="15.5" spans="1:22">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1671,16 +1702,19 @@
       <c r="U1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" ht="15.5" spans="2:20">
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" ht="15.5" spans="2:22">
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1">
         <v>2023</v>
@@ -1696,7 +1730,7 @@
         <v>8</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1" t="s">
@@ -1718,30 +1752,33 @@
         <v>33</v>
       </c>
       <c r="S2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" ht="15.5" spans="1:20">
+        <v>26</v>
+      </c>
+      <c r="V2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="15.5" spans="1:22">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E3" s="1">
         <v>2019</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
@@ -1753,11 +1790,11 @@
         <v>8</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -1765,26 +1802,29 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
-      <c r="T3" s="5"/>
+      <c r="T3" s="6"/>
+      <c r="V3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" ht="15.5" spans="1:20">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" s="1">
         <v>2019</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G4" s="1">
         <v>2</v>
@@ -1796,11 +1836,11 @@
         <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -1808,26 +1848,26 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
-      <c r="T4" s="5"/>
+      <c r="T4" s="6"/>
     </row>
     <row r="5" ht="15.5" spans="1:20">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E5" s="1">
         <v>2019</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G5" s="1">
         <v>3</v>
@@ -1839,11 +1879,11 @@
         <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -1851,26 +1891,26 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
-      <c r="T5" s="5"/>
+      <c r="T5" s="6"/>
     </row>
     <row r="6" ht="15.5" spans="1:20">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6" s="1">
         <v>2019</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G6" s="1">
         <v>4</v>
@@ -1879,14 +1919,14 @@
         <v>4</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -1894,26 +1934,26 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
-      <c r="T6" s="5"/>
+      <c r="T6" s="6"/>
     </row>
     <row r="7" ht="15.5" spans="1:20">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1">
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E7" s="1">
         <v>2020</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
@@ -1925,7 +1965,7 @@
         <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1" t="s">
@@ -1941,37 +1981,33 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1">
-        <f t="shared" ref="R7:R36" si="0">N7-P7-Q7</f>
+        <f>N7-P7-Q7</f>
         <v>46</v>
       </c>
       <c r="S7" t="s">
-        <v>42</v>
-      </c>
-      <c r="T7" s="5" t="s">
         <v>43</v>
       </c>
+      <c r="T7" s="6" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="8" ht="15.5" spans="2:18">
-      <c r="B8" s="1">
-        <v>7</v>
-      </c>
+      <c r="B8" s="1"/>
       <c r="C8" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E8" s="1">
         <v>2020</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="F8" s="1"/>
       <c r="G8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>8</v>
@@ -1979,95 +2015,83 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="M8" s="1"/>
-      <c r="N8" s="1">
-        <v>56</v>
-      </c>
-      <c r="O8" s="1">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>1</v>
-      </c>
-      <c r="R8" s="1">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" ht="15.5" spans="1:19">
-      <c r="A9" t="s">
-        <v>46</v>
-      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+    </row>
+    <row r="9" ht="15.5" spans="2:18">
       <c r="B9" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="E9" s="1">
         <v>2020</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>49</v>
+      <c r="F9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="G9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="K9" s="1"/>
       <c r="L9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="O9" s="1">
-        <v>24</v>
-      </c>
-      <c r="Q9" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>1</v>
+      </c>
       <c r="R9" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="S9" t="s">
+        <f>N9-P9-Q9</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" ht="15.5" spans="1:19">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="1">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" ht="15.5" spans="2:19">
-      <c r="B10" s="1">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="E10" s="1">
         <v>2020</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>8</v>
@@ -2076,179 +2100,182 @@
       <c r="K10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L10" s="1"/>
+      <c r="L10" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O10" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1">
-        <f t="shared" si="0"/>
+        <f>N10-P10-Q10</f>
+        <v>24</v>
+      </c>
+      <c r="S10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" ht="15.5" spans="2:19">
+      <c r="B11" s="1">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2020</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2</v>
+      </c>
+      <c r="H11" s="1">
+        <v>2</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1">
         <v>25</v>
       </c>
-      <c r="S10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" ht="15.5" spans="2:18">
-      <c r="B11" s="1">
-        <v>10</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="1">
-        <v>2019</v>
-      </c>
-      <c r="F11" s="1" t="s">
+      <c r="O11" s="1">
+        <v>25</v>
+      </c>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1">
+        <f>N11-P11-Q11</f>
+        <v>25</v>
+      </c>
+      <c r="S11" t="s">
         <v>55</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1">
-        <v>1</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="N11" s="1">
-        <v>32</v>
-      </c>
-      <c r="O11" s="1">
-        <v>18</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>1</v>
-      </c>
-      <c r="R11" s="1">
-        <f t="shared" si="0"/>
-        <v>31</v>
       </c>
     </row>
     <row r="12" ht="15.5" spans="2:18">
       <c r="B12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E12" s="1">
         <v>2019</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G12" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H12" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
+      <c r="M12" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="N12" s="1">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O12" s="1">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="Q12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R12" s="1">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" ht="15.5" spans="2:19">
+        <f>N12-P12-Q12</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" ht="15.5" spans="2:18">
       <c r="B13" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2019</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="1">
+        <v>3</v>
+      </c>
+      <c r="H13" s="1">
+        <v>3</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" s="1">
-        <v>2021</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="1">
-        <v>1</v>
-      </c>
-      <c r="H13" s="1">
-        <v>1</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="K13" s="1"/>
-      <c r="L13" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="O13" s="1">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="Q13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R13" s="1">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="S13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" ht="15.5" spans="2:18">
+        <f>N13-P13-Q13</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" ht="15.5" spans="1:19">
+      <c r="A14" t="s">
+        <v>62</v>
+      </c>
       <c r="B14" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E14" s="1">
-        <v>2021</v>
-      </c>
-      <c r="F14" s="1"/>
+        <v>2018</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="G14" s="1">
         <v>1</v>
       </c>
@@ -2259,7 +2286,7 @@
         <v>8</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1" t="s">
@@ -2267,42 +2294,50 @@
       </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="O14" s="1">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1">
-        <f t="shared" si="0"/>
+        <f>N14-P14-Q14</f>
+        <v>18</v>
+      </c>
+      <c r="S14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" ht="15.5" spans="1:19">
+      <c r="A15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" ht="15.5" spans="2:18">
-      <c r="B15" s="1">
-        <v>14</v>
-      </c>
       <c r="C15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="E15" s="1">
-        <v>2021</v>
-      </c>
-      <c r="F15" s="1"/>
+        <v>2018</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="G15" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H15" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1" t="s">
@@ -2310,42 +2345,47 @@
       </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="O15" s="1">
         <v>60</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" ht="15.5" spans="2:18">
+        <f>N15-P15-Q15</f>
+        <v>18</v>
+      </c>
+      <c r="S15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" ht="15.5" spans="2:19">
       <c r="B16" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E16" s="1">
         <v>2021</v>
       </c>
-      <c r="F16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="G16" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H16" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1" t="s">
@@ -2353,33 +2393,36 @@
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="O16" s="1">
-        <v>60</v>
-      </c>
-      <c r="Q16" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>1</v>
+      </c>
       <c r="R16" s="1">
-        <f t="shared" si="0"/>
-        <v>27</v>
+        <f>N16-P16-Q16</f>
+        <v>29</v>
+      </c>
+      <c r="S16" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="17" ht="15.5" spans="2:18">
       <c r="B17" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E17" s="1">
-        <v>2022</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>69</v>
-      </c>
+        <v>2021</v>
+      </c>
+      <c r="F17" s="1"/>
       <c r="G17" s="1">
         <v>1</v>
       </c>
@@ -2390,286 +2433,264 @@
         <v>8</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
+      <c r="L17" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="O17" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" ht="15.5" spans="2:19">
+        <f>N17-P17-Q17</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" ht="15.5" spans="2:18">
       <c r="B18" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E18" s="1">
-        <v>2022</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>69</v>
-      </c>
+        <v>2021</v>
+      </c>
+      <c r="F18" s="1"/>
       <c r="G18" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H18" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
+      <c r="L18" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="M18" s="1"/>
       <c r="N18" s="1">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O18" s="1">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1">
-        <f t="shared" si="0"/>
+        <f>N18-P18-Q18</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" ht="15.5" spans="2:18">
+      <c r="B19" s="1">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1">
+        <v>4</v>
+      </c>
+      <c r="H19" s="1">
+        <v>4</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="S18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" ht="15.5" spans="2:19">
-      <c r="B19" s="1">
-        <v>18</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" s="1">
-        <v>2022</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G19" s="1">
-        <v>3</v>
-      </c>
-      <c r="H19" s="1">
-        <v>3</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
+      <c r="L19" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="O19" s="1">
-        <v>100</v>
-      </c>
-      <c r="Q19" s="1">
-        <v>1</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="Q19" s="1"/>
       <c r="R19" s="1">
-        <f t="shared" si="0"/>
+        <f>N19-P19-Q19</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" ht="15.5" spans="2:18">
+      <c r="B20" s="1">
+        <v>18</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="S19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" ht="15.5" spans="2:19">
-      <c r="B20" s="1">
-        <v>19</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" s="1">
-        <v>2021</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G20" s="1">
-        <v>1</v>
-      </c>
-      <c r="H20" s="1">
-        <v>1</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="K20" s="1"/>
-      <c r="L20" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="O20" s="1">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1">
-        <f t="shared" si="0"/>
-        <v>105</v>
-      </c>
-      <c r="S20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" ht="15.5" spans="1:19">
-      <c r="A21" t="s">
-        <v>78</v>
-      </c>
+        <f>N20-P20-Q20</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" ht="15.5" spans="2:19">
       <c r="B21" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>79</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E21" s="1">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G21" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H21" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K21" s="1"/>
-      <c r="L21" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="O21" s="1">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <f>N21-P21-Q21</f>
+        <v>24</v>
       </c>
       <c r="S21" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" ht="15.5" spans="1:19">
-      <c r="A22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" ht="15.5" spans="2:19">
+      <c r="B22" s="1">
+        <v>20</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B22" s="1">
-        <v>21</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E22" s="1">
-        <v>2018</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="G22" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H22" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K22" s="1"/>
-      <c r="L22" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="O22" s="1">
-        <v>60</v>
-      </c>
-      <c r="Q22" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>1</v>
+      </c>
       <c r="R22" s="1">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <f>N22-P22-Q22</f>
+        <v>24</v>
       </c>
       <c r="S22" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="23" ht="15.5" spans="1:18">
-      <c r="A23" t="s">
-        <v>78</v>
-      </c>
+    <row r="23" ht="15.5" spans="2:19">
       <c r="B23" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E23" s="1">
-        <v>2023</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="G23" s="1">
         <v>1</v>
       </c>
@@ -2679,148 +2700,158 @@
       <c r="I23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J23" s="1"/>
+      <c r="J23" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M23" s="1"/>
       <c r="N23" s="1">
-        <v>298</v>
+        <v>105</v>
       </c>
       <c r="O23" s="1">
-        <v>16</v>
-      </c>
-      <c r="Q23" s="1">
-        <v>18</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="Q23" s="1"/>
       <c r="R23" s="1">
-        <f t="shared" si="0"/>
-        <v>280</v>
-      </c>
-    </row>
-    <row r="24" ht="15.5" spans="1:21">
+        <f>N23-P23-Q23</f>
+        <v>105</v>
+      </c>
+      <c r="S23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" ht="15.5" spans="1:18">
       <c r="A24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="1">
+        <v>22</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B24" s="1">
-        <v>23</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="E24" s="1">
         <v>2023</v>
       </c>
-      <c r="F24" s="1"/>
+      <c r="F24" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="G24" s="1">
         <v>1</v>
       </c>
-      <c r="H24" t="s">
-        <v>89</v>
+      <c r="H24" s="1">
+        <v>1</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
       <c r="L24" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="M24" s="1"/>
       <c r="N24" s="1">
+        <v>298</v>
+      </c>
+      <c r="O24" s="1">
+        <v>16</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>18</v>
+      </c>
+      <c r="R24" s="1">
+        <f t="shared" ref="R24:R37" si="0">N24-P24-Q24</f>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="25" ht="15.5" spans="1:21">
+      <c r="A25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" s="1">
         <v>23</v>
       </c>
-      <c r="O24" s="1">
-        <v>90</v>
-      </c>
-      <c r="P24" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="S24" t="s">
-        <v>90</v>
-      </c>
-      <c r="U24" t="s">
+      <c r="C25" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="25" ht="15.5" spans="2:18">
-      <c r="B25" s="1">
-        <v>24</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="D25" s="1" t="s">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="E25" s="1">
-        <v>2014</v>
+        <v>2023</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1">
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>11</v>
       </c>
       <c r="N25" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O25" s="1">
-        <v>40</v>
+        <v>90</v>
+      </c>
+      <c r="P25" s="1">
+        <v>3</v>
       </c>
       <c r="Q25" s="1"/>
       <c r="R25" s="1">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="S25" t="s">
+        <v>93</v>
+      </c>
+      <c r="U25" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="26" ht="15.5" spans="2:18">
       <c r="B26" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E26" s="1">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1">
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>11</v>
       </c>
       <c r="N26" s="1">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="O26" s="1">
         <v>40</v>
@@ -2828,40 +2859,40 @@
       <c r="Q26" s="1"/>
       <c r="R26" s="1">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" ht="15.5" spans="2:18">
       <c r="B27" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="E27" s="1">
         <v>2015</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>11</v>
       </c>
       <c r="N27" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O27" s="1">
         <v>40</v>
@@ -2869,90 +2900,84 @@
       <c r="Q27" s="1"/>
       <c r="R27" s="1">
         <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" ht="15.5" spans="1:19">
-      <c r="A28" t="s">
-        <v>97</v>
-      </c>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" ht="15.5" spans="2:18">
       <c r="B28" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E28" s="1">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="H28" t="s">
+        <v>97</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>11</v>
       </c>
       <c r="N28" s="1">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="O28" s="1">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="Q28" s="1"/>
       <c r="R28" s="1">
         <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="S28" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="15.5" spans="1:19">
       <c r="A29" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" s="1">
+        <v>27</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="B29" s="1">
-        <v>28</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="E29" s="1">
         <v>2014</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>11</v>
       </c>
       <c r="N29" s="1">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="O29" s="1">
         <v>60</v>
@@ -2960,7 +2985,7 @@
       <c r="Q29" s="1"/>
       <c r="R29" s="1">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="S29" t="s">
         <v>104</v>
@@ -2971,35 +2996,35 @@
         <v>105</v>
       </c>
       <c r="B30" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>106</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E30" s="1">
         <v>2014</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>11</v>
       </c>
       <c r="N30" s="1">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O30" s="1">
         <v>60</v>
@@ -3007,7 +3032,7 @@
       <c r="Q30" s="1"/>
       <c r="R30" s="1">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="S30" t="s">
         <v>107</v>
@@ -3018,35 +3043,35 @@
         <v>108</v>
       </c>
       <c r="B31" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>109</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E31" s="1">
         <v>2014</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>11</v>
       </c>
       <c r="N31" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="O31" s="1">
         <v>60</v>
@@ -3054,42 +3079,46 @@
       <c r="Q31" s="1"/>
       <c r="R31" s="1">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="S31" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="32" ht="15.5" spans="2:18">
+    <row r="32" ht="15.5" spans="1:19">
+      <c r="A32" t="s">
+        <v>111</v>
+      </c>
       <c r="B32" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D32" s="2" t="s">
         <v>112</v>
       </c>
+      <c r="D32" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="E32" s="1">
-        <v>2023</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>113</v>
-      </c>
+        <v>2014</v>
+      </c>
+      <c r="F32" s="1"/>
       <c r="G32" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>11</v>
       </c>
       <c r="N32" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="O32" s="1">
         <v>60</v>
@@ -3097,12 +3126,15 @@
       <c r="Q32" s="1"/>
       <c r="R32" s="1">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>20</v>
+      </c>
+      <c r="S32" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="33" ht="15.5" spans="2:18">
       <c r="B33" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>114</v>
@@ -3125,29 +3157,24 @@
       <c r="I33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J33" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="L33" s="1" t="s">
         <v>11</v>
       </c>
       <c r="N33" s="1">
-        <v>144</v>
+        <v>40</v>
       </c>
       <c r="O33" s="1">
-        <v>20</v>
-      </c>
-      <c r="Q33" s="1">
-        <v>2</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="Q33" s="1"/>
       <c r="R33" s="1">
         <f t="shared" si="0"/>
-        <v>142</v>
-      </c>
-    </row>
-    <row r="34" ht="15.5" spans="2:20">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" ht="15.5" spans="2:18">
       <c r="B34" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>117</v>
@@ -3156,7 +3183,7 @@
         <v>118</v>
       </c>
       <c r="E34" s="1">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>119</v>
@@ -3171,80 +3198,82 @@
         <v>8</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>11</v>
       </c>
       <c r="N34" s="1">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="O34" s="1">
-        <v>60</v>
-      </c>
-      <c r="Q34">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>2</v>
       </c>
       <c r="R34" s="1">
         <f t="shared" si="0"/>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" ht="15.5" spans="2:20">
+      <c r="B35" s="1">
+        <v>33</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E35" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N35" s="1">
+        <v>109</v>
+      </c>
+      <c r="O35" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q35">
+        <v>1</v>
+      </c>
+      <c r="R35" s="1">
+        <f t="shared" si="0"/>
         <v>108</v>
       </c>
-      <c r="S34" t="s">
-        <v>120</v>
-      </c>
-      <c r="T34" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="35" ht="15.5" spans="1:20">
-      <c r="A35" t="s">
-        <v>122</v>
-      </c>
-      <c r="B35" s="1">
+      <c r="S35" t="s">
+        <v>123</v>
+      </c>
+      <c r="T35" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" ht="15.5" spans="1:20">
+      <c r="A36" t="s">
+        <v>125</v>
+      </c>
+      <c r="B36" s="1">
         <v>34</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E35" s="1">
-        <v>2023</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G35" s="1">
-        <v>1</v>
-      </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L35" s="1"/>
-      <c r="N35" s="1">
-        <v>40</v>
-      </c>
-      <c r="O35" s="1">
-        <v>100</v>
-      </c>
-      <c r="P35">
-        <v>1</v>
-      </c>
-      <c r="R35" s="1">
-        <v>38</v>
-      </c>
-      <c r="T35" s="5"/>
-    </row>
-    <row r="36" ht="15.5" spans="2:19">
-      <c r="B36" s="1">
-        <v>35</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>126</v>
@@ -3253,9 +3282,11 @@
         <v>127</v>
       </c>
       <c r="E36" s="1">
-        <v>2022</v>
-      </c>
-      <c r="F36" s="1"/>
+        <v>2023</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="G36" s="1">
         <v>1</v>
       </c>
@@ -3265,46 +3296,43 @@
       <c r="I36" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J36" s="1"/>
-      <c r="L36" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="J36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L36" s="1"/>
       <c r="N36" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="O36" s="1">
-        <v>60</v>
-      </c>
-      <c r="Q36">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="P36">
+        <v>1</v>
       </c>
       <c r="R36" s="1">
-        <f>N36-P36-Q36</f>
-        <v>27</v>
-      </c>
-      <c r="S36" t="s">
-        <v>128</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="T36" s="6"/>
     </row>
     <row r="37" ht="15.5" spans="2:19">
       <c r="B37" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>129</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E37" s="1">
         <v>2022</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>8</v>
@@ -3314,72 +3342,335 @@
         <v>11</v>
       </c>
       <c r="N37" s="1">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="O37" s="1">
         <v>60</v>
       </c>
       <c r="Q37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R37" s="1">
         <f>N37-P37-Q37</f>
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="S37" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="38" ht="15.5" spans="1:18">
-      <c r="A38" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="38" ht="15.5" spans="2:19">
+      <c r="B38" s="1">
+        <v>36</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="B38" s="1">
-        <v>37</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="E38" s="1">
         <v>2022</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G38">
-        <v>1</v>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1">
+        <v>2</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J38" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K38" s="1"/>
+      <c r="J38" s="1"/>
       <c r="L38" s="1" t="s">
         <v>11</v>
       </c>
       <c r="N38" s="1">
+        <v>48</v>
+      </c>
+      <c r="O38" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q38">
+        <v>2</v>
+      </c>
+      <c r="R38" s="1">
+        <f>N38-P38-Q38</f>
+        <v>46</v>
+      </c>
+      <c r="S38" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" ht="15.5" spans="1:18">
+      <c r="A39" t="s">
+        <v>133</v>
+      </c>
+      <c r="B39" s="1">
+        <v>37</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E39" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1</v>
+      </c>
+      <c r="H39" s="1">
+        <v>1</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N39" s="1">
         <v>328</v>
       </c>
-      <c r="O38" s="1">
+      <c r="O39" s="1">
         <v>120</v>
       </c>
-      <c r="P38" s="1">
+      <c r="P39" s="1">
         <v>40</v>
       </c>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1">
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1">
         <v>288</v>
       </c>
     </row>
+    <row r="40" ht="15.5" spans="2:13">
+      <c r="B40" s="1">
+        <v>38</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="1">
+        <v>2020</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G40" s="1">
+        <v>1</v>
+      </c>
+      <c r="H40" s="1">
+        <v>1</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" ht="15.5" spans="2:13">
+      <c r="B41" s="1">
+        <v>39</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E41" s="1">
+        <v>2020</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1</v>
+      </c>
+      <c r="H41" s="1">
+        <v>1</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" ht="15.5" spans="2:13">
+      <c r="B42" s="1">
+        <v>40</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" s="1">
+        <v>2020</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G42" s="1">
+        <v>1</v>
+      </c>
+      <c r="H42" s="1">
+        <v>1</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" ht="15.5" spans="2:10">
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+    </row>
+    <row r="44" ht="15.5" spans="2:10">
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+    </row>
+    <row r="45" ht="15.5" spans="2:10">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+    </row>
+    <row r="46" ht="15.5" spans="2:10">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+    </row>
+    <row r="47" ht="15.5" spans="2:10">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+    </row>
+    <row r="48" ht="15.5" spans="2:10">
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+    </row>
+    <row r="49" ht="15.5" spans="3:3">
+      <c r="C49" s="2"/>
+    </row>
+    <row r="50" ht="15.5" spans="3:3">
+      <c r="C50" s="2"/>
+    </row>
+    <row r="51" ht="15.5" spans="3:3">
+      <c r="C51" s="2"/>
+    </row>
+    <row r="52" ht="15.5" spans="3:3">
+      <c r="C52" s="2"/>
+    </row>
+    <row r="53" ht="15.5" spans="3:3">
+      <c r="C53" s="2"/>
+    </row>
+    <row r="54" ht="15.5" spans="3:3">
+      <c r="C54" s="2"/>
+    </row>
+    <row r="55" ht="15.5" spans="3:3">
+      <c r="C55" s="2"/>
+    </row>
+    <row r="56" ht="15.5" spans="3:3">
+      <c r="C56" s="2"/>
+    </row>
+    <row r="57" ht="15.5" spans="3:3">
+      <c r="C57" s="2"/>
+    </row>
+    <row r="58" ht="15.5" spans="3:3">
+      <c r="C58" s="2"/>
+    </row>
+    <row r="59" ht="15.5" spans="3:3">
+      <c r="C59" s="2"/>
+    </row>
+    <row r="60" ht="15.5" spans="3:3">
+      <c r="C60" s="2"/>
+    </row>
+    <row r="61" ht="15.5" spans="3:3">
+      <c r="C61" s="2"/>
+    </row>
+    <row r="62" ht="15.5" spans="3:3">
+      <c r="C62" s="2"/>
+    </row>
+    <row r="63" ht="15.5" spans="3:3">
+      <c r="C63" s="2"/>
+    </row>
+    <row r="64" ht="15.5" spans="3:3">
+      <c r="C64" s="2"/>
+    </row>
+    <row r="65" ht="15.5" spans="3:3">
+      <c r="C65" s="2"/>
+    </row>
+    <row r="66" ht="15.5" spans="3:3">
+      <c r="C66" s="2"/>
+    </row>
   </sheetData>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:U39" etc:filterBottomFollowUsedRange="0">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/Label.xlsx
+++ b/Label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29400" windowHeight="12480"/>
+    <workbookView windowWidth="29400" windowHeight="12380"/>
   </bookViews>
   <sheets>
     <sheet name="Label" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="146">
   <si>
     <t>Note</t>
   </si>
@@ -631,6 +631,9 @@
   </si>
   <si>
     <t>symmetry: (symmetry; asymmetry)</t>
+  </si>
+  <si>
+    <t>PsychoPy3</t>
   </si>
   <si>
     <t>Pt6E2</t>
@@ -818,7 +821,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -828,12 +831,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1165,7 +1162,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1189,16 +1186,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1207,16 +1204,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1225,10 +1225,10 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1237,10 +1237,10 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1249,10 +1249,10 @@
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1261,10 +1261,10 @@
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1273,10 +1273,10 @@
     <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1285,11 +1285,8 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1312,9 +1309,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1638,10 +1632,10 @@
   <sheetPr/>
   <dimension ref="A1:Y66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" topLeftCell="A12" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="S1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="R1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="AA6" sqref="AA6"/>
+      <selection pane="topRight" activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1809,7 +1803,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" ht="17.6" spans="1:22">
+    <row r="3" ht="17.6" spans="1:24">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -1851,11 +1845,17 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="T3" s="6"/>
-      <c r="V3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" ht="17.6" spans="1:20">
+      <c r="V3" s="7">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" ht="17.6" spans="1:24">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -1897,8 +1897,17 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
       <c r="T4" s="6"/>
-    </row>
-    <row r="5" ht="17.6" spans="1:20">
+      <c r="V4" s="7">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" ht="17.6" spans="1:24">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -1940,8 +1949,17 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
       <c r="T5" s="6"/>
-    </row>
-    <row r="6" ht="17.6" spans="1:20">
+      <c r="V5" s="7">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" ht="17.6" spans="1:24">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -1983,8 +2001,17 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="T6" s="6"/>
-    </row>
-    <row r="7" ht="17.6" spans="1:20">
+      <c r="V6" s="7">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" ht="17.6" spans="1:24">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -2037,6 +2064,15 @@
       </c>
       <c r="T7" s="6" t="s">
         <v>48</v>
+      </c>
+      <c r="V7" s="7">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" ht="17.6" spans="2:25">
@@ -2083,7 +2119,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" ht="17.6" spans="2:18">
+    <row r="9" ht="17.6" spans="2:24">
       <c r="B9" s="2">
         <v>7</v>
       </c>
@@ -2127,8 +2163,17 @@
         <f t="shared" ref="R9:R23" si="0">N9-P9-Q9</f>
         <v>55</v>
       </c>
-    </row>
-    <row r="10" ht="18" spans="1:19">
+      <c r="V9" s="7">
+        <v>1</v>
+      </c>
+      <c r="W9" s="7">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" ht="18" spans="1:24">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -2178,8 +2223,17 @@
       <c r="S10" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="11" ht="18" spans="2:19">
+      <c r="V10" s="7">
+        <v>1</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" ht="18" spans="2:24">
       <c r="B11" s="2">
         <v>9</v>
       </c>
@@ -2223,6 +2277,15 @@
       </c>
       <c r="S11" t="s">
         <v>60</v>
+      </c>
+      <c r="V11" s="7">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" ht="17.6" spans="2:25">
@@ -2890,7 +2953,15 @@
       <c r="S23" t="s">
         <v>91</v>
       </c>
-      <c r="V23" s="8"/>
+      <c r="V23" s="7">
+        <v>1</v>
+      </c>
+      <c r="W23" s="7">
+        <v>1</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
       <c r="Y23" s="1" t="s">
         <v>30</v>
       </c>
@@ -3552,7 +3623,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" ht="17.6" spans="2:19">
+    <row r="37" ht="17.6" spans="2:25">
       <c r="B37" s="2">
         <v>35</v>
       </c>
@@ -3595,13 +3666,25 @@
       <c r="S37" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="38" ht="17.6" spans="2:19">
+      <c r="V37" s="7">
+        <v>1</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" ht="17.6" spans="2:25">
       <c r="B38" s="2">
         <v>36</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>135</v>
@@ -3639,25 +3722,37 @@
       <c r="S38" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="39" ht="17.6" spans="1:18">
+      <c r="V38" s="7">
+        <v>1</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" ht="17.6" spans="1:24">
       <c r="A39" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B39" s="2">
         <v>37</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E39" s="2">
         <v>2022</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G39" s="2">
         <v>1</v>
@@ -3688,13 +3783,22 @@
       <c r="R39" s="2">
         <v>288</v>
       </c>
-    </row>
-    <row r="40" ht="17.6" spans="2:13">
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39" s="7">
+        <v>1</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" ht="17.6" spans="2:24">
       <c r="B40" s="2">
         <v>38</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>69</v>
@@ -3720,13 +3824,22 @@
       <c r="M40" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="41" ht="17.6" spans="2:13">
+      <c r="V40" s="7">
+        <v>1</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" ht="17.6" spans="2:24">
       <c r="B41" s="2">
         <v>39</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>69</v>
@@ -3752,13 +3865,22 @@
       <c r="M41" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="42" ht="17.6" spans="2:13">
+      <c r="V41" s="7">
+        <v>1</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" ht="17.6" spans="2:24">
       <c r="B42" s="2">
         <v>40</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>69</v>
@@ -3783,6 +3905,15 @@
       </c>
       <c r="M42" s="2" t="s">
         <v>65</v>
+      </c>
+      <c r="V42" s="7">
+        <v>1</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
       </c>
     </row>
     <row r="43" ht="17.6" spans="2:10">

--- a/Label.xlsx
+++ b/Label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29400" windowHeight="12480"/>
+    <workbookView windowWidth="25600" windowHeight="10480"/>
   </bookViews>
   <sheets>
     <sheet name="Label" sheetId="1" r:id="rId1"/>
@@ -1308,10 +1308,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
@@ -1638,37 +1638,40 @@
   <sheetPr/>
   <dimension ref="A1:Y66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" topLeftCell="A12" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="S1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="AA6" sqref="AA6"/>
+      <selection pane="topRight" activeCell="U44" sqref="U44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="14.4196428571429" customWidth="1"/>
+    <col min="1" max="1" width="14.4166666666667" customWidth="1"/>
     <col min="2" max="2" width="3.625" customWidth="1"/>
-    <col min="3" max="3" width="9.16964285714286" customWidth="1"/>
+    <col min="3" max="3" width="9.16666666666667" customWidth="1"/>
     <col min="4" max="4" width="19.75" customWidth="1"/>
-    <col min="6" max="6" width="67.0803571428571" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="67.0833333333333" customWidth="1"/>
     <col min="7" max="7" width="4.625" customWidth="1"/>
-    <col min="10" max="10" width="20.0803571428571" customWidth="1"/>
+    <col min="8" max="9" width="9" customWidth="1"/>
+    <col min="10" max="10" width="20.0833333333333" customWidth="1"/>
     <col min="11" max="11" width="8.625" customWidth="1"/>
-    <col min="12" max="12" width="21.5803571428571" customWidth="1"/>
+    <col min="12" max="12" width="21.5833333333333" customWidth="1"/>
     <col min="13" max="13" width="10.5" customWidth="1"/>
     <col min="14" max="14" width="11.625" customWidth="1"/>
     <col min="15" max="15" width="6" customWidth="1"/>
     <col min="16" max="16" width="8.75" customWidth="1"/>
     <col min="17" max="17" width="9.375" customWidth="1"/>
+    <col min="18" max="18" width="9" customWidth="1"/>
     <col min="19" max="19" width="37" customWidth="1"/>
     <col min="20" max="20" width="29" customWidth="1"/>
-    <col min="22" max="22" width="13.4642857142857" customWidth="1"/>
-    <col min="23" max="23" width="13.75" customWidth="1"/>
-    <col min="24" max="24" width="13.6071428571429" customWidth="1"/>
-    <col min="25" max="25" width="21.125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="13.25" customWidth="1"/>
+    <col min="23" max="23" width="17.4166666666667" customWidth="1"/>
+    <col min="24" max="24" width="8.66666666666667" customWidth="1"/>
+    <col min="25" max="25" width="23.8333333333333" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.6" spans="1:25">
+    <row r="1" ht="15.5" spans="1:25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1745,7 +1748,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" ht="17.6" spans="2:25">
+    <row r="2" ht="15.5" spans="2:25">
       <c r="B2" s="2">
         <v>1</v>
       </c>
@@ -1796,7 +1799,7 @@
       <c r="T2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="V2" s="7">
+      <c r="V2" s="6">
         <v>1</v>
       </c>
       <c r="W2">
@@ -1809,7 +1812,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" ht="17.6" spans="1:22">
+    <row r="3" ht="15.5" spans="1:22">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -1850,12 +1853,12 @@
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
-      <c r="T3" s="6"/>
+      <c r="T3" s="7"/>
       <c r="V3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" ht="17.6" spans="1:20">
+    <row r="4" ht="15.5" spans="1:20">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -1896,9 +1899,9 @@
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
-      <c r="T4" s="6"/>
-    </row>
-    <row r="5" ht="17.6" spans="1:20">
+      <c r="T4" s="7"/>
+    </row>
+    <row r="5" ht="15.5" spans="1:20">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -1939,9 +1942,9 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
-      <c r="T5" s="6"/>
-    </row>
-    <row r="6" ht="17.6" spans="1:20">
+      <c r="T5" s="7"/>
+    </row>
+    <row r="6" ht="15.5" spans="1:20">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -1982,9 +1985,9 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
-      <c r="T6" s="6"/>
-    </row>
-    <row r="7" ht="17.6" spans="1:20">
+      <c r="T6" s="7"/>
+    </row>
+    <row r="7" ht="15.5" spans="1:20">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -2035,11 +2038,11 @@
       <c r="S7" t="s">
         <v>47</v>
       </c>
-      <c r="T7" s="6" t="s">
+      <c r="T7" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" ht="17.6" spans="2:25">
+    <row r="8" ht="15.5" spans="2:25">
       <c r="B8" s="2"/>
       <c r="C8" s="3" t="s">
         <v>49</v>
@@ -2070,7 +2073,7 @@
       <c r="O8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
-      <c r="V8" s="7">
+      <c r="V8" s="6">
         <v>1</v>
       </c>
       <c r="W8">
@@ -2083,7 +2086,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" ht="17.6" spans="2:18">
+    <row r="9" ht="15.5" spans="2:18">
       <c r="B9" s="2">
         <v>7</v>
       </c>
@@ -2128,7 +2131,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" ht="18" spans="1:19">
+    <row r="10" ht="15.5" spans="1:19">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -2179,7 +2182,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" ht="18" spans="2:19">
+    <row r="11" ht="15.5" spans="2:19">
       <c r="B11" s="2">
         <v>9</v>
       </c>
@@ -2225,7 +2228,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" ht="17.6" spans="2:25">
+    <row r="12" ht="15.5" spans="2:25">
       <c r="B12" s="2">
         <v>10</v>
       </c>
@@ -2271,10 +2274,10 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="V12" s="7">
-        <v>1</v>
-      </c>
-      <c r="W12" s="7">
+      <c r="V12" s="6">
+        <v>1</v>
+      </c>
+      <c r="W12" s="6">
         <v>1</v>
       </c>
       <c r="X12">
@@ -2284,7 +2287,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" ht="17.6" spans="2:18">
+    <row r="13" ht="15.5" spans="2:18">
       <c r="B13" s="2">
         <v>11</v>
       </c>
@@ -2329,7 +2332,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" ht="17.6" spans="1:25">
+    <row r="14" ht="15.5" spans="1:25">
       <c r="A14" t="s">
         <v>67</v>
       </c>
@@ -2379,20 +2382,20 @@
       <c r="S14" t="s">
         <v>71</v>
       </c>
-      <c r="V14" s="7">
+      <c r="V14" s="6">
         <v>1</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
-      <c r="X14" s="7">
+      <c r="X14" s="6">
         <v>1</v>
       </c>
       <c r="Y14" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" ht="17.6" spans="1:25">
+    <row r="15" ht="15.5" spans="1:25">
       <c r="A15" t="s">
         <v>67</v>
       </c>
@@ -2442,20 +2445,20 @@
       <c r="S15" t="s">
         <v>71</v>
       </c>
-      <c r="V15" s="7">
+      <c r="V15" s="6">
         <v>1</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
-      <c r="X15" s="7">
+      <c r="X15" s="6">
         <v>1</v>
       </c>
       <c r="Y15" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" ht="17.6" spans="2:24">
+    <row r="16" ht="15.5" spans="2:24">
       <c r="B16" s="2">
         <v>14</v>
       </c>
@@ -2504,7 +2507,7 @@
       <c r="S16" t="s">
         <v>75</v>
       </c>
-      <c r="V16" s="7">
+      <c r="V16" s="6">
         <v>1</v>
       </c>
       <c r="W16">
@@ -2514,7 +2517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" ht="17.6" spans="2:25">
+    <row r="17" ht="15.5" spans="2:25">
       <c r="B17" s="2">
         <v>15</v>
       </c>
@@ -2556,7 +2559,7 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="V17" s="7">
+      <c r="V17" s="6">
         <v>1</v>
       </c>
       <c r="W17">
@@ -2569,7 +2572,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" ht="17.6" spans="2:25">
+    <row r="18" ht="15.5" spans="2:25">
       <c r="B18" s="2">
         <v>16</v>
       </c>
@@ -2611,7 +2614,7 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="V18" s="7">
+      <c r="V18" s="6">
         <v>1</v>
       </c>
       <c r="W18">
@@ -2624,7 +2627,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" ht="17.6" spans="2:25">
+    <row r="19" ht="15.5" spans="2:25">
       <c r="B19" s="2">
         <v>17</v>
       </c>
@@ -2666,7 +2669,7 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="V19" s="7">
+      <c r="V19" s="6">
         <v>1</v>
       </c>
       <c r="W19">
@@ -2679,7 +2682,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" ht="17.6" spans="2:24">
+    <row r="20" ht="15.5" spans="2:24">
       <c r="B20" s="2">
         <v>18</v>
       </c>
@@ -2721,7 +2724,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="V20" s="7">
+      <c r="V20" s="6">
         <v>1</v>
       </c>
       <c r="W20">
@@ -2731,7 +2734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" ht="17.6" spans="2:24">
+    <row r="21" ht="15.5" spans="2:24">
       <c r="B21" s="2">
         <v>19</v>
       </c>
@@ -2776,7 +2779,7 @@
       <c r="S21" t="s">
         <v>85</v>
       </c>
-      <c r="V21" s="7">
+      <c r="V21" s="6">
         <v>1</v>
       </c>
       <c r="W21">
@@ -2786,7 +2789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" ht="17.6" spans="2:24">
+    <row r="22" ht="15.5" spans="2:24">
       <c r="B22" s="2">
         <v>20</v>
       </c>
@@ -2833,7 +2836,7 @@
       <c r="S22" t="s">
         <v>87</v>
       </c>
-      <c r="V22" s="7">
+      <c r="V22" s="6">
         <v>1</v>
       </c>
       <c r="W22">
@@ -2843,7 +2846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" ht="17.6" spans="2:25">
+    <row r="23" ht="15.5" spans="2:25">
       <c r="B23" s="2">
         <v>21</v>
       </c>
@@ -2895,7 +2898,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" ht="17.6" spans="1:24">
+    <row r="24" ht="15.5" spans="1:24">
       <c r="A24" t="s">
         <v>67</v>
       </c>
@@ -2942,17 +2945,17 @@
         <f t="shared" ref="R24:R37" si="1">N24-P24-Q24</f>
         <v>280</v>
       </c>
-      <c r="V24" s="7">
-        <v>1</v>
-      </c>
-      <c r="W24" s="7">
+      <c r="V24" s="6">
+        <v>1</v>
+      </c>
+      <c r="W24" s="6">
         <v>1</v>
       </c>
       <c r="X24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" ht="17.6" spans="1:25">
+    <row r="25" ht="15.5" spans="1:25">
       <c r="A25" t="s">
         <v>95</v>
       </c>
@@ -3001,20 +3004,20 @@
       <c r="U25" t="s">
         <v>99</v>
       </c>
-      <c r="V25" s="7">
+      <c r="V25" s="6">
         <v>1</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
-      <c r="X25" s="7">
+      <c r="X25" s="6">
         <v>1</v>
       </c>
       <c r="Y25" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" ht="17.6" spans="2:18">
+    <row r="26" ht="15.5" spans="2:18">
       <c r="B26" s="2">
         <v>24</v>
       </c>
@@ -3055,7 +3058,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" ht="17.6" spans="2:18">
+    <row r="27" ht="15.5" spans="2:18">
       <c r="B27" s="2">
         <v>25</v>
       </c>
@@ -3096,7 +3099,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" ht="17.6" spans="2:18">
+    <row r="28" ht="15.5" spans="2:18">
       <c r="B28" s="2">
         <v>26</v>
       </c>
@@ -3137,7 +3140,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" ht="17.6" spans="1:19">
+    <row r="29" ht="15.5" spans="1:19">
       <c r="A29" t="s">
         <v>105</v>
       </c>
@@ -3184,7 +3187,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" ht="17.6" spans="1:19">
+    <row r="30" ht="15.5" spans="1:19">
       <c r="A30" t="s">
         <v>110</v>
       </c>
@@ -3231,7 +3234,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="31" ht="17.6" spans="1:19">
+    <row r="31" ht="15.5" spans="1:19">
       <c r="A31" t="s">
         <v>113</v>
       </c>
@@ -3278,7 +3281,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="32" ht="17.6" spans="1:19">
+    <row r="32" ht="15.5" spans="1:19">
       <c r="A32" t="s">
         <v>116</v>
       </c>
@@ -3325,7 +3328,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="33" ht="17.6" spans="2:25">
+    <row r="33" ht="15.5" spans="2:25">
       <c r="B33" s="2">
         <v>31</v>
       </c>
@@ -3364,20 +3367,20 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="V33" s="7">
+      <c r="V33" s="6">
         <v>1</v>
       </c>
       <c r="W33">
         <v>0</v>
       </c>
-      <c r="X33" s="7">
+      <c r="X33" s="6">
         <v>1</v>
       </c>
       <c r="Y33" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" ht="17.6" spans="2:24">
+    <row r="34" ht="15.5" spans="2:24">
       <c r="B34" s="2">
         <v>32</v>
       </c>
@@ -3421,17 +3424,17 @@
         <f t="shared" si="1"/>
         <v>142</v>
       </c>
-      <c r="V34" s="7">
-        <v>1</v>
-      </c>
-      <c r="W34" s="7">
+      <c r="V34" s="6">
+        <v>1</v>
+      </c>
+      <c r="W34" s="6">
         <v>1</v>
       </c>
       <c r="X34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" ht="17.6" spans="2:25">
+    <row r="35" ht="15.5" spans="2:25">
       <c r="B35" s="2">
         <v>33</v>
       </c>
@@ -3478,10 +3481,10 @@
       <c r="S35" t="s">
         <v>128</v>
       </c>
-      <c r="T35" s="6" t="s">
+      <c r="T35" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="V35" s="7">
+      <c r="V35" s="6">
         <v>1</v>
       </c>
       <c r="W35">
@@ -3494,7 +3497,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" ht="17.6" spans="1:25">
+    <row r="36" ht="15.5" spans="1:25">
       <c r="A36" t="s">
         <v>130</v>
       </c>
@@ -3538,8 +3541,8 @@
       <c r="R36" s="2">
         <v>38</v>
       </c>
-      <c r="T36" s="6"/>
-      <c r="V36" s="7">
+      <c r="T36" s="7"/>
+      <c r="V36" s="6">
         <v>1</v>
       </c>
       <c r="W36">
@@ -3552,7 +3555,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" ht="17.6" spans="2:19">
+    <row r="37" ht="15.5" spans="2:19">
       <c r="B37" s="2">
         <v>35</v>
       </c>
@@ -3596,7 +3599,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="38" ht="17.6" spans="2:19">
+    <row r="38" ht="15.5" spans="2:19">
       <c r="B38" s="2">
         <v>36</v>
       </c>
@@ -3640,7 +3643,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="39" ht="17.6" spans="1:18">
+    <row r="39" ht="15.5" spans="1:18">
       <c r="A39" t="s">
         <v>138</v>
       </c>
@@ -3689,7 +3692,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="40" ht="17.6" spans="2:13">
+    <row r="40" ht="15.5" spans="2:13">
       <c r="B40" s="2">
         <v>38</v>
       </c>
@@ -3721,7 +3724,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="41" ht="17.6" spans="2:13">
+    <row r="41" ht="15.5" spans="2:13">
       <c r="B41" s="2">
         <v>39</v>
       </c>
@@ -3753,7 +3756,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" ht="17.6" spans="2:13">
+    <row r="42" ht="15.5" spans="2:13">
       <c r="B42" s="2">
         <v>40</v>
       </c>
@@ -3785,7 +3788,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" ht="17.6" spans="2:10">
+    <row r="43" ht="15.5" spans="2:10">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -3796,7 +3799,7 @@
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" ht="17.6" spans="2:10">
+    <row r="44" ht="15.5" spans="2:10">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -3807,7 +3810,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" ht="17.6" spans="2:10">
+    <row r="45" ht="15.5" spans="2:10">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -3818,7 +3821,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" ht="17.6" spans="2:10">
+    <row r="46" ht="15.5" spans="2:10">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -3829,7 +3832,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" ht="17.6" spans="2:10">
+    <row r="47" ht="15.5" spans="2:10">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -3840,7 +3843,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" ht="17.6" spans="2:10">
+    <row r="48" ht="15.5" spans="2:10">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -3851,58 +3854,58 @@
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" ht="17.6" spans="3:3">
+    <row r="49" ht="15.5" spans="3:3">
       <c r="C49" s="3"/>
     </row>
-    <row r="50" ht="17.6" spans="3:3">
+    <row r="50" ht="15.5" spans="3:3">
       <c r="C50" s="3"/>
     </row>
-    <row r="51" ht="17.6" spans="3:3">
+    <row r="51" ht="15.5" spans="3:3">
       <c r="C51" s="3"/>
     </row>
-    <row r="52" ht="17.6" spans="3:3">
+    <row r="52" ht="15.5" spans="3:3">
       <c r="C52" s="3"/>
     </row>
-    <row r="53" ht="17.6" spans="3:3">
+    <row r="53" ht="15.5" spans="3:3">
       <c r="C53" s="3"/>
     </row>
-    <row r="54" ht="17.6" spans="3:3">
+    <row r="54" ht="15.5" spans="3:3">
       <c r="C54" s="3"/>
     </row>
-    <row r="55" ht="17.6" spans="3:3">
+    <row r="55" ht="15.5" spans="3:3">
       <c r="C55" s="3"/>
     </row>
-    <row r="56" ht="17.6" spans="3:3">
+    <row r="56" ht="15.5" spans="3:3">
       <c r="C56" s="3"/>
     </row>
-    <row r="57" ht="17.6" spans="3:3">
+    <row r="57" ht="15.5" spans="3:3">
       <c r="C57" s="3"/>
     </row>
-    <row r="58" ht="17.6" spans="3:3">
+    <row r="58" ht="15.5" spans="3:3">
       <c r="C58" s="3"/>
     </row>
-    <row r="59" ht="17.6" spans="3:3">
+    <row r="59" ht="15.5" spans="3:3">
       <c r="C59" s="3"/>
     </row>
-    <row r="60" ht="17.6" spans="3:3">
+    <row r="60" ht="15.5" spans="3:3">
       <c r="C60" s="3"/>
     </row>
-    <row r="61" ht="17.6" spans="3:3">
+    <row r="61" ht="15.5" spans="3:3">
       <c r="C61" s="3"/>
     </row>
-    <row r="62" ht="17.6" spans="3:3">
+    <row r="62" ht="15.5" spans="3:3">
       <c r="C62" s="3"/>
     </row>
-    <row r="63" ht="17.6" spans="3:3">
+    <row r="63" ht="15.5" spans="3:3">
       <c r="C63" s="3"/>
     </row>
-    <row r="64" ht="17.6" spans="3:3">
+    <row r="64" ht="15.5" spans="3:3">
       <c r="C64" s="3"/>
     </row>
-    <row r="65" ht="17.6" spans="3:3">
+    <row r="65" ht="15.5" spans="3:3">
       <c r="C65" s="3"/>
     </row>
-    <row r="66" ht="17.6" spans="3:3">
+    <row r="66" ht="15.5" spans="3:3">
       <c r="C66" s="3"/>
     </row>
   </sheetData>

--- a/Label.xlsx
+++ b/Label.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19950" windowHeight="10480"/>
+    <workbookView windowWidth="24750" windowHeight="10480"/>
   </bookViews>
   <sheets>
     <sheet name="Label" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Label!$A$1:$V$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Label!$A$1:$S$47</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="180">
   <si>
     <t>Note</t>
   </si>
@@ -66,25 +66,16 @@
     <t>Close</t>
   </si>
   <si>
-    <t>Celebrity</t>
-  </si>
-  <si>
-    <t>Stranger</t>
-  </si>
-  <si>
-    <t>NonPerson</t>
+    <t>Others</t>
   </si>
   <si>
     <t>Sample_Size</t>
   </si>
   <si>
-    <t>Trials</t>
+    <t>Formal_Trials</t>
   </si>
   <si>
-    <t>Drop_Exp</t>
-  </si>
-  <si>
-    <t>Drop_ACC</t>
+    <t>Drop_Subject</t>
   </si>
   <si>
     <t>Remain</t>
@@ -111,55 +102,13 @@
     <t>Environmental Information</t>
   </si>
   <si>
-    <t>P0E1</t>
+    <t>Stimu_language</t>
   </si>
   <si>
-    <t>P0</t>
+    <t>Male</t>
   </si>
   <si>
-    <t>Hu et al.</t>
-  </si>
-  <si>
-    <t>Friend</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Emotion: (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Control</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, Neutral, Happay, Sad)</t>
-    </r>
-  </si>
-  <si>
-    <t>1, 2, 3, 4, 5, 6</t>
-  </si>
-  <si>
-    <t>E-prime2.0</t>
+    <t>Female</t>
   </si>
   <si>
     <t>Pair Number</t>
@@ -181,6 +130,9 @@
   </si>
   <si>
     <t>They/Alone</t>
+  </si>
+  <si>
+    <t>Hungarian.</t>
   </si>
   <si>
     <t>P5E2</t>
@@ -216,6 +168,9 @@
     <t>Partner</t>
   </si>
   <si>
+    <t>Stranger</t>
+  </si>
+  <si>
     <t>Switch Identity: (Partner, Stranger)</t>
   </si>
   <si>
@@ -248,6 +203,9 @@
     <t>P20</t>
   </si>
   <si>
+    <t>Hu et al.</t>
+  </si>
+  <si>
     <t>Other</t>
   </si>
   <si>
@@ -278,10 +236,16 @@
     <t>Quarterly Journal of Experimental Psychology</t>
   </si>
   <si>
+    <t>Stranger/Celebrity</t>
+  </si>
+  <si>
     <t>Mood</t>
   </si>
   <si>
     <t>P51E2</t>
+  </si>
+  <si>
+    <t>Celebrity</t>
   </si>
   <si>
     <r>
@@ -335,6 +299,9 @@
     <t>none</t>
   </si>
   <si>
+    <t>E-prime2.0</t>
+  </si>
+  <si>
     <t>P54E3</t>
   </si>
   <si>
@@ -351,6 +318,9 @@
   </si>
   <si>
     <t>PloS one</t>
+  </si>
+  <si>
+    <t>Friend</t>
   </si>
   <si>
     <t>Facial Gender: (Male, Female)</t>
@@ -739,6 +709,12 @@
     <t>Pt10</t>
   </si>
   <si>
+    <t>Yongfa Zhang et al.</t>
+  </si>
+  <si>
+    <t>NeuroImage</t>
+  </si>
+  <si>
     <t>Pt10E2</t>
   </si>
   <si>
@@ -767,7 +743,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -779,6 +755,12 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF231F20"/>
+      <name val="Times-Roman"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1247,16 +1229,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1265,46 +1244,49 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1316,7 +1298,7 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1328,7 +1310,7 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1340,7 +1322,7 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1352,7 +1334,7 @@
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1364,7 +1346,7 @@
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1377,7 +1359,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1388,6 +1370,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1456,1494 +1441,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1" forceAA="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr defTabSz="914400">
-              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:t>Year</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Year</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="15875">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                <a:prstClr val="black">
-                  <a:alpha val="40000"/>
-                </a:prstClr>
-              </a:outerShdw>
-            </a:effectLst>
-            <a:sp3d contourW="15875"/>
-          </c:spPr>
-          <c:explosion val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="60000"/>
-                      <a:lumOff val="40000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="83000">
-                    <a:schemeClr val="accent6"/>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="2700000"/>
-              </a:gradFill>
-              <a:ln w="15875">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="50000"/>
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:sp3d contourW="15875"/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent3">
-                      <a:lumMod val="60000"/>
-                      <a:lumOff val="40000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="83000">
-                    <a:schemeClr val="accent3"/>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="2700000"/>
-              </a:gradFill>
-              <a:ln w="15875">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="50000"/>
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:sp3d contourW="15875"/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent5">
-                      <a:lumMod val="60000"/>
-                      <a:lumOff val="40000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="83000">
-                    <a:schemeClr val="accent5"/>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="2700000"/>
-              </a:gradFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="50000"/>
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:sp3d contourW="19050"/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="15875">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:sp3d contourW="15875"/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="15875">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:sp3d contourW="15875"/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="15875">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:sp3d contourW="15875"/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="15875">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:sp3d contourW="15875"/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="7"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="15875">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:sp3d contourW="15875"/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="8"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="15875">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:sp3d contourW="15875"/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="9"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="15875">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:sp3d contourW="15875"/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="10"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="15875">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:sp3d contourW="15875"/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="11"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="15875">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:sp3d contourW="15875"/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="12"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="15875">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:sp3d contourW="15875"/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="13"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="15875">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:sp3d contourW="15875"/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="14"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="15875">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:sp3d contourW="15875"/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="15"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="15875">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:sp3d contourW="15875"/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="16"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="15875">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:sp3d contourW="15875"/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="17"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="15875">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:sp3d contourW="15875"/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="18"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="15875">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:sp3d contourW="15875"/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="19"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="15875">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:sp3d contourW="15875"/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="20"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="15875">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:sp3d contourW="15875"/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="21"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="15875">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:sp3d contourW="15875"/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="22"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="15875">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:sp3d contourW="15875"/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="23"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="15875">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:sp3d contourW="15875"/>
-            </c:spPr>
-          </c:dPt>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1" forceAA="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="bg1"/>
-                    </a:solidFill>
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$B$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2020</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="36"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1" forceAA="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="CCE4F1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="bg1">
-          <a:lumMod val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst>
-      <a:outerShdw blurRad="63500" dist="37357" dir="2700000" sx="0" sy="0" rotWithShape="0">
-        <a:scrgbClr r="0" g="0" b="0"/>
-      </a:outerShdw>
-    </a:effectLst>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr lang="zh-CN"/>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2" descr="7b0a202020202263686172745265734964223a20223230343735393537220a7d0a"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="2203450" y="635000"/>
-        <a:ext cx="4826000" cy="2743200"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -2954,8 +1453,8 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2965,7 +1464,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3247,14 +1746,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:KE66"/>
+  <dimension ref="A1:KB66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D32" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D46" sqref="D46:D48"/>
+      <selection pane="bottomRight" activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -3269,20 +1768,18 @@
     <col min="8" max="8" width="4.625" customWidth="1"/>
     <col min="9" max="10" width="9" customWidth="1"/>
     <col min="11" max="11" width="20.0833333333333" customWidth="1"/>
-    <col min="12" max="12" width="8.625" customWidth="1"/>
-    <col min="13" max="13" width="21.5833333333333" customWidth="1"/>
-    <col min="14" max="14" width="10.5" customWidth="1"/>
-    <col min="15" max="15" width="11.625" customWidth="1"/>
-    <col min="16" max="16" width="6" customWidth="1"/>
-    <col min="17" max="17" width="8.75" customWidth="1"/>
-    <col min="18" max="18" width="9.375" customWidth="1"/>
-    <col min="19" max="19" width="9" customWidth="1"/>
-    <col min="20" max="20" width="37" customWidth="1"/>
-    <col min="21" max="21" width="29" customWidth="1"/>
-    <col min="23" max="23" width="13.25" customWidth="1"/>
-    <col min="24" max="24" width="17.4166666666667" customWidth="1"/>
-    <col min="25" max="25" width="8.66666666666667" customWidth="1"/>
-    <col min="26" max="26" width="23.8333333333333" style="2" customWidth="1"/>
+    <col min="12" max="12" width="21.5833333333333" customWidth="1"/>
+    <col min="13" max="13" width="11.625" customWidth="1"/>
+    <col min="14" max="14" width="12.9166666666667" customWidth="1"/>
+    <col min="15" max="15" width="12.75" customWidth="1"/>
+    <col min="16" max="16" width="9" customWidth="1"/>
+    <col min="17" max="17" width="37" customWidth="1"/>
+    <col min="18" max="18" width="29" customWidth="1"/>
+    <col min="20" max="20" width="13.25" customWidth="1"/>
+    <col min="21" max="21" width="17.4166666666667" customWidth="1"/>
+    <col min="22" max="22" width="8.66666666666667" customWidth="1"/>
+    <col min="23" max="23" width="23.8333333333333" style="2" customWidth="1"/>
+    <col min="24" max="24" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.5" spans="1:26">
@@ -3340,19 +1837,19 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" t="s">
         <v>20</v>
       </c>
       <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
       <c r="X1" t="s">
@@ -3361,28 +1858,32 @@
       <c r="Y1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" ht="15.5" spans="1:291">
-      <c r="A2" s="1"/>
+    <row r="2" ht="15.5" spans="1:288">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2" s="1">
-        <v>2023</v>
-      </c>
-      <c r="G2" s="1"/>
+        <v>2019</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="H2" s="1">
         <v>1</v>
       </c>
@@ -3393,45 +1894,43 @@
         <v>9</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="1">
+        <v>28</v>
+      </c>
+      <c r="N2" s="1">
+        <v>96</v>
+      </c>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1">
+        <f>M2-O2</f>
+        <v>28</v>
+      </c>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1">
+        <v>1</v>
+      </c>
+      <c r="U2" s="1">
+        <v>0</v>
+      </c>
+      <c r="V2" s="1">
+        <v>0</v>
+      </c>
+      <c r="W2" s="1"/>
+      <c r="X2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y2" s="1">
         <v>12</v>
       </c>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1">
-        <v>36</v>
-      </c>
-      <c r="P2" s="1">
-        <v>60</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>3</v>
-      </c>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1">
-        <f>O2-Q2-R2</f>
-        <v>33</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1">
-        <v>1</v>
-      </c>
-      <c r="X2" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>32</v>
+      <c r="Z2" s="1">
+        <v>16</v>
       </c>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
@@ -3695,13 +2194,10 @@
       <c r="JZ2" s="1"/>
       <c r="KA2" s="1"/>
       <c r="KB2" s="1"/>
-      <c r="KC2" s="1"/>
-      <c r="KD2" s="1"/>
-      <c r="KE2" s="1"/>
     </row>
-    <row r="3" ht="15.5" spans="1:291">
+    <row r="3" ht="15.5" spans="1:288">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -3710,54 +2206,65 @@
         <v>34</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F3" s="1">
         <v>2019</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1">
+        <v>31</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="1">
         <v>28</v>
       </c>
+      <c r="N3" s="1">
+        <v>96</v>
+      </c>
+      <c r="O3" s="1"/>
       <c r="P3" s="1">
-        <v>96</v>
+        <f t="shared" ref="P3:P42" si="0">M3-O3</f>
+        <v>28</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
-      <c r="S3" s="1">
-        <v>28</v>
-      </c>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1">
+      <c r="S3" s="1"/>
+      <c r="T3" s="1">
+        <v>1</v>
+      </c>
+      <c r="U3" s="1">
         <v>0</v>
       </c>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
+      <c r="V3" s="1">
+        <v>0</v>
+      </c>
+      <c r="W3" s="1"/>
+      <c r="X3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>6</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>22</v>
+      </c>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
@@ -4020,67 +2527,77 @@
       <c r="JZ3" s="1"/>
       <c r="KA3" s="1"/>
       <c r="KB3" s="1"/>
-      <c r="KC3" s="1"/>
-      <c r="KD3" s="1"/>
-      <c r="KE3" s="1"/>
     </row>
-    <row r="4" ht="15.5" spans="1:291">
+    <row r="4" ht="15.5" spans="1:288">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F4" s="1">
         <v>2019</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1">
+        <v>31</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="1">
         <v>28</v>
       </c>
+      <c r="N4" s="1">
+        <v>96</v>
+      </c>
+      <c r="O4" s="1"/>
       <c r="P4" s="1">
-        <v>96</v>
+        <f t="shared" si="0"/>
+        <v>28</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
-      <c r="S4" s="1">
-        <v>28</v>
-      </c>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1">
+        <v>1</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0</v>
+      </c>
       <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
+      <c r="X4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>8</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>14</v>
+      </c>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
@@ -4343,67 +2860,77 @@
       <c r="JZ4" s="1"/>
       <c r="KA4" s="1"/>
       <c r="KB4" s="1"/>
-      <c r="KC4" s="1"/>
-      <c r="KD4" s="1"/>
-      <c r="KE4" s="1"/>
     </row>
-    <row r="5" ht="15.5" spans="1:291">
+    <row r="5" ht="15.5" spans="1:288">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F5" s="1">
         <v>2019</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="1">
+        <v>4</v>
+      </c>
+      <c r="I5" s="1">
+        <v>4</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="H5" s="1">
-        <v>3</v>
-      </c>
-      <c r="I5" s="1">
-        <v>3</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1">
-        <v>28</v>
-      </c>
+      <c r="M5" s="1">
+        <v>40</v>
+      </c>
+      <c r="N5" s="1">
+        <v>80</v>
+      </c>
+      <c r="O5" s="1"/>
       <c r="P5" s="1">
-        <v>96</v>
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
-      <c r="S5" s="1">
-        <v>28</v>
-      </c>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1">
+        <v>1</v>
+      </c>
+      <c r="U5" s="1">
+        <v>0</v>
+      </c>
+      <c r="V5" s="1">
+        <v>0</v>
+      </c>
       <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
+      <c r="X5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>14</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>14</v>
+      </c>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
@@ -4666,67 +3193,81 @@
       <c r="JZ5" s="1"/>
       <c r="KA5" s="1"/>
       <c r="KB5" s="1"/>
-      <c r="KC5" s="1"/>
-      <c r="KD5" s="1"/>
-      <c r="KE5" s="1"/>
     </row>
-    <row r="6" ht="15.5" spans="1:291">
+    <row r="6" ht="15.5" spans="1:288">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="F6" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H6" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I6" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1">
-        <v>40</v>
-      </c>
+      <c r="M6" s="1">
+        <v>92</v>
+      </c>
+      <c r="N6" s="1">
+        <v>120</v>
+      </c>
+      <c r="O6" s="1"/>
       <c r="P6" s="1">
-        <v>80</v>
-      </c>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1">
-        <v>40</v>
-      </c>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
+        <f t="shared" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1">
+        <v>1</v>
+      </c>
+      <c r="U6" s="1">
+        <v>0</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0</v>
+      </c>
       <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
+      <c r="X6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>19</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>79</v>
+      </c>
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
@@ -4989,32 +3530,25 @@
       <c r="JZ6" s="1"/>
       <c r="KA6" s="1"/>
       <c r="KB6" s="1"/>
-      <c r="KC6" s="1"/>
-      <c r="KD6" s="1"/>
-      <c r="KE6" s="1"/>
     </row>
-    <row r="7" ht="15.5" spans="1:291">
-      <c r="A7" s="1" t="s">
-        <v>33</v>
-      </c>
+    <row r="7" ht="15.5" spans="1:288">
+      <c r="A7" s="1"/>
       <c r="B7" s="1">
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F7" s="1">
         <v>2020</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="G7" s="1"/>
       <c r="H7" s="1">
         <v>1</v>
       </c>
@@ -5024,34 +3558,36 @@
       <c r="J7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1">
-        <v>92</v>
-      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M7" s="1">
+        <v>46</v>
+      </c>
+      <c r="N7" s="1">
+        <v>120</v>
+      </c>
+      <c r="O7" s="1"/>
       <c r="P7" s="1">
-        <v>120</v>
+        <f t="shared" si="0"/>
+        <v>46</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
-      <c r="S7" s="1">
-        <f>O7-Q7-R7</f>
-        <v>92</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="U7" s="1" t="s">
+      <c r="S7" s="1"/>
+      <c r="T7" s="1">
+        <v>1</v>
+      </c>
+      <c r="U7" s="1">
+        <v>0</v>
+      </c>
+      <c r="V7" s="1">
+        <v>0</v>
+      </c>
+      <c r="W7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
@@ -5317,11 +3853,8 @@
       <c r="JZ7" s="1"/>
       <c r="KA7" s="1"/>
       <c r="KB7" s="1"/>
-      <c r="KC7" s="1"/>
-      <c r="KD7" s="1"/>
-      <c r="KE7" s="1"/>
     </row>
-    <row r="8" ht="15.5" spans="1:291">
+    <row r="8" ht="15.5" spans="1:288">
       <c r="A8" s="1"/>
       <c r="B8" s="1">
         <v>7</v>
@@ -5333,53 +3866,50 @@
         <v>54</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F8" s="1">
         <v>2020</v>
       </c>
-      <c r="G8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="H8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1" t="s">
+      <c r="L8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M8" s="1">
+        <v>56</v>
+      </c>
+      <c r="N8" s="1">
+        <v>48</v>
+      </c>
+      <c r="O8" s="1">
+        <v>1</v>
+      </c>
+      <c r="P8" s="1">
+        <f t="shared" si="0"/>
         <v>55</v>
-      </c>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1">
-        <v>46</v>
-      </c>
-      <c r="P8" s="1">
-        <v>120</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
-      <c r="S8" s="1">
-        <v>46</v>
-      </c>
+      <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
-      <c r="W8" s="1">
-        <v>1</v>
-      </c>
-      <c r="X8" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
@@ -5642,12 +4172,11 @@
       <c r="JZ8" s="1"/>
       <c r="KA8" s="1"/>
       <c r="KB8" s="1"/>
-      <c r="KC8" s="1"/>
-      <c r="KD8" s="1"/>
-      <c r="KE8" s="1"/>
     </row>
-    <row r="9" ht="15.5" spans="1:291">
-      <c r="A9" s="1"/>
+    <row r="9" ht="15.5" spans="1:288">
+      <c r="A9" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="B9" s="1">
         <v>8</v>
       </c>
@@ -5658,43 +4187,43 @@
         <v>58</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F9" s="1">
         <v>2020</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1">
-        <v>56</v>
-      </c>
+      <c r="L9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M9" s="1">
+        <v>24</v>
+      </c>
+      <c r="N9" s="1">
+        <v>24</v>
+      </c>
+      <c r="O9" s="1"/>
       <c r="P9" s="1">
-        <v>48</v>
-      </c>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1">
-        <v>1</v>
-      </c>
-      <c r="S9" s="1">
-        <f t="shared" ref="S9:S23" si="0">O9-Q9-R9</f>
-        <v>55</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
@@ -5964,64 +4493,57 @@
       <c r="JZ9" s="1"/>
       <c r="KA9" s="1"/>
       <c r="KB9" s="1"/>
-      <c r="KC9" s="1"/>
-      <c r="KD9" s="1"/>
-      <c r="KE9" s="1"/>
     </row>
-    <row r="10" ht="15.5" spans="1:291">
-      <c r="A10" s="1" t="s">
-        <v>60</v>
-      </c>
+    <row r="10" ht="15.5" spans="1:288">
+      <c r="A10" s="1"/>
       <c r="B10" s="1">
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F10" s="1">
         <v>2020</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1">
-        <v>24</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="M10" s="1">
+        <v>25</v>
+      </c>
+      <c r="N10" s="1">
+        <v>25</v>
+      </c>
+      <c r="O10" s="1"/>
       <c r="P10" s="1">
-        <v>24</v>
-      </c>
-      <c r="Q10" s="1"/>
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="R10" s="1"/>
-      <c r="S10" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
@@ -6290,11 +4812,8 @@
       <c r="JZ10" s="1"/>
       <c r="KA10" s="1"/>
       <c r="KB10" s="1"/>
-      <c r="KC10" s="1"/>
-      <c r="KD10" s="1"/>
-      <c r="KE10" s="1"/>
     </row>
-    <row r="11" ht="15.5" spans="1:291">
+    <row r="11" ht="15.5" spans="1:288">
       <c r="A11" s="1"/>
       <c r="B11" s="1">
         <v>10</v>
@@ -6303,50 +4822,60 @@
         <v>66</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F11" s="1">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H11" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="1"/>
+      <c r="K11" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="L11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="M11" s="1">
+        <v>32</v>
+      </c>
+      <c r="N11" s="1">
+        <v>18</v>
+      </c>
       <c r="O11" s="1">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="P11" s="1">
-        <v>25</v>
+        <f t="shared" si="0"/>
+        <v>31</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
-      <c r="S11" s="1">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1">
+        <v>1</v>
+      </c>
+      <c r="U11" s="1">
+        <v>1</v>
+      </c>
+      <c r="V11" s="1">
+        <v>0</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
@@ -6612,76 +5141,63 @@
       <c r="JZ11" s="1"/>
       <c r="KA11" s="1"/>
       <c r="KB11" s="1"/>
-      <c r="KC11" s="1"/>
-      <c r="KD11" s="1"/>
-      <c r="KE11" s="1"/>
     </row>
-    <row r="12" ht="15.5" spans="1:291">
+    <row r="12" ht="15.5" spans="1:288">
       <c r="A12" s="1"/>
       <c r="B12" s="1">
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="F12" s="1">
         <v>2019</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H12" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I12" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1" t="s">
-        <v>73</v>
+      <c r="M12" s="1">
+        <v>35</v>
+      </c>
+      <c r="N12" s="1">
+        <v>24</v>
       </c>
       <c r="O12" s="1">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="P12" s="1">
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>33</v>
       </c>
       <c r="Q12" s="1"/>
-      <c r="R12" s="1">
-        <v>1</v>
-      </c>
-      <c r="S12" s="1">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
-      <c r="W12" s="1">
-        <v>1</v>
-      </c>
-      <c r="X12" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
@@ -6944,63 +5460,72 @@
       <c r="JZ12" s="1"/>
       <c r="KA12" s="1"/>
       <c r="KB12" s="1"/>
-      <c r="KC12" s="1"/>
-      <c r="KD12" s="1"/>
-      <c r="KE12" s="1"/>
     </row>
-    <row r="13" ht="15.5" spans="1:291">
-      <c r="A13" s="1"/>
+    <row r="13" ht="15.5" spans="1:288">
+      <c r="A13" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="B13" s="1">
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F13" s="1">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="H13" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I13" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M13" s="1">
+        <v>18</v>
+      </c>
+      <c r="N13" s="1">
+        <v>56</v>
+      </c>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1">
+        <v>1</v>
+      </c>
+      <c r="U13" s="1">
+        <v>0</v>
+      </c>
+      <c r="V13" s="1">
+        <v>1</v>
+      </c>
+      <c r="W13" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1">
-        <v>35</v>
-      </c>
-      <c r="P13" s="1">
-        <v>24</v>
-      </c>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1">
-        <v>2</v>
-      </c>
-      <c r="S13" s="1">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
@@ -7266,78 +5791,75 @@
       <c r="JZ13" s="1"/>
       <c r="KA13" s="1"/>
       <c r="KB13" s="1"/>
-      <c r="KC13" s="1"/>
-      <c r="KD13" s="1"/>
-      <c r="KE13" s="1"/>
     </row>
-    <row r="14" ht="15.5" spans="1:291">
+    <row r="14" ht="15.5" spans="1:288">
       <c r="A14" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B14" s="1">
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="F14" s="1">
         <v>2018</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1">
+        <v>79</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M14" s="1">
         <v>18</v>
       </c>
+      <c r="N14" s="1">
+        <v>60</v>
+      </c>
+      <c r="O14" s="1"/>
       <c r="P14" s="1">
-        <v>56</v>
-      </c>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="T14" s="1" t="s">
+      <c r="Q14" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1">
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1">
         <v>1</v>
       </c>
-      <c r="X14" s="1">
+      <c r="U14" s="1">
         <v>0</v>
       </c>
-      <c r="Y14" s="1">
+      <c r="V14" s="1">
         <v>1</v>
       </c>
-      <c r="Z14" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="W14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
@@ -7600,78 +6122,73 @@
       <c r="JZ14" s="1"/>
       <c r="KA14" s="1"/>
       <c r="KB14" s="1"/>
-      <c r="KC14" s="1"/>
-      <c r="KD14" s="1"/>
-      <c r="KE14" s="1"/>
     </row>
-    <row r="15" ht="15.5" spans="1:291">
-      <c r="A15" s="1" t="s">
-        <v>75</v>
-      </c>
+    <row r="15" ht="15.5" spans="1:288">
+      <c r="A15" s="1"/>
       <c r="B15" s="1">
         <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F15" s="1">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="H15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M15" s="1">
+        <v>30</v>
+      </c>
+      <c r="N15" s="1">
+        <v>30</v>
+      </c>
+      <c r="O15" s="1">
+        <v>1</v>
+      </c>
+      <c r="P15" s="1">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1">
-        <v>18</v>
-      </c>
-      <c r="P15" s="1">
-        <v>60</v>
-      </c>
-      <c r="Q15" s="1"/>
+      <c r="Q15" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="R15" s="1"/>
-      <c r="S15" s="1">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="T15" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1">
+      <c r="S15" s="1"/>
+      <c r="T15" s="1">
         <v>1</v>
       </c>
-      <c r="X15" s="1">
+      <c r="U15" s="1">
         <v>0</v>
       </c>
-      <c r="Y15" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z15" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="V15" s="1">
+        <v>0</v>
+      </c>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
@@ -7934,30 +6451,25 @@
       <c r="JZ15" s="1"/>
       <c r="KA15" s="1"/>
       <c r="KB15" s="1"/>
-      <c r="KC15" s="1"/>
-      <c r="KD15" s="1"/>
-      <c r="KE15" s="1"/>
     </row>
-    <row r="16" ht="15.5" spans="1:291">
+    <row r="16" ht="15.5" spans="1:288">
       <c r="A16" s="1"/>
       <c r="B16" s="1">
         <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F16" s="1">
         <v>2021</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="G16" s="1"/>
       <c r="H16" s="1">
         <v>1</v>
       </c>
@@ -7968,41 +6480,39 @@
         <v>9</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1">
-        <v>30</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M16" s="1">
+        <v>13</v>
+      </c>
+      <c r="N16" s="1">
+        <v>60</v>
+      </c>
+      <c r="O16" s="1"/>
       <c r="P16" s="1">
-        <v>30</v>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="Q16" s="1"/>
-      <c r="R16" s="1">
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1">
         <v>1</v>
       </c>
-      <c r="S16" s="1">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="T16" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1">
-        <v>1</v>
-      </c>
-      <c r="X16" s="1">
+      <c r="U16" s="1">
         <v>0</v>
       </c>
-      <c r="Y16" s="1">
+      <c r="V16" s="1">
         <v>0</v>
       </c>
+      <c r="W16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
@@ -8266,17 +6776,14 @@
       <c r="JZ16" s="1"/>
       <c r="KA16" s="1"/>
       <c r="KB16" s="1"/>
-      <c r="KC16" s="1"/>
-      <c r="KD16" s="1"/>
-      <c r="KE16" s="1"/>
     </row>
-    <row r="17" ht="15.5" spans="1:291">
+    <row r="17" ht="15.5" spans="1:288">
       <c r="A17" s="1"/>
       <c r="B17" s="1">
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>87</v>
@@ -8289,49 +6796,49 @@
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1">
-        <v>13</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M17" s="1">
+        <v>28</v>
+      </c>
+      <c r="N17" s="1">
+        <v>60</v>
+      </c>
+      <c r="O17" s="1"/>
       <c r="P17" s="1">
-        <v>60</v>
+        <f t="shared" si="0"/>
+        <v>28</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
-      <c r="S17" s="1">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1">
+      <c r="S17" s="1"/>
+      <c r="T17" s="1">
         <v>1</v>
       </c>
-      <c r="X17" s="1">
+      <c r="U17" s="1">
         <v>0</v>
       </c>
-      <c r="Y17" s="1">
+      <c r="V17" s="1">
         <v>0</v>
       </c>
-      <c r="Z17" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="W17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
@@ -8594,17 +7101,14 @@
       <c r="JZ17" s="1"/>
       <c r="KA17" s="1"/>
       <c r="KB17" s="1"/>
-      <c r="KC17" s="1"/>
-      <c r="KD17" s="1"/>
-      <c r="KE17" s="1"/>
     </row>
-    <row r="18" ht="15.5" spans="1:291">
+    <row r="18" ht="15.5" spans="1:288">
       <c r="A18" s="1"/>
       <c r="B18" s="1">
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>87</v>
@@ -8617,49 +7121,49 @@
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I18" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1">
-        <v>28</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M18" s="1">
+        <v>27</v>
+      </c>
+      <c r="N18" s="1">
+        <v>60</v>
+      </c>
+      <c r="O18" s="1"/>
       <c r="P18" s="1">
-        <v>60</v>
+        <f t="shared" si="0"/>
+        <v>27</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
-      <c r="S18" s="1">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1">
+      <c r="S18" s="1"/>
+      <c r="T18" s="1">
         <v>1</v>
       </c>
-      <c r="X18" s="1">
+      <c r="U18" s="1">
         <v>0</v>
       </c>
-      <c r="Y18" s="1">
+      <c r="V18" s="1">
         <v>0</v>
       </c>
-      <c r="Z18" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="W18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
@@ -8922,72 +7426,67 @@
       <c r="JZ18" s="1"/>
       <c r="KA18" s="1"/>
       <c r="KB18" s="1"/>
-      <c r="KC18" s="1"/>
-      <c r="KD18" s="1"/>
-      <c r="KE18" s="1"/>
     </row>
-    <row r="19" ht="15.5" spans="1:291">
+    <row r="19" ht="15.5" spans="1:288">
       <c r="A19" s="1"/>
       <c r="B19" s="1">
         <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F19" s="1">
-        <v>2021</v>
-      </c>
-      <c r="G19" s="1"/>
+        <v>2022</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="H19" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I19" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="L19" s="1"/>
-      <c r="M19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1">
-        <v>27</v>
-      </c>
+      <c r="M19" s="1">
+        <v>20</v>
+      </c>
+      <c r="N19" s="1">
+        <v>50</v>
+      </c>
+      <c r="O19" s="1"/>
       <c r="P19" s="1">
-        <v>60</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
-      <c r="S19" s="1">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1">
+      <c r="S19" s="1"/>
+      <c r="T19" s="1">
         <v>1</v>
       </c>
-      <c r="X19" s="1">
+      <c r="U19" s="1">
         <v>0</v>
       </c>
-      <c r="Y19" s="1">
+      <c r="V19" s="1">
         <v>0</v>
       </c>
-      <c r="Z19" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
       <c r="AC19" s="1"/>
@@ -9250,17 +7749,14 @@
       <c r="JZ19" s="1"/>
       <c r="KA19" s="1"/>
       <c r="KB19" s="1"/>
-      <c r="KC19" s="1"/>
-      <c r="KD19" s="1"/>
-      <c r="KE19" s="1"/>
     </row>
-    <row r="20" ht="15.5" spans="1:291">
+    <row r="20" ht="15.5" spans="1:288">
       <c r="A20" s="1"/>
       <c r="B20" s="1">
         <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>93</v>
@@ -9275,44 +7771,46 @@
         <v>95</v>
       </c>
       <c r="H20" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1">
-        <v>20</v>
-      </c>
+      <c r="M20" s="1">
+        <v>24</v>
+      </c>
+      <c r="N20" s="1">
+        <v>100</v>
+      </c>
+      <c r="O20" s="1"/>
       <c r="P20" s="1">
-        <v>50</v>
-      </c>
-      <c r="Q20" s="1"/>
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="R20" s="1"/>
-      <c r="S20" s="1">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1">
+      <c r="S20" s="1"/>
+      <c r="T20" s="1">
         <v>1</v>
       </c>
-      <c r="X20" s="1">
+      <c r="U20" s="1">
         <v>0</v>
       </c>
-      <c r="Y20" s="1">
+      <c r="V20" s="1">
         <v>0</v>
       </c>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
@@ -9576,17 +8074,14 @@
       <c r="JZ20" s="1"/>
       <c r="KA20" s="1"/>
       <c r="KB20" s="1"/>
-      <c r="KC20" s="1"/>
-      <c r="KD20" s="1"/>
-      <c r="KE20" s="1"/>
     </row>
-    <row r="21" ht="15.5" spans="1:291">
+    <row r="21" ht="15.5" spans="1:288">
       <c r="A21" s="1"/>
       <c r="B21" s="1">
         <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>93</v>
@@ -9601,46 +8096,48 @@
         <v>95</v>
       </c>
       <c r="H21" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I21" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
+      <c r="M21" s="1">
+        <v>25</v>
+      </c>
+      <c r="N21" s="1">
+        <v>100</v>
+      </c>
       <c r="O21" s="1">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="P21" s="1">
-        <v>100</v>
-      </c>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="T21" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1">
+      <c r="Q21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1">
         <v>1</v>
       </c>
-      <c r="X21" s="1">
+      <c r="U21" s="1">
         <v>0</v>
       </c>
-      <c r="Y21" s="1">
+      <c r="V21" s="1">
         <v>0</v>
       </c>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
@@ -9904,73 +8401,66 @@
       <c r="JZ21" s="1"/>
       <c r="KA21" s="1"/>
       <c r="KB21" s="1"/>
-      <c r="KC21" s="1"/>
-      <c r="KD21" s="1"/>
-      <c r="KE21" s="1"/>
     </row>
-    <row r="22" ht="15.5" spans="1:291">
+    <row r="22" ht="15.5" spans="1:288">
       <c r="A22" s="1"/>
       <c r="B22" s="1">
         <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F22" s="1">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="H22" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I22" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1">
-        <v>25</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M22" s="1">
+        <v>105</v>
+      </c>
+      <c r="N22" s="1">
+        <v>60</v>
+      </c>
+      <c r="O22" s="1"/>
       <c r="P22" s="1">
-        <v>100</v>
-      </c>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1">
-        <v>1</v>
-      </c>
-      <c r="S22" s="1">
         <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="T22" s="1" t="s">
-        <v>99</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
-      <c r="W22" s="1">
-        <v>1</v>
-      </c>
-      <c r="X22" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="1">
-        <v>0</v>
-      </c>
+      <c r="W22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
@@ -10234,29 +8724,28 @@
       <c r="JZ22" s="1"/>
       <c r="KA22" s="1"/>
       <c r="KB22" s="1"/>
-      <c r="KC22" s="1"/>
-      <c r="KD22" s="1"/>
-      <c r="KE22" s="1"/>
     </row>
-    <row r="23" ht="15.5" spans="1:291">
-      <c r="A23" s="1"/>
+    <row r="23" ht="15.5" spans="1:288">
+      <c r="A23" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="B23" s="1">
         <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F23" s="1">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="H23" s="1">
         <v>1</v>
@@ -10267,37 +8756,39 @@
       <c r="J23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M23" s="1">
+        <v>298</v>
+      </c>
+      <c r="N23" s="1">
+        <v>16</v>
+      </c>
       <c r="O23" s="1">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="P23" s="1">
-        <v>60</v>
+        <f t="shared" si="0"/>
+        <v>280</v>
       </c>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
-      <c r="S23" s="1">
-        <f t="shared" si="0"/>
-        <v>105</v>
-      </c>
-      <c r="T23" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1">
+        <v>1</v>
+      </c>
+      <c r="U23" s="1">
+        <v>1</v>
+      </c>
+      <c r="V23" s="1">
+        <v>0</v>
+      </c>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
-      <c r="Z23" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
@@ -10560,73 +9051,74 @@
       <c r="JZ23" s="1"/>
       <c r="KA23" s="1"/>
       <c r="KB23" s="1"/>
-      <c r="KC23" s="1"/>
-      <c r="KD23" s="1"/>
-      <c r="KE23" s="1"/>
     </row>
-    <row r="24" ht="15.5" spans="1:291">
+    <row r="24" ht="15.5" spans="1:288">
       <c r="A24" s="1" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="B24" s="1">
         <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>107</v>
+        <v>50</v>
       </c>
       <c r="F24" s="1">
         <v>2023</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>108</v>
-      </c>
+      <c r="G24" s="1"/>
       <c r="H24" s="1">
         <v>1</v>
       </c>
-      <c r="I24" s="1">
-        <v>1</v>
+      <c r="I24" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N24" s="1"/>
+      <c r="L24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M24" s="1">
+        <v>23</v>
+      </c>
+      <c r="N24" s="1">
+        <v>90</v>
+      </c>
       <c r="O24" s="1">
-        <v>298</v>
+        <v>3</v>
       </c>
       <c r="P24" s="1">
-        <v>16</v>
-      </c>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1">
-        <v>18</v>
-      </c>
-      <c r="S24" s="1">
-        <f t="shared" ref="S24:S37" si="1">O24-Q24-R24</f>
-        <v>280</v>
-      </c>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="T24" s="1">
         <v>1</v>
       </c>
-      <c r="X24" s="1">
+      <c r="U24" s="1">
+        <v>0</v>
+      </c>
+      <c r="V24" s="1">
         <v>1</v>
       </c>
-      <c r="Y24" s="1">
-        <v>0</v>
-      </c>
+      <c r="W24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
@@ -10890,78 +9382,61 @@
       <c r="JZ24" s="1"/>
       <c r="KA24" s="1"/>
       <c r="KB24" s="1"/>
-      <c r="KC24" s="1"/>
-      <c r="KD24" s="1"/>
-      <c r="KE24" s="1"/>
     </row>
-    <row r="25" ht="15.5" spans="1:291">
-      <c r="A25" s="1" t="s">
-        <v>109</v>
-      </c>
+    <row r="25" ht="15.5" spans="1:288">
+      <c r="A25" s="1"/>
       <c r="B25" s="1">
         <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>28</v>
+        <v>117</v>
       </c>
       <c r="F25" s="1">
-        <v>2023</v>
+        <v>2014</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1">
         <v>1</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1">
-        <v>23</v>
-      </c>
+      <c r="K25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M25" s="1">
+        <v>24</v>
+      </c>
+      <c r="N25" s="1">
+        <v>40</v>
+      </c>
+      <c r="O25" s="1"/>
       <c r="P25" s="1">
-        <v>90</v>
-      </c>
-      <c r="Q25" s="1">
-        <v>3</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
-      <c r="S25" s="1">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="T25" s="1" t="s">
-        <v>113</v>
-      </c>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
       <c r="U25" s="1"/>
-      <c r="V25" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="W25" s="1">
-        <v>1</v>
-      </c>
-      <c r="X25" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z25" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
       <c r="AC25" s="1"/>
@@ -11224,26 +9699,23 @@
       <c r="JZ25" s="1"/>
       <c r="KA25" s="1"/>
       <c r="KB25" s="1"/>
-      <c r="KC25" s="1"/>
-      <c r="KD25" s="1"/>
-      <c r="KE25" s="1"/>
     </row>
-    <row r="26" ht="15.5" spans="1:291">
+    <row r="26" ht="15.5" spans="1:288">
       <c r="A26" s="1"/>
       <c r="B26" s="1">
         <v>25</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>117</v>
       </c>
       <c r="F26" s="1">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1">
@@ -11256,25 +9728,25 @@
         <v>9</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1">
-        <v>24</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M26" s="1">
+        <v>20</v>
+      </c>
+      <c r="N26" s="1">
+        <v>40</v>
+      </c>
+      <c r="O26" s="1"/>
       <c r="P26" s="1">
-        <v>40</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
-      <c r="S26" s="1">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
+      <c r="S26" s="1"/>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
@@ -11544,17 +10016,14 @@
       <c r="JZ26" s="1"/>
       <c r="KA26" s="1"/>
       <c r="KB26" s="1"/>
-      <c r="KC26" s="1"/>
-      <c r="KD26" s="1"/>
-      <c r="KE26" s="1"/>
     </row>
-    <row r="27" ht="15.5" spans="1:291">
+    <row r="27" ht="15.5" spans="1:288">
       <c r="A27" s="1"/>
       <c r="B27" s="1">
         <v>26</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>120</v>
@@ -11567,7 +10036,7 @@
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>118</v>
@@ -11576,25 +10045,25 @@
         <v>9</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1">
-        <v>20</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M27" s="1">
+        <v>21</v>
+      </c>
+      <c r="N27" s="1">
+        <v>40</v>
+      </c>
+      <c r="O27" s="1"/>
       <c r="P27" s="1">
-        <v>40</v>
+        <f t="shared" si="0"/>
+        <v>21</v>
       </c>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
-      <c r="S27" s="1">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
+      <c r="S27" s="1"/>
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
@@ -11864,57 +10333,58 @@
       <c r="JZ27" s="1"/>
       <c r="KA27" s="1"/>
       <c r="KB27" s="1"/>
-      <c r="KC27" s="1"/>
-      <c r="KD27" s="1"/>
-      <c r="KE27" s="1"/>
     </row>
-    <row r="28" ht="15.5" spans="1:291">
-      <c r="A28" s="1"/>
+    <row r="28" ht="15.5" spans="1:288">
+      <c r="A28" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="B28" s="1">
         <v>27</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="F28" s="1">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1">
-        <v>2</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>118</v>
+        <v>1</v>
+      </c>
+      <c r="I28" s="1">
+        <v>1</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1">
-        <v>21</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M28" s="1">
+        <v>24</v>
+      </c>
+      <c r="N28" s="1">
+        <v>60</v>
+      </c>
+      <c r="O28" s="1"/>
       <c r="P28" s="1">
-        <v>40</v>
-      </c>
-      <c r="Q28" s="1"/>
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="R28" s="1"/>
-      <c r="S28" s="1">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
+      <c r="S28" s="1"/>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
@@ -12184,19 +10654,16 @@
       <c r="JZ28" s="1"/>
       <c r="KA28" s="1"/>
       <c r="KB28" s="1"/>
-      <c r="KC28" s="1"/>
-      <c r="KD28" s="1"/>
-      <c r="KE28" s="1"/>
     </row>
-    <row r="29" ht="15.5" spans="1:291">
+    <row r="29" ht="15.5" spans="1:288">
       <c r="A29" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B29" s="1">
         <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>124</v>
@@ -12209,10 +10676,10 @@
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>9</v>
@@ -12220,26 +10687,26 @@
       <c r="K29" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1">
-        <v>24</v>
-      </c>
+      <c r="L29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M29" s="1">
+        <v>18</v>
+      </c>
+      <c r="N29" s="1">
+        <v>60</v>
+      </c>
+      <c r="O29" s="1"/>
       <c r="P29" s="1">
-        <v>60</v>
-      </c>
-      <c r="Q29" s="1"/>
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="R29" s="1"/>
-      <c r="S29" s="1">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="T29" s="1" t="s">
-        <v>127</v>
-      </c>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
@@ -12508,19 +10975,16 @@
       <c r="JZ29" s="1"/>
       <c r="KA29" s="1"/>
       <c r="KB29" s="1"/>
-      <c r="KC29" s="1"/>
-      <c r="KD29" s="1"/>
-      <c r="KE29" s="1"/>
     </row>
-    <row r="30" ht="15.5" spans="1:291">
+    <row r="30" ht="15.5" spans="1:288">
       <c r="A30" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B30" s="1">
         <v>29</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>124</v>
@@ -12533,10 +10997,10 @@
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I30" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>9</v>
@@ -12544,26 +11008,26 @@
       <c r="K30" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1">
-        <v>18</v>
-      </c>
+      <c r="L30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M30" s="1">
+        <v>22</v>
+      </c>
+      <c r="N30" s="1">
+        <v>60</v>
+      </c>
+      <c r="O30" s="1"/>
       <c r="P30" s="1">
-        <v>60</v>
-      </c>
-      <c r="Q30" s="1"/>
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="R30" s="1"/>
-      <c r="S30" s="1">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="T30" s="1" t="s">
-        <v>130</v>
-      </c>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
@@ -12832,19 +11296,16 @@
       <c r="JZ30" s="1"/>
       <c r="KA30" s="1"/>
       <c r="KB30" s="1"/>
-      <c r="KC30" s="1"/>
-      <c r="KD30" s="1"/>
-      <c r="KE30" s="1"/>
     </row>
-    <row r="31" ht="15.5" spans="1:291">
+    <row r="31" ht="15.5" spans="1:288">
       <c r="A31" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B31" s="1">
         <v>30</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>124</v>
@@ -12857,10 +11318,10 @@
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I31" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>9</v>
@@ -12868,26 +11329,26 @@
       <c r="K31" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1">
-        <v>22</v>
-      </c>
+      <c r="L31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M31" s="1">
+        <v>20</v>
+      </c>
+      <c r="N31" s="1">
+        <v>60</v>
+      </c>
+      <c r="O31" s="1"/>
       <c r="P31" s="1">
-        <v>60</v>
-      </c>
-      <c r="Q31" s="1"/>
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="R31" s="1"/>
-      <c r="S31" s="1">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="T31" s="1" t="s">
-        <v>133</v>
-      </c>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
@@ -13156,65 +11617,66 @@
       <c r="JZ31" s="1"/>
       <c r="KA31" s="1"/>
       <c r="KB31" s="1"/>
-      <c r="KC31" s="1"/>
-      <c r="KD31" s="1"/>
-      <c r="KE31" s="1"/>
     </row>
-    <row r="32" ht="15.5" spans="1:291">
-      <c r="A32" s="1" t="s">
-        <v>134</v>
-      </c>
+    <row r="32" ht="15.5" spans="1:288">
+      <c r="A32" s="1"/>
       <c r="B32" s="1">
         <v>31</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="F32" s="1">
-        <v>2014</v>
-      </c>
-      <c r="G32" s="1"/>
+        <v>2023</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>140</v>
+      </c>
       <c r="H32" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I32" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K32" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1">
-        <v>20</v>
-      </c>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M32" s="1">
+        <v>40</v>
+      </c>
+      <c r="N32" s="1">
+        <v>60</v>
+      </c>
+      <c r="O32" s="1"/>
       <c r="P32" s="1">
-        <v>60</v>
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
-      <c r="S32" s="1">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="T32" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
-      <c r="W32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1">
+        <v>1</v>
+      </c>
+      <c r="U32" s="1">
+        <v>0</v>
+      </c>
+      <c r="V32" s="1">
+        <v>1</v>
+      </c>
+      <c r="W32" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
@@ -13480,29 +11942,26 @@
       <c r="JZ32" s="1"/>
       <c r="KA32" s="1"/>
       <c r="KB32" s="1"/>
-      <c r="KC32" s="1"/>
-      <c r="KD32" s="1"/>
-      <c r="KE32" s="1"/>
     </row>
-    <row r="33" ht="15.5" spans="1:291">
+    <row r="33" ht="15.5" spans="1:288">
       <c r="A33" s="1"/>
       <c r="B33" s="1">
         <v>32</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F33" s="1">
         <v>2023</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H33" s="1">
         <v>1</v>
@@ -13513,39 +11972,41 @@
       <c r="J33" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N33" s="1"/>
+      <c r="K33" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M33" s="1">
+        <v>144</v>
+      </c>
+      <c r="N33" s="1">
+        <v>20</v>
+      </c>
       <c r="O33" s="1">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="P33" s="1">
-        <v>60</v>
+        <f t="shared" ref="P33:P42" si="1">M33-O33</f>
+        <v>142</v>
       </c>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
-      <c r="S33" s="1">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
-      <c r="W33" s="1">
+      <c r="S33" s="1"/>
+      <c r="T33" s="1">
         <v>1</v>
       </c>
-      <c r="X33" s="1">
+      <c r="U33" s="1">
+        <v>1</v>
+      </c>
+      <c r="V33" s="1">
         <v>0</v>
       </c>
-      <c r="Y33" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z33" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
       <c r="AC33" s="1"/>
@@ -13808,29 +12269,26 @@
       <c r="JZ33" s="1"/>
       <c r="KA33" s="1"/>
       <c r="KB33" s="1"/>
-      <c r="KC33" s="1"/>
-      <c r="KD33" s="1"/>
-      <c r="KE33" s="1"/>
     </row>
-    <row r="34" ht="15.5" spans="1:291">
+    <row r="34" ht="15.5" spans="1:288">
       <c r="A34" s="1"/>
       <c r="B34" s="1">
         <v>33</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F34" s="1">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H34" s="1">
         <v>1</v>
@@ -13842,39 +12300,45 @@
         <v>9</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N34" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M34" s="1">
+        <v>109</v>
+      </c>
+      <c r="N34" s="1">
+        <v>60</v>
+      </c>
       <c r="O34" s="1">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="P34" s="1">
-        <v>20</v>
-      </c>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1">
-        <v>2</v>
-      </c>
-      <c r="S34" s="1">
         <f t="shared" si="1"/>
-        <v>142</v>
-      </c>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
-      <c r="V34" s="1"/>
-      <c r="W34" s="1">
+        <v>108</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1">
         <v>1</v>
       </c>
-      <c r="X34" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y34" s="1">
+      <c r="U34" s="1">
         <v>0</v>
       </c>
+      <c r="V34" s="1">
+        <v>0</v>
+      </c>
+      <c r="W34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
@@ -14138,29 +12602,28 @@
       <c r="JZ34" s="1"/>
       <c r="KA34" s="1"/>
       <c r="KB34" s="1"/>
-      <c r="KC34" s="1"/>
-      <c r="KD34" s="1"/>
-      <c r="KE34" s="1"/>
     </row>
-    <row r="35" ht="15.5" spans="1:291">
-      <c r="A35" s="1"/>
+    <row r="35" ht="15.5" spans="1:288">
+      <c r="A35" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="B35" s="1">
         <v>34</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="F35" s="1">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="H35" s="1">
         <v>1</v>
@@ -14172,46 +12635,40 @@
         <v>9</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="L35" s="1"/>
-      <c r="M35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N35" s="1"/>
+      <c r="M35" s="1">
+        <v>40</v>
+      </c>
+      <c r="N35" s="1">
+        <v>100</v>
+      </c>
       <c r="O35" s="1">
-        <v>109</v>
+        <v>1</v>
       </c>
       <c r="P35" s="1">
-        <v>60</v>
+        <f t="shared" si="1"/>
+        <v>39</v>
       </c>
       <c r="Q35" s="1"/>
-      <c r="R35" s="1">
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1">
         <v>1</v>
       </c>
-      <c r="S35" s="1">
-        <f t="shared" si="1"/>
-        <v>108</v>
-      </c>
-      <c r="T35" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="U35" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="V35" s="1"/>
-      <c r="W35" s="1">
-        <v>1</v>
-      </c>
-      <c r="X35" s="1">
+      <c r="U35" s="1">
         <v>0</v>
       </c>
-      <c r="Y35" s="1">
+      <c r="V35" s="1">
         <v>0</v>
       </c>
-      <c r="Z35" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="W35" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
       <c r="AC35" s="1"/>
@@ -14474,32 +12931,25 @@
       <c r="JZ35" s="1"/>
       <c r="KA35" s="1"/>
       <c r="KB35" s="1"/>
-      <c r="KC35" s="1"/>
-      <c r="KD35" s="1"/>
-      <c r="KE35" s="1"/>
     </row>
-    <row r="36" ht="15.5" spans="1:291">
-      <c r="A36" s="1" t="s">
-        <v>151</v>
-      </c>
+    <row r="36" ht="15.5" spans="1:288">
+      <c r="A36" s="1"/>
       <c r="B36" s="1">
         <v>35</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F36" s="1">
-        <v>2023</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>155</v>
-      </c>
+        <v>2022</v>
+      </c>
+      <c r="G36" s="1"/>
       <c r="H36" s="1">
         <v>1</v>
       </c>
@@ -14509,40 +12959,35 @@
       <c r="J36" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K36" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M36" s="1">
+        <v>30</v>
+      </c>
+      <c r="N36" s="1">
+        <v>60</v>
+      </c>
       <c r="O36" s="1">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="P36" s="1">
-        <v>100</v>
-      </c>
-      <c r="Q36" s="1">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="R36" s="1"/>
-      <c r="S36" s="1">
-        <v>38</v>
-      </c>
+      <c r="S36" s="1"/>
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
-      <c r="W36" s="1">
-        <v>1</v>
-      </c>
-      <c r="X36" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z36" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
       <c r="AC36" s="1"/>
@@ -14805,17 +13250,14 @@
       <c r="JZ36" s="1"/>
       <c r="KA36" s="1"/>
       <c r="KB36" s="1"/>
-      <c r="KC36" s="1"/>
-      <c r="KD36" s="1"/>
-      <c r="KE36" s="1"/>
     </row>
-    <row r="37" ht="15.5" spans="1:291">
+    <row r="37" ht="15.5" spans="1:288">
       <c r="A37" s="1"/>
       <c r="B37" s="1">
         <v>36</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>157</v>
@@ -14828,37 +13270,37 @@
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N37" s="1"/>
+      <c r="L37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M37" s="1">
+        <v>48</v>
+      </c>
+      <c r="N37" s="1">
+        <v>60</v>
+      </c>
       <c r="O37" s="1">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="P37" s="1">
-        <v>60</v>
-      </c>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1">
-        <v>3</v>
-      </c>
-      <c r="S37" s="1">
-        <f>O37-Q37-R37</f>
-        <v>27</v>
-      </c>
-      <c r="T37" s="1" t="s">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="Q37" s="1" t="s">
         <v>159</v>
       </c>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
@@ -15127,63 +13569,66 @@
       <c r="JZ37" s="1"/>
       <c r="KA37" s="1"/>
       <c r="KB37" s="1"/>
-      <c r="KC37" s="1"/>
-      <c r="KD37" s="1"/>
-      <c r="KE37" s="1"/>
     </row>
-    <row r="38" ht="15.5" spans="1:291">
-      <c r="A38" s="1"/>
+    <row r="38" ht="15.5" spans="1:288">
+      <c r="A38" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="B38" s="1">
         <v>37</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F38" s="1">
         <v>2022</v>
       </c>
-      <c r="G38" s="1"/>
+      <c r="G38" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="H38" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N38" s="1"/>
+      <c r="K38" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M38" s="1">
+        <v>328</v>
+      </c>
+      <c r="N38" s="1">
+        <v>120</v>
+      </c>
       <c r="O38" s="1">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="P38" s="1">
-        <v>60</v>
+        <f t="shared" si="1"/>
+        <v>288</v>
       </c>
       <c r="Q38" s="1"/>
-      <c r="R38" s="1">
-        <v>2</v>
-      </c>
-      <c r="S38" s="1">
-        <f>O38-Q38-R38</f>
-        <v>46</v>
-      </c>
-      <c r="T38" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
-      <c r="W38" s="1"/>
+      <c r="W38" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
@@ -15449,31 +13894,26 @@
       <c r="JZ38" s="1"/>
       <c r="KA38" s="1"/>
       <c r="KB38" s="1"/>
-      <c r="KC38" s="1"/>
-      <c r="KD38" s="1"/>
-      <c r="KE38" s="1"/>
     </row>
-    <row r="39" ht="15.5" spans="1:291">
-      <c r="A39" s="1" t="s">
-        <v>161</v>
-      </c>
+    <row r="39" ht="15.5" spans="1:288">
+      <c r="A39" s="1"/>
       <c r="B39" s="1">
         <v>38</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="F39" s="1">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>165</v>
+        <v>95</v>
       </c>
       <c r="H39" s="1">
         <v>1</v>
@@ -15485,35 +13925,32 @@
         <v>9</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1">
-        <v>328</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M39" s="1">
+        <v>23</v>
+      </c>
+      <c r="N39" s="1">
+        <v>120</v>
+      </c>
+      <c r="O39" s="1"/>
       <c r="P39" s="1">
-        <v>120</v>
-      </c>
-      <c r="Q39" s="1">
-        <v>40</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
-      <c r="S39" s="1">
-        <v>288</v>
-      </c>
+      <c r="S39" s="1"/>
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
-      <c r="Z39" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="Z39" s="1"/>
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
       <c r="AC39" s="1"/>
@@ -15776,23 +14213,20 @@
       <c r="JZ39" s="1"/>
       <c r="KA39" s="1"/>
       <c r="KB39" s="1"/>
-      <c r="KC39" s="1"/>
-      <c r="KD39" s="1"/>
-      <c r="KE39" s="1"/>
     </row>
-    <row r="40" ht="15.5" spans="1:291">
+    <row r="40" ht="15.5" spans="1:288">
       <c r="A40" s="1"/>
       <c r="B40" s="1">
         <v>39</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>167</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F40" s="1">
         <v>2020</v>
@@ -15810,18 +14244,23 @@
         <v>9</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M40" s="1">
+        <v>21</v>
+      </c>
+      <c r="N40" s="1">
+        <v>120</v>
       </c>
       <c r="O40" s="1">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="P40" s="1">
-        <v>120</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
@@ -16095,23 +14534,20 @@
       <c r="JZ40" s="1"/>
       <c r="KA40" s="1"/>
       <c r="KB40" s="1"/>
-      <c r="KC40" s="1"/>
-      <c r="KD40" s="1"/>
-      <c r="KE40" s="1"/>
     </row>
-    <row r="41" ht="15.5" spans="1:291">
+    <row r="41" ht="15.5" spans="1:288">
       <c r="A41" s="1"/>
       <c r="B41" s="1">
         <v>40</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>167</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F41" s="1">
         <v>2020</v>
@@ -16129,26 +14565,25 @@
         <v>9</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="O41" s="1">
-        <v>21</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M41" s="1">
+        <v>18</v>
+      </c>
+      <c r="N41" s="1">
+        <v>120</v>
+      </c>
+      <c r="O41" s="1"/>
       <c r="P41" s="1">
-        <v>120</v>
-      </c>
-      <c r="Q41" s="1">
-        <v>3</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
-      <c r="S41" s="1">
-        <v>18</v>
-      </c>
+      <c r="S41" s="1"/>
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
       <c r="V41" s="1"/>
@@ -16418,29 +14853,26 @@
       <c r="JZ41" s="1"/>
       <c r="KA41" s="1"/>
       <c r="KB41" s="1"/>
-      <c r="KC41" s="1"/>
-      <c r="KD41" s="1"/>
-      <c r="KE41" s="1"/>
     </row>
-    <row r="42" ht="15.5" spans="1:291">
+    <row r="42" ht="15.5" spans="1:288">
       <c r="A42" s="1"/>
       <c r="B42" s="1">
         <v>41</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>78</v>
+        <v>172</v>
       </c>
       <c r="F42" s="1">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>95</v>
+        <v>173</v>
       </c>
       <c r="H42" s="1">
         <v>1</v>
@@ -16448,28 +14880,23 @@
       <c r="I42" s="1">
         <v>1</v>
       </c>
-      <c r="J42" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
       <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="M42" s="1">
+        <v>380</v>
+      </c>
+      <c r="N42" s="1"/>
       <c r="O42" s="1">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="P42" s="1">
-        <v>120</v>
+        <f t="shared" si="1"/>
+        <v>348</v>
       </c>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
-      <c r="S42" s="1">
-        <v>18</v>
-      </c>
+      <c r="S42" s="1"/>
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
       <c r="V42" s="1"/>
@@ -16739,26 +15166,33 @@
       <c r="JZ42" s="1"/>
       <c r="KA42" s="1"/>
       <c r="KB42" s="1"/>
-      <c r="KC42" s="1"/>
-      <c r="KD42" s="1"/>
-      <c r="KE42" s="1"/>
     </row>
-    <row r="43" ht="15.5" spans="1:291">
+    <row r="43" ht="15.5" spans="1:288">
       <c r="A43" s="1"/>
       <c r="B43" s="1">
         <v>42</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
+      <c r="E43" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F43" s="1">
+        <v>2023</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H43" s="1">
+        <v>2</v>
+      </c>
+      <c r="I43" s="1">
+        <v>2</v>
+      </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -17038,26 +15472,33 @@
       <c r="JZ43" s="1"/>
       <c r="KA43" s="1"/>
       <c r="KB43" s="1"/>
-      <c r="KC43" s="1"/>
-      <c r="KD43" s="1"/>
-      <c r="KE43" s="1"/>
     </row>
-    <row r="44" ht="15.5" spans="1:291">
+    <row r="44" ht="15.5" spans="1:288">
       <c r="A44" s="1"/>
       <c r="B44" s="1">
         <v>43</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
+      <c r="E44" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F44" s="1">
+        <v>2023</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H44" s="1">
+        <v>3</v>
+      </c>
+      <c r="I44" s="1">
+        <v>3</v>
+      </c>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -17337,20 +15778,17 @@
       <c r="JZ44" s="1"/>
       <c r="KA44" s="1"/>
       <c r="KB44" s="1"/>
-      <c r="KC44" s="1"/>
-      <c r="KD44" s="1"/>
-      <c r="KE44" s="1"/>
     </row>
-    <row r="45" ht="15.5" spans="1:291">
+    <row r="45" ht="15.5" spans="1:288">
       <c r="A45" s="1"/>
       <c r="B45" s="1">
         <v>44</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -17636,20 +16074,17 @@
       <c r="JZ45" s="1"/>
       <c r="KA45" s="1"/>
       <c r="KB45" s="1"/>
-      <c r="KC45" s="1"/>
-      <c r="KD45" s="1"/>
-      <c r="KE45" s="1"/>
     </row>
-    <row r="46" ht="15.5" spans="1:291">
+    <row r="46" ht="15.5" spans="1:288">
       <c r="A46" s="1"/>
       <c r="B46" s="1">
         <v>45</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -17935,20 +16370,17 @@
       <c r="JZ46" s="1"/>
       <c r="KA46" s="1"/>
       <c r="KB46" s="1"/>
-      <c r="KC46" s="1"/>
-      <c r="KD46" s="1"/>
-      <c r="KE46" s="1"/>
     </row>
-    <row r="47" ht="15.5" spans="1:291">
+    <row r="47" ht="15.5" spans="1:288">
       <c r="A47" s="1"/>
       <c r="B47" s="1">
         <v>46</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -18234,21 +16666,12 @@
       <c r="JZ47" s="1"/>
       <c r="KA47" s="1"/>
       <c r="KB47" s="1"/>
-      <c r="KC47" s="1"/>
-      <c r="KD47" s="1"/>
-      <c r="KE47" s="1"/>
     </row>
-    <row r="48" ht="15.5" spans="1:291">
+    <row r="48" ht="15.5" spans="1:288">
       <c r="A48" s="1"/>
-      <c r="B48" s="1">
-        <v>47</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>175</v>
-      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -18533,11 +16956,8 @@
       <c r="JZ48" s="1"/>
       <c r="KA48" s="1"/>
       <c r="KB48" s="1"/>
-      <c r="KC48" s="1"/>
-      <c r="KD48" s="1"/>
-      <c r="KE48" s="1"/>
     </row>
-    <row r="49" ht="15.5" spans="1:291">
+    <row r="49" ht="15.5" spans="1:288">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -18826,11 +17246,8 @@
       <c r="JZ49" s="1"/>
       <c r="KA49" s="1"/>
       <c r="KB49" s="1"/>
-      <c r="KC49" s="1"/>
-      <c r="KD49" s="1"/>
-      <c r="KE49" s="1"/>
     </row>
-    <row r="50" ht="15.5" spans="1:291">
+    <row r="50" ht="15.5" spans="1:288">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -19119,11 +17536,8 @@
       <c r="JZ50" s="1"/>
       <c r="KA50" s="1"/>
       <c r="KB50" s="1"/>
-      <c r="KC50" s="1"/>
-      <c r="KD50" s="1"/>
-      <c r="KE50" s="1"/>
     </row>
-    <row r="51" ht="15.5" spans="1:291">
+    <row r="51" ht="15.5" spans="1:288">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -19412,11 +17826,8 @@
       <c r="JZ51" s="1"/>
       <c r="KA51" s="1"/>
       <c r="KB51" s="1"/>
-      <c r="KC51" s="1"/>
-      <c r="KD51" s="1"/>
-      <c r="KE51" s="1"/>
     </row>
-    <row r="52" ht="15.5" spans="1:291">
+    <row r="52" ht="15.5" spans="1:288">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -19705,11 +18116,8 @@
       <c r="JZ52" s="1"/>
       <c r="KA52" s="1"/>
       <c r="KB52" s="1"/>
-      <c r="KC52" s="1"/>
-      <c r="KD52" s="1"/>
-      <c r="KE52" s="1"/>
     </row>
-    <row r="53" ht="15.5" spans="1:291">
+    <row r="53" ht="15.5" spans="1:288">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -19998,11 +18406,8 @@
       <c r="JZ53" s="1"/>
       <c r="KA53" s="1"/>
       <c r="KB53" s="1"/>
-      <c r="KC53" s="1"/>
-      <c r="KD53" s="1"/>
-      <c r="KE53" s="1"/>
     </row>
-    <row r="54" ht="15.5" spans="1:291">
+    <row r="54" ht="15.5" spans="1:288">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -20291,11 +18696,8 @@
       <c r="JZ54" s="1"/>
       <c r="KA54" s="1"/>
       <c r="KB54" s="1"/>
-      <c r="KC54" s="1"/>
-      <c r="KD54" s="1"/>
-      <c r="KE54" s="1"/>
     </row>
-    <row r="55" ht="15.5" spans="1:291">
+    <row r="55" ht="15.5" spans="1:288">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -20584,11 +18986,8 @@
       <c r="JZ55" s="1"/>
       <c r="KA55" s="1"/>
       <c r="KB55" s="1"/>
-      <c r="KC55" s="1"/>
-      <c r="KD55" s="1"/>
-      <c r="KE55" s="1"/>
     </row>
-    <row r="56" ht="15.5" spans="1:291">
+    <row r="56" ht="15.5" spans="1:288">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -20877,11 +19276,8 @@
       <c r="JZ56" s="1"/>
       <c r="KA56" s="1"/>
       <c r="KB56" s="1"/>
-      <c r="KC56" s="1"/>
-      <c r="KD56" s="1"/>
-      <c r="KE56" s="1"/>
     </row>
-    <row r="57" ht="15.5" spans="1:291">
+    <row r="57" ht="15.5" spans="1:288">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -21170,11 +19566,8 @@
       <c r="JZ57" s="1"/>
       <c r="KA57" s="1"/>
       <c r="KB57" s="1"/>
-      <c r="KC57" s="1"/>
-      <c r="KD57" s="1"/>
-      <c r="KE57" s="1"/>
     </row>
-    <row r="58" ht="15.5" spans="1:291">
+    <row r="58" ht="15.5" spans="1:288">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -21463,11 +19856,8 @@
       <c r="JZ58" s="1"/>
       <c r="KA58" s="1"/>
       <c r="KB58" s="1"/>
-      <c r="KC58" s="1"/>
-      <c r="KD58" s="1"/>
-      <c r="KE58" s="1"/>
     </row>
-    <row r="59" ht="15.5" spans="1:291">
+    <row r="59" ht="15.5" spans="1:288">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -21756,11 +20146,8 @@
       <c r="JZ59" s="1"/>
       <c r="KA59" s="1"/>
       <c r="KB59" s="1"/>
-      <c r="KC59" s="1"/>
-      <c r="KD59" s="1"/>
-      <c r="KE59" s="1"/>
     </row>
-    <row r="60" ht="15.5" spans="1:291">
+    <row r="60" ht="15.5" spans="1:288">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -22049,11 +20436,8 @@
       <c r="JZ60" s="1"/>
       <c r="KA60" s="1"/>
       <c r="KB60" s="1"/>
-      <c r="KC60" s="1"/>
-      <c r="KD60" s="1"/>
-      <c r="KE60" s="1"/>
     </row>
-    <row r="61" ht="15.5" spans="1:291">
+    <row r="61" ht="15.5" spans="1:288">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -22342,11 +20726,8 @@
       <c r="JZ61" s="1"/>
       <c r="KA61" s="1"/>
       <c r="KB61" s="1"/>
-      <c r="KC61" s="1"/>
-      <c r="KD61" s="1"/>
-      <c r="KE61" s="1"/>
     </row>
-    <row r="62" ht="15.5" spans="1:291">
+    <row r="62" ht="15.5" spans="1:288">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -22635,11 +21016,8 @@
       <c r="JZ62" s="1"/>
       <c r="KA62" s="1"/>
       <c r="KB62" s="1"/>
-      <c r="KC62" s="1"/>
-      <c r="KD62" s="1"/>
-      <c r="KE62" s="1"/>
     </row>
-    <row r="63" ht="15.5" spans="1:291">
+    <row r="63" ht="15.5" spans="1:288">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -22928,11 +21306,8 @@
       <c r="JZ63" s="1"/>
       <c r="KA63" s="1"/>
       <c r="KB63" s="1"/>
-      <c r="KC63" s="1"/>
-      <c r="KD63" s="1"/>
-      <c r="KE63" s="1"/>
     </row>
-    <row r="64" ht="15.5" spans="1:291">
+    <row r="64" ht="15.5" spans="1:288">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -23221,11 +21596,8 @@
       <c r="JZ64" s="1"/>
       <c r="KA64" s="1"/>
       <c r="KB64" s="1"/>
-      <c r="KC64" s="1"/>
-      <c r="KD64" s="1"/>
-      <c r="KE64" s="1"/>
     </row>
-    <row r="65" ht="15.5" spans="1:291">
+    <row r="65" ht="15.5" spans="1:288">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -23514,11 +21886,8 @@
       <c r="JZ65" s="1"/>
       <c r="KA65" s="1"/>
       <c r="KB65" s="1"/>
-      <c r="KC65" s="1"/>
-      <c r="KD65" s="1"/>
-      <c r="KE65" s="1"/>
     </row>
-    <row r="66" ht="15.5" spans="1:291">
+    <row r="66" ht="15.5" spans="1:12">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -23531,289 +21900,21 @@
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
-      <c r="N66" s="1"/>
-      <c r="O66" s="1"/>
-      <c r="P66" s="1"/>
-      <c r="Q66" s="1"/>
-      <c r="R66" s="1"/>
-      <c r="S66" s="1"/>
-      <c r="T66" s="1"/>
-      <c r="U66" s="1"/>
-      <c r="V66" s="1"/>
-      <c r="W66" s="1"/>
-      <c r="X66" s="1"/>
-      <c r="Y66" s="1"/>
-      <c r="Z66" s="1"/>
-      <c r="AA66" s="1"/>
-      <c r="AB66" s="1"/>
-      <c r="AC66" s="1"/>
-      <c r="AD66" s="1"/>
-      <c r="AE66" s="1"/>
-      <c r="AF66" s="1"/>
-      <c r="AG66" s="1"/>
-      <c r="AH66" s="1"/>
-      <c r="AI66" s="1"/>
-      <c r="AJ66" s="1"/>
-      <c r="AK66" s="1"/>
-      <c r="AL66" s="1"/>
-      <c r="AM66" s="1"/>
-      <c r="AN66" s="1"/>
-      <c r="AO66" s="1"/>
-      <c r="AP66" s="1"/>
-      <c r="AQ66" s="1"/>
-      <c r="AR66" s="1"/>
-      <c r="AS66" s="1"/>
-      <c r="AT66" s="1"/>
-      <c r="AU66" s="1"/>
-      <c r="AV66" s="1"/>
-      <c r="AW66" s="1"/>
-      <c r="AX66" s="1"/>
-      <c r="AY66" s="1"/>
-      <c r="AZ66" s="1"/>
-      <c r="BA66" s="1"/>
-      <c r="BB66" s="1"/>
-      <c r="BC66" s="1"/>
-      <c r="BD66" s="1"/>
-      <c r="BE66" s="1"/>
-      <c r="BF66" s="1"/>
-      <c r="BG66" s="1"/>
-      <c r="BH66" s="1"/>
-      <c r="BI66" s="1"/>
-      <c r="BJ66" s="1"/>
-      <c r="BK66" s="1"/>
-      <c r="BL66" s="1"/>
-      <c r="BM66" s="1"/>
-      <c r="BN66" s="1"/>
-      <c r="BO66" s="1"/>
-      <c r="BP66" s="1"/>
-      <c r="BQ66" s="1"/>
-      <c r="BR66" s="1"/>
-      <c r="BS66" s="1"/>
-      <c r="BT66" s="1"/>
-      <c r="BU66" s="1"/>
-      <c r="BV66" s="1"/>
-      <c r="BW66" s="1"/>
-      <c r="BX66" s="1"/>
-      <c r="BY66" s="1"/>
-      <c r="BZ66" s="1"/>
-      <c r="CA66" s="1"/>
-      <c r="CB66" s="1"/>
-      <c r="CC66" s="1"/>
-      <c r="CD66" s="1"/>
-      <c r="CE66" s="1"/>
-      <c r="CF66" s="1"/>
-      <c r="CG66" s="1"/>
-      <c r="CH66" s="1"/>
-      <c r="CI66" s="1"/>
-      <c r="CJ66" s="1"/>
-      <c r="CK66" s="1"/>
-      <c r="CL66" s="1"/>
-      <c r="CM66" s="1"/>
-      <c r="CN66" s="1"/>
-      <c r="CO66" s="1"/>
-      <c r="CP66" s="1"/>
-      <c r="CQ66" s="1"/>
-      <c r="CR66" s="1"/>
-      <c r="CS66" s="1"/>
-      <c r="CT66" s="1"/>
-      <c r="CU66" s="1"/>
-      <c r="CV66" s="1"/>
-      <c r="CW66" s="1"/>
-      <c r="CX66" s="1"/>
-      <c r="CY66" s="1"/>
-      <c r="CZ66" s="1"/>
-      <c r="DA66" s="1"/>
-      <c r="DB66" s="1"/>
-      <c r="DC66" s="1"/>
-      <c r="DD66" s="1"/>
-      <c r="DE66" s="1"/>
-      <c r="DF66" s="1"/>
-      <c r="DG66" s="1"/>
-      <c r="DH66" s="1"/>
-      <c r="DI66" s="1"/>
-      <c r="DJ66" s="1"/>
-      <c r="DK66" s="1"/>
-      <c r="DL66" s="1"/>
-      <c r="DM66" s="1"/>
-      <c r="DN66" s="1"/>
-      <c r="DO66" s="1"/>
-      <c r="DP66" s="1"/>
-      <c r="DQ66" s="1"/>
-      <c r="DR66" s="1"/>
-      <c r="DS66" s="1"/>
-      <c r="DT66" s="1"/>
-      <c r="DU66" s="1"/>
-      <c r="DV66" s="1"/>
-      <c r="DW66" s="1"/>
-      <c r="DX66" s="1"/>
-      <c r="DY66" s="1"/>
-      <c r="DZ66" s="1"/>
-      <c r="EA66" s="1"/>
-      <c r="EB66" s="1"/>
-      <c r="EC66" s="1"/>
-      <c r="ED66" s="1"/>
-      <c r="EE66" s="1"/>
-      <c r="EF66" s="1"/>
-      <c r="EG66" s="1"/>
-      <c r="EH66" s="1"/>
-      <c r="EI66" s="1"/>
-      <c r="EJ66" s="1"/>
-      <c r="EK66" s="1"/>
-      <c r="EL66" s="1"/>
-      <c r="EM66" s="1"/>
-      <c r="EN66" s="1"/>
-      <c r="EO66" s="1"/>
-      <c r="EP66" s="1"/>
-      <c r="EQ66" s="1"/>
-      <c r="ER66" s="1"/>
-      <c r="ES66" s="1"/>
-      <c r="ET66" s="1"/>
-      <c r="EU66" s="1"/>
-      <c r="EV66" s="1"/>
-      <c r="EW66" s="1"/>
-      <c r="EX66" s="1"/>
-      <c r="EY66" s="1"/>
-      <c r="EZ66" s="1"/>
-      <c r="FA66" s="1"/>
-      <c r="FB66" s="1"/>
-      <c r="FC66" s="1"/>
-      <c r="FD66" s="1"/>
-      <c r="FE66" s="1"/>
-      <c r="FF66" s="1"/>
-      <c r="FG66" s="1"/>
-      <c r="FH66" s="1"/>
-      <c r="FI66" s="1"/>
-      <c r="FJ66" s="1"/>
-      <c r="FK66" s="1"/>
-      <c r="FL66" s="1"/>
-      <c r="FM66" s="1"/>
-      <c r="FN66" s="1"/>
-      <c r="FO66" s="1"/>
-      <c r="FP66" s="1"/>
-      <c r="FQ66" s="1"/>
-      <c r="FR66" s="1"/>
-      <c r="FS66" s="1"/>
-      <c r="FT66" s="1"/>
-      <c r="FU66" s="1"/>
-      <c r="FV66" s="1"/>
-      <c r="FW66" s="1"/>
-      <c r="FX66" s="1"/>
-      <c r="FY66" s="1"/>
-      <c r="FZ66" s="1"/>
-      <c r="GA66" s="1"/>
-      <c r="GB66" s="1"/>
-      <c r="GC66" s="1"/>
-      <c r="GD66" s="1"/>
-      <c r="GE66" s="1"/>
-      <c r="GF66" s="1"/>
-      <c r="GG66" s="1"/>
-      <c r="GH66" s="1"/>
-      <c r="GI66" s="1"/>
-      <c r="GJ66" s="1"/>
-      <c r="GK66" s="1"/>
-      <c r="GL66" s="1"/>
-      <c r="GM66" s="1"/>
-      <c r="GN66" s="1"/>
-      <c r="GO66" s="1"/>
-      <c r="GP66" s="1"/>
-      <c r="GQ66" s="1"/>
-      <c r="GR66" s="1"/>
-      <c r="GS66" s="1"/>
-      <c r="GT66" s="1"/>
-      <c r="GU66" s="1"/>
-      <c r="GV66" s="1"/>
-      <c r="GW66" s="1"/>
-      <c r="GX66" s="1"/>
-      <c r="GY66" s="1"/>
-      <c r="GZ66" s="1"/>
-      <c r="HA66" s="1"/>
-      <c r="HB66" s="1"/>
-      <c r="HC66" s="1"/>
-      <c r="HD66" s="1"/>
-      <c r="HE66" s="1"/>
-      <c r="HF66" s="1"/>
-      <c r="HG66" s="1"/>
-      <c r="HH66" s="1"/>
-      <c r="HI66" s="1"/>
-      <c r="HJ66" s="1"/>
-      <c r="HK66" s="1"/>
-      <c r="HL66" s="1"/>
-      <c r="HM66" s="1"/>
-      <c r="HN66" s="1"/>
-      <c r="HO66" s="1"/>
-      <c r="HP66" s="1"/>
-      <c r="HQ66" s="1"/>
-      <c r="HR66" s="1"/>
-      <c r="HS66" s="1"/>
-      <c r="HT66" s="1"/>
-      <c r="HU66" s="1"/>
-      <c r="HV66" s="1"/>
-      <c r="HW66" s="1"/>
-      <c r="HX66" s="1"/>
-      <c r="HY66" s="1"/>
-      <c r="HZ66" s="1"/>
-      <c r="IA66" s="1"/>
-      <c r="IB66" s="1"/>
-      <c r="IC66" s="1"/>
-      <c r="ID66" s="1"/>
-      <c r="IE66" s="1"/>
-      <c r="IF66" s="1"/>
-      <c r="IG66" s="1"/>
-      <c r="IH66" s="1"/>
-      <c r="II66" s="1"/>
-      <c r="IJ66" s="1"/>
-      <c r="IK66" s="1"/>
-      <c r="IL66" s="1"/>
-      <c r="IM66" s="1"/>
-      <c r="IN66" s="1"/>
-      <c r="IO66" s="1"/>
-      <c r="IP66" s="1"/>
-      <c r="IQ66" s="1"/>
-      <c r="IR66" s="1"/>
-      <c r="IS66" s="1"/>
-      <c r="IT66" s="1"/>
-      <c r="IU66" s="1"/>
-      <c r="IV66" s="1"/>
-      <c r="IW66" s="1"/>
-      <c r="IX66" s="1"/>
-      <c r="IY66" s="1"/>
-      <c r="IZ66" s="1"/>
-      <c r="JA66" s="1"/>
-      <c r="JB66" s="1"/>
-      <c r="JC66" s="1"/>
-      <c r="JD66" s="1"/>
-      <c r="JE66" s="1"/>
-      <c r="JF66" s="1"/>
-      <c r="JG66" s="1"/>
-      <c r="JH66" s="1"/>
-      <c r="JI66" s="1"/>
-      <c r="JJ66" s="1"/>
-      <c r="JK66" s="1"/>
-      <c r="JL66" s="1"/>
-      <c r="JM66" s="1"/>
-      <c r="JN66" s="1"/>
-      <c r="JO66" s="1"/>
-      <c r="JP66" s="1"/>
-      <c r="JQ66" s="1"/>
-      <c r="JR66" s="1"/>
-      <c r="JS66" s="1"/>
-      <c r="JT66" s="1"/>
-      <c r="JU66" s="1"/>
-      <c r="JV66" s="1"/>
-      <c r="JW66" s="1"/>
-      <c r="JX66" s="1"/>
-      <c r="JY66" s="1"/>
-      <c r="JZ66" s="1"/>
-      <c r="KA66" s="1"/>
-      <c r="KB66" s="1"/>
-      <c r="KC66" s="1"/>
-      <c r="KD66" s="1"/>
-      <c r="KE66" s="1"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:V42" etc:filterBottomFollowUsedRange="0">
-    <extLst/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:S47" etc:filterBottomFollowUsedRange="0">
+    <extLst>
+      <etc:autoFilterAnalysis etc:version="v1" etc:showPane="0">
+        <etc:analysisCharts>
+          <etc:chart etc:type="pie">
+            <etc:category etc:colId="3"/>
+            <etc:seriesCollections etc:count="1">
+              <etc:series etc:colId="3" etc:subtotal="count"/>
+            </etc:seriesCollections>
+          </etc:chart>
+        </etc:analysisCharts>
+      </etc:autoFilterAnalysis>
+    </extLst>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -23824,10 +21925,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelCol="1"/>
@@ -23846,15 +21947,15 @@
     </row>
     <row r="2" ht="15.5" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1">
-        <v>2023</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="3" ht="15.5" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1">
         <v>2019</v>
@@ -23862,23 +21963,23 @@
     </row>
     <row r="4" ht="15.5" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="5" ht="15.5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="6" ht="15.5" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="B6" s="1">
         <v>2020</v>
@@ -23886,7 +21987,7 @@
     </row>
     <row r="7" ht="15.5" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B7" s="1">
         <v>2020</v>
@@ -23894,151 +21995,393 @@
     </row>
     <row r="8" ht="15.5" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B8" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="9" ht="15.5" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="B9" s="1">
-        <v>2018</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="10" ht="15.5" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="B10" s="1">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="11" ht="15.5" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="B11" s="1">
-        <v>2021</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="12" ht="15.5" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="B12" s="1">
-        <v>2022</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="13" ht="15.5" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="B13" s="1">
-        <v>2021</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="14" ht="15.5" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="B14" s="1">
-        <v>2023</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="15" ht="15.5" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="B15" s="1">
-        <v>2023</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="16" ht="15.5" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="B16" s="1">
-        <v>2014</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="17" ht="15.5" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="B17" s="1">
-        <v>2015</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="18" ht="15.5" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="B18" s="1">
-        <v>2014</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="19" ht="15.5" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="B19" s="1">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="20" ht="15.5" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="B20" s="1">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="21" ht="15.5" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>146</v>
+        <v>93</v>
       </c>
       <c r="B21" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="22" ht="15.5" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>153</v>
+        <v>101</v>
       </c>
       <c r="B22" s="1">
-        <v>2023</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="23" ht="15.5" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="B23" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="24" ht="15.5" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>163</v>
+        <v>111</v>
       </c>
       <c r="B24" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="25" ht="15.5" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>167</v>
+        <v>116</v>
       </c>
       <c r="B25" s="1">
-        <v>2020</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="26" ht="15.5" spans="1:2">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
+      <c r="A26" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="27" ht="15.5" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="28" ht="15.5" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B28" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="29" ht="15.5" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B29" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="30" ht="15.5" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="31" ht="15.5" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B31" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="32" ht="15.5" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B32" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="33" ht="15.5" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B33" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="34" ht="15.5" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B34" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="35" ht="15.5" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B35" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="36" ht="15.5" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B36" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="37" ht="15.5" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B37" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="38" ht="15.5" spans="1:2">
+      <c r="A38" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B38" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="39" ht="15.5" spans="1:2">
+      <c r="A39" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B39" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="40" ht="15.5" spans="1:2">
+      <c r="A40" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B40" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="41" ht="15.5" spans="1:2">
+      <c r="A41" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B41" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="42" ht="15.5" spans="1:2">
+      <c r="A42" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B42" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="43" ht="15.5" spans="1:2">
+      <c r="A43" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B43" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="44" ht="15.5" spans="1:2">
+      <c r="A44" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B44" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="45" ht="15.5" spans="1:2">
+      <c r="A45" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" ht="15.5" spans="1:2">
+      <c r="A46" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" ht="15.5" spans="1:2">
+      <c r="A47" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B47" s="1"/>
+    </row>
+    <row r="48" ht="15.5" spans="1:2">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+    </row>
+    <row r="49" ht="15.5" spans="1:2">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+    </row>
+    <row r="50" ht="15.5" spans="1:2">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+    </row>
+    <row r="51" ht="15.5" spans="1:2">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+    </row>
+    <row r="52" ht="15.5" spans="1:2">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+    </row>
+    <row r="53" ht="15.5" spans="1:2">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+    </row>
+    <row r="54" ht="15.5" spans="1:2">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+    </row>
+    <row r="55" ht="15.5" spans="1:2">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+    </row>
+    <row r="56" ht="15.5" spans="1:2">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+    </row>
+    <row r="57" ht="15.5" spans="1:2">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+    </row>
+    <row r="58" ht="15.5" spans="1:2">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+    </row>
+    <row r="59" ht="15.5" spans="1:2">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+    </row>
+    <row r="60" ht="15.5" spans="1:2">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+    </row>
+    <row r="61" ht="15.5" spans="1:2">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+    </row>
+    <row r="62" ht="15.5" spans="1:2">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+    </row>
+    <row r="63" ht="15.5" spans="1:2">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+    </row>
+    <row r="64" ht="15.5" spans="1:2">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+    </row>
+    <row r="65" ht="15.5" spans="1:2">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+    </row>
+    <row r="66" ht="15.5" spans="1:2">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Label.xlsx
+++ b/Label.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="181">
   <si>
     <t>Note</t>
   </si>
@@ -732,6 +732,9 @@
   <si>
     <t>Pt13Eb</t>
   </si>
+  <si>
+    <t>NaN</t>
+  </si>
 </sst>
 </file>
 
@@ -756,6 +759,14 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -859,14 +870,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1229,16 +1232,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1247,34 +1247,37 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1359,12 +1362,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1372,7 +1381,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1445,16 +1454,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>311150</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1471,7 +1480,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3441700" y="3632200"/>
+          <a:off x="5454650" y="107950"/>
           <a:ext cx="3238500" cy="2387600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1748,12 +1757,12 @@
   <sheetPr/>
   <dimension ref="A1:KB66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="W6" sqref="W6"/>
+      <selection pane="bottomRight" activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1773,12 +1782,12 @@
     <col min="14" max="14" width="12.9166666666667" customWidth="1"/>
     <col min="15" max="15" width="12.75" customWidth="1"/>
     <col min="16" max="16" width="9" customWidth="1"/>
-    <col min="17" max="17" width="37" customWidth="1"/>
+    <col min="17" max="17" width="41.6666666666667" customWidth="1"/>
     <col min="18" max="18" width="29" customWidth="1"/>
     <col min="20" max="20" width="13.25" customWidth="1"/>
     <col min="21" max="21" width="17.4166666666667" customWidth="1"/>
     <col min="22" max="22" width="8.66666666666667" customWidth="1"/>
-    <col min="23" max="23" width="23.8333333333333" style="2" customWidth="1"/>
+    <col min="23" max="23" width="23.8333333333333" style="4" customWidth="1"/>
     <col min="24" max="24" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1789,7 +1798,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1849,7 +1858,7 @@
       <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="4" t="s">
         <v>22</v>
       </c>
       <c r="X1" t="s">
@@ -1923,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="W2" s="1"/>
-      <c r="X2" s="4" t="s">
+      <c r="X2" s="6" t="s">
         <v>33</v>
       </c>
       <c r="Y2" s="1">
@@ -2256,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="W3" s="1"/>
-      <c r="X3" s="4" t="s">
+      <c r="X3" s="6" t="s">
         <v>33</v>
       </c>
       <c r="Y3" s="1">
@@ -2589,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="1"/>
-      <c r="X4" s="4" t="s">
+      <c r="X4" s="6" t="s">
         <v>33</v>
       </c>
       <c r="Y4" s="1">
@@ -2922,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="1"/>
-      <c r="X5" s="4" t="s">
+      <c r="X5" s="6" t="s">
         <v>33</v>
       </c>
       <c r="Y5" s="1">
@@ -3259,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="1"/>
-      <c r="X6" s="4" t="s">
+      <c r="X6" s="6" t="s">
         <v>33</v>
       </c>
       <c r="Y6" s="1">
@@ -21925,224 +21934,380 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="6.08333333333333" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.5" spans="1:2">
+    <row r="1" ht="15.5" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" ht="15.5" spans="1:2">
+    <row r="2" ht="15.5" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B2" s="1">
         <v>2019</v>
       </c>
+      <c r="D2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2019</v>
+      </c>
     </row>
-    <row r="3" ht="15.5" spans="1:2">
+    <row r="3" ht="15.5" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="1">
         <v>2019</v>
       </c>
+      <c r="D3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2020</v>
+      </c>
     </row>
-    <row r="4" ht="15.5" spans="1:2">
+    <row r="4" ht="15.5" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="1">
         <v>2019</v>
       </c>
+      <c r="D4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2020</v>
+      </c>
     </row>
-    <row r="5" ht="15.5" spans="1:2">
+    <row r="5" ht="15.5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="1">
         <v>2019</v>
       </c>
+      <c r="D5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2020</v>
+      </c>
     </row>
-    <row r="6" ht="15.5" spans="1:2">
+    <row r="6" ht="15.5" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="1">
         <v>2020</v>
       </c>
+      <c r="D6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2020</v>
+      </c>
     </row>
-    <row r="7" ht="15.5" spans="1:2">
+    <row r="7" ht="15.5" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B7" s="1">
         <v>2020</v>
       </c>
+      <c r="D7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2019</v>
+      </c>
     </row>
-    <row r="8" ht="15.5" spans="1:2">
+    <row r="8" ht="15.5" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B8" s="1">
         <v>2020</v>
       </c>
+      <c r="D8" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2018</v>
+      </c>
     </row>
-    <row r="9" ht="15.5" spans="1:2">
+    <row r="9" ht="15.5" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B9" s="1">
         <v>2020</v>
       </c>
+      <c r="D9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="10" ht="15.5" spans="1:2">
+    <row r="10" ht="15.5" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B10" s="1">
         <v>2020</v>
       </c>
+      <c r="D10" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="11" ht="15.5" spans="1:2">
+    <row r="11" ht="15.5" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B11" s="1">
         <v>2019</v>
       </c>
+      <c r="D11" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="12" ht="15.5" spans="1:2">
+    <row r="12" ht="15.5" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B12" s="1">
         <v>2019</v>
       </c>
+      <c r="D12" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="13" ht="15.5" spans="1:2">
+    <row r="13" ht="15.5" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B13" s="1">
         <v>2018</v>
       </c>
+      <c r="D13" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="14" ht="15.5" spans="1:2">
+    <row r="14" ht="15.5" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B14" s="1">
         <v>2018</v>
       </c>
+      <c r="D14" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="15" ht="15.5" spans="1:2">
+    <row r="15" ht="15.5" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B15" s="1">
         <v>2021</v>
       </c>
+      <c r="D15" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2014</v>
+      </c>
     </row>
-    <row r="16" ht="15.5" spans="1:2">
+    <row r="16" ht="15.5" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B16" s="1">
         <v>2021</v>
       </c>
+      <c r="D16" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E16" s="3">
+        <v>2015</v>
+      </c>
     </row>
-    <row r="17" ht="15.5" spans="1:2">
+    <row r="17" ht="15.5" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B17" s="1">
         <v>2021</v>
       </c>
+      <c r="D17" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2014</v>
+      </c>
     </row>
-    <row r="18" ht="15.5" spans="1:2">
+    <row r="18" ht="15.5" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B18" s="1">
         <v>2021</v>
       </c>
+      <c r="D18" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="19" ht="15.5" spans="1:2">
+    <row r="19" ht="15.5" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B19" s="1">
         <v>2022</v>
       </c>
+      <c r="D19" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="20" ht="15.5" spans="1:2">
+    <row r="20" ht="15.5" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B20" s="1">
         <v>2022</v>
       </c>
+      <c r="D20" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="21" ht="15.5" spans="1:2">
+    <row r="21" ht="15.5" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B21" s="1">
         <v>2022</v>
       </c>
+      <c r="D21" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="22" ht="15.5" spans="1:2">
+    <row r="22" ht="15.5" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B22" s="1">
         <v>2021</v>
       </c>
+      <c r="D22" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="23" ht="15.5" spans="1:2">
+    <row r="23" ht="15.5" spans="1:5">
       <c r="A23" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B23" s="1">
         <v>2023</v>
       </c>
+      <c r="D23" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="24" ht="15.5" spans="1:2">
+    <row r="24" ht="15.5" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B24" s="1">
         <v>2023</v>
       </c>
+      <c r="D24" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2020</v>
+      </c>
     </row>
-    <row r="25" ht="15.5" spans="1:2">
+    <row r="25" ht="15.5" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B25" s="1">
         <v>2014</v>
       </c>
+      <c r="D25" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E25" s="3">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="26" ht="15.5" spans="1:2">
+    <row r="26" ht="15.5" spans="1:5">
       <c r="A26" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B26" s="1">
         <v>2015</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="27" ht="15.5" spans="1:2">

--- a/Label.xlsx
+++ b/Label.xlsx
@@ -11,7 +11,8 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Label!$A$1:$S$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Label!$A$1:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$A$68</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="209">
   <si>
     <t>Note</t>
   </si>
@@ -206,10 +207,55 @@
     <t>Hu et al.</t>
   </si>
   <si>
+    <t>Collabra: Psychology</t>
+  </si>
+  <si>
     <t>Other</t>
   </si>
   <si>
     <t>Matlab + PTB</t>
+  </si>
+  <si>
+    <t>Chinese</t>
+  </si>
+  <si>
+    <t>P34E1</t>
+  </si>
+  <si>
+    <t>P34</t>
+  </si>
+  <si>
+    <t>IR Kolvoort et al.</t>
+  </si>
+  <si>
+    <t>Human Brain Mapping</t>
+  </si>
+  <si>
+    <t>You</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>P45E1</t>
+  </si>
+  <si>
+    <t>P45</t>
+  </si>
+  <si>
+    <t>L McIvor et al.</t>
+  </si>
+  <si>
+    <t>European Journal of Neuroscience</t>
+  </si>
+  <si>
+    <t>Emotion valence: (happy/sad/neutral)</t>
+  </si>
+  <si>
+    <t>E-prime2.0</t>
   </si>
   <si>
     <t>P46E2</t>
@@ -299,10 +345,7 @@
     <t>none</t>
   </si>
   <si>
-    <t>E-prime2.0</t>
-  </si>
-  <si>
-    <t>P54E3</t>
+    <t>German</t>
   </si>
   <si>
     <t>face</t>
@@ -521,6 +564,9 @@
     <t>Sui et al.</t>
   </si>
   <si>
+    <t>Attention, Perception, &amp; Psychophysics</t>
+  </si>
+  <si>
     <t>Mother</t>
   </si>
   <si>
@@ -585,9 +631,6 @@
   </si>
   <si>
     <t>Liang et al.</t>
-  </si>
-  <si>
-    <t>Human Brain Mapping</t>
   </si>
   <si>
     <r>
@@ -670,6 +713,9 @@
     <t>Vicovaro et al.</t>
   </si>
   <si>
+    <t>Journal of Experimental Psychology: Human Perception and Performance</t>
+  </si>
+  <si>
     <t>symmetry: (symmetry; asymmetry)</t>
   </si>
   <si>
@@ -727,10 +773,49 @@
     <t>Pt13</t>
   </si>
   <si>
+    <t>M Feldborg et al.</t>
+  </si>
+  <si>
+    <t>International Journal of Environmental Research and Public Health</t>
+  </si>
+  <si>
     <t>Pt13Ea</t>
   </si>
   <si>
     <t>Pt13Eb</t>
+  </si>
+  <si>
+    <t>Pt18E1</t>
+  </si>
+  <si>
+    <t>Pt18</t>
+  </si>
+  <si>
+    <t>J Sui et al.</t>
+  </si>
+  <si>
+    <t>Consciousness and Cognition</t>
+  </si>
+  <si>
+    <t>Pt27E2</t>
+  </si>
+  <si>
+    <t>Pt27</t>
+  </si>
+  <si>
+    <t>V Martínez-Pérez et al.</t>
+  </si>
+  <si>
+    <t>Pt28E1</t>
+  </si>
+  <si>
+    <t>Pt28</t>
+  </si>
+  <si>
+    <t>L Amodeo et al.</t>
+  </si>
+  <si>
+    <t>Cognitive, Affective, &amp; Behavioral Neuroscience</t>
   </si>
   <si>
     <t>NaN</t>
@@ -1362,7 +1447,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1383,6 +1468,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1436,6 +1524,16 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9900"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -1454,16 +1552,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>374650</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1480,7 +1578,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5454650" y="107950"/>
+          <a:off x="6699250" y="50800"/>
           <a:ext cx="3238500" cy="2387600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1755,14 +1853,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:KB66"/>
+  <dimension ref="A1:KB67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T8" sqref="T8"/>
+      <selection pane="bottomRight" activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1782,7 +1880,7 @@
     <col min="14" max="14" width="12.9166666666667" customWidth="1"/>
     <col min="15" max="15" width="12.75" customWidth="1"/>
     <col min="16" max="16" width="9" customWidth="1"/>
-    <col min="17" max="17" width="41.6666666666667" customWidth="1"/>
+    <col min="17" max="17" width="32.75" customWidth="1"/>
     <col min="18" max="18" width="29" customWidth="1"/>
     <col min="20" max="20" width="13.25" customWidth="1"/>
     <col min="21" max="21" width="17.4166666666667" customWidth="1"/>
@@ -2249,7 +2347,7 @@
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1">
-        <f t="shared" ref="P3:P42" si="0">M3-O3</f>
+        <f>M3-O3</f>
         <v>28</v>
       </c>
       <c r="Q3" s="1"/>
@@ -2582,7 +2680,7 @@
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1">
-        <f t="shared" si="0"/>
+        <f>M4-O4</f>
         <v>28</v>
       </c>
       <c r="Q4" s="1"/>
@@ -2915,7 +3013,7 @@
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1">
-        <f t="shared" si="0"/>
+        <f>M5-O5</f>
         <v>40</v>
       </c>
       <c r="Q5" s="1"/>
@@ -3248,7 +3346,7 @@
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1">
-        <f t="shared" si="0"/>
+        <f>M6-O6</f>
         <v>92</v>
       </c>
       <c r="Q6" s="1" t="s">
@@ -3557,7 +3655,9 @@
       <c r="F7" s="1">
         <v>2020</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="H7" s="1">
         <v>1</v>
       </c>
@@ -3569,7 +3669,7 @@
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M7" s="1">
         <v>46</v>
@@ -3579,7 +3679,7 @@
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1">
-        <f t="shared" si="0"/>
+        <f>M7-O7</f>
         <v>46</v>
       </c>
       <c r="Q7" s="1"/>
@@ -3595,11 +3695,17 @@
         <v>0</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="X7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>19</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>27</v>
+      </c>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
@@ -3869,56 +3975,66 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="F8" s="1">
         <v>2020</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K8" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="L8" s="1" t="s">
         <v>45</v>
       </c>
       <c r="M8" s="1">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="N8" s="1">
-        <v>48</v>
-      </c>
-      <c r="O8" s="1">
-        <v>1</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="O8" s="1"/>
       <c r="P8" s="1">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="Q8" s="1"/>
+        <v>31</v>
+      </c>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
+      <c r="T8" s="1">
+        <v>1</v>
+      </c>
+      <c r="U8" s="1">
+        <v>0</v>
+      </c>
+      <c r="V8" s="1">
+        <v>1</v>
+      </c>
       <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
+      <c r="X8" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>14</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>17</v>
+      </c>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
@@ -4183,26 +4299,24 @@
       <c r="KB8" s="1"/>
     </row>
     <row r="9" ht="15.5" spans="1:288">
-      <c r="A9" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="A9" s="1"/>
       <c r="B9" s="1">
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F9" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H9" s="1">
         <v>1</v>
@@ -4215,31 +4329,44 @@
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="M9" s="1">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="N9" s="1">
-        <v>24</v>
-      </c>
-      <c r="O9" s="1"/>
+        <v>960</v>
+      </c>
+      <c r="O9" s="1">
+        <v>7</v>
+      </c>
       <c r="P9" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>62</v>
+        <v>33</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
+      <c r="T9" s="1">
+        <v>1</v>
+      </c>
+      <c r="U9" s="1">
+        <v>0</v>
+      </c>
+      <c r="V9" s="1">
+        <v>0</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
+      <c r="Y9" s="1">
+        <v>8</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>32</v>
+      </c>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
@@ -4509,19 +4636,19 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="F10" s="1">
         <v>2020</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H10" s="1">
         <v>2</v>
@@ -4534,31 +4661,43 @@
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="M10" s="1">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="N10" s="1">
-        <v>25</v>
-      </c>
-      <c r="O10" s="1"/>
+        <v>384</v>
+      </c>
+      <c r="O10" s="1">
+        <v>1</v>
+      </c>
       <c r="P10" s="1">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>65</v>
-      </c>
+        <f>M10-O10</f>
+        <v>55</v>
+      </c>
+      <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
+      <c r="T10" s="1">
+        <v>1</v>
+      </c>
+      <c r="U10" s="1">
+        <v>0</v>
+      </c>
+      <c r="V10" s="1">
+        <v>0</v>
+      </c>
       <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
+      <c r="X10" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>28</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>28</v>
+      </c>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
@@ -4823,24 +4962,26 @@
       <c r="KB10" s="1"/>
     </row>
     <row r="11" ht="15.5" spans="1:288">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="B11" s="1">
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F11" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="H11" s="1">
         <v>1</v>
@@ -4851,43 +4992,47 @@
       <c r="J11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="K11" s="1"/>
       <c r="L11" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="M11" s="1">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="N11" s="1">
-        <v>18</v>
-      </c>
-      <c r="O11" s="1">
-        <v>1</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="O11" s="1"/>
       <c r="P11" s="1">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="Q11" s="1"/>
+        <f>M11-O11</f>
+        <v>26</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1">
         <v>1</v>
       </c>
       <c r="U11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11" s="1">
         <v>0</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
+        <v>67</v>
+      </c>
+      <c r="X11" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>10</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>16</v>
+      </c>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
@@ -5157,56 +5302,70 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="E12" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F12" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="H12" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="M12" s="1">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N12" s="1">
-        <v>24</v>
-      </c>
-      <c r="O12" s="1">
-        <v>2</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="O12" s="1"/>
       <c r="P12" s="1">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="Q12" s="1"/>
+        <f>M12-O12</f>
+        <v>26</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
+      <c r="T12" s="1">
+        <v>1</v>
+      </c>
+      <c r="U12" s="1">
+        <v>0</v>
+      </c>
+      <c r="V12" s="1">
+        <v>0</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="X12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>7</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>19</v>
+      </c>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
@@ -5471,26 +5630,24 @@
       <c r="KB12" s="1"/>
     </row>
     <row r="13" ht="15.5" spans="1:288">
-      <c r="A13" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="A13" s="1"/>
       <c r="B13" s="1">
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="F13" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H13" s="1">
         <v>1</v>
@@ -5502,25 +5659,25 @@
         <v>9</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="M13" s="1">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="N13" s="1">
-        <v>56</v>
-      </c>
-      <c r="O13" s="1"/>
+        <v>144</v>
+      </c>
+      <c r="O13" s="1">
+        <v>1</v>
+      </c>
       <c r="P13" s="1">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>80</v>
-      </c>
+        <f>M13-O13</f>
+        <v>102</v>
+      </c>
+      <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1">
@@ -5530,14 +5687,20 @@
         <v>0</v>
       </c>
       <c r="V13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
+        <v>67</v>
+      </c>
+      <c r="X13" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>13</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>90</v>
+      </c>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
@@ -5803,37 +5966,37 @@
     </row>
     <row r="14" ht="15.5" spans="1:288">
       <c r="A14" s="1" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="B14" s="1">
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="F14" s="1">
         <v>2018</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="H14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>45</v>
@@ -5842,15 +6005,15 @@
         <v>18</v>
       </c>
       <c r="N14" s="1">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="P14:P43" si="0">M14-O14</f>
         <v>18</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
@@ -5864,7 +6027,7 @@
         <v>1</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
@@ -6133,55 +6296,55 @@
       <c r="KB14" s="1"/>
     </row>
     <row r="15" ht="15.5" spans="1:288">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="B15" s="1">
         <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="F15" s="1">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="H15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>45</v>
       </c>
       <c r="M15" s="1">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="N15" s="1">
-        <v>30</v>
-      </c>
-      <c r="O15" s="1">
-        <v>1</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="O15" s="1"/>
       <c r="P15" s="1">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
@@ -6192,9 +6355,11 @@
         <v>0</v>
       </c>
       <c r="V15" s="1">
-        <v>0</v>
-      </c>
-      <c r="W15" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
@@ -6467,18 +6632,20 @@
         <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="F16" s="1">
         <v>2021</v>
       </c>
-      <c r="G16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="H16" s="1">
         <v>1</v>
       </c>
@@ -6489,23 +6656,27 @@
         <v>9</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>45</v>
       </c>
       <c r="M16" s="1">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="N16" s="1">
-        <v>60</v>
-      </c>
-      <c r="O16" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="O16" s="1">
+        <v>1</v>
+      </c>
       <c r="P16" s="1">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="Q16" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1">
@@ -6517,9 +6688,7 @@
       <c r="V16" s="1">
         <v>0</v>
       </c>
-      <c r="W16" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="W16" s="1"/>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
@@ -6792,35 +6961,35 @@
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="F17" s="1">
         <v>2021</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I17" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>45</v>
       </c>
       <c r="M17" s="1">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="N17" s="1">
         <v>60</v>
@@ -6828,7 +6997,7 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -6843,7 +7012,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
@@ -7117,35 +7286,35 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="F18" s="1">
         <v>2021</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I18" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>45</v>
       </c>
       <c r="M18" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N18" s="1">
         <v>60</v>
@@ -7153,7 +7322,7 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -7168,7 +7337,7 @@
         <v>0</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
@@ -7442,43 +7611,43 @@
         <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F19" s="1">
-        <v>2022</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>95</v>
-      </c>
+        <v>2021</v>
+      </c>
+      <c r="G19" s="1"/>
       <c r="H19" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I19" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L19" s="1"/>
+        <v>93</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="M19" s="1">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="N19" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="O19" s="1"/>
       <c r="P19" s="1">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -7492,7 +7661,9 @@
       <c r="V19" s="1">
         <v>0</v>
       </c>
-      <c r="W19" s="1"/>
+      <c r="W19" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
@@ -7765,47 +7936,45 @@
         <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="F20" s="1">
         <v>2022</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="H20" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N20" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O20" s="1"/>
       <c r="P20" s="1">
         <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>97</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1">
@@ -8090,48 +8259,46 @@
         <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="F21" s="1">
         <v>2022</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="H21" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I21" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N21" s="1">
         <v>100</v>
       </c>
-      <c r="O21" s="1">
-        <v>1</v>
-      </c>
+      <c r="O21" s="1"/>
       <c r="P21" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
@@ -8417,57 +8584,61 @@
         <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="F22" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="H22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="L22" s="1"/>
       <c r="M22" s="1">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="N22" s="1">
-        <v>60</v>
-      </c>
-      <c r="O22" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="O22" s="1">
+        <v>1</v>
+      </c>
       <c r="P22" s="1">
         <f t="shared" si="0"/>
-        <v>105</v>
+        <v>24</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="T22" s="1">
+        <v>1</v>
+      </c>
+      <c r="U22" s="1">
+        <v>0</v>
+      </c>
+      <c r="V22" s="1">
+        <v>0</v>
+      </c>
+      <c r="W22" s="1"/>
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
@@ -8735,26 +8906,24 @@
       <c r="KB22" s="1"/>
     </row>
     <row r="23" ht="15.5" spans="1:288">
-      <c r="A23" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="A23" s="1"/>
       <c r="B23" s="1">
         <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="F23" s="1">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="H23" s="1">
         <v>1</v>
@@ -8765,36 +8934,34 @@
       <c r="J23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K23" s="1"/>
+      <c r="K23" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="L23" s="1" t="s">
         <v>45</v>
       </c>
       <c r="M23" s="1">
-        <v>298</v>
+        <v>105</v>
       </c>
       <c r="N23" s="1">
-        <v>16</v>
-      </c>
-      <c r="O23" s="1">
-        <v>18</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="O23" s="1"/>
       <c r="P23" s="1">
         <f t="shared" si="0"/>
-        <v>280</v>
-      </c>
-      <c r="Q23" s="1"/>
+        <v>105</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
-      <c r="T23" s="1">
-        <v>1</v>
-      </c>
-      <c r="U23" s="1">
-        <v>1</v>
-      </c>
-      <c r="V23" s="1">
-        <v>0</v>
-      </c>
-      <c r="W23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
@@ -9063,29 +9230,31 @@
     </row>
     <row r="24" ht="15.5" spans="1:288">
       <c r="A24" s="1" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="B24" s="1">
         <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="F24" s="1">
         <v>2023</v>
       </c>
-      <c r="G24" s="1"/>
+      <c r="G24" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="H24" s="1">
         <v>1</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>112</v>
+      <c r="I24" s="1">
+        <v>1</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>9</v>
@@ -9095,37 +9264,31 @@
         <v>45</v>
       </c>
       <c r="M24" s="1">
-        <v>23</v>
+        <v>298</v>
       </c>
       <c r="N24" s="1">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="O24" s="1">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="P24" s="1">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>113</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
-      <c r="S24" s="1" t="s">
-        <v>114</v>
-      </c>
+      <c r="S24" s="1"/>
       <c r="T24" s="1">
         <v>1</v>
       </c>
       <c r="U24" s="1">
+        <v>1</v>
+      </c>
+      <c r="V24" s="1">
         <v>0</v>
       </c>
-      <c r="V24" s="1">
-        <v>1</v>
-      </c>
-      <c r="W24" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="W24" s="1"/>
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
@@ -9393,56 +9556,70 @@
       <c r="KB24" s="1"/>
     </row>
     <row r="25" ht="15.5" spans="1:288">
-      <c r="A25" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="B25" s="1">
         <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>117</v>
+        <v>50</v>
       </c>
       <c r="F25" s="1">
-        <v>2014</v>
+        <v>2023</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1">
         <v>1</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K25" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="K25" s="1"/>
       <c r="L25" s="1" t="s">
         <v>45</v>
       </c>
       <c r="M25" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N25" s="1">
-        <v>40</v>
-      </c>
-      <c r="O25" s="1"/>
+        <v>90</v>
+      </c>
+      <c r="O25" s="1">
+        <v>3</v>
+      </c>
       <c r="P25" s="1">
         <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="Q25" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
-      <c r="W25" s="1"/>
+      <c r="S25" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="T25" s="1">
+        <v>1</v>
+      </c>
+      <c r="U25" s="1">
+        <v>0</v>
+      </c>
+      <c r="V25" s="1">
+        <v>1</v>
+      </c>
+      <c r="W25" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
@@ -9715,35 +9892,35 @@
         <v>25</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="F26" s="1">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1">
         <v>1</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>45</v>
       </c>
       <c r="M26" s="1">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N26" s="1">
         <v>40</v>
@@ -9751,7 +9928,7 @@
       <c r="O26" s="1"/>
       <c r="P26" s="1">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
@@ -10032,35 +10209,35 @@
         <v>26</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="F27" s="1">
         <v>2015</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>45</v>
       </c>
       <c r="M27" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N27" s="1">
         <v>40</v>
@@ -10068,7 +10245,7 @@
       <c r="O27" s="1"/>
       <c r="P27" s="1">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
@@ -10344,54 +10521,50 @@
       <c r="KB27" s="1"/>
     </row>
     <row r="28" ht="15.5" spans="1:288">
-      <c r="A28" s="1" t="s">
-        <v>122</v>
-      </c>
+      <c r="A28" s="1"/>
       <c r="B28" s="1">
         <v>27</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="F28" s="1">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1">
-        <v>1</v>
-      </c>
-      <c r="I28" s="1">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>45</v>
       </c>
       <c r="M28" s="1">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N28" s="1">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="O28" s="1"/>
       <c r="P28" s="1">
         <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="Q28" s="1" t="s">
-        <v>127</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
@@ -10666,41 +10839,43 @@
     </row>
     <row r="29" ht="15.5" spans="1:288">
       <c r="A29" s="1" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B29" s="1">
         <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="F29" s="1">
         <v>2014</v>
       </c>
-      <c r="G29" s="1"/>
+      <c r="G29" s="1" t="s">
+        <v>140</v>
+      </c>
       <c r="H29" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>45</v>
       </c>
       <c r="M29" s="1">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N29" s="1">
         <v>60</v>
@@ -10708,10 +10883,10 @@
       <c r="O29" s="1"/>
       <c r="P29" s="1">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
@@ -10987,41 +11162,43 @@
     </row>
     <row r="30" ht="15.5" spans="1:288">
       <c r="A30" s="1" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="B30" s="1">
         <v>29</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="F30" s="1">
         <v>2014</v>
       </c>
-      <c r="G30" s="1"/>
+      <c r="G30" s="1" t="s">
+        <v>140</v>
+      </c>
       <c r="H30" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I30" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>45</v>
       </c>
       <c r="M30" s="1">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N30" s="1">
         <v>60</v>
@@ -11029,10 +11206,10 @@
       <c r="O30" s="1"/>
       <c r="P30" s="1">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
@@ -11308,41 +11485,43 @@
     </row>
     <row r="31" ht="15.5" spans="1:288">
       <c r="A31" s="1" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="B31" s="1">
         <v>30</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="F31" s="1">
         <v>2014</v>
       </c>
-      <c r="G31" s="1"/>
+      <c r="G31" s="1" t="s">
+        <v>140</v>
+      </c>
       <c r="H31" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I31" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>45</v>
       </c>
       <c r="M31" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N31" s="1">
         <v>60</v>
@@ -11350,10 +11529,10 @@
       <c r="O31" s="1"/>
       <c r="P31" s="1">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
@@ -11628,12 +11807,14 @@
       <c r="KB31" s="1"/>
     </row>
     <row r="32" ht="15.5" spans="1:288">
-      <c r="A32" s="1"/>
+      <c r="A32" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="B32" s="1">
         <v>31</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>138</v>
@@ -11642,26 +11823,28 @@
         <v>139</v>
       </c>
       <c r="F32" s="1">
-        <v>2023</v>
+        <v>2014</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H32" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I32" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K32" s="1"/>
+      <c r="K32" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="L32" s="1" t="s">
         <v>45</v>
       </c>
       <c r="M32" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="N32" s="1">
         <v>60</v>
@@ -11669,23 +11852,17 @@
       <c r="O32" s="1"/>
       <c r="P32" s="1">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="Q32" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
-      <c r="T32" s="1">
-        <v>1</v>
-      </c>
-      <c r="U32" s="1">
-        <v>0</v>
-      </c>
-      <c r="V32" s="1">
-        <v>1</v>
-      </c>
-      <c r="W32" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
@@ -11958,19 +12135,19 @@
         <v>32</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F33" s="1">
         <v>2023</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="H33" s="1">
         <v>1</v>
@@ -11981,24 +12158,20 @@
       <c r="J33" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K33" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="K33" s="1"/>
       <c r="L33" s="1" t="s">
         <v>45</v>
       </c>
       <c r="M33" s="1">
-        <v>144</v>
+        <v>40</v>
       </c>
       <c r="N33" s="1">
-        <v>20</v>
-      </c>
-      <c r="O33" s="1">
-        <v>2</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="O33" s="1"/>
       <c r="P33" s="1">
-        <f t="shared" ref="P33:P42" si="1">M33-O33</f>
-        <v>142</v>
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
@@ -12007,12 +12180,14 @@
         <v>1</v>
       </c>
       <c r="U33" s="1">
+        <v>0</v>
+      </c>
+      <c r="V33" s="1">
         <v>1</v>
       </c>
-      <c r="V33" s="1">
-        <v>0</v>
-      </c>
-      <c r="W33" s="1"/>
+      <c r="W33" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
@@ -12285,19 +12460,19 @@
         <v>33</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="F34" s="1">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="H34" s="1">
         <v>1</v>
@@ -12309,43 +12484,37 @@
         <v>9</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>45</v>
       </c>
       <c r="M34" s="1">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="N34" s="1">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="O34" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P34" s="1">
-        <f t="shared" si="1"/>
-        <v>108</v>
-      </c>
-      <c r="Q34" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="R34" s="1" t="s">
-        <v>150</v>
-      </c>
+        <f t="shared" ref="P34:P43" si="1">M34-O34</f>
+        <v>142</v>
+      </c>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
       <c r="S34" s="1"/>
       <c r="T34" s="1">
         <v>1</v>
       </c>
       <c r="U34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V34" s="1">
         <v>0</v>
       </c>
-      <c r="W34" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="W34" s="1"/>
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
@@ -12613,26 +12782,24 @@
       <c r="KB34" s="1"/>
     </row>
     <row r="35" ht="15.5" spans="1:288">
-      <c r="A35" s="1" t="s">
-        <v>151</v>
-      </c>
+      <c r="A35" s="1"/>
       <c r="B35" s="1">
         <v>34</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="F35" s="1">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>155</v>
+        <v>58</v>
       </c>
       <c r="H35" s="1">
         <v>1</v>
@@ -12644,24 +12811,30 @@
         <v>9</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L35" s="1"/>
+        <v>93</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="M35" s="1">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="N35" s="1">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="O35" s="1">
         <v>1</v>
       </c>
       <c r="P35" s="1">
         <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
+        <v>108</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>164</v>
+      </c>
       <c r="S35" s="1"/>
       <c r="T35" s="1">
         <v>1</v>
@@ -12673,7 +12846,7 @@
         <v>0</v>
       </c>
       <c r="W35" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
@@ -12942,23 +13115,27 @@
       <c r="KB35" s="1"/>
     </row>
     <row r="36" ht="15.5" spans="1:288">
-      <c r="A36" s="1"/>
+      <c r="A36" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="B36" s="1">
         <v>35</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="F36" s="1">
-        <v>2022</v>
-      </c>
-      <c r="G36" s="1"/>
+        <v>2023</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>169</v>
+      </c>
       <c r="H36" s="1">
         <v>1</v>
       </c>
@@ -12968,32 +13145,38 @@
       <c r="J36" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="K36" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L36" s="1"/>
       <c r="M36" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N36" s="1">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="O36" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P36" s="1">
         <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="Q36" s="1" t="s">
-        <v>159</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
-      <c r="V36" s="1"/>
-      <c r="W36" s="1"/>
+      <c r="T36" s="1">
+        <v>1</v>
+      </c>
+      <c r="U36" s="1">
+        <v>0</v>
+      </c>
+      <c r="V36" s="1">
+        <v>0</v>
+      </c>
+      <c r="W36" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
@@ -13266,23 +13449,25 @@
         <v>36</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="F37" s="1">
         <v>2022</v>
       </c>
-      <c r="G37" s="1"/>
+      <c r="G37" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="H37" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>9</v>
@@ -13292,20 +13477,20 @@
         <v>45</v>
       </c>
       <c r="M37" s="1">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="N37" s="1">
         <v>60</v>
       </c>
       <c r="O37" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P37" s="1">
         <f t="shared" si="1"/>
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
@@ -13580,64 +13765,60 @@
       <c r="KB37" s="1"/>
     </row>
     <row r="38" ht="15.5" spans="1:288">
-      <c r="A38" s="1" t="s">
-        <v>161</v>
-      </c>
+      <c r="A38" s="1"/>
       <c r="B38" s="1">
         <v>37</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="F38" s="1">
         <v>2022</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="H38" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K38" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="K38" s="1"/>
       <c r="L38" s="1" t="s">
         <v>45</v>
       </c>
       <c r="M38" s="1">
-        <v>328</v>
+        <v>48</v>
       </c>
       <c r="N38" s="1">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="O38" s="1">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="P38" s="1">
         <f t="shared" si="1"/>
-        <v>288</v>
-      </c>
-      <c r="Q38" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
-      <c r="W38" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="W38" s="1"/>
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
@@ -13905,24 +14086,26 @@
       <c r="KB38" s="1"/>
     </row>
     <row r="39" ht="15.5" spans="1:288">
-      <c r="A39" s="1"/>
+      <c r="A39" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="B39" s="1">
         <v>38</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>77</v>
+        <v>179</v>
       </c>
       <c r="F39" s="1">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="H39" s="1">
         <v>1</v>
@@ -13934,21 +14117,23 @@
         <v>9</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="M39" s="1">
-        <v>23</v>
+        <v>328</v>
       </c>
       <c r="N39" s="1">
         <v>120</v>
       </c>
-      <c r="O39" s="1"/>
+      <c r="O39" s="1">
+        <v>40</v>
+      </c>
       <c r="P39" s="1">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>288</v>
       </c>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
@@ -13956,7 +14141,9 @@
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
-      <c r="W39" s="1"/>
+      <c r="W39" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
@@ -14229,19 +14416,19 @@
         <v>39</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="F40" s="1">
         <v>2020</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="H40" s="1">
         <v>1</v>
@@ -14253,23 +14440,21 @@
         <v>9</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="M40" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N40" s="1">
         <v>120</v>
       </c>
-      <c r="O40" s="1">
-        <v>3</v>
-      </c>
+      <c r="O40" s="1"/>
       <c r="P40" s="1">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
@@ -14550,19 +14735,19 @@
         <v>40</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="F41" s="1">
         <v>2020</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="H41" s="1">
         <v>1</v>
@@ -14574,18 +14759,20 @@
         <v>9</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="M41" s="1">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N41" s="1">
         <v>120</v>
       </c>
-      <c r="O41" s="1"/>
+      <c r="O41" s="1">
+        <v>3</v>
+      </c>
       <c r="P41" s="1">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -14869,19 +15056,19 @@
         <v>41</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>172</v>
+        <v>91</v>
       </c>
       <c r="F42" s="1">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>173</v>
+        <v>109</v>
       </c>
       <c r="H42" s="1">
         <v>1</v>
@@ -14889,19 +15076,25 @@
       <c r="I42" s="1">
         <v>1</v>
       </c>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
+      <c r="J42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="M42" s="1">
-        <v>380</v>
-      </c>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="N42" s="1">
+        <v>120</v>
+      </c>
+      <c r="O42" s="1"/>
       <c r="P42" s="1">
         <f t="shared" si="1"/>
-        <v>348</v>
+        <v>18</v>
       </c>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
@@ -15182,33 +15375,40 @@
         <v>42</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="F43" s="1">
         <v>2023</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="H43" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
+      <c r="M43" s="1">
+        <v>380</v>
+      </c>
       <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
+      <c r="O43" s="1">
+        <v>32</v>
+      </c>
+      <c r="P43" s="1">
+        <f t="shared" si="1"/>
+        <v>348</v>
+      </c>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
@@ -15488,25 +15688,25 @@
         <v>43</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="F44" s="1">
         <v>2023</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="H44" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I44" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
@@ -15794,16 +15994,26 @@
         <v>44</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
+        <v>186</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F45" s="1">
+        <v>2023</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H45" s="1">
+        <v>3</v>
+      </c>
+      <c r="I45" s="1">
+        <v>3</v>
+      </c>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -16090,16 +16300,26 @@
         <v>45</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
+        <v>192</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F46" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H46" s="1">
+        <v>1</v>
+      </c>
+      <c r="I46" s="1">
+        <v>1</v>
+      </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -16386,16 +16606,26 @@
         <v>46</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
+        <v>192</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F47" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H47" s="1">
+        <v>2</v>
+      </c>
+      <c r="I47" s="1">
+        <v>2</v>
+      </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -16678,14 +16908,30 @@
     </row>
     <row r="48" ht="15.5" spans="1:288">
       <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
+      <c r="B48" s="1">
+        <v>47</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F48" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H48" s="1">
+        <v>3</v>
+      </c>
+      <c r="I48" s="1">
+        <v>3</v>
+      </c>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -16968,14 +17214,30 @@
     </row>
     <row r="49" ht="15.5" spans="1:288">
       <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
+      <c r="B49" s="1">
+        <v>48</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F49" s="1">
+        <v>2023</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H49" s="1">
+        <v>1</v>
+      </c>
+      <c r="I49" s="1">
+        <v>1</v>
+      </c>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -17258,14 +17520,30 @@
     </row>
     <row r="50" ht="15.5" spans="1:288">
       <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
+      <c r="B50" s="1">
+        <v>49</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F50" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H50" s="1">
+        <v>1</v>
+      </c>
+      <c r="I50" s="1">
+        <v>1</v>
+      </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
@@ -17548,14 +17826,30 @@
     </row>
     <row r="51" ht="15.5" spans="1:288">
       <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
+      <c r="B51" s="1">
+        <v>50</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F51" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H51" s="1">
+        <v>1</v>
+      </c>
+      <c r="I51" s="1">
+        <v>1</v>
+      </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -21896,7 +22190,7 @@
       <c r="KA65" s="1"/>
       <c r="KB65" s="1"/>
     </row>
-    <row r="66" ht="15.5" spans="1:12">
+    <row r="66" ht="15.5" spans="1:288">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -21909,9 +22203,299 @@
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="1"/>
+      <c r="S66" s="1"/>
+      <c r="T66" s="1"/>
+      <c r="U66" s="1"/>
+      <c r="V66" s="1"/>
+      <c r="W66" s="1"/>
+      <c r="X66" s="1"/>
+      <c r="Y66" s="1"/>
+      <c r="Z66" s="1"/>
+      <c r="AA66" s="1"/>
+      <c r="AB66" s="1"/>
+      <c r="AC66" s="1"/>
+      <c r="AD66" s="1"/>
+      <c r="AE66" s="1"/>
+      <c r="AF66" s="1"/>
+      <c r="AG66" s="1"/>
+      <c r="AH66" s="1"/>
+      <c r="AI66" s="1"/>
+      <c r="AJ66" s="1"/>
+      <c r="AK66" s="1"/>
+      <c r="AL66" s="1"/>
+      <c r="AM66" s="1"/>
+      <c r="AN66" s="1"/>
+      <c r="AO66" s="1"/>
+      <c r="AP66" s="1"/>
+      <c r="AQ66" s="1"/>
+      <c r="AR66" s="1"/>
+      <c r="AS66" s="1"/>
+      <c r="AT66" s="1"/>
+      <c r="AU66" s="1"/>
+      <c r="AV66" s="1"/>
+      <c r="AW66" s="1"/>
+      <c r="AX66" s="1"/>
+      <c r="AY66" s="1"/>
+      <c r="AZ66" s="1"/>
+      <c r="BA66" s="1"/>
+      <c r="BB66" s="1"/>
+      <c r="BC66" s="1"/>
+      <c r="BD66" s="1"/>
+      <c r="BE66" s="1"/>
+      <c r="BF66" s="1"/>
+      <c r="BG66" s="1"/>
+      <c r="BH66" s="1"/>
+      <c r="BI66" s="1"/>
+      <c r="BJ66" s="1"/>
+      <c r="BK66" s="1"/>
+      <c r="BL66" s="1"/>
+      <c r="BM66" s="1"/>
+      <c r="BN66" s="1"/>
+      <c r="BO66" s="1"/>
+      <c r="BP66" s="1"/>
+      <c r="BQ66" s="1"/>
+      <c r="BR66" s="1"/>
+      <c r="BS66" s="1"/>
+      <c r="BT66" s="1"/>
+      <c r="BU66" s="1"/>
+      <c r="BV66" s="1"/>
+      <c r="BW66" s="1"/>
+      <c r="BX66" s="1"/>
+      <c r="BY66" s="1"/>
+      <c r="BZ66" s="1"/>
+      <c r="CA66" s="1"/>
+      <c r="CB66" s="1"/>
+      <c r="CC66" s="1"/>
+      <c r="CD66" s="1"/>
+      <c r="CE66" s="1"/>
+      <c r="CF66" s="1"/>
+      <c r="CG66" s="1"/>
+      <c r="CH66" s="1"/>
+      <c r="CI66" s="1"/>
+      <c r="CJ66" s="1"/>
+      <c r="CK66" s="1"/>
+      <c r="CL66" s="1"/>
+      <c r="CM66" s="1"/>
+      <c r="CN66" s="1"/>
+      <c r="CO66" s="1"/>
+      <c r="CP66" s="1"/>
+      <c r="CQ66" s="1"/>
+      <c r="CR66" s="1"/>
+      <c r="CS66" s="1"/>
+      <c r="CT66" s="1"/>
+      <c r="CU66" s="1"/>
+      <c r="CV66" s="1"/>
+      <c r="CW66" s="1"/>
+      <c r="CX66" s="1"/>
+      <c r="CY66" s="1"/>
+      <c r="CZ66" s="1"/>
+      <c r="DA66" s="1"/>
+      <c r="DB66" s="1"/>
+      <c r="DC66" s="1"/>
+      <c r="DD66" s="1"/>
+      <c r="DE66" s="1"/>
+      <c r="DF66" s="1"/>
+      <c r="DG66" s="1"/>
+      <c r="DH66" s="1"/>
+      <c r="DI66" s="1"/>
+      <c r="DJ66" s="1"/>
+      <c r="DK66" s="1"/>
+      <c r="DL66" s="1"/>
+      <c r="DM66" s="1"/>
+      <c r="DN66" s="1"/>
+      <c r="DO66" s="1"/>
+      <c r="DP66" s="1"/>
+      <c r="DQ66" s="1"/>
+      <c r="DR66" s="1"/>
+      <c r="DS66" s="1"/>
+      <c r="DT66" s="1"/>
+      <c r="DU66" s="1"/>
+      <c r="DV66" s="1"/>
+      <c r="DW66" s="1"/>
+      <c r="DX66" s="1"/>
+      <c r="DY66" s="1"/>
+      <c r="DZ66" s="1"/>
+      <c r="EA66" s="1"/>
+      <c r="EB66" s="1"/>
+      <c r="EC66" s="1"/>
+      <c r="ED66" s="1"/>
+      <c r="EE66" s="1"/>
+      <c r="EF66" s="1"/>
+      <c r="EG66" s="1"/>
+      <c r="EH66" s="1"/>
+      <c r="EI66" s="1"/>
+      <c r="EJ66" s="1"/>
+      <c r="EK66" s="1"/>
+      <c r="EL66" s="1"/>
+      <c r="EM66" s="1"/>
+      <c r="EN66" s="1"/>
+      <c r="EO66" s="1"/>
+      <c r="EP66" s="1"/>
+      <c r="EQ66" s="1"/>
+      <c r="ER66" s="1"/>
+      <c r="ES66" s="1"/>
+      <c r="ET66" s="1"/>
+      <c r="EU66" s="1"/>
+      <c r="EV66" s="1"/>
+      <c r="EW66" s="1"/>
+      <c r="EX66" s="1"/>
+      <c r="EY66" s="1"/>
+      <c r="EZ66" s="1"/>
+      <c r="FA66" s="1"/>
+      <c r="FB66" s="1"/>
+      <c r="FC66" s="1"/>
+      <c r="FD66" s="1"/>
+      <c r="FE66" s="1"/>
+      <c r="FF66" s="1"/>
+      <c r="FG66" s="1"/>
+      <c r="FH66" s="1"/>
+      <c r="FI66" s="1"/>
+      <c r="FJ66" s="1"/>
+      <c r="FK66" s="1"/>
+      <c r="FL66" s="1"/>
+      <c r="FM66" s="1"/>
+      <c r="FN66" s="1"/>
+      <c r="FO66" s="1"/>
+      <c r="FP66" s="1"/>
+      <c r="FQ66" s="1"/>
+      <c r="FR66" s="1"/>
+      <c r="FS66" s="1"/>
+      <c r="FT66" s="1"/>
+      <c r="FU66" s="1"/>
+      <c r="FV66" s="1"/>
+      <c r="FW66" s="1"/>
+      <c r="FX66" s="1"/>
+      <c r="FY66" s="1"/>
+      <c r="FZ66" s="1"/>
+      <c r="GA66" s="1"/>
+      <c r="GB66" s="1"/>
+      <c r="GC66" s="1"/>
+      <c r="GD66" s="1"/>
+      <c r="GE66" s="1"/>
+      <c r="GF66" s="1"/>
+      <c r="GG66" s="1"/>
+      <c r="GH66" s="1"/>
+      <c r="GI66" s="1"/>
+      <c r="GJ66" s="1"/>
+      <c r="GK66" s="1"/>
+      <c r="GL66" s="1"/>
+      <c r="GM66" s="1"/>
+      <c r="GN66" s="1"/>
+      <c r="GO66" s="1"/>
+      <c r="GP66" s="1"/>
+      <c r="GQ66" s="1"/>
+      <c r="GR66" s="1"/>
+      <c r="GS66" s="1"/>
+      <c r="GT66" s="1"/>
+      <c r="GU66" s="1"/>
+      <c r="GV66" s="1"/>
+      <c r="GW66" s="1"/>
+      <c r="GX66" s="1"/>
+      <c r="GY66" s="1"/>
+      <c r="GZ66" s="1"/>
+      <c r="HA66" s="1"/>
+      <c r="HB66" s="1"/>
+      <c r="HC66" s="1"/>
+      <c r="HD66" s="1"/>
+      <c r="HE66" s="1"/>
+      <c r="HF66" s="1"/>
+      <c r="HG66" s="1"/>
+      <c r="HH66" s="1"/>
+      <c r="HI66" s="1"/>
+      <c r="HJ66" s="1"/>
+      <c r="HK66" s="1"/>
+      <c r="HL66" s="1"/>
+      <c r="HM66" s="1"/>
+      <c r="HN66" s="1"/>
+      <c r="HO66" s="1"/>
+      <c r="HP66" s="1"/>
+      <c r="HQ66" s="1"/>
+      <c r="HR66" s="1"/>
+      <c r="HS66" s="1"/>
+      <c r="HT66" s="1"/>
+      <c r="HU66" s="1"/>
+      <c r="HV66" s="1"/>
+      <c r="HW66" s="1"/>
+      <c r="HX66" s="1"/>
+      <c r="HY66" s="1"/>
+      <c r="HZ66" s="1"/>
+      <c r="IA66" s="1"/>
+      <c r="IB66" s="1"/>
+      <c r="IC66" s="1"/>
+      <c r="ID66" s="1"/>
+      <c r="IE66" s="1"/>
+      <c r="IF66" s="1"/>
+      <c r="IG66" s="1"/>
+      <c r="IH66" s="1"/>
+      <c r="II66" s="1"/>
+      <c r="IJ66" s="1"/>
+      <c r="IK66" s="1"/>
+      <c r="IL66" s="1"/>
+      <c r="IM66" s="1"/>
+      <c r="IN66" s="1"/>
+      <c r="IO66" s="1"/>
+      <c r="IP66" s="1"/>
+      <c r="IQ66" s="1"/>
+      <c r="IR66" s="1"/>
+      <c r="IS66" s="1"/>
+      <c r="IT66" s="1"/>
+      <c r="IU66" s="1"/>
+      <c r="IV66" s="1"/>
+      <c r="IW66" s="1"/>
+      <c r="IX66" s="1"/>
+      <c r="IY66" s="1"/>
+      <c r="IZ66" s="1"/>
+      <c r="JA66" s="1"/>
+      <c r="JB66" s="1"/>
+      <c r="JC66" s="1"/>
+      <c r="JD66" s="1"/>
+      <c r="JE66" s="1"/>
+      <c r="JF66" s="1"/>
+      <c r="JG66" s="1"/>
+      <c r="JH66" s="1"/>
+      <c r="JI66" s="1"/>
+      <c r="JJ66" s="1"/>
+      <c r="JK66" s="1"/>
+      <c r="JL66" s="1"/>
+      <c r="JM66" s="1"/>
+      <c r="JN66" s="1"/>
+      <c r="JO66" s="1"/>
+      <c r="JP66" s="1"/>
+      <c r="JQ66" s="1"/>
+      <c r="JR66" s="1"/>
+      <c r="JS66" s="1"/>
+      <c r="JT66" s="1"/>
+      <c r="JU66" s="1"/>
+      <c r="JV66" s="1"/>
+      <c r="JW66" s="1"/>
+      <c r="JX66" s="1"/>
+      <c r="JY66" s="1"/>
+      <c r="JZ66" s="1"/>
+      <c r="KA66" s="1"/>
+      <c r="KB66" s="1"/>
+    </row>
+    <row r="67" ht="15.5" spans="1:12">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:S47" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:S51" etc:filterBottomFollowUsedRange="0">
     <extLst>
       <etc:autoFilterAnalysis etc:version="v1" etc:showPane="0">
         <etc:analysisCharts>
@@ -21925,6 +22509,9 @@
       </etc:autoFilterAnalysis>
     </extLst>
   </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="G51" r:id="rId1" display="Cognitive, Affective, &amp; Behavioral Neuroscience" tooltip="https://link.springer.com/journal/13415"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -21933,20 +22520,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E66"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="6.08333333333333" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="7" max="7" width="6.08333333333333" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.5" spans="1:5">
+    <row r="1" ht="15.5" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -21959,8 +22548,14 @@
       <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" ht="15.5" spans="1:5">
+    <row r="2" ht="15.5" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -21973,8 +22568,14 @@
       <c r="E2" s="3">
         <v>2019</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2019</v>
+      </c>
     </row>
-    <row r="3" ht="15.5" spans="1:5">
+    <row r="3" ht="15.5" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -21987,8 +22588,14 @@
       <c r="E3" s="3">
         <v>2020</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2019</v>
+      </c>
     </row>
-    <row r="4" ht="15.5" spans="1:5">
+    <row r="4" ht="15.5" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -22001,8 +22608,14 @@
       <c r="E4" s="3">
         <v>2020</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2019</v>
+      </c>
     </row>
-    <row r="5" ht="15.5" spans="1:5">
+    <row r="5" ht="15.5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -22010,13 +22623,19 @@
         <v>2019</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="E5" s="3">
         <v>2020</v>
       </c>
+      <c r="G5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2019</v>
+      </c>
     </row>
-    <row r="6" ht="15.5" spans="1:5">
+    <row r="6" ht="15.5" hidden="1" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>41</v>
       </c>
@@ -22024,13 +22643,19 @@
         <v>2020</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="E6" s="3">
         <v>2020</v>
       </c>
+      <c r="G6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2020</v>
+      </c>
     </row>
-    <row r="7" ht="15.5" spans="1:5">
+    <row r="7" ht="15.5" hidden="1" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>49</v>
       </c>
@@ -22038,517 +22663,865 @@
         <v>2020</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="E7" s="3">
         <v>2019</v>
       </c>
+      <c r="G7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2020</v>
+      </c>
     </row>
-    <row r="8" ht="15.5" spans="1:5">
+    <row r="8" ht="15.5" hidden="1" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B8" s="1">
         <v>2020</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="E8" s="3">
         <v>2018</v>
       </c>
+      <c r="G8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2020</v>
+      </c>
     </row>
-    <row r="9" ht="15.5" spans="1:5">
+    <row r="9" ht="15.5" hidden="1" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B9" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="E9" s="3">
         <v>2021</v>
       </c>
+      <c r="G9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="10" ht="15.5" spans="1:5">
+    <row r="10" ht="15.5" hidden="1" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B10" s="1">
         <v>2020</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="E10" s="3">
         <v>2021</v>
       </c>
+      <c r="G10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2020</v>
+      </c>
     </row>
-    <row r="11" ht="15.5" spans="1:5">
+    <row r="11" ht="15.5" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B11" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="E11" s="3">
         <v>2022</v>
       </c>
+      <c r="G11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="1">
+        <v>2020</v>
+      </c>
     </row>
-    <row r="12" ht="15.5" spans="1:5">
+    <row r="12" ht="15.5" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B12" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="E12" s="3">
         <v>2021</v>
       </c>
+      <c r="G12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="1">
+        <v>2020</v>
+      </c>
     </row>
-    <row r="13" ht="15.5" spans="1:5">
+    <row r="13" ht="15.5" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B13" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="E13" s="3">
         <v>2023</v>
       </c>
+      <c r="G13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" s="1">
+        <v>2019</v>
+      </c>
     </row>
-    <row r="14" ht="15.5" spans="1:5">
+    <row r="14" ht="15.5" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B14" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="E14" s="3">
         <v>2023</v>
       </c>
+      <c r="G14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" s="1">
+        <v>2019</v>
+      </c>
     </row>
-    <row r="15" ht="15.5" spans="1:5">
+    <row r="15" ht="15.5" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B15" s="1">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="E15" s="3">
         <v>2014</v>
       </c>
+      <c r="G15" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H15" s="1">
+        <v>2018</v>
+      </c>
     </row>
-    <row r="16" ht="15.5" spans="1:5">
+    <row r="16" ht="15.5" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B16" s="1">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="E16" s="3">
         <v>2015</v>
       </c>
+      <c r="G16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="1">
+        <v>2018</v>
+      </c>
     </row>
-    <row r="17" ht="15.5" spans="1:5">
+    <row r="17" ht="15.5" hidden="1" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B17" s="1">
         <v>2021</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="E17" s="3">
         <v>2014</v>
       </c>
+      <c r="G17" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="1">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="18" ht="15.5" spans="1:5">
+    <row r="18" ht="15.5" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="B18" s="1">
         <v>2021</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="E18" s="3">
         <v>2023</v>
       </c>
+      <c r="G18" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H18" s="1">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="19" ht="15.5" spans="1:5">
+    <row r="19" ht="15.5" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B19" s="1">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="E19" s="3">
         <v>2023</v>
       </c>
+      <c r="G19" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H19" s="1">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="20" ht="15.5" spans="1:5">
+    <row r="20" ht="15.5" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B20" s="1">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="E20" s="3">
         <v>2021</v>
       </c>
+      <c r="G20" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H20" s="1">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="21" ht="15.5" spans="1:5">
+    <row r="21" ht="15.5" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="B21" s="1">
         <v>2022</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="E21" s="3">
         <v>2023</v>
       </c>
+      <c r="G21" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H21" s="1">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="22" ht="15.5" spans="1:5">
+    <row r="22" ht="15.5" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B22" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="E22" s="3">
         <v>2022</v>
       </c>
+      <c r="G22" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H22" s="1">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="23" ht="15.5" spans="1:5">
+    <row r="23" ht="15.5" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B23" s="1">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="E23" s="3">
         <v>2022</v>
       </c>
+      <c r="G23" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H23" s="1">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="24" ht="15.5" spans="1:5">
+    <row r="24" ht="15.5" hidden="1" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B24" s="1">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="E24" s="3">
         <v>2020</v>
       </c>
+      <c r="G24" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H24" s="1">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="25" ht="15.5" spans="1:5">
+    <row r="25" ht="15.5" hidden="1" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B25" s="1">
-        <v>2014</v>
+        <v>2023</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="E25" s="3">
         <v>2023</v>
       </c>
+      <c r="G25" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H25" s="1">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="26" ht="15.5" spans="1:5">
+    <row r="26" ht="15.5" hidden="1" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B26" s="1">
+        <v>2023</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H26" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="27" ht="15.5" hidden="1" spans="1:8">
+      <c r="A27" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2014</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H27" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="28" ht="15.5" spans="1:8">
+      <c r="A28" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B28" s="1">
         <v>2015</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>180</v>
+      <c r="G28" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H28" s="1">
+        <v>2015</v>
       </c>
     </row>
-    <row r="27" ht="15.5" spans="1:2">
-      <c r="A27" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B27" s="1">
+    <row r="29" ht="15.5" spans="1:8">
+      <c r="A29" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B29" s="1">
         <v>2015</v>
       </c>
+      <c r="G29" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H29" s="1">
+        <v>2015</v>
+      </c>
     </row>
-    <row r="28" ht="15.5" spans="1:2">
-      <c r="A28" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B28" s="1">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="29" ht="15.5" spans="1:2">
-      <c r="A29" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B29" s="1">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="30" ht="15.5" spans="1:2">
+    <row r="30" ht="15.5" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="B30" s="1">
         <v>2014</v>
       </c>
+      <c r="G30" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H30" s="1">
+        <v>2014</v>
+      </c>
     </row>
-    <row r="31" ht="15.5" spans="1:2">
+    <row r="31" ht="15.5" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="B31" s="1">
         <v>2014</v>
       </c>
+      <c r="G31" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H31" s="1">
+        <v>2014</v>
+      </c>
     </row>
-    <row r="32" ht="15.5" spans="1:2">
+    <row r="32" ht="15.5" spans="1:8">
       <c r="A32" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B32" s="1">
+        <v>2014</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H32" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="33" ht="15.5" spans="1:8">
+      <c r="A33" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B33" s="1">
+        <v>2014</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H33" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="34" ht="15.5" hidden="1" spans="1:8">
+      <c r="A34" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B34" s="1">
         <v>2023</v>
       </c>
+      <c r="G34" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H34" s="1">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="33" ht="15.5" spans="1:2">
-      <c r="A33" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B33" s="1">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="34" ht="15.5" spans="1:2">
-      <c r="A34" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B34" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="35" ht="15.5" spans="1:2">
+    <row r="35" ht="15.5" hidden="1" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B35" s="1">
         <v>2023</v>
       </c>
+      <c r="G35" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H35" s="1">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="36" ht="15.5" spans="1:2">
+    <row r="36" ht="15.5" hidden="1" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B36" s="1">
-        <v>2022</v>
+        <v>2021</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H36" s="1">
+        <v>2021</v>
       </c>
     </row>
-    <row r="37" ht="15.5" spans="1:2">
+    <row r="37" ht="15.5" hidden="1" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="B37" s="1">
-        <v>2022</v>
+        <v>2023</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H37" s="1">
+        <v>2023</v>
       </c>
     </row>
-    <row r="38" ht="15.5" spans="1:2">
+    <row r="38" ht="15.5" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="B38" s="1">
         <v>2022</v>
       </c>
+      <c r="G38" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H38" s="1">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="39" ht="15.5" spans="1:2">
+    <row r="39" ht="15.5" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B39" s="1">
-        <v>2020</v>
+        <v>2022</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H39" s="1">
+        <v>2022</v>
       </c>
     </row>
-    <row r="40" ht="15.5" spans="1:2">
+    <row r="40" ht="15.5" hidden="1" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="B40" s="1">
-        <v>2020</v>
+        <v>2022</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H40" s="1">
+        <v>2022</v>
       </c>
     </row>
-    <row r="41" ht="15.5" spans="1:2">
+    <row r="41" ht="15.5" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="B41" s="1">
         <v>2020</v>
       </c>
+      <c r="G41" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H41" s="1">
+        <v>2020</v>
+      </c>
     </row>
-    <row r="42" ht="15.5" spans="1:2">
+    <row r="42" ht="15.5" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="B42" s="1">
-        <v>2023</v>
+        <v>2020</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H42" s="1">
+        <v>2020</v>
       </c>
     </row>
-    <row r="43" ht="15.5" spans="1:2">
+    <row r="43" ht="15.5" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="B43" s="1">
-        <v>2023</v>
+        <v>2020</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H43" s="1">
+        <v>2020</v>
       </c>
     </row>
-    <row r="44" ht="15.5" spans="1:2">
+    <row r="44" ht="15.5" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="B44" s="1">
         <v>2023</v>
       </c>
+      <c r="G44" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H44" s="1">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="45" ht="15.5" spans="1:2">
+    <row r="45" ht="15.5" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B45" s="1"/>
+        <v>186</v>
+      </c>
+      <c r="B45" s="1">
+        <v>2023</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H45" s="1">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="46" ht="15.5" spans="1:2">
+    <row r="46" ht="15.5" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B46" s="1"/>
+        <v>186</v>
+      </c>
+      <c r="B46" s="1">
+        <v>2023</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H46" s="1">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="47" ht="15.5" spans="1:2">
+    <row r="47" ht="15.5" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B47" s="1"/>
+        <v>192</v>
+      </c>
+      <c r="B47" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H47" s="1">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="48" ht="15.5" spans="1:2">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
+    <row r="48" ht="15.5" spans="1:8">
+      <c r="A48" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B48" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H48" s="1">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="49" ht="15.5" spans="1:2">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
+    <row r="49" ht="15.5" spans="1:8">
+      <c r="A49" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B49" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H49" s="1">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="50" ht="15.5" spans="1:2">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
+    <row r="50" ht="15.5" hidden="1" spans="1:8">
+      <c r="A50" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B50" s="1">
+        <v>2023</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H50" s="1">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="51" ht="15.5" spans="1:2">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
+    <row r="51" ht="15.5" hidden="1" spans="1:8">
+      <c r="A51" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B51" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H51" s="1">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="52" ht="15.5" spans="1:2">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
+    <row r="52" ht="15.5" hidden="1" spans="1:8">
+      <c r="A52" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B52" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H52" s="1">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="53" ht="15.5" spans="1:2">
+    <row r="53" ht="15.5" hidden="1" spans="1:8">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
     </row>
-    <row r="54" ht="15.5" spans="1:2">
+    <row r="54" ht="15.5" hidden="1" spans="1:8">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
     </row>
-    <row r="55" ht="15.5" spans="1:2">
+    <row r="55" ht="15.5" hidden="1" spans="1:8">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
     </row>
-    <row r="56" ht="15.5" spans="1:2">
+    <row r="56" ht="15.5" hidden="1" spans="1:8">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
     </row>
-    <row r="57" ht="15.5" spans="1:2">
+    <row r="57" ht="15.5" hidden="1" spans="1:8">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
     </row>
-    <row r="58" ht="15.5" spans="1:2">
+    <row r="58" ht="15.5" hidden="1" spans="1:8">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
     </row>
-    <row r="59" ht="15.5" spans="1:2">
+    <row r="59" ht="15.5" hidden="1" spans="1:8">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
     </row>
-    <row r="60" ht="15.5" spans="1:2">
+    <row r="60" ht="15.5" hidden="1" spans="1:8">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
     </row>
-    <row r="61" ht="15.5" spans="1:2">
+    <row r="61" ht="15.5" hidden="1" spans="1:8">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
     </row>
-    <row r="62" ht="15.5" spans="1:2">
+    <row r="62" ht="15.5" hidden="1" spans="1:8">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
     </row>
-    <row r="63" ht="15.5" spans="1:2">
+    <row r="63" ht="15.5" hidden="1" spans="1:8">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
     </row>
-    <row r="64" ht="15.5" spans="1:2">
+    <row r="64" ht="15.5" hidden="1" spans="1:8">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
     </row>
-    <row r="65" ht="15.5" spans="1:2">
+    <row r="65" ht="15.5" hidden="1" spans="1:8">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
     </row>
-    <row r="66" ht="15.5" spans="1:2">
+    <row r="66" ht="15.5" hidden="1" spans="1:8">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+    </row>
+    <row r="67" ht="15.5" hidden="1" spans="1:8">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+    </row>
+    <row r="68" ht="15.5" hidden="1" spans="1:8">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
     </row>
   </sheetData>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:A68" etc:filterBottomFollowUsedRange="0">
+    <filterColumn colId="0">
+      <colorFilter dxfId="0"/>
+    </filterColumn>
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/Label.xlsx
+++ b/Label.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Label!$A$1:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Label!$A$1:$S$52</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$A$68</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="207">
   <si>
     <t>Note</t>
   </si>
@@ -231,10 +231,7 @@
     <t>Human Brain Mapping</t>
   </si>
   <si>
-    <t>You</t>
-  </si>
-  <si>
-    <t>friend</t>
+    <t>Friend</t>
   </si>
   <si>
     <t>English</t>
@@ -361,9 +358,6 @@
   </si>
   <si>
     <t>PloS one</t>
-  </si>
-  <si>
-    <t>Friend</t>
   </si>
   <si>
     <t>Facial Gender: (Male, Female)</t>
@@ -1529,7 +1523,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFF9900"/>
-          <bgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFF9900"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1853,14 +1847,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:KB67"/>
+  <dimension ref="A1:KB68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D32" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G34" sqref="G34"/>
+      <selection pane="bottomRight" activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2014,7 +2008,7 @@
       </c>
       <c r="O2" s="1"/>
       <c r="P2" s="1">
-        <f>M2-O2</f>
+        <f t="shared" ref="P2:P7" si="0">M2-O2</f>
         <v>28</v>
       </c>
       <c r="Q2" s="1"/>
@@ -2347,7 +2341,7 @@
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1">
-        <f>M3-O3</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="Q3" s="1"/>
@@ -2680,7 +2674,7 @@
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1">
-        <f>M4-O4</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="Q4" s="1"/>
@@ -3013,7 +3007,7 @@
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1">
-        <f>M5-O5</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="Q5" s="1"/>
@@ -3346,7 +3340,7 @@
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1">
-        <f>M6-O6</f>
+        <f t="shared" si="0"/>
         <v>92</v>
       </c>
       <c r="Q6" s="1" t="s">
@@ -3679,7 +3673,7 @@
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1">
-        <f>M7-O7</f>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="Q7" s="1"/>
@@ -3996,10 +3990,10 @@
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>45</v>
@@ -4027,7 +4021,7 @@
       </c>
       <c r="W8" s="1"/>
       <c r="X8" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y8" s="1">
         <v>14</v>
@@ -4304,19 +4298,19 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="F9" s="1">
         <v>2021</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H9" s="1">
         <v>1</v>
@@ -4344,7 +4338,7 @@
         <v>33</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
@@ -4358,7 +4352,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="X9" s="1"/>
       <c r="Y9" s="1">
@@ -4636,10 +4630,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>29</v>
@@ -4648,7 +4642,7 @@
         <v>2020</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H10" s="1">
         <v>2</v>
@@ -4690,7 +4684,7 @@
       </c>
       <c r="W10" s="1"/>
       <c r="X10" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y10" s="1">
         <v>28</v>
@@ -4963,25 +4957,25 @@
     </row>
     <row r="11" ht="15.5" spans="1:288">
       <c r="A11" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11" s="1">
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="F11" s="1">
         <v>2020</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H11" s="1">
         <v>1</v>
@@ -4994,7 +4988,7 @@
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M11" s="1">
         <v>26</v>
@@ -5008,7 +5002,7 @@
         <v>26</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
@@ -5022,7 +5016,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="X11" s="6" t="s">
         <v>54</v>
@@ -5302,19 +5296,19 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="F12" s="1">
         <v>2020</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H12" s="1">
         <v>2</v>
@@ -5327,7 +5321,7 @@
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M12" s="1">
         <v>26</v>
@@ -5341,7 +5335,7 @@
         <v>26</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
@@ -5355,7 +5349,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="X12" s="6" t="s">
         <v>54</v>
@@ -5635,19 +5629,19 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="F13" s="1">
         <v>2019</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H13" s="1">
         <v>1</v>
@@ -5659,10 +5653,10 @@
         <v>9</v>
       </c>
       <c r="K13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L13" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="M13" s="1">
         <v>103</v>
@@ -5670,12 +5664,10 @@
       <c r="N13" s="1">
         <v>144</v>
       </c>
-      <c r="O13" s="1">
-        <v>1</v>
-      </c>
+      <c r="O13" s="1"/>
       <c r="P13" s="1">
         <f>M13-O13</f>
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -5690,10 +5682,10 @@
         <v>0</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="X13" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Y13" s="1">
         <v>13</v>
@@ -5966,25 +5958,25 @@
     </row>
     <row r="14" ht="15.5" spans="1:288">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="1">
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="F14" s="1">
         <v>2018</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H14" s="1">
         <v>1</v>
@@ -5996,24 +5988,26 @@
         <v>9</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>45</v>
       </c>
       <c r="M14" s="1">
+        <v>19</v>
+      </c>
+      <c r="N14" s="1">
+        <v>336</v>
+      </c>
+      <c r="O14" s="1">
+        <v>1</v>
+      </c>
+      <c r="P14" s="1">
+        <f>M14-O14</f>
         <v>18</v>
       </c>
-      <c r="N14" s="1">
-        <v>56</v>
-      </c>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1">
-        <f t="shared" ref="P14:P43" si="0">M14-O14</f>
-        <v>18</v>
-      </c>
       <c r="Q14" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
@@ -6027,11 +6021,17 @@
         <v>1</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="X14" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>9</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>9</v>
+      </c>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
@@ -6297,25 +6297,25 @@
     </row>
     <row r="15" ht="15.5" spans="1:288">
       <c r="A15" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B15" s="1">
         <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="F15" s="1">
         <v>2018</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H15" s="1">
         <v>2</v>
@@ -6327,24 +6327,26 @@
         <v>9</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>45</v>
       </c>
       <c r="M15" s="1">
+        <v>20</v>
+      </c>
+      <c r="N15" s="1">
+        <v>336</v>
+      </c>
+      <c r="O15" s="1">
+        <v>2</v>
+      </c>
+      <c r="P15" s="1">
+        <f>M15-O15</f>
         <v>18</v>
       </c>
-      <c r="N15" s="1">
-        <v>60</v>
-      </c>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
       <c r="Q15" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
@@ -6358,11 +6360,17 @@
         <v>1</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="X15" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>9</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>9</v>
+      </c>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
@@ -6632,13 +6640,13 @@
         <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="F16" s="1">
         <v>2021</v>
@@ -6656,7 +6664,7 @@
         <v>9</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>45</v>
@@ -6665,17 +6673,17 @@
         <v>30</v>
       </c>
       <c r="N16" s="1">
-        <v>30</v>
+        <v>360</v>
       </c>
       <c r="O16" s="1">
         <v>1</v>
       </c>
       <c r="P16" s="1">
-        <f t="shared" si="0"/>
+        <f>M16-O16</f>
         <v>29</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
@@ -6690,8 +6698,12 @@
       </c>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
+      <c r="Y16" s="1">
+        <v>9</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>21</v>
+      </c>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
@@ -6961,43 +6973,47 @@
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F17" s="1">
         <v>2021</v>
       </c>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="H17" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>45</v>
       </c>
       <c r="M17" s="1">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="N17" s="1">
-        <v>60</v>
-      </c>
-      <c r="O17" s="1"/>
+        <v>360</v>
+      </c>
+      <c r="O17" s="1">
+        <v>5</v>
+      </c>
       <c r="P17" s="1">
-        <f t="shared" si="0"/>
-        <v>13</v>
+        <f>M17-O17</f>
+        <v>25</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -7011,12 +7027,14 @@
       <c r="V17" s="1">
         <v>0</v>
       </c>
-      <c r="W17" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="W17" s="1"/>
       <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
+      <c r="Y17" s="1">
+        <v>8</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>17</v>
+      </c>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
@@ -7286,43 +7304,43 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F18" s="1">
         <v>2021</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I18" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>45</v>
       </c>
       <c r="M18" s="1">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="N18" s="1">
         <v>60</v>
       </c>
       <c r="O18" s="1"/>
       <c r="P18" s="1">
-        <f t="shared" si="0"/>
-        <v>28</v>
+        <f t="shared" ref="P18:P44" si="1">M18-O18</f>
+        <v>13</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -7337,7 +7355,7 @@
         <v>0</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
@@ -7611,43 +7629,43 @@
         <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F19" s="1">
         <v>2021</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I19" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>45</v>
       </c>
       <c r="M19" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N19" s="1">
         <v>60</v>
       </c>
       <c r="O19" s="1"/>
       <c r="P19" s="1">
-        <f t="shared" si="0"/>
-        <v>27</v>
+        <f t="shared" si="1"/>
+        <v>28</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -7662,7 +7680,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
@@ -7936,43 +7954,43 @@
         <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F20" s="1">
-        <v>2022</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>109</v>
-      </c>
+        <v>2021</v>
+      </c>
+      <c r="G20" s="1"/>
       <c r="H20" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I20" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="L20" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="M20" s="1">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="N20" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="O20" s="1"/>
       <c r="P20" s="1">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f t="shared" si="1"/>
+        <v>27</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -7986,7 +8004,9 @@
       <c r="V20" s="1">
         <v>0</v>
       </c>
-      <c r="W20" s="1"/>
+      <c r="W20" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
@@ -8259,47 +8279,45 @@
         <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F21" s="1">
         <v>2022</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H21" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N21" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O21" s="1"/>
       <c r="P21" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>111</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1">
@@ -8584,48 +8602,46 @@
         <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F22" s="1">
         <v>2022</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H22" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N22" s="1">
         <v>100</v>
       </c>
-      <c r="O22" s="1">
-        <v>1</v>
-      </c>
+      <c r="O22" s="1"/>
       <c r="P22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
@@ -8911,57 +8927,61 @@
         <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="F23" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="H23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="L23" s="1"/>
       <c r="M23" s="1">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="N23" s="1">
-        <v>60</v>
-      </c>
-      <c r="O23" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="O23" s="1">
+        <v>1</v>
+      </c>
       <c r="P23" s="1">
-        <f t="shared" si="0"/>
-        <v>105</v>
+        <f t="shared" si="1"/>
+        <v>24</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="T23" s="1">
+        <v>1</v>
+      </c>
+      <c r="U23" s="1">
+        <v>0</v>
+      </c>
+      <c r="V23" s="1">
+        <v>0</v>
+      </c>
+      <c r="W23" s="1"/>
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
@@ -9229,26 +9249,24 @@
       <c r="KB23" s="1"/>
     </row>
     <row r="24" ht="15.5" spans="1:288">
-      <c r="A24" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="A24" s="1"/>
       <c r="B24" s="1">
         <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F24" s="1">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H24" s="1">
         <v>1</v>
@@ -9259,36 +9277,34 @@
       <c r="J24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K24" s="1"/>
+      <c r="K24" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="L24" s="1" t="s">
         <v>45</v>
       </c>
       <c r="M24" s="1">
-        <v>298</v>
+        <v>105</v>
       </c>
       <c r="N24" s="1">
-        <v>16</v>
-      </c>
-      <c r="O24" s="1">
-        <v>18</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="O24" s="1"/>
       <c r="P24" s="1">
-        <f t="shared" si="0"/>
-        <v>280</v>
-      </c>
-      <c r="Q24" s="1"/>
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
-      <c r="T24" s="1">
-        <v>1</v>
-      </c>
-      <c r="U24" s="1">
-        <v>1</v>
-      </c>
-      <c r="V24" s="1">
-        <v>0</v>
-      </c>
-      <c r="W24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
@@ -9557,29 +9573,31 @@
     </row>
     <row r="25" ht="15.5" spans="1:288">
       <c r="A25" s="1" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="B25" s="1">
         <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="F25" s="1">
         <v>2023</v>
       </c>
-      <c r="G25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="H25" s="1">
         <v>1</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>126</v>
+      <c r="I25" s="1">
+        <v>1</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>9</v>
@@ -9589,37 +9607,31 @@
         <v>45</v>
       </c>
       <c r="M25" s="1">
-        <v>23</v>
+        <v>298</v>
       </c>
       <c r="N25" s="1">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="O25" s="1">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="P25" s="1">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>127</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>280</v>
+      </c>
+      <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
-      <c r="S25" s="1" t="s">
-        <v>128</v>
-      </c>
+      <c r="S25" s="1"/>
       <c r="T25" s="1">
         <v>1</v>
       </c>
       <c r="U25" s="1">
+        <v>1</v>
+      </c>
+      <c r="V25" s="1">
         <v>0</v>
       </c>
-      <c r="V25" s="1">
-        <v>1</v>
-      </c>
-      <c r="W25" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="W25" s="1"/>
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
@@ -9887,56 +9899,70 @@
       <c r="KB25" s="1"/>
     </row>
     <row r="26" ht="15.5" spans="1:288">
-      <c r="A26" s="1"/>
+      <c r="A26" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="B26" s="1">
         <v>25</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>131</v>
+        <v>50</v>
       </c>
       <c r="F26" s="1">
-        <v>2014</v>
+        <v>2023</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1">
         <v>1</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K26" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="K26" s="1"/>
       <c r="L26" s="1" t="s">
         <v>45</v>
       </c>
       <c r="M26" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N26" s="1">
-        <v>40</v>
-      </c>
-      <c r="O26" s="1"/>
+        <v>90</v>
+      </c>
+      <c r="O26" s="1">
+        <v>3</v>
+      </c>
       <c r="P26" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="Q26" s="1"/>
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
-      <c r="W26" s="1"/>
+      <c r="S26" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="T26" s="1">
+        <v>1</v>
+      </c>
+      <c r="U26" s="1">
+        <v>0</v>
+      </c>
+      <c r="V26" s="1">
+        <v>1</v>
+      </c>
+      <c r="W26" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
@@ -10209,43 +10235,43 @@
         <v>26</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F27" s="1">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1">
         <v>1</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>45</v>
       </c>
       <c r="M27" s="1">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N27" s="1">
         <v>40</v>
       </c>
       <c r="O27" s="1"/>
       <c r="P27" s="1">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f t="shared" si="1"/>
+        <v>24</v>
       </c>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
@@ -10526,43 +10552,43 @@
         <v>27</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F28" s="1">
         <v>2015</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>45</v>
       </c>
       <c r="M28" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N28" s="1">
         <v>40</v>
       </c>
       <c r="O28" s="1"/>
       <c r="P28" s="1">
-        <f t="shared" si="0"/>
-        <v>21</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
@@ -10838,56 +10864,50 @@
       <c r="KB28" s="1"/>
     </row>
     <row r="29" ht="15.5" spans="1:288">
-      <c r="A29" s="1" t="s">
-        <v>136</v>
-      </c>
+      <c r="A29" s="1"/>
       <c r="B29" s="1">
         <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="F29" s="1">
-        <v>2014</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>140</v>
-      </c>
+        <v>2015</v>
+      </c>
+      <c r="G29" s="1"/>
       <c r="H29" s="1">
-        <v>1</v>
-      </c>
-      <c r="I29" s="1">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>141</v>
+        <v>59</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>45</v>
       </c>
       <c r="M29" s="1">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N29" s="1">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="O29" s="1"/>
       <c r="P29" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="Q29" s="1" t="s">
-        <v>142</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
@@ -11162,54 +11182,54 @@
     </row>
     <row r="30" ht="15.5" spans="1:288">
       <c r="A30" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="B30" s="1">
         <v>29</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F30" s="1">
         <v>2014</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H30" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>45</v>
       </c>
       <c r="M30" s="1">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N30" s="1">
         <v>60</v>
       </c>
       <c r="O30" s="1"/>
       <c r="P30" s="1">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>24</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
@@ -11485,54 +11505,54 @@
     </row>
     <row r="31" ht="15.5" spans="1:288">
       <c r="A31" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B31" s="1">
         <v>30</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F31" s="1">
         <v>2014</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H31" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I31" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>45</v>
       </c>
       <c r="M31" s="1">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N31" s="1">
         <v>60</v>
       </c>
       <c r="O31" s="1"/>
       <c r="P31" s="1">
-        <f t="shared" si="0"/>
-        <v>22</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
@@ -11808,54 +11828,54 @@
     </row>
     <row r="32" ht="15.5" spans="1:288">
       <c r="A32" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B32" s="1">
         <v>31</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F32" s="1">
         <v>2014</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H32" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I32" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>45</v>
       </c>
       <c r="M32" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N32" s="1">
         <v>60</v>
       </c>
       <c r="O32" s="1"/>
       <c r="P32" s="1">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f t="shared" si="1"/>
+        <v>22</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
@@ -12130,64 +12150,62 @@
       <c r="KB32" s="1"/>
     </row>
     <row r="33" ht="15.5" spans="1:288">
-      <c r="A33" s="1"/>
+      <c r="A33" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="B33" s="1">
         <v>32</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="F33" s="1">
-        <v>2023</v>
+        <v>2014</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="H33" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I33" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K33" s="1"/>
+      <c r="K33" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="L33" s="1" t="s">
         <v>45</v>
       </c>
       <c r="M33" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="N33" s="1">
         <v>60</v>
       </c>
       <c r="O33" s="1"/>
       <c r="P33" s="1">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="Q33" s="1"/>
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
-      <c r="T33" s="1">
-        <v>1</v>
-      </c>
-      <c r="U33" s="1">
-        <v>0</v>
-      </c>
-      <c r="V33" s="1">
-        <v>1</v>
-      </c>
-      <c r="W33" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
@@ -12460,19 +12478,19 @@
         <v>33</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F34" s="1">
         <v>2023</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="H34" s="1">
         <v>1</v>
@@ -12483,24 +12501,20 @@
       <c r="J34" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K34" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="K34" s="1"/>
       <c r="L34" s="1" t="s">
         <v>45</v>
       </c>
       <c r="M34" s="1">
-        <v>144</v>
+        <v>40</v>
       </c>
       <c r="N34" s="1">
-        <v>20</v>
-      </c>
-      <c r="O34" s="1">
-        <v>2</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="O34" s="1"/>
       <c r="P34" s="1">
-        <f t="shared" ref="P34:P43" si="1">M34-O34</f>
-        <v>142</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
@@ -12509,12 +12523,14 @@
         <v>1</v>
       </c>
       <c r="U34" s="1">
+        <v>0</v>
+      </c>
+      <c r="V34" s="1">
         <v>1</v>
       </c>
-      <c r="V34" s="1">
-        <v>0</v>
-      </c>
-      <c r="W34" s="1"/>
+      <c r="W34" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
@@ -12787,19 +12803,19 @@
         <v>34</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F35" s="1">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>58</v>
+        <v>157</v>
       </c>
       <c r="H35" s="1">
         <v>1</v>
@@ -12811,43 +12827,37 @@
         <v>9</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>45</v>
       </c>
       <c r="M35" s="1">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="N35" s="1">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="O35" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P35" s="1">
-        <f t="shared" si="1"/>
-        <v>108</v>
-      </c>
-      <c r="Q35" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="R35" s="1" t="s">
-        <v>164</v>
-      </c>
+        <f t="shared" ref="P35:P44" si="2">M35-O35</f>
+        <v>142</v>
+      </c>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
       <c r="S35" s="1"/>
       <c r="T35" s="1">
         <v>1</v>
       </c>
       <c r="U35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V35" s="1">
         <v>0</v>
       </c>
-      <c r="W35" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="W35" s="1"/>
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
@@ -13115,26 +13125,24 @@
       <c r="KB35" s="1"/>
     </row>
     <row r="36" ht="15.5" spans="1:288">
-      <c r="A36" s="1" t="s">
-        <v>165</v>
-      </c>
+      <c r="A36" s="1"/>
       <c r="B36" s="1">
         <v>35</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="F36" s="1">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>169</v>
+        <v>58</v>
       </c>
       <c r="H36" s="1">
         <v>1</v>
@@ -13146,24 +13154,30 @@
         <v>9</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="L36" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="M36" s="1">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="N36" s="1">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="O36" s="1">
         <v>1</v>
       </c>
       <c r="P36" s="1">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
+        <f t="shared" si="2"/>
+        <v>108</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="S36" s="1"/>
       <c r="T36" s="1">
         <v>1</v>
@@ -13175,7 +13189,7 @@
         <v>0</v>
       </c>
       <c r="W36" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
@@ -13444,24 +13458,26 @@
       <c r="KB36" s="1"/>
     </row>
     <row r="37" ht="15.5" spans="1:288">
-      <c r="A37" s="1"/>
+      <c r="A37" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="B37" s="1">
         <v>36</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="F37" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="H37" s="1">
         <v>1</v>
@@ -13472,32 +13488,38 @@
       <c r="J37" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="K37" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L37" s="1"/>
       <c r="M37" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N37" s="1">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="O37" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P37" s="1">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="Q37" s="1" t="s">
-        <v>174</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
-      <c r="T37" s="1"/>
-      <c r="U37" s="1"/>
-      <c r="V37" s="1"/>
-      <c r="W37" s="1"/>
+      <c r="T37" s="1">
+        <v>1</v>
+      </c>
+      <c r="U37" s="1">
+        <v>0</v>
+      </c>
+      <c r="V37" s="1">
+        <v>0</v>
+      </c>
+      <c r="W37" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
@@ -13770,25 +13792,25 @@
         <v>37</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F38" s="1">
         <v>2022</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H38" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>9</v>
@@ -13798,20 +13820,20 @@
         <v>45</v>
       </c>
       <c r="M38" s="1">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="N38" s="1">
         <v>60</v>
       </c>
       <c r="O38" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P38" s="1">
-        <f t="shared" si="1"/>
-        <v>46</v>
+        <f t="shared" si="2"/>
+        <v>27</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
@@ -14086,64 +14108,60 @@
       <c r="KB38" s="1"/>
     </row>
     <row r="39" ht="15.5" spans="1:288">
-      <c r="A39" s="1" t="s">
-        <v>176</v>
-      </c>
+      <c r="A39" s="1"/>
       <c r="B39" s="1">
         <v>38</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="F39" s="1">
         <v>2022</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="H39" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K39" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="K39" s="1"/>
       <c r="L39" s="1" t="s">
         <v>45</v>
       </c>
       <c r="M39" s="1">
-        <v>328</v>
+        <v>48</v>
       </c>
       <c r="N39" s="1">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="O39" s="1">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="P39" s="1">
-        <f t="shared" si="1"/>
-        <v>288</v>
-      </c>
-      <c r="Q39" s="1"/>
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>172</v>
+      </c>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
-      <c r="W39" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="W39" s="1"/>
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
@@ -14411,24 +14429,26 @@
       <c r="KB39" s="1"/>
     </row>
     <row r="40" ht="15.5" spans="1:288">
-      <c r="A40" s="1"/>
+      <c r="A40" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="B40" s="1">
         <v>39</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>91</v>
+        <v>177</v>
       </c>
       <c r="F40" s="1">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>109</v>
+        <v>178</v>
       </c>
       <c r="H40" s="1">
         <v>1</v>
@@ -14440,21 +14460,23 @@
         <v>9</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="M40" s="1">
-        <v>23</v>
+        <v>328</v>
       </c>
       <c r="N40" s="1">
         <v>120</v>
       </c>
-      <c r="O40" s="1"/>
+      <c r="O40" s="1">
+        <v>40</v>
+      </c>
       <c r="P40" s="1">
-        <f t="shared" si="1"/>
-        <v>23</v>
+        <f t="shared" si="2"/>
+        <v>288</v>
       </c>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
@@ -14462,7 +14484,9 @@
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
-      <c r="W40" s="1"/>
+      <c r="W40" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
@@ -14735,19 +14759,19 @@
         <v>40</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F41" s="1">
         <v>2020</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H41" s="1">
         <v>1</v>
@@ -14759,23 +14783,21 @@
         <v>9</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M41" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N41" s="1">
         <v>120</v>
       </c>
-      <c r="O41" s="1">
-        <v>3</v>
-      </c>
+      <c r="O41" s="1"/>
       <c r="P41" s="1">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>23</v>
       </c>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
@@ -15056,19 +15078,19 @@
         <v>41</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F42" s="1">
         <v>2020</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H42" s="1">
         <v>1</v>
@@ -15080,20 +15102,22 @@
         <v>9</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M42" s="1">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N42" s="1">
         <v>120</v>
       </c>
-      <c r="O42" s="1"/>
+      <c r="O42" s="1">
+        <v>3</v>
+      </c>
       <c r="P42" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="Q42" s="1"/>
@@ -15375,19 +15399,19 @@
         <v>42</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>187</v>
+        <v>90</v>
       </c>
       <c r="F43" s="1">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>188</v>
+        <v>107</v>
       </c>
       <c r="H43" s="1">
         <v>1</v>
@@ -15395,19 +15419,25 @@
       <c r="I43" s="1">
         <v>1</v>
       </c>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
+      <c r="J43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="M43" s="1">
-        <v>380</v>
-      </c>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="N43" s="1">
+        <v>120</v>
+      </c>
+      <c r="O43" s="1"/>
       <c r="P43" s="1">
-        <f t="shared" si="1"/>
-        <v>348</v>
+        <f t="shared" si="2"/>
+        <v>18</v>
       </c>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
@@ -15688,33 +15718,40 @@
         <v>43</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F44" s="1">
         <v>2023</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H44" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
+      <c r="M44" s="1">
+        <v>380</v>
+      </c>
       <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
+      <c r="O44" s="1">
+        <v>32</v>
+      </c>
+      <c r="P44" s="1">
+        <f t="shared" si="2"/>
+        <v>348</v>
+      </c>
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
@@ -15994,25 +16031,25 @@
         <v>44</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F45" s="1">
         <v>2023</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H45" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I45" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -16300,25 +16337,25 @@
         <v>45</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="F46" s="1">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="H46" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I46" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
@@ -16606,25 +16643,25 @@
         <v>46</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F47" s="1">
         <v>2021</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H47" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -16912,25 +16949,25 @@
         <v>47</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F48" s="1">
         <v>2021</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H48" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I48" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
@@ -17218,25 +17255,25 @@
         <v>48</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="F49" s="1">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="H49" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I49" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
@@ -17524,19 +17561,19 @@
         <v>49</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="F50" s="1">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H50" s="1">
         <v>1</v>
@@ -17830,19 +17867,19 @@
         <v>50</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F51" s="1">
         <v>2024</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="H51" s="1">
         <v>1</v>
@@ -18132,14 +18169,30 @@
     </row>
     <row r="52" ht="15.5" spans="1:288">
       <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
+      <c r="B52" s="1">
+        <v>51</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F52" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H52" s="1">
+        <v>1</v>
+      </c>
+      <c r="I52" s="1">
+        <v>1</v>
+      </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
@@ -22480,7 +22533,7 @@
       <c r="KA66" s="1"/>
       <c r="KB66" s="1"/>
     </row>
-    <row r="67" ht="15.5" spans="1:12">
+    <row r="67" ht="15.5" spans="1:288">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -22493,9 +22546,299 @@
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="1"/>
+      <c r="S67" s="1"/>
+      <c r="T67" s="1"/>
+      <c r="U67" s="1"/>
+      <c r="V67" s="1"/>
+      <c r="W67" s="1"/>
+      <c r="X67" s="1"/>
+      <c r="Y67" s="1"/>
+      <c r="Z67" s="1"/>
+      <c r="AA67" s="1"/>
+      <c r="AB67" s="1"/>
+      <c r="AC67" s="1"/>
+      <c r="AD67" s="1"/>
+      <c r="AE67" s="1"/>
+      <c r="AF67" s="1"/>
+      <c r="AG67" s="1"/>
+      <c r="AH67" s="1"/>
+      <c r="AI67" s="1"/>
+      <c r="AJ67" s="1"/>
+      <c r="AK67" s="1"/>
+      <c r="AL67" s="1"/>
+      <c r="AM67" s="1"/>
+      <c r="AN67" s="1"/>
+      <c r="AO67" s="1"/>
+      <c r="AP67" s="1"/>
+      <c r="AQ67" s="1"/>
+      <c r="AR67" s="1"/>
+      <c r="AS67" s="1"/>
+      <c r="AT67" s="1"/>
+      <c r="AU67" s="1"/>
+      <c r="AV67" s="1"/>
+      <c r="AW67" s="1"/>
+      <c r="AX67" s="1"/>
+      <c r="AY67" s="1"/>
+      <c r="AZ67" s="1"/>
+      <c r="BA67" s="1"/>
+      <c r="BB67" s="1"/>
+      <c r="BC67" s="1"/>
+      <c r="BD67" s="1"/>
+      <c r="BE67" s="1"/>
+      <c r="BF67" s="1"/>
+      <c r="BG67" s="1"/>
+      <c r="BH67" s="1"/>
+      <c r="BI67" s="1"/>
+      <c r="BJ67" s="1"/>
+      <c r="BK67" s="1"/>
+      <c r="BL67" s="1"/>
+      <c r="BM67" s="1"/>
+      <c r="BN67" s="1"/>
+      <c r="BO67" s="1"/>
+      <c r="BP67" s="1"/>
+      <c r="BQ67" s="1"/>
+      <c r="BR67" s="1"/>
+      <c r="BS67" s="1"/>
+      <c r="BT67" s="1"/>
+      <c r="BU67" s="1"/>
+      <c r="BV67" s="1"/>
+      <c r="BW67" s="1"/>
+      <c r="BX67" s="1"/>
+      <c r="BY67" s="1"/>
+      <c r="BZ67" s="1"/>
+      <c r="CA67" s="1"/>
+      <c r="CB67" s="1"/>
+      <c r="CC67" s="1"/>
+      <c r="CD67" s="1"/>
+      <c r="CE67" s="1"/>
+      <c r="CF67" s="1"/>
+      <c r="CG67" s="1"/>
+      <c r="CH67" s="1"/>
+      <c r="CI67" s="1"/>
+      <c r="CJ67" s="1"/>
+      <c r="CK67" s="1"/>
+      <c r="CL67" s="1"/>
+      <c r="CM67" s="1"/>
+      <c r="CN67" s="1"/>
+      <c r="CO67" s="1"/>
+      <c r="CP67" s="1"/>
+      <c r="CQ67" s="1"/>
+      <c r="CR67" s="1"/>
+      <c r="CS67" s="1"/>
+      <c r="CT67" s="1"/>
+      <c r="CU67" s="1"/>
+      <c r="CV67" s="1"/>
+      <c r="CW67" s="1"/>
+      <c r="CX67" s="1"/>
+      <c r="CY67" s="1"/>
+      <c r="CZ67" s="1"/>
+      <c r="DA67" s="1"/>
+      <c r="DB67" s="1"/>
+      <c r="DC67" s="1"/>
+      <c r="DD67" s="1"/>
+      <c r="DE67" s="1"/>
+      <c r="DF67" s="1"/>
+      <c r="DG67" s="1"/>
+      <c r="DH67" s="1"/>
+      <c r="DI67" s="1"/>
+      <c r="DJ67" s="1"/>
+      <c r="DK67" s="1"/>
+      <c r="DL67" s="1"/>
+      <c r="DM67" s="1"/>
+      <c r="DN67" s="1"/>
+      <c r="DO67" s="1"/>
+      <c r="DP67" s="1"/>
+      <c r="DQ67" s="1"/>
+      <c r="DR67" s="1"/>
+      <c r="DS67" s="1"/>
+      <c r="DT67" s="1"/>
+      <c r="DU67" s="1"/>
+      <c r="DV67" s="1"/>
+      <c r="DW67" s="1"/>
+      <c r="DX67" s="1"/>
+      <c r="DY67" s="1"/>
+      <c r="DZ67" s="1"/>
+      <c r="EA67" s="1"/>
+      <c r="EB67" s="1"/>
+      <c r="EC67" s="1"/>
+      <c r="ED67" s="1"/>
+      <c r="EE67" s="1"/>
+      <c r="EF67" s="1"/>
+      <c r="EG67" s="1"/>
+      <c r="EH67" s="1"/>
+      <c r="EI67" s="1"/>
+      <c r="EJ67" s="1"/>
+      <c r="EK67" s="1"/>
+      <c r="EL67" s="1"/>
+      <c r="EM67" s="1"/>
+      <c r="EN67" s="1"/>
+      <c r="EO67" s="1"/>
+      <c r="EP67" s="1"/>
+      <c r="EQ67" s="1"/>
+      <c r="ER67" s="1"/>
+      <c r="ES67" s="1"/>
+      <c r="ET67" s="1"/>
+      <c r="EU67" s="1"/>
+      <c r="EV67" s="1"/>
+      <c r="EW67" s="1"/>
+      <c r="EX67" s="1"/>
+      <c r="EY67" s="1"/>
+      <c r="EZ67" s="1"/>
+      <c r="FA67" s="1"/>
+      <c r="FB67" s="1"/>
+      <c r="FC67" s="1"/>
+      <c r="FD67" s="1"/>
+      <c r="FE67" s="1"/>
+      <c r="FF67" s="1"/>
+      <c r="FG67" s="1"/>
+      <c r="FH67" s="1"/>
+      <c r="FI67" s="1"/>
+      <c r="FJ67" s="1"/>
+      <c r="FK67" s="1"/>
+      <c r="FL67" s="1"/>
+      <c r="FM67" s="1"/>
+      <c r="FN67" s="1"/>
+      <c r="FO67" s="1"/>
+      <c r="FP67" s="1"/>
+      <c r="FQ67" s="1"/>
+      <c r="FR67" s="1"/>
+      <c r="FS67" s="1"/>
+      <c r="FT67" s="1"/>
+      <c r="FU67" s="1"/>
+      <c r="FV67" s="1"/>
+      <c r="FW67" s="1"/>
+      <c r="FX67" s="1"/>
+      <c r="FY67" s="1"/>
+      <c r="FZ67" s="1"/>
+      <c r="GA67" s="1"/>
+      <c r="GB67" s="1"/>
+      <c r="GC67" s="1"/>
+      <c r="GD67" s="1"/>
+      <c r="GE67" s="1"/>
+      <c r="GF67" s="1"/>
+      <c r="GG67" s="1"/>
+      <c r="GH67" s="1"/>
+      <c r="GI67" s="1"/>
+      <c r="GJ67" s="1"/>
+      <c r="GK67" s="1"/>
+      <c r="GL67" s="1"/>
+      <c r="GM67" s="1"/>
+      <c r="GN67" s="1"/>
+      <c r="GO67" s="1"/>
+      <c r="GP67" s="1"/>
+      <c r="GQ67" s="1"/>
+      <c r="GR67" s="1"/>
+      <c r="GS67" s="1"/>
+      <c r="GT67" s="1"/>
+      <c r="GU67" s="1"/>
+      <c r="GV67" s="1"/>
+      <c r="GW67" s="1"/>
+      <c r="GX67" s="1"/>
+      <c r="GY67" s="1"/>
+      <c r="GZ67" s="1"/>
+      <c r="HA67" s="1"/>
+      <c r="HB67" s="1"/>
+      <c r="HC67" s="1"/>
+      <c r="HD67" s="1"/>
+      <c r="HE67" s="1"/>
+      <c r="HF67" s="1"/>
+      <c r="HG67" s="1"/>
+      <c r="HH67" s="1"/>
+      <c r="HI67" s="1"/>
+      <c r="HJ67" s="1"/>
+      <c r="HK67" s="1"/>
+      <c r="HL67" s="1"/>
+      <c r="HM67" s="1"/>
+      <c r="HN67" s="1"/>
+      <c r="HO67" s="1"/>
+      <c r="HP67" s="1"/>
+      <c r="HQ67" s="1"/>
+      <c r="HR67" s="1"/>
+      <c r="HS67" s="1"/>
+      <c r="HT67" s="1"/>
+      <c r="HU67" s="1"/>
+      <c r="HV67" s="1"/>
+      <c r="HW67" s="1"/>
+      <c r="HX67" s="1"/>
+      <c r="HY67" s="1"/>
+      <c r="HZ67" s="1"/>
+      <c r="IA67" s="1"/>
+      <c r="IB67" s="1"/>
+      <c r="IC67" s="1"/>
+      <c r="ID67" s="1"/>
+      <c r="IE67" s="1"/>
+      <c r="IF67" s="1"/>
+      <c r="IG67" s="1"/>
+      <c r="IH67" s="1"/>
+      <c r="II67" s="1"/>
+      <c r="IJ67" s="1"/>
+      <c r="IK67" s="1"/>
+      <c r="IL67" s="1"/>
+      <c r="IM67" s="1"/>
+      <c r="IN67" s="1"/>
+      <c r="IO67" s="1"/>
+      <c r="IP67" s="1"/>
+      <c r="IQ67" s="1"/>
+      <c r="IR67" s="1"/>
+      <c r="IS67" s="1"/>
+      <c r="IT67" s="1"/>
+      <c r="IU67" s="1"/>
+      <c r="IV67" s="1"/>
+      <c r="IW67" s="1"/>
+      <c r="IX67" s="1"/>
+      <c r="IY67" s="1"/>
+      <c r="IZ67" s="1"/>
+      <c r="JA67" s="1"/>
+      <c r="JB67" s="1"/>
+      <c r="JC67" s="1"/>
+      <c r="JD67" s="1"/>
+      <c r="JE67" s="1"/>
+      <c r="JF67" s="1"/>
+      <c r="JG67" s="1"/>
+      <c r="JH67" s="1"/>
+      <c r="JI67" s="1"/>
+      <c r="JJ67" s="1"/>
+      <c r="JK67" s="1"/>
+      <c r="JL67" s="1"/>
+      <c r="JM67" s="1"/>
+      <c r="JN67" s="1"/>
+      <c r="JO67" s="1"/>
+      <c r="JP67" s="1"/>
+      <c r="JQ67" s="1"/>
+      <c r="JR67" s="1"/>
+      <c r="JS67" s="1"/>
+      <c r="JT67" s="1"/>
+      <c r="JU67" s="1"/>
+      <c r="JV67" s="1"/>
+      <c r="JW67" s="1"/>
+      <c r="JX67" s="1"/>
+      <c r="JY67" s="1"/>
+      <c r="JZ67" s="1"/>
+      <c r="KA67" s="1"/>
+      <c r="KB67" s="1"/>
+    </row>
+    <row r="68" ht="15.5" spans="1:12">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:S51" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:S52" etc:filterBottomFollowUsedRange="0">
     <extLst>
       <etc:autoFilterAnalysis etc:version="v1" etc:showPane="0">
         <etc:analysisCharts>
@@ -22510,7 +22853,7 @@
     </extLst>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="G51" r:id="rId1" display="Cognitive, Affective, &amp; Behavioral Neuroscience" tooltip="https://link.springer.com/journal/13415"/>
+    <hyperlink ref="G52" r:id="rId1" display="Cognitive, Affective, &amp; Behavioral Neuroscience" tooltip="https://link.springer.com/journal/13415"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -22623,7 +22966,7 @@
         <v>2019</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E5" s="3">
         <v>2020</v>
@@ -22643,7 +22986,7 @@
         <v>2020</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E6" s="3">
         <v>2020</v>
@@ -22663,7 +23006,7 @@
         <v>2020</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E7" s="3">
         <v>2019</v>
@@ -22683,7 +23026,7 @@
         <v>2020</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E8" s="3">
         <v>2018</v>
@@ -22697,19 +23040,19 @@
     </row>
     <row r="9" ht="15.5" hidden="1" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9" s="1">
         <v>2021</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E9" s="3">
         <v>2021</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H9" s="1">
         <v>2021</v>
@@ -22717,19 +23060,19 @@
     </row>
     <row r="10" ht="15.5" hidden="1" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B10" s="1">
         <v>2020</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E10" s="3">
         <v>2021</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H10" s="1">
         <v>2020</v>
@@ -22737,19 +23080,19 @@
     </row>
     <row r="11" ht="15.5" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B11" s="1">
         <v>2020</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E11" s="3">
         <v>2022</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H11" s="1">
         <v>2020</v>
@@ -22757,19 +23100,19 @@
     </row>
     <row r="12" ht="15.5" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B12" s="1">
         <v>2020</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E12" s="3">
         <v>2021</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H12" s="1">
         <v>2020</v>
@@ -22777,19 +23120,19 @@
     </row>
     <row r="13" ht="15.5" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B13" s="1">
         <v>2019</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E13" s="3">
         <v>2023</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H13" s="1">
         <v>2019</v>
@@ -22797,19 +23140,19 @@
     </row>
     <row r="14" ht="15.5" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B14" s="1">
         <v>2019</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E14" s="3">
         <v>2023</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H14" s="1">
         <v>2019</v>
@@ -22817,19 +23160,19 @@
     </row>
     <row r="15" ht="15.5" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B15" s="1">
         <v>2018</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E15" s="3">
         <v>2014</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H15" s="1">
         <v>2018</v>
@@ -22837,19 +23180,19 @@
     </row>
     <row r="16" ht="15.5" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B16" s="1">
         <v>2018</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E16" s="3">
         <v>2015</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H16" s="1">
         <v>2018</v>
@@ -22857,19 +23200,19 @@
     </row>
     <row r="17" ht="15.5" hidden="1" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B17" s="1">
         <v>2021</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E17" s="3">
         <v>2014</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H17" s="1">
         <v>2021</v>
@@ -22877,19 +23220,19 @@
     </row>
     <row r="18" ht="15.5" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B18" s="1">
         <v>2021</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E18" s="3">
         <v>2023</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H18" s="1">
         <v>2021</v>
@@ -22897,19 +23240,19 @@
     </row>
     <row r="19" ht="15.5" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B19" s="1">
         <v>2021</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E19" s="3">
         <v>2023</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H19" s="1">
         <v>2021</v>
@@ -22917,19 +23260,19 @@
     </row>
     <row r="20" ht="15.5" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B20" s="1">
         <v>2021</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E20" s="3">
         <v>2021</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H20" s="1">
         <v>2021</v>
@@ -22937,19 +23280,19 @@
     </row>
     <row r="21" ht="15.5" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B21" s="1">
         <v>2022</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E21" s="3">
         <v>2023</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H21" s="1">
         <v>2022</v>
@@ -22957,19 +23300,19 @@
     </row>
     <row r="22" ht="15.5" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B22" s="1">
         <v>2022</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E22" s="3">
         <v>2022</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H22" s="1">
         <v>2022</v>
@@ -22977,19 +23320,19 @@
     </row>
     <row r="23" ht="15.5" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B23" s="1">
         <v>2022</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E23" s="3">
         <v>2022</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H23" s="1">
         <v>2022</v>
@@ -22997,19 +23340,19 @@
     </row>
     <row r="24" ht="15.5" hidden="1" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B24" s="1">
         <v>2021</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E24" s="3">
         <v>2020</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H24" s="1">
         <v>2021</v>
@@ -23017,19 +23360,19 @@
     </row>
     <row r="25" ht="15.5" hidden="1" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B25" s="1">
         <v>2023</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E25" s="3">
         <v>2023</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H25" s="1">
         <v>2023</v>
@@ -23037,19 +23380,19 @@
     </row>
     <row r="26" ht="15.5" hidden="1" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B26" s="1">
         <v>2023</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H26" s="1">
         <v>2023</v>
@@ -23057,13 +23400,13 @@
     </row>
     <row r="27" ht="15.5" hidden="1" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B27" s="1">
         <v>2014</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H27" s="1">
         <v>2014</v>
@@ -23071,13 +23414,13 @@
     </row>
     <row r="28" ht="15.5" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B28" s="1">
         <v>2015</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H28" s="1">
         <v>2015</v>
@@ -23085,13 +23428,13 @@
     </row>
     <row r="29" ht="15.5" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B29" s="1">
         <v>2015</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H29" s="1">
         <v>2015</v>
@@ -23099,13 +23442,13 @@
     </row>
     <row r="30" ht="15.5" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B30" s="1">
         <v>2014</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H30" s="1">
         <v>2014</v>
@@ -23113,13 +23456,13 @@
     </row>
     <row r="31" ht="15.5" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B31" s="1">
         <v>2014</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H31" s="1">
         <v>2014</v>
@@ -23127,13 +23470,13 @@
     </row>
     <row r="32" ht="15.5" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B32" s="1">
         <v>2014</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H32" s="1">
         <v>2014</v>
@@ -23141,13 +23484,13 @@
     </row>
     <row r="33" ht="15.5" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B33" s="1">
         <v>2014</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H33" s="1">
         <v>2014</v>
@@ -23155,13 +23498,13 @@
     </row>
     <row r="34" ht="15.5" hidden="1" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B34" s="1">
         <v>2023</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H34" s="1">
         <v>2023</v>
@@ -23169,13 +23512,13 @@
     </row>
     <row r="35" ht="15.5" hidden="1" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B35" s="1">
         <v>2023</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H35" s="1">
         <v>2023</v>
@@ -23183,13 +23526,13 @@
     </row>
     <row r="36" ht="15.5" hidden="1" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B36" s="1">
         <v>2021</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H36" s="1">
         <v>2021</v>
@@ -23197,13 +23540,13 @@
     </row>
     <row r="37" ht="15.5" hidden="1" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B37" s="1">
         <v>2023</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H37" s="1">
         <v>2023</v>
@@ -23211,13 +23554,13 @@
     </row>
     <row r="38" ht="15.5" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B38" s="1">
         <v>2022</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H38" s="1">
         <v>2022</v>
@@ -23225,13 +23568,13 @@
     </row>
     <row r="39" ht="15.5" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B39" s="1">
         <v>2022</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H39" s="1">
         <v>2022</v>
@@ -23239,13 +23582,13 @@
     </row>
     <row r="40" ht="15.5" hidden="1" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B40" s="1">
         <v>2022</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H40" s="1">
         <v>2022</v>
@@ -23253,13 +23596,13 @@
     </row>
     <row r="41" ht="15.5" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B41" s="1">
         <v>2020</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H41" s="1">
         <v>2020</v>
@@ -23267,13 +23610,13 @@
     </row>
     <row r="42" ht="15.5" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B42" s="1">
         <v>2020</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H42" s="1">
         <v>2020</v>
@@ -23281,13 +23624,13 @@
     </row>
     <row r="43" ht="15.5" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B43" s="1">
         <v>2020</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H43" s="1">
         <v>2020</v>
@@ -23295,13 +23638,13 @@
     </row>
     <row r="44" ht="15.5" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B44" s="1">
         <v>2023</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H44" s="1">
         <v>2023</v>
@@ -23309,13 +23652,13 @@
     </row>
     <row r="45" ht="15.5" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B45" s="1">
         <v>2023</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H45" s="1">
         <v>2023</v>
@@ -23323,13 +23666,13 @@
     </row>
     <row r="46" ht="15.5" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B46" s="1">
         <v>2023</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H46" s="1">
         <v>2023</v>
@@ -23337,13 +23680,13 @@
     </row>
     <row r="47" ht="15.5" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B47" s="1">
         <v>2021</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H47" s="1">
         <v>2021</v>
@@ -23351,13 +23694,13 @@
     </row>
     <row r="48" ht="15.5" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B48" s="1">
         <v>2021</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H48" s="1">
         <v>2021</v>
@@ -23365,13 +23708,13 @@
     </row>
     <row r="49" ht="15.5" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B49" s="1">
         <v>2021</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H49" s="1">
         <v>2021</v>
@@ -23379,13 +23722,13 @@
     </row>
     <row r="50" ht="15.5" hidden="1" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B50" s="1">
         <v>2023</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H50" s="1">
         <v>2023</v>
@@ -23393,13 +23736,13 @@
     </row>
     <row r="51" ht="15.5" hidden="1" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B51" s="1">
         <v>2024</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H51" s="1">
         <v>2024</v>
@@ -23407,13 +23750,13 @@
     </row>
     <row r="52" ht="15.5" hidden="1" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B52" s="1">
         <v>2024</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H52" s="1">
         <v>2024</v>

--- a/Label.xlsx
+++ b/Label.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Label!$A$1:$S$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Label!$A$1:$S$53</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$A$68</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="211">
   <si>
     <t>Note</t>
   </si>
@@ -417,10 +417,19 @@
     <t>Navon &amp; Makovski</t>
   </si>
   <si>
-    <t>Pn13E3</t>
+    <t>Hebrew</t>
+  </si>
+  <si>
+    <t>Pn13E2</t>
   </si>
   <si>
     <t>Father</t>
+  </si>
+  <si>
+    <t>Close-Relative</t>
+  </si>
+  <si>
+    <t>Pn13E3</t>
   </si>
   <si>
     <t>Pn13E4</t>
@@ -462,37 +471,7 @@
     <t>Current Psychology</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Tasks: (Modified; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Unmodified</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
+    <t>Tasks: (Modified; Unmodified)</t>
   </si>
   <si>
     <t>Ps1E1</t>
@@ -505,6 +484,9 @@
   </si>
   <si>
     <t>Cognitive Research: Principles and Implications</t>
+  </si>
+  <si>
+    <t>Gorilla Experiment Builder</t>
   </si>
   <si>
     <t>moral</t>
@@ -825,7 +807,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -848,9 +830,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11.05"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color rgb="FF231F20"/>
       <name val="Times-Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.8"/>
+      <color rgb="FF000000"/>
+      <name val="WarnockPro-Regular"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1311,64 +1305,64 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1380,7 +1374,7 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1392,7 +1386,7 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1404,7 +1398,7 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1416,7 +1410,7 @@
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1428,7 +1422,7 @@
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1441,7 +1435,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1463,8 +1457,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1847,14 +1850,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:KB68"/>
+  <dimension ref="A1:KB69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q17" sqref="Q17"/>
+      <selection pane="bottomRight" activeCell="W27" sqref="W27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1874,7 +1877,7 @@
     <col min="14" max="14" width="12.9166666666667" customWidth="1"/>
     <col min="15" max="15" width="12.75" customWidth="1"/>
     <col min="16" max="16" width="9" customWidth="1"/>
-    <col min="17" max="17" width="32.75" customWidth="1"/>
+    <col min="17" max="17" width="41.6666666666667" customWidth="1"/>
     <col min="18" max="18" width="29" customWidth="1"/>
     <col min="20" max="20" width="13.25" customWidth="1"/>
     <col min="21" max="21" width="17.4166666666667" customWidth="1"/>
@@ -2024,7 +2027,7 @@
         <v>0</v>
       </c>
       <c r="W2" s="1"/>
-      <c r="X2" s="6" t="s">
+      <c r="X2" s="7" t="s">
         <v>33</v>
       </c>
       <c r="Y2" s="1">
@@ -2357,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="W3" s="1"/>
-      <c r="X3" s="6" t="s">
+      <c r="X3" s="7" t="s">
         <v>33</v>
       </c>
       <c r="Y3" s="1">
@@ -2690,7 +2693,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="1"/>
-      <c r="X4" s="6" t="s">
+      <c r="X4" s="7" t="s">
         <v>33</v>
       </c>
       <c r="Y4" s="1">
@@ -3023,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="1"/>
-      <c r="X5" s="6" t="s">
+      <c r="X5" s="7" t="s">
         <v>33</v>
       </c>
       <c r="Y5" s="1">
@@ -3360,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="1"/>
-      <c r="X6" s="6" t="s">
+      <c r="X6" s="7" t="s">
         <v>33</v>
       </c>
       <c r="Y6" s="1">
@@ -3691,7 +3694,7 @@
       <c r="W7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="X7" s="6" t="s">
+      <c r="X7" s="7" t="s">
         <v>54</v>
       </c>
       <c r="Y7" s="1">
@@ -4020,7 +4023,7 @@
         <v>1</v>
       </c>
       <c r="W8" s="1"/>
-      <c r="X8" s="6" t="s">
+      <c r="X8" s="7" t="s">
         <v>60</v>
       </c>
       <c r="Y8" s="1">
@@ -4337,7 +4340,7 @@
       <c r="P9" s="1">
         <v>33</v>
       </c>
-      <c r="Q9" s="7" t="s">
+      <c r="Q9" s="8" t="s">
         <v>65</v>
       </c>
       <c r="R9" s="1"/>
@@ -4667,7 +4670,7 @@
         <v>1</v>
       </c>
       <c r="P10" s="1">
-        <f>M10-O10</f>
+        <f t="shared" ref="P10:P19" si="1">M10-O10</f>
         <v>55</v>
       </c>
       <c r="Q10" s="1"/>
@@ -4683,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="1"/>
-      <c r="X10" s="6" t="s">
+      <c r="X10" s="7" t="s">
         <v>60</v>
       </c>
       <c r="Y10" s="1">
@@ -4998,7 +5001,7 @@
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1">
-        <f>M11-O11</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="Q11" s="1" t="s">
@@ -5018,7 +5021,7 @@
       <c r="W11" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="X11" s="6" t="s">
+      <c r="X11" s="7" t="s">
         <v>54</v>
       </c>
       <c r="Y11" s="1">
@@ -5331,7 +5334,7 @@
       </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1">
-        <f>M12-O12</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="Q12" s="1" t="s">
@@ -5351,7 +5354,7 @@
       <c r="W12" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="X12" s="6" t="s">
+      <c r="X12" s="7" t="s">
         <v>54</v>
       </c>
       <c r="Y12" s="1">
@@ -5666,7 +5669,7 @@
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1">
-        <f>M13-O13</f>
+        <f t="shared" si="1"/>
         <v>103</v>
       </c>
       <c r="Q13" s="1"/>
@@ -5684,7 +5687,7 @@
       <c r="W13" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="X13" s="6" t="s">
+      <c r="X13" s="7" t="s">
         <v>86</v>
       </c>
       <c r="Y13" s="1">
@@ -6003,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="P14" s="1">
-        <f>M14-O14</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="Q14" s="1" t="s">
@@ -6023,7 +6026,7 @@
       <c r="W14" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="X14" s="6" t="s">
+      <c r="X14" s="7" t="s">
         <v>60</v>
       </c>
       <c r="Y14" s="1">
@@ -6342,7 +6345,7 @@
         <v>2</v>
       </c>
       <c r="P15" s="1">
-        <f>M15-O15</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="Q15" s="1" t="s">
@@ -6362,7 +6365,7 @@
       <c r="W15" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="X15" s="6" t="s">
+      <c r="X15" s="7" t="s">
         <v>60</v>
       </c>
       <c r="Y15" s="1">
@@ -6679,7 +6682,7 @@
         <v>1</v>
       </c>
       <c r="P16" s="1">
-        <f>M16-O16</f>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="Q16" s="1" t="s">
@@ -7012,7 +7015,7 @@
         <v>5</v>
       </c>
       <c r="P17" s="1">
-        <f>M17-O17</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="Q17" s="1"/>
@@ -7028,7 +7031,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
+      <c r="X17" s="7"/>
       <c r="Y17" s="1">
         <v>8</v>
       </c>
@@ -7335,11 +7338,11 @@
         <v>13</v>
       </c>
       <c r="N18" s="1">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="O18" s="1"/>
       <c r="P18" s="1">
-        <f t="shared" ref="P18:P44" si="1">M18-O18</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="Q18" s="1"/>
@@ -7357,9 +7360,15 @@
       <c r="W18" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
+      <c r="X18" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>10</v>
+      </c>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
@@ -7629,7 +7638,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>99</v>
@@ -7642,30 +7651,30 @@
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19" s="1">
-        <v>3</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>103</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>45</v>
       </c>
       <c r="M19" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N19" s="1">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="O19" s="1"/>
       <c r="P19" s="1">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -7682,9 +7691,15 @@
       <c r="W19" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
+      <c r="X19" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>9</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>18</v>
+      </c>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
       <c r="AC19" s="1"/>
@@ -7954,7 +7969,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>99</v>
@@ -7967,16 +7982,16 @@
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I20" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>45</v>
@@ -7985,11 +8000,11 @@
         <v>27</v>
       </c>
       <c r="N20" s="1">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="O20" s="1"/>
       <c r="P20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="P20:P45" si="2">M20-O20</f>
         <v>27</v>
       </c>
       <c r="Q20" s="1"/>
@@ -8007,9 +8022,15 @@
       <c r="W20" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="X20" s="1"/>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
+      <c r="X20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>12</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>15</v>
+      </c>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
@@ -8279,25 +8300,23 @@
         <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F21" s="1">
-        <v>2022</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>107</v>
-      </c>
+        <v>2021</v>
+      </c>
+      <c r="G21" s="1"/>
       <c r="H21" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I21" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>9</v>
@@ -8305,17 +8324,19 @@
       <c r="K21" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L21" s="1"/>
+      <c r="L21" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="M21" s="1">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N21" s="1">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="O21" s="1"/>
       <c r="P21" s="1">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>26</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -8329,10 +8350,18 @@
       <c r="V21" s="1">
         <v>0</v>
       </c>
-      <c r="W21" s="1"/>
-      <c r="X21" s="1"/>
-      <c r="Y21" s="1"/>
-      <c r="Z21" s="1"/>
+      <c r="W21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="X21" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>9</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>17</v>
+      </c>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
@@ -8602,25 +8631,25 @@
         <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="E22" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F22" s="1">
         <v>2022</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H22" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>9</v>
@@ -8630,19 +8659,17 @@
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N22" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O22" s="1"/>
       <c r="P22" s="1">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>109</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
       <c r="T22" s="1">
@@ -8655,9 +8682,13 @@
         <v>0</v>
       </c>
       <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="1"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="1">
+        <v>6</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>14</v>
+      </c>
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
@@ -8927,25 +8958,25 @@
         <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F23" s="1">
         <v>2022</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H23" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>9</v>
@@ -8955,20 +8986,18 @@
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N23" s="1">
-        <v>100</v>
-      </c>
-      <c r="O23" s="1">
-        <v>1</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="O23" s="1"/>
       <c r="P23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
@@ -8982,9 +9011,13 @@
         <v>0</v>
       </c>
       <c r="W23" s="1"/>
-      <c r="X23" s="1"/>
-      <c r="Y23" s="1"/>
-      <c r="Z23" s="1"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="1">
+        <v>8</v>
+      </c>
+      <c r="Z23" s="1">
+        <v>16</v>
+      </c>
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
@@ -9254,25 +9287,25 @@
         <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F24" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H24" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I24" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>9</v>
@@ -9280,34 +9313,40 @@
       <c r="K24" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L24" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="L24" s="1"/>
       <c r="M24" s="1">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="N24" s="1">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="O24" s="1"/>
       <c r="P24" s="1">
-        <f t="shared" si="1"/>
-        <v>105</v>
+        <f t="shared" si="2"/>
+        <v>25</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="X24" s="1"/>
-      <c r="Y24" s="1"/>
-      <c r="Z24" s="1"/>
+      <c r="T24" s="1">
+        <v>1</v>
+      </c>
+      <c r="U24" s="1">
+        <v>0</v>
+      </c>
+      <c r="V24" s="1">
+        <v>0</v>
+      </c>
+      <c r="W24" s="1"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="1">
+        <v>7</v>
+      </c>
+      <c r="Z24" s="1">
+        <v>18</v>
+      </c>
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
@@ -9572,26 +9611,24 @@
       <c r="KB24" s="1"/>
     </row>
     <row r="25" ht="15.5" spans="1:288">
-      <c r="A25" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="A25" s="1"/>
       <c r="B25" s="1">
         <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="F25" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F25" s="1">
-        <v>2023</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="H25" s="1">
         <v>1</v>
@@ -9602,39 +9639,49 @@
       <c r="J25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K25" s="1"/>
+      <c r="K25" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="L25" s="1" t="s">
         <v>45</v>
       </c>
       <c r="M25" s="1">
-        <v>298</v>
+        <v>105</v>
       </c>
       <c r="N25" s="1">
-        <v>16</v>
-      </c>
-      <c r="O25" s="1">
-        <v>18</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="O25" s="1"/>
       <c r="P25" s="1">
-        <f t="shared" si="1"/>
-        <v>280</v>
-      </c>
-      <c r="Q25" s="1"/>
+        <f t="shared" si="2"/>
+        <v>105</v>
+      </c>
+      <c r="Q25" s="9" t="s">
+        <v>119</v>
+      </c>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
       <c r="T25" s="1">
         <v>1</v>
       </c>
       <c r="U25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V25" s="1">
         <v>0</v>
       </c>
-      <c r="W25" s="1"/>
-      <c r="X25" s="1"/>
-      <c r="Y25" s="1"/>
-      <c r="Z25" s="1"/>
+      <c r="W25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="X25" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>51</v>
+      </c>
+      <c r="Z25" s="1">
+        <v>54</v>
+      </c>
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
       <c r="AC25" s="1"/>
@@ -9900,29 +9947,31 @@
     </row>
     <row r="26" ht="15.5" spans="1:288">
       <c r="A26" s="1" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="B26" s="1">
         <v>25</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="F26" s="1">
         <v>2023</v>
       </c>
-      <c r="G26" s="1"/>
+      <c r="G26" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="H26" s="1">
         <v>1</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>124</v>
+      <c r="I26" s="1">
+        <v>1</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>9</v>
@@ -9932,25 +9981,21 @@
         <v>45</v>
       </c>
       <c r="M26" s="1">
-        <v>23</v>
+        <v>302</v>
       </c>
       <c r="N26" s="1">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="O26" s="1">
         <v>3</v>
       </c>
       <c r="P26" s="1">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="Q26" s="1" t="s">
-        <v>125</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>299</v>
+      </c>
+      <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
-      <c r="S26" s="1" t="s">
-        <v>126</v>
-      </c>
+      <c r="S26" s="1"/>
       <c r="T26" s="1">
         <v>1</v>
       </c>
@@ -9958,10 +10003,10 @@
         <v>0</v>
       </c>
       <c r="V26" s="1">
-        <v>1</v>
-      </c>
-      <c r="W26" s="1" t="s">
-        <v>66</v>
+        <v>0</v>
+      </c>
+      <c r="W26" s="10" t="s">
+        <v>124</v>
       </c>
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
@@ -10230,56 +10275,68 @@
       <c r="KB26" s="1"/>
     </row>
     <row r="27" ht="15.5" spans="1:288">
-      <c r="A27" s="1"/>
+      <c r="A27" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="B27" s="1">
         <v>26</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="E27" s="1" t="s">
-        <v>129</v>
+        <v>50</v>
       </c>
       <c r="F27" s="1">
-        <v>2014</v>
+        <v>2023</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1">
         <v>1</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K27" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="K27" s="1"/>
       <c r="L27" s="1" t="s">
         <v>45</v>
       </c>
       <c r="M27" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N27" s="1">
-        <v>40</v>
-      </c>
-      <c r="O27" s="1"/>
+        <v>90</v>
+      </c>
+      <c r="O27" s="1">
+        <v>3</v>
+      </c>
       <c r="P27" s="1">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="Q27" s="1"/>
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
+      <c r="S27" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="T27" s="1">
+        <v>1</v>
+      </c>
+      <c r="U27" s="1">
+        <v>0</v>
+      </c>
+      <c r="V27" s="1">
+        <v>1</v>
+      </c>
+      <c r="W27" s="10"/>
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
@@ -10558,17 +10615,17 @@
         <v>132</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F28" s="1">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1">
         <v>1</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>9</v>
@@ -10580,15 +10637,15 @@
         <v>45</v>
       </c>
       <c r="M28" s="1">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N28" s="1">
         <v>40</v>
       </c>
       <c r="O28" s="1"/>
       <c r="P28" s="1">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>24</v>
       </c>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
@@ -10869,23 +10926,23 @@
         <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="F29" s="1">
         <v>2015</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>9</v>
@@ -10897,15 +10954,15 @@
         <v>45</v>
       </c>
       <c r="M29" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N29" s="1">
         <v>40</v>
       </c>
       <c r="O29" s="1"/>
       <c r="P29" s="1">
-        <f t="shared" si="1"/>
-        <v>21</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
@@ -11181,56 +11238,50 @@
       <c r="KB29" s="1"/>
     </row>
     <row r="30" ht="15.5" spans="1:288">
-      <c r="A30" s="1" t="s">
-        <v>134</v>
-      </c>
+      <c r="A30" s="1"/>
       <c r="B30" s="1">
         <v>29</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>136</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F30" s="1">
-        <v>2014</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>138</v>
-      </c>
+        <v>2015</v>
+      </c>
+      <c r="G30" s="1"/>
       <c r="H30" s="1">
-        <v>1</v>
-      </c>
-      <c r="I30" s="1">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>139</v>
+        <v>59</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>45</v>
       </c>
       <c r="M30" s="1">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N30" s="1">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="O30" s="1"/>
       <c r="P30" s="1">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="Q30" s="1" t="s">
-        <v>140</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
@@ -11505,54 +11556,54 @@
     </row>
     <row r="31" ht="15.5" spans="1:288">
       <c r="A31" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B31" s="1">
         <v>30</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F31" s="1">
         <v>2014</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H31" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>45</v>
       </c>
       <c r="M31" s="1">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N31" s="1">
         <v>60</v>
       </c>
       <c r="O31" s="1"/>
       <c r="P31" s="1">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>24</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
@@ -11828,54 +11879,54 @@
     </row>
     <row r="32" ht="15.5" spans="1:288">
       <c r="A32" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B32" s="1">
         <v>31</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F32" s="1">
         <v>2014</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H32" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I32" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>45</v>
       </c>
       <c r="M32" s="1">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N32" s="1">
         <v>60</v>
       </c>
       <c r="O32" s="1"/>
       <c r="P32" s="1">
-        <f t="shared" si="1"/>
-        <v>22</v>
+        <f t="shared" si="2"/>
+        <v>18</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
@@ -12151,54 +12202,54 @@
     </row>
     <row r="33" ht="15.5" spans="1:288">
       <c r="A33" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B33" s="1">
         <v>32</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F33" s="1">
         <v>2014</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H33" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I33" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>45</v>
       </c>
       <c r="M33" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N33" s="1">
         <v>60</v>
       </c>
       <c r="O33" s="1"/>
       <c r="P33" s="1">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>22</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
@@ -12473,64 +12524,62 @@
       <c r="KB33" s="1"/>
     </row>
     <row r="34" ht="15.5" spans="1:288">
-      <c r="A34" s="1"/>
+      <c r="A34" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="B34" s="1">
         <v>33</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="F34" s="1">
-        <v>2023</v>
+        <v>2014</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="H34" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I34" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K34" s="1"/>
+      <c r="K34" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="L34" s="1" t="s">
         <v>45</v>
       </c>
       <c r="M34" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="N34" s="1">
         <v>60</v>
       </c>
       <c r="O34" s="1"/>
       <c r="P34" s="1">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="Q34" s="1"/>
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
-      <c r="T34" s="1">
-        <v>1</v>
-      </c>
-      <c r="U34" s="1">
-        <v>0</v>
-      </c>
-      <c r="V34" s="1">
-        <v>1</v>
-      </c>
-      <c r="W34" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
@@ -12826,24 +12875,20 @@
       <c r="J35" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K35" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="K35" s="1"/>
       <c r="L35" s="1" t="s">
         <v>45</v>
       </c>
       <c r="M35" s="1">
-        <v>144</v>
+        <v>40</v>
       </c>
       <c r="N35" s="1">
-        <v>20</v>
-      </c>
-      <c r="O35" s="1">
-        <v>2</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="O35" s="1"/>
       <c r="P35" s="1">
-        <f t="shared" ref="P35:P44" si="2">M35-O35</f>
-        <v>142</v>
+        <f t="shared" si="2"/>
+        <v>40</v>
       </c>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
@@ -12852,12 +12897,14 @@
         <v>1</v>
       </c>
       <c r="U35" s="1">
+        <v>0</v>
+      </c>
+      <c r="V35" s="1">
         <v>1</v>
       </c>
-      <c r="V35" s="1">
-        <v>0</v>
-      </c>
-      <c r="W35" s="1"/>
+      <c r="W35" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
@@ -13139,10 +13186,10 @@
         <v>160</v>
       </c>
       <c r="F36" s="1">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>58</v>
+        <v>161</v>
       </c>
       <c r="H36" s="1">
         <v>1</v>
@@ -13160,37 +13207,31 @@
         <v>45</v>
       </c>
       <c r="M36" s="1">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="N36" s="1">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="O36" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P36" s="1">
-        <f t="shared" si="2"/>
-        <v>108</v>
-      </c>
-      <c r="Q36" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="R36" s="1" t="s">
-        <v>162</v>
-      </c>
+        <f t="shared" ref="P36:P45" si="3">M36-O36</f>
+        <v>142</v>
+      </c>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
       <c r="S36" s="1"/>
       <c r="T36" s="1">
         <v>1</v>
       </c>
       <c r="U36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V36" s="1">
         <v>0</v>
       </c>
-      <c r="W36" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="W36" s="1"/>
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
@@ -13458,26 +13499,24 @@
       <c r="KB36" s="1"/>
     </row>
     <row r="37" ht="15.5" spans="1:288">
-      <c r="A37" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="A37" s="1"/>
       <c r="B37" s="1">
         <v>36</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="F37" s="1">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
       <c r="H37" s="1">
         <v>1</v>
@@ -13489,24 +13528,30 @@
         <v>9</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="L37" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="M37" s="1">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="N37" s="1">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="O37" s="1">
         <v>1</v>
       </c>
       <c r="P37" s="1">
-        <f t="shared" si="2"/>
-        <v>39</v>
-      </c>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
+        <f t="shared" si="3"/>
+        <v>108</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="S37" s="1"/>
       <c r="T37" s="1">
         <v>1</v>
@@ -13787,7 +13832,9 @@
       <c r="KB37" s="1"/>
     </row>
     <row r="38" ht="15.5" spans="1:288">
-      <c r="A38" s="1"/>
+      <c r="A38" s="1" t="s">
+        <v>167</v>
+      </c>
       <c r="B38" s="1">
         <v>37</v>
       </c>
@@ -13801,7 +13848,7 @@
         <v>170</v>
       </c>
       <c r="F38" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>171</v>
@@ -13815,32 +13862,38 @@
       <c r="J38" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="K38" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L38" s="1"/>
       <c r="M38" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N38" s="1">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="O38" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P38" s="1">
-        <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-      <c r="Q38" s="1" t="s">
-        <v>172</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
-      <c r="T38" s="1"/>
-      <c r="U38" s="1"/>
-      <c r="V38" s="1"/>
-      <c r="W38" s="1"/>
+      <c r="T38" s="1">
+        <v>1</v>
+      </c>
+      <c r="U38" s="1">
+        <v>0</v>
+      </c>
+      <c r="V38" s="1">
+        <v>0</v>
+      </c>
+      <c r="W38" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
@@ -14113,25 +14166,25 @@
         <v>38</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="E39" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F39" s="1">
         <v>2022</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H39" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>9</v>
@@ -14141,20 +14194,20 @@
         <v>45</v>
       </c>
       <c r="M39" s="1">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="N39" s="1">
         <v>60</v>
       </c>
       <c r="O39" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P39" s="1">
-        <f t="shared" si="2"/>
-        <v>46</v>
+        <f t="shared" si="3"/>
+        <v>27</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
@@ -14429,64 +14482,60 @@
       <c r="KB39" s="1"/>
     </row>
     <row r="40" ht="15.5" spans="1:288">
-      <c r="A40" s="1" t="s">
-        <v>174</v>
-      </c>
+      <c r="A40" s="1"/>
       <c r="B40" s="1">
         <v>39</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F40" s="1">
         <v>2022</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H40" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K40" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="K40" s="1"/>
       <c r="L40" s="1" t="s">
         <v>45</v>
       </c>
       <c r="M40" s="1">
-        <v>328</v>
+        <v>48</v>
       </c>
       <c r="N40" s="1">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="O40" s="1">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="P40" s="1">
-        <f t="shared" si="2"/>
-        <v>288</v>
-      </c>
-      <c r="Q40" s="1"/>
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
-      <c r="W40" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="W40" s="1"/>
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
@@ -14754,7 +14803,9 @@
       <c r="KB40" s="1"/>
     </row>
     <row r="41" ht="15.5" spans="1:288">
-      <c r="A41" s="1"/>
+      <c r="A41" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="B41" s="1">
         <v>40</v>
       </c>
@@ -14765,13 +14816,13 @@
         <v>180</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>90</v>
+        <v>181</v>
       </c>
       <c r="F41" s="1">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>107</v>
+        <v>182</v>
       </c>
       <c r="H41" s="1">
         <v>1</v>
@@ -14786,18 +14837,20 @@
         <v>59</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="M41" s="1">
-        <v>23</v>
+        <v>328</v>
       </c>
       <c r="N41" s="1">
         <v>120</v>
       </c>
-      <c r="O41" s="1"/>
+      <c r="O41" s="1">
+        <v>40</v>
+      </c>
       <c r="P41" s="1">
-        <f t="shared" si="2"/>
-        <v>23</v>
+        <f t="shared" si="3"/>
+        <v>288</v>
       </c>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
@@ -14805,7 +14858,9 @@
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
       <c r="V41" s="1"/>
-      <c r="W41" s="1"/>
+      <c r="W41" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
@@ -15078,10 +15133,10 @@
         <v>41</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>90</v>
@@ -15090,7 +15145,7 @@
         <v>2020</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H42" s="1">
         <v>1</v>
@@ -15108,17 +15163,15 @@
         <v>85</v>
       </c>
       <c r="M42" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N42" s="1">
         <v>120</v>
       </c>
-      <c r="O42" s="1">
-        <v>3</v>
-      </c>
+      <c r="O42" s="1"/>
       <c r="P42" s="1">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <f t="shared" si="3"/>
+        <v>23</v>
       </c>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
@@ -15399,10 +15452,10 @@
         <v>42</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>90</v>
@@ -15411,7 +15464,7 @@
         <v>2020</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H43" s="1">
         <v>1</v>
@@ -15429,14 +15482,16 @@
         <v>85</v>
       </c>
       <c r="M43" s="1">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N43" s="1">
         <v>120</v>
       </c>
-      <c r="O43" s="1"/>
+      <c r="O43" s="1">
+        <v>3</v>
+      </c>
       <c r="P43" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="Q43" s="1"/>
@@ -15718,19 +15773,19 @@
         <v>43</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>184</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>185</v>
+        <v>90</v>
       </c>
       <c r="F44" s="1">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>186</v>
+        <v>110</v>
       </c>
       <c r="H44" s="1">
         <v>1</v>
@@ -15738,19 +15793,25 @@
       <c r="I44" s="1">
         <v>1</v>
       </c>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
+      <c r="J44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="M44" s="1">
-        <v>380</v>
-      </c>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="N44" s="1">
+        <v>120</v>
+      </c>
+      <c r="O44" s="1"/>
       <c r="P44" s="1">
-        <f t="shared" si="2"/>
-        <v>348</v>
+        <f t="shared" si="3"/>
+        <v>18</v>
       </c>
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
@@ -16034,30 +16095,37 @@
         <v>187</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F45" s="1">
         <v>2023</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="H45" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
+      <c r="M45" s="1">
+        <v>380</v>
+      </c>
       <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
+      <c r="O45" s="1">
+        <v>32</v>
+      </c>
+      <c r="P45" s="1">
+        <f t="shared" si="3"/>
+        <v>348</v>
+      </c>
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
@@ -16337,25 +16405,25 @@
         <v>45</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>184</v>
-      </c>
       <c r="E46" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F46" s="1">
         <v>2023</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="H46" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I46" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
@@ -16643,25 +16711,25 @@
         <v>46</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="F47" s="1">
+        <v>2023</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="F47" s="1">
-        <v>2021</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="H47" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I47" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -16952,22 +17020,22 @@
         <v>193</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F48" s="1">
         <v>2021</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H48" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
@@ -17255,25 +17323,25 @@
         <v>48</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>190</v>
-      </c>
       <c r="E49" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F49" s="1">
         <v>2021</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H49" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I49" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
@@ -17561,25 +17629,25 @@
         <v>49</v>
       </c>
       <c r="C50" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="F50" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G50" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="F50" s="1">
-        <v>2023</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="H50" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I50" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
@@ -17876,10 +17944,10 @@
         <v>201</v>
       </c>
       <c r="F51" s="1">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H51" s="1">
         <v>1</v>
@@ -18173,19 +18241,19 @@
         <v>51</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F52" s="1">
         <v>2024</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H52" s="1">
         <v>1</v>
@@ -18475,14 +18543,30 @@
     </row>
     <row r="53" ht="15.5" spans="1:288">
       <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
+      <c r="B53" s="1">
+        <v>52</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F53" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H53" s="1">
+        <v>1</v>
+      </c>
+      <c r="I53" s="1">
+        <v>1</v>
+      </c>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
@@ -22823,7 +22907,7 @@
       <c r="KA67" s="1"/>
       <c r="KB67" s="1"/>
     </row>
-    <row r="68" ht="15.5" spans="1:12">
+    <row r="68" ht="15.5" spans="1:288">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -22836,9 +22920,299 @@
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="1"/>
+      <c r="S68" s="1"/>
+      <c r="T68" s="1"/>
+      <c r="U68" s="1"/>
+      <c r="V68" s="1"/>
+      <c r="W68" s="1"/>
+      <c r="X68" s="1"/>
+      <c r="Y68" s="1"/>
+      <c r="Z68" s="1"/>
+      <c r="AA68" s="1"/>
+      <c r="AB68" s="1"/>
+      <c r="AC68" s="1"/>
+      <c r="AD68" s="1"/>
+      <c r="AE68" s="1"/>
+      <c r="AF68" s="1"/>
+      <c r="AG68" s="1"/>
+      <c r="AH68" s="1"/>
+      <c r="AI68" s="1"/>
+      <c r="AJ68" s="1"/>
+      <c r="AK68" s="1"/>
+      <c r="AL68" s="1"/>
+      <c r="AM68" s="1"/>
+      <c r="AN68" s="1"/>
+      <c r="AO68" s="1"/>
+      <c r="AP68" s="1"/>
+      <c r="AQ68" s="1"/>
+      <c r="AR68" s="1"/>
+      <c r="AS68" s="1"/>
+      <c r="AT68" s="1"/>
+      <c r="AU68" s="1"/>
+      <c r="AV68" s="1"/>
+      <c r="AW68" s="1"/>
+      <c r="AX68" s="1"/>
+      <c r="AY68" s="1"/>
+      <c r="AZ68" s="1"/>
+      <c r="BA68" s="1"/>
+      <c r="BB68" s="1"/>
+      <c r="BC68" s="1"/>
+      <c r="BD68" s="1"/>
+      <c r="BE68" s="1"/>
+      <c r="BF68" s="1"/>
+      <c r="BG68" s="1"/>
+      <c r="BH68" s="1"/>
+      <c r="BI68" s="1"/>
+      <c r="BJ68" s="1"/>
+      <c r="BK68" s="1"/>
+      <c r="BL68" s="1"/>
+      <c r="BM68" s="1"/>
+      <c r="BN68" s="1"/>
+      <c r="BO68" s="1"/>
+      <c r="BP68" s="1"/>
+      <c r="BQ68" s="1"/>
+      <c r="BR68" s="1"/>
+      <c r="BS68" s="1"/>
+      <c r="BT68" s="1"/>
+      <c r="BU68" s="1"/>
+      <c r="BV68" s="1"/>
+      <c r="BW68" s="1"/>
+      <c r="BX68" s="1"/>
+      <c r="BY68" s="1"/>
+      <c r="BZ68" s="1"/>
+      <c r="CA68" s="1"/>
+      <c r="CB68" s="1"/>
+      <c r="CC68" s="1"/>
+      <c r="CD68" s="1"/>
+      <c r="CE68" s="1"/>
+      <c r="CF68" s="1"/>
+      <c r="CG68" s="1"/>
+      <c r="CH68" s="1"/>
+      <c r="CI68" s="1"/>
+      <c r="CJ68" s="1"/>
+      <c r="CK68" s="1"/>
+      <c r="CL68" s="1"/>
+      <c r="CM68" s="1"/>
+      <c r="CN68" s="1"/>
+      <c r="CO68" s="1"/>
+      <c r="CP68" s="1"/>
+      <c r="CQ68" s="1"/>
+      <c r="CR68" s="1"/>
+      <c r="CS68" s="1"/>
+      <c r="CT68" s="1"/>
+      <c r="CU68" s="1"/>
+      <c r="CV68" s="1"/>
+      <c r="CW68" s="1"/>
+      <c r="CX68" s="1"/>
+      <c r="CY68" s="1"/>
+      <c r="CZ68" s="1"/>
+      <c r="DA68" s="1"/>
+      <c r="DB68" s="1"/>
+      <c r="DC68" s="1"/>
+      <c r="DD68" s="1"/>
+      <c r="DE68" s="1"/>
+      <c r="DF68" s="1"/>
+      <c r="DG68" s="1"/>
+      <c r="DH68" s="1"/>
+      <c r="DI68" s="1"/>
+      <c r="DJ68" s="1"/>
+      <c r="DK68" s="1"/>
+      <c r="DL68" s="1"/>
+      <c r="DM68" s="1"/>
+      <c r="DN68" s="1"/>
+      <c r="DO68" s="1"/>
+      <c r="DP68" s="1"/>
+      <c r="DQ68" s="1"/>
+      <c r="DR68" s="1"/>
+      <c r="DS68" s="1"/>
+      <c r="DT68" s="1"/>
+      <c r="DU68" s="1"/>
+      <c r="DV68" s="1"/>
+      <c r="DW68" s="1"/>
+      <c r="DX68" s="1"/>
+      <c r="DY68" s="1"/>
+      <c r="DZ68" s="1"/>
+      <c r="EA68" s="1"/>
+      <c r="EB68" s="1"/>
+      <c r="EC68" s="1"/>
+      <c r="ED68" s="1"/>
+      <c r="EE68" s="1"/>
+      <c r="EF68" s="1"/>
+      <c r="EG68" s="1"/>
+      <c r="EH68" s="1"/>
+      <c r="EI68" s="1"/>
+      <c r="EJ68" s="1"/>
+      <c r="EK68" s="1"/>
+      <c r="EL68" s="1"/>
+      <c r="EM68" s="1"/>
+      <c r="EN68" s="1"/>
+      <c r="EO68" s="1"/>
+      <c r="EP68" s="1"/>
+      <c r="EQ68" s="1"/>
+      <c r="ER68" s="1"/>
+      <c r="ES68" s="1"/>
+      <c r="ET68" s="1"/>
+      <c r="EU68" s="1"/>
+      <c r="EV68" s="1"/>
+      <c r="EW68" s="1"/>
+      <c r="EX68" s="1"/>
+      <c r="EY68" s="1"/>
+      <c r="EZ68" s="1"/>
+      <c r="FA68" s="1"/>
+      <c r="FB68" s="1"/>
+      <c r="FC68" s="1"/>
+      <c r="FD68" s="1"/>
+      <c r="FE68" s="1"/>
+      <c r="FF68" s="1"/>
+      <c r="FG68" s="1"/>
+      <c r="FH68" s="1"/>
+      <c r="FI68" s="1"/>
+      <c r="FJ68" s="1"/>
+      <c r="FK68" s="1"/>
+      <c r="FL68" s="1"/>
+      <c r="FM68" s="1"/>
+      <c r="FN68" s="1"/>
+      <c r="FO68" s="1"/>
+      <c r="FP68" s="1"/>
+      <c r="FQ68" s="1"/>
+      <c r="FR68" s="1"/>
+      <c r="FS68" s="1"/>
+      <c r="FT68" s="1"/>
+      <c r="FU68" s="1"/>
+      <c r="FV68" s="1"/>
+      <c r="FW68" s="1"/>
+      <c r="FX68" s="1"/>
+      <c r="FY68" s="1"/>
+      <c r="FZ68" s="1"/>
+      <c r="GA68" s="1"/>
+      <c r="GB68" s="1"/>
+      <c r="GC68" s="1"/>
+      <c r="GD68" s="1"/>
+      <c r="GE68" s="1"/>
+      <c r="GF68" s="1"/>
+      <c r="GG68" s="1"/>
+      <c r="GH68" s="1"/>
+      <c r="GI68" s="1"/>
+      <c r="GJ68" s="1"/>
+      <c r="GK68" s="1"/>
+      <c r="GL68" s="1"/>
+      <c r="GM68" s="1"/>
+      <c r="GN68" s="1"/>
+      <c r="GO68" s="1"/>
+      <c r="GP68" s="1"/>
+      <c r="GQ68" s="1"/>
+      <c r="GR68" s="1"/>
+      <c r="GS68" s="1"/>
+      <c r="GT68" s="1"/>
+      <c r="GU68" s="1"/>
+      <c r="GV68" s="1"/>
+      <c r="GW68" s="1"/>
+      <c r="GX68" s="1"/>
+      <c r="GY68" s="1"/>
+      <c r="GZ68" s="1"/>
+      <c r="HA68" s="1"/>
+      <c r="HB68" s="1"/>
+      <c r="HC68" s="1"/>
+      <c r="HD68" s="1"/>
+      <c r="HE68" s="1"/>
+      <c r="HF68" s="1"/>
+      <c r="HG68" s="1"/>
+      <c r="HH68" s="1"/>
+      <c r="HI68" s="1"/>
+      <c r="HJ68" s="1"/>
+      <c r="HK68" s="1"/>
+      <c r="HL68" s="1"/>
+      <c r="HM68" s="1"/>
+      <c r="HN68" s="1"/>
+      <c r="HO68" s="1"/>
+      <c r="HP68" s="1"/>
+      <c r="HQ68" s="1"/>
+      <c r="HR68" s="1"/>
+      <c r="HS68" s="1"/>
+      <c r="HT68" s="1"/>
+      <c r="HU68" s="1"/>
+      <c r="HV68" s="1"/>
+      <c r="HW68" s="1"/>
+      <c r="HX68" s="1"/>
+      <c r="HY68" s="1"/>
+      <c r="HZ68" s="1"/>
+      <c r="IA68" s="1"/>
+      <c r="IB68" s="1"/>
+      <c r="IC68" s="1"/>
+      <c r="ID68" s="1"/>
+      <c r="IE68" s="1"/>
+      <c r="IF68" s="1"/>
+      <c r="IG68" s="1"/>
+      <c r="IH68" s="1"/>
+      <c r="II68" s="1"/>
+      <c r="IJ68" s="1"/>
+      <c r="IK68" s="1"/>
+      <c r="IL68" s="1"/>
+      <c r="IM68" s="1"/>
+      <c r="IN68" s="1"/>
+      <c r="IO68" s="1"/>
+      <c r="IP68" s="1"/>
+      <c r="IQ68" s="1"/>
+      <c r="IR68" s="1"/>
+      <c r="IS68" s="1"/>
+      <c r="IT68" s="1"/>
+      <c r="IU68" s="1"/>
+      <c r="IV68" s="1"/>
+      <c r="IW68" s="1"/>
+      <c r="IX68" s="1"/>
+      <c r="IY68" s="1"/>
+      <c r="IZ68" s="1"/>
+      <c r="JA68" s="1"/>
+      <c r="JB68" s="1"/>
+      <c r="JC68" s="1"/>
+      <c r="JD68" s="1"/>
+      <c r="JE68" s="1"/>
+      <c r="JF68" s="1"/>
+      <c r="JG68" s="1"/>
+      <c r="JH68" s="1"/>
+      <c r="JI68" s="1"/>
+      <c r="JJ68" s="1"/>
+      <c r="JK68" s="1"/>
+      <c r="JL68" s="1"/>
+      <c r="JM68" s="1"/>
+      <c r="JN68" s="1"/>
+      <c r="JO68" s="1"/>
+      <c r="JP68" s="1"/>
+      <c r="JQ68" s="1"/>
+      <c r="JR68" s="1"/>
+      <c r="JS68" s="1"/>
+      <c r="JT68" s="1"/>
+      <c r="JU68" s="1"/>
+      <c r="JV68" s="1"/>
+      <c r="JW68" s="1"/>
+      <c r="JX68" s="1"/>
+      <c r="JY68" s="1"/>
+      <c r="JZ68" s="1"/>
+      <c r="KA68" s="1"/>
+      <c r="KB68" s="1"/>
+    </row>
+    <row r="69" ht="15.5" spans="1:12">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:S52" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:S53" etc:filterBottomFollowUsedRange="0">
     <extLst>
       <etc:autoFilterAnalysis etc:version="v1" etc:showPane="0">
         <etc:analysisCharts>
@@ -22853,7 +23227,7 @@
     </extLst>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="G52" r:id="rId1" display="Cognitive, Affective, &amp; Behavioral Neuroscience" tooltip="https://link.springer.com/journal/13415"/>
+    <hyperlink ref="G53" r:id="rId1" display="Cognitive, Affective, &amp; Behavioral Neuroscience" tooltip="https://link.springer.com/journal/13415"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -23086,7 +23460,7 @@
         <v>2020</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E11" s="3">
         <v>2022</v>
@@ -23106,7 +23480,7 @@
         <v>2020</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E12" s="3">
         <v>2021</v>
@@ -23126,7 +23500,7 @@
         <v>2019</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E13" s="3">
         <v>2023</v>
@@ -23146,7 +23520,7 @@
         <v>2019</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E14" s="3">
         <v>2023</v>
@@ -23166,7 +23540,7 @@
         <v>2018</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E15" s="3">
         <v>2014</v>
@@ -23186,7 +23560,7 @@
         <v>2018</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E16" s="3">
         <v>2015</v>
@@ -23206,7 +23580,7 @@
         <v>2021</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E17" s="3">
         <v>2014</v>
@@ -23226,7 +23600,7 @@
         <v>2021</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E18" s="3">
         <v>2023</v>
@@ -23246,7 +23620,7 @@
         <v>2021</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E19" s="3">
         <v>2023</v>
@@ -23266,7 +23640,7 @@
         <v>2021</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E20" s="3">
         <v>2021</v>
@@ -23280,19 +23654,19 @@
     </row>
     <row r="21" ht="15.5" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B21" s="1">
         <v>2022</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E21" s="3">
         <v>2023</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H21" s="1">
         <v>2022</v>
@@ -23300,19 +23674,19 @@
     </row>
     <row r="22" ht="15.5" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B22" s="1">
         <v>2022</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E22" s="3">
         <v>2022</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H22" s="1">
         <v>2022</v>
@@ -23320,19 +23694,19 @@
     </row>
     <row r="23" ht="15.5" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B23" s="1">
         <v>2022</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E23" s="3">
         <v>2022</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H23" s="1">
         <v>2022</v>
@@ -23340,19 +23714,19 @@
     </row>
     <row r="24" ht="15.5" hidden="1" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B24" s="1">
         <v>2021</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E24" s="3">
         <v>2020</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H24" s="1">
         <v>2021</v>
@@ -23360,19 +23734,19 @@
     </row>
     <row r="25" ht="15.5" hidden="1" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B25" s="1">
         <v>2023</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E25" s="3">
         <v>2023</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H25" s="1">
         <v>2023</v>
@@ -23380,19 +23754,19 @@
     </row>
     <row r="26" ht="15.5" hidden="1" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B26" s="1">
         <v>2023</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H26" s="1">
         <v>2023</v>
@@ -23400,13 +23774,13 @@
     </row>
     <row r="27" ht="15.5" hidden="1" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B27" s="1">
         <v>2014</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="H27" s="1">
         <v>2014</v>
@@ -23414,13 +23788,13 @@
     </row>
     <row r="28" ht="15.5" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B28" s="1">
         <v>2015</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H28" s="1">
         <v>2015</v>
@@ -23428,13 +23802,13 @@
     </row>
     <row r="29" ht="15.5" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B29" s="1">
         <v>2015</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H29" s="1">
         <v>2015</v>
@@ -23442,13 +23816,13 @@
     </row>
     <row r="30" ht="15.5" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B30" s="1">
         <v>2014</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H30" s="1">
         <v>2014</v>
@@ -23456,13 +23830,13 @@
     </row>
     <row r="31" ht="15.5" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B31" s="1">
         <v>2014</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H31" s="1">
         <v>2014</v>
@@ -23470,13 +23844,13 @@
     </row>
     <row r="32" ht="15.5" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B32" s="1">
         <v>2014</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H32" s="1">
         <v>2014</v>
@@ -23484,13 +23858,13 @@
     </row>
     <row r="33" ht="15.5" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B33" s="1">
         <v>2014</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H33" s="1">
         <v>2014</v>
@@ -23498,13 +23872,13 @@
     </row>
     <row r="34" ht="15.5" hidden="1" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B34" s="1">
         <v>2023</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="H34" s="1">
         <v>2023</v>
@@ -23512,13 +23886,13 @@
     </row>
     <row r="35" ht="15.5" hidden="1" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B35" s="1">
         <v>2023</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="H35" s="1">
         <v>2023</v>
@@ -23526,13 +23900,13 @@
     </row>
     <row r="36" ht="15.5" hidden="1" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B36" s="1">
         <v>2021</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="H36" s="1">
         <v>2021</v>
@@ -23540,13 +23914,13 @@
     </row>
     <row r="37" ht="15.5" hidden="1" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B37" s="1">
         <v>2023</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="H37" s="1">
         <v>2023</v>
@@ -23554,13 +23928,13 @@
     </row>
     <row r="38" ht="15.5" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B38" s="1">
         <v>2022</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H38" s="1">
         <v>2022</v>
@@ -23568,13 +23942,13 @@
     </row>
     <row r="39" ht="15.5" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B39" s="1">
         <v>2022</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H39" s="1">
         <v>2022</v>
@@ -23582,13 +23956,13 @@
     </row>
     <row r="40" ht="15.5" hidden="1" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B40" s="1">
         <v>2022</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H40" s="1">
         <v>2022</v>
@@ -23596,13 +23970,13 @@
     </row>
     <row r="41" ht="15.5" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B41" s="1">
         <v>2020</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H41" s="1">
         <v>2020</v>
@@ -23610,13 +23984,13 @@
     </row>
     <row r="42" ht="15.5" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B42" s="1">
         <v>2020</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H42" s="1">
         <v>2020</v>
@@ -23624,13 +23998,13 @@
     </row>
     <row r="43" ht="15.5" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B43" s="1">
         <v>2020</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H43" s="1">
         <v>2020</v>
@@ -23638,13 +24012,13 @@
     </row>
     <row r="44" ht="15.5" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B44" s="1">
         <v>2023</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H44" s="1">
         <v>2023</v>
@@ -23652,13 +24026,13 @@
     </row>
     <row r="45" ht="15.5" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B45" s="1">
         <v>2023</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H45" s="1">
         <v>2023</v>
@@ -23666,13 +24040,13 @@
     </row>
     <row r="46" ht="15.5" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B46" s="1">
         <v>2023</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H46" s="1">
         <v>2023</v>
@@ -23680,13 +24054,13 @@
     </row>
     <row r="47" ht="15.5" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B47" s="1">
         <v>2021</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H47" s="1">
         <v>2021</v>
@@ -23694,13 +24068,13 @@
     </row>
     <row r="48" ht="15.5" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B48" s="1">
         <v>2021</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H48" s="1">
         <v>2021</v>
@@ -23708,13 +24082,13 @@
     </row>
     <row r="49" ht="15.5" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B49" s="1">
         <v>2021</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H49" s="1">
         <v>2021</v>
@@ -23722,13 +24096,13 @@
     </row>
     <row r="50" ht="15.5" hidden="1" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B50" s="1">
         <v>2023</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H50" s="1">
         <v>2023</v>
@@ -23736,13 +24110,13 @@
     </row>
     <row r="51" ht="15.5" hidden="1" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B51" s="1">
         <v>2024</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="H51" s="1">
         <v>2024</v>
@@ -23750,13 +24124,13 @@
     </row>
     <row r="52" ht="15.5" hidden="1" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B52" s="1">
         <v>2024</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="H52" s="1">
         <v>2024</v>

--- a/Label.xlsx
+++ b/Label.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Label!$A$1:$S$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Label!$A$1:$S$54</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$A$68</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="213">
   <si>
     <t>Note</t>
   </si>
@@ -133,7 +133,7 @@
     <t>They/Alone</t>
   </si>
   <si>
-    <t>Hungarian.</t>
+    <t>Hungarian</t>
   </si>
   <si>
     <t>P5E2</t>
@@ -342,6 +342,9 @@
     <t>none</t>
   </si>
   <si>
+    <t>unavailable</t>
+  </si>
+  <si>
     <t>German</t>
   </si>
   <si>
@@ -433,6 +436,9 @@
   </si>
   <si>
     <t>Pn13E4</t>
+  </si>
+  <si>
+    <t>Pn14</t>
   </si>
   <si>
     <t>Pn16E1</t>
@@ -807,7 +813,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -833,12 +839,6 @@
       <sz val="11.05"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF231F20"/>
-      <name val="Times-Roman"/>
       <charset val="134"/>
     </font>
     <font>
@@ -976,12 +976,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1305,13 +1317,16 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1320,122 +1335,119 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1457,7 +1469,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1466,7 +1481,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1850,14 +1865,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:KB69"/>
+  <dimension ref="A1:KB70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="W27" sqref="W27"/>
+      <selection pane="bottomRight" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2017,17 +2032,17 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
-      <c r="T2" s="1">
+      <c r="T2" s="7">
         <v>1</v>
       </c>
-      <c r="U2" s="1">
+      <c r="U2" s="8">
         <v>0</v>
       </c>
-      <c r="V2" s="1">
+      <c r="V2" s="8">
         <v>0</v>
       </c>
       <c r="W2" s="1"/>
-      <c r="X2" s="7" t="s">
+      <c r="X2" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Y2" s="1">
@@ -2350,17 +2365,17 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
-      <c r="T3" s="1">
+      <c r="T3" s="7">
         <v>1</v>
       </c>
-      <c r="U3" s="1">
+      <c r="U3" s="8">
         <v>0</v>
       </c>
-      <c r="V3" s="1">
+      <c r="V3" s="8">
         <v>0</v>
       </c>
       <c r="W3" s="1"/>
-      <c r="X3" s="7" t="s">
+      <c r="X3" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Y3" s="1">
@@ -2683,17 +2698,17 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
-      <c r="T4" s="1">
+      <c r="T4" s="7">
         <v>1</v>
       </c>
-      <c r="U4" s="1">
+      <c r="U4" s="8">
         <v>0</v>
       </c>
-      <c r="V4" s="1">
+      <c r="V4" s="8">
         <v>0</v>
       </c>
       <c r="W4" s="1"/>
-      <c r="X4" s="7" t="s">
+      <c r="X4" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Y4" s="1">
@@ -3016,17 +3031,17 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
-      <c r="T5" s="1">
+      <c r="T5" s="7">
         <v>1</v>
       </c>
-      <c r="U5" s="1">
+      <c r="U5" s="8">
         <v>0</v>
       </c>
-      <c r="V5" s="1">
+      <c r="V5" s="8">
         <v>0</v>
       </c>
       <c r="W5" s="1"/>
-      <c r="X5" s="7" t="s">
+      <c r="X5" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Y5" s="1">
@@ -3353,17 +3368,17 @@
         <v>47</v>
       </c>
       <c r="S6" s="1"/>
-      <c r="T6" s="1">
+      <c r="T6" s="7">
         <v>1</v>
       </c>
-      <c r="U6" s="1">
+      <c r="U6" s="8">
         <v>0</v>
       </c>
-      <c r="V6" s="1">
+      <c r="V6" s="8">
         <v>0</v>
       </c>
       <c r="W6" s="1"/>
-      <c r="X6" s="7" t="s">
+      <c r="X6" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Y6" s="1">
@@ -3682,19 +3697,19 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
-      <c r="T7" s="1">
+      <c r="T7" s="7">
         <v>1</v>
       </c>
-      <c r="U7" s="1">
+      <c r="U7" s="8">
         <v>0</v>
       </c>
-      <c r="V7" s="1">
+      <c r="V7" s="8">
         <v>0</v>
       </c>
       <c r="W7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="X7" s="7" t="s">
+      <c r="X7" s="1" t="s">
         <v>54</v>
       </c>
       <c r="Y7" s="1">
@@ -4013,17 +4028,17 @@
       </c>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
-      <c r="T8" s="1">
+      <c r="T8" s="7">
         <v>1</v>
       </c>
-      <c r="U8" s="1">
+      <c r="U8" s="8">
         <v>0</v>
       </c>
-      <c r="V8" s="1">
+      <c r="V8" s="7">
         <v>1</v>
       </c>
       <c r="W8" s="1"/>
-      <c r="X8" s="7" t="s">
+      <c r="X8" s="1" t="s">
         <v>60</v>
       </c>
       <c r="Y8" s="1">
@@ -4340,18 +4355,18 @@
       <c r="P9" s="1">
         <v>33</v>
       </c>
-      <c r="Q9" s="8" t="s">
+      <c r="Q9" s="9" t="s">
         <v>65</v>
       </c>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
-      <c r="T9" s="1">
+      <c r="T9" s="7">
         <v>1</v>
       </c>
-      <c r="U9" s="1">
+      <c r="U9" s="8">
         <v>0</v>
       </c>
-      <c r="V9" s="1">
+      <c r="V9" s="8">
         <v>0</v>
       </c>
       <c r="W9" s="1" t="s">
@@ -4676,17 +4691,17 @@
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
-      <c r="T10" s="1">
+      <c r="T10" s="7">
         <v>1</v>
       </c>
-      <c r="U10" s="1">
+      <c r="U10" s="8">
         <v>0</v>
       </c>
-      <c r="V10" s="1">
+      <c r="V10" s="8">
         <v>0</v>
       </c>
       <c r="W10" s="1"/>
-      <c r="X10" s="7" t="s">
+      <c r="X10" s="1" t="s">
         <v>60</v>
       </c>
       <c r="Y10" s="1">
@@ -5009,19 +5024,19 @@
       </c>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
-      <c r="T11" s="1">
+      <c r="T11" s="7">
         <v>1</v>
       </c>
-      <c r="U11" s="1">
+      <c r="U11" s="8">
         <v>0</v>
       </c>
-      <c r="V11" s="1">
+      <c r="V11" s="8">
         <v>0</v>
       </c>
       <c r="W11" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="X11" s="7" t="s">
+      <c r="X11" s="1" t="s">
         <v>54</v>
       </c>
       <c r="Y11" s="1">
@@ -5342,19 +5357,19 @@
       </c>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
-      <c r="T12" s="1">
+      <c r="T12" s="7">
         <v>1</v>
       </c>
-      <c r="U12" s="1">
+      <c r="U12" s="8">
         <v>0</v>
       </c>
-      <c r="V12" s="1">
+      <c r="V12" s="8">
         <v>0</v>
       </c>
       <c r="W12" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="X12" s="7" t="s">
+      <c r="X12" s="1" t="s">
         <v>54</v>
       </c>
       <c r="Y12" s="1">
@@ -5675,20 +5690,20 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
-      <c r="T13" s="1">
+      <c r="T13" s="7">
         <v>1</v>
       </c>
-      <c r="U13" s="1">
-        <v>0</v>
-      </c>
-      <c r="V13" s="1">
+      <c r="U13" t="s">
+        <v>86</v>
+      </c>
+      <c r="V13" s="8">
         <v>0</v>
       </c>
       <c r="W13" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="X13" s="7" t="s">
-        <v>86</v>
+      <c r="X13" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="Y13" s="1">
         <v>13</v>
@@ -5961,25 +5976,25 @@
     </row>
     <row r="14" ht="15.5" spans="1:288">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="1">
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F14" s="1">
         <v>2018</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H14" s="1">
         <v>1</v>
@@ -6010,23 +6025,23 @@
         <v>18</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
-      <c r="T14" s="1">
+      <c r="T14" s="7">
         <v>1</v>
       </c>
-      <c r="U14" s="1">
+      <c r="U14" s="8">
         <v>0</v>
       </c>
-      <c r="V14" s="1">
+      <c r="V14" s="8">
         <v>1</v>
       </c>
       <c r="W14" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="X14" s="7" t="s">
+      <c r="X14" s="1" t="s">
         <v>60</v>
       </c>
       <c r="Y14" s="1">
@@ -6300,25 +6315,25 @@
     </row>
     <row r="15" ht="15.5" spans="1:288">
       <c r="A15" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B15" s="1">
         <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F15" s="1">
         <v>2018</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H15" s="1">
         <v>2</v>
@@ -6349,23 +6364,23 @@
         <v>18</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
-      <c r="T15" s="1">
+      <c r="T15" s="7">
         <v>1</v>
       </c>
-      <c r="U15" s="1">
+      <c r="U15" s="8">
         <v>0</v>
       </c>
-      <c r="V15" s="1">
+      <c r="V15" s="8">
         <v>1</v>
       </c>
       <c r="W15" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="X15" s="7" t="s">
+      <c r="X15" s="1" t="s">
         <v>60</v>
       </c>
       <c r="Y15" s="1">
@@ -6643,13 +6658,13 @@
         <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F16" s="1">
         <v>2021</v>
@@ -6686,17 +6701,17 @@
         <v>29</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
-      <c r="T16" s="1">
+      <c r="T16" s="7">
         <v>1</v>
       </c>
-      <c r="U16" s="1">
+      <c r="U16" s="8">
         <v>0</v>
       </c>
-      <c r="V16" s="1">
+      <c r="V16" s="8">
         <v>0</v>
       </c>
       <c r="W16" s="1"/>
@@ -6976,13 +6991,13 @@
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F17" s="1">
         <v>2021</v>
@@ -7021,17 +7036,17 @@
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
-      <c r="T17" s="1">
+      <c r="T17" s="7">
         <v>1</v>
       </c>
-      <c r="U17" s="1">
+      <c r="U17" s="8">
         <v>0</v>
       </c>
-      <c r="V17" s="1">
+      <c r="V17" s="8">
         <v>0</v>
       </c>
       <c r="W17" s="1"/>
-      <c r="X17" s="7"/>
+      <c r="X17" s="1"/>
       <c r="Y17" s="1">
         <v>8</v>
       </c>
@@ -7307,13 +7322,13 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F18" s="1">
         <v>2021</v>
@@ -7348,20 +7363,20 @@
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
-      <c r="T18" s="1">
+      <c r="T18" s="7">
         <v>1</v>
       </c>
-      <c r="U18" s="1">
+      <c r="U18" s="8">
         <v>0</v>
       </c>
-      <c r="V18" s="1">
+      <c r="V18" s="8">
         <v>0</v>
       </c>
       <c r="W18" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="X18" s="7" t="s">
-        <v>101</v>
+      <c r="X18" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="Y18" s="1">
         <v>3</v>
@@ -7638,13 +7653,13 @@
         <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F19" s="1">
         <v>2021</v>
@@ -7657,10 +7672,10 @@
         <v>2</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>45</v>
@@ -7679,20 +7694,20 @@
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
-      <c r="T19" s="1">
+      <c r="T19" s="7">
         <v>1</v>
       </c>
-      <c r="U19" s="1">
+      <c r="U19" s="8">
         <v>0</v>
       </c>
-      <c r="V19" s="1">
+      <c r="V19" s="8">
         <v>0</v>
       </c>
       <c r="W19" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="X19" s="7" t="s">
-        <v>101</v>
+      <c r="X19" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="Y19" s="1">
         <v>9</v>
@@ -7969,13 +7984,13 @@
         <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F20" s="1">
         <v>2021</v>
@@ -7991,7 +8006,7 @@
         <v>9</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>45</v>
@@ -8004,26 +8019,26 @@
       </c>
       <c r="O20" s="1"/>
       <c r="P20" s="1">
-        <f t="shared" ref="P20:P45" si="2">M20-O20</f>
+        <f>M20-O20</f>
         <v>27</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
-      <c r="T20" s="1">
+      <c r="T20" s="7">
         <v>1</v>
       </c>
-      <c r="U20" s="1">
+      <c r="U20" s="8">
         <v>0</v>
       </c>
-      <c r="V20" s="1">
+      <c r="V20" s="8">
         <v>0</v>
       </c>
       <c r="W20" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="X20" s="7" t="s">
-        <v>101</v>
+      <c r="X20" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="Y20" s="1">
         <v>12</v>
@@ -8300,13 +8315,13 @@
         <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F21" s="1">
         <v>2021</v>
@@ -8335,26 +8350,26 @@
       </c>
       <c r="O21" s="1"/>
       <c r="P21" s="1">
-        <f t="shared" si="2"/>
+        <f>M21-O21</f>
         <v>26</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
-      <c r="T21" s="1">
+      <c r="T21" s="7">
         <v>1</v>
       </c>
-      <c r="U21" s="1">
+      <c r="U21" s="8">
         <v>0</v>
       </c>
-      <c r="V21" s="1">
+      <c r="V21" s="8">
         <v>0</v>
       </c>
       <c r="W21" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="X21" s="7" t="s">
-        <v>101</v>
+      <c r="X21" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="Y21" s="1">
         <v>9</v>
@@ -8627,68 +8642,33 @@
     </row>
     <row r="22" ht="15.5" spans="1:288">
       <c r="A22" s="1"/>
-      <c r="B22" s="1">
-        <v>21</v>
-      </c>
+      <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D22" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F22" s="1">
-        <v>2022</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="H22" s="1">
-        <v>1</v>
-      </c>
-      <c r="I22" s="1">
-        <v>1</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="1">
-        <v>20</v>
-      </c>
-      <c r="N22" s="1">
-        <v>200</v>
-      </c>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
       <c r="O22" s="1"/>
-      <c r="P22" s="1">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
+      <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
-      <c r="T22" s="1">
-        <v>1</v>
-      </c>
-      <c r="U22" s="1">
-        <v>0</v>
-      </c>
-      <c r="V22" s="1">
-        <v>0</v>
-      </c>
+      <c r="T22" s="7"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
       <c r="W22" s="1"/>
-      <c r="X22" s="7"/>
-      <c r="Y22" s="1">
-        <v>6</v>
-      </c>
-      <c r="Z22" s="1">
-        <v>14</v>
-      </c>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
@@ -8955,28 +8935,28 @@
     <row r="23" ht="15.5" spans="1:288">
       <c r="A23" s="1"/>
       <c r="B23" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="F23" s="1">
         <v>2022</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H23" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>9</v>
@@ -8986,37 +8966,35 @@
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N23" s="1">
         <v>200</v>
       </c>
       <c r="O23" s="1"/>
       <c r="P23" s="1">
-        <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="Q23" s="1" t="s">
-        <v>112</v>
-      </c>
+        <f t="shared" ref="P23:P46" si="2">M23-O23</f>
+        <v>20</v>
+      </c>
+      <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
-      <c r="T23" s="1">
+      <c r="T23" s="7">
         <v>1</v>
       </c>
-      <c r="U23" s="1">
+      <c r="U23" s="8">
         <v>0</v>
       </c>
-      <c r="V23" s="1">
+      <c r="V23" s="8">
         <v>0</v>
       </c>
       <c r="W23" s="1"/>
-      <c r="X23" s="7"/>
+      <c r="X23" s="1"/>
       <c r="Y23" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Z23" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
@@ -9284,28 +9262,28 @@
     <row r="24" ht="15.5" spans="1:288">
       <c r="A24" s="1"/>
       <c r="B24" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>113</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F24" s="1">
         <v>2022</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H24" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I24" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>9</v>
@@ -9315,37 +9293,37 @@
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N24" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O24" s="1"/>
       <c r="P24" s="1">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q24" s="1" t="s">
         <v>114</v>
       </c>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
-      <c r="T24" s="1">
+      <c r="T24" s="7">
         <v>1</v>
       </c>
-      <c r="U24" s="1">
+      <c r="U24" s="8">
         <v>0</v>
       </c>
-      <c r="V24" s="1">
+      <c r="V24" s="8">
         <v>0</v>
       </c>
       <c r="W24" s="1"/>
-      <c r="X24" s="7"/>
+      <c r="X24" s="1"/>
       <c r="Y24" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Z24" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
@@ -9613,28 +9591,28 @@
     <row r="25" ht="15.5" spans="1:288">
       <c r="A25" s="1"/>
       <c r="B25" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>115</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F25" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="H25" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I25" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>9</v>
@@ -9642,45 +9620,39 @@
       <c r="K25" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L25" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="L25" s="1"/>
       <c r="M25" s="1">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="N25" s="1">
-        <v>360</v>
+        <v>100</v>
       </c>
       <c r="O25" s="1"/>
       <c r="P25" s="1">
         <f t="shared" si="2"/>
-        <v>105</v>
-      </c>
-      <c r="Q25" s="9" t="s">
-        <v>119</v>
+        <v>25</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
-      <c r="T25" s="1">
+      <c r="T25" s="7">
         <v>1</v>
       </c>
-      <c r="U25" s="1">
+      <c r="U25" s="8">
         <v>0</v>
       </c>
-      <c r="V25" s="1">
+      <c r="V25" s="8">
         <v>0</v>
       </c>
-      <c r="W25" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="X25" s="7" t="s">
-        <v>54</v>
-      </c>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
       <c r="Y25" s="1">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="Z25" s="1">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
@@ -9946,26 +9918,24 @@
       <c r="KB25" s="1"/>
     </row>
     <row r="26" ht="15.5" spans="1:288">
-      <c r="A26" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="A26" s="1"/>
       <c r="B26" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F26" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F26" s="1">
-        <v>2023</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="H26" s="1">
         <v>1</v>
@@ -9976,41 +9946,49 @@
       <c r="J26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K26" s="1"/>
+      <c r="K26" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="L26" s="1" t="s">
         <v>45</v>
       </c>
       <c r="M26" s="1">
-        <v>302</v>
+        <v>105</v>
       </c>
       <c r="N26" s="1">
-        <v>16</v>
-      </c>
-      <c r="O26" s="1">
-        <v>3</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="O26" s="1"/>
       <c r="P26" s="1">
         <f t="shared" si="2"/>
-        <v>299</v>
-      </c>
-      <c r="Q26" s="1"/>
+        <v>105</v>
+      </c>
+      <c r="Q26" s="10" t="s">
+        <v>121</v>
+      </c>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
-      <c r="T26" s="1">
+      <c r="T26" s="7">
         <v>1</v>
       </c>
-      <c r="U26" s="1">
+      <c r="U26" s="8">
         <v>0</v>
       </c>
-      <c r="V26" s="1">
+      <c r="V26" s="8">
         <v>0</v>
       </c>
-      <c r="W26" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="X26" s="1"/>
-      <c r="Y26" s="1"/>
-      <c r="Z26" s="1"/>
+      <c r="W26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="X26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>51</v>
+      </c>
+      <c r="Z26" s="1">
+        <v>54</v>
+      </c>
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
       <c r="AC26" s="1"/>
@@ -10276,29 +10254,31 @@
     </row>
     <row r="27" ht="15.5" spans="1:288">
       <c r="A27" s="1" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="B27" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="F27" s="1">
         <v>2023</v>
       </c>
-      <c r="G27" s="1"/>
+      <c r="G27" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="H27" s="1">
         <v>1</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>128</v>
+      <c r="I27" s="1">
+        <v>1</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>9</v>
@@ -10308,35 +10288,33 @@
         <v>45</v>
       </c>
       <c r="M27" s="1">
-        <v>23</v>
+        <v>302</v>
       </c>
       <c r="N27" s="1">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="O27" s="1">
         <v>3</v>
       </c>
       <c r="P27" s="1">
         <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="Q27" s="1" t="s">
-        <v>129</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
-      <c r="S27" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="T27" s="1">
+      <c r="S27" s="1"/>
+      <c r="T27" s="7">
         <v>1</v>
       </c>
-      <c r="U27" s="1">
+      <c r="U27" t="s">
+        <v>86</v>
+      </c>
+      <c r="V27" s="8">
         <v>0</v>
       </c>
-      <c r="V27" s="1">
-        <v>1</v>
-      </c>
-      <c r="W27" s="10"/>
+      <c r="W27" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
@@ -10604,56 +10582,68 @@
       <c r="KB27" s="1"/>
     </row>
     <row r="28" ht="15.5" spans="1:288">
-      <c r="A28" s="1"/>
+      <c r="A28" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="B28" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>133</v>
+        <v>50</v>
       </c>
       <c r="F28" s="1">
-        <v>2014</v>
+        <v>2023</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1">
         <v>1</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K28" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="K28" s="1"/>
       <c r="L28" s="1" t="s">
         <v>45</v>
       </c>
       <c r="M28" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N28" s="1">
-        <v>40</v>
-      </c>
-      <c r="O28" s="1"/>
+        <v>90</v>
+      </c>
+      <c r="O28" s="1">
+        <v>3</v>
+      </c>
       <c r="P28" s="1">
         <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="Q28" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
-      <c r="W28" s="1"/>
+      <c r="S28" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="T28" s="7">
+        <v>1</v>
+      </c>
+      <c r="U28" s="8">
+        <v>0</v>
+      </c>
+      <c r="V28" s="7">
+        <v>1</v>
+      </c>
+      <c r="W28" s="11"/>
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
@@ -10923,26 +10913,26 @@
     <row r="29" ht="15.5" spans="1:288">
       <c r="A29" s="1"/>
       <c r="B29" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="F29" s="1">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1">
         <v>1</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>9</v>
@@ -10954,7 +10944,7 @@
         <v>45</v>
       </c>
       <c r="M29" s="1">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N29" s="1">
         <v>40</v>
@@ -10962,7 +10952,7 @@
       <c r="O29" s="1"/>
       <c r="P29" s="1">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
@@ -11240,26 +11230,26 @@
     <row r="30" ht="15.5" spans="1:288">
       <c r="A30" s="1"/>
       <c r="B30" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>137</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F30" s="1">
         <v>2015</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>9</v>
@@ -11271,7 +11261,7 @@
         <v>45</v>
       </c>
       <c r="M30" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N30" s="1">
         <v>40</v>
@@ -11279,7 +11269,7 @@
       <c r="O30" s="1"/>
       <c r="P30" s="1">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
@@ -11555,56 +11545,50 @@
       <c r="KB30" s="1"/>
     </row>
     <row r="31" ht="15.5" spans="1:288">
-      <c r="A31" s="1" t="s">
-        <v>138</v>
-      </c>
+      <c r="A31" s="1"/>
       <c r="B31" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>139</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F31" s="1">
-        <v>2014</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>142</v>
-      </c>
+        <v>2015</v>
+      </c>
+      <c r="G31" s="1"/>
       <c r="H31" s="1">
-        <v>1</v>
-      </c>
-      <c r="I31" s="1">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>143</v>
+        <v>59</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>45</v>
       </c>
       <c r="M31" s="1">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N31" s="1">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="O31" s="1"/>
       <c r="P31" s="1">
         <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="Q31" s="1" t="s">
-        <v>144</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
@@ -11879,43 +11863,43 @@
     </row>
     <row r="32" ht="15.5" spans="1:288">
       <c r="A32" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B32" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F32" s="1">
         <v>2014</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H32" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>45</v>
       </c>
       <c r="M32" s="1">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N32" s="1">
         <v>60</v>
@@ -11923,10 +11907,10 @@
       <c r="O32" s="1"/>
       <c r="P32" s="1">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
@@ -12202,43 +12186,43 @@
     </row>
     <row r="33" ht="15.5" spans="1:288">
       <c r="A33" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B33" s="1">
+        <v>31</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B33" s="1">
-        <v>32</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="D33" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F33" s="1">
         <v>2014</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H33" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I33" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>45</v>
       </c>
       <c r="M33" s="1">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N33" s="1">
         <v>60</v>
@@ -12246,10 +12230,10 @@
       <c r="O33" s="1"/>
       <c r="P33" s="1">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
@@ -12525,43 +12509,43 @@
     </row>
     <row r="34" ht="15.5" spans="1:288">
       <c r="A34" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B34" s="1">
+        <v>32</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B34" s="1">
-        <v>33</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="D34" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F34" s="1">
         <v>2014</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H34" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I34" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>45</v>
       </c>
       <c r="M34" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N34" s="1">
         <v>60</v>
@@ -12569,10 +12553,10 @@
       <c r="O34" s="1"/>
       <c r="P34" s="1">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
@@ -12847,40 +12831,44 @@
       <c r="KB34" s="1"/>
     </row>
     <row r="35" ht="15.5" spans="1:288">
-      <c r="A35" s="1"/>
+      <c r="A35" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="B35" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>154</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="F35" s="1">
-        <v>2023</v>
+        <v>2014</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="H35" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I35" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K35" s="1"/>
+      <c r="K35" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="L35" s="1" t="s">
         <v>45</v>
       </c>
       <c r="M35" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="N35" s="1">
         <v>60</v>
@@ -12888,23 +12876,17 @@
       <c r="O35" s="1"/>
       <c r="P35" s="1">
         <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="Q35" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
-      <c r="T35" s="1">
-        <v>1</v>
-      </c>
-      <c r="U35" s="1">
-        <v>0</v>
-      </c>
-      <c r="V35" s="1">
-        <v>1</v>
-      </c>
-      <c r="W35" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
@@ -13174,22 +13156,22 @@
     <row r="36" ht="15.5" spans="1:288">
       <c r="A36" s="1"/>
       <c r="B36" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="F36" s="1">
         <v>2023</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H36" s="1">
         <v>1</v>
@@ -13200,24 +13182,20 @@
       <c r="J36" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K36" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="K36" s="1"/>
       <c r="L36" s="1" t="s">
         <v>45</v>
       </c>
       <c r="M36" s="1">
-        <v>144</v>
+        <v>40</v>
       </c>
       <c r="N36" s="1">
-        <v>20</v>
-      </c>
-      <c r="O36" s="1">
-        <v>2</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="O36" s="1"/>
       <c r="P36" s="1">
-        <f t="shared" ref="P36:P45" si="3">M36-O36</f>
-        <v>142</v>
+        <f t="shared" si="2"/>
+        <v>40</v>
       </c>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
@@ -13226,12 +13204,14 @@
         <v>1</v>
       </c>
       <c r="U36" s="1">
+        <v>0</v>
+      </c>
+      <c r="V36" s="1">
         <v>1</v>
       </c>
-      <c r="V36" s="1">
-        <v>0</v>
-      </c>
-      <c r="W36" s="1"/>
+      <c r="W36" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
@@ -13501,22 +13481,22 @@
     <row r="37" ht="15.5" spans="1:288">
       <c r="A37" s="1"/>
       <c r="B37" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="F37" s="1">
+        <v>2023</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F37" s="1">
-        <v>2021</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="H37" s="1">
         <v>1</v>
@@ -13534,37 +13514,31 @@
         <v>45</v>
       </c>
       <c r="M37" s="1">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="N37" s="1">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="O37" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P37" s="1">
-        <f t="shared" si="3"/>
-        <v>108</v>
-      </c>
-      <c r="Q37" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="R37" s="1" t="s">
-        <v>166</v>
-      </c>
+        <f t="shared" ref="P37:P46" si="3">M37-O37</f>
+        <v>142</v>
+      </c>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
       <c r="S37" s="1"/>
       <c r="T37" s="1">
         <v>1</v>
       </c>
       <c r="U37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V37" s="1">
         <v>0</v>
       </c>
-      <c r="W37" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="W37" s="1"/>
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
@@ -13832,26 +13806,24 @@
       <c r="KB37" s="1"/>
     </row>
     <row r="38" ht="15.5" spans="1:288">
-      <c r="A38" s="1" t="s">
-        <v>167</v>
-      </c>
+      <c r="A38" s="1"/>
       <c r="B38" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F38" s="1">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>171</v>
+        <v>58</v>
       </c>
       <c r="H38" s="1">
         <v>1</v>
@@ -13863,24 +13835,30 @@
         <v>9</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="L38" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="M38" s="1">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="N38" s="1">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="O38" s="1">
         <v>1</v>
       </c>
       <c r="P38" s="1">
         <f t="shared" si="3"/>
-        <v>39</v>
-      </c>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
+        <v>108</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="S38" s="1"/>
       <c r="T38" s="1">
         <v>1</v>
@@ -14161,24 +14139,26 @@
       <c r="KB38" s="1"/>
     </row>
     <row r="39" ht="15.5" spans="1:288">
-      <c r="A39" s="1"/>
+      <c r="A39" s="1" t="s">
+        <v>169</v>
+      </c>
       <c r="B39" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="F39" s="1">
+        <v>2023</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F39" s="1">
-        <v>2022</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="H39" s="1">
         <v>1</v>
@@ -14189,32 +14169,38 @@
       <c r="J39" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="K39" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L39" s="1"/>
       <c r="M39" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N39" s="1">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="O39" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P39" s="1">
         <f t="shared" si="3"/>
-        <v>27</v>
-      </c>
-      <c r="Q39" s="1" t="s">
-        <v>176</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
-      <c r="U39" s="1"/>
-      <c r="V39" s="1"/>
-      <c r="W39" s="1"/>
+      <c r="T39" s="1">
+        <v>1</v>
+      </c>
+      <c r="U39" s="1">
+        <v>0</v>
+      </c>
+      <c r="V39" s="1">
+        <v>0</v>
+      </c>
+      <c r="W39" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
@@ -14484,28 +14470,28 @@
     <row r="40" ht="15.5" spans="1:288">
       <c r="A40" s="1"/>
       <c r="B40" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F40" s="1">
         <v>2022</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H40" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>9</v>
@@ -14515,20 +14501,20 @@
         <v>45</v>
       </c>
       <c r="M40" s="1">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="N40" s="1">
         <v>60</v>
       </c>
       <c r="O40" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P40" s="1">
         <f t="shared" si="3"/>
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
@@ -14803,64 +14789,60 @@
       <c r="KB40" s="1"/>
     </row>
     <row r="41" ht="15.5" spans="1:288">
-      <c r="A41" s="1" t="s">
-        <v>178</v>
-      </c>
+      <c r="A41" s="1"/>
       <c r="B41" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>179</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F41" s="1">
         <v>2022</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H41" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K41" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="K41" s="1"/>
       <c r="L41" s="1" t="s">
         <v>45</v>
       </c>
       <c r="M41" s="1">
-        <v>328</v>
+        <v>48</v>
       </c>
       <c r="N41" s="1">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="O41" s="1">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="P41" s="1">
         <f t="shared" si="3"/>
-        <v>288</v>
-      </c>
-      <c r="Q41" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
       <c r="V41" s="1"/>
-      <c r="W41" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="W41" s="1"/>
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
@@ -15128,24 +15110,26 @@
       <c r="KB41" s="1"/>
     </row>
     <row r="42" ht="15.5" spans="1:288">
-      <c r="A42" s="1"/>
+      <c r="A42" s="1" t="s">
+        <v>180</v>
+      </c>
       <c r="B42" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="F42" s="1">
+        <v>2022</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F42" s="1">
-        <v>2020</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="H42" s="1">
         <v>1</v>
@@ -15160,18 +15144,20 @@
         <v>59</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="M42" s="1">
-        <v>23</v>
+        <v>328</v>
       </c>
       <c r="N42" s="1">
         <v>120</v>
       </c>
-      <c r="O42" s="1"/>
+      <c r="O42" s="1">
+        <v>40</v>
+      </c>
       <c r="P42" s="1">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>288</v>
       </c>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
@@ -15179,7 +15165,9 @@
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
       <c r="V42" s="1"/>
-      <c r="W42" s="1"/>
+      <c r="W42" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
@@ -15449,22 +15437,22 @@
     <row r="43" ht="15.5" spans="1:288">
       <c r="A43" s="1"/>
       <c r="B43" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>185</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F43" s="1">
         <v>2020</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H43" s="1">
         <v>1</v>
@@ -15482,17 +15470,15 @@
         <v>85</v>
       </c>
       <c r="M43" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N43" s="1">
         <v>120</v>
       </c>
-      <c r="O43" s="1">
-        <v>3</v>
-      </c>
+      <c r="O43" s="1"/>
       <c r="P43" s="1">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
@@ -15770,22 +15756,22 @@
     <row r="44" ht="15.5" spans="1:288">
       <c r="A44" s="1"/>
       <c r="B44" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>184</v>
-      </c>
       <c r="E44" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F44" s="1">
         <v>2020</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H44" s="1">
         <v>1</v>
@@ -15803,12 +15789,14 @@
         <v>85</v>
       </c>
       <c r="M44" s="1">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N44" s="1">
         <v>120</v>
       </c>
-      <c r="O44" s="1"/>
+      <c r="O44" s="1">
+        <v>3</v>
+      </c>
       <c r="P44" s="1">
         <f t="shared" si="3"/>
         <v>18</v>
@@ -16089,22 +16077,22 @@
     <row r="45" ht="15.5" spans="1:288">
       <c r="A45" s="1"/>
       <c r="B45" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>189</v>
+        <v>91</v>
       </c>
       <c r="F45" s="1">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>190</v>
+        <v>112</v>
       </c>
       <c r="H45" s="1">
         <v>1</v>
@@ -16112,19 +16100,25 @@
       <c r="I45" s="1">
         <v>1</v>
       </c>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
+      <c r="J45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="M45" s="1">
-        <v>380</v>
-      </c>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="N45" s="1">
+        <v>120</v>
+      </c>
+      <c r="O45" s="1"/>
       <c r="P45" s="1">
         <f t="shared" si="3"/>
-        <v>348</v>
+        <v>18</v>
       </c>
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
@@ -16402,36 +16396,43 @@
     <row r="46" ht="15.5" spans="1:288">
       <c r="A46" s="1"/>
       <c r="B46" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="F46" s="1">
         <v>2023</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H46" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
+      <c r="M46" s="1">
+        <v>380</v>
+      </c>
       <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
+      <c r="O46" s="1">
+        <v>32</v>
+      </c>
+      <c r="P46" s="1">
+        <f t="shared" si="3"/>
+        <v>348</v>
+      </c>
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
@@ -16708,28 +16709,28 @@
     <row r="47" ht="15.5" spans="1:288">
       <c r="A47" s="1"/>
       <c r="B47" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F47" s="1">
         <v>2023</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H47" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I47" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -17014,28 +17015,28 @@
     <row r="48" ht="15.5" spans="1:288">
       <c r="A48" s="1"/>
       <c r="B48" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F48" s="1">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H48" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I48" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
@@ -17320,28 +17321,28 @@
     <row r="49" ht="15.5" spans="1:288">
       <c r="A49" s="1"/>
       <c r="B49" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="F49" s="1">
         <v>2021</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H49" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
@@ -17626,28 +17627,28 @@
     <row r="50" ht="15.5" spans="1:288">
       <c r="A50" s="1"/>
       <c r="B50" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F50" s="1">
         <v>2021</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H50" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I50" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
@@ -17932,28 +17933,28 @@
     <row r="51" ht="15.5" spans="1:288">
       <c r="A51" s="1"/>
       <c r="B51" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F51" s="1">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H51" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I51" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
@@ -18238,22 +18239,22 @@
     <row r="52" ht="15.5" spans="1:288">
       <c r="A52" s="1"/>
       <c r="B52" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="F52" s="1">
+        <v>2023</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="F52" s="1">
-        <v>2024</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="H52" s="1">
         <v>1</v>
@@ -18544,22 +18545,22 @@
     <row r="53" ht="15.5" spans="1:288">
       <c r="A53" s="1"/>
       <c r="B53" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C53" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>208</v>
       </c>
       <c r="F53" s="1">
         <v>2024</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="H53" s="1">
         <v>1</v>
@@ -18849,14 +18850,30 @@
     </row>
     <row r="54" ht="15.5" spans="1:288">
       <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
+      <c r="B54" s="1">
+        <v>52</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F54" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H54" s="1">
+        <v>1</v>
+      </c>
+      <c r="I54" s="1">
+        <v>1</v>
+      </c>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
@@ -23197,7 +23214,7 @@
       <c r="KA68" s="1"/>
       <c r="KB68" s="1"/>
     </row>
-    <row r="69" ht="15.5" spans="1:12">
+    <row r="69" ht="15.5" spans="1:288">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -23210,9 +23227,299 @@
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="1"/>
+      <c r="S69" s="1"/>
+      <c r="T69" s="1"/>
+      <c r="U69" s="1"/>
+      <c r="V69" s="1"/>
+      <c r="W69" s="1"/>
+      <c r="X69" s="1"/>
+      <c r="Y69" s="1"/>
+      <c r="Z69" s="1"/>
+      <c r="AA69" s="1"/>
+      <c r="AB69" s="1"/>
+      <c r="AC69" s="1"/>
+      <c r="AD69" s="1"/>
+      <c r="AE69" s="1"/>
+      <c r="AF69" s="1"/>
+      <c r="AG69" s="1"/>
+      <c r="AH69" s="1"/>
+      <c r="AI69" s="1"/>
+      <c r="AJ69" s="1"/>
+      <c r="AK69" s="1"/>
+      <c r="AL69" s="1"/>
+      <c r="AM69" s="1"/>
+      <c r="AN69" s="1"/>
+      <c r="AO69" s="1"/>
+      <c r="AP69" s="1"/>
+      <c r="AQ69" s="1"/>
+      <c r="AR69" s="1"/>
+      <c r="AS69" s="1"/>
+      <c r="AT69" s="1"/>
+      <c r="AU69" s="1"/>
+      <c r="AV69" s="1"/>
+      <c r="AW69" s="1"/>
+      <c r="AX69" s="1"/>
+      <c r="AY69" s="1"/>
+      <c r="AZ69" s="1"/>
+      <c r="BA69" s="1"/>
+      <c r="BB69" s="1"/>
+      <c r="BC69" s="1"/>
+      <c r="BD69" s="1"/>
+      <c r="BE69" s="1"/>
+      <c r="BF69" s="1"/>
+      <c r="BG69" s="1"/>
+      <c r="BH69" s="1"/>
+      <c r="BI69" s="1"/>
+      <c r="BJ69" s="1"/>
+      <c r="BK69" s="1"/>
+      <c r="BL69" s="1"/>
+      <c r="BM69" s="1"/>
+      <c r="BN69" s="1"/>
+      <c r="BO69" s="1"/>
+      <c r="BP69" s="1"/>
+      <c r="BQ69" s="1"/>
+      <c r="BR69" s="1"/>
+      <c r="BS69" s="1"/>
+      <c r="BT69" s="1"/>
+      <c r="BU69" s="1"/>
+      <c r="BV69" s="1"/>
+      <c r="BW69" s="1"/>
+      <c r="BX69" s="1"/>
+      <c r="BY69" s="1"/>
+      <c r="BZ69" s="1"/>
+      <c r="CA69" s="1"/>
+      <c r="CB69" s="1"/>
+      <c r="CC69" s="1"/>
+      <c r="CD69" s="1"/>
+      <c r="CE69" s="1"/>
+      <c r="CF69" s="1"/>
+      <c r="CG69" s="1"/>
+      <c r="CH69" s="1"/>
+      <c r="CI69" s="1"/>
+      <c r="CJ69" s="1"/>
+      <c r="CK69" s="1"/>
+      <c r="CL69" s="1"/>
+      <c r="CM69" s="1"/>
+      <c r="CN69" s="1"/>
+      <c r="CO69" s="1"/>
+      <c r="CP69" s="1"/>
+      <c r="CQ69" s="1"/>
+      <c r="CR69" s="1"/>
+      <c r="CS69" s="1"/>
+      <c r="CT69" s="1"/>
+      <c r="CU69" s="1"/>
+      <c r="CV69" s="1"/>
+      <c r="CW69" s="1"/>
+      <c r="CX69" s="1"/>
+      <c r="CY69" s="1"/>
+      <c r="CZ69" s="1"/>
+      <c r="DA69" s="1"/>
+      <c r="DB69" s="1"/>
+      <c r="DC69" s="1"/>
+      <c r="DD69" s="1"/>
+      <c r="DE69" s="1"/>
+      <c r="DF69" s="1"/>
+      <c r="DG69" s="1"/>
+      <c r="DH69" s="1"/>
+      <c r="DI69" s="1"/>
+      <c r="DJ69" s="1"/>
+      <c r="DK69" s="1"/>
+      <c r="DL69" s="1"/>
+      <c r="DM69" s="1"/>
+      <c r="DN69" s="1"/>
+      <c r="DO69" s="1"/>
+      <c r="DP69" s="1"/>
+      <c r="DQ69" s="1"/>
+      <c r="DR69" s="1"/>
+      <c r="DS69" s="1"/>
+      <c r="DT69" s="1"/>
+      <c r="DU69" s="1"/>
+      <c r="DV69" s="1"/>
+      <c r="DW69" s="1"/>
+      <c r="DX69" s="1"/>
+      <c r="DY69" s="1"/>
+      <c r="DZ69" s="1"/>
+      <c r="EA69" s="1"/>
+      <c r="EB69" s="1"/>
+      <c r="EC69" s="1"/>
+      <c r="ED69" s="1"/>
+      <c r="EE69" s="1"/>
+      <c r="EF69" s="1"/>
+      <c r="EG69" s="1"/>
+      <c r="EH69" s="1"/>
+      <c r="EI69" s="1"/>
+      <c r="EJ69" s="1"/>
+      <c r="EK69" s="1"/>
+      <c r="EL69" s="1"/>
+      <c r="EM69" s="1"/>
+      <c r="EN69" s="1"/>
+      <c r="EO69" s="1"/>
+      <c r="EP69" s="1"/>
+      <c r="EQ69" s="1"/>
+      <c r="ER69" s="1"/>
+      <c r="ES69" s="1"/>
+      <c r="ET69" s="1"/>
+      <c r="EU69" s="1"/>
+      <c r="EV69" s="1"/>
+      <c r="EW69" s="1"/>
+      <c r="EX69" s="1"/>
+      <c r="EY69" s="1"/>
+      <c r="EZ69" s="1"/>
+      <c r="FA69" s="1"/>
+      <c r="FB69" s="1"/>
+      <c r="FC69" s="1"/>
+      <c r="FD69" s="1"/>
+      <c r="FE69" s="1"/>
+      <c r="FF69" s="1"/>
+      <c r="FG69" s="1"/>
+      <c r="FH69" s="1"/>
+      <c r="FI69" s="1"/>
+      <c r="FJ69" s="1"/>
+      <c r="FK69" s="1"/>
+      <c r="FL69" s="1"/>
+      <c r="FM69" s="1"/>
+      <c r="FN69" s="1"/>
+      <c r="FO69" s="1"/>
+      <c r="FP69" s="1"/>
+      <c r="FQ69" s="1"/>
+      <c r="FR69" s="1"/>
+      <c r="FS69" s="1"/>
+      <c r="FT69" s="1"/>
+      <c r="FU69" s="1"/>
+      <c r="FV69" s="1"/>
+      <c r="FW69" s="1"/>
+      <c r="FX69" s="1"/>
+      <c r="FY69" s="1"/>
+      <c r="FZ69" s="1"/>
+      <c r="GA69" s="1"/>
+      <c r="GB69" s="1"/>
+      <c r="GC69" s="1"/>
+      <c r="GD69" s="1"/>
+      <c r="GE69" s="1"/>
+      <c r="GF69" s="1"/>
+      <c r="GG69" s="1"/>
+      <c r="GH69" s="1"/>
+      <c r="GI69" s="1"/>
+      <c r="GJ69" s="1"/>
+      <c r="GK69" s="1"/>
+      <c r="GL69" s="1"/>
+      <c r="GM69" s="1"/>
+      <c r="GN69" s="1"/>
+      <c r="GO69" s="1"/>
+      <c r="GP69" s="1"/>
+      <c r="GQ69" s="1"/>
+      <c r="GR69" s="1"/>
+      <c r="GS69" s="1"/>
+      <c r="GT69" s="1"/>
+      <c r="GU69" s="1"/>
+      <c r="GV69" s="1"/>
+      <c r="GW69" s="1"/>
+      <c r="GX69" s="1"/>
+      <c r="GY69" s="1"/>
+      <c r="GZ69" s="1"/>
+      <c r="HA69" s="1"/>
+      <c r="HB69" s="1"/>
+      <c r="HC69" s="1"/>
+      <c r="HD69" s="1"/>
+      <c r="HE69" s="1"/>
+      <c r="HF69" s="1"/>
+      <c r="HG69" s="1"/>
+      <c r="HH69" s="1"/>
+      <c r="HI69" s="1"/>
+      <c r="HJ69" s="1"/>
+      <c r="HK69" s="1"/>
+      <c r="HL69" s="1"/>
+      <c r="HM69" s="1"/>
+      <c r="HN69" s="1"/>
+      <c r="HO69" s="1"/>
+      <c r="HP69" s="1"/>
+      <c r="HQ69" s="1"/>
+      <c r="HR69" s="1"/>
+      <c r="HS69" s="1"/>
+      <c r="HT69" s="1"/>
+      <c r="HU69" s="1"/>
+      <c r="HV69" s="1"/>
+      <c r="HW69" s="1"/>
+      <c r="HX69" s="1"/>
+      <c r="HY69" s="1"/>
+      <c r="HZ69" s="1"/>
+      <c r="IA69" s="1"/>
+      <c r="IB69" s="1"/>
+      <c r="IC69" s="1"/>
+      <c r="ID69" s="1"/>
+      <c r="IE69" s="1"/>
+      <c r="IF69" s="1"/>
+      <c r="IG69" s="1"/>
+      <c r="IH69" s="1"/>
+      <c r="II69" s="1"/>
+      <c r="IJ69" s="1"/>
+      <c r="IK69" s="1"/>
+      <c r="IL69" s="1"/>
+      <c r="IM69" s="1"/>
+      <c r="IN69" s="1"/>
+      <c r="IO69" s="1"/>
+      <c r="IP69" s="1"/>
+      <c r="IQ69" s="1"/>
+      <c r="IR69" s="1"/>
+      <c r="IS69" s="1"/>
+      <c r="IT69" s="1"/>
+      <c r="IU69" s="1"/>
+      <c r="IV69" s="1"/>
+      <c r="IW69" s="1"/>
+      <c r="IX69" s="1"/>
+      <c r="IY69" s="1"/>
+      <c r="IZ69" s="1"/>
+      <c r="JA69" s="1"/>
+      <c r="JB69" s="1"/>
+      <c r="JC69" s="1"/>
+      <c r="JD69" s="1"/>
+      <c r="JE69" s="1"/>
+      <c r="JF69" s="1"/>
+      <c r="JG69" s="1"/>
+      <c r="JH69" s="1"/>
+      <c r="JI69" s="1"/>
+      <c r="JJ69" s="1"/>
+      <c r="JK69" s="1"/>
+      <c r="JL69" s="1"/>
+      <c r="JM69" s="1"/>
+      <c r="JN69" s="1"/>
+      <c r="JO69" s="1"/>
+      <c r="JP69" s="1"/>
+      <c r="JQ69" s="1"/>
+      <c r="JR69" s="1"/>
+      <c r="JS69" s="1"/>
+      <c r="JT69" s="1"/>
+      <c r="JU69" s="1"/>
+      <c r="JV69" s="1"/>
+      <c r="JW69" s="1"/>
+      <c r="JX69" s="1"/>
+      <c r="JY69" s="1"/>
+      <c r="JZ69" s="1"/>
+      <c r="KA69" s="1"/>
+      <c r="KB69" s="1"/>
+    </row>
+    <row r="70" ht="15.5" spans="1:12">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:S53" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:S54" etc:filterBottomFollowUsedRange="0">
     <extLst>
       <etc:autoFilterAnalysis etc:version="v1" etc:showPane="0">
         <etc:analysisCharts>
@@ -23227,7 +23534,7 @@
     </extLst>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="G53" r:id="rId1" display="Cognitive, Affective, &amp; Behavioral Neuroscience" tooltip="https://link.springer.com/journal/13415"/>
+    <hyperlink ref="G54" r:id="rId1" display="Cognitive, Affective, &amp; Behavioral Neuroscience" tooltip="https://link.springer.com/journal/13415"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -23400,7 +23707,7 @@
         <v>2020</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E8" s="3">
         <v>2018</v>
@@ -23420,7 +23727,7 @@
         <v>2021</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E9" s="3">
         <v>2021</v>
@@ -23440,7 +23747,7 @@
         <v>2020</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E10" s="3">
         <v>2021</v>
@@ -23460,7 +23767,7 @@
         <v>2020</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E11" s="3">
         <v>2022</v>
@@ -23480,7 +23787,7 @@
         <v>2020</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E12" s="3">
         <v>2021</v>
@@ -23500,7 +23807,7 @@
         <v>2019</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E13" s="3">
         <v>2023</v>
@@ -23520,7 +23827,7 @@
         <v>2019</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E14" s="3">
         <v>2023</v>
@@ -23534,19 +23841,19 @@
     </row>
     <row r="15" ht="15.5" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B15" s="1">
         <v>2018</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E15" s="3">
         <v>2014</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H15" s="1">
         <v>2018</v>
@@ -23554,19 +23861,19 @@
     </row>
     <row r="16" ht="15.5" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B16" s="1">
         <v>2018</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E16" s="3">
         <v>2015</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H16" s="1">
         <v>2018</v>
@@ -23574,19 +23881,19 @@
     </row>
     <row r="17" ht="15.5" hidden="1" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B17" s="1">
         <v>2021</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E17" s="3">
         <v>2014</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H17" s="1">
         <v>2021</v>
@@ -23594,19 +23901,19 @@
     </row>
     <row r="18" ht="15.5" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B18" s="1">
         <v>2021</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E18" s="3">
         <v>2023</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H18" s="1">
         <v>2021</v>
@@ -23614,19 +23921,19 @@
     </row>
     <row r="19" ht="15.5" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B19" s="1">
         <v>2021</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E19" s="3">
         <v>2023</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H19" s="1">
         <v>2021</v>
@@ -23634,19 +23941,19 @@
     </row>
     <row r="20" ht="15.5" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1">
         <v>2021</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E20" s="3">
         <v>2021</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H20" s="1">
         <v>2021</v>
@@ -23654,19 +23961,19 @@
     </row>
     <row r="21" ht="15.5" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B21" s="1">
         <v>2022</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E21" s="3">
         <v>2023</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H21" s="1">
         <v>2022</v>
@@ -23674,19 +23981,19 @@
     </row>
     <row r="22" ht="15.5" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B22" s="1">
         <v>2022</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E22" s="3">
         <v>2022</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H22" s="1">
         <v>2022</v>
@@ -23694,19 +24001,19 @@
     </row>
     <row r="23" ht="15.5" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B23" s="1">
         <v>2022</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E23" s="3">
         <v>2022</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H23" s="1">
         <v>2022</v>
@@ -23714,19 +24021,19 @@
     </row>
     <row r="24" ht="15.5" hidden="1" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B24" s="1">
         <v>2021</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E24" s="3">
         <v>2020</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H24" s="1">
         <v>2021</v>
@@ -23734,19 +24041,19 @@
     </row>
     <row r="25" ht="15.5" hidden="1" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B25" s="1">
         <v>2023</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E25" s="3">
         <v>2023</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H25" s="1">
         <v>2023</v>
@@ -23754,19 +24061,19 @@
     </row>
     <row r="26" ht="15.5" hidden="1" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B26" s="1">
         <v>2023</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H26" s="1">
         <v>2023</v>
@@ -23774,13 +24081,13 @@
     </row>
     <row r="27" ht="15.5" hidden="1" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B27" s="1">
         <v>2014</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H27" s="1">
         <v>2014</v>
@@ -23788,13 +24095,13 @@
     </row>
     <row r="28" ht="15.5" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B28" s="1">
         <v>2015</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H28" s="1">
         <v>2015</v>
@@ -23802,13 +24109,13 @@
     </row>
     <row r="29" ht="15.5" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B29" s="1">
         <v>2015</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H29" s="1">
         <v>2015</v>
@@ -23816,13 +24123,13 @@
     </row>
     <row r="30" ht="15.5" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B30" s="1">
         <v>2014</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H30" s="1">
         <v>2014</v>
@@ -23830,13 +24137,13 @@
     </row>
     <row r="31" ht="15.5" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B31" s="1">
         <v>2014</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H31" s="1">
         <v>2014</v>
@@ -23844,13 +24151,13 @@
     </row>
     <row r="32" ht="15.5" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B32" s="1">
         <v>2014</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H32" s="1">
         <v>2014</v>
@@ -23858,13 +24165,13 @@
     </row>
     <row r="33" ht="15.5" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B33" s="1">
         <v>2014</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H33" s="1">
         <v>2014</v>
@@ -23872,13 +24179,13 @@
     </row>
     <row r="34" ht="15.5" hidden="1" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B34" s="1">
         <v>2023</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H34" s="1">
         <v>2023</v>
@@ -23886,13 +24193,13 @@
     </row>
     <row r="35" ht="15.5" hidden="1" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B35" s="1">
         <v>2023</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H35" s="1">
         <v>2023</v>
@@ -23900,13 +24207,13 @@
     </row>
     <row r="36" ht="15.5" hidden="1" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B36" s="1">
         <v>2021</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H36" s="1">
         <v>2021</v>
@@ -23914,13 +24221,13 @@
     </row>
     <row r="37" ht="15.5" hidden="1" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B37" s="1">
         <v>2023</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H37" s="1">
         <v>2023</v>
@@ -23928,13 +24235,13 @@
     </row>
     <row r="38" ht="15.5" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B38" s="1">
         <v>2022</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H38" s="1">
         <v>2022</v>
@@ -23942,13 +24249,13 @@
     </row>
     <row r="39" ht="15.5" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B39" s="1">
         <v>2022</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H39" s="1">
         <v>2022</v>
@@ -23956,13 +24263,13 @@
     </row>
     <row r="40" ht="15.5" hidden="1" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B40" s="1">
         <v>2022</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H40" s="1">
         <v>2022</v>
@@ -23970,13 +24277,13 @@
     </row>
     <row r="41" ht="15.5" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B41" s="1">
         <v>2020</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H41" s="1">
         <v>2020</v>
@@ -23984,13 +24291,13 @@
     </row>
     <row r="42" ht="15.5" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B42" s="1">
         <v>2020</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H42" s="1">
         <v>2020</v>
@@ -23998,13 +24305,13 @@
     </row>
     <row r="43" ht="15.5" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B43" s="1">
         <v>2020</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H43" s="1">
         <v>2020</v>
@@ -24012,13 +24319,13 @@
     </row>
     <row r="44" ht="15.5" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B44" s="1">
         <v>2023</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H44" s="1">
         <v>2023</v>
@@ -24026,13 +24333,13 @@
     </row>
     <row r="45" ht="15.5" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B45" s="1">
         <v>2023</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H45" s="1">
         <v>2023</v>
@@ -24040,13 +24347,13 @@
     </row>
     <row r="46" ht="15.5" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B46" s="1">
         <v>2023</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H46" s="1">
         <v>2023</v>
@@ -24054,13 +24361,13 @@
     </row>
     <row r="47" ht="15.5" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B47" s="1">
         <v>2021</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H47" s="1">
         <v>2021</v>
@@ -24068,13 +24375,13 @@
     </row>
     <row r="48" ht="15.5" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B48" s="1">
         <v>2021</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H48" s="1">
         <v>2021</v>
@@ -24082,13 +24389,13 @@
     </row>
     <row r="49" ht="15.5" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B49" s="1">
         <v>2021</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H49" s="1">
         <v>2021</v>
@@ -24096,13 +24403,13 @@
     </row>
     <row r="50" ht="15.5" hidden="1" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B50" s="1">
         <v>2023</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H50" s="1">
         <v>2023</v>
@@ -24110,13 +24417,13 @@
     </row>
     <row r="51" ht="15.5" hidden="1" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B51" s="1">
         <v>2024</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H51" s="1">
         <v>2024</v>
@@ -24124,13 +24431,13 @@
     </row>
     <row r="52" ht="15.5" hidden="1" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B52" s="1">
         <v>2024</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H52" s="1">
         <v>2024</v>

--- a/Label.xlsx
+++ b/Label.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Label!$A$1:$S$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Label!$A$1:$S$56</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$A$68</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="218">
   <si>
     <t>Note</t>
   </si>
@@ -438,7 +438,22 @@
     <t>Pn13E4</t>
   </si>
   <si>
+    <t>Pn14E1</t>
+  </si>
+  <si>
     <t>Pn14</t>
+  </si>
+  <si>
+    <t>G Orellana-Corrales et al.</t>
+  </si>
+  <si>
+    <t>Experimental Psychology</t>
+  </si>
+  <si>
+    <t>Pn14E2</t>
+  </si>
+  <si>
+    <t>Pn14E3</t>
   </si>
   <si>
     <t>Pn16E1</t>
@@ -511,6 +526,9 @@
   </si>
   <si>
     <t>Citation()</t>
+  </si>
+  <si>
+    <t>unpublished</t>
   </si>
   <si>
     <t>Ps3E1</t>
@@ -681,9 +699,6 @@
   </si>
   <si>
     <t>Schäfer et al.</t>
-  </si>
-  <si>
-    <t>Experimental Psychology</t>
   </si>
   <si>
     <t>Pt6E1</t>
@@ -1865,14 +1880,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:KB70"/>
+  <dimension ref="A1:KB72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C32" sqref="C32"/>
+      <selection pane="bottomRight" activeCell="Y29" sqref="Y29:Z29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1881,7 +1896,7 @@
     <col min="2" max="2" width="3.625" customWidth="1"/>
     <col min="3" max="3" width="9.16666666666667" customWidth="1"/>
     <col min="4" max="4" width="6.08333333333333" customWidth="1"/>
-    <col min="5" max="5" width="19.75" customWidth="1"/>
+    <col min="5" max="5" width="23.4166666666667" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
     <col min="7" max="7" width="67.0833333333333" customWidth="1"/>
     <col min="8" max="8" width="4.625" customWidth="1"/>
@@ -4685,7 +4700,7 @@
         <v>1</v>
       </c>
       <c r="P10" s="1">
-        <f t="shared" ref="P10:P19" si="1">M10-O10</f>
+        <f t="shared" ref="P10:P24" si="1">M10-O10</f>
         <v>55</v>
       </c>
       <c r="Q10" s="1"/>
@@ -8019,7 +8034,7 @@
       </c>
       <c r="O20" s="1"/>
       <c r="P20" s="1">
-        <f>M20-O20</f>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="Q20" s="1"/>
@@ -8350,7 +8365,7 @@
       </c>
       <c r="O21" s="1"/>
       <c r="P21" s="1">
-        <f>M21-O21</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="Q21" s="1"/>
@@ -8642,33 +8657,74 @@
     </row>
     <row r="22" ht="15.5" spans="1:288">
       <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
+      <c r="B22" s="1">
+        <v>21</v>
+      </c>
       <c r="C22" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F22" s="1">
+        <v>2020</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
+      <c r="L22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M22" s="1">
+        <v>38</v>
+      </c>
+      <c r="N22" s="1">
+        <v>128</v>
+      </c>
+      <c r="O22" s="1">
+        <v>4</v>
+      </c>
+      <c r="P22" s="1">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="8"/>
-      <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="1"/>
+      <c r="T22" s="7">
+        <v>1</v>
+      </c>
+      <c r="U22" s="8">
+        <v>0</v>
+      </c>
+      <c r="V22" s="8">
+        <v>0</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>9</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>29</v>
+      </c>
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
@@ -8935,46 +8991,48 @@
     <row r="23" ht="15.5" spans="1:288">
       <c r="A23" s="1"/>
       <c r="B23" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" s="1">
+        <v>2020</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F23" s="1">
-        <v>2022</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="H23" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K23" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="L23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="M23" s="1">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="N23" s="1">
-        <v>200</v>
-      </c>
-      <c r="O23" s="1"/>
+        <v>128</v>
+      </c>
+      <c r="O23" s="1">
+        <v>2</v>
+      </c>
       <c r="P23" s="1">
-        <f t="shared" ref="P23:P46" si="2">M23-O23</f>
-        <v>20</v>
+        <f t="shared" si="1"/>
+        <v>31</v>
       </c>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
@@ -8988,13 +9046,17 @@
       <c r="V23" s="8">
         <v>0</v>
       </c>
-      <c r="W23" s="1"/>
-      <c r="X23" s="1"/>
+      <c r="W23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="X23" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="Y23" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Z23" s="1">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
@@ -9262,50 +9324,50 @@
     <row r="24" ht="15.5" spans="1:288">
       <c r="A24" s="1"/>
       <c r="B24" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>113</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1">
+        <v>2020</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F24" s="1">
-        <v>2022</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="H24" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I24" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K24" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="L24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="M24" s="1">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="N24" s="1">
-        <v>200</v>
-      </c>
-      <c r="O24" s="1"/>
+        <v>128</v>
+      </c>
+      <c r="O24" s="1">
+        <v>1</v>
+      </c>
       <c r="P24" s="1">
-        <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>114</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
       <c r="T24" s="7">
@@ -9317,13 +9379,17 @@
       <c r="V24" s="8">
         <v>0</v>
       </c>
-      <c r="W24" s="1"/>
-      <c r="X24" s="1"/>
+      <c r="W24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="X24" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="Y24" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z24" s="1">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
@@ -9591,28 +9657,28 @@
     <row r="25" ht="15.5" spans="1:288">
       <c r="A25" s="1"/>
       <c r="B25" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="E25" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F25" s="1">
         <v>2022</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H25" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I25" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>9</v>
@@ -9622,19 +9688,17 @@
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N25" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O25" s="1"/>
       <c r="P25" s="1">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>116</v>
-      </c>
+        <f t="shared" ref="P25:P48" si="2">M25-O25</f>
+        <v>20</v>
+      </c>
+      <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
       <c r="T25" s="7">
@@ -9649,10 +9713,10 @@
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
       <c r="Y25" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Z25" s="1">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
@@ -9920,28 +9984,28 @@
     <row r="26" ht="15.5" spans="1:288">
       <c r="A26" s="1"/>
       <c r="B26" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F26" s="1">
+        <v>2022</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F26" s="1">
-        <v>2021</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="H26" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>9</v>
@@ -9949,22 +10013,20 @@
       <c r="K26" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L26" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="L26" s="1"/>
       <c r="M26" s="1">
-        <v>105</v>
+        <v>24</v>
       </c>
       <c r="N26" s="1">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="O26" s="1"/>
       <c r="P26" s="1">
         <f t="shared" si="2"/>
-        <v>105</v>
-      </c>
-      <c r="Q26" s="10" t="s">
-        <v>121</v>
+        <v>24</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
@@ -9977,17 +10039,13 @@
       <c r="V26" s="8">
         <v>0</v>
       </c>
-      <c r="W26" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="X26" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
       <c r="Y26" s="1">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="Z26" s="1">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
@@ -10253,71 +10311,71 @@
       <c r="KB26" s="1"/>
     </row>
     <row r="27" ht="15.5" spans="1:288">
-      <c r="A27" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="A27" s="1"/>
       <c r="B27" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F27" s="1">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="H27" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I27" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="K27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L27" s="1"/>
       <c r="M27" s="1">
-        <v>302</v>
+        <v>25</v>
       </c>
       <c r="N27" s="1">
-        <v>16</v>
-      </c>
-      <c r="O27" s="1">
-        <v>3</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="O27" s="1"/>
       <c r="P27" s="1">
         <f t="shared" si="2"/>
-        <v>299</v>
-      </c>
-      <c r="Q27" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
       <c r="T27" s="7">
         <v>1</v>
       </c>
-      <c r="U27" t="s">
-        <v>86</v>
+      <c r="U27" s="8">
+        <v>0</v>
       </c>
       <c r="V27" s="8">
         <v>0</v>
       </c>
-      <c r="W27" s="11" t="s">
-        <v>126</v>
-      </c>
+      <c r="W27" s="1"/>
       <c r="X27" s="1"/>
-      <c r="Y27" s="1"/>
-      <c r="Z27" s="1"/>
+      <c r="Y27" s="1">
+        <v>7</v>
+      </c>
+      <c r="Z27" s="1">
+        <v>18</v>
+      </c>
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
       <c r="AC27" s="1"/>
@@ -10582,71 +10640,77 @@
       <c r="KB27" s="1"/>
     </row>
     <row r="28" ht="15.5" spans="1:288">
-      <c r="A28" s="1" t="s">
-        <v>127</v>
-      </c>
+      <c r="A28" s="1"/>
       <c r="B28" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="F28" s="1">
-        <v>2023</v>
-      </c>
-      <c r="G28" s="1"/>
+        <v>2021</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="H28" s="1">
         <v>1</v>
       </c>
-      <c r="I28" s="1" t="s">
-        <v>130</v>
+      <c r="I28" s="1">
+        <v>1</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K28" s="1"/>
+      <c r="K28" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="L28" s="1" t="s">
         <v>45</v>
       </c>
       <c r="M28" s="1">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="N28" s="1">
-        <v>90</v>
-      </c>
-      <c r="O28" s="1">
-        <v>3</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="O28" s="1"/>
       <c r="P28" s="1">
         <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="Q28" s="1" t="s">
-        <v>131</v>
+        <v>105</v>
+      </c>
+      <c r="Q28" s="10" t="s">
+        <v>126</v>
       </c>
       <c r="R28" s="1"/>
-      <c r="S28" s="1" t="s">
-        <v>132</v>
-      </c>
+      <c r="S28" s="1"/>
       <c r="T28" s="7">
         <v>1</v>
       </c>
       <c r="U28" s="8">
         <v>0</v>
       </c>
-      <c r="V28" s="7">
-        <v>1</v>
-      </c>
-      <c r="W28" s="11"/>
-      <c r="X28" s="1"/>
-      <c r="Y28" s="1"/>
-      <c r="Z28" s="1"/>
+      <c r="V28" s="8">
+        <v>0</v>
+      </c>
+      <c r="W28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="X28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>51</v>
+      </c>
+      <c r="Z28" s="1">
+        <v>54</v>
+      </c>
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
       <c r="AC28" s="1"/>
@@ -10911,59 +10975,77 @@
       <c r="KB28" s="1"/>
     </row>
     <row r="29" ht="15.5" spans="1:288">
-      <c r="A29" s="1"/>
+      <c r="A29" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="B29" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F29" s="1">
-        <v>2014</v>
-      </c>
-      <c r="G29" s="1"/>
+        <v>2023</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="H29" s="1">
         <v>1</v>
       </c>
-      <c r="I29" s="1" t="s">
-        <v>136</v>
+      <c r="I29" s="1">
+        <v>1</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K29" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="K29" s="1"/>
       <c r="L29" s="1" t="s">
         <v>45</v>
       </c>
       <c r="M29" s="1">
-        <v>24</v>
+        <v>302</v>
       </c>
       <c r="N29" s="1">
-        <v>40</v>
-      </c>
-      <c r="O29" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="O29" s="1">
+        <v>3</v>
+      </c>
       <c r="P29" s="1">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>299</v>
       </c>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
-      <c r="V29" s="1"/>
-      <c r="W29" s="1"/>
+      <c r="T29" s="7">
+        <v>1</v>
+      </c>
+      <c r="U29" t="s">
+        <v>86</v>
+      </c>
+      <c r="V29" s="8">
+        <v>0</v>
+      </c>
+      <c r="W29" s="11" t="s">
+        <v>131</v>
+      </c>
       <c r="X29" s="1"/>
-      <c r="Y29" s="1"/>
-      <c r="Z29" s="1"/>
+      <c r="Y29" s="1">
+        <f>SUM(Y2:Y28)</f>
+        <v>321</v>
+      </c>
+      <c r="Z29" s="1">
+        <f>SUM(Z2:Z28)</f>
+        <v>676</v>
+      </c>
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
       <c r="AC29" s="1"/>
@@ -11228,56 +11310,68 @@
       <c r="KB29" s="1"/>
     </row>
     <row r="30" ht="15.5" spans="1:288">
-      <c r="A30" s="1"/>
+      <c r="A30" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="B30" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>135</v>
+        <v>50</v>
       </c>
       <c r="F30" s="1">
-        <v>2015</v>
+        <v>2023</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1">
         <v>1</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K30" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="K30" s="1"/>
       <c r="L30" s="1" t="s">
         <v>45</v>
       </c>
       <c r="M30" s="1">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N30" s="1">
-        <v>40</v>
-      </c>
-      <c r="O30" s="1"/>
+        <v>90</v>
+      </c>
+      <c r="O30" s="1">
+        <v>3</v>
+      </c>
       <c r="P30" s="1">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="Q30" s="1"/>
+      <c r="Q30" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
-      <c r="W30" s="1"/>
+      <c r="S30" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="T30" s="7">
+        <v>1</v>
+      </c>
+      <c r="U30" s="8">
+        <v>0</v>
+      </c>
+      <c r="V30" s="7">
+        <v>1</v>
+      </c>
+      <c r="W30" s="11"/>
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
@@ -11545,28 +11639,30 @@
       <c r="KB30" s="1"/>
     </row>
     <row r="31" ht="15.5" spans="1:288">
-      <c r="A31" s="1"/>
+      <c r="A31" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="B31" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>139</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="F31" s="1">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>9</v>
@@ -11578,7 +11674,7 @@
         <v>45</v>
       </c>
       <c r="M31" s="1">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N31" s="1">
         <v>40</v>
@@ -11586,7 +11682,7 @@
       <c r="O31" s="1"/>
       <c r="P31" s="1">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
@@ -11863,55 +11959,51 @@
     </row>
     <row r="32" ht="15.5" spans="1:288">
       <c r="A32" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B32" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="F32" s="1">
-        <v>2014</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>144</v>
-      </c>
+        <v>2015</v>
+      </c>
+      <c r="G32" s="1"/>
       <c r="H32" s="1">
         <v>1</v>
       </c>
-      <c r="I32" s="1">
-        <v>1</v>
+      <c r="I32" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>145</v>
+        <v>59</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>45</v>
       </c>
       <c r="M32" s="1">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N32" s="1">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="O32" s="1"/>
       <c r="P32" s="1">
         <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="Q32" s="1" t="s">
-        <v>146</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
@@ -12186,55 +12278,51 @@
     </row>
     <row r="33" ht="15.5" spans="1:288">
       <c r="A33" s="1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="B33" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F33" s="1">
-        <v>2014</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>144</v>
-      </c>
+        <v>2015</v>
+      </c>
+      <c r="G33" s="1"/>
       <c r="H33" s="1">
         <v>2</v>
       </c>
-      <c r="I33" s="1">
-        <v>2</v>
+      <c r="I33" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>145</v>
+        <v>59</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>45</v>
       </c>
       <c r="M33" s="1">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N33" s="1">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="O33" s="1"/>
       <c r="P33" s="1">
         <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="Q33" s="1" t="s">
-        <v>149</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
@@ -12509,43 +12597,43 @@
     </row>
     <row r="34" ht="15.5" spans="1:288">
       <c r="A34" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B34" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F34" s="1">
         <v>2014</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="H34" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I34" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>45</v>
       </c>
       <c r="M34" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N34" s="1">
         <v>60</v>
@@ -12553,7 +12641,7 @@
       <c r="O34" s="1"/>
       <c r="P34" s="1">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q34" s="1" t="s">
         <v>152</v>
@@ -12835,40 +12923,40 @@
         <v>153</v>
       </c>
       <c r="B35" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>154</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F35" s="1">
         <v>2014</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="H35" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I35" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>45</v>
       </c>
       <c r="M35" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N35" s="1">
         <v>60</v>
@@ -12876,7 +12964,7 @@
       <c r="O35" s="1"/>
       <c r="P35" s="1">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q35" s="1" t="s">
         <v>155</v>
@@ -13154,40 +13242,44 @@
       <c r="KB35" s="1"/>
     </row>
     <row r="36" ht="15.5" spans="1:288">
-      <c r="A36" s="1"/>
+      <c r="A36" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="B36" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="F36" s="1">
-        <v>2023</v>
+        <v>2014</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="H36" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I36" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K36" s="1"/>
+      <c r="K36" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="L36" s="1" t="s">
         <v>45</v>
       </c>
       <c r="M36" s="1">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="N36" s="1">
         <v>60</v>
@@ -13195,23 +13287,17 @@
       <c r="O36" s="1"/>
       <c r="P36" s="1">
         <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="Q36" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
-      <c r="T36" s="1">
-        <v>1</v>
-      </c>
-      <c r="U36" s="1">
-        <v>0</v>
-      </c>
-      <c r="V36" s="1">
-        <v>1</v>
-      </c>
-      <c r="W36" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
@@ -13479,65 +13565,61 @@
       <c r="KB36" s="1"/>
     </row>
     <row r="37" ht="15.5" spans="1:288">
-      <c r="A37" s="1"/>
+      <c r="A37" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="B37" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>160</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="F37" s="1">
-        <v>2023</v>
+        <v>2014</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="H37" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I37" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>59</v>
+        <v>151</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>45</v>
       </c>
       <c r="M37" s="1">
-        <v>144</v>
+        <v>20</v>
       </c>
       <c r="N37" s="1">
+        <v>60</v>
+      </c>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1">
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="O37" s="1">
-        <v>2</v>
-      </c>
-      <c r="P37" s="1">
-        <f t="shared" ref="P37:P46" si="3">M37-O37</f>
-        <v>142</v>
-      </c>
-      <c r="Q37" s="1"/>
+      <c r="Q37" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
-      <c r="T37" s="1">
-        <v>1</v>
-      </c>
-      <c r="U37" s="1">
-        <v>1</v>
-      </c>
-      <c r="V37" s="1">
-        <v>0</v>
-      </c>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
@@ -13808,22 +13890,22 @@
     <row r="38" ht="15.5" spans="1:288">
       <c r="A38" s="1"/>
       <c r="B38" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="F38" s="1">
+        <v>2023</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F38" s="1">
-        <v>2021</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="H38" s="1">
         <v>1</v>
@@ -13834,31 +13916,23 @@
       <c r="J38" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K38" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="K38" s="1"/>
       <c r="L38" s="1" t="s">
         <v>45</v>
       </c>
       <c r="M38" s="1">
-        <v>109</v>
+        <v>40</v>
       </c>
       <c r="N38" s="1">
         <v>60</v>
       </c>
-      <c r="O38" s="1">
-        <v>1</v>
-      </c>
+      <c r="O38" s="1"/>
       <c r="P38" s="1">
-        <f t="shared" si="3"/>
-        <v>108</v>
-      </c>
-      <c r="Q38" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="R38" s="1" t="s">
-        <v>168</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
       <c r="S38" s="1"/>
       <c r="T38" s="1">
         <v>1</v>
@@ -13867,7 +13941,7 @@
         <v>0</v>
       </c>
       <c r="V38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W38" s="1" t="s">
         <v>66</v>
@@ -14139,26 +14213,24 @@
       <c r="KB38" s="1"/>
     </row>
     <row r="39" ht="15.5" spans="1:288">
-      <c r="A39" s="1" t="s">
-        <v>169</v>
-      </c>
+      <c r="A39" s="1"/>
       <c r="B39" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F39" s="1">
         <v>2023</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H39" s="1">
         <v>1</v>
@@ -14170,21 +14242,23 @@
         <v>9</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="L39" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="M39" s="1">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="N39" s="1">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="O39" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P39" s="1">
-        <f t="shared" si="3"/>
-        <v>39</v>
+        <f t="shared" ref="P39:P48" si="3">M39-O39</f>
+        <v>142</v>
       </c>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
@@ -14193,14 +14267,12 @@
         <v>1</v>
       </c>
       <c r="U39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V39" s="1">
         <v>0</v>
       </c>
-      <c r="W39" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="W39" s="1"/>
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
@@ -14470,22 +14542,22 @@
     <row r="40" ht="15.5" spans="1:288">
       <c r="A40" s="1"/>
       <c r="B40" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F40" s="1">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>177</v>
+        <v>58</v>
       </c>
       <c r="H40" s="1">
         <v>1</v>
@@ -14496,32 +14568,44 @@
       <c r="J40" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K40" s="1"/>
+      <c r="K40" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="L40" s="1" t="s">
         <v>45</v>
       </c>
       <c r="M40" s="1">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c r="N40" s="1">
         <v>60</v>
       </c>
       <c r="O40" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P40" s="1">
         <f t="shared" si="3"/>
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="R40" s="1"/>
+        <v>173</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="S40" s="1"/>
-      <c r="T40" s="1"/>
-      <c r="U40" s="1"/>
-      <c r="V40" s="1"/>
-      <c r="W40" s="1"/>
+      <c r="T40" s="1">
+        <v>1</v>
+      </c>
+      <c r="U40" s="1">
+        <v>0</v>
+      </c>
+      <c r="V40" s="1">
+        <v>0</v>
+      </c>
+      <c r="W40" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
@@ -14789,60 +14873,68 @@
       <c r="KB40" s="1"/>
     </row>
     <row r="41" ht="15.5" spans="1:288">
-      <c r="A41" s="1"/>
+      <c r="A41" s="1" t="s">
+        <v>175</v>
+      </c>
       <c r="B41" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F41" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="H41" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="K41" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L41" s="1"/>
       <c r="M41" s="1">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="N41" s="1">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="O41" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P41" s="1">
         <f t="shared" si="3"/>
-        <v>46</v>
-      </c>
-      <c r="Q41" s="1" t="s">
-        <v>178</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
-      <c r="T41" s="1"/>
-      <c r="U41" s="1"/>
-      <c r="V41" s="1"/>
-      <c r="W41" s="1"/>
+      <c r="T41" s="1">
+        <v>1</v>
+      </c>
+      <c r="U41" s="1">
+        <v>0</v>
+      </c>
+      <c r="V41" s="1">
+        <v>0</v>
+      </c>
+      <c r="W41" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
@@ -15110,26 +15202,24 @@
       <c r="KB41" s="1"/>
     </row>
     <row r="42" ht="15.5" spans="1:288">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1">
+        <v>41</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B42" s="1">
-        <v>40</v>
-      </c>
-      <c r="C42" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="F42" s="1">
         <v>2022</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H42" s="1">
         <v>1</v>
@@ -15140,34 +15230,32 @@
       <c r="J42" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K42" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="K42" s="1"/>
       <c r="L42" s="1" t="s">
         <v>45</v>
       </c>
       <c r="M42" s="1">
-        <v>328</v>
+        <v>30</v>
       </c>
       <c r="N42" s="1">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="O42" s="1">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="P42" s="1">
         <f t="shared" si="3"/>
-        <v>288</v>
-      </c>
-      <c r="Q42" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
       <c r="V42" s="1"/>
-      <c r="W42" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="W42" s="1"/>
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
@@ -15437,50 +15525,52 @@
     <row r="43" ht="15.5" spans="1:288">
       <c r="A43" s="1"/>
       <c r="B43" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>91</v>
+        <v>181</v>
       </c>
       <c r="F43" s="1">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>112</v>
+        <v>182</v>
       </c>
       <c r="H43" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K43" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="K43" s="1"/>
       <c r="L43" s="1" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="M43" s="1">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="N43" s="1">
-        <v>120</v>
-      </c>
-      <c r="O43" s="1"/>
+        <v>60</v>
+      </c>
+      <c r="O43" s="1">
+        <v>2</v>
+      </c>
       <c r="P43" s="1">
         <f t="shared" si="3"/>
-        <v>23</v>
-      </c>
-      <c r="Q43" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
@@ -15754,24 +15844,26 @@
       <c r="KB43" s="1"/>
     </row>
     <row r="44" ht="15.5" spans="1:288">
-      <c r="A44" s="1"/>
+      <c r="A44" s="1" t="s">
+        <v>185</v>
+      </c>
       <c r="B44" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="E44" s="1" t="s">
-        <v>91</v>
+        <v>188</v>
       </c>
       <c r="F44" s="1">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>112</v>
+        <v>189</v>
       </c>
       <c r="H44" s="1">
         <v>1</v>
@@ -15786,20 +15878,20 @@
         <v>59</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="M44" s="1">
-        <v>21</v>
+        <v>328</v>
       </c>
       <c r="N44" s="1">
         <v>120</v>
       </c>
       <c r="O44" s="1">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="P44" s="1">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>288</v>
       </c>
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
@@ -15807,7 +15899,9 @@
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
       <c r="V44" s="1"/>
-      <c r="W44" s="1"/>
+      <c r="W44" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
@@ -16077,13 +16171,13 @@
     <row r="45" ht="15.5" spans="1:288">
       <c r="A45" s="1"/>
       <c r="B45" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>91</v>
@@ -16092,7 +16186,7 @@
         <v>2020</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H45" s="1">
         <v>1</v>
@@ -16110,7 +16204,7 @@
         <v>85</v>
       </c>
       <c r="M45" s="1">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="N45" s="1">
         <v>120</v>
@@ -16118,7 +16212,7 @@
       <c r="O45" s="1"/>
       <c r="P45" s="1">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
@@ -16396,22 +16490,22 @@
     <row r="46" ht="15.5" spans="1:288">
       <c r="A46" s="1"/>
       <c r="B46" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>191</v>
+        <v>91</v>
       </c>
       <c r="F46" s="1">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>192</v>
+        <v>117</v>
       </c>
       <c r="H46" s="1">
         <v>1</v>
@@ -16419,19 +16513,27 @@
       <c r="I46" s="1">
         <v>1</v>
       </c>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
+      <c r="J46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="M46" s="1">
-        <v>380</v>
-      </c>
-      <c r="N46" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="N46" s="1">
+        <v>120</v>
+      </c>
       <c r="O46" s="1">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="P46" s="1">
         <f t="shared" si="3"/>
-        <v>348</v>
+        <v>18</v>
       </c>
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
@@ -16709,36 +16811,49 @@
     <row r="47" ht="15.5" spans="1:288">
       <c r="A47" s="1"/>
       <c r="B47" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>193</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>191</v>
+        <v>91</v>
       </c>
       <c r="F47" s="1">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>192</v>
+        <v>117</v>
       </c>
       <c r="H47" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" s="1">
-        <v>2</v>
-      </c>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M47" s="1">
+        <v>18</v>
+      </c>
+      <c r="N47" s="1">
+        <v>120</v>
+      </c>
       <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
+      <c r="P47" s="1">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
@@ -17015,36 +17130,43 @@
     <row r="48" ht="15.5" spans="1:288">
       <c r="A48" s="1"/>
       <c r="B48" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>194</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="F48" s="1">
         <v>2023</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H48" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I48" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
+      <c r="M48" s="1">
+        <v>380</v>
+      </c>
       <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
+      <c r="O48" s="1">
+        <v>32</v>
+      </c>
+      <c r="P48" s="1">
+        <f t="shared" si="3"/>
+        <v>348</v>
+      </c>
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
@@ -17321,28 +17443,28 @@
     <row r="49" ht="15.5" spans="1:288">
       <c r="A49" s="1"/>
       <c r="B49" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="F49" s="1">
+        <v>2023</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F49" s="1">
-        <v>2021</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="H49" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
@@ -17627,28 +17749,28 @@
     <row r="50" ht="15.5" spans="1:288">
       <c r="A50" s="1"/>
       <c r="B50" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>199</v>
       </c>
       <c r="D50" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="F50" s="1">
+        <v>2023</v>
+      </c>
+      <c r="G50" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F50" s="1">
-        <v>2021</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="H50" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I50" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
@@ -17933,28 +18055,28 @@
     <row r="51" ht="15.5" spans="1:288">
       <c r="A51" s="1"/>
       <c r="B51" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>200</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="F51" s="1">
         <v>2021</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="H51" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I51" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
@@ -18239,28 +18361,28 @@
     <row r="52" ht="15.5" spans="1:288">
       <c r="A52" s="1"/>
       <c r="B52" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="F52" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F52" s="1">
-        <v>2023</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>204</v>
-      </c>
       <c r="H52" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
@@ -18545,28 +18667,28 @@
     <row r="53" ht="15.5" spans="1:288">
       <c r="A53" s="1"/>
       <c r="B53" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>205</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F53" s="1">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H53" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I53" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
@@ -18851,22 +18973,22 @@
     <row r="54" ht="15.5" spans="1:288">
       <c r="A54" s="1"/>
       <c r="B54" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C54" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="F54" s="1">
+        <v>2023</v>
+      </c>
+      <c r="G54" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="F54" s="1">
-        <v>2024</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>211</v>
       </c>
       <c r="H54" s="1">
         <v>1</v>
@@ -19156,14 +19278,30 @@
     </row>
     <row r="55" ht="15.5" spans="1:288">
       <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
+      <c r="B55" s="1">
+        <v>54</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F55" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H55" s="1">
+        <v>1</v>
+      </c>
+      <c r="I55" s="1">
+        <v>1</v>
+      </c>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
@@ -19446,14 +19584,30 @@
     </row>
     <row r="56" ht="15.5" spans="1:288">
       <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
+      <c r="B56" s="1">
+        <v>55</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F56" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H56" s="1">
+        <v>1</v>
+      </c>
+      <c r="I56" s="1">
+        <v>1</v>
+      </c>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
@@ -23504,7 +23658,7 @@
       <c r="KA69" s="1"/>
       <c r="KB69" s="1"/>
     </row>
-    <row r="70" ht="15.5" spans="1:12">
+    <row r="70" ht="15.5" spans="1:288">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -23517,9 +23671,589 @@
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="1"/>
+      <c r="S70" s="1"/>
+      <c r="T70" s="1"/>
+      <c r="U70" s="1"/>
+      <c r="V70" s="1"/>
+      <c r="W70" s="1"/>
+      <c r="X70" s="1"/>
+      <c r="Y70" s="1"/>
+      <c r="Z70" s="1"/>
+      <c r="AA70" s="1"/>
+      <c r="AB70" s="1"/>
+      <c r="AC70" s="1"/>
+      <c r="AD70" s="1"/>
+      <c r="AE70" s="1"/>
+      <c r="AF70" s="1"/>
+      <c r="AG70" s="1"/>
+      <c r="AH70" s="1"/>
+      <c r="AI70" s="1"/>
+      <c r="AJ70" s="1"/>
+      <c r="AK70" s="1"/>
+      <c r="AL70" s="1"/>
+      <c r="AM70" s="1"/>
+      <c r="AN70" s="1"/>
+      <c r="AO70" s="1"/>
+      <c r="AP70" s="1"/>
+      <c r="AQ70" s="1"/>
+      <c r="AR70" s="1"/>
+      <c r="AS70" s="1"/>
+      <c r="AT70" s="1"/>
+      <c r="AU70" s="1"/>
+      <c r="AV70" s="1"/>
+      <c r="AW70" s="1"/>
+      <c r="AX70" s="1"/>
+      <c r="AY70" s="1"/>
+      <c r="AZ70" s="1"/>
+      <c r="BA70" s="1"/>
+      <c r="BB70" s="1"/>
+      <c r="BC70" s="1"/>
+      <c r="BD70" s="1"/>
+      <c r="BE70" s="1"/>
+      <c r="BF70" s="1"/>
+      <c r="BG70" s="1"/>
+      <c r="BH70" s="1"/>
+      <c r="BI70" s="1"/>
+      <c r="BJ70" s="1"/>
+      <c r="BK70" s="1"/>
+      <c r="BL70" s="1"/>
+      <c r="BM70" s="1"/>
+      <c r="BN70" s="1"/>
+      <c r="BO70" s="1"/>
+      <c r="BP70" s="1"/>
+      <c r="BQ70" s="1"/>
+      <c r="BR70" s="1"/>
+      <c r="BS70" s="1"/>
+      <c r="BT70" s="1"/>
+      <c r="BU70" s="1"/>
+      <c r="BV70" s="1"/>
+      <c r="BW70" s="1"/>
+      <c r="BX70" s="1"/>
+      <c r="BY70" s="1"/>
+      <c r="BZ70" s="1"/>
+      <c r="CA70" s="1"/>
+      <c r="CB70" s="1"/>
+      <c r="CC70" s="1"/>
+      <c r="CD70" s="1"/>
+      <c r="CE70" s="1"/>
+      <c r="CF70" s="1"/>
+      <c r="CG70" s="1"/>
+      <c r="CH70" s="1"/>
+      <c r="CI70" s="1"/>
+      <c r="CJ70" s="1"/>
+      <c r="CK70" s="1"/>
+      <c r="CL70" s="1"/>
+      <c r="CM70" s="1"/>
+      <c r="CN70" s="1"/>
+      <c r="CO70" s="1"/>
+      <c r="CP70" s="1"/>
+      <c r="CQ70" s="1"/>
+      <c r="CR70" s="1"/>
+      <c r="CS70" s="1"/>
+      <c r="CT70" s="1"/>
+      <c r="CU70" s="1"/>
+      <c r="CV70" s="1"/>
+      <c r="CW70" s="1"/>
+      <c r="CX70" s="1"/>
+      <c r="CY70" s="1"/>
+      <c r="CZ70" s="1"/>
+      <c r="DA70" s="1"/>
+      <c r="DB70" s="1"/>
+      <c r="DC70" s="1"/>
+      <c r="DD70" s="1"/>
+      <c r="DE70" s="1"/>
+      <c r="DF70" s="1"/>
+      <c r="DG70" s="1"/>
+      <c r="DH70" s="1"/>
+      <c r="DI70" s="1"/>
+      <c r="DJ70" s="1"/>
+      <c r="DK70" s="1"/>
+      <c r="DL70" s="1"/>
+      <c r="DM70" s="1"/>
+      <c r="DN70" s="1"/>
+      <c r="DO70" s="1"/>
+      <c r="DP70" s="1"/>
+      <c r="DQ70" s="1"/>
+      <c r="DR70" s="1"/>
+      <c r="DS70" s="1"/>
+      <c r="DT70" s="1"/>
+      <c r="DU70" s="1"/>
+      <c r="DV70" s="1"/>
+      <c r="DW70" s="1"/>
+      <c r="DX70" s="1"/>
+      <c r="DY70" s="1"/>
+      <c r="DZ70" s="1"/>
+      <c r="EA70" s="1"/>
+      <c r="EB70" s="1"/>
+      <c r="EC70" s="1"/>
+      <c r="ED70" s="1"/>
+      <c r="EE70" s="1"/>
+      <c r="EF70" s="1"/>
+      <c r="EG70" s="1"/>
+      <c r="EH70" s="1"/>
+      <c r="EI70" s="1"/>
+      <c r="EJ70" s="1"/>
+      <c r="EK70" s="1"/>
+      <c r="EL70" s="1"/>
+      <c r="EM70" s="1"/>
+      <c r="EN70" s="1"/>
+      <c r="EO70" s="1"/>
+      <c r="EP70" s="1"/>
+      <c r="EQ70" s="1"/>
+      <c r="ER70" s="1"/>
+      <c r="ES70" s="1"/>
+      <c r="ET70" s="1"/>
+      <c r="EU70" s="1"/>
+      <c r="EV70" s="1"/>
+      <c r="EW70" s="1"/>
+      <c r="EX70" s="1"/>
+      <c r="EY70" s="1"/>
+      <c r="EZ70" s="1"/>
+      <c r="FA70" s="1"/>
+      <c r="FB70" s="1"/>
+      <c r="FC70" s="1"/>
+      <c r="FD70" s="1"/>
+      <c r="FE70" s="1"/>
+      <c r="FF70" s="1"/>
+      <c r="FG70" s="1"/>
+      <c r="FH70" s="1"/>
+      <c r="FI70" s="1"/>
+      <c r="FJ70" s="1"/>
+      <c r="FK70" s="1"/>
+      <c r="FL70" s="1"/>
+      <c r="FM70" s="1"/>
+      <c r="FN70" s="1"/>
+      <c r="FO70" s="1"/>
+      <c r="FP70" s="1"/>
+      <c r="FQ70" s="1"/>
+      <c r="FR70" s="1"/>
+      <c r="FS70" s="1"/>
+      <c r="FT70" s="1"/>
+      <c r="FU70" s="1"/>
+      <c r="FV70" s="1"/>
+      <c r="FW70" s="1"/>
+      <c r="FX70" s="1"/>
+      <c r="FY70" s="1"/>
+      <c r="FZ70" s="1"/>
+      <c r="GA70" s="1"/>
+      <c r="GB70" s="1"/>
+      <c r="GC70" s="1"/>
+      <c r="GD70" s="1"/>
+      <c r="GE70" s="1"/>
+      <c r="GF70" s="1"/>
+      <c r="GG70" s="1"/>
+      <c r="GH70" s="1"/>
+      <c r="GI70" s="1"/>
+      <c r="GJ70" s="1"/>
+      <c r="GK70" s="1"/>
+      <c r="GL70" s="1"/>
+      <c r="GM70" s="1"/>
+      <c r="GN70" s="1"/>
+      <c r="GO70" s="1"/>
+      <c r="GP70" s="1"/>
+      <c r="GQ70" s="1"/>
+      <c r="GR70" s="1"/>
+      <c r="GS70" s="1"/>
+      <c r="GT70" s="1"/>
+      <c r="GU70" s="1"/>
+      <c r="GV70" s="1"/>
+      <c r="GW70" s="1"/>
+      <c r="GX70" s="1"/>
+      <c r="GY70" s="1"/>
+      <c r="GZ70" s="1"/>
+      <c r="HA70" s="1"/>
+      <c r="HB70" s="1"/>
+      <c r="HC70" s="1"/>
+      <c r="HD70" s="1"/>
+      <c r="HE70" s="1"/>
+      <c r="HF70" s="1"/>
+      <c r="HG70" s="1"/>
+      <c r="HH70" s="1"/>
+      <c r="HI70" s="1"/>
+      <c r="HJ70" s="1"/>
+      <c r="HK70" s="1"/>
+      <c r="HL70" s="1"/>
+      <c r="HM70" s="1"/>
+      <c r="HN70" s="1"/>
+      <c r="HO70" s="1"/>
+      <c r="HP70" s="1"/>
+      <c r="HQ70" s="1"/>
+      <c r="HR70" s="1"/>
+      <c r="HS70" s="1"/>
+      <c r="HT70" s="1"/>
+      <c r="HU70" s="1"/>
+      <c r="HV70" s="1"/>
+      <c r="HW70" s="1"/>
+      <c r="HX70" s="1"/>
+      <c r="HY70" s="1"/>
+      <c r="HZ70" s="1"/>
+      <c r="IA70" s="1"/>
+      <c r="IB70" s="1"/>
+      <c r="IC70" s="1"/>
+      <c r="ID70" s="1"/>
+      <c r="IE70" s="1"/>
+      <c r="IF70" s="1"/>
+      <c r="IG70" s="1"/>
+      <c r="IH70" s="1"/>
+      <c r="II70" s="1"/>
+      <c r="IJ70" s="1"/>
+      <c r="IK70" s="1"/>
+      <c r="IL70" s="1"/>
+      <c r="IM70" s="1"/>
+      <c r="IN70" s="1"/>
+      <c r="IO70" s="1"/>
+      <c r="IP70" s="1"/>
+      <c r="IQ70" s="1"/>
+      <c r="IR70" s="1"/>
+      <c r="IS70" s="1"/>
+      <c r="IT70" s="1"/>
+      <c r="IU70" s="1"/>
+      <c r="IV70" s="1"/>
+      <c r="IW70" s="1"/>
+      <c r="IX70" s="1"/>
+      <c r="IY70" s="1"/>
+      <c r="IZ70" s="1"/>
+      <c r="JA70" s="1"/>
+      <c r="JB70" s="1"/>
+      <c r="JC70" s="1"/>
+      <c r="JD70" s="1"/>
+      <c r="JE70" s="1"/>
+      <c r="JF70" s="1"/>
+      <c r="JG70" s="1"/>
+      <c r="JH70" s="1"/>
+      <c r="JI70" s="1"/>
+      <c r="JJ70" s="1"/>
+      <c r="JK70" s="1"/>
+      <c r="JL70" s="1"/>
+      <c r="JM70" s="1"/>
+      <c r="JN70" s="1"/>
+      <c r="JO70" s="1"/>
+      <c r="JP70" s="1"/>
+      <c r="JQ70" s="1"/>
+      <c r="JR70" s="1"/>
+      <c r="JS70" s="1"/>
+      <c r="JT70" s="1"/>
+      <c r="JU70" s="1"/>
+      <c r="JV70" s="1"/>
+      <c r="JW70" s="1"/>
+      <c r="JX70" s="1"/>
+      <c r="JY70" s="1"/>
+      <c r="JZ70" s="1"/>
+      <c r="KA70" s="1"/>
+      <c r="KB70" s="1"/>
+    </row>
+    <row r="71" ht="15.5" spans="1:288">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="1"/>
+      <c r="S71" s="1"/>
+      <c r="T71" s="1"/>
+      <c r="U71" s="1"/>
+      <c r="V71" s="1"/>
+      <c r="W71" s="1"/>
+      <c r="X71" s="1"/>
+      <c r="Y71" s="1"/>
+      <c r="Z71" s="1"/>
+      <c r="AA71" s="1"/>
+      <c r="AB71" s="1"/>
+      <c r="AC71" s="1"/>
+      <c r="AD71" s="1"/>
+      <c r="AE71" s="1"/>
+      <c r="AF71" s="1"/>
+      <c r="AG71" s="1"/>
+      <c r="AH71" s="1"/>
+      <c r="AI71" s="1"/>
+      <c r="AJ71" s="1"/>
+      <c r="AK71" s="1"/>
+      <c r="AL71" s="1"/>
+      <c r="AM71" s="1"/>
+      <c r="AN71" s="1"/>
+      <c r="AO71" s="1"/>
+      <c r="AP71" s="1"/>
+      <c r="AQ71" s="1"/>
+      <c r="AR71" s="1"/>
+      <c r="AS71" s="1"/>
+      <c r="AT71" s="1"/>
+      <c r="AU71" s="1"/>
+      <c r="AV71" s="1"/>
+      <c r="AW71" s="1"/>
+      <c r="AX71" s="1"/>
+      <c r="AY71" s="1"/>
+      <c r="AZ71" s="1"/>
+      <c r="BA71" s="1"/>
+      <c r="BB71" s="1"/>
+      <c r="BC71" s="1"/>
+      <c r="BD71" s="1"/>
+      <c r="BE71" s="1"/>
+      <c r="BF71" s="1"/>
+      <c r="BG71" s="1"/>
+      <c r="BH71" s="1"/>
+      <c r="BI71" s="1"/>
+      <c r="BJ71" s="1"/>
+      <c r="BK71" s="1"/>
+      <c r="BL71" s="1"/>
+      <c r="BM71" s="1"/>
+      <c r="BN71" s="1"/>
+      <c r="BO71" s="1"/>
+      <c r="BP71" s="1"/>
+      <c r="BQ71" s="1"/>
+      <c r="BR71" s="1"/>
+      <c r="BS71" s="1"/>
+      <c r="BT71" s="1"/>
+      <c r="BU71" s="1"/>
+      <c r="BV71" s="1"/>
+      <c r="BW71" s="1"/>
+      <c r="BX71" s="1"/>
+      <c r="BY71" s="1"/>
+      <c r="BZ71" s="1"/>
+      <c r="CA71" s="1"/>
+      <c r="CB71" s="1"/>
+      <c r="CC71" s="1"/>
+      <c r="CD71" s="1"/>
+      <c r="CE71" s="1"/>
+      <c r="CF71" s="1"/>
+      <c r="CG71" s="1"/>
+      <c r="CH71" s="1"/>
+      <c r="CI71" s="1"/>
+      <c r="CJ71" s="1"/>
+      <c r="CK71" s="1"/>
+      <c r="CL71" s="1"/>
+      <c r="CM71" s="1"/>
+      <c r="CN71" s="1"/>
+      <c r="CO71" s="1"/>
+      <c r="CP71" s="1"/>
+      <c r="CQ71" s="1"/>
+      <c r="CR71" s="1"/>
+      <c r="CS71" s="1"/>
+      <c r="CT71" s="1"/>
+      <c r="CU71" s="1"/>
+      <c r="CV71" s="1"/>
+      <c r="CW71" s="1"/>
+      <c r="CX71" s="1"/>
+      <c r="CY71" s="1"/>
+      <c r="CZ71" s="1"/>
+      <c r="DA71" s="1"/>
+      <c r="DB71" s="1"/>
+      <c r="DC71" s="1"/>
+      <c r="DD71" s="1"/>
+      <c r="DE71" s="1"/>
+      <c r="DF71" s="1"/>
+      <c r="DG71" s="1"/>
+      <c r="DH71" s="1"/>
+      <c r="DI71" s="1"/>
+      <c r="DJ71" s="1"/>
+      <c r="DK71" s="1"/>
+      <c r="DL71" s="1"/>
+      <c r="DM71" s="1"/>
+      <c r="DN71" s="1"/>
+      <c r="DO71" s="1"/>
+      <c r="DP71" s="1"/>
+      <c r="DQ71" s="1"/>
+      <c r="DR71" s="1"/>
+      <c r="DS71" s="1"/>
+      <c r="DT71" s="1"/>
+      <c r="DU71" s="1"/>
+      <c r="DV71" s="1"/>
+      <c r="DW71" s="1"/>
+      <c r="DX71" s="1"/>
+      <c r="DY71" s="1"/>
+      <c r="DZ71" s="1"/>
+      <c r="EA71" s="1"/>
+      <c r="EB71" s="1"/>
+      <c r="EC71" s="1"/>
+      <c r="ED71" s="1"/>
+      <c r="EE71" s="1"/>
+      <c r="EF71" s="1"/>
+      <c r="EG71" s="1"/>
+      <c r="EH71" s="1"/>
+      <c r="EI71" s="1"/>
+      <c r="EJ71" s="1"/>
+      <c r="EK71" s="1"/>
+      <c r="EL71" s="1"/>
+      <c r="EM71" s="1"/>
+      <c r="EN71" s="1"/>
+      <c r="EO71" s="1"/>
+      <c r="EP71" s="1"/>
+      <c r="EQ71" s="1"/>
+      <c r="ER71" s="1"/>
+      <c r="ES71" s="1"/>
+      <c r="ET71" s="1"/>
+      <c r="EU71" s="1"/>
+      <c r="EV71" s="1"/>
+      <c r="EW71" s="1"/>
+      <c r="EX71" s="1"/>
+      <c r="EY71" s="1"/>
+      <c r="EZ71" s="1"/>
+      <c r="FA71" s="1"/>
+      <c r="FB71" s="1"/>
+      <c r="FC71" s="1"/>
+      <c r="FD71" s="1"/>
+      <c r="FE71" s="1"/>
+      <c r="FF71" s="1"/>
+      <c r="FG71" s="1"/>
+      <c r="FH71" s="1"/>
+      <c r="FI71" s="1"/>
+      <c r="FJ71" s="1"/>
+      <c r="FK71" s="1"/>
+      <c r="FL71" s="1"/>
+      <c r="FM71" s="1"/>
+      <c r="FN71" s="1"/>
+      <c r="FO71" s="1"/>
+      <c r="FP71" s="1"/>
+      <c r="FQ71" s="1"/>
+      <c r="FR71" s="1"/>
+      <c r="FS71" s="1"/>
+      <c r="FT71" s="1"/>
+      <c r="FU71" s="1"/>
+      <c r="FV71" s="1"/>
+      <c r="FW71" s="1"/>
+      <c r="FX71" s="1"/>
+      <c r="FY71" s="1"/>
+      <c r="FZ71" s="1"/>
+      <c r="GA71" s="1"/>
+      <c r="GB71" s="1"/>
+      <c r="GC71" s="1"/>
+      <c r="GD71" s="1"/>
+      <c r="GE71" s="1"/>
+      <c r="GF71" s="1"/>
+      <c r="GG71" s="1"/>
+      <c r="GH71" s="1"/>
+      <c r="GI71" s="1"/>
+      <c r="GJ71" s="1"/>
+      <c r="GK71" s="1"/>
+      <c r="GL71" s="1"/>
+      <c r="GM71" s="1"/>
+      <c r="GN71" s="1"/>
+      <c r="GO71" s="1"/>
+      <c r="GP71" s="1"/>
+      <c r="GQ71" s="1"/>
+      <c r="GR71" s="1"/>
+      <c r="GS71" s="1"/>
+      <c r="GT71" s="1"/>
+      <c r="GU71" s="1"/>
+      <c r="GV71" s="1"/>
+      <c r="GW71" s="1"/>
+      <c r="GX71" s="1"/>
+      <c r="GY71" s="1"/>
+      <c r="GZ71" s="1"/>
+      <c r="HA71" s="1"/>
+      <c r="HB71" s="1"/>
+      <c r="HC71" s="1"/>
+      <c r="HD71" s="1"/>
+      <c r="HE71" s="1"/>
+      <c r="HF71" s="1"/>
+      <c r="HG71" s="1"/>
+      <c r="HH71" s="1"/>
+      <c r="HI71" s="1"/>
+      <c r="HJ71" s="1"/>
+      <c r="HK71" s="1"/>
+      <c r="HL71" s="1"/>
+      <c r="HM71" s="1"/>
+      <c r="HN71" s="1"/>
+      <c r="HO71" s="1"/>
+      <c r="HP71" s="1"/>
+      <c r="HQ71" s="1"/>
+      <c r="HR71" s="1"/>
+      <c r="HS71" s="1"/>
+      <c r="HT71" s="1"/>
+      <c r="HU71" s="1"/>
+      <c r="HV71" s="1"/>
+      <c r="HW71" s="1"/>
+      <c r="HX71" s="1"/>
+      <c r="HY71" s="1"/>
+      <c r="HZ71" s="1"/>
+      <c r="IA71" s="1"/>
+      <c r="IB71" s="1"/>
+      <c r="IC71" s="1"/>
+      <c r="ID71" s="1"/>
+      <c r="IE71" s="1"/>
+      <c r="IF71" s="1"/>
+      <c r="IG71" s="1"/>
+      <c r="IH71" s="1"/>
+      <c r="II71" s="1"/>
+      <c r="IJ71" s="1"/>
+      <c r="IK71" s="1"/>
+      <c r="IL71" s="1"/>
+      <c r="IM71" s="1"/>
+      <c r="IN71" s="1"/>
+      <c r="IO71" s="1"/>
+      <c r="IP71" s="1"/>
+      <c r="IQ71" s="1"/>
+      <c r="IR71" s="1"/>
+      <c r="IS71" s="1"/>
+      <c r="IT71" s="1"/>
+      <c r="IU71" s="1"/>
+      <c r="IV71" s="1"/>
+      <c r="IW71" s="1"/>
+      <c r="IX71" s="1"/>
+      <c r="IY71" s="1"/>
+      <c r="IZ71" s="1"/>
+      <c r="JA71" s="1"/>
+      <c r="JB71" s="1"/>
+      <c r="JC71" s="1"/>
+      <c r="JD71" s="1"/>
+      <c r="JE71" s="1"/>
+      <c r="JF71" s="1"/>
+      <c r="JG71" s="1"/>
+      <c r="JH71" s="1"/>
+      <c r="JI71" s="1"/>
+      <c r="JJ71" s="1"/>
+      <c r="JK71" s="1"/>
+      <c r="JL71" s="1"/>
+      <c r="JM71" s="1"/>
+      <c r="JN71" s="1"/>
+      <c r="JO71" s="1"/>
+      <c r="JP71" s="1"/>
+      <c r="JQ71" s="1"/>
+      <c r="JR71" s="1"/>
+      <c r="JS71" s="1"/>
+      <c r="JT71" s="1"/>
+      <c r="JU71" s="1"/>
+      <c r="JV71" s="1"/>
+      <c r="JW71" s="1"/>
+      <c r="JX71" s="1"/>
+      <c r="JY71" s="1"/>
+      <c r="JZ71" s="1"/>
+      <c r="KA71" s="1"/>
+      <c r="KB71" s="1"/>
+    </row>
+    <row r="72" ht="15.5" spans="1:12">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:S54" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:S56" etc:filterBottomFollowUsedRange="0">
     <extLst>
       <etc:autoFilterAnalysis etc:version="v1" etc:showPane="0">
         <etc:analysisCharts>
@@ -23534,7 +24268,7 @@
     </extLst>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="G54" r:id="rId1" display="Cognitive, Affective, &amp; Behavioral Neuroscience" tooltip="https://link.springer.com/journal/13415"/>
+    <hyperlink ref="G56" r:id="rId1" display="Cognitive, Affective, &amp; Behavioral Neuroscience" tooltip="https://link.springer.com/journal/13415"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -23767,7 +24501,7 @@
         <v>2020</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E11" s="3">
         <v>2022</v>
@@ -23787,7 +24521,7 @@
         <v>2020</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E12" s="3">
         <v>2021</v>
@@ -23807,7 +24541,7 @@
         <v>2019</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E13" s="3">
         <v>2023</v>
@@ -23827,7 +24561,7 @@
         <v>2019</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E14" s="3">
         <v>2023</v>
@@ -23847,7 +24581,7 @@
         <v>2018</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E15" s="3">
         <v>2014</v>
@@ -23867,7 +24601,7 @@
         <v>2018</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E16" s="3">
         <v>2015</v>
@@ -23887,7 +24621,7 @@
         <v>2021</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E17" s="3">
         <v>2014</v>
@@ -23907,7 +24641,7 @@
         <v>2021</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E18" s="3">
         <v>2023</v>
@@ -23927,7 +24661,7 @@
         <v>2021</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E19" s="3">
         <v>2023</v>
@@ -23947,7 +24681,7 @@
         <v>2021</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="E20" s="3">
         <v>2021</v>
@@ -23961,19 +24695,19 @@
     </row>
     <row r="21" ht="15.5" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B21" s="1">
         <v>2022</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="E21" s="3">
         <v>2023</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="H21" s="1">
         <v>2022</v>
@@ -23981,19 +24715,19 @@
     </row>
     <row r="22" ht="15.5" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B22" s="1">
         <v>2022</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="E22" s="3">
         <v>2022</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="H22" s="1">
         <v>2022</v>
@@ -24001,19 +24735,19 @@
     </row>
     <row r="23" ht="15.5" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B23" s="1">
         <v>2022</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="E23" s="3">
         <v>2022</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="H23" s="1">
         <v>2022</v>
@@ -24021,19 +24755,19 @@
     </row>
     <row r="24" ht="15.5" hidden="1" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B24" s="1">
         <v>2021</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="E24" s="3">
         <v>2020</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="H24" s="1">
         <v>2021</v>
@@ -24041,19 +24775,19 @@
     </row>
     <row r="25" ht="15.5" hidden="1" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B25" s="1">
         <v>2023</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="E25" s="3">
         <v>2023</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="H25" s="1">
         <v>2023</v>
@@ -24061,19 +24795,19 @@
     </row>
     <row r="26" ht="15.5" hidden="1" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B26" s="1">
         <v>2023</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="H26" s="1">
         <v>2023</v>
@@ -24081,13 +24815,13 @@
     </row>
     <row r="27" ht="15.5" hidden="1" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B27" s="1">
         <v>2014</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="H27" s="1">
         <v>2014</v>
@@ -24095,13 +24829,13 @@
     </row>
     <row r="28" ht="15.5" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B28" s="1">
         <v>2015</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="H28" s="1">
         <v>2015</v>
@@ -24109,13 +24843,13 @@
     </row>
     <row r="29" ht="15.5" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B29" s="1">
         <v>2015</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="H29" s="1">
         <v>2015</v>
@@ -24123,13 +24857,13 @@
     </row>
     <row r="30" ht="15.5" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B30" s="1">
         <v>2014</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="H30" s="1">
         <v>2014</v>
@@ -24137,13 +24871,13 @@
     </row>
     <row r="31" ht="15.5" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B31" s="1">
         <v>2014</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="H31" s="1">
         <v>2014</v>
@@ -24151,13 +24885,13 @@
     </row>
     <row r="32" ht="15.5" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B32" s="1">
         <v>2014</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="H32" s="1">
         <v>2014</v>
@@ -24165,13 +24899,13 @@
     </row>
     <row r="33" ht="15.5" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B33" s="1">
         <v>2014</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="H33" s="1">
         <v>2014</v>
@@ -24179,13 +24913,13 @@
     </row>
     <row r="34" ht="15.5" hidden="1" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B34" s="1">
         <v>2023</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="H34" s="1">
         <v>2023</v>
@@ -24193,13 +24927,13 @@
     </row>
     <row r="35" ht="15.5" hidden="1" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B35" s="1">
         <v>2023</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="H35" s="1">
         <v>2023</v>
@@ -24207,13 +24941,13 @@
     </row>
     <row r="36" ht="15.5" hidden="1" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B36" s="1">
         <v>2021</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="H36" s="1">
         <v>2021</v>
@@ -24221,13 +24955,13 @@
     </row>
     <row r="37" ht="15.5" hidden="1" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="B37" s="1">
         <v>2023</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="H37" s="1">
         <v>2023</v>
@@ -24235,13 +24969,13 @@
     </row>
     <row r="38" ht="15.5" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B38" s="1">
         <v>2022</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="H38" s="1">
         <v>2022</v>
@@ -24249,13 +24983,13 @@
     </row>
     <row r="39" ht="15.5" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B39" s="1">
         <v>2022</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="H39" s="1">
         <v>2022</v>
@@ -24263,13 +24997,13 @@
     </row>
     <row r="40" ht="15.5" hidden="1" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B40" s="1">
         <v>2022</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="H40" s="1">
         <v>2022</v>
@@ -24277,13 +25011,13 @@
     </row>
     <row r="41" ht="15.5" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B41" s="1">
         <v>2020</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="H41" s="1">
         <v>2020</v>
@@ -24291,13 +25025,13 @@
     </row>
     <row r="42" ht="15.5" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B42" s="1">
         <v>2020</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="H42" s="1">
         <v>2020</v>
@@ -24305,13 +25039,13 @@
     </row>
     <row r="43" ht="15.5" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B43" s="1">
         <v>2020</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="H43" s="1">
         <v>2020</v>
@@ -24319,13 +25053,13 @@
     </row>
     <row r="44" ht="15.5" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B44" s="1">
         <v>2023</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="H44" s="1">
         <v>2023</v>
@@ -24333,13 +25067,13 @@
     </row>
     <row r="45" ht="15.5" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B45" s="1">
         <v>2023</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="H45" s="1">
         <v>2023</v>
@@ -24347,13 +25081,13 @@
     </row>
     <row r="46" ht="15.5" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B46" s="1">
         <v>2023</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="H46" s="1">
         <v>2023</v>
@@ -24361,13 +25095,13 @@
     </row>
     <row r="47" ht="15.5" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B47" s="1">
         <v>2021</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="H47" s="1">
         <v>2021</v>
@@ -24375,13 +25109,13 @@
     </row>
     <row r="48" ht="15.5" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B48" s="1">
         <v>2021</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="H48" s="1">
         <v>2021</v>
@@ -24389,13 +25123,13 @@
     </row>
     <row r="49" ht="15.5" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B49" s="1">
         <v>2021</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="H49" s="1">
         <v>2021</v>
@@ -24403,13 +25137,13 @@
     </row>
     <row r="50" ht="15.5" hidden="1" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B50" s="1">
         <v>2023</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="H50" s="1">
         <v>2023</v>
@@ -24417,13 +25151,13 @@
     </row>
     <row r="51" ht="15.5" hidden="1" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B51" s="1">
         <v>2024</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="H51" s="1">
         <v>2024</v>
@@ -24431,13 +25165,13 @@
     </row>
     <row r="52" ht="15.5" hidden="1" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B52" s="1">
         <v>2024</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="H52" s="1">
         <v>2024</v>

--- a/Label.xlsx
+++ b/Label.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="219">
   <si>
     <t>Note</t>
   </si>
@@ -364,6 +364,9 @@
   </si>
   <si>
     <t>Facial Gender: (Male, Female)</t>
+  </si>
+  <si>
+    <t>No Gender Data</t>
   </si>
   <si>
     <t>P95E2</t>
@@ -1883,11 +1886,11 @@
   <dimension ref="A1:KB72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y29" sqref="Y29:Z29"/>
+      <selection pane="bottomRight" activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1909,6 +1912,7 @@
     <col min="16" max="16" width="9" customWidth="1"/>
     <col min="17" max="17" width="41.6666666666667" customWidth="1"/>
     <col min="18" max="18" width="29" customWidth="1"/>
+    <col min="19" max="19" width="15.1666666666667" customWidth="1"/>
     <col min="20" max="20" width="13.25" customWidth="1"/>
     <col min="21" max="21" width="17.4166666666667" customWidth="1"/>
     <col min="22" max="22" width="8.66666666666667" customWidth="1"/>
@@ -6043,7 +6047,9 @@
         <v>93</v>
       </c>
       <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
+      <c r="S14" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="T14" s="7">
         <v>1</v>
       </c>
@@ -6336,7 +6342,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>90</v>
@@ -6382,7 +6388,9 @@
         <v>93</v>
       </c>
       <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
+      <c r="S15" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="T15" s="7">
         <v>1</v>
       </c>
@@ -6673,13 +6681,13 @@
         <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F16" s="1">
         <v>2021</v>
@@ -6716,7 +6724,7 @@
         <v>29</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
@@ -7006,13 +7014,13 @@
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F17" s="1">
         <v>2021</v>
@@ -7337,13 +7345,13 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F18" s="1">
         <v>2021</v>
@@ -7391,7 +7399,7 @@
         <v>66</v>
       </c>
       <c r="X18" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Y18" s="1">
         <v>3</v>
@@ -7668,13 +7676,13 @@
         <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F19" s="1">
         <v>2021</v>
@@ -7687,10 +7695,10 @@
         <v>2</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>45</v>
@@ -7722,7 +7730,7 @@
         <v>66</v>
       </c>
       <c r="X19" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Y19" s="1">
         <v>9</v>
@@ -7999,13 +8007,13 @@
         <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F20" s="1">
         <v>2021</v>
@@ -8021,7 +8029,7 @@
         <v>9</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>45</v>
@@ -8053,7 +8061,7 @@
         <v>66</v>
       </c>
       <c r="X20" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Y20" s="1">
         <v>12</v>
@@ -8330,13 +8338,13 @@
         <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F21" s="1">
         <v>2021</v>
@@ -8384,7 +8392,7 @@
         <v>66</v>
       </c>
       <c r="X21" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Y21" s="1">
         <v>9</v>
@@ -8661,19 +8669,19 @@
         <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F22" s="1">
         <v>2020</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H22" s="1">
         <v>1</v>
@@ -8994,19 +9002,19 @@
         <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F23" s="1">
         <v>2020</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H23" s="1">
         <v>2</v>
@@ -9327,19 +9335,19 @@
         <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F24" s="1">
         <v>2020</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H24" s="1">
         <v>3</v>
@@ -9660,19 +9668,19 @@
         <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F25" s="1">
         <v>2022</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H25" s="1">
         <v>1</v>
@@ -9987,19 +9995,19 @@
         <v>25</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F26" s="1">
         <v>2022</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H26" s="1">
         <v>2</v>
@@ -10026,7 +10034,7 @@
         <v>24</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
@@ -10316,19 +10324,19 @@
         <v>26</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F27" s="1">
         <v>2022</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H27" s="1">
         <v>3</v>
@@ -10355,7 +10363,7 @@
         <v>25</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
@@ -10645,19 +10653,19 @@
         <v>27</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F28" s="1">
         <v>2021</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H28" s="1">
         <v>1</v>
@@ -10686,7 +10694,7 @@
         <v>105</v>
       </c>
       <c r="Q28" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
@@ -10982,19 +10990,19 @@
         <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F29" s="1">
         <v>2023</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H29" s="1">
         <v>1</v>
@@ -11035,7 +11043,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="X29" s="1"/>
       <c r="Y29" s="1">
@@ -11311,16 +11319,16 @@
     </row>
     <row r="30" ht="15.5" spans="1:288">
       <c r="A30" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B30" s="1">
         <v>29</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>50</v>
@@ -11333,7 +11341,7 @@
         <v>1</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>9</v>
@@ -11356,11 +11364,11 @@
         <v>20</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="R30" s="1"/>
       <c r="S30" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="T30" s="7">
         <v>1</v>
@@ -11640,19 +11648,19 @@
     </row>
     <row r="31" ht="15.5" spans="1:288">
       <c r="A31" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B31" s="1">
         <v>30</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F31" s="1">
         <v>2014</v>
@@ -11662,7 +11670,7 @@
         <v>1</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>9</v>
@@ -11959,19 +11967,19 @@
     </row>
     <row r="32" ht="15.5" spans="1:288">
       <c r="A32" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B32" s="1">
         <v>31</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F32" s="1">
         <v>2015</v>
@@ -11981,7 +11989,7 @@
         <v>1</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>9</v>
@@ -12278,19 +12286,19 @@
     </row>
     <row r="33" ht="15.5" spans="1:288">
       <c r="A33" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B33" s="1">
         <v>32</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="E33" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F33" s="1">
         <v>2015</v>
@@ -12300,7 +12308,7 @@
         <v>2</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>9</v>
@@ -12597,25 +12605,25 @@
     </row>
     <row r="34" ht="15.5" spans="1:288">
       <c r="A34" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B34" s="1">
         <v>33</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F34" s="1">
         <v>2014</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H34" s="1">
         <v>1</v>
@@ -12627,7 +12635,7 @@
         <v>9</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>45</v>
@@ -12644,7 +12652,7 @@
         <v>24</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
@@ -12920,25 +12928,25 @@
     </row>
     <row r="35" ht="15.5" spans="1:288">
       <c r="A35" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B35" s="1">
         <v>34</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F35" s="1">
         <v>2014</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H35" s="1">
         <v>2</v>
@@ -12950,7 +12958,7 @@
         <v>9</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>45</v>
@@ -12967,7 +12975,7 @@
         <v>18</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
@@ -13243,25 +13251,25 @@
     </row>
     <row r="36" ht="15.5" spans="1:288">
       <c r="A36" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B36" s="1">
         <v>35</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F36" s="1">
         <v>2014</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H36" s="1">
         <v>3</v>
@@ -13273,7 +13281,7 @@
         <v>9</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>45</v>
@@ -13290,7 +13298,7 @@
         <v>22</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
@@ -13566,25 +13574,25 @@
     </row>
     <row r="37" ht="15.5" spans="1:288">
       <c r="A37" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B37" s="1">
         <v>36</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F37" s="1">
         <v>2014</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H37" s="1">
         <v>4</v>
@@ -13596,7 +13604,7 @@
         <v>9</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>45</v>
@@ -13613,7 +13621,7 @@
         <v>20</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
@@ -13893,19 +13901,19 @@
         <v>37</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F38" s="1">
         <v>2023</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H38" s="1">
         <v>1</v>
@@ -14218,19 +14226,19 @@
         <v>38</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F39" s="1">
         <v>2023</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H39" s="1">
         <v>1</v>
@@ -14545,13 +14553,13 @@
         <v>39</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F40" s="1">
         <v>2021</v>
@@ -14588,10 +14596,10 @@
         <v>108</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="S40" s="1"/>
       <c r="T40" s="1">
@@ -14874,25 +14882,25 @@
     </row>
     <row r="41" ht="15.5" spans="1:288">
       <c r="A41" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B41" s="1">
         <v>40</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F41" s="1">
         <v>2023</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H41" s="1">
         <v>1</v>
@@ -15207,19 +15215,19 @@
         <v>41</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F42" s="1">
         <v>2022</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H42" s="1">
         <v>1</v>
@@ -15248,7 +15256,7 @@
         <v>27</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
@@ -15528,19 +15536,19 @@
         <v>42</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F43" s="1">
         <v>2022</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H43" s="1">
         <v>2</v>
@@ -15569,7 +15577,7 @@
         <v>46</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
@@ -15845,25 +15853,25 @@
     </row>
     <row r="44" ht="15.5" spans="1:288">
       <c r="A44" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B44" s="1">
         <v>43</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F44" s="1">
         <v>2022</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H44" s="1">
         <v>1</v>
@@ -16174,10 +16182,10 @@
         <v>44</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>91</v>
@@ -16186,7 +16194,7 @@
         <v>2020</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H45" s="1">
         <v>1</v>
@@ -16493,10 +16501,10 @@
         <v>45</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>91</v>
@@ -16505,7 +16513,7 @@
         <v>2020</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H46" s="1">
         <v>1</v>
@@ -16814,10 +16822,10 @@
         <v>46</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>91</v>
@@ -16826,7 +16834,7 @@
         <v>2020</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H47" s="1">
         <v>1</v>
@@ -17133,19 +17141,19 @@
         <v>47</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F48" s="1">
         <v>2023</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H48" s="1">
         <v>1</v>
@@ -17446,19 +17454,19 @@
         <v>48</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F49" s="1">
         <v>2023</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H49" s="1">
         <v>2</v>
@@ -17752,19 +17760,19 @@
         <v>49</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F50" s="1">
         <v>2023</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H50" s="1">
         <v>3</v>
@@ -18058,19 +18066,19 @@
         <v>50</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F51" s="1">
         <v>2021</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H51" s="1">
         <v>1</v>
@@ -18364,19 +18372,19 @@
         <v>51</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F52" s="1">
         <v>2021</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H52" s="1">
         <v>2</v>
@@ -18670,19 +18678,19 @@
         <v>52</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F53" s="1">
         <v>2021</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H53" s="1">
         <v>3</v>
@@ -18976,19 +18984,19 @@
         <v>53</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F54" s="1">
         <v>2023</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H54" s="1">
         <v>1</v>
@@ -19282,19 +19290,19 @@
         <v>54</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F55" s="1">
         <v>2024</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H55" s="1">
         <v>1</v>
@@ -19588,19 +19596,19 @@
         <v>55</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F56" s="1">
         <v>2024</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H56" s="1">
         <v>1</v>
@@ -24461,7 +24469,7 @@
         <v>2021</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E9" s="3">
         <v>2021</v>
@@ -24481,7 +24489,7 @@
         <v>2020</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E10" s="3">
         <v>2021</v>
@@ -24501,7 +24509,7 @@
         <v>2020</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E11" s="3">
         <v>2022</v>
@@ -24521,7 +24529,7 @@
         <v>2020</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E12" s="3">
         <v>2021</v>
@@ -24541,7 +24549,7 @@
         <v>2019</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E13" s="3">
         <v>2023</v>
@@ -24561,7 +24569,7 @@
         <v>2019</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E14" s="3">
         <v>2023</v>
@@ -24581,7 +24589,7 @@
         <v>2018</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E15" s="3">
         <v>2014</v>
@@ -24601,7 +24609,7 @@
         <v>2018</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E16" s="3">
         <v>2015</v>
@@ -24615,19 +24623,19 @@
     </row>
     <row r="17" ht="15.5" hidden="1" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B17" s="1">
         <v>2021</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E17" s="3">
         <v>2014</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H17" s="1">
         <v>2021</v>
@@ -24635,19 +24643,19 @@
     </row>
     <row r="18" ht="15.5" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B18" s="1">
         <v>2021</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E18" s="3">
         <v>2023</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H18" s="1">
         <v>2021</v>
@@ -24655,19 +24663,19 @@
     </row>
     <row r="19" ht="15.5" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B19" s="1">
         <v>2021</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E19" s="3">
         <v>2023</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H19" s="1">
         <v>2021</v>
@@ -24675,19 +24683,19 @@
     </row>
     <row r="20" ht="15.5" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B20" s="1">
         <v>2021</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E20" s="3">
         <v>2021</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H20" s="1">
         <v>2021</v>
@@ -24695,19 +24703,19 @@
     </row>
     <row r="21" ht="15.5" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B21" s="1">
         <v>2022</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E21" s="3">
         <v>2023</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H21" s="1">
         <v>2022</v>
@@ -24715,19 +24723,19 @@
     </row>
     <row r="22" ht="15.5" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B22" s="1">
         <v>2022</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E22" s="3">
         <v>2022</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H22" s="1">
         <v>2022</v>
@@ -24735,19 +24743,19 @@
     </row>
     <row r="23" ht="15.5" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B23" s="1">
         <v>2022</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E23" s="3">
         <v>2022</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H23" s="1">
         <v>2022</v>
@@ -24755,19 +24763,19 @@
     </row>
     <row r="24" ht="15.5" hidden="1" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B24" s="1">
         <v>2021</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E24" s="3">
         <v>2020</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H24" s="1">
         <v>2021</v>
@@ -24775,19 +24783,19 @@
     </row>
     <row r="25" ht="15.5" hidden="1" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B25" s="1">
         <v>2023</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E25" s="3">
         <v>2023</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H25" s="1">
         <v>2023</v>
@@ -24795,19 +24803,19 @@
     </row>
     <row r="26" ht="15.5" hidden="1" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B26" s="1">
         <v>2023</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H26" s="1">
         <v>2023</v>
@@ -24815,13 +24823,13 @@
     </row>
     <row r="27" ht="15.5" hidden="1" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B27" s="1">
         <v>2014</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H27" s="1">
         <v>2014</v>
@@ -24829,13 +24837,13 @@
     </row>
     <row r="28" ht="15.5" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B28" s="1">
         <v>2015</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H28" s="1">
         <v>2015</v>
@@ -24843,13 +24851,13 @@
     </row>
     <row r="29" ht="15.5" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B29" s="1">
         <v>2015</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H29" s="1">
         <v>2015</v>
@@ -24857,13 +24865,13 @@
     </row>
     <row r="30" ht="15.5" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B30" s="1">
         <v>2014</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H30" s="1">
         <v>2014</v>
@@ -24871,13 +24879,13 @@
     </row>
     <row r="31" ht="15.5" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B31" s="1">
         <v>2014</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H31" s="1">
         <v>2014</v>
@@ -24885,13 +24893,13 @@
     </row>
     <row r="32" ht="15.5" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B32" s="1">
         <v>2014</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H32" s="1">
         <v>2014</v>
@@ -24899,13 +24907,13 @@
     </row>
     <row r="33" ht="15.5" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B33" s="1">
         <v>2014</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H33" s="1">
         <v>2014</v>
@@ -24913,13 +24921,13 @@
     </row>
     <row r="34" ht="15.5" hidden="1" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B34" s="1">
         <v>2023</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H34" s="1">
         <v>2023</v>
@@ -24927,13 +24935,13 @@
     </row>
     <row r="35" ht="15.5" hidden="1" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B35" s="1">
         <v>2023</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H35" s="1">
         <v>2023</v>
@@ -24941,13 +24949,13 @@
     </row>
     <row r="36" ht="15.5" hidden="1" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B36" s="1">
         <v>2021</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H36" s="1">
         <v>2021</v>
@@ -24955,13 +24963,13 @@
     </row>
     <row r="37" ht="15.5" hidden="1" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B37" s="1">
         <v>2023</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H37" s="1">
         <v>2023</v>
@@ -24969,13 +24977,13 @@
     </row>
     <row r="38" ht="15.5" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B38" s="1">
         <v>2022</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H38" s="1">
         <v>2022</v>
@@ -24983,13 +24991,13 @@
     </row>
     <row r="39" ht="15.5" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B39" s="1">
         <v>2022</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H39" s="1">
         <v>2022</v>
@@ -24997,13 +25005,13 @@
     </row>
     <row r="40" ht="15.5" hidden="1" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B40" s="1">
         <v>2022</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H40" s="1">
         <v>2022</v>
@@ -25011,13 +25019,13 @@
     </row>
     <row r="41" ht="15.5" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B41" s="1">
         <v>2020</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H41" s="1">
         <v>2020</v>
@@ -25025,13 +25033,13 @@
     </row>
     <row r="42" ht="15.5" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B42" s="1">
         <v>2020</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H42" s="1">
         <v>2020</v>
@@ -25039,13 +25047,13 @@
     </row>
     <row r="43" ht="15.5" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B43" s="1">
         <v>2020</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H43" s="1">
         <v>2020</v>
@@ -25053,13 +25061,13 @@
     </row>
     <row r="44" ht="15.5" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B44" s="1">
         <v>2023</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H44" s="1">
         <v>2023</v>
@@ -25067,13 +25075,13 @@
     </row>
     <row r="45" ht="15.5" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B45" s="1">
         <v>2023</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H45" s="1">
         <v>2023</v>
@@ -25081,13 +25089,13 @@
     </row>
     <row r="46" ht="15.5" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B46" s="1">
         <v>2023</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H46" s="1">
         <v>2023</v>
@@ -25095,13 +25103,13 @@
     </row>
     <row r="47" ht="15.5" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B47" s="1">
         <v>2021</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H47" s="1">
         <v>2021</v>
@@ -25109,13 +25117,13 @@
     </row>
     <row r="48" ht="15.5" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B48" s="1">
         <v>2021</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H48" s="1">
         <v>2021</v>
@@ -25123,13 +25131,13 @@
     </row>
     <row r="49" ht="15.5" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B49" s="1">
         <v>2021</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H49" s="1">
         <v>2021</v>
@@ -25137,13 +25145,13 @@
     </row>
     <row r="50" ht="15.5" hidden="1" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B50" s="1">
         <v>2023</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H50" s="1">
         <v>2023</v>
@@ -25151,13 +25159,13 @@
     </row>
     <row r="51" ht="15.5" hidden="1" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B51" s="1">
         <v>2024</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H51" s="1">
         <v>2024</v>
@@ -25165,13 +25173,13 @@
     </row>
     <row r="52" ht="15.5" hidden="1" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B52" s="1">
         <v>2024</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H52" s="1">
         <v>2024</v>

--- a/Label.xlsx
+++ b/Label.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="219">
   <si>
     <t>Note</t>
   </si>
@@ -1886,11 +1886,11 @@
   <dimension ref="A1:KB72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S14" sqref="S14"/>
+      <selection pane="bottomRight" activeCell="U29" sqref="U29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -4043,6 +4043,7 @@
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1">
+        <f t="shared" ref="P8:P48" si="1">M8-O8</f>
         <v>31</v>
       </c>
       <c r="R8" s="1"/>
@@ -4372,6 +4373,7 @@
         <v>7</v>
       </c>
       <c r="P9" s="1">
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="Q9" s="9" t="s">
@@ -4704,7 +4706,7 @@
         <v>1</v>
       </c>
       <c r="P10" s="1">
-        <f t="shared" ref="P10:P24" si="1">M10-O10</f>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="Q10" s="1"/>
@@ -9703,7 +9705,7 @@
       </c>
       <c r="O25" s="1"/>
       <c r="P25" s="1">
-        <f t="shared" ref="P25:P48" si="2">M25-O25</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="Q25" s="1"/>
@@ -10030,7 +10032,7 @@
       </c>
       <c r="O26" s="1"/>
       <c r="P26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="Q26" s="1" t="s">
@@ -10359,7 +10361,7 @@
       </c>
       <c r="O27" s="1"/>
       <c r="P27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="Q27" s="1" t="s">
@@ -10690,7 +10692,7 @@
       </c>
       <c r="O28" s="1"/>
       <c r="P28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>105</v>
       </c>
       <c r="Q28" s="10" t="s">
@@ -11027,7 +11029,7 @@
         <v>3</v>
       </c>
       <c r="P29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>299</v>
       </c>
       <c r="Q29" s="1"/>
@@ -11036,8 +11038,8 @@
       <c r="T29" s="7">
         <v>1</v>
       </c>
-      <c r="U29" t="s">
-        <v>86</v>
+      <c r="U29" s="8">
+        <v>0</v>
       </c>
       <c r="V29" s="8">
         <v>0</v>
@@ -11360,7 +11362,7 @@
         <v>3</v>
       </c>
       <c r="P30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="Q30" s="1" t="s">
@@ -11689,7 +11691,7 @@
       </c>
       <c r="O31" s="1"/>
       <c r="P31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="Q31" s="1"/>
@@ -12008,7 +12010,7 @@
       </c>
       <c r="O32" s="1"/>
       <c r="P32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="Q32" s="1"/>
@@ -12327,7 +12329,7 @@
       </c>
       <c r="O33" s="1"/>
       <c r="P33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="Q33" s="1"/>
@@ -12648,7 +12650,7 @@
       </c>
       <c r="O34" s="1"/>
       <c r="P34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="Q34" s="1" t="s">
@@ -12971,7 +12973,7 @@
       </c>
       <c r="O35" s="1"/>
       <c r="P35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="Q35" s="1" t="s">
@@ -13294,7 +13296,7 @@
       </c>
       <c r="O36" s="1"/>
       <c r="P36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="Q36" s="1" t="s">
@@ -13617,7 +13619,7 @@
       </c>
       <c r="O37" s="1"/>
       <c r="P37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="Q37" s="1" t="s">
@@ -13936,7 +13938,7 @@
       </c>
       <c r="O38" s="1"/>
       <c r="P38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="Q38" s="1"/>
@@ -14265,7 +14267,7 @@
         <v>2</v>
       </c>
       <c r="P39" s="1">
-        <f t="shared" ref="P39:P48" si="3">M39-O39</f>
+        <f t="shared" si="1"/>
         <v>142</v>
       </c>
       <c r="Q39" s="1"/>
@@ -14592,7 +14594,7 @@
         <v>1</v>
       </c>
       <c r="P40" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>108</v>
       </c>
       <c r="Q40" s="1" t="s">
@@ -14925,7 +14927,7 @@
         <v>1</v>
       </c>
       <c r="P41" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="Q41" s="1"/>
@@ -15252,7 +15254,7 @@
         <v>3</v>
       </c>
       <c r="P42" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="Q42" s="1" t="s">
@@ -15573,7 +15575,7 @@
         <v>2</v>
       </c>
       <c r="P43" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="Q43" s="1" t="s">
@@ -15898,7 +15900,7 @@
         <v>40</v>
       </c>
       <c r="P44" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>288</v>
       </c>
       <c r="Q44" s="1"/>
@@ -16219,7 +16221,7 @@
       </c>
       <c r="O45" s="1"/>
       <c r="P45" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="Q45" s="1"/>
@@ -16540,7 +16542,7 @@
         <v>3</v>
       </c>
       <c r="P46" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="Q46" s="1"/>
@@ -16859,7 +16861,7 @@
       </c>
       <c r="O47" s="1"/>
       <c r="P47" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="Q47" s="1"/>
@@ -17172,7 +17174,7 @@
         <v>32</v>
       </c>
       <c r="P48" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>348</v>
       </c>
       <c r="Q48" s="1"/>
@@ -24290,7 +24292,7 @@
   <dimension ref="A1:H68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="E2" sqref="E2:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelCol="7"/>

--- a/Label.xlsx
+++ b/Label.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="220">
   <si>
     <t>Note</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Female</t>
+  </si>
+  <si>
+    <t>No Gender Data</t>
   </si>
   <si>
     <t>Pair Number</t>
@@ -366,9 +369,6 @@
     <t>Facial Gender: (Male, Female)</t>
   </si>
   <si>
-    <t>No Gender Data</t>
-  </si>
-  <si>
     <t>P95E2</t>
   </si>
   <si>
@@ -412,6 +412,9 @@
       </rPr>
       <t>, Blocked)</t>
     </r>
+  </si>
+  <si>
+    <t>Pn4E2</t>
   </si>
   <si>
     <t>Pn13E1</t>
@@ -1886,11 +1889,11 @@
   <dimension ref="A1:KB72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="U8" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U29" sqref="U29"/>
+      <selection pane="bottomRight" activeCell="AE20" sqref="AE20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1918,9 +1921,10 @@
     <col min="22" max="22" width="8.66666666666667" customWidth="1"/>
     <col min="23" max="23" width="23.8333333333333" style="4" customWidth="1"/>
     <col min="24" max="24" width="14.5" customWidth="1"/>
+    <col min="27" max="27" width="15.1666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.5" spans="1:26">
+    <row r="1" ht="15.5" spans="1:27">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1998,29 +2002,32 @@
       </c>
       <c r="Z1" t="s">
         <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:288">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F2" s="1">
         <v>2019</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H2" s="1">
         <v>1</v>
@@ -2032,10 +2039,10 @@
         <v>9</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M2" s="1">
         <v>28</v>
@@ -2045,7 +2052,7 @@
       </c>
       <c r="O2" s="1"/>
       <c r="P2" s="1">
-        <f t="shared" ref="P2:P7" si="0">M2-O2</f>
+        <f t="shared" ref="P2:P9" si="0">M2-O2</f>
         <v>28</v>
       </c>
       <c r="Q2" s="1"/>
@@ -2062,7 +2069,7 @@
       </c>
       <c r="W2" s="1"/>
       <c r="X2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Y2" s="1">
         <v>12</v>
@@ -2335,25 +2342,25 @@
     </row>
     <row r="3" ht="15.5" spans="1:288">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F3" s="1">
         <v>2019</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H3" s="1">
         <v>2</v>
@@ -2365,10 +2372,10 @@
         <v>9</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M3" s="1">
         <v>28</v>
@@ -2395,7 +2402,7 @@
       </c>
       <c r="W3" s="1"/>
       <c r="X3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Y3" s="1">
         <v>6</v>
@@ -2668,25 +2675,25 @@
     </row>
     <row r="4" ht="15.5" spans="1:288">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F4" s="1">
         <v>2019</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H4" s="1">
         <v>3</v>
@@ -2698,10 +2705,10 @@
         <v>9</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M4" s="1">
         <v>28</v>
@@ -2728,7 +2735,7 @@
       </c>
       <c r="W4" s="1"/>
       <c r="X4" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Y4" s="1">
         <v>8</v>
@@ -3001,25 +3008,25 @@
     </row>
     <row r="5" ht="15.5" spans="1:288">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F5" s="1">
         <v>2019</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H5" s="1">
         <v>4</v>
@@ -3028,13 +3035,13 @@
         <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M5" s="1">
         <v>40</v>
@@ -3061,7 +3068,7 @@
       </c>
       <c r="W5" s="1"/>
       <c r="X5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Y5" s="1">
         <v>14</v>
@@ -3334,25 +3341,25 @@
     </row>
     <row r="6" ht="15.5" spans="1:288">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F6" s="1">
         <v>2020</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H6" s="1">
         <v>1</v>
@@ -3364,10 +3371,10 @@
         <v>9</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M6" s="1">
         <v>92</v>
@@ -3381,10 +3388,10 @@
         <v>92</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S6" s="1"/>
       <c r="T6" s="7">
@@ -3398,7 +3405,7 @@
       </c>
       <c r="W6" s="1"/>
       <c r="X6" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Y6" s="1">
         <v>19</v>
@@ -3406,7 +3413,9 @@
       <c r="Z6" s="1">
         <v>79</v>
       </c>
-      <c r="AA6" s="1"/>
+      <c r="AA6" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
@@ -3675,19 +3684,19 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F7" s="1">
         <v>2020</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H7" s="1">
         <v>1</v>
@@ -3700,7 +3709,7 @@
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M7" s="1">
         <v>46</v>
@@ -3726,10 +3735,10 @@
         <v>0</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y7" s="1">
         <v>19</v>
@@ -4006,19 +4015,19 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F8" s="1">
         <v>2020</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H8" s="1">
         <v>1</v>
@@ -4030,10 +4039,10 @@
         <v>9</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="1">
         <v>31</v>
@@ -4043,7 +4052,7 @@
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1">
-        <f t="shared" ref="P8:P48" si="1">M8-O8</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="R8" s="1"/>
@@ -4059,7 +4068,7 @@
       </c>
       <c r="W8" s="1"/>
       <c r="X8" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y8" s="1">
         <v>14</v>
@@ -4336,19 +4345,19 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F9" s="1">
         <v>2021</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H9" s="1">
         <v>1</v>
@@ -4361,7 +4370,7 @@
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M9" s="1">
         <v>40</v>
@@ -4373,11 +4382,11 @@
         <v>7</v>
       </c>
       <c r="P9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
@@ -4391,7 +4400,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="X9" s="1"/>
       <c r="Y9" s="1">
@@ -4669,19 +4678,19 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" s="1">
         <v>2020</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H10" s="1">
         <v>2</v>
@@ -4694,7 +4703,7 @@
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M10" s="1">
         <v>56</v>
@@ -4706,7 +4715,7 @@
         <v>1</v>
       </c>
       <c r="P10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="P10:P48" si="1">M10-O10</f>
         <v>55</v>
       </c>
       <c r="Q10" s="1"/>
@@ -4723,7 +4732,7 @@
       </c>
       <c r="W10" s="1"/>
       <c r="X10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y10" s="1">
         <v>28</v>
@@ -4996,25 +5005,25 @@
     </row>
     <row r="11" ht="15.5" spans="1:288">
       <c r="A11" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B11" s="1">
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F11" s="1">
         <v>2020</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H11" s="1">
         <v>1</v>
@@ -5027,7 +5036,7 @@
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M11" s="1">
         <v>26</v>
@@ -5041,7 +5050,7 @@
         <v>26</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
@@ -5055,10 +5064,10 @@
         <v>0</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y11" s="1">
         <v>10</v>
@@ -5335,19 +5344,19 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F12" s="1">
         <v>2020</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H12" s="1">
         <v>2</v>
@@ -5360,7 +5369,7 @@
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M12" s="1">
         <v>26</v>
@@ -5374,7 +5383,7 @@
         <v>26</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
@@ -5388,10 +5397,10 @@
         <v>0</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y12" s="1">
         <v>7</v>
@@ -5668,19 +5677,19 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F13" s="1">
         <v>2019</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H13" s="1">
         <v>1</v>
@@ -5692,10 +5701,10 @@
         <v>9</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M13" s="1">
         <v>103</v>
@@ -5715,16 +5724,16 @@
         <v>1</v>
       </c>
       <c r="U13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V13" s="8">
         <v>0</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Y13" s="1">
         <v>13</v>
@@ -5997,25 +6006,25 @@
     </row>
     <row r="14" ht="15.5" spans="1:288">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B14" s="1">
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F14" s="1">
         <v>2018</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H14" s="1">
         <v>1</v>
@@ -6027,10 +6036,10 @@
         <v>9</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M14" s="1">
         <v>19</v>
@@ -6046,11 +6055,11 @@
         <v>18</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="R14" s="1"/>
       <c r="S14" s="1" t="s">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="T14" s="7">
         <v>1</v>
@@ -6062,10 +6071,10 @@
         <v>1</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y14" s="1">
         <v>9</v>
@@ -6073,7 +6082,9 @@
       <c r="Z14" s="1">
         <v>9</v>
       </c>
-      <c r="AA14" s="1"/>
+      <c r="AA14" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
@@ -6338,7 +6349,7 @@
     </row>
     <row r="15" ht="15.5" spans="1:288">
       <c r="A15" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B15" s="1">
         <v>14</v>
@@ -6347,16 +6358,16 @@
         <v>95</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F15" s="1">
         <v>2018</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H15" s="1">
         <v>2</v>
@@ -6368,10 +6379,10 @@
         <v>9</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M15" s="1">
         <v>20</v>
@@ -6387,11 +6398,11 @@
         <v>18</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="R15" s="1"/>
       <c r="S15" s="1" t="s">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="T15" s="7">
         <v>1</v>
@@ -6403,10 +6414,10 @@
         <v>1</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y15" s="1">
         <v>9</v>
@@ -6414,7 +6425,9 @@
       <c r="Z15" s="1">
         <v>9</v>
       </c>
-      <c r="AA15" s="1"/>
+      <c r="AA15" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
@@ -6695,7 +6708,7 @@
         <v>2021</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H16" s="1">
         <v>1</v>
@@ -6707,10 +6720,10 @@
         <v>9</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M16" s="1">
         <v>30</v>
@@ -6747,7 +6760,9 @@
       <c r="Z16" s="1">
         <v>21</v>
       </c>
-      <c r="AA16" s="1"/>
+      <c r="AA16" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
@@ -7016,7 +7031,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>97</v>
@@ -7028,7 +7043,7 @@
         <v>2021</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H17" s="1">
         <v>2</v>
@@ -7040,10 +7055,10 @@
         <v>9</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M17" s="1">
         <v>30</v>
@@ -7078,7 +7093,9 @@
       <c r="Z17" s="1">
         <v>17</v>
       </c>
-      <c r="AA17" s="1"/>
+      <c r="AA17" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
@@ -7347,13 +7364,13 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F18" s="1">
         <v>2021</v>
@@ -7369,10 +7386,10 @@
         <v>9</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M18" s="1">
         <v>13</v>
@@ -7398,10 +7415,10 @@
         <v>0</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="X18" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Y18" s="1">
         <v>3</v>
@@ -7678,13 +7695,13 @@
         <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F19" s="1">
         <v>2021</v>
@@ -7697,13 +7714,13 @@
         <v>2</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M19" s="1">
         <v>27</v>
@@ -7729,10 +7746,10 @@
         <v>0</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="X19" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Y19" s="1">
         <v>9</v>
@@ -8009,13 +8026,13 @@
         <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F20" s="1">
         <v>2021</v>
@@ -8031,10 +8048,10 @@
         <v>9</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M20" s="1">
         <v>27</v>
@@ -8060,10 +8077,10 @@
         <v>0</v>
       </c>
       <c r="W20" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="X20" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Y20" s="1">
         <v>12</v>
@@ -8340,13 +8357,13 @@
         <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F21" s="1">
         <v>2021</v>
@@ -8362,10 +8379,10 @@
         <v>9</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M21" s="1">
         <v>26</v>
@@ -8391,10 +8408,10 @@
         <v>0</v>
       </c>
       <c r="W21" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="X21" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Y21" s="1">
         <v>9</v>
@@ -8671,19 +8688,19 @@
         <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F22" s="1">
         <v>2020</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H22" s="1">
         <v>1</v>
@@ -8696,7 +8713,7 @@
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M22" s="1">
         <v>38</v>
@@ -8724,10 +8741,10 @@
         <v>0</v>
       </c>
       <c r="W22" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="X22" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Y22" s="1">
         <v>9</v>
@@ -9004,19 +9021,19 @@
         <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F23" s="1">
         <v>2020</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H23" s="1">
         <v>2</v>
@@ -9029,7 +9046,7 @@
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M23" s="1">
         <v>33</v>
@@ -9057,10 +9074,10 @@
         <v>0</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="X23" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Y23" s="1">
         <v>7</v>
@@ -9337,19 +9354,19 @@
         <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F24" s="1">
         <v>2020</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H24" s="1">
         <v>3</v>
@@ -9362,7 +9379,7 @@
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M24" s="1">
         <v>36</v>
@@ -9390,10 +9407,10 @@
         <v>0</v>
       </c>
       <c r="W24" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="X24" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Y24" s="1">
         <v>7</v>
@@ -9670,19 +9687,19 @@
         <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F25" s="1">
         <v>2022</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H25" s="1">
         <v>1</v>
@@ -9694,7 +9711,7 @@
         <v>9</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1">
@@ -9997,19 +10014,19 @@
         <v>25</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F26" s="1">
         <v>2022</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H26" s="1">
         <v>2</v>
@@ -10021,7 +10038,7 @@
         <v>9</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1">
@@ -10036,7 +10053,7 @@
         <v>24</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
@@ -10326,19 +10343,19 @@
         <v>26</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F27" s="1">
         <v>2022</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H27" s="1">
         <v>3</v>
@@ -10350,7 +10367,7 @@
         <v>9</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1">
@@ -10365,7 +10382,7 @@
         <v>25</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
@@ -10655,19 +10672,19 @@
         <v>27</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F28" s="1">
         <v>2021</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H28" s="1">
         <v>1</v>
@@ -10679,10 +10696,10 @@
         <v>9</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M28" s="1">
         <v>105</v>
@@ -10696,7 +10713,7 @@
         <v>105</v>
       </c>
       <c r="Q28" s="10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
@@ -10710,10 +10727,10 @@
         <v>0</v>
       </c>
       <c r="W28" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="X28" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y28" s="1">
         <v>51</v>
@@ -10986,25 +11003,25 @@
     </row>
     <row r="29" ht="15.5" spans="1:288">
       <c r="A29" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B29" s="1">
         <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F29" s="1">
         <v>2023</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H29" s="1">
         <v>1</v>
@@ -11017,7 +11034,7 @@
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M29" s="1">
         <v>302</v>
@@ -11045,7 +11062,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="X29" s="1"/>
       <c r="Y29" s="1">
@@ -11321,19 +11338,19 @@
     </row>
     <row r="30" ht="15.5" spans="1:288">
       <c r="A30" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B30" s="1">
         <v>29</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F30" s="1">
         <v>2023</v>
@@ -11343,14 +11360,14 @@
         <v>1</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M30" s="1">
         <v>23</v>
@@ -11366,11 +11383,11 @@
         <v>20</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="R30" s="1"/>
       <c r="S30" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="T30" s="7">
         <v>1</v>
@@ -11650,19 +11667,19 @@
     </row>
     <row r="31" ht="15.5" spans="1:288">
       <c r="A31" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B31" s="1">
         <v>30</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F31" s="1">
         <v>2014</v>
@@ -11672,16 +11689,16 @@
         <v>1</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M31" s="1">
         <v>24</v>
@@ -11969,19 +11986,19 @@
     </row>
     <row r="32" ht="15.5" spans="1:288">
       <c r="A32" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B32" s="1">
         <v>31</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F32" s="1">
         <v>2015</v>
@@ -11991,16 +12008,16 @@
         <v>1</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M32" s="1">
         <v>20</v>
@@ -12288,19 +12305,19 @@
     </row>
     <row r="33" ht="15.5" spans="1:288">
       <c r="A33" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B33" s="1">
         <v>32</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="E33" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F33" s="1">
         <v>2015</v>
@@ -12310,16 +12327,16 @@
         <v>2</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M33" s="1">
         <v>21</v>
@@ -12607,25 +12624,25 @@
     </row>
     <row r="34" ht="15.5" spans="1:288">
       <c r="A34" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B34" s="1">
         <v>33</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F34" s="1">
         <v>2014</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H34" s="1">
         <v>1</v>
@@ -12637,10 +12654,10 @@
         <v>9</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M34" s="1">
         <v>24</v>
@@ -12654,7 +12671,7 @@
         <v>24</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
@@ -12930,25 +12947,25 @@
     </row>
     <row r="35" ht="15.5" spans="1:288">
       <c r="A35" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B35" s="1">
         <v>34</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F35" s="1">
         <v>2014</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H35" s="1">
         <v>2</v>
@@ -12960,10 +12977,10 @@
         <v>9</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M35" s="1">
         <v>18</v>
@@ -12977,7 +12994,7 @@
         <v>18</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
@@ -13253,25 +13270,25 @@
     </row>
     <row r="36" ht="15.5" spans="1:288">
       <c r="A36" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B36" s="1">
         <v>35</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F36" s="1">
         <v>2014</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H36" s="1">
         <v>3</v>
@@ -13283,10 +13300,10 @@
         <v>9</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M36" s="1">
         <v>22</v>
@@ -13300,7 +13317,7 @@
         <v>22</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
@@ -13576,25 +13593,25 @@
     </row>
     <row r="37" ht="15.5" spans="1:288">
       <c r="A37" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B37" s="1">
         <v>36</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F37" s="1">
         <v>2014</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H37" s="1">
         <v>4</v>
@@ -13606,10 +13623,10 @@
         <v>9</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M37" s="1">
         <v>20</v>
@@ -13623,7 +13640,7 @@
         <v>20</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
@@ -13903,19 +13920,19 @@
         <v>37</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F38" s="1">
         <v>2023</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H38" s="1">
         <v>1</v>
@@ -13928,7 +13945,7 @@
       </c>
       <c r="K38" s="1"/>
       <c r="L38" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M38" s="1">
         <v>40</v>
@@ -13954,7 +13971,7 @@
         <v>1</v>
       </c>
       <c r="W38" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
@@ -14228,19 +14245,19 @@
         <v>38</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F39" s="1">
         <v>2023</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H39" s="1">
         <v>1</v>
@@ -14252,10 +14269,10 @@
         <v>9</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M39" s="1">
         <v>144</v>
@@ -14555,19 +14572,19 @@
         <v>39</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F40" s="1">
         <v>2021</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H40" s="1">
         <v>1</v>
@@ -14579,10 +14596,10 @@
         <v>9</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M40" s="1">
         <v>109</v>
@@ -14598,10 +14615,10 @@
         <v>108</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S40" s="1"/>
       <c r="T40" s="1">
@@ -14614,7 +14631,7 @@
         <v>0</v>
       </c>
       <c r="W40" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
@@ -14884,25 +14901,25 @@
     </row>
     <row r="41" ht="15.5" spans="1:288">
       <c r="A41" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B41" s="1">
         <v>40</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F41" s="1">
         <v>2023</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H41" s="1">
         <v>1</v>
@@ -14914,7 +14931,7 @@
         <v>9</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1">
@@ -14943,7 +14960,7 @@
         <v>0</v>
       </c>
       <c r="W41" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
@@ -15217,19 +15234,19 @@
         <v>41</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F42" s="1">
         <v>2022</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H42" s="1">
         <v>1</v>
@@ -15242,7 +15259,7 @@
       </c>
       <c r="K42" s="1"/>
       <c r="L42" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M42" s="1">
         <v>30</v>
@@ -15258,7 +15275,7 @@
         <v>27</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
@@ -15538,19 +15555,19 @@
         <v>42</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F43" s="1">
         <v>2022</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H43" s="1">
         <v>2</v>
@@ -15563,7 +15580,7 @@
       </c>
       <c r="K43" s="1"/>
       <c r="L43" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M43" s="1">
         <v>48</v>
@@ -15579,7 +15596,7 @@
         <v>46</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
@@ -15855,25 +15872,25 @@
     </row>
     <row r="44" ht="15.5" spans="1:288">
       <c r="A44" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B44" s="1">
         <v>43</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F44" s="1">
         <v>2022</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H44" s="1">
         <v>1</v>
@@ -15885,10 +15902,10 @@
         <v>9</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M44" s="1">
         <v>328</v>
@@ -15910,7 +15927,7 @@
       <c r="U44" s="1"/>
       <c r="V44" s="1"/>
       <c r="W44" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
@@ -16184,19 +16201,19 @@
         <v>44</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F45" s="1">
         <v>2020</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H45" s="1">
         <v>1</v>
@@ -16208,10 +16225,10 @@
         <v>9</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M45" s="1">
         <v>23</v>
@@ -16503,19 +16520,19 @@
         <v>45</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="E46" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F46" s="1">
         <v>2020</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H46" s="1">
         <v>1</v>
@@ -16527,10 +16544,10 @@
         <v>9</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M46" s="1">
         <v>21</v>
@@ -16824,19 +16841,19 @@
         <v>46</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F47" s="1">
         <v>2020</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H47" s="1">
         <v>1</v>
@@ -16848,10 +16865,10 @@
         <v>9</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M47" s="1">
         <v>18</v>
@@ -17143,19 +17160,19 @@
         <v>47</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F48" s="1">
         <v>2023</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H48" s="1">
         <v>1</v>
@@ -17456,19 +17473,19 @@
         <v>48</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F49" s="1">
         <v>2023</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H49" s="1">
         <v>2</v>
@@ -17762,19 +17779,19 @@
         <v>49</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F50" s="1">
         <v>2023</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H50" s="1">
         <v>3</v>
@@ -18068,19 +18085,19 @@
         <v>50</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F51" s="1">
         <v>2021</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H51" s="1">
         <v>1</v>
@@ -18374,19 +18391,19 @@
         <v>51</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F52" s="1">
         <v>2021</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H52" s="1">
         <v>2</v>
@@ -18680,19 +18697,19 @@
         <v>52</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F53" s="1">
         <v>2021</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H53" s="1">
         <v>3</v>
@@ -18986,19 +19003,19 @@
         <v>53</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F54" s="1">
         <v>2023</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H54" s="1">
         <v>1</v>
@@ -19292,19 +19309,19 @@
         <v>54</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F55" s="1">
         <v>2024</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H55" s="1">
         <v>1</v>
@@ -19598,19 +19615,19 @@
         <v>55</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F56" s="1">
         <v>2024</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H56" s="1">
         <v>1</v>
@@ -24325,19 +24342,19 @@
     </row>
     <row r="2" ht="15.5" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" s="1">
         <v>2019</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2" s="3">
         <v>2019</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H2" s="1">
         <v>2019</v>
@@ -24345,19 +24362,19 @@
     </row>
     <row r="3" ht="15.5" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" s="1">
         <v>2019</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E3" s="3">
         <v>2020</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H3" s="1">
         <v>2019</v>
@@ -24365,19 +24382,19 @@
     </row>
     <row r="4" ht="15.5" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1">
         <v>2019</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E4" s="3">
         <v>2020</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H4" s="1">
         <v>2019</v>
@@ -24385,19 +24402,19 @@
     </row>
     <row r="5" ht="15.5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1">
         <v>2019</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E5" s="3">
         <v>2020</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H5" s="1">
         <v>2019</v>
@@ -24405,19 +24422,19 @@
     </row>
     <row r="6" ht="15.5" hidden="1" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B6" s="1">
         <v>2020</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E6" s="3">
         <v>2020</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H6" s="1">
         <v>2020</v>
@@ -24425,19 +24442,19 @@
     </row>
     <row r="7" ht="15.5" hidden="1" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B7" s="1">
         <v>2020</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E7" s="3">
         <v>2019</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H7" s="1">
         <v>2020</v>
@@ -24445,19 +24462,19 @@
     </row>
     <row r="8" ht="15.5" hidden="1" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B8" s="1">
         <v>2020</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E8" s="3">
         <v>2018</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H8" s="1">
         <v>2020</v>
@@ -24465,7 +24482,7 @@
     </row>
     <row r="9" ht="15.5" hidden="1" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B9" s="1">
         <v>2021</v>
@@ -24477,7 +24494,7 @@
         <v>2021</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H9" s="1">
         <v>2021</v>
@@ -24485,19 +24502,19 @@
     </row>
     <row r="10" ht="15.5" hidden="1" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B10" s="1">
         <v>2020</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E10" s="3">
         <v>2021</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H10" s="1">
         <v>2020</v>
@@ -24505,19 +24522,19 @@
     </row>
     <row r="11" ht="15.5" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B11" s="1">
         <v>2020</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E11" s="3">
         <v>2022</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H11" s="1">
         <v>2020</v>
@@ -24525,19 +24542,19 @@
     </row>
     <row r="12" ht="15.5" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B12" s="1">
         <v>2020</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E12" s="3">
         <v>2021</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H12" s="1">
         <v>2020</v>
@@ -24545,19 +24562,19 @@
     </row>
     <row r="13" ht="15.5" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B13" s="1">
         <v>2019</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E13" s="3">
         <v>2023</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H13" s="1">
         <v>2019</v>
@@ -24565,19 +24582,19 @@
     </row>
     <row r="14" ht="15.5" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B14" s="1">
         <v>2019</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E14" s="3">
         <v>2023</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H14" s="1">
         <v>2019</v>
@@ -24585,19 +24602,19 @@
     </row>
     <row r="15" ht="15.5" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B15" s="1">
         <v>2018</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E15" s="3">
         <v>2014</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H15" s="1">
         <v>2018</v>
@@ -24605,19 +24622,19 @@
     </row>
     <row r="16" ht="15.5" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B16" s="1">
         <v>2018</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E16" s="3">
         <v>2015</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H16" s="1">
         <v>2018</v>
@@ -24631,7 +24648,7 @@
         <v>2021</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E17" s="3">
         <v>2014</v>
@@ -24645,19 +24662,19 @@
     </row>
     <row r="18" ht="15.5" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B18" s="1">
         <v>2021</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E18" s="3">
         <v>2023</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H18" s="1">
         <v>2021</v>
@@ -24665,19 +24682,19 @@
     </row>
     <row r="19" ht="15.5" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B19" s="1">
         <v>2021</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E19" s="3">
         <v>2023</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H19" s="1">
         <v>2021</v>
@@ -24685,19 +24702,19 @@
     </row>
     <row r="20" ht="15.5" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B20" s="1">
         <v>2021</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E20" s="3">
         <v>2021</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H20" s="1">
         <v>2021</v>
@@ -24705,19 +24722,19 @@
     </row>
     <row r="21" ht="15.5" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B21" s="1">
         <v>2022</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E21" s="3">
         <v>2023</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H21" s="1">
         <v>2022</v>
@@ -24725,19 +24742,19 @@
     </row>
     <row r="22" ht="15.5" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B22" s="1">
         <v>2022</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E22" s="3">
         <v>2022</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H22" s="1">
         <v>2022</v>
@@ -24745,19 +24762,19 @@
     </row>
     <row r="23" ht="15.5" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B23" s="1">
         <v>2022</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E23" s="3">
         <v>2022</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H23" s="1">
         <v>2022</v>
@@ -24765,19 +24782,19 @@
     </row>
     <row r="24" ht="15.5" hidden="1" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B24" s="1">
         <v>2021</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E24" s="3">
         <v>2020</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H24" s="1">
         <v>2021</v>
@@ -24785,19 +24802,19 @@
     </row>
     <row r="25" ht="15.5" hidden="1" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B25" s="1">
         <v>2023</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E25" s="3">
         <v>2023</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H25" s="1">
         <v>2023</v>
@@ -24805,19 +24822,19 @@
     </row>
     <row r="26" ht="15.5" hidden="1" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B26" s="1">
         <v>2023</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H26" s="1">
         <v>2023</v>
@@ -24825,13 +24842,13 @@
     </row>
     <row r="27" ht="15.5" hidden="1" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B27" s="1">
         <v>2014</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H27" s="1">
         <v>2014</v>
@@ -24839,13 +24856,13 @@
     </row>
     <row r="28" ht="15.5" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B28" s="1">
         <v>2015</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H28" s="1">
         <v>2015</v>
@@ -24853,13 +24870,13 @@
     </row>
     <row r="29" ht="15.5" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B29" s="1">
         <v>2015</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H29" s="1">
         <v>2015</v>
@@ -24867,13 +24884,13 @@
     </row>
     <row r="30" ht="15.5" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B30" s="1">
         <v>2014</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H30" s="1">
         <v>2014</v>
@@ -24881,13 +24898,13 @@
     </row>
     <row r="31" ht="15.5" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B31" s="1">
         <v>2014</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H31" s="1">
         <v>2014</v>
@@ -24895,13 +24912,13 @@
     </row>
     <row r="32" ht="15.5" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B32" s="1">
         <v>2014</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H32" s="1">
         <v>2014</v>
@@ -24909,13 +24926,13 @@
     </row>
     <row r="33" ht="15.5" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B33" s="1">
         <v>2014</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H33" s="1">
         <v>2014</v>
@@ -24923,13 +24940,13 @@
     </row>
     <row r="34" ht="15.5" hidden="1" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B34" s="1">
         <v>2023</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H34" s="1">
         <v>2023</v>
@@ -24937,13 +24954,13 @@
     </row>
     <row r="35" ht="15.5" hidden="1" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B35" s="1">
         <v>2023</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H35" s="1">
         <v>2023</v>
@@ -24951,13 +24968,13 @@
     </row>
     <row r="36" ht="15.5" hidden="1" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B36" s="1">
         <v>2021</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H36" s="1">
         <v>2021</v>
@@ -24965,13 +24982,13 @@
     </row>
     <row r="37" ht="15.5" hidden="1" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B37" s="1">
         <v>2023</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H37" s="1">
         <v>2023</v>
@@ -24979,13 +24996,13 @@
     </row>
     <row r="38" ht="15.5" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B38" s="1">
         <v>2022</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H38" s="1">
         <v>2022</v>
@@ -24993,13 +25010,13 @@
     </row>
     <row r="39" ht="15.5" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B39" s="1">
         <v>2022</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H39" s="1">
         <v>2022</v>
@@ -25007,13 +25024,13 @@
     </row>
     <row r="40" ht="15.5" hidden="1" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B40" s="1">
         <v>2022</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H40" s="1">
         <v>2022</v>
@@ -25021,13 +25038,13 @@
     </row>
     <row r="41" ht="15.5" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B41" s="1">
         <v>2020</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H41" s="1">
         <v>2020</v>
@@ -25035,13 +25052,13 @@
     </row>
     <row r="42" ht="15.5" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B42" s="1">
         <v>2020</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H42" s="1">
         <v>2020</v>
@@ -25049,13 +25066,13 @@
     </row>
     <row r="43" ht="15.5" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B43" s="1">
         <v>2020</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H43" s="1">
         <v>2020</v>
@@ -25063,13 +25080,13 @@
     </row>
     <row r="44" ht="15.5" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B44" s="1">
         <v>2023</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H44" s="1">
         <v>2023</v>
@@ -25077,13 +25094,13 @@
     </row>
     <row r="45" ht="15.5" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B45" s="1">
         <v>2023</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H45" s="1">
         <v>2023</v>
@@ -25091,13 +25108,13 @@
     </row>
     <row r="46" ht="15.5" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B46" s="1">
         <v>2023</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H46" s="1">
         <v>2023</v>
@@ -25105,13 +25122,13 @@
     </row>
     <row r="47" ht="15.5" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B47" s="1">
         <v>2021</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H47" s="1">
         <v>2021</v>
@@ -25119,13 +25136,13 @@
     </row>
     <row r="48" ht="15.5" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B48" s="1">
         <v>2021</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H48" s="1">
         <v>2021</v>
@@ -25133,13 +25150,13 @@
     </row>
     <row r="49" ht="15.5" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B49" s="1">
         <v>2021</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H49" s="1">
         <v>2021</v>
@@ -25147,13 +25164,13 @@
     </row>
     <row r="50" ht="15.5" hidden="1" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B50" s="1">
         <v>2023</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H50" s="1">
         <v>2023</v>
@@ -25161,13 +25178,13 @@
     </row>
     <row r="51" ht="15.5" hidden="1" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B51" s="1">
         <v>2024</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H51" s="1">
         <v>2024</v>
@@ -25175,13 +25192,13 @@
     </row>
     <row r="52" ht="15.5" hidden="1" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B52" s="1">
         <v>2024</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H52" s="1">
         <v>2024</v>

--- a/Label.xlsx
+++ b/Label.xlsx
@@ -1893,7 +1893,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AE20" sqref="AE20"/>
+      <selection pane="bottomRight" activeCell="A14" sqref="$A14:$XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/Label.xlsx
+++ b/Label.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="10480"/>
+    <workbookView windowWidth="25180" windowHeight="10060"/>
   </bookViews>
   <sheets>
     <sheet name="Label" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Label!$A$1:$S$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Label!$A$1:$V$56</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$A$68</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="232">
   <si>
     <t>Note</t>
   </si>
@@ -73,7 +73,16 @@
     <t>Sample_Size</t>
   </si>
   <si>
+    <t>Practice_Trial</t>
+  </si>
+  <si>
+    <t>Practice_Block</t>
+  </si>
+  <si>
     <t>Formal_Trials</t>
+  </si>
+  <si>
+    <t>Formal_Block</t>
   </si>
   <si>
     <t>Drop_Subject</t>
@@ -115,6 +124,9 @@
     <t>No Gender Data</t>
   </si>
   <si>
+    <t>Design</t>
+  </si>
+  <si>
     <t>Pair Number</t>
   </si>
   <si>
@@ -136,10 +148,19 @@
     <t>They/Alone</t>
   </si>
   <si>
+    <t>NA</t>
+  </si>
+  <si>
     <t>Hungarian</t>
   </si>
   <si>
+    <t>2(Self,Other)*2(Individual,Group)</t>
+  </si>
+  <si>
     <t>P5E2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA </t>
   </si>
   <si>
     <t>P5E3</t>
@@ -155,6 +176,9 @@
   </si>
   <si>
     <t>Stranger/Stranger Team</t>
+  </si>
+  <si>
+    <t>English</t>
   </si>
   <si>
     <t>P6E1</t>
@@ -201,6 +225,10 @@
     </r>
   </si>
   <si>
+    <t>3 (Shape Identity: Self, Partner,
+Stranger) * 2 (Phase: 1,2) *2 (Switch Identity: Partner, Stranger)</t>
+  </si>
+  <si>
     <t>P20E1</t>
   </si>
   <si>
@@ -237,7 +265,7 @@
     <t>Friend</t>
   </si>
   <si>
-    <t>English</t>
+    <t>2(Self,Others)*2(Matching,Nonmatching)84(No delay, 40, 120, or 700 ms)</t>
   </si>
   <si>
     <t>P45E1</t>
@@ -265,6 +293,35 @@
   </si>
   <si>
     <t>Cognition and Emotion</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2(Strength) * 2(Associ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_x0002_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ation)</t>
+    </r>
   </si>
   <si>
     <t>mood</t>
@@ -327,6 +384,10 @@
     </r>
   </si>
   <si>
+    <t>2 (identity: self ,celebrity) * 2 (alerting 
+cue: with,without)</t>
+  </si>
+  <si>
     <t>P54E1</t>
   </si>
   <si>
@@ -349,6 +410,10 @@
   </si>
   <si>
     <t>German</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2 (matching condition: matching,nonmatching)*3 (shape association: self,familiar
+other,neutral instance)</t>
   </si>
   <si>
     <t>face</t>
@@ -414,7 +479,10 @@
     </r>
   </si>
   <si>
-    <t>Pn4E2</t>
+    <t xml:space="preserve"> 3 (Shape Association: self,friend,stranger) *2 (Presentation: mixed,blocked)*2 (Trial Type: matching,nonmatching)</t>
+  </si>
+  <si>
+    <t>3 (Shape Association: self,friend,stranger)*2 (Presentation: mixd,bloc ked )*2 (TrialType: matching,nonmatching)</t>
   </si>
   <si>
     <t>Pn13E1</t>
@@ -544,9 +612,6 @@
   </si>
   <si>
     <t>Sui (unpublished)</t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
   <si>
     <t>Ps4E1</t>
@@ -834,7 +899,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -996,13 +1061,25 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1344,7 +1421,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1368,16 +1445,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1386,19 +1463,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1407,10 +1481,10 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1419,10 +1493,10 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1431,10 +1505,10 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1443,10 +1517,10 @@
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1455,10 +1529,10 @@
     <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1467,8 +1541,11 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1493,16 +1570,25 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1611,8 +1697,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6699250" y="50800"/>
-          <a:ext cx="3238500" cy="2387600"/>
+          <a:off x="6282690" y="50800"/>
+          <a:ext cx="3019425" cy="2707640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1886,45 +1972,46 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:KB72"/>
+  <dimension ref="A1:KF72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="U8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="Z2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A14" sqref="$A14:$XFD14"/>
+      <selection pane="bottomRight" activeCell="AD1" sqref="AD$1:AD$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="14.4166666666667" customWidth="1"/>
+    <col min="1" max="1" width="14.4196428571429" customWidth="1"/>
     <col min="2" max="2" width="3.625" customWidth="1"/>
-    <col min="3" max="3" width="9.16666666666667" customWidth="1"/>
-    <col min="4" max="4" width="6.08333333333333" customWidth="1"/>
-    <col min="5" max="5" width="23.4166666666667" customWidth="1"/>
+    <col min="3" max="3" width="9.16964285714286" customWidth="1"/>
+    <col min="4" max="4" width="6.08035714285714" customWidth="1"/>
+    <col min="5" max="5" width="23.4196428571429" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="67.0833333333333" customWidth="1"/>
+    <col min="7" max="7" width="67.0803571428571" customWidth="1"/>
     <col min="8" max="8" width="4.625" customWidth="1"/>
     <col min="9" max="10" width="9" customWidth="1"/>
-    <col min="11" max="11" width="20.0833333333333" customWidth="1"/>
-    <col min="12" max="12" width="21.5833333333333" customWidth="1"/>
+    <col min="11" max="11" width="20.0803571428571" customWidth="1"/>
+    <col min="12" max="12" width="21.5803571428571" customWidth="1"/>
     <col min="13" max="13" width="11.625" customWidth="1"/>
-    <col min="14" max="14" width="12.9166666666667" customWidth="1"/>
-    <col min="15" max="15" width="12.75" customWidth="1"/>
-    <col min="16" max="16" width="9" customWidth="1"/>
-    <col min="17" max="17" width="41.6666666666667" customWidth="1"/>
-    <col min="18" max="18" width="29" customWidth="1"/>
-    <col min="19" max="19" width="15.1666666666667" customWidth="1"/>
-    <col min="20" max="20" width="13.25" customWidth="1"/>
-    <col min="21" max="21" width="17.4166666666667" customWidth="1"/>
-    <col min="22" max="22" width="8.66666666666667" customWidth="1"/>
-    <col min="23" max="23" width="23.8333333333333" style="4" customWidth="1"/>
-    <col min="24" max="24" width="14.5" customWidth="1"/>
-    <col min="27" max="27" width="15.1666666666667" customWidth="1"/>
+    <col min="14" max="16" width="13.0892857142857" customWidth="1"/>
+    <col min="17" max="17" width="13.5446428571429" customWidth="1"/>
+    <col min="18" max="18" width="12.75" customWidth="1"/>
+    <col min="19" max="19" width="9" customWidth="1"/>
+    <col min="20" max="20" width="41.6696428571429" customWidth="1"/>
+    <col min="21" max="21" width="29" customWidth="1"/>
+    <col min="23" max="23" width="13.25" customWidth="1"/>
+    <col min="24" max="24" width="17.4196428571429" customWidth="1"/>
+    <col min="25" max="25" width="8.66964285714286" customWidth="1"/>
+    <col min="26" max="26" width="23.8303571428571" style="4" customWidth="1"/>
+    <col min="27" max="27" width="14.5" customWidth="1"/>
+    <col min="30" max="30" width="15.1696428571429" customWidth="1"/>
+    <col min="32" max="32" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.5" spans="1:27">
+    <row r="1" ht="17.6" spans="1:32">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1961,37 +2048,37 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" t="s">
         <v>22</v>
       </c>
       <c r="X1" t="s">
@@ -2000,34 +2087,47 @@
       <c r="Y1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="12" t="s">
         <v>26</v>
       </c>
+      <c r="AB1" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="12"/>
     </row>
-    <row r="2" ht="15.5" spans="1:288">
+    <row r="2" ht="17.6" spans="1:292">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F2" s="1">
         <v>2019</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H2" s="1">
         <v>1</v>
@@ -2039,49 +2139,59 @@
         <v>9</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M2" s="1">
         <v>28</v>
       </c>
       <c r="N2" s="1">
+        <v>20</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" s="1">
         <v>96</v>
       </c>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1">
-        <f t="shared" ref="P2:P9" si="0">M2-O2</f>
+      <c r="Q2" s="1">
+        <v>3</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1">
+        <f t="shared" ref="S2:S7" si="0">M2-R2</f>
         <v>28</v>
       </c>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="7">
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="10">
         <v>1</v>
       </c>
-      <c r="U2" s="8">
+      <c r="X2" s="11">
         <v>0</v>
       </c>
-      <c r="V2" s="8">
+      <c r="Y2" s="11">
         <v>0</v>
       </c>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y2" s="1">
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB2" s="1">
         <v>12</v>
       </c>
-      <c r="Z2" s="1">
+      <c r="AC2" s="1">
         <v>16</v>
       </c>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
+      <c r="AE2" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="AF2" s="1"/>
       <c r="AG2" s="1"/>
       <c r="AH2" s="1"/>
@@ -2339,28 +2449,32 @@
       <c r="JZ2" s="1"/>
       <c r="KA2" s="1"/>
       <c r="KB2" s="1"/>
+      <c r="KC2" s="1"/>
+      <c r="KD2" s="1"/>
+      <c r="KE2" s="1"/>
+      <c r="KF2" s="1"/>
     </row>
-    <row r="3" ht="15.5" spans="1:288">
+    <row r="3" ht="17.6" spans="1:292">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F3" s="1">
         <v>2019</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H3" s="1">
         <v>2</v>
@@ -2372,49 +2486,59 @@
         <v>9</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M3" s="1">
         <v>28</v>
       </c>
       <c r="N3" s="1">
+        <v>20</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P3" s="1">
         <v>96</v>
       </c>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1">
+      <c r="Q3" s="1">
+        <v>3</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="7">
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="10">
         <v>1</v>
       </c>
-      <c r="U3" s="8">
+      <c r="X3" s="11">
         <v>0</v>
       </c>
-      <c r="V3" s="8">
+      <c r="Y3" s="11">
         <v>0</v>
       </c>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y3" s="1">
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB3" s="1">
         <v>6</v>
       </c>
-      <c r="Z3" s="1">
+      <c r="AC3" s="1">
         <v>22</v>
       </c>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
+      <c r="AE3" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="AF3" s="1"/>
       <c r="AG3" s="1"/>
       <c r="AH3" s="1"/>
@@ -2672,28 +2796,32 @@
       <c r="JZ3" s="1"/>
       <c r="KA3" s="1"/>
       <c r="KB3" s="1"/>
+      <c r="KC3" s="1"/>
+      <c r="KD3" s="1"/>
+      <c r="KE3" s="1"/>
+      <c r="KF3" s="1"/>
     </row>
-    <row r="4" ht="15.5" spans="1:288">
+    <row r="4" ht="17.6" spans="1:292">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F4" s="1">
         <v>2019</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H4" s="1">
         <v>3</v>
@@ -2705,49 +2833,59 @@
         <v>9</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M4" s="1">
         <v>28</v>
       </c>
       <c r="N4" s="1">
+        <v>20</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" s="1">
         <v>96</v>
       </c>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1">
+      <c r="Q4" s="1">
+        <v>3</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="7">
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="10">
         <v>1</v>
       </c>
-      <c r="U4" s="8">
+      <c r="X4" s="11">
         <v>0</v>
       </c>
-      <c r="V4" s="8">
+      <c r="Y4" s="11">
         <v>0</v>
       </c>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y4" s="1">
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB4" s="1">
         <v>8</v>
       </c>
-      <c r="Z4" s="1">
+      <c r="AC4" s="1">
         <v>14</v>
       </c>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
+      <c r="AE4" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="AF4" s="1"/>
       <c r="AG4" s="1"/>
       <c r="AH4" s="1"/>
@@ -3005,28 +3143,32 @@
       <c r="JZ4" s="1"/>
       <c r="KA4" s="1"/>
       <c r="KB4" s="1"/>
+      <c r="KC4" s="1"/>
+      <c r="KD4" s="1"/>
+      <c r="KE4" s="1"/>
+      <c r="KF4" s="1"/>
     </row>
-    <row r="5" ht="15.5" spans="1:288">
+    <row r="5" ht="17.6" spans="1:292">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F5" s="1">
         <v>2019</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H5" s="1">
         <v>4</v>
@@ -3035,52 +3177,62 @@
         <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="M5" s="1">
         <v>40</v>
       </c>
       <c r="N5" s="1">
+        <v>50</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P5" s="1">
         <v>80</v>
       </c>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1">
+      <c r="Q5" s="1">
+        <v>8</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="7">
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="10">
         <v>1</v>
       </c>
-      <c r="U5" s="8">
+      <c r="X5" s="11">
         <v>0</v>
       </c>
-      <c r="V5" s="8">
+      <c r="Y5" s="11">
         <v>0</v>
       </c>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y5" s="1">
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB5" s="1">
         <v>14</v>
       </c>
-      <c r="Z5" s="1">
+      <c r="AC5" s="1">
         <v>14</v>
       </c>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
-      <c r="AE5" s="1"/>
+      <c r="AE5" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="AF5" s="1"/>
       <c r="AG5" s="1"/>
       <c r="AH5" s="1"/>
@@ -3338,28 +3490,32 @@
       <c r="JZ5" s="1"/>
       <c r="KA5" s="1"/>
       <c r="KB5" s="1"/>
+      <c r="KC5" s="1"/>
+      <c r="KD5" s="1"/>
+      <c r="KE5" s="1"/>
+      <c r="KF5" s="1"/>
     </row>
-    <row r="6" ht="15.5" spans="1:288">
+    <row r="6" ht="18" customHeight="1" spans="1:292">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F6" s="1">
         <v>2020</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H6" s="1">
         <v>1</v>
@@ -3371,55 +3527,65 @@
         <v>9</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="M6" s="1">
         <v>92</v>
       </c>
       <c r="N6" s="1">
-        <v>120</v>
-      </c>
-      <c r="O6" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="P6" s="1">
+        <v>240</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>4</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1">
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
-      <c r="Q6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="S6" s="1"/>
-      <c r="T6" s="7">
+      <c r="T6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="V6" s="1"/>
+      <c r="W6" s="10">
         <v>1</v>
       </c>
-      <c r="U6" s="8">
+      <c r="X6" s="11">
         <v>0</v>
       </c>
-      <c r="V6" s="8">
+      <c r="Y6" s="11">
         <v>0</v>
       </c>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y6" s="1">
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB6" s="1">
         <v>19</v>
       </c>
-      <c r="Z6" s="1">
-        <v>79</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="1"/>
+      <c r="AC6" s="1">
+        <v>73</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE6" s="14" t="s">
+        <v>57</v>
+      </c>
       <c r="AF6" s="1"/>
       <c r="AG6" s="1"/>
       <c r="AH6" s="1"/>
@@ -3677,26 +3843,30 @@
       <c r="JZ6" s="1"/>
       <c r="KA6" s="1"/>
       <c r="KB6" s="1"/>
+      <c r="KC6" s="1"/>
+      <c r="KD6" s="1"/>
+      <c r="KE6" s="1"/>
+      <c r="KF6" s="1"/>
     </row>
-    <row r="7" ht="15.5" spans="1:288">
+    <row r="7" ht="17.6" spans="1:292">
       <c r="A7" s="1"/>
       <c r="B7" s="1">
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="F7" s="1">
         <v>2020</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="H7" s="1">
         <v>1</v>
@@ -3709,48 +3879,58 @@
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="M7" s="1">
         <v>46</v>
       </c>
       <c r="N7" s="1">
-        <v>120</v>
-      </c>
-      <c r="O7" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="P7" s="1">
+        <v>312</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>14</v>
+      </c>
+      <c r="R7" s="1">
+        <v>5</v>
+      </c>
+      <c r="S7" s="1">
         <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="7">
+        <v>41</v>
+      </c>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="10">
         <v>1</v>
       </c>
-      <c r="U7" s="8">
+      <c r="X7" s="11">
         <v>0</v>
       </c>
-      <c r="V7" s="8">
+      <c r="Y7" s="11">
         <v>0</v>
       </c>
-      <c r="W7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y7" s="1">
+      <c r="Z7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB7" s="1">
         <v>19</v>
       </c>
-      <c r="Z7" s="1">
+      <c r="AC7" s="1">
         <v>27</v>
       </c>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
-      <c r="AE7" s="1"/>
+      <c r="AE7" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
       <c r="AH7" s="1"/>
@@ -4008,26 +4188,30 @@
       <c r="JZ7" s="1"/>
       <c r="KA7" s="1"/>
       <c r="KB7" s="1"/>
+      <c r="KC7" s="1"/>
+      <c r="KD7" s="1"/>
+      <c r="KE7" s="1"/>
+      <c r="KF7" s="1"/>
     </row>
-    <row r="8" ht="15.5" spans="1:288">
+    <row r="8" ht="17" customHeight="1" spans="1:292">
       <c r="A8" s="1"/>
       <c r="B8" s="1">
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="F8" s="1">
         <v>2020</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="H8" s="1">
         <v>1</v>
@@ -4039,48 +4223,57 @@
         <v>9</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="M8" s="1">
         <v>31</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P8" s="1">
         <v>100</v>
       </c>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1">
-        <f t="shared" si="0"/>
+      <c r="Q8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R8" s="1">
+        <v>0</v>
+      </c>
+      <c r="S8" s="1">
         <v>31</v>
       </c>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="7">
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="10">
         <v>1</v>
       </c>
-      <c r="U8" s="8">
+      <c r="X8" s="11">
         <v>0</v>
       </c>
-      <c r="V8" s="7">
+      <c r="Y8" s="10">
         <v>1</v>
       </c>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y8" s="1">
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>17</v>
+      </c>
+      <c r="AC8" s="1">
         <v>14</v>
       </c>
-      <c r="Z8" s="1">
-        <v>17</v>
-      </c>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
-      <c r="AE8" s="1"/>
+      <c r="AE8" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="AF8" s="1"/>
       <c r="AG8" s="1"/>
       <c r="AH8" s="1"/>
@@ -4338,26 +4531,30 @@
       <c r="JZ8" s="1"/>
       <c r="KA8" s="1"/>
       <c r="KB8" s="1"/>
+      <c r="KC8" s="1"/>
+      <c r="KD8" s="1"/>
+      <c r="KE8" s="1"/>
+      <c r="KF8" s="1"/>
     </row>
-    <row r="9" ht="15.5" spans="1:288">
+    <row r="9" ht="15" customHeight="1" spans="1:292">
       <c r="A9" s="1"/>
       <c r="B9" s="1">
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="F9" s="1">
         <v>2021</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="H9" s="1">
         <v>1</v>
@@ -4370,50 +4567,59 @@
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="M9" s="1">
         <v>40</v>
       </c>
       <c r="N9" s="1">
+        <v>12</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P9" s="1">
         <v>960</v>
       </c>
-      <c r="O9" s="1">
+      <c r="Q9" s="1">
         <v>7</v>
       </c>
-      <c r="P9" s="1">
-        <f t="shared" si="0"/>
+      <c r="R9" s="1">
+        <v>7</v>
+      </c>
+      <c r="S9" s="1">
         <v>33</v>
       </c>
-      <c r="Q9" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="7">
+      <c r="T9" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="10">
         <v>1</v>
       </c>
-      <c r="U9" s="8">
+      <c r="X9" s="11">
         <v>0</v>
       </c>
-      <c r="V9" s="8">
+      <c r="Y9" s="11">
         <v>0</v>
       </c>
-      <c r="W9" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1">
+      <c r="Z9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB9" s="1">
         <v>8</v>
       </c>
-      <c r="Z9" s="1">
+      <c r="AC9" s="1">
         <v>32</v>
       </c>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
-      <c r="AE9" s="1"/>
+      <c r="AE9" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="AF9" s="1"/>
       <c r="AG9" s="1"/>
       <c r="AH9" s="1"/>
@@ -4671,26 +4877,30 @@
       <c r="JZ9" s="1"/>
       <c r="KA9" s="1"/>
       <c r="KB9" s="1"/>
+      <c r="KC9" s="1"/>
+      <c r="KD9" s="1"/>
+      <c r="KE9" s="1"/>
+      <c r="KF9" s="1"/>
     </row>
-    <row r="10" ht="15.5" spans="1:288">
+    <row r="10" ht="18" spans="1:292">
       <c r="A10" s="1"/>
       <c r="B10" s="1">
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F10" s="1">
         <v>2020</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="H10" s="1">
         <v>2</v>
@@ -4703,48 +4913,56 @@
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="M10" s="1">
         <v>56</v>
       </c>
       <c r="N10" s="1">
-        <v>384</v>
-      </c>
-      <c r="O10" s="1">
+        <v>8</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P10" s="1">
+        <v>192</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>4</v>
+      </c>
+      <c r="R10" s="1">
+        <v>5</v>
+      </c>
+      <c r="S10" s="1">
+        <f t="shared" ref="S10:S24" si="1">M10-R10</f>
+        <v>51</v>
+      </c>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="10">
         <v>1</v>
       </c>
-      <c r="P10" s="1">
-        <f t="shared" ref="P10:P48" si="1">M10-O10</f>
-        <v>55</v>
-      </c>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="7">
-        <v>1</v>
-      </c>
-      <c r="U10" s="8">
+      <c r="X10" s="11">
         <v>0</v>
       </c>
-      <c r="V10" s="8">
+      <c r="Y10" s="11">
         <v>0</v>
       </c>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y10" s="1">
-        <v>28</v>
-      </c>
-      <c r="Z10" s="1">
-        <v>28</v>
-      </c>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>25</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>31</v>
+      </c>
       <c r="AD10" s="1"/>
-      <c r="AE10" s="1"/>
+      <c r="AE10" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="AF10" s="1"/>
       <c r="AG10" s="1"/>
       <c r="AH10" s="1"/>
@@ -5002,28 +5220,32 @@
       <c r="JZ10" s="1"/>
       <c r="KA10" s="1"/>
       <c r="KB10" s="1"/>
+      <c r="KC10" s="1"/>
+      <c r="KD10" s="1"/>
+      <c r="KE10" s="1"/>
+      <c r="KF10" s="1"/>
     </row>
-    <row r="11" ht="15.5" spans="1:288">
+    <row r="11" ht="17.6" spans="1:292">
       <c r="A11" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="B11" s="1">
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="F11" s="1">
         <v>2020</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H11" s="1">
         <v>1</v>
@@ -5036,48 +5258,54 @@
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="M11" s="1">
         <v>26</v>
       </c>
       <c r="N11" s="1">
+        <v>10</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P11" s="1">
         <v>144</v>
       </c>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1">
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1">
+        <v>2</v>
+      </c>
+      <c r="S11" s="1">
         <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="7">
+        <v>24</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="10">
         <v>1</v>
       </c>
-      <c r="U11" s="8">
+      <c r="X11" s="11">
         <v>0</v>
       </c>
-      <c r="V11" s="8">
+      <c r="Y11" s="11">
         <v>0</v>
       </c>
-      <c r="W11" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="X11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y11" s="1">
+      <c r="Z11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB11" s="1">
         <v>10</v>
       </c>
-      <c r="Z11" s="1">
+      <c r="AC11" s="1">
         <v>16</v>
       </c>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
@@ -5337,26 +5565,30 @@
       <c r="JZ11" s="1"/>
       <c r="KA11" s="1"/>
       <c r="KB11" s="1"/>
+      <c r="KC11" s="1"/>
+      <c r="KD11" s="1"/>
+      <c r="KE11" s="1"/>
+      <c r="KF11" s="1"/>
     </row>
-    <row r="12" ht="15.5" spans="1:288">
+    <row r="12" ht="17.6" spans="1:292">
       <c r="A12" s="1"/>
       <c r="B12" s="1">
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="F12" s="1">
         <v>2020</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H12" s="1">
         <v>2</v>
@@ -5369,50 +5601,60 @@
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="M12" s="1">
         <v>26</v>
       </c>
       <c r="N12" s="1">
+        <v>20</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P12" s="1">
         <v>100</v>
       </c>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1">
+      <c r="Q12" s="1">
+        <v>2</v>
+      </c>
+      <c r="R12" s="1">
+        <v>1</v>
+      </c>
+      <c r="S12" s="1">
         <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="7">
+        <v>25</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="10">
         <v>1</v>
       </c>
-      <c r="U12" s="8">
+      <c r="X12" s="11">
         <v>0</v>
       </c>
-      <c r="V12" s="8">
+      <c r="Y12" s="11">
         <v>0</v>
       </c>
-      <c r="W12" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="X12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y12" s="1">
+      <c r="Z12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB12" s="1">
         <v>7</v>
       </c>
-      <c r="Z12" s="1">
+      <c r="AC12" s="1">
         <v>19</v>
       </c>
-      <c r="AA12" s="1"/>
-      <c r="AB12" s="1"/>
-      <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
-      <c r="AE12" s="1"/>
+      <c r="AE12" s="14" t="s">
+        <v>91</v>
+      </c>
       <c r="AF12" s="1"/>
       <c r="AG12" s="1"/>
       <c r="AH12" s="1"/>
@@ -5670,26 +5912,30 @@
       <c r="JZ12" s="1"/>
       <c r="KA12" s="1"/>
       <c r="KB12" s="1"/>
+      <c r="KC12" s="1"/>
+      <c r="KD12" s="1"/>
+      <c r="KE12" s="1"/>
+      <c r="KF12" s="1"/>
     </row>
-    <row r="13" ht="15.5" spans="1:288">
+    <row r="13" ht="17.6" spans="1:292">
       <c r="A13" s="1"/>
       <c r="B13" s="1">
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="F13" s="1">
         <v>2019</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="H13" s="1">
         <v>1</v>
@@ -5701,51 +5947,61 @@
         <v>9</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="M13" s="1">
         <v>103</v>
       </c>
       <c r="N13" s="1">
+        <v>48</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P13" s="1">
         <v>144</v>
       </c>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1">
+      <c r="Q13" s="1">
+        <v>3</v>
+      </c>
+      <c r="R13" s="1">
+        <v>0</v>
+      </c>
+      <c r="S13" s="1">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="7">
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="10">
         <v>1</v>
       </c>
-      <c r="U13" t="s">
-        <v>87</v>
-      </c>
-      <c r="V13" s="8">
+      <c r="X13" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y13" s="11">
         <v>0</v>
       </c>
-      <c r="W13" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="X13" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y13" s="1">
+      <c r="Z13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB13" s="1">
         <v>13</v>
       </c>
-      <c r="Z13" s="1">
+      <c r="AC13" s="1">
         <v>90</v>
       </c>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
-      <c r="AE13" s="1"/>
+      <c r="AE13" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
       <c r="AH13" s="1"/>
@@ -6003,28 +6259,32 @@
       <c r="JZ13" s="1"/>
       <c r="KA13" s="1"/>
       <c r="KB13" s="1"/>
+      <c r="KC13" s="1"/>
+      <c r="KD13" s="1"/>
+      <c r="KE13" s="1"/>
+      <c r="KF13" s="1"/>
     </row>
-    <row r="14" ht="15.5" spans="1:288">
+    <row r="14" ht="17.6" spans="1:292">
       <c r="A14" s="1" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="B14" s="1">
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="F14" s="1">
         <v>2018</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="H14" s="1">
         <v>1</v>
@@ -6036,59 +6296,65 @@
         <v>9</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="M14" s="1">
         <v>19</v>
       </c>
       <c r="N14" s="1">
-        <v>336</v>
-      </c>
-      <c r="O14" s="1">
+        <v>24</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P14" s="1">
+        <v>672</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>4</v>
+      </c>
+      <c r="R14" s="1">
         <v>1</v>
       </c>
-      <c r="P14" s="1">
+      <c r="S14" s="1">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="Q14" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T14" s="7">
+      <c r="T14" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="10">
         <v>1</v>
       </c>
-      <c r="U14" s="8">
+      <c r="X14" s="11">
         <v>0</v>
       </c>
-      <c r="V14" s="8">
+      <c r="Y14" s="11">
         <v>1</v>
       </c>
-      <c r="W14" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="X14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y14" s="1">
+      <c r="Z14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB14" s="1">
         <v>9</v>
       </c>
-      <c r="Z14" s="1">
+      <c r="AC14" s="1">
         <v>9</v>
       </c>
-      <c r="AA14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB14" s="1"/>
-      <c r="AC14" s="1"/>
-      <c r="AD14" s="1"/>
-      <c r="AE14" s="1"/>
+      <c r="AD14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE14" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="AF14" s="1"/>
       <c r="AG14" s="1"/>
       <c r="AH14" s="1"/>
@@ -6346,28 +6612,32 @@
       <c r="JZ14" s="1"/>
       <c r="KA14" s="1"/>
       <c r="KB14" s="1"/>
+      <c r="KC14" s="1"/>
+      <c r="KD14" s="1"/>
+      <c r="KE14" s="1"/>
+      <c r="KF14" s="1"/>
     </row>
-    <row r="15" ht="15.5" spans="1:288">
+    <row r="15" ht="17.6" spans="1:292">
       <c r="A15" s="1" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="B15" s="1">
         <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="F15" s="1">
         <v>2018</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="H15" s="1">
         <v>2</v>
@@ -6379,59 +6649,65 @@
         <v>9</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="M15" s="1">
         <v>20</v>
       </c>
       <c r="N15" s="1">
-        <v>336</v>
-      </c>
-      <c r="O15" s="1">
+        <v>24</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P15" s="1">
+        <v>672</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>4</v>
+      </c>
+      <c r="R15" s="1">
         <v>2</v>
       </c>
-      <c r="P15" s="1">
+      <c r="S15" s="1">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="Q15" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T15" s="7">
+      <c r="T15" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="10">
         <v>1</v>
       </c>
-      <c r="U15" s="8">
+      <c r="X15" s="11">
         <v>0</v>
       </c>
-      <c r="V15" s="8">
+      <c r="Y15" s="11">
         <v>1</v>
       </c>
-      <c r="W15" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="X15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y15" s="1">
+      <c r="Z15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB15" s="1">
         <v>9</v>
       </c>
-      <c r="Z15" s="1">
+      <c r="AC15" s="1">
         <v>9</v>
       </c>
-      <c r="AA15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB15" s="1"/>
-      <c r="AC15" s="1"/>
-      <c r="AD15" s="1"/>
-      <c r="AE15" s="1"/>
+      <c r="AD15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE15" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="AF15" s="1"/>
       <c r="AG15" s="1"/>
       <c r="AH15" s="1"/>
@@ -6689,26 +6965,30 @@
       <c r="JZ15" s="1"/>
       <c r="KA15" s="1"/>
       <c r="KB15" s="1"/>
+      <c r="KC15" s="1"/>
+      <c r="KD15" s="1"/>
+      <c r="KE15" s="1"/>
+      <c r="KF15" s="1"/>
     </row>
-    <row r="16" ht="15.5" spans="1:288">
+    <row r="16" ht="17.6" spans="1:292">
       <c r="A16" s="1"/>
       <c r="B16" s="1">
         <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="F16" s="1">
         <v>2021</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H16" s="1">
         <v>1</v>
@@ -6720,53 +7000,61 @@
         <v>9</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="M16" s="1">
         <v>30</v>
       </c>
       <c r="N16" s="1">
+        <v>12</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P16" s="1">
         <v>360</v>
       </c>
-      <c r="O16" s="1">
+      <c r="Q16" s="1">
+        <v>6</v>
+      </c>
+      <c r="R16" s="1">
+        <v>5</v>
+      </c>
+      <c r="S16" s="1">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="10">
         <v>1</v>
       </c>
-      <c r="P16" s="1">
-        <f t="shared" si="1"/>
+      <c r="X16" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1">
+        <v>9</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>21</v>
+      </c>
+      <c r="AD16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q16" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="7">
-        <v>1</v>
-      </c>
-      <c r="U16" s="8">
-        <v>0</v>
-      </c>
-      <c r="V16" s="8">
-        <v>0</v>
-      </c>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1">
-        <v>9</v>
-      </c>
-      <c r="Z16" s="1">
-        <v>21</v>
-      </c>
-      <c r="AA16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB16" s="1"/>
-      <c r="AC16" s="1"/>
-      <c r="AD16" s="1"/>
-      <c r="AE16" s="1"/>
+      <c r="AE16" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="AF16" s="1"/>
       <c r="AG16" s="1"/>
       <c r="AH16" s="1"/>
@@ -7024,26 +7312,30 @@
       <c r="JZ16" s="1"/>
       <c r="KA16" s="1"/>
       <c r="KB16" s="1"/>
+      <c r="KC16" s="1"/>
+      <c r="KD16" s="1"/>
+      <c r="KE16" s="1"/>
+      <c r="KF16" s="1"/>
     </row>
-    <row r="17" ht="15.5" spans="1:288">
+    <row r="17" ht="17.6" spans="1:292">
       <c r="A17" s="1"/>
       <c r="B17" s="1">
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="F17" s="1">
         <v>2021</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H17" s="1">
         <v>2</v>
@@ -7055,51 +7347,59 @@
         <v>9</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="M17" s="1">
         <v>30</v>
       </c>
       <c r="N17" s="1">
+        <v>12</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P17" s="1">
         <v>360</v>
       </c>
-      <c r="O17" s="1">
+      <c r="Q17" s="1">
+        <v>6</v>
+      </c>
+      <c r="R17" s="1">
         <v>5</v>
       </c>
-      <c r="P17" s="1">
+      <c r="S17" s="1">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="7">
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="10">
         <v>1</v>
       </c>
-      <c r="U17" s="8">
+      <c r="X17" s="11">
         <v>0</v>
       </c>
-      <c r="V17" s="8">
+      <c r="Y17" s="11">
         <v>0</v>
       </c>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1">
-        <v>8</v>
-      </c>
-      <c r="Z17" s="1">
-        <v>17</v>
-      </c>
-      <c r="AA17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB17" s="1"/>
-      <c r="AC17" s="1"/>
-      <c r="AD17" s="1"/>
-      <c r="AE17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1">
+        <v>10</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>20</v>
+      </c>
+      <c r="AD17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE17" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="AF17" s="1"/>
       <c r="AG17" s="1"/>
       <c r="AH17" s="1"/>
@@ -7357,20 +7657,24 @@
       <c r="JZ17" s="1"/>
       <c r="KA17" s="1"/>
       <c r="KB17" s="1"/>
+      <c r="KC17" s="1"/>
+      <c r="KD17" s="1"/>
+      <c r="KE17" s="1"/>
+      <c r="KF17" s="1"/>
     </row>
-    <row r="18" ht="15.5" spans="1:288">
+    <row r="18" ht="17.6" spans="1:292">
       <c r="A18" s="1"/>
       <c r="B18" s="1">
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="F18" s="1">
         <v>2021</v>
@@ -7386,49 +7690,49 @@
         <v>9</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="M18" s="1">
         <v>13</v>
       </c>
-      <c r="N18" s="1">
-        <v>120</v>
-      </c>
+      <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1">
+        <v>120</v>
+      </c>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="7">
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="10">
         <v>1</v>
       </c>
-      <c r="U18" s="8">
+      <c r="X18" s="11">
         <v>0</v>
       </c>
-      <c r="V18" s="8">
+      <c r="Y18" s="11">
         <v>0</v>
       </c>
-      <c r="W18" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="X18" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y18" s="1">
+      <c r="Z18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA18" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB18" s="1">
         <v>3</v>
       </c>
-      <c r="Z18" s="1">
+      <c r="AC18" s="1">
         <v>10</v>
       </c>
-      <c r="AA18" s="1"/>
-      <c r="AB18" s="1"/>
-      <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
       <c r="AF18" s="1"/>
@@ -7688,20 +7992,24 @@
       <c r="JZ18" s="1"/>
       <c r="KA18" s="1"/>
       <c r="KB18" s="1"/>
+      <c r="KC18" s="1"/>
+      <c r="KD18" s="1"/>
+      <c r="KE18" s="1"/>
+      <c r="KF18" s="1"/>
     </row>
-    <row r="19" ht="15.5" spans="1:288">
+    <row r="19" ht="17.6" spans="1:292">
       <c r="A19" s="1"/>
       <c r="B19" s="1">
         <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="F19" s="1">
         <v>2021</v>
@@ -7714,52 +8022,52 @@
         <v>2</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="M19" s="1">
         <v>27</v>
       </c>
-      <c r="N19" s="1">
-        <v>120</v>
-      </c>
+      <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1">
+        <v>120</v>
+      </c>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="7">
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="10">
         <v>1</v>
       </c>
-      <c r="U19" s="8">
+      <c r="X19" s="11">
         <v>0</v>
       </c>
-      <c r="V19" s="8">
+      <c r="Y19" s="11">
         <v>0</v>
       </c>
-      <c r="W19" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="X19" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y19" s="1">
+      <c r="Z19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB19" s="1">
         <v>9</v>
       </c>
-      <c r="Z19" s="1">
+      <c r="AC19" s="1">
         <v>18</v>
       </c>
-      <c r="AA19" s="1"/>
-      <c r="AB19" s="1"/>
-      <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
       <c r="AF19" s="1"/>
@@ -8019,20 +8327,24 @@
       <c r="JZ19" s="1"/>
       <c r="KA19" s="1"/>
       <c r="KB19" s="1"/>
+      <c r="KC19" s="1"/>
+      <c r="KD19" s="1"/>
+      <c r="KE19" s="1"/>
+      <c r="KF19" s="1"/>
     </row>
-    <row r="20" ht="15.5" spans="1:288">
+    <row r="20" ht="17.6" spans="1:292">
       <c r="A20" s="1"/>
       <c r="B20" s="1">
         <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="F20" s="1">
         <v>2021</v>
@@ -8048,49 +8360,49 @@
         <v>9</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="M20" s="1">
         <v>27</v>
       </c>
-      <c r="N20" s="1">
-        <v>120</v>
-      </c>
+      <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1">
+        <v>120</v>
+      </c>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="7">
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="10">
         <v>1</v>
       </c>
-      <c r="U20" s="8">
+      <c r="X20" s="11">
         <v>0</v>
       </c>
-      <c r="V20" s="8">
+      <c r="Y20" s="11">
         <v>0</v>
       </c>
-      <c r="W20" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="X20" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y20" s="1">
+      <c r="Z20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB20" s="1">
         <v>12</v>
       </c>
-      <c r="Z20" s="1">
+      <c r="AC20" s="1">
         <v>15</v>
       </c>
-      <c r="AA20" s="1"/>
-      <c r="AB20" s="1"/>
-      <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
       <c r="AF20" s="1"/>
@@ -8350,20 +8662,24 @@
       <c r="JZ20" s="1"/>
       <c r="KA20" s="1"/>
       <c r="KB20" s="1"/>
+      <c r="KC20" s="1"/>
+      <c r="KD20" s="1"/>
+      <c r="KE20" s="1"/>
+      <c r="KF20" s="1"/>
     </row>
-    <row r="21" ht="15.5" spans="1:288">
+    <row r="21" ht="17.6" spans="1:292">
       <c r="A21" s="1"/>
       <c r="B21" s="1">
         <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="F21" s="1">
         <v>2021</v>
@@ -8379,49 +8695,49 @@
         <v>9</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="M21" s="1">
         <v>26</v>
       </c>
-      <c r="N21" s="1">
-        <v>120</v>
-      </c>
+      <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1">
+        <v>120</v>
+      </c>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="7">
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="10">
         <v>1</v>
       </c>
-      <c r="U21" s="8">
+      <c r="X21" s="11">
         <v>0</v>
       </c>
-      <c r="V21" s="8">
+      <c r="Y21" s="11">
         <v>0</v>
       </c>
-      <c r="W21" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="X21" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y21" s="1">
+      <c r="Z21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA21" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB21" s="1">
         <v>9</v>
       </c>
-      <c r="Z21" s="1">
+      <c r="AC21" s="1">
         <v>17</v>
       </c>
-      <c r="AA21" s="1"/>
-      <c r="AB21" s="1"/>
-      <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
       <c r="AF21" s="1"/>
@@ -8681,26 +8997,30 @@
       <c r="JZ21" s="1"/>
       <c r="KA21" s="1"/>
       <c r="KB21" s="1"/>
+      <c r="KC21" s="1"/>
+      <c r="KD21" s="1"/>
+      <c r="KE21" s="1"/>
+      <c r="KF21" s="1"/>
     </row>
-    <row r="22" ht="15.5" spans="1:288">
+    <row r="22" ht="17.6" spans="1:292">
       <c r="A22" s="1"/>
       <c r="B22" s="1">
         <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="F22" s="1">
         <v>2020</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="H22" s="1">
         <v>1</v>
@@ -8713,48 +9033,48 @@
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="M22" s="1">
         <v>38</v>
       </c>
-      <c r="N22" s="1">
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1">
         <v>128</v>
       </c>
-      <c r="O22" s="1">
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1">
         <v>4</v>
       </c>
-      <c r="P22" s="1">
+      <c r="S22" s="1">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="7">
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="10">
         <v>1</v>
       </c>
-      <c r="U22" s="8">
+      <c r="X22" s="11">
         <v>0</v>
       </c>
-      <c r="V22" s="8">
+      <c r="Y22" s="11">
         <v>0</v>
       </c>
-      <c r="W22" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="X22" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y22" s="1">
+      <c r="Z22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA22" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB22" s="1">
         <v>9</v>
       </c>
-      <c r="Z22" s="1">
+      <c r="AC22" s="1">
         <v>29</v>
       </c>
-      <c r="AA22" s="1"/>
-      <c r="AB22" s="1"/>
-      <c r="AC22" s="1"/>
       <c r="AD22" s="1"/>
       <c r="AE22" s="1"/>
       <c r="AF22" s="1"/>
@@ -9014,26 +9334,30 @@
       <c r="JZ22" s="1"/>
       <c r="KA22" s="1"/>
       <c r="KB22" s="1"/>
+      <c r="KC22" s="1"/>
+      <c r="KD22" s="1"/>
+      <c r="KE22" s="1"/>
+      <c r="KF22" s="1"/>
     </row>
-    <row r="23" ht="15.5" spans="1:288">
+    <row r="23" ht="17.6" spans="1:292">
       <c r="A23" s="1"/>
       <c r="B23" s="1">
         <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="F23" s="1">
         <v>2020</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="H23" s="1">
         <v>2</v>
@@ -9046,48 +9370,48 @@
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="M23" s="1">
         <v>33</v>
       </c>
-      <c r="N23" s="1">
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1">
         <v>128</v>
       </c>
-      <c r="O23" s="1">
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1">
         <v>2</v>
       </c>
-      <c r="P23" s="1">
+      <c r="S23" s="1">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="7">
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="10">
         <v>1</v>
       </c>
-      <c r="U23" s="8">
+      <c r="X23" s="11">
         <v>0</v>
       </c>
-      <c r="V23" s="8">
+      <c r="Y23" s="11">
         <v>0</v>
       </c>
-      <c r="W23" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="X23" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y23" s="1">
+      <c r="Z23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA23" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB23" s="1">
         <v>7</v>
       </c>
-      <c r="Z23" s="1">
+      <c r="AC23" s="1">
         <v>26</v>
       </c>
-      <c r="AA23" s="1"/>
-      <c r="AB23" s="1"/>
-      <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
       <c r="AF23" s="1"/>
@@ -9347,26 +9671,30 @@
       <c r="JZ23" s="1"/>
       <c r="KA23" s="1"/>
       <c r="KB23" s="1"/>
+      <c r="KC23" s="1"/>
+      <c r="KD23" s="1"/>
+      <c r="KE23" s="1"/>
+      <c r="KF23" s="1"/>
     </row>
-    <row r="24" ht="15.5" spans="1:288">
+    <row r="24" ht="17.6" spans="1:292">
       <c r="A24" s="1"/>
       <c r="B24" s="1">
         <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="F24" s="1">
         <v>2020</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="H24" s="1">
         <v>3</v>
@@ -9379,48 +9707,48 @@
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="M24" s="1">
         <v>36</v>
       </c>
-      <c r="N24" s="1">
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1">
         <v>128</v>
       </c>
-      <c r="O24" s="1">
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1">
         <v>1</v>
       </c>
-      <c r="P24" s="1">
+      <c r="S24" s="1">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="7">
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="10">
         <v>1</v>
       </c>
-      <c r="U24" s="8">
+      <c r="X24" s="11">
         <v>0</v>
       </c>
-      <c r="V24" s="8">
+      <c r="Y24" s="11">
         <v>0</v>
       </c>
-      <c r="W24" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="X24" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y24" s="1">
+      <c r="Z24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA24" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB24" s="1">
         <v>7</v>
       </c>
-      <c r="Z24" s="1">
+      <c r="AC24" s="1">
         <v>29</v>
       </c>
-      <c r="AA24" s="1"/>
-      <c r="AB24" s="1"/>
-      <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
       <c r="AF24" s="1"/>
@@ -9680,26 +10008,30 @@
       <c r="JZ24" s="1"/>
       <c r="KA24" s="1"/>
       <c r="KB24" s="1"/>
+      <c r="KC24" s="1"/>
+      <c r="KD24" s="1"/>
+      <c r="KE24" s="1"/>
+      <c r="KF24" s="1"/>
     </row>
-    <row r="25" ht="15.5" spans="1:288">
+    <row r="25" ht="17.6" spans="1:292">
       <c r="A25" s="1"/>
       <c r="B25" s="1">
         <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="F25" s="1">
         <v>2022</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="H25" s="1">
         <v>1</v>
@@ -9711,43 +10043,43 @@
         <v>9</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1">
         <v>20</v>
       </c>
-      <c r="N25" s="1">
-        <v>200</v>
-      </c>
+      <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="7">
+      <c r="S25" s="1">
+        <f t="shared" ref="S25:S48" si="2">M25-R25</f>
+        <v>20</v>
+      </c>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="10">
         <v>1</v>
       </c>
-      <c r="U25" s="8">
+      <c r="X25" s="11">
         <v>0</v>
       </c>
-      <c r="V25" s="8">
+      <c r="Y25" s="11">
         <v>0</v>
       </c>
-      <c r="W25" s="1"/>
-      <c r="X25" s="1"/>
-      <c r="Y25" s="1">
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1">
         <v>6</v>
       </c>
-      <c r="Z25" s="1">
+      <c r="AC25" s="1">
         <v>14</v>
       </c>
-      <c r="AA25" s="1"/>
-      <c r="AB25" s="1"/>
-      <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
       <c r="AF25" s="1"/>
@@ -10007,26 +10339,30 @@
       <c r="JZ25" s="1"/>
       <c r="KA25" s="1"/>
       <c r="KB25" s="1"/>
+      <c r="KC25" s="1"/>
+      <c r="KD25" s="1"/>
+      <c r="KE25" s="1"/>
+      <c r="KF25" s="1"/>
     </row>
-    <row r="26" ht="15.5" spans="1:288">
+    <row r="26" ht="17.6" spans="1:292">
       <c r="A26" s="1"/>
       <c r="B26" s="1">
         <v>25</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="F26" s="1">
         <v>2022</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="H26" s="1">
         <v>2</v>
@@ -10038,45 +10374,45 @@
         <v>9</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1">
         <v>24</v>
       </c>
-      <c r="N26" s="1">
-        <v>200</v>
-      </c>
+      <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1">
-        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1">
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="Q26" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="7">
+      <c r="T26" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="10">
         <v>1</v>
       </c>
-      <c r="U26" s="8">
+      <c r="X26" s="11">
         <v>0</v>
       </c>
-      <c r="V26" s="8">
+      <c r="Y26" s="11">
         <v>0</v>
       </c>
-      <c r="W26" s="1"/>
-      <c r="X26" s="1"/>
-      <c r="Y26" s="1">
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1">
         <v>8</v>
       </c>
-      <c r="Z26" s="1">
+      <c r="AC26" s="1">
         <v>16</v>
       </c>
-      <c r="AA26" s="1"/>
-      <c r="AB26" s="1"/>
-      <c r="AC26" s="1"/>
       <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
       <c r="AF26" s="1"/>
@@ -10336,26 +10672,30 @@
       <c r="JZ26" s="1"/>
       <c r="KA26" s="1"/>
       <c r="KB26" s="1"/>
+      <c r="KC26" s="1"/>
+      <c r="KD26" s="1"/>
+      <c r="KE26" s="1"/>
+      <c r="KF26" s="1"/>
     </row>
-    <row r="27" ht="15.5" spans="1:288">
+    <row r="27" ht="17.6" spans="1:292">
       <c r="A27" s="1"/>
       <c r="B27" s="1">
         <v>26</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="F27" s="1">
         <v>2022</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="H27" s="1">
         <v>3</v>
@@ -10367,45 +10707,45 @@
         <v>9</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1">
         <v>25</v>
       </c>
-      <c r="N27" s="1">
-        <v>100</v>
-      </c>
+      <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1">
-        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="Q27" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="7">
+      <c r="T27" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="10">
         <v>1</v>
       </c>
-      <c r="U27" s="8">
+      <c r="X27" s="11">
         <v>0</v>
       </c>
-      <c r="V27" s="8">
+      <c r="Y27" s="11">
         <v>0</v>
       </c>
-      <c r="W27" s="1"/>
-      <c r="X27" s="1"/>
-      <c r="Y27" s="1">
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1">
         <v>7</v>
       </c>
-      <c r="Z27" s="1">
+      <c r="AC27" s="1">
         <v>18</v>
       </c>
-      <c r="AA27" s="1"/>
-      <c r="AB27" s="1"/>
-      <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
       <c r="AE27" s="1"/>
       <c r="AF27" s="1"/>
@@ -10665,26 +11005,30 @@
       <c r="JZ27" s="1"/>
       <c r="KA27" s="1"/>
       <c r="KB27" s="1"/>
+      <c r="KC27" s="1"/>
+      <c r="KD27" s="1"/>
+      <c r="KE27" s="1"/>
+      <c r="KF27" s="1"/>
     </row>
-    <row r="28" ht="15.5" spans="1:288">
+    <row r="28" ht="17.6" spans="1:292">
       <c r="A28" s="1"/>
       <c r="B28" s="1">
         <v>27</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="F28" s="1">
         <v>2021</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="H28" s="1">
         <v>1</v>
@@ -10696,51 +11040,51 @@
         <v>9</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="M28" s="1">
         <v>105</v>
       </c>
-      <c r="N28" s="1">
-        <v>360</v>
-      </c>
+      <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1">
-        <f t="shared" si="1"/>
+        <v>360</v>
+      </c>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1">
+        <f t="shared" si="2"/>
         <v>105</v>
       </c>
-      <c r="Q28" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="7">
+      <c r="T28" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="10">
         <v>1</v>
       </c>
-      <c r="U28" s="8">
+      <c r="X28" s="11">
         <v>0</v>
       </c>
-      <c r="V28" s="8">
+      <c r="Y28" s="11">
         <v>0</v>
       </c>
-      <c r="W28" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="X28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y28" s="1">
+      <c r="Z28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB28" s="1">
         <v>51</v>
       </c>
-      <c r="Z28" s="1">
+      <c r="AC28" s="1">
         <v>54</v>
       </c>
-      <c r="AA28" s="1"/>
-      <c r="AB28" s="1"/>
-      <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
       <c r="AE28" s="1"/>
       <c r="AF28" s="1"/>
@@ -11000,28 +11344,32 @@
       <c r="JZ28" s="1"/>
       <c r="KA28" s="1"/>
       <c r="KB28" s="1"/>
+      <c r="KC28" s="1"/>
+      <c r="KD28" s="1"/>
+      <c r="KE28" s="1"/>
+      <c r="KF28" s="1"/>
     </row>
-    <row r="29" ht="15.5" spans="1:288">
+    <row r="29" ht="17.6" spans="1:292">
       <c r="A29" s="1" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1">
         <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="F29" s="1">
         <v>2023</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="H29" s="1">
         <v>1</v>
@@ -11034,48 +11382,48 @@
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="M29" s="1">
         <v>302</v>
       </c>
-      <c r="N29" s="1">
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1">
         <v>16</v>
       </c>
-      <c r="O29" s="1">
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1">
         <v>3</v>
       </c>
-      <c r="P29" s="1">
-        <f t="shared" si="1"/>
+      <c r="S29" s="1">
+        <f t="shared" si="2"/>
         <v>299</v>
       </c>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="7">
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="10">
         <v>1</v>
       </c>
-      <c r="U29" s="8">
+      <c r="X29" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y29" s="11">
         <v>0</v>
       </c>
-      <c r="V29" s="8">
-        <v>0</v>
-      </c>
-      <c r="W29" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="X29" s="1"/>
-      <c r="Y29" s="1">
-        <f>SUM(Y2:Y28)</f>
-        <v>321</v>
-      </c>
-      <c r="Z29" s="1">
-        <f>SUM(Z2:Z28)</f>
-        <v>676</v>
+      <c r="Z29" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="AA29" s="1"/>
-      <c r="AB29" s="1"/>
-      <c r="AC29" s="1"/>
+      <c r="AB29" s="1">
+        <f>SUM(AB2:AB28)</f>
+        <v>323</v>
+      </c>
+      <c r="AC29" s="1">
+        <f>SUM(AC2:AC28)</f>
+        <v>673</v>
+      </c>
       <c r="AD29" s="1"/>
       <c r="AE29" s="1"/>
       <c r="AF29" s="1"/>
@@ -11335,22 +11683,26 @@
       <c r="JZ29" s="1"/>
       <c r="KA29" s="1"/>
       <c r="KB29" s="1"/>
+      <c r="KC29" s="1"/>
+      <c r="KD29" s="1"/>
+      <c r="KE29" s="1"/>
+      <c r="KF29" s="1"/>
     </row>
-    <row r="30" ht="15.5" spans="1:288">
+    <row r="30" ht="17.6" spans="1:292">
       <c r="A30" s="1" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="B30" s="1">
         <v>29</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="F30" s="1">
         <v>2023</v>
@@ -11360,48 +11712,48 @@
         <v>1</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="M30" s="1">
         <v>23</v>
       </c>
-      <c r="N30" s="1">
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1">
         <v>90</v>
       </c>
-      <c r="O30" s="1">
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1">
         <v>3</v>
       </c>
-      <c r="P30" s="1">
-        <f t="shared" si="1"/>
+      <c r="S30" s="1">
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="Q30" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="T30" s="7">
+      <c r="T30" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="W30" s="10">
         <v>1</v>
       </c>
-      <c r="U30" s="8">
+      <c r="X30" s="11">
         <v>0</v>
       </c>
-      <c r="V30" s="7">
+      <c r="Y30" s="10">
         <v>1</v>
       </c>
-      <c r="W30" s="11"/>
-      <c r="X30" s="1"/>
-      <c r="Y30" s="1"/>
-      <c r="Z30" s="1"/>
+      <c r="Z30" s="13"/>
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
       <c r="AC30" s="1"/>
@@ -11664,22 +12016,26 @@
       <c r="JZ30" s="1"/>
       <c r="KA30" s="1"/>
       <c r="KB30" s="1"/>
+      <c r="KC30" s="1"/>
+      <c r="KD30" s="1"/>
+      <c r="KE30" s="1"/>
+      <c r="KF30" s="1"/>
     </row>
-    <row r="31" ht="15.5" spans="1:288">
+    <row r="31" ht="17.6" spans="1:292">
       <c r="A31" s="1" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="B31" s="1">
         <v>30</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="F31" s="1">
         <v>2014</v>
@@ -11689,31 +12045,31 @@
         <v>1</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>144</v>
+        <v>38</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="M31" s="1">
         <v>24</v>
       </c>
-      <c r="N31" s="1">
-        <v>40</v>
-      </c>
+      <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1">
-        <f t="shared" si="1"/>
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
+      <c r="S31" s="1">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
@@ -11983,22 +12339,26 @@
       <c r="JZ31" s="1"/>
       <c r="KA31" s="1"/>
       <c r="KB31" s="1"/>
+      <c r="KC31" s="1"/>
+      <c r="KD31" s="1"/>
+      <c r="KE31" s="1"/>
+      <c r="KF31" s="1"/>
     </row>
-    <row r="32" ht="15.5" spans="1:288">
+    <row r="32" ht="17.6" spans="1:292">
       <c r="A32" s="1" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="B32" s="1">
         <v>31</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="F32" s="1">
         <v>2015</v>
@@ -12008,31 +12368,31 @@
         <v>1</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>144</v>
+        <v>38</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="M32" s="1">
         <v>20</v>
       </c>
-      <c r="N32" s="1">
-        <v>40</v>
-      </c>
+      <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
+      <c r="S32" s="1">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
@@ -12302,22 +12662,26 @@
       <c r="JZ32" s="1"/>
       <c r="KA32" s="1"/>
       <c r="KB32" s="1"/>
+      <c r="KC32" s="1"/>
+      <c r="KD32" s="1"/>
+      <c r="KE32" s="1"/>
+      <c r="KF32" s="1"/>
     </row>
-    <row r="33" ht="15.5" spans="1:288">
+    <row r="33" ht="17.6" spans="1:292">
       <c r="A33" s="1" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="B33" s="1">
         <v>32</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="F33" s="1">
         <v>2015</v>
@@ -12327,31 +12691,31 @@
         <v>2</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>144</v>
+        <v>38</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="M33" s="1">
         <v>21</v>
       </c>
-      <c r="N33" s="1">
-        <v>40</v>
-      </c>
+      <c r="N33" s="1"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1">
-        <f t="shared" si="1"/>
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
+      <c r="S33" s="1">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
@@ -12621,28 +12985,32 @@
       <c r="JZ33" s="1"/>
       <c r="KA33" s="1"/>
       <c r="KB33" s="1"/>
+      <c r="KC33" s="1"/>
+      <c r="KD33" s="1"/>
+      <c r="KE33" s="1"/>
+      <c r="KF33" s="1"/>
     </row>
-    <row r="34" ht="15.5" spans="1:288">
+    <row r="34" ht="17.6" spans="1:292">
       <c r="A34" s="1" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="B34" s="1">
         <v>33</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="F34" s="1">
         <v>2014</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="H34" s="1">
         <v>1</v>
@@ -12654,28 +13022,28 @@
         <v>9</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="M34" s="1">
         <v>24</v>
       </c>
-      <c r="N34" s="1">
-        <v>60</v>
-      </c>
+      <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1">
-        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1">
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="Q34" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
+      <c r="T34" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
@@ -12944,28 +13312,32 @@
       <c r="JZ34" s="1"/>
       <c r="KA34" s="1"/>
       <c r="KB34" s="1"/>
+      <c r="KC34" s="1"/>
+      <c r="KD34" s="1"/>
+      <c r="KE34" s="1"/>
+      <c r="KF34" s="1"/>
     </row>
-    <row r="35" ht="15.5" spans="1:288">
+    <row r="35" ht="17.6" spans="1:292">
       <c r="A35" s="1" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="B35" s="1">
         <v>34</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="F35" s="1">
         <v>2014</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="H35" s="1">
         <v>2</v>
@@ -12977,28 +13349,28 @@
         <v>9</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="M35" s="1">
         <v>18</v>
       </c>
-      <c r="N35" s="1">
-        <v>60</v>
-      </c>
+      <c r="N35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1">
-        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1">
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="Q35" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
-      <c r="T35" s="1"/>
+      <c r="T35" s="1" t="s">
+        <v>169</v>
+      </c>
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
@@ -13267,28 +13639,32 @@
       <c r="JZ35" s="1"/>
       <c r="KA35" s="1"/>
       <c r="KB35" s="1"/>
+      <c r="KC35" s="1"/>
+      <c r="KD35" s="1"/>
+      <c r="KE35" s="1"/>
+      <c r="KF35" s="1"/>
     </row>
-    <row r="36" ht="15.5" spans="1:288">
+    <row r="36" ht="17.6" spans="1:292">
       <c r="A36" s="1" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="B36" s="1">
         <v>35</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="F36" s="1">
         <v>2014</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="H36" s="1">
         <v>3</v>
@@ -13300,28 +13676,28 @@
         <v>9</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="M36" s="1">
         <v>22</v>
       </c>
-      <c r="N36" s="1">
-        <v>60</v>
-      </c>
+      <c r="N36" s="1"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1">
-        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1">
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="Q36" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
+      <c r="T36" s="1" t="s">
+        <v>172</v>
+      </c>
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
@@ -13590,28 +13966,32 @@
       <c r="JZ36" s="1"/>
       <c r="KA36" s="1"/>
       <c r="KB36" s="1"/>
+      <c r="KC36" s="1"/>
+      <c r="KD36" s="1"/>
+      <c r="KE36" s="1"/>
+      <c r="KF36" s="1"/>
     </row>
-    <row r="37" ht="15.5" spans="1:288">
+    <row r="37" ht="17.6" spans="1:292">
       <c r="A37" s="1" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="B37" s="1">
         <v>36</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="E37" s="1" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="F37" s="1">
         <v>2014</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="H37" s="1">
         <v>4</v>
@@ -13623,28 +14003,28 @@
         <v>9</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="M37" s="1">
         <v>20</v>
       </c>
-      <c r="N37" s="1">
-        <v>60</v>
-      </c>
+      <c r="N37" s="1"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1">
-        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1">
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="Q37" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="R37" s="1"/>
-      <c r="S37" s="1"/>
-      <c r="T37" s="1"/>
+      <c r="T37" s="1" t="s">
+        <v>175</v>
+      </c>
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
@@ -13913,26 +14293,30 @@
       <c r="JZ37" s="1"/>
       <c r="KA37" s="1"/>
       <c r="KB37" s="1"/>
+      <c r="KC37" s="1"/>
+      <c r="KD37" s="1"/>
+      <c r="KE37" s="1"/>
+      <c r="KF37" s="1"/>
     </row>
-    <row r="38" ht="15.5" spans="1:288">
+    <row r="38" ht="17.6" spans="1:292">
       <c r="A38" s="1"/>
       <c r="B38" s="1">
         <v>37</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="F38" s="1">
         <v>2023</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="H38" s="1">
         <v>1</v>
@@ -13945,37 +14329,37 @@
       </c>
       <c r="K38" s="1"/>
       <c r="L38" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="M38" s="1">
         <v>40</v>
       </c>
-      <c r="N38" s="1">
-        <v>60</v>
-      </c>
+      <c r="N38" s="1"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
-      <c r="S38" s="1"/>
-      <c r="T38" s="1">
+      <c r="S38" s="1">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1">
         <v>1</v>
       </c>
-      <c r="U38" s="1">
+      <c r="X38" s="1">
         <v>0</v>
       </c>
-      <c r="V38" s="1">
+      <c r="Y38" s="1">
         <v>1</v>
       </c>
-      <c r="W38" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="X38" s="1"/>
-      <c r="Y38" s="1"/>
-      <c r="Z38" s="1"/>
+      <c r="Z38" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
       <c r="AC38" s="1"/>
@@ -14238,26 +14622,30 @@
       <c r="JZ38" s="1"/>
       <c r="KA38" s="1"/>
       <c r="KB38" s="1"/>
+      <c r="KC38" s="1"/>
+      <c r="KD38" s="1"/>
+      <c r="KE38" s="1"/>
+      <c r="KF38" s="1"/>
     </row>
-    <row r="39" ht="15.5" spans="1:288">
+    <row r="39" ht="17.6" spans="1:292">
       <c r="A39" s="1"/>
       <c r="B39" s="1">
         <v>38</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="F39" s="1">
         <v>2023</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="H39" s="1">
         <v>1</v>
@@ -14269,39 +14657,39 @@
         <v>9</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="M39" s="1">
         <v>144</v>
       </c>
-      <c r="N39" s="1">
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1">
         <v>20</v>
       </c>
-      <c r="O39" s="1">
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1">
         <v>2</v>
       </c>
-      <c r="P39" s="1">
-        <f t="shared" si="1"/>
+      <c r="S39" s="1">
+        <f t="shared" ref="S39:S48" si="3">M39-R39</f>
         <v>142</v>
       </c>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
-      <c r="T39" s="1">
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1">
         <v>1</v>
       </c>
-      <c r="U39" s="1">
+      <c r="X39" s="1">
         <v>1</v>
       </c>
-      <c r="V39" s="1">
+      <c r="Y39" s="1">
         <v>0</v>
       </c>
-      <c r="W39" s="1"/>
-      <c r="X39" s="1"/>
-      <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
@@ -14565,26 +14953,30 @@
       <c r="JZ39" s="1"/>
       <c r="KA39" s="1"/>
       <c r="KB39" s="1"/>
+      <c r="KC39" s="1"/>
+      <c r="KD39" s="1"/>
+      <c r="KE39" s="1"/>
+      <c r="KF39" s="1"/>
     </row>
-    <row r="40" ht="15.5" spans="1:288">
+    <row r="40" ht="17.6" spans="1:292">
       <c r="A40" s="1"/>
       <c r="B40" s="1">
         <v>39</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="F40" s="1">
         <v>2021</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="H40" s="1">
         <v>1</v>
@@ -14596,46 +14988,46 @@
         <v>9</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="M40" s="1">
         <v>109</v>
       </c>
-      <c r="N40" s="1">
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1">
         <v>60</v>
       </c>
-      <c r="O40" s="1">
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1">
         <v>1</v>
       </c>
-      <c r="P40" s="1">
-        <f t="shared" si="1"/>
+      <c r="S40" s="1">
+        <f t="shared" si="3"/>
         <v>108</v>
       </c>
-      <c r="Q40" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="R40" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="S40" s="1"/>
-      <c r="T40" s="1">
+      <c r="T40" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="U40" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1">
         <v>1</v>
       </c>
-      <c r="U40" s="1">
+      <c r="X40" s="1">
         <v>0</v>
       </c>
-      <c r="V40" s="1">
+      <c r="Y40" s="1">
         <v>0</v>
       </c>
-      <c r="W40" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="X40" s="1"/>
-      <c r="Y40" s="1"/>
-      <c r="Z40" s="1"/>
+      <c r="Z40" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
       <c r="AC40" s="1"/>
@@ -14898,28 +15290,32 @@
       <c r="JZ40" s="1"/>
       <c r="KA40" s="1"/>
       <c r="KB40" s="1"/>
+      <c r="KC40" s="1"/>
+      <c r="KD40" s="1"/>
+      <c r="KE40" s="1"/>
+      <c r="KF40" s="1"/>
     </row>
-    <row r="41" ht="15.5" spans="1:288">
+    <row r="41" ht="17.6" spans="1:292">
       <c r="A41" s="1" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="B41" s="1">
         <v>40</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="F41" s="1">
         <v>2023</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="H41" s="1">
         <v>1</v>
@@ -14931,40 +15327,40 @@
         <v>9</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1">
         <v>40</v>
       </c>
-      <c r="N41" s="1">
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1">
         <v>100</v>
       </c>
-      <c r="O41" s="1">
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1">
         <v>1</v>
       </c>
-      <c r="P41" s="1">
-        <f t="shared" si="1"/>
+      <c r="S41" s="1">
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="1"/>
-      <c r="S41" s="1"/>
-      <c r="T41" s="1">
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1">
         <v>1</v>
       </c>
-      <c r="U41" s="1">
+      <c r="X41" s="1">
         <v>0</v>
       </c>
-      <c r="V41" s="1">
+      <c r="Y41" s="1">
         <v>0</v>
       </c>
-      <c r="W41" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="X41" s="1"/>
-      <c r="Y41" s="1"/>
-      <c r="Z41" s="1"/>
+      <c r="Z41" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
       <c r="AC41" s="1"/>
@@ -15227,26 +15623,30 @@
       <c r="JZ41" s="1"/>
       <c r="KA41" s="1"/>
       <c r="KB41" s="1"/>
+      <c r="KC41" s="1"/>
+      <c r="KD41" s="1"/>
+      <c r="KE41" s="1"/>
+      <c r="KF41" s="1"/>
     </row>
-    <row r="42" ht="15.5" spans="1:288">
+    <row r="42" ht="17.6" spans="1:292">
       <c r="A42" s="1"/>
       <c r="B42" s="1">
         <v>41</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="F42" s="1">
         <v>2022</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="H42" s="1">
         <v>1</v>
@@ -15259,27 +15659,27 @@
       </c>
       <c r="K42" s="1"/>
       <c r="L42" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="M42" s="1">
         <v>30</v>
       </c>
-      <c r="N42" s="1">
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1">
         <v>60</v>
       </c>
-      <c r="O42" s="1">
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1">
         <v>3</v>
       </c>
-      <c r="P42" s="1">
-        <f t="shared" si="1"/>
+      <c r="S42" s="1">
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="Q42" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="R42" s="1"/>
-      <c r="S42" s="1"/>
-      <c r="T42" s="1"/>
+      <c r="T42" s="1" t="s">
+        <v>197</v>
+      </c>
       <c r="U42" s="1"/>
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
@@ -15548,26 +15948,30 @@
       <c r="JZ42" s="1"/>
       <c r="KA42" s="1"/>
       <c r="KB42" s="1"/>
+      <c r="KC42" s="1"/>
+      <c r="KD42" s="1"/>
+      <c r="KE42" s="1"/>
+      <c r="KF42" s="1"/>
     </row>
-    <row r="43" ht="15.5" spans="1:288">
+    <row r="43" ht="17.6" spans="1:292">
       <c r="A43" s="1"/>
       <c r="B43" s="1">
         <v>42</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="F43" s="1">
         <v>2022</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="H43" s="1">
         <v>2</v>
@@ -15580,27 +15984,27 @@
       </c>
       <c r="K43" s="1"/>
       <c r="L43" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="M43" s="1">
         <v>48</v>
       </c>
-      <c r="N43" s="1">
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1">
         <v>60</v>
       </c>
-      <c r="O43" s="1">
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1">
         <v>2</v>
       </c>
-      <c r="P43" s="1">
-        <f t="shared" si="1"/>
+      <c r="S43" s="1">
+        <f t="shared" si="3"/>
         <v>46</v>
       </c>
-      <c r="Q43" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="R43" s="1"/>
-      <c r="S43" s="1"/>
-      <c r="T43" s="1"/>
+      <c r="T43" s="1" t="s">
+        <v>197</v>
+      </c>
       <c r="U43" s="1"/>
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
@@ -15869,28 +16273,32 @@
       <c r="JZ43" s="1"/>
       <c r="KA43" s="1"/>
       <c r="KB43" s="1"/>
+      <c r="KC43" s="1"/>
+      <c r="KD43" s="1"/>
+      <c r="KE43" s="1"/>
+      <c r="KF43" s="1"/>
     </row>
-    <row r="44" ht="15.5" spans="1:288">
+    <row r="44" ht="17.6" spans="1:292">
       <c r="A44" s="1" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="B44" s="1">
         <v>43</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="F44" s="1">
         <v>2022</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="H44" s="1">
         <v>1</v>
@@ -15902,36 +16310,36 @@
         <v>9</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="M44" s="1">
         <v>328</v>
       </c>
-      <c r="N44" s="1">
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1">
         <v>120</v>
       </c>
-      <c r="O44" s="1">
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1">
         <v>40</v>
       </c>
-      <c r="P44" s="1">
-        <f t="shared" si="1"/>
+      <c r="S44" s="1">
+        <f t="shared" si="3"/>
         <v>288</v>
       </c>
-      <c r="Q44" s="1"/>
-      <c r="R44" s="1"/>
-      <c r="S44" s="1"/>
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
       <c r="V44" s="1"/>
-      <c r="W44" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="W44" s="1"/>
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
-      <c r="Z44" s="1"/>
+      <c r="Z44" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
       <c r="AC44" s="1"/>
@@ -16194,26 +16602,30 @@
       <c r="JZ44" s="1"/>
       <c r="KA44" s="1"/>
       <c r="KB44" s="1"/>
+      <c r="KC44" s="1"/>
+      <c r="KD44" s="1"/>
+      <c r="KE44" s="1"/>
+      <c r="KF44" s="1"/>
     </row>
-    <row r="45" ht="15.5" spans="1:288">
+    <row r="45" ht="17.6" spans="1:292">
       <c r="A45" s="1"/>
       <c r="B45" s="1">
         <v>44</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="F45" s="1">
         <v>2020</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="H45" s="1">
         <v>1</v>
@@ -16225,25 +16637,25 @@
         <v>9</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="M45" s="1">
         <v>23</v>
       </c>
-      <c r="N45" s="1">
-        <v>120</v>
-      </c>
+      <c r="N45" s="1"/>
       <c r="O45" s="1"/>
       <c r="P45" s="1">
-        <f t="shared" si="1"/>
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
-      <c r="S45" s="1"/>
+      <c r="S45" s="1">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
       <c r="V45" s="1"/>
@@ -16513,26 +16925,30 @@
       <c r="JZ45" s="1"/>
       <c r="KA45" s="1"/>
       <c r="KB45" s="1"/>
+      <c r="KC45" s="1"/>
+      <c r="KD45" s="1"/>
+      <c r="KE45" s="1"/>
+      <c r="KF45" s="1"/>
     </row>
-    <row r="46" ht="15.5" spans="1:288">
+    <row r="46" ht="17.6" spans="1:292">
       <c r="A46" s="1"/>
       <c r="B46" s="1">
         <v>45</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="F46" s="1">
         <v>2020</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="H46" s="1">
         <v>1</v>
@@ -16544,27 +16960,27 @@
         <v>9</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="M46" s="1">
         <v>21</v>
       </c>
-      <c r="N46" s="1">
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1">
         <v>120</v>
       </c>
-      <c r="O46" s="1">
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1">
         <v>3</v>
       </c>
-      <c r="P46" s="1">
-        <f t="shared" si="1"/>
+      <c r="S46" s="1">
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="Q46" s="1"/>
-      <c r="R46" s="1"/>
-      <c r="S46" s="1"/>
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
       <c r="V46" s="1"/>
@@ -16834,26 +17250,30 @@
       <c r="JZ46" s="1"/>
       <c r="KA46" s="1"/>
       <c r="KB46" s="1"/>
+      <c r="KC46" s="1"/>
+      <c r="KD46" s="1"/>
+      <c r="KE46" s="1"/>
+      <c r="KF46" s="1"/>
     </row>
-    <row r="47" ht="15.5" spans="1:288">
+    <row r="47" ht="17.6" spans="1:292">
       <c r="A47" s="1"/>
       <c r="B47" s="1">
         <v>46</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="F47" s="1">
         <v>2020</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="H47" s="1">
         <v>1</v>
@@ -16865,25 +17285,25 @@
         <v>9</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="M47" s="1">
         <v>18</v>
       </c>
-      <c r="N47" s="1">
-        <v>120</v>
-      </c>
+      <c r="N47" s="1"/>
       <c r="O47" s="1"/>
       <c r="P47" s="1">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
-      <c r="S47" s="1"/>
+      <c r="S47" s="1">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
       <c r="T47" s="1"/>
       <c r="U47" s="1"/>
       <c r="V47" s="1"/>
@@ -17153,26 +17573,30 @@
       <c r="JZ47" s="1"/>
       <c r="KA47" s="1"/>
       <c r="KB47" s="1"/>
+      <c r="KC47" s="1"/>
+      <c r="KD47" s="1"/>
+      <c r="KE47" s="1"/>
+      <c r="KF47" s="1"/>
     </row>
-    <row r="48" ht="15.5" spans="1:288">
+    <row r="48" ht="17.6" spans="1:292">
       <c r="A48" s="1"/>
       <c r="B48" s="1">
         <v>47</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="F48" s="1">
         <v>2023</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="H48" s="1">
         <v>1</v>
@@ -17187,16 +17611,16 @@
         <v>380</v>
       </c>
       <c r="N48" s="1"/>
-      <c r="O48" s="1">
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1">
         <v>32</v>
       </c>
-      <c r="P48" s="1">
-        <f t="shared" si="1"/>
+      <c r="S48" s="1">
+        <f t="shared" si="3"/>
         <v>348</v>
       </c>
-      <c r="Q48" s="1"/>
-      <c r="R48" s="1"/>
-      <c r="S48" s="1"/>
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
       <c r="V48" s="1"/>
@@ -17466,26 +17890,30 @@
       <c r="JZ48" s="1"/>
       <c r="KA48" s="1"/>
       <c r="KB48" s="1"/>
+      <c r="KC48" s="1"/>
+      <c r="KD48" s="1"/>
+      <c r="KE48" s="1"/>
+      <c r="KF48" s="1"/>
     </row>
-    <row r="49" ht="15.5" spans="1:288">
+    <row r="49" ht="17.6" spans="1:292">
       <c r="A49" s="1"/>
       <c r="B49" s="1">
         <v>48</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="F49" s="1">
         <v>2023</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="H49" s="1">
         <v>2</v>
@@ -17772,26 +18200,30 @@
       <c r="JZ49" s="1"/>
       <c r="KA49" s="1"/>
       <c r="KB49" s="1"/>
+      <c r="KC49" s="1"/>
+      <c r="KD49" s="1"/>
+      <c r="KE49" s="1"/>
+      <c r="KF49" s="1"/>
     </row>
-    <row r="50" ht="15.5" spans="1:288">
+    <row r="50" ht="17.6" spans="1:292">
       <c r="A50" s="1"/>
       <c r="B50" s="1">
         <v>49</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="F50" s="1">
         <v>2023</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="H50" s="1">
         <v>3</v>
@@ -18078,26 +18510,30 @@
       <c r="JZ50" s="1"/>
       <c r="KA50" s="1"/>
       <c r="KB50" s="1"/>
+      <c r="KC50" s="1"/>
+      <c r="KD50" s="1"/>
+      <c r="KE50" s="1"/>
+      <c r="KF50" s="1"/>
     </row>
-    <row r="51" ht="15.5" spans="1:288">
+    <row r="51" ht="17.6" spans="1:292">
       <c r="A51" s="1"/>
       <c r="B51" s="1">
         <v>50</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="F51" s="1">
         <v>2021</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="H51" s="1">
         <v>1</v>
@@ -18384,26 +18820,30 @@
       <c r="JZ51" s="1"/>
       <c r="KA51" s="1"/>
       <c r="KB51" s="1"/>
+      <c r="KC51" s="1"/>
+      <c r="KD51" s="1"/>
+      <c r="KE51" s="1"/>
+      <c r="KF51" s="1"/>
     </row>
-    <row r="52" ht="15.5" spans="1:288">
+    <row r="52" ht="17.6" spans="1:292">
       <c r="A52" s="1"/>
       <c r="B52" s="1">
         <v>51</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="F52" s="1">
         <v>2021</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="H52" s="1">
         <v>2</v>
@@ -18690,26 +19130,30 @@
       <c r="JZ52" s="1"/>
       <c r="KA52" s="1"/>
       <c r="KB52" s="1"/>
+      <c r="KC52" s="1"/>
+      <c r="KD52" s="1"/>
+      <c r="KE52" s="1"/>
+      <c r="KF52" s="1"/>
     </row>
-    <row r="53" ht="15.5" spans="1:288">
+    <row r="53" ht="17.6" spans="1:292">
       <c r="A53" s="1"/>
       <c r="B53" s="1">
         <v>52</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="F53" s="1">
         <v>2021</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="H53" s="1">
         <v>3</v>
@@ -18996,26 +19440,30 @@
       <c r="JZ53" s="1"/>
       <c r="KA53" s="1"/>
       <c r="KB53" s="1"/>
+      <c r="KC53" s="1"/>
+      <c r="KD53" s="1"/>
+      <c r="KE53" s="1"/>
+      <c r="KF53" s="1"/>
     </row>
-    <row r="54" ht="15.5" spans="1:288">
+    <row r="54" ht="17.6" spans="1:292">
       <c r="A54" s="1"/>
       <c r="B54" s="1">
         <v>53</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="F54" s="1">
         <v>2023</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="H54" s="1">
         <v>1</v>
@@ -19302,26 +19750,30 @@
       <c r="JZ54" s="1"/>
       <c r="KA54" s="1"/>
       <c r="KB54" s="1"/>
+      <c r="KC54" s="1"/>
+      <c r="KD54" s="1"/>
+      <c r="KE54" s="1"/>
+      <c r="KF54" s="1"/>
     </row>
-    <row r="55" ht="15.5" spans="1:288">
+    <row r="55" ht="17.6" spans="1:292">
       <c r="A55" s="1"/>
       <c r="B55" s="1">
         <v>54</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="F55" s="1">
         <v>2024</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="H55" s="1">
         <v>1</v>
@@ -19608,26 +20060,30 @@
       <c r="JZ55" s="1"/>
       <c r="KA55" s="1"/>
       <c r="KB55" s="1"/>
+      <c r="KC55" s="1"/>
+      <c r="KD55" s="1"/>
+      <c r="KE55" s="1"/>
+      <c r="KF55" s="1"/>
     </row>
-    <row r="56" ht="15.5" spans="1:288">
+    <row r="56" ht="17.6" spans="1:292">
       <c r="A56" s="1"/>
       <c r="B56" s="1">
         <v>55</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="F56" s="1">
         <v>2024</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="H56" s="1">
         <v>1</v>
@@ -19914,8 +20370,12 @@
       <c r="JZ56" s="1"/>
       <c r="KA56" s="1"/>
       <c r="KB56" s="1"/>
+      <c r="KC56" s="1"/>
+      <c r="KD56" s="1"/>
+      <c r="KE56" s="1"/>
+      <c r="KF56" s="1"/>
     </row>
-    <row r="57" ht="15.5" spans="1:288">
+    <row r="57" ht="17.6" spans="1:292">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -20204,8 +20664,12 @@
       <c r="JZ57" s="1"/>
       <c r="KA57" s="1"/>
       <c r="KB57" s="1"/>
+      <c r="KC57" s="1"/>
+      <c r="KD57" s="1"/>
+      <c r="KE57" s="1"/>
+      <c r="KF57" s="1"/>
     </row>
-    <row r="58" ht="15.5" spans="1:288">
+    <row r="58" ht="17.6" spans="1:292">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -20494,8 +20958,12 @@
       <c r="JZ58" s="1"/>
       <c r="KA58" s="1"/>
       <c r="KB58" s="1"/>
+      <c r="KC58" s="1"/>
+      <c r="KD58" s="1"/>
+      <c r="KE58" s="1"/>
+      <c r="KF58" s="1"/>
     </row>
-    <row r="59" ht="15.5" spans="1:288">
+    <row r="59" ht="17.6" spans="1:292">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -20784,8 +21252,12 @@
       <c r="JZ59" s="1"/>
       <c r="KA59" s="1"/>
       <c r="KB59" s="1"/>
+      <c r="KC59" s="1"/>
+      <c r="KD59" s="1"/>
+      <c r="KE59" s="1"/>
+      <c r="KF59" s="1"/>
     </row>
-    <row r="60" ht="15.5" spans="1:288">
+    <row r="60" ht="17.6" spans="1:292">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -21074,8 +21546,12 @@
       <c r="JZ60" s="1"/>
       <c r="KA60" s="1"/>
       <c r="KB60" s="1"/>
+      <c r="KC60" s="1"/>
+      <c r="KD60" s="1"/>
+      <c r="KE60" s="1"/>
+      <c r="KF60" s="1"/>
     </row>
-    <row r="61" ht="15.5" spans="1:288">
+    <row r="61" ht="17.6" spans="1:292">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -21364,8 +21840,12 @@
       <c r="JZ61" s="1"/>
       <c r="KA61" s="1"/>
       <c r="KB61" s="1"/>
+      <c r="KC61" s="1"/>
+      <c r="KD61" s="1"/>
+      <c r="KE61" s="1"/>
+      <c r="KF61" s="1"/>
     </row>
-    <row r="62" ht="15.5" spans="1:288">
+    <row r="62" ht="17.6" spans="1:292">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -21654,8 +22134,12 @@
       <c r="JZ62" s="1"/>
       <c r="KA62" s="1"/>
       <c r="KB62" s="1"/>
+      <c r="KC62" s="1"/>
+      <c r="KD62" s="1"/>
+      <c r="KE62" s="1"/>
+      <c r="KF62" s="1"/>
     </row>
-    <row r="63" ht="15.5" spans="1:288">
+    <row r="63" ht="17.6" spans="1:292">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -21944,8 +22428,12 @@
       <c r="JZ63" s="1"/>
       <c r="KA63" s="1"/>
       <c r="KB63" s="1"/>
+      <c r="KC63" s="1"/>
+      <c r="KD63" s="1"/>
+      <c r="KE63" s="1"/>
+      <c r="KF63" s="1"/>
     </row>
-    <row r="64" ht="15.5" spans="1:288">
+    <row r="64" ht="17.6" spans="1:292">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -22234,8 +22722,12 @@
       <c r="JZ64" s="1"/>
       <c r="KA64" s="1"/>
       <c r="KB64" s="1"/>
+      <c r="KC64" s="1"/>
+      <c r="KD64" s="1"/>
+      <c r="KE64" s="1"/>
+      <c r="KF64" s="1"/>
     </row>
-    <row r="65" ht="15.5" spans="1:288">
+    <row r="65" ht="17.6" spans="1:292">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -22524,8 +23016,12 @@
       <c r="JZ65" s="1"/>
       <c r="KA65" s="1"/>
       <c r="KB65" s="1"/>
+      <c r="KC65" s="1"/>
+      <c r="KD65" s="1"/>
+      <c r="KE65" s="1"/>
+      <c r="KF65" s="1"/>
     </row>
-    <row r="66" ht="15.5" spans="1:288">
+    <row r="66" ht="17.6" spans="1:292">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -22814,8 +23310,12 @@
       <c r="JZ66" s="1"/>
       <c r="KA66" s="1"/>
       <c r="KB66" s="1"/>
+      <c r="KC66" s="1"/>
+      <c r="KD66" s="1"/>
+      <c r="KE66" s="1"/>
+      <c r="KF66" s="1"/>
     </row>
-    <row r="67" ht="15.5" spans="1:288">
+    <row r="67" ht="17.6" spans="1:292">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -23104,8 +23604,12 @@
       <c r="JZ67" s="1"/>
       <c r="KA67" s="1"/>
       <c r="KB67" s="1"/>
+      <c r="KC67" s="1"/>
+      <c r="KD67" s="1"/>
+      <c r="KE67" s="1"/>
+      <c r="KF67" s="1"/>
     </row>
-    <row r="68" ht="15.5" spans="1:288">
+    <row r="68" ht="17.6" spans="1:292">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -23394,8 +23898,12 @@
       <c r="JZ68" s="1"/>
       <c r="KA68" s="1"/>
       <c r="KB68" s="1"/>
+      <c r="KC68" s="1"/>
+      <c r="KD68" s="1"/>
+      <c r="KE68" s="1"/>
+      <c r="KF68" s="1"/>
     </row>
-    <row r="69" ht="15.5" spans="1:288">
+    <row r="69" ht="17.6" spans="1:292">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -23684,8 +24192,12 @@
       <c r="JZ69" s="1"/>
       <c r="KA69" s="1"/>
       <c r="KB69" s="1"/>
+      <c r="KC69" s="1"/>
+      <c r="KD69" s="1"/>
+      <c r="KE69" s="1"/>
+      <c r="KF69" s="1"/>
     </row>
-    <row r="70" ht="15.5" spans="1:288">
+    <row r="70" ht="17.6" spans="1:292">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -23974,8 +24486,12 @@
       <c r="JZ70" s="1"/>
       <c r="KA70" s="1"/>
       <c r="KB70" s="1"/>
+      <c r="KC70" s="1"/>
+      <c r="KD70" s="1"/>
+      <c r="KE70" s="1"/>
+      <c r="KF70" s="1"/>
     </row>
-    <row r="71" ht="15.5" spans="1:288">
+    <row r="71" ht="17.6" spans="1:292">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -24264,8 +24780,12 @@
       <c r="JZ71" s="1"/>
       <c r="KA71" s="1"/>
       <c r="KB71" s="1"/>
+      <c r="KC71" s="1"/>
+      <c r="KD71" s="1"/>
+      <c r="KE71" s="1"/>
+      <c r="KF71" s="1"/>
     </row>
-    <row r="72" ht="15.5" spans="1:12">
+    <row r="72" ht="17.6" spans="1:12">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -24280,7 +24800,7 @@
       <c r="L72" s="1"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:S56" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:V56" etc:filterBottomFollowUsedRange="0">
     <extLst>
       <etc:autoFilterAnalysis etc:version="v1" etc:showPane="0">
         <etc:analysisCharts>
@@ -24309,18 +24829,18 @@
   <dimension ref="A1:H68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E23"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.66964285714286" defaultRowHeight="16.8" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="6.08333333333333" customWidth="1"/>
+    <col min="1" max="1" width="6.08035714285714" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="7" max="7" width="6.08333333333333" customWidth="1"/>
+    <col min="7" max="7" width="6.08035714285714" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.5" spans="1:8">
+    <row r="1" ht="17.6" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -24340,961 +24860,961 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="15.5" spans="1:8">
+    <row r="2" ht="17.6" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1">
         <v>2019</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E2" s="3">
         <v>2019</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H2" s="1">
         <v>2019</v>
       </c>
     </row>
-    <row r="3" ht="15.5" spans="1:8">
+    <row r="3" ht="17.6" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B3" s="1">
         <v>2019</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E3" s="3">
         <v>2020</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H3" s="1">
         <v>2019</v>
       </c>
     </row>
-    <row r="4" ht="15.5" spans="1:8">
+    <row r="4" ht="17.6" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B4" s="1">
         <v>2019</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E4" s="3">
         <v>2020</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H4" s="1">
         <v>2019</v>
       </c>
     </row>
-    <row r="5" ht="15.5" spans="1:8">
+    <row r="5" ht="17.6" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B5" s="1">
         <v>2019</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="E5" s="3">
         <v>2020</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H5" s="1">
         <v>2019</v>
       </c>
     </row>
-    <row r="6" ht="15.5" hidden="1" spans="1:8">
+    <row r="6" ht="17.6" hidden="1" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B6" s="1">
         <v>2020</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="E6" s="3">
         <v>2020</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="H6" s="1">
         <v>2020</v>
       </c>
     </row>
-    <row r="7" ht="15.5" hidden="1" spans="1:8">
+    <row r="7" ht="17.6" hidden="1" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B7" s="1">
         <v>2020</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E7" s="3">
         <v>2019</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="H7" s="1">
         <v>2020</v>
       </c>
     </row>
-    <row r="8" ht="15.5" hidden="1" spans="1:8">
+    <row r="8" ht="17.6" hidden="1" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B8" s="1">
         <v>2020</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="E8" s="3">
         <v>2018</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H8" s="1">
         <v>2020</v>
       </c>
     </row>
-    <row r="9" ht="15.5" hidden="1" spans="1:8">
+    <row r="9" ht="17.6" hidden="1" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B9" s="1">
         <v>2021</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="E9" s="3">
         <v>2021</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="H9" s="1">
         <v>2021</v>
       </c>
     </row>
-    <row r="10" ht="15.5" hidden="1" spans="1:8">
+    <row r="10" ht="17.6" hidden="1" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B10" s="1">
         <v>2020</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="E10" s="3">
         <v>2021</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="H10" s="1">
         <v>2020</v>
       </c>
     </row>
-    <row r="11" ht="15.5" spans="1:8">
+    <row r="11" ht="17.6" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B11" s="1">
         <v>2020</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="E11" s="3">
         <v>2022</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H11" s="1">
         <v>2020</v>
       </c>
     </row>
-    <row r="12" ht="15.5" spans="1:8">
+    <row r="12" ht="17.6" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B12" s="1">
         <v>2020</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="E12" s="3">
         <v>2021</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H12" s="1">
         <v>2020</v>
       </c>
     </row>
-    <row r="13" ht="15.5" spans="1:8">
+    <row r="13" ht="17.6" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="B13" s="1">
         <v>2019</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="E13" s="3">
         <v>2023</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H13" s="1">
         <v>2019</v>
       </c>
     </row>
-    <row r="14" ht="15.5" spans="1:8">
+    <row r="14" ht="17.6" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="B14" s="1">
         <v>2019</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="E14" s="3">
         <v>2023</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H14" s="1">
         <v>2019</v>
       </c>
     </row>
-    <row r="15" ht="15.5" spans="1:8">
+    <row r="15" ht="17.6" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="B15" s="1">
         <v>2018</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="E15" s="3">
         <v>2014</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="H15" s="1">
         <v>2018</v>
       </c>
     </row>
-    <row r="16" ht="15.5" spans="1:8">
+    <row r="16" ht="17.6" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="B16" s="1">
         <v>2018</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="E16" s="3">
         <v>2015</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="H16" s="1">
         <v>2018</v>
       </c>
     </row>
-    <row r="17" ht="15.5" hidden="1" spans="1:8">
+    <row r="17" ht="17.6" hidden="1" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="B17" s="1">
         <v>2021</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="E17" s="3">
         <v>2014</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="H17" s="1">
         <v>2021</v>
       </c>
     </row>
-    <row r="18" ht="15.5" spans="1:8">
+    <row r="18" ht="17.6" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="B18" s="1">
         <v>2021</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="E18" s="3">
         <v>2023</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="H18" s="1">
         <v>2021</v>
       </c>
     </row>
-    <row r="19" ht="15.5" spans="1:8">
+    <row r="19" ht="17.6" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="B19" s="1">
         <v>2021</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="E19" s="3">
         <v>2023</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="H19" s="1">
         <v>2021</v>
       </c>
     </row>
-    <row r="20" ht="15.5" spans="1:8">
+    <row r="20" ht="17.6" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="B20" s="1">
         <v>2021</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="E20" s="3">
         <v>2021</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="H20" s="1">
         <v>2021</v>
       </c>
     </row>
-    <row r="21" ht="15.5" spans="1:8">
+    <row r="21" ht="17.6" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="B21" s="1">
         <v>2022</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="E21" s="3">
         <v>2023</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="H21" s="1">
         <v>2022</v>
       </c>
     </row>
-    <row r="22" ht="15.5" spans="1:8">
+    <row r="22" ht="17.6" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="B22" s="1">
         <v>2022</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="E22" s="3">
         <v>2022</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="H22" s="1">
         <v>2022</v>
       </c>
     </row>
-    <row r="23" ht="15.5" spans="1:8">
+    <row r="23" ht="17.6" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="B23" s="1">
         <v>2022</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="E23" s="3">
         <v>2022</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="H23" s="1">
         <v>2022</v>
       </c>
     </row>
-    <row r="24" ht="15.5" hidden="1" spans="1:8">
+    <row r="24" ht="17.6" hidden="1" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="B24" s="1">
         <v>2021</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="E24" s="3">
         <v>2020</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="H24" s="1">
         <v>2021</v>
       </c>
     </row>
-    <row r="25" ht="15.5" hidden="1" spans="1:8">
+    <row r="25" ht="17.6" hidden="1" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B25" s="1">
         <v>2023</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="E25" s="3">
         <v>2023</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="H25" s="1">
         <v>2023</v>
       </c>
     </row>
-    <row r="26" ht="15.5" hidden="1" spans="1:8">
+    <row r="26" ht="17.6" hidden="1" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="B26" s="1">
         <v>2023</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="H26" s="1">
         <v>2023</v>
       </c>
     </row>
-    <row r="27" ht="15.5" hidden="1" spans="1:8">
+    <row r="27" ht="17.6" hidden="1" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="B27" s="1">
         <v>2014</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="H27" s="1">
         <v>2014</v>
       </c>
     </row>
-    <row r="28" ht="15.5" spans="1:8">
+    <row r="28" ht="17.6" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="B28" s="1">
         <v>2015</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="H28" s="1">
         <v>2015</v>
       </c>
     </row>
-    <row r="29" ht="15.5" spans="1:8">
+    <row r="29" ht="17.6" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="B29" s="1">
         <v>2015</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="H29" s="1">
         <v>2015</v>
       </c>
     </row>
-    <row r="30" ht="15.5" spans="1:8">
+    <row r="30" ht="17.6" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="B30" s="1">
         <v>2014</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="H30" s="1">
         <v>2014</v>
       </c>
     </row>
-    <row r="31" ht="15.5" spans="1:8">
+    <row r="31" ht="17.6" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="B31" s="1">
         <v>2014</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="H31" s="1">
         <v>2014</v>
       </c>
     </row>
-    <row r="32" ht="15.5" spans="1:8">
+    <row r="32" ht="17.6" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="B32" s="1">
         <v>2014</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="H32" s="1">
         <v>2014</v>
       </c>
     </row>
-    <row r="33" ht="15.5" spans="1:8">
+    <row r="33" ht="17.6" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="B33" s="1">
         <v>2014</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="H33" s="1">
         <v>2014</v>
       </c>
     </row>
-    <row r="34" ht="15.5" hidden="1" spans="1:8">
+    <row r="34" ht="17.6" hidden="1" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="B34" s="1">
         <v>2023</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="H34" s="1">
         <v>2023</v>
       </c>
     </row>
-    <row r="35" ht="15.5" hidden="1" spans="1:8">
+    <row r="35" ht="17.6" hidden="1" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="B35" s="1">
         <v>2023</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="H35" s="1">
         <v>2023</v>
       </c>
     </row>
-    <row r="36" ht="15.5" hidden="1" spans="1:8">
+    <row r="36" ht="17.6" hidden="1" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="B36" s="1">
         <v>2021</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="H36" s="1">
         <v>2021</v>
       </c>
     </row>
-    <row r="37" ht="15.5" hidden="1" spans="1:8">
+    <row r="37" ht="17.6" hidden="1" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="B37" s="1">
         <v>2023</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="H37" s="1">
         <v>2023</v>
       </c>
     </row>
-    <row r="38" ht="15.5" spans="1:8">
+    <row r="38" ht="17.6" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="B38" s="1">
         <v>2022</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="H38" s="1">
         <v>2022</v>
       </c>
     </row>
-    <row r="39" ht="15.5" spans="1:8">
+    <row r="39" ht="17.6" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="B39" s="1">
         <v>2022</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="H39" s="1">
         <v>2022</v>
       </c>
     </row>
-    <row r="40" ht="15.5" hidden="1" spans="1:8">
+    <row r="40" ht="17.6" hidden="1" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="B40" s="1">
         <v>2022</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="H40" s="1">
         <v>2022</v>
       </c>
     </row>
-    <row r="41" ht="15.5" spans="1:8">
+    <row r="41" ht="17.6" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="B41" s="1">
         <v>2020</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="H41" s="1">
         <v>2020</v>
       </c>
     </row>
-    <row r="42" ht="15.5" spans="1:8">
+    <row r="42" ht="17.6" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="B42" s="1">
         <v>2020</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="H42" s="1">
         <v>2020</v>
       </c>
     </row>
-    <row r="43" ht="15.5" spans="1:8">
+    <row r="43" ht="17.6" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="B43" s="1">
         <v>2020</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="H43" s="1">
         <v>2020</v>
       </c>
     </row>
-    <row r="44" ht="15.5" spans="1:8">
+    <row r="44" ht="17.6" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="B44" s="1">
         <v>2023</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="H44" s="1">
         <v>2023</v>
       </c>
     </row>
-    <row r="45" ht="15.5" spans="1:8">
+    <row r="45" ht="17.6" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="B45" s="1">
         <v>2023</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="H45" s="1">
         <v>2023</v>
       </c>
     </row>
-    <row r="46" ht="15.5" spans="1:8">
+    <row r="46" ht="17.6" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="B46" s="1">
         <v>2023</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="H46" s="1">
         <v>2023</v>
       </c>
     </row>
-    <row r="47" ht="15.5" spans="1:8">
+    <row r="47" ht="17.6" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="B47" s="1">
         <v>2021</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="H47" s="1">
         <v>2021</v>
       </c>
     </row>
-    <row r="48" ht="15.5" spans="1:8">
+    <row r="48" ht="17.6" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="B48" s="1">
         <v>2021</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="H48" s="1">
         <v>2021</v>
       </c>
     </row>
-    <row r="49" ht="15.5" spans="1:8">
+    <row r="49" ht="17.6" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="B49" s="1">
         <v>2021</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="H49" s="1">
         <v>2021</v>
       </c>
     </row>
-    <row r="50" ht="15.5" hidden="1" spans="1:8">
+    <row r="50" ht="17.6" hidden="1" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="B50" s="1">
         <v>2023</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="H50" s="1">
         <v>2023</v>
       </c>
     </row>
-    <row r="51" ht="15.5" hidden="1" spans="1:8">
+    <row r="51" ht="17.6" hidden="1" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="B51" s="1">
         <v>2024</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="H51" s="1">
         <v>2024</v>
       </c>
     </row>
-    <row r="52" ht="15.5" hidden="1" spans="1:8">
+    <row r="52" ht="17.6" hidden="1" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="B52" s="1">
         <v>2024</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="H52" s="1">
         <v>2024</v>
       </c>
     </row>
-    <row r="53" ht="15.5" hidden="1" spans="1:8">
+    <row r="53" ht="17.6" hidden="1" spans="1:8">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
     </row>
-    <row r="54" ht="15.5" hidden="1" spans="1:8">
+    <row r="54" ht="17.6" hidden="1" spans="1:8">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" ht="15.5" hidden="1" spans="1:8">
+    <row r="55" ht="17.6" hidden="1" spans="1:8">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
     </row>
-    <row r="56" ht="15.5" hidden="1" spans="1:8">
+    <row r="56" ht="17.6" hidden="1" spans="1:8">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" ht="15.5" hidden="1" spans="1:8">
+    <row r="57" ht="17.6" hidden="1" spans="1:8">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
     </row>
-    <row r="58" ht="15.5" hidden="1" spans="1:8">
+    <row r="58" ht="17.6" hidden="1" spans="1:8">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" ht="15.5" hidden="1" spans="1:8">
+    <row r="59" ht="17.6" hidden="1" spans="1:8">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
     </row>
-    <row r="60" ht="15.5" hidden="1" spans="1:8">
+    <row r="60" ht="17.6" hidden="1" spans="1:8">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
     </row>
-    <row r="61" ht="15.5" hidden="1" spans="1:8">
+    <row r="61" ht="17.6" hidden="1" spans="1:8">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
     </row>
-    <row r="62" ht="15.5" hidden="1" spans="1:8">
+    <row r="62" ht="17.6" hidden="1" spans="1:8">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
     </row>
-    <row r="63" ht="15.5" hidden="1" spans="1:8">
+    <row r="63" ht="17.6" hidden="1" spans="1:8">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
     </row>
-    <row r="64" ht="15.5" hidden="1" spans="1:8">
+    <row r="64" ht="17.6" hidden="1" spans="1:8">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
     </row>
-    <row r="65" ht="15.5" hidden="1" spans="1:8">
+    <row r="65" ht="17.6" hidden="1" spans="1:8">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
     </row>
-    <row r="66" ht="15.5" hidden="1" spans="1:8">
+    <row r="66" ht="17.6" hidden="1" spans="1:8">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
     </row>
-    <row r="67" ht="15.5" hidden="1" spans="1:8">
+    <row r="67" ht="17.6" hidden="1" spans="1:8">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
     </row>
-    <row r="68" ht="15.5" hidden="1" spans="1:8">
+    <row r="68" ht="17.6" hidden="1" spans="1:8">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="G68" s="1"/>

--- a/Label.xlsx
+++ b/Label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25180" windowHeight="10060"/>
+    <workbookView windowWidth="19640" windowHeight="11240"/>
   </bookViews>
   <sheets>
     <sheet name="Label" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="252">
   <si>
     <t>Note</t>
   </si>
@@ -524,10 +524,145 @@
     <t>Experimental Psychology</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2 (target location: self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>stranger)*3(type of representation: label</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>shape</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">pair) </t>
+    </r>
+  </si>
+  <si>
     <t>Pn14E2</t>
   </si>
   <si>
+    <t>2(target
+location: self,stranger)*3(type of representation: label,shape,pair)</t>
+  </si>
+  <si>
     <t>Pn14E3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2 (shape: self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_x0002_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>associated</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>stranger-associated)*2 (trial type:
+matching</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>nonmatching)</t>
+    </r>
   </si>
   <si>
     <t>Pn16E1</t>
@@ -542,16 +677,52 @@
     <t>Psychological Research</t>
   </si>
   <si>
+    <t xml:space="preserve"> 2 (Shape Association: self,friend)*2(Matching Condition: matching,nonmatching)</t>
+  </si>
+  <si>
     <t>Pn16E2</t>
   </si>
   <si>
     <t>Frequency (Self &gt; Friend)</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 2(Stimulus Frequency: self-frequent,friend-frequent)*2(Shape Association: self,friend)*2(Matching Condi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_x0002_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>tion: matching,nonmatching)</t>
+    </r>
+  </si>
+  <si>
     <t>Pn16E3</t>
   </si>
   <si>
     <t>Frequency (Self &lt; Friend)</t>
+  </si>
+  <si>
+    <t>2(Stimulus Frequency: self-frequent,friend-frequent)*2 
+(Shape Association: self,friend)*2(Matching Condition: matching,nonmatching)*Trial Number</t>
   </si>
   <si>
     <t>Pn23E1</t>
@@ -600,6 +771,9 @@
   </si>
   <si>
     <t>Citation()</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2 (matching: match,mismatch)*2(reference: self,other)*3 (moral character: good,neutral,bad)</t>
   </si>
   <si>
     <t>unpublished</t>
@@ -681,6 +855,9 @@
   </si>
   <si>
     <t>PSYCHOLOGY</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2 (stimuli pairings: self-associated,stranger-associated)*2 (condition: match,non-match)</t>
   </si>
   <si>
     <t>Pt2E1</t>
@@ -772,6 +949,9 @@
     <t>Schäfer et al.</t>
   </si>
   <si>
+    <t xml:space="preserve">2 (stimulus valence: negative,neutral)*2 (matching condition: matching,nonmatching)*3 (association: self,mother,acquaintance) </t>
+  </si>
+  <si>
     <t>Pt6E1</t>
   </si>
   <si>
@@ -785,6 +965,15 @@
   </si>
   <si>
     <t>symmetry: (symmetry; asymmetry)</t>
+  </si>
+  <si>
+    <t>PsychoPy3</t>
+  </si>
+  <si>
+    <t>Italian</t>
+  </si>
+  <si>
+    <t>2 matching(matched,nonmatching)*2 shape(self-related,stranger-related)*60 repetitions</t>
   </si>
   <si>
     <t>Pt6E2</t>
@@ -809,6 +998,12 @@
   </si>
   <si>
     <t>Pt9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matlab </t>
+  </si>
+  <si>
+    <t>2(task:standard task vs. pseudo-words task)*2(trial type:matching,mismatching)*3(identity:self,friend,none)</t>
   </si>
   <si>
     <t>Pt9E2</t>
@@ -865,6 +1060,9 @@
     <t>Consciousness and Cognition</t>
   </si>
   <si>
+    <t>3 (Shape Association: self,friend,stranger)*2(Matching Condition: matching,mismatching)</t>
+  </si>
+  <si>
     <t>Pt27E2</t>
   </si>
   <si>
@@ -872,6 +1070,15 @@
   </si>
   <si>
     <t>V Martínez-Pérez et al.</t>
+  </si>
+  <si>
+    <t>E-prime 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Spanish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2(match:matching,non-matching)*3(label condition:you, friend, stranger) </t>
   </si>
   <si>
     <t>Pt28E1</t>
@@ -884,6 +1091,33 @@
   </si>
   <si>
     <t>Cognitive, Affective, &amp; Behavioral Neuroscience</t>
+  </si>
+  <si>
+    <t>Close-Others</t>
+  </si>
+  <si>
+    <r>
+      <t>2 (Group: Autism,Neuro</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_x0002_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>typical)*2 (Trials: Matching,Mismatching)*3 (Person: 
+Self,Close Other,Stranger)</t>
+    </r>
   </si>
   <si>
     <t>NaN</t>
@@ -899,7 +1133,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -928,9 +1162,26 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9.8"/>
       <color rgb="FF000000"/>
       <name val="WarnockPro-Regular"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="CharisSIL"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1067,8 +1318,14 @@
       <name val="Arial"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体-简"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1090,6 +1347,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1415,67 +1678,64 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1484,10 +1744,10 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1496,10 +1756,10 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1508,10 +1768,10 @@
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1520,10 +1780,10 @@
     <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1532,10 +1792,10 @@
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1544,8 +1804,11 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1582,10 +1845,28 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1974,12 +2255,12 @@
   <sheetPr/>
   <dimension ref="A1:KF72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="Z2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="AI10" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AD1" sqref="AD$1:AD$1048576"/>
+      <selection pane="bottomRight" activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -2007,6 +2288,7 @@
     <col min="25" max="25" width="8.66964285714286" customWidth="1"/>
     <col min="26" max="26" width="23.8303571428571" style="4" customWidth="1"/>
     <col min="27" max="27" width="14.5" customWidth="1"/>
+    <col min="29" max="29" width="9.92857142857143"/>
     <col min="30" max="30" width="15.1696428571429" customWidth="1"/>
     <col min="32" max="32" width="12.625" customWidth="1"/>
   </cols>
@@ -2090,22 +2372,22 @@
       <c r="Z1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="12" t="s">
+      <c r="AA1" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="12" t="s">
+      <c r="AB1" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="12" t="s">
+      <c r="AC1" s="16" t="s">
         <v>28</v>
       </c>
       <c r="AD1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="12" t="s">
+      <c r="AE1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="12"/>
+      <c r="AF1" s="16"/>
     </row>
     <row r="2" ht="17.6" spans="1:292">
       <c r="A2" s="1" t="s">
@@ -3230,9 +3512,7 @@
         <v>14</v>
       </c>
       <c r="AD5" s="1"/>
-      <c r="AE5" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
       <c r="AG5" s="1"/>
       <c r="AH5" s="1"/>
@@ -3583,7 +3863,7 @@
       <c r="AD6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE6" s="14" t="s">
+      <c r="AE6" s="18" t="s">
         <v>57</v>
       </c>
       <c r="AF6" s="1"/>
@@ -3928,9 +4208,7 @@
         <v>27</v>
       </c>
       <c r="AD7" s="1"/>
-      <c r="AE7" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
       <c r="AH7" s="1"/>
@@ -4271,7 +4549,7 @@
         <v>14</v>
       </c>
       <c r="AD8" s="1"/>
-      <c r="AE8" s="14" t="s">
+      <c r="AE8" s="18" t="s">
         <v>70</v>
       </c>
       <c r="AF8" s="1"/>
@@ -4617,9 +4895,7 @@
         <v>32</v>
       </c>
       <c r="AD9" s="1"/>
-      <c r="AE9" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="AE9" s="1"/>
       <c r="AF9" s="1"/>
       <c r="AG9" s="1"/>
       <c r="AH9" s="1"/>
@@ -5272,7 +5548,9 @@
       <c r="P11" s="1">
         <v>144</v>
       </c>
-      <c r="Q11" s="1"/>
+      <c r="Q11" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="R11" s="1">
         <v>2</v>
       </c>
@@ -5652,7 +5930,7 @@
         <v>19</v>
       </c>
       <c r="AD12" s="1"/>
-      <c r="AE12" s="14" t="s">
+      <c r="AE12" s="18" t="s">
         <v>91</v>
       </c>
       <c r="AF12" s="1"/>
@@ -5999,7 +6277,7 @@
         <v>90</v>
       </c>
       <c r="AD13" s="1"/>
-      <c r="AE13" s="14" t="s">
+      <c r="AE13" s="18" t="s">
         <v>100</v>
       </c>
       <c r="AF13" s="1"/>
@@ -6352,9 +6630,7 @@
       <c r="AD14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE14" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="AE14" s="1"/>
       <c r="AF14" s="1"/>
       <c r="AG14" s="1"/>
       <c r="AH14" s="1"/>
@@ -6705,9 +6981,7 @@
       <c r="AD15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE15" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
       <c r="AG15" s="1"/>
       <c r="AH15" s="1"/>
@@ -7698,13 +7972,21 @@
       <c r="M18" s="1">
         <v>13</v>
       </c>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
+      <c r="N18" s="1">
+        <v>12</v>
+      </c>
+      <c r="O18" s="1">
+        <v>1</v>
+      </c>
       <c r="P18" s="1">
-        <v>120</v>
-      </c>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
+        <v>360</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>3</v>
+      </c>
+      <c r="R18" s="1">
+        <v>0</v>
+      </c>
       <c r="S18" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -8033,13 +8315,21 @@
       <c r="M19" s="1">
         <v>27</v>
       </c>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
+      <c r="N19" s="1">
+        <v>12</v>
+      </c>
+      <c r="O19" s="1">
+        <v>1</v>
+      </c>
       <c r="P19" s="1">
-        <v>120</v>
-      </c>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
+        <v>360</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>3</v>
+      </c>
+      <c r="R19" s="1">
+        <v>0</v>
+      </c>
       <c r="S19" s="1">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -8368,13 +8658,21 @@
       <c r="M20" s="1">
         <v>27</v>
       </c>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
+      <c r="N20" s="1">
+        <v>12</v>
+      </c>
+      <c r="O20" s="1">
+        <v>1</v>
+      </c>
       <c r="P20" s="1">
-        <v>120</v>
-      </c>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
+        <v>360</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>3</v>
+      </c>
+      <c r="R20" s="1">
+        <v>0</v>
+      </c>
       <c r="S20" s="1">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -8703,16 +9001,24 @@
       <c r="M21" s="1">
         <v>26</v>
       </c>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
+      <c r="N21" s="1">
+        <v>12</v>
+      </c>
+      <c r="O21" s="1">
+        <v>1</v>
+      </c>
       <c r="P21" s="1">
-        <v>120</v>
-      </c>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
+        <v>360</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>3</v>
+      </c>
+      <c r="R21" s="1">
+        <v>1</v>
+      </c>
       <c r="S21" s="1">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
@@ -8736,7 +9042,7 @@
         <v>9</v>
       </c>
       <c r="AC21" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
@@ -9002,7 +9308,7 @@
       <c r="KE21" s="1"/>
       <c r="KF21" s="1"/>
     </row>
-    <row r="22" ht="17.6" spans="1:292">
+    <row r="22" ht="18" spans="1:292">
       <c r="A22" s="1"/>
       <c r="B22" s="1">
         <v>21</v>
@@ -9038,12 +9344,18 @@
       <c r="M22" s="1">
         <v>38</v>
       </c>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
+      <c r="N22" s="1">
+        <v>84</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="P22" s="1">
         <v>128</v>
       </c>
-      <c r="Q22" s="1"/>
+      <c r="Q22" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="R22" s="1">
         <v>4</v>
       </c>
@@ -9076,7 +9388,9 @@
         <v>29</v>
       </c>
       <c r="AD22" s="1"/>
-      <c r="AE22" s="1"/>
+      <c r="AE22" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="AF22" s="1"/>
       <c r="AG22" s="1"/>
       <c r="AH22" s="1"/>
@@ -9345,7 +9659,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>124</v>
@@ -9375,12 +9689,18 @@
       <c r="M23" s="1">
         <v>33</v>
       </c>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
+      <c r="N23" s="1">
+        <v>24</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="P23" s="1">
-        <v>128</v>
-      </c>
-      <c r="Q23" s="1"/>
+        <v>240</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="R23" s="1">
         <v>2</v>
       </c>
@@ -9413,7 +9733,9 @@
         <v>26</v>
       </c>
       <c r="AD23" s="1"/>
-      <c r="AE23" s="1"/>
+      <c r="AE23" s="18" t="s">
+        <v>129</v>
+      </c>
       <c r="AF23" s="1"/>
       <c r="AG23" s="1"/>
       <c r="AH23" s="1"/>
@@ -9676,13 +9998,13 @@
       <c r="KE23" s="1"/>
       <c r="KF23" s="1"/>
     </row>
-    <row r="24" ht="17.6" spans="1:292">
+    <row r="24" ht="18" spans="1:292">
       <c r="A24" s="1"/>
       <c r="B24" s="1">
         <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>124</v>
@@ -9712,12 +10034,18 @@
       <c r="M24" s="1">
         <v>36</v>
       </c>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
+      <c r="N24" s="1">
+        <v>24</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="P24" s="1">
-        <v>128</v>
-      </c>
-      <c r="Q24" s="1"/>
+        <v>240</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="R24" s="1">
         <v>1</v>
       </c>
@@ -9750,7 +10078,9 @@
         <v>29</v>
       </c>
       <c r="AD24" s="1"/>
-      <c r="AE24" s="1"/>
+      <c r="AE24" s="18" t="s">
+        <v>131</v>
+      </c>
       <c r="AF24" s="1"/>
       <c r="AG24" s="1"/>
       <c r="AH24" s="1"/>
@@ -10019,19 +10349,19 @@
         <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F25" s="1">
         <v>2022</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H25" s="1">
         <v>1</v>
@@ -10049,13 +10379,21 @@
       <c r="M25" s="1">
         <v>20</v>
       </c>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
+      <c r="N25" s="1">
+        <v>10</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="P25" s="1">
         <v>200</v>
       </c>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
+      <c r="Q25" s="1">
+        <v>4</v>
+      </c>
+      <c r="R25" s="1">
+        <v>0</v>
+      </c>
       <c r="S25" s="1">
         <f t="shared" ref="S25:S48" si="2">M25-R25</f>
         <v>20</v>
@@ -10081,7 +10419,9 @@
         <v>14</v>
       </c>
       <c r="AD25" s="1"/>
-      <c r="AE25" s="1"/>
+      <c r="AE25" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="AF25" s="1"/>
       <c r="AG25" s="1"/>
       <c r="AH25" s="1"/>
@@ -10344,25 +10684,25 @@
       <c r="KE25" s="1"/>
       <c r="KF25" s="1"/>
     </row>
-    <row r="26" ht="17.6" spans="1:292">
+    <row r="26" ht="18" spans="1:292">
       <c r="A26" s="1"/>
       <c r="B26" s="1">
         <v>25</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="E26" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F26" s="1">
         <v>2022</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H26" s="1">
         <v>2</v>
@@ -10380,19 +10720,27 @@
       <c r="M26" s="1">
         <v>24</v>
       </c>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
+      <c r="N26" s="1">
+        <v>10</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="P26" s="1">
-        <v>200</v>
-      </c>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
+        <v>400</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>2</v>
+      </c>
+      <c r="R26" s="1">
+        <v>0</v>
+      </c>
       <c r="S26" s="1">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
@@ -10414,7 +10762,9 @@
         <v>16</v>
       </c>
       <c r="AD26" s="1"/>
-      <c r="AE26" s="1"/>
+      <c r="AE26" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="AF26" s="1"/>
       <c r="AG26" s="1"/>
       <c r="AH26" s="1"/>
@@ -10683,19 +11033,19 @@
         <v>26</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F27" s="1">
         <v>2022</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H27" s="1">
         <v>3</v>
@@ -10713,19 +11063,27 @@
       <c r="M27" s="1">
         <v>25</v>
       </c>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
+      <c r="N27" s="1">
+        <v>10</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="P27" s="1">
-        <v>100</v>
-      </c>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
+        <v>400</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>2</v>
+      </c>
+      <c r="R27" s="1">
+        <v>0</v>
+      </c>
       <c r="S27" s="1">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
@@ -10747,7 +11105,9 @@
         <v>18</v>
       </c>
       <c r="AD27" s="1"/>
-      <c r="AE27" s="1"/>
+      <c r="AE27" s="18" t="s">
+        <v>142</v>
+      </c>
       <c r="AF27" s="1"/>
       <c r="AG27" s="1"/>
       <c r="AH27" s="1"/>
@@ -11016,19 +11376,19 @@
         <v>27</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="F28" s="1">
         <v>2021</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="H28" s="1">
         <v>1</v>
@@ -11048,19 +11408,27 @@
       <c r="M28" s="1">
         <v>105</v>
       </c>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
+      <c r="N28" s="1">
+        <v>12</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="P28" s="1">
         <v>360</v>
       </c>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
+      <c r="Q28" s="1">
+        <v>3</v>
+      </c>
+      <c r="R28" s="1">
+        <v>0</v>
+      </c>
       <c r="S28" s="1">
         <f t="shared" si="2"/>
         <v>105</v>
       </c>
       <c r="T28" s="9" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
@@ -11349,7 +11717,7 @@
       <c r="KE28" s="1"/>
       <c r="KF28" s="1"/>
     </row>
-    <row r="29" ht="17.6" spans="1:292">
+    <row r="29" ht="17" customHeight="1" spans="1:292">
       <c r="A29" s="1" t="s">
         <v>101</v>
       </c>
@@ -11357,19 +11725,19 @@
         <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F29" s="1">
         <v>2023</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="H29" s="1">
         <v>1</v>
@@ -11387,12 +11755,18 @@
       <c r="M29" s="1">
         <v>302</v>
       </c>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
+      <c r="N29" s="1">
+        <v>1</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="P29" s="1">
-        <v>16</v>
-      </c>
-      <c r="Q29" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="R29" s="1">
         <v>3</v>
       </c>
@@ -11412,17 +11786,17 @@
       <c r="Y29" s="11">
         <v>0</v>
       </c>
-      <c r="Z29" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="AA29" s="1"/>
+      <c r="Z29" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA29" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="AB29" s="1">
-        <f>SUM(AB2:AB28)</f>
-        <v>323</v>
+        <v>132</v>
       </c>
       <c r="AC29" s="1">
-        <f>SUM(AC2:AC28)</f>
-        <v>673</v>
+        <v>161</v>
       </c>
       <c r="AD29" s="1"/>
       <c r="AE29" s="1"/>
@@ -11690,16 +12064,16 @@
     </row>
     <row r="30" ht="17.6" spans="1:292">
       <c r="A30" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B30" s="1">
         <v>29</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>60</v>
@@ -11712,7 +12086,7 @@
         <v>1</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>9</v>
@@ -11724,25 +12098,31 @@
       <c r="M30" s="1">
         <v>23</v>
       </c>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
+      <c r="N30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="P30" s="1">
         <v>90</v>
       </c>
-      <c r="Q30" s="1"/>
+      <c r="Q30" s="1">
+        <v>2</v>
+      </c>
       <c r="R30" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S30" s="1">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="U30" s="1"/>
       <c r="V30" s="1" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="W30" s="10">
         <v>1</v>
@@ -11753,12 +12133,18 @@
       <c r="Y30" s="10">
         <v>1</v>
       </c>
-      <c r="Z30" s="13"/>
-      <c r="AA30" s="1"/>
+      <c r="Z30" s="17"/>
+      <c r="AA30" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="AB30" s="1"/>
       <c r="AC30" s="1"/>
-      <c r="AD30" s="1"/>
-      <c r="AE30" s="1"/>
+      <c r="AD30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE30" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="AF30" s="1"/>
       <c r="AG30" s="1"/>
       <c r="AH30" s="1"/>
@@ -12023,19 +12409,19 @@
     </row>
     <row r="31" ht="17.6" spans="1:292">
       <c r="A31" s="1" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="B31" s="1">
         <v>30</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="F31" s="1">
         <v>2014</v>
@@ -12346,19 +12732,19 @@
     </row>
     <row r="32" ht="17.6" spans="1:292">
       <c r="A32" s="1" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="B32" s="1">
         <v>31</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="F32" s="1">
         <v>2015</v>
@@ -12669,19 +13055,19 @@
     </row>
     <row r="33" ht="17.6" spans="1:292">
       <c r="A33" s="1" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="B33" s="1">
         <v>32</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="F33" s="1">
         <v>2015</v>
@@ -12992,25 +13378,25 @@
     </row>
     <row r="34" ht="17.6" spans="1:292">
       <c r="A34" s="1" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="B34" s="1">
         <v>33</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="F34" s="1">
         <v>2014</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="H34" s="1">
         <v>1</v>
@@ -13022,7 +13408,7 @@
         <v>9</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>54</v>
@@ -13042,7 +13428,7 @@
         <v>24</v>
       </c>
       <c r="T34" s="1" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
@@ -13319,25 +13705,25 @@
     </row>
     <row r="35" ht="17.6" spans="1:292">
       <c r="A35" s="1" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B35" s="1">
         <v>34</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="F35" s="1">
         <v>2014</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="H35" s="1">
         <v>2</v>
@@ -13349,7 +13735,7 @@
         <v>9</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>54</v>
@@ -13369,12 +13755,12 @@
         <v>18</v>
       </c>
       <c r="T35" s="1" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
-      <c r="X35" s="1"/>
+      <c r="X35" s="12"/>
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
@@ -13646,25 +14032,25 @@
     </row>
     <row r="36" ht="17.6" spans="1:292">
       <c r="A36" s="1" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="B36" s="1">
         <v>35</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="F36" s="1">
         <v>2014</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="H36" s="1">
         <v>3</v>
@@ -13676,7 +14062,7 @@
         <v>9</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>54</v>
@@ -13696,7 +14082,7 @@
         <v>22</v>
       </c>
       <c r="T36" s="1" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
@@ -13973,25 +14359,25 @@
     </row>
     <row r="37" ht="17.6" spans="1:292">
       <c r="A37" s="1" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="B37" s="1">
         <v>36</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="F37" s="1">
         <v>2014</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="H37" s="1">
         <v>4</v>
@@ -14003,7 +14389,7 @@
         <v>9</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>54</v>
@@ -14023,7 +14409,7 @@
         <v>20</v>
       </c>
       <c r="T37" s="1" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
@@ -14304,19 +14690,19 @@
         <v>37</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="F38" s="1">
         <v>2023</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="H38" s="1">
         <v>1</v>
@@ -14335,36 +14721,50 @@
         <v>40</v>
       </c>
       <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
+      <c r="O38" s="1">
+        <v>24</v>
+      </c>
       <c r="P38" s="1">
-        <v>60</v>
-      </c>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
+        <v>240</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>4</v>
+      </c>
+      <c r="R38" s="1">
+        <v>3</v>
+      </c>
       <c r="S38" s="1">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="T38" s="1"/>
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
-      <c r="W38" s="1">
+      <c r="W38" s="10">
         <v>1</v>
       </c>
-      <c r="X38" s="1">
+      <c r="X38" s="13">
         <v>0</v>
       </c>
-      <c r="Y38" s="1">
+      <c r="Y38" s="10">
         <v>1</v>
       </c>
       <c r="Z38" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AA38" s="1"/>
-      <c r="AB38" s="1"/>
-      <c r="AC38" s="1"/>
+      <c r="AA38" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB38" s="1">
+        <v>8</v>
+      </c>
+      <c r="AC38" s="1">
+        <v>32</v>
+      </c>
       <c r="AD38" s="1"/>
-      <c r="AE38" s="1"/>
+      <c r="AE38" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="AF38" s="1"/>
       <c r="AG38" s="1"/>
       <c r="AH38" s="1"/>
@@ -14633,19 +15033,19 @@
         <v>38</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="F39" s="1">
         <v>2023</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="H39" s="1">
         <v>1</v>
@@ -14665,12 +15065,18 @@
       <c r="M39" s="1">
         <v>144</v>
       </c>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
+      <c r="N39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="P39" s="1">
-        <v>20</v>
-      </c>
-      <c r="Q39" s="1"/>
+        <v>60</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>2</v>
+      </c>
       <c r="R39" s="1">
         <v>2</v>
       </c>
@@ -14681,19 +15087,25 @@
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
-      <c r="W39" s="1">
+      <c r="W39" s="10">
         <v>1</v>
       </c>
-      <c r="X39" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y39" s="1">
+      <c r="X39" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y39" s="13">
         <v>0</v>
       </c>
       <c r="Z39" s="1"/>
-      <c r="AA39" s="1"/>
-      <c r="AB39" s="1"/>
-      <c r="AC39" s="1"/>
+      <c r="AA39" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB39" s="1">
+        <v>31</v>
+      </c>
+      <c r="AC39" s="1">
+        <v>112</v>
+      </c>
       <c r="AD39" s="1"/>
       <c r="AE39" s="1"/>
       <c r="AF39" s="1"/>
@@ -14964,13 +15376,13 @@
         <v>39</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="F40" s="1">
         <v>2021</v>
@@ -14996,12 +15408,18 @@
       <c r="M40" s="1">
         <v>109</v>
       </c>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
+      <c r="N40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="P40" s="1">
-        <v>60</v>
-      </c>
-      <c r="Q40" s="1"/>
+        <v>360</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>6</v>
+      </c>
       <c r="R40" s="1">
         <v>1</v>
       </c>
@@ -15010,27 +15428,33 @@
         <v>108</v>
       </c>
       <c r="T40" s="1" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="V40" s="1"/>
-      <c r="W40" s="1">
+      <c r="W40" s="10">
         <v>1</v>
       </c>
-      <c r="X40" s="1">
+      <c r="X40" s="13">
         <v>0</v>
       </c>
-      <c r="Y40" s="1">
+      <c r="Y40" s="13">
         <v>0</v>
       </c>
       <c r="Z40" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AA40" s="1"/>
-      <c r="AB40" s="1"/>
-      <c r="AC40" s="1"/>
+      <c r="AA40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB40" s="1">
+        <v>50</v>
+      </c>
+      <c r="AC40" s="1">
+        <v>59</v>
+      </c>
       <c r="AD40" s="1"/>
       <c r="AE40" s="1"/>
       <c r="AF40" s="1"/>
@@ -15297,19 +15721,19 @@
     </row>
     <row r="41" ht="17.6" spans="1:292">
       <c r="A41" s="1" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="B41" s="1">
         <v>40</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="F41" s="1">
         <v>2023</v>
@@ -15333,12 +15757,18 @@
       <c r="M41" s="1">
         <v>40</v>
       </c>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
+      <c r="N41" s="1">
+        <v>24</v>
+      </c>
+      <c r="O41" s="1">
+        <v>1</v>
+      </c>
       <c r="P41" s="1">
-        <v>100</v>
-      </c>
-      <c r="Q41" s="1"/>
+        <v>300</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>1</v>
+      </c>
       <c r="R41" s="1">
         <v>1</v>
       </c>
@@ -15349,23 +15779,31 @@
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
       <c r="V41" s="1"/>
-      <c r="W41" s="1">
+      <c r="W41" s="10">
         <v>1</v>
       </c>
-      <c r="X41" s="1">
+      <c r="X41" s="13">
         <v>0</v>
       </c>
-      <c r="Y41" s="1">
+      <c r="Y41" s="13">
         <v>0</v>
       </c>
       <c r="Z41" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AA41" s="1"/>
-      <c r="AB41" s="1"/>
-      <c r="AC41" s="1"/>
+      <c r="AA41" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB41" s="1">
+        <v>8</v>
+      </c>
+      <c r="AC41" s="1">
+        <v>32</v>
+      </c>
       <c r="AD41" s="1"/>
-      <c r="AE41" s="1"/>
+      <c r="AE41" s="1" t="s">
+        <v>201</v>
+      </c>
       <c r="AF41" s="1"/>
       <c r="AG41" s="1"/>
       <c r="AH41" s="1"/>
@@ -15634,19 +16072,19 @@
         <v>41</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="F42" s="1">
         <v>2022</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="H42" s="1">
         <v>1</v>
@@ -15664,12 +16102,18 @@
       <c r="M42" s="1">
         <v>30</v>
       </c>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
+      <c r="N42" s="1">
+        <v>24</v>
+      </c>
+      <c r="O42" s="1">
+        <v>1</v>
+      </c>
       <c r="P42" s="1">
-        <v>60</v>
-      </c>
-      <c r="Q42" s="1"/>
+        <v>240</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>2</v>
+      </c>
       <c r="R42" s="1">
         <v>3</v>
       </c>
@@ -15678,19 +16122,35 @@
         <v>27</v>
       </c>
       <c r="T42" s="1" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="U42" s="1"/>
       <c r="V42" s="1"/>
-      <c r="W42" s="1"/>
-      <c r="X42" s="1"/>
-      <c r="Y42" s="1"/>
-      <c r="Z42" s="1"/>
-      <c r="AA42" s="1"/>
-      <c r="AB42" s="1"/>
-      <c r="AC42" s="1"/>
+      <c r="W42" s="10">
+        <v>1</v>
+      </c>
+      <c r="X42" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA42" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AB42" s="1">
+        <v>14</v>
+      </c>
+      <c r="AC42" s="1">
+        <v>16</v>
+      </c>
       <c r="AD42" s="1"/>
-      <c r="AE42" s="1"/>
+      <c r="AE42" s="1" t="s">
+        <v>209</v>
+      </c>
       <c r="AF42" s="1"/>
       <c r="AG42" s="1"/>
       <c r="AH42" s="1"/>
@@ -15959,19 +16419,19 @@
         <v>42</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="F43" s="1">
         <v>2022</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="H43" s="1">
         <v>2</v>
@@ -15987,35 +16447,57 @@
         <v>54</v>
       </c>
       <c r="M43" s="1">
-        <v>48</v>
-      </c>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
+        <v>104</v>
+      </c>
+      <c r="N43" s="1">
+        <v>24</v>
+      </c>
+      <c r="O43" s="1">
+        <v>1</v>
+      </c>
       <c r="P43" s="1">
-        <v>60</v>
-      </c>
-      <c r="Q43" s="1"/>
+        <v>240</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>2</v>
+      </c>
       <c r="R43" s="1">
         <v>2</v>
       </c>
       <c r="S43" s="1">
         <f t="shared" si="3"/>
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="T43" s="1" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="U43" s="1"/>
       <c r="V43" s="1"/>
-      <c r="W43" s="1"/>
-      <c r="X43" s="1"/>
-      <c r="Y43" s="1"/>
-      <c r="Z43" s="1"/>
-      <c r="AA43" s="1"/>
-      <c r="AB43" s="1"/>
-      <c r="AC43" s="1"/>
+      <c r="W43" s="10">
+        <v>1</v>
+      </c>
+      <c r="X43" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA43" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AB43" s="1">
+        <v>14</v>
+      </c>
+      <c r="AC43" s="1">
+        <v>90</v>
+      </c>
       <c r="AD43" s="1"/>
-      <c r="AE43" s="1"/>
+      <c r="AE43" s="1" t="s">
+        <v>209</v>
+      </c>
       <c r="AF43" s="1"/>
       <c r="AG43" s="1"/>
       <c r="AH43" s="1"/>
@@ -16280,25 +16762,25 @@
     </row>
     <row r="44" ht="17.6" spans="1:292">
       <c r="A44" s="1" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="B44" s="1">
         <v>43</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="F44" s="1">
         <v>2022</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="H44" s="1">
         <v>1</v>
@@ -16318,12 +16800,18 @@
       <c r="M44" s="1">
         <v>328</v>
       </c>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
+      <c r="N44" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="P44" s="1">
-        <v>120</v>
-      </c>
-      <c r="Q44" s="1"/>
+        <v>360</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>3</v>
+      </c>
       <c r="R44" s="1">
         <v>40</v>
       </c>
@@ -16334,16 +16822,26 @@
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
       <c r="V44" s="1"/>
-      <c r="W44" s="1"/>
-      <c r="X44" s="1"/>
-      <c r="Y44" s="1"/>
+      <c r="W44" s="10">
+        <v>1</v>
+      </c>
+      <c r="X44" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y44" s="13">
+        <v>0</v>
+      </c>
       <c r="Z44" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AA44" s="1"/>
+      <c r="AA44" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="AB44" s="1"/>
       <c r="AC44" s="1"/>
-      <c r="AD44" s="1"/>
+      <c r="AD44" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="AE44" s="1"/>
       <c r="AF44" s="1"/>
       <c r="AG44" s="1"/>
@@ -16613,10 +17111,10 @@
         <v>44</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>104</v>
@@ -16625,7 +17123,7 @@
         <v>2020</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H45" s="1">
         <v>1</v>
@@ -16645,29 +17143,53 @@
       <c r="M45" s="1">
         <v>23</v>
       </c>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
+      <c r="N45" s="1">
+        <v>24</v>
+      </c>
+      <c r="O45" s="1">
+        <v>1</v>
+      </c>
       <c r="P45" s="1">
-        <v>120</v>
-      </c>
-      <c r="Q45" s="1"/>
-      <c r="R45" s="1"/>
+        <v>360</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>3</v>
+      </c>
+      <c r="R45" s="1">
+        <v>5</v>
+      </c>
       <c r="S45" s="1">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
       <c r="V45" s="1"/>
-      <c r="W45" s="1"/>
-      <c r="X45" s="1"/>
-      <c r="Y45" s="1"/>
-      <c r="Z45" s="1"/>
-      <c r="AA45" s="1"/>
-      <c r="AB45" s="1"/>
-      <c r="AC45" s="1"/>
+      <c r="W45" s="10">
+        <v>1</v>
+      </c>
+      <c r="X45" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AA45" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB45" s="1">
+        <v>7</v>
+      </c>
+      <c r="AC45" s="1">
+        <v>11</v>
+      </c>
       <c r="AD45" s="1"/>
-      <c r="AE45" s="1"/>
+      <c r="AE45" s="1" t="s">
+        <v>219</v>
+      </c>
       <c r="AF45" s="1"/>
       <c r="AG45" s="1"/>
       <c r="AH45" s="1"/>
@@ -16936,10 +17458,10 @@
         <v>45</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>104</v>
@@ -16948,7 +17470,7 @@
         <v>2020</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H46" s="1">
         <v>1</v>
@@ -16968,12 +17490,18 @@
       <c r="M46" s="1">
         <v>21</v>
       </c>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
+      <c r="N46" s="1">
+        <v>24</v>
+      </c>
+      <c r="O46" s="1">
+        <v>1</v>
+      </c>
       <c r="P46" s="1">
-        <v>120</v>
-      </c>
-      <c r="Q46" s="1"/>
+        <v>360</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>3</v>
+      </c>
       <c r="R46" s="1">
         <v>3</v>
       </c>
@@ -16984,15 +17512,31 @@
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
       <c r="V46" s="1"/>
-      <c r="W46" s="1"/>
-      <c r="X46" s="1"/>
-      <c r="Y46" s="1"/>
-      <c r="Z46" s="1"/>
-      <c r="AA46" s="1"/>
-      <c r="AB46" s="1"/>
-      <c r="AC46" s="1"/>
+      <c r="W46" s="10">
+        <v>1</v>
+      </c>
+      <c r="X46" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AA46" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB46" s="1">
+        <v>6</v>
+      </c>
+      <c r="AC46" s="1">
+        <v>12</v>
+      </c>
       <c r="AD46" s="1"/>
-      <c r="AE46" s="1"/>
+      <c r="AE46" s="1" t="s">
+        <v>219</v>
+      </c>
       <c r="AF46" s="1"/>
       <c r="AG46" s="1"/>
       <c r="AH46" s="1"/>
@@ -17261,10 +17805,10 @@
         <v>46</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>104</v>
@@ -17273,7 +17817,7 @@
         <v>2020</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H47" s="1">
         <v>1</v>
@@ -17293,13 +17837,21 @@
       <c r="M47" s="1">
         <v>18</v>
       </c>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
+      <c r="N47" s="1">
+        <v>24</v>
+      </c>
+      <c r="O47" s="1">
+        <v>1</v>
+      </c>
       <c r="P47" s="1">
-        <v>120</v>
-      </c>
-      <c r="Q47" s="1"/>
-      <c r="R47" s="1"/>
+        <v>360</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>3</v>
+      </c>
+      <c r="R47" s="1">
+        <v>0</v>
+      </c>
       <c r="S47" s="1">
         <f t="shared" si="3"/>
         <v>18</v>
@@ -17307,15 +17859,31 @@
       <c r="T47" s="1"/>
       <c r="U47" s="1"/>
       <c r="V47" s="1"/>
-      <c r="W47" s="1"/>
-      <c r="X47" s="1"/>
-      <c r="Y47" s="1"/>
-      <c r="Z47" s="1"/>
-      <c r="AA47" s="1"/>
-      <c r="AB47" s="1"/>
-      <c r="AC47" s="1"/>
+      <c r="W47" s="10">
+        <v>1</v>
+      </c>
+      <c r="X47" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AA47" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="1">
+        <v>18</v>
+      </c>
       <c r="AD47" s="1"/>
-      <c r="AE47" s="1"/>
+      <c r="AE47" s="1" t="s">
+        <v>219</v>
+      </c>
       <c r="AF47" s="1"/>
       <c r="AG47" s="1"/>
       <c r="AH47" s="1"/>
@@ -17584,19 +18152,19 @@
         <v>47</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="F48" s="1">
         <v>2023</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="H48" s="1">
         <v>1</v>
@@ -17604,16 +18172,28 @@
       <c r="I48" s="1">
         <v>1</v>
       </c>
-      <c r="J48" s="1"/>
+      <c r="J48" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
+      <c r="L48" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="M48" s="1">
         <v>380</v>
       </c>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="1"/>
+      <c r="N48" s="1">
+        <v>12</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P48" s="1">
+        <v>96</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="R48" s="1">
         <v>32</v>
       </c>
@@ -17624,14 +18204,26 @@
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
       <c r="V48" s="1"/>
-      <c r="W48" s="1"/>
-      <c r="X48" s="1"/>
-      <c r="Y48" s="1"/>
-      <c r="Z48" s="1"/>
-      <c r="AA48" s="1"/>
+      <c r="W48" s="10">
+        <v>1</v>
+      </c>
+      <c r="X48" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA48" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="AB48" s="1"/>
       <c r="AC48" s="1"/>
-      <c r="AD48" s="1"/>
+      <c r="AD48" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="AE48" s="1"/>
       <c r="AF48" s="1"/>
       <c r="AG48" s="1"/>
@@ -17901,19 +18493,19 @@
         <v>48</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="F49" s="1">
         <v>2023</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="H49" s="1">
         <v>2</v>
@@ -17935,8 +18527,7 @@
       <c r="U49" s="1"/>
       <c r="V49" s="1"/>
       <c r="W49" s="1"/>
-      <c r="X49" s="1"/>
-      <c r="Y49" s="1"/>
+      <c r="Y49" s="15"/>
       <c r="Z49" s="1"/>
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
@@ -18211,19 +18802,19 @@
         <v>49</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="F50" s="1">
         <v>2023</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="H50" s="1">
         <v>3</v>
@@ -18245,8 +18836,8 @@
       <c r="U50" s="1"/>
       <c r="V50" s="1"/>
       <c r="W50" s="1"/>
-      <c r="X50" s="1"/>
-      <c r="Y50" s="1"/>
+      <c r="X50" s="15"/>
+      <c r="Y50" s="15"/>
       <c r="Z50" s="1"/>
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
@@ -18521,19 +19112,19 @@
         <v>50</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F51" s="1">
         <v>2021</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="H51" s="1">
         <v>1</v>
@@ -18541,26 +19132,56 @@
       <c r="I51" s="1">
         <v>1</v>
       </c>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
-      <c r="Q51" s="1"/>
-      <c r="R51" s="1"/>
-      <c r="S51" s="1"/>
+      <c r="J51" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M51" s="1">
+        <v>84</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O51" s="1">
+        <v>3</v>
+      </c>
+      <c r="P51" s="1">
+        <v>320</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>4</v>
+      </c>
+      <c r="R51" s="1">
+        <v>0</v>
+      </c>
+      <c r="S51" s="1">
+        <v>84</v>
+      </c>
       <c r="T51" s="1"/>
       <c r="U51" s="1"/>
       <c r="V51" s="1"/>
-      <c r="W51" s="1"/>
-      <c r="X51" s="1"/>
-      <c r="Y51" s="1"/>
+      <c r="W51" s="10">
+        <v>1</v>
+      </c>
+      <c r="X51" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y51" s="13">
+        <v>0</v>
+      </c>
       <c r="Z51" s="1"/>
       <c r="AA51" s="1"/>
-      <c r="AB51" s="1"/>
-      <c r="AC51" s="1"/>
+      <c r="AB51" s="1">
+        <v>13</v>
+      </c>
+      <c r="AC51" s="1">
+        <v>70</v>
+      </c>
       <c r="AD51" s="1"/>
       <c r="AE51" s="1"/>
       <c r="AF51" s="1"/>
@@ -18831,19 +19452,19 @@
         <v>51</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F52" s="1">
         <v>2021</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="H52" s="1">
         <v>2</v>
@@ -18865,8 +19486,8 @@
       <c r="U52" s="1"/>
       <c r="V52" s="1"/>
       <c r="W52" s="1"/>
-      <c r="X52" s="1"/>
-      <c r="Y52" s="1"/>
+      <c r="X52" s="15"/>
+      <c r="Y52" s="15"/>
       <c r="Z52" s="1"/>
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
@@ -19135,25 +19756,25 @@
       <c r="KE52" s="1"/>
       <c r="KF52" s="1"/>
     </row>
-    <row r="53" ht="17.6" spans="1:292">
+    <row r="53" ht="18" customHeight="1" spans="1:292">
       <c r="A53" s="1"/>
       <c r="B53" s="1">
         <v>52</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F53" s="1">
         <v>2021</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="H53" s="1">
         <v>3</v>
@@ -19175,8 +19796,8 @@
       <c r="U53" s="1"/>
       <c r="V53" s="1"/>
       <c r="W53" s="1"/>
-      <c r="X53" s="1"/>
-      <c r="Y53" s="1"/>
+      <c r="X53" s="15"/>
+      <c r="Y53" s="15"/>
       <c r="Z53" s="1"/>
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
@@ -19451,19 +20072,19 @@
         <v>53</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="F54" s="1">
         <v>2023</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="H54" s="1">
         <v>1</v>
@@ -19471,28 +20092,60 @@
       <c r="I54" s="1">
         <v>1</v>
       </c>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
-      <c r="P54" s="1"/>
-      <c r="Q54" s="1"/>
-      <c r="R54" s="1"/>
-      <c r="S54" s="1"/>
+      <c r="J54" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M54" s="1">
+        <v>20</v>
+      </c>
+      <c r="N54" s="1">
+        <v>12</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P54" s="1">
+        <v>960</v>
+      </c>
+      <c r="Q54" s="1">
+        <v>16</v>
+      </c>
+      <c r="R54" s="1">
+        <v>0</v>
+      </c>
+      <c r="S54" s="1">
+        <v>20</v>
+      </c>
       <c r="T54" s="1"/>
       <c r="U54" s="1"/>
       <c r="V54" s="1"/>
-      <c r="W54" s="1"/>
-      <c r="X54" s="1"/>
-      <c r="Y54" s="1"/>
+      <c r="W54" s="10">
+        <v>1</v>
+      </c>
+      <c r="X54" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="10">
+        <v>1</v>
+      </c>
       <c r="Z54" s="1"/>
       <c r="AA54" s="1"/>
-      <c r="AB54" s="1"/>
-      <c r="AC54" s="1"/>
+      <c r="AB54" s="1">
+        <v>12</v>
+      </c>
+      <c r="AC54" s="1">
+        <v>8</v>
+      </c>
       <c r="AD54" s="1"/>
-      <c r="AE54" s="1"/>
+      <c r="AE54" s="19" t="s">
+        <v>238</v>
+      </c>
       <c r="AF54" s="1"/>
       <c r="AG54" s="1"/>
       <c r="AH54" s="1"/>
@@ -19761,19 +20414,19 @@
         <v>54</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="F55" s="1">
         <v>2024</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="H55" s="1">
         <v>1</v>
@@ -19781,28 +20434,64 @@
       <c r="I55" s="1">
         <v>1</v>
       </c>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
-      <c r="O55" s="1"/>
-      <c r="P55" s="1"/>
-      <c r="Q55" s="1"/>
-      <c r="R55" s="1"/>
-      <c r="S55" s="1"/>
+      <c r="J55" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M55" s="1">
+        <v>32</v>
+      </c>
+      <c r="N55" s="1">
+        <v>20</v>
+      </c>
+      <c r="O55" s="1">
+        <v>1</v>
+      </c>
+      <c r="P55" s="1">
+        <v>240</v>
+      </c>
+      <c r="Q55" s="1">
+        <v>5</v>
+      </c>
+      <c r="R55" s="1">
+        <v>0</v>
+      </c>
+      <c r="S55" s="1">
+        <v>32</v>
+      </c>
       <c r="T55" s="1"/>
       <c r="U55" s="1"/>
       <c r="V55" s="1"/>
-      <c r="W55" s="1"/>
-      <c r="X55" s="1"/>
-      <c r="Y55" s="1"/>
-      <c r="Z55" s="1"/>
-      <c r="AA55" s="1"/>
-      <c r="AB55" s="1"/>
-      <c r="AC55" s="1"/>
+      <c r="W55" s="10">
+        <v>1</v>
+      </c>
+      <c r="X55" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y55" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="AA55" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB55" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC55" s="1">
+        <v>27</v>
+      </c>
       <c r="AD55" s="1"/>
-      <c r="AE55" s="1"/>
+      <c r="AE55" s="19" t="s">
+        <v>244</v>
+      </c>
       <c r="AF55" s="1"/>
       <c r="AG55" s="1"/>
       <c r="AH55" s="1"/>
@@ -20065,25 +20754,25 @@
       <c r="KE55" s="1"/>
       <c r="KF55" s="1"/>
     </row>
-    <row r="56" ht="17.6" spans="1:292">
+    <row r="56" ht="18" spans="1:292">
       <c r="A56" s="1"/>
       <c r="B56" s="1">
         <v>55</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="F56" s="1">
         <v>2024</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="H56" s="1">
         <v>1</v>
@@ -20091,28 +20780,56 @@
       <c r="I56" s="1">
         <v>1</v>
       </c>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
-      <c r="P56" s="1"/>
-      <c r="Q56" s="1"/>
+      <c r="J56" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M56" s="1">
+        <v>70</v>
+      </c>
+      <c r="N56" s="1">
+        <v>24</v>
+      </c>
+      <c r="O56" s="1">
+        <v>1</v>
+      </c>
+      <c r="P56" s="1">
+        <v>360</v>
+      </c>
+      <c r="Q56" s="1">
+        <v>0</v>
+      </c>
       <c r="R56" s="1"/>
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
       <c r="U56" s="1"/>
       <c r="V56" s="1"/>
-      <c r="W56" s="1"/>
-      <c r="X56" s="1"/>
-      <c r="Y56" s="1"/>
+      <c r="W56" s="10">
+        <v>1</v>
+      </c>
+      <c r="X56" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y56" s="10">
+        <v>1</v>
+      </c>
       <c r="Z56" s="1"/>
       <c r="AA56" s="1"/>
-      <c r="AB56" s="1"/>
-      <c r="AC56" s="1"/>
+      <c r="AB56" s="1">
+        <v>49</v>
+      </c>
+      <c r="AC56" s="1">
+        <v>21</v>
+      </c>
       <c r="AD56" s="1"/>
-      <c r="AE56" s="1"/>
+      <c r="AE56" s="20" t="s">
+        <v>250</v>
+      </c>
       <c r="AF56" s="1"/>
       <c r="AG56" s="1"/>
       <c r="AH56" s="1"/>
@@ -25048,7 +25765,7 @@
         <v>2020</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E11" s="3">
         <v>2022</v>
@@ -25068,7 +25785,7 @@
         <v>2020</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E12" s="3">
         <v>2021</v>
@@ -25088,7 +25805,7 @@
         <v>2019</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="E13" s="3">
         <v>2023</v>
@@ -25108,7 +25825,7 @@
         <v>2019</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E14" s="3">
         <v>2023</v>
@@ -25128,7 +25845,7 @@
         <v>2018</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="E15" s="3">
         <v>2014</v>
@@ -25148,7 +25865,7 @@
         <v>2018</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="E16" s="3">
         <v>2015</v>
@@ -25168,7 +25885,7 @@
         <v>2021</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="E17" s="3">
         <v>2014</v>
@@ -25188,7 +25905,7 @@
         <v>2021</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="E18" s="3">
         <v>2023</v>
@@ -25208,7 +25925,7 @@
         <v>2021</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="E19" s="3">
         <v>2023</v>
@@ -25228,7 +25945,7 @@
         <v>2021</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="E20" s="3">
         <v>2021</v>
@@ -25242,19 +25959,19 @@
     </row>
     <row r="21" ht="17.6" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B21" s="1">
         <v>2022</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="E21" s="3">
         <v>2023</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H21" s="1">
         <v>2022</v>
@@ -25262,19 +25979,19 @@
     </row>
     <row r="22" ht="17.6" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B22" s="1">
         <v>2022</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="E22" s="3">
         <v>2022</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H22" s="1">
         <v>2022</v>
@@ -25282,19 +25999,19 @@
     </row>
     <row r="23" ht="17.6" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B23" s="1">
         <v>2022</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="E23" s="3">
         <v>2022</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H23" s="1">
         <v>2022</v>
@@ -25302,19 +26019,19 @@
     </row>
     <row r="24" ht="17.6" hidden="1" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B24" s="1">
         <v>2021</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="E24" s="3">
         <v>2020</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="H24" s="1">
         <v>2021</v>
@@ -25322,19 +26039,19 @@
     </row>
     <row r="25" ht="17.6" hidden="1" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B25" s="1">
         <v>2023</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="E25" s="3">
         <v>2023</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="H25" s="1">
         <v>2023</v>
@@ -25342,19 +26059,19 @@
     </row>
     <row r="26" ht="17.6" hidden="1" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B26" s="1">
         <v>2023</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="H26" s="1">
         <v>2023</v>
@@ -25362,13 +26079,13 @@
     </row>
     <row r="27" ht="17.6" hidden="1" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="B27" s="1">
         <v>2014</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="H27" s="1">
         <v>2014</v>
@@ -25376,13 +26093,13 @@
     </row>
     <row r="28" ht="17.6" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="B28" s="1">
         <v>2015</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="H28" s="1">
         <v>2015</v>
@@ -25390,13 +26107,13 @@
     </row>
     <row r="29" ht="17.6" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="B29" s="1">
         <v>2015</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="H29" s="1">
         <v>2015</v>
@@ -25404,13 +26121,13 @@
     </row>
     <row r="30" ht="17.6" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="B30" s="1">
         <v>2014</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="H30" s="1">
         <v>2014</v>
@@ -25418,13 +26135,13 @@
     </row>
     <row r="31" ht="17.6" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="B31" s="1">
         <v>2014</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="H31" s="1">
         <v>2014</v>
@@ -25432,13 +26149,13 @@
     </row>
     <row r="32" ht="17.6" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="B32" s="1">
         <v>2014</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="H32" s="1">
         <v>2014</v>
@@ -25446,13 +26163,13 @@
     </row>
     <row r="33" ht="17.6" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="B33" s="1">
         <v>2014</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="H33" s="1">
         <v>2014</v>
@@ -25460,13 +26177,13 @@
     </row>
     <row r="34" ht="17.6" hidden="1" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="B34" s="1">
         <v>2023</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="H34" s="1">
         <v>2023</v>
@@ -25474,13 +26191,13 @@
     </row>
     <row r="35" ht="17.6" hidden="1" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B35" s="1">
         <v>2023</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="H35" s="1">
         <v>2023</v>
@@ -25488,13 +26205,13 @@
     </row>
     <row r="36" ht="17.6" hidden="1" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B36" s="1">
         <v>2021</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="H36" s="1">
         <v>2021</v>
@@ -25502,13 +26219,13 @@
     </row>
     <row r="37" ht="17.6" hidden="1" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="B37" s="1">
         <v>2023</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="H37" s="1">
         <v>2023</v>
@@ -25516,13 +26233,13 @@
     </row>
     <row r="38" ht="17.6" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="B38" s="1">
         <v>2022</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H38" s="1">
         <v>2022</v>
@@ -25530,13 +26247,13 @@
     </row>
     <row r="39" ht="17.6" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="B39" s="1">
         <v>2022</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H39" s="1">
         <v>2022</v>
@@ -25544,13 +26261,13 @@
     </row>
     <row r="40" ht="17.6" hidden="1" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="B40" s="1">
         <v>2022</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="H40" s="1">
         <v>2022</v>
@@ -25558,13 +26275,13 @@
     </row>
     <row r="41" ht="17.6" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="B41" s="1">
         <v>2020</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="H41" s="1">
         <v>2020</v>
@@ -25572,13 +26289,13 @@
     </row>
     <row r="42" ht="17.6" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="B42" s="1">
         <v>2020</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="H42" s="1">
         <v>2020</v>
@@ -25586,13 +26303,13 @@
     </row>
     <row r="43" ht="17.6" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="B43" s="1">
         <v>2020</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="H43" s="1">
         <v>2020</v>
@@ -25600,13 +26317,13 @@
     </row>
     <row r="44" ht="17.6" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="B44" s="1">
         <v>2023</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="H44" s="1">
         <v>2023</v>
@@ -25614,13 +26331,13 @@
     </row>
     <row r="45" ht="17.6" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="B45" s="1">
         <v>2023</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="H45" s="1">
         <v>2023</v>
@@ -25628,13 +26345,13 @@
     </row>
     <row r="46" ht="17.6" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="B46" s="1">
         <v>2023</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="H46" s="1">
         <v>2023</v>
@@ -25642,13 +26359,13 @@
     </row>
     <row r="47" ht="17.6" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="B47" s="1">
         <v>2021</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="H47" s="1">
         <v>2021</v>
@@ -25656,13 +26373,13 @@
     </row>
     <row r="48" ht="17.6" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="B48" s="1">
         <v>2021</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="H48" s="1">
         <v>2021</v>
@@ -25670,13 +26387,13 @@
     </row>
     <row r="49" ht="17.6" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="B49" s="1">
         <v>2021</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="H49" s="1">
         <v>2021</v>
@@ -25684,13 +26401,13 @@
     </row>
     <row r="50" ht="17.6" hidden="1" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="B50" s="1">
         <v>2023</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="H50" s="1">
         <v>2023</v>
@@ -25698,13 +26415,13 @@
     </row>
     <row r="51" ht="17.6" hidden="1" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="B51" s="1">
         <v>2024</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="H51" s="1">
         <v>2024</v>
@@ -25712,13 +26429,13 @@
     </row>
     <row r="52" ht="17.6" hidden="1" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="B52" s="1">
         <v>2024</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="H52" s="1">
         <v>2024</v>

--- a/Label.xlsx
+++ b/Label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19640" windowHeight="11240"/>
+    <workbookView windowWidth="24750" windowHeight="10480"/>
   </bookViews>
   <sheets>
     <sheet name="Label" sheetId="1" r:id="rId1"/>
@@ -1097,6 +1097,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>2 (Group: Autism,Neuro</t>
     </r>
     <r>
@@ -1808,7 +1814,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1827,22 +1833,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1860,16 +1866,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1978,8 +1981,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6282690" y="50800"/>
-          <a:ext cx="3019425" cy="2707640"/>
+          <a:off x="6699250" y="50800"/>
+          <a:ext cx="3238500" cy="2387600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2256,44 +2259,44 @@
   <dimension ref="A1:KF72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AI10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="14.4196428571429" customWidth="1"/>
+    <col min="1" max="1" width="14.4166666666667" customWidth="1"/>
     <col min="2" max="2" width="3.625" customWidth="1"/>
-    <col min="3" max="3" width="9.16964285714286" customWidth="1"/>
-    <col min="4" max="4" width="6.08035714285714" customWidth="1"/>
-    <col min="5" max="5" width="23.4196428571429" customWidth="1"/>
+    <col min="3" max="3" width="9.16666666666667" customWidth="1"/>
+    <col min="4" max="4" width="6.08333333333333" customWidth="1"/>
+    <col min="5" max="5" width="23.4166666666667" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="67.0803571428571" customWidth="1"/>
+    <col min="7" max="7" width="67.0833333333333" customWidth="1"/>
     <col min="8" max="8" width="4.625" customWidth="1"/>
     <col min="9" max="10" width="9" customWidth="1"/>
-    <col min="11" max="11" width="20.0803571428571" customWidth="1"/>
-    <col min="12" max="12" width="21.5803571428571" customWidth="1"/>
+    <col min="11" max="11" width="20.0833333333333" customWidth="1"/>
+    <col min="12" max="12" width="21.5833333333333" customWidth="1"/>
     <col min="13" max="13" width="11.625" customWidth="1"/>
-    <col min="14" max="16" width="13.0892857142857" customWidth="1"/>
-    <col min="17" max="17" width="13.5446428571429" customWidth="1"/>
+    <col min="14" max="16" width="13.0916666666667" customWidth="1"/>
+    <col min="17" max="17" width="13.5416666666667" customWidth="1"/>
     <col min="18" max="18" width="12.75" customWidth="1"/>
     <col min="19" max="19" width="9" customWidth="1"/>
-    <col min="20" max="20" width="41.6696428571429" customWidth="1"/>
+    <col min="20" max="20" width="41.6666666666667" customWidth="1"/>
     <col min="21" max="21" width="29" customWidth="1"/>
     <col min="23" max="23" width="13.25" customWidth="1"/>
-    <col min="24" max="24" width="17.4196428571429" customWidth="1"/>
-    <col min="25" max="25" width="8.66964285714286" customWidth="1"/>
-    <col min="26" max="26" width="23.8303571428571" style="4" customWidth="1"/>
+    <col min="24" max="24" width="17.4166666666667" customWidth="1"/>
+    <col min="25" max="25" width="8.66666666666667" customWidth="1"/>
+    <col min="26" max="26" width="23.8333333333333" style="4" customWidth="1"/>
     <col min="27" max="27" width="14.5" customWidth="1"/>
-    <col min="29" max="29" width="9.92857142857143"/>
-    <col min="30" max="30" width="15.1696428571429" customWidth="1"/>
+    <col min="29" max="29" width="9.925"/>
+    <col min="30" max="30" width="15.1666666666667" customWidth="1"/>
     <col min="32" max="32" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.6" spans="1:32">
+    <row r="1" ht="15.5" spans="1:32">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2330,25 +2333,25 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="6" t="s">
         <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
@@ -2389,7 +2392,7 @@
       </c>
       <c r="AF1" s="16"/>
     </row>
-    <row r="2" ht="17.6" spans="1:292">
+    <row r="2" ht="15.5" spans="1:292">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
@@ -2451,13 +2454,13 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
-      <c r="W2" s="10">
+      <c r="W2" s="8">
         <v>1</v>
       </c>
-      <c r="X2" s="11">
+      <c r="X2" s="9">
         <v>0</v>
       </c>
-      <c r="Y2" s="11">
+      <c r="Y2" s="9">
         <v>0</v>
       </c>
       <c r="Z2" s="1"/>
@@ -2736,7 +2739,7 @@
       <c r="KE2" s="1"/>
       <c r="KF2" s="1"/>
     </row>
-    <row r="3" ht="17.6" spans="1:292">
+    <row r="3" ht="15.5" spans="1:292">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
@@ -2798,13 +2801,13 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
-      <c r="W3" s="10">
+      <c r="W3" s="8">
         <v>1</v>
       </c>
-      <c r="X3" s="11">
+      <c r="X3" s="9">
         <v>0</v>
       </c>
-      <c r="Y3" s="11">
+      <c r="Y3" s="9">
         <v>0</v>
       </c>
       <c r="Z3" s="1"/>
@@ -3083,7 +3086,7 @@
       <c r="KE3" s="1"/>
       <c r="KF3" s="1"/>
     </row>
-    <row r="4" ht="17.6" spans="1:292">
+    <row r="4" ht="15.5" spans="1:292">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
@@ -3145,13 +3148,13 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
-      <c r="W4" s="10">
+      <c r="W4" s="8">
         <v>1</v>
       </c>
-      <c r="X4" s="11">
+      <c r="X4" s="9">
         <v>0</v>
       </c>
-      <c r="Y4" s="11">
+      <c r="Y4" s="9">
         <v>0</v>
       </c>
       <c r="Z4" s="1"/>
@@ -3430,7 +3433,7 @@
       <c r="KE4" s="1"/>
       <c r="KF4" s="1"/>
     </row>
-    <row r="5" ht="17.6" spans="1:292">
+    <row r="5" ht="15.5" spans="1:292">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -3492,13 +3495,13 @@
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
-      <c r="W5" s="10">
+      <c r="W5" s="8">
         <v>1</v>
       </c>
-      <c r="X5" s="11">
+      <c r="X5" s="9">
         <v>0</v>
       </c>
-      <c r="Y5" s="11">
+      <c r="Y5" s="9">
         <v>0</v>
       </c>
       <c r="Z5" s="1"/>
@@ -3841,13 +3844,13 @@
         <v>56</v>
       </c>
       <c r="V6" s="1"/>
-      <c r="W6" s="10">
+      <c r="W6" s="8">
         <v>1</v>
       </c>
-      <c r="X6" s="11">
+      <c r="X6" s="9">
         <v>0</v>
       </c>
-      <c r="Y6" s="11">
+      <c r="Y6" s="9">
         <v>0</v>
       </c>
       <c r="Z6" s="1"/>
@@ -3863,7 +3866,7 @@
       <c r="AD6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE6" s="18" t="s">
+      <c r="AE6" s="17" t="s">
         <v>57</v>
       </c>
       <c r="AF6" s="1"/>
@@ -4128,7 +4131,7 @@
       <c r="KE6" s="1"/>
       <c r="KF6" s="1"/>
     </row>
-    <row r="7" ht="17.6" spans="1:292">
+    <row r="7" ht="15.5" spans="1:292">
       <c r="A7" s="1"/>
       <c r="B7" s="1">
         <v>6</v>
@@ -4186,13 +4189,13 @@
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
-      <c r="W7" s="10">
+      <c r="W7" s="8">
         <v>1</v>
       </c>
-      <c r="X7" s="11">
+      <c r="X7" s="9">
         <v>0</v>
       </c>
-      <c r="Y7" s="11">
+      <c r="Y7" s="9">
         <v>0</v>
       </c>
       <c r="Z7" s="1" t="s">
@@ -4529,13 +4532,13 @@
       </c>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
-      <c r="W8" s="10">
+      <c r="W8" s="8">
         <v>1</v>
       </c>
-      <c r="X8" s="11">
+      <c r="X8" s="9">
         <v>0</v>
       </c>
-      <c r="Y8" s="10">
+      <c r="Y8" s="8">
         <v>1</v>
       </c>
       <c r="Z8" s="1"/>
@@ -4549,7 +4552,7 @@
         <v>14</v>
       </c>
       <c r="AD8" s="1"/>
-      <c r="AE8" s="18" t="s">
+      <c r="AE8" s="17" t="s">
         <v>70</v>
       </c>
       <c r="AF8" s="1"/>
@@ -4868,18 +4871,18 @@
       <c r="S9" s="1">
         <v>33</v>
       </c>
-      <c r="T9" s="8" t="s">
+      <c r="T9" s="10" t="s">
         <v>75</v>
       </c>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
-      <c r="W9" s="10">
+      <c r="W9" s="8">
         <v>1</v>
       </c>
-      <c r="X9" s="11">
+      <c r="X9" s="9">
         <v>0</v>
       </c>
-      <c r="Y9" s="11">
+      <c r="Y9" s="9">
         <v>0</v>
       </c>
       <c r="Z9" s="1" t="s">
@@ -5158,7 +5161,7 @@
       <c r="KE9" s="1"/>
       <c r="KF9" s="1"/>
     </row>
-    <row r="10" ht="18" spans="1:292">
+    <row r="10" ht="15.5" spans="1:292">
       <c r="A10" s="1"/>
       <c r="B10" s="1">
         <v>9</v>
@@ -5216,13 +5219,13 @@
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
-      <c r="W10" s="10">
+      <c r="W10" s="8">
         <v>1</v>
       </c>
-      <c r="X10" s="11">
+      <c r="X10" s="9">
         <v>0</v>
       </c>
-      <c r="Y10" s="11">
+      <c r="Y10" s="9">
         <v>0</v>
       </c>
       <c r="Z10" s="1"/>
@@ -5501,7 +5504,7 @@
       <c r="KE10" s="1"/>
       <c r="KF10" s="1"/>
     </row>
-    <row r="11" ht="17.6" spans="1:292">
+    <row r="11" ht="15.5" spans="1:292">
       <c r="A11" s="1" t="s">
         <v>81</v>
       </c>
@@ -5563,13 +5566,13 @@
       </c>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
-      <c r="W11" s="10">
+      <c r="W11" s="8">
         <v>1</v>
       </c>
-      <c r="X11" s="11">
+      <c r="X11" s="9">
         <v>0</v>
       </c>
-      <c r="Y11" s="11">
+      <c r="Y11" s="9">
         <v>0</v>
       </c>
       <c r="Z11" s="1" t="s">
@@ -5848,7 +5851,7 @@
       <c r="KE11" s="1"/>
       <c r="KF11" s="1"/>
     </row>
-    <row r="12" ht="17.6" spans="1:292">
+    <row r="12" ht="15.5" spans="1:292">
       <c r="A12" s="1"/>
       <c r="B12" s="1">
         <v>11</v>
@@ -5908,13 +5911,13 @@
       </c>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
-      <c r="W12" s="10">
+      <c r="W12" s="8">
         <v>1</v>
       </c>
-      <c r="X12" s="11">
+      <c r="X12" s="9">
         <v>0</v>
       </c>
-      <c r="Y12" s="11">
+      <c r="Y12" s="9">
         <v>0</v>
       </c>
       <c r="Z12" s="1" t="s">
@@ -5930,7 +5933,7 @@
         <v>19</v>
       </c>
       <c r="AD12" s="1"/>
-      <c r="AE12" s="18" t="s">
+      <c r="AE12" s="17" t="s">
         <v>91</v>
       </c>
       <c r="AF12" s="1"/>
@@ -6195,7 +6198,7 @@
       <c r="KE12" s="1"/>
       <c r="KF12" s="1"/>
     </row>
-    <row r="13" ht="17.6" spans="1:292">
+    <row r="13" ht="15.5" spans="1:292">
       <c r="A13" s="1"/>
       <c r="B13" s="1">
         <v>12</v>
@@ -6255,13 +6258,13 @@
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
-      <c r="W13" s="10">
+      <c r="W13" s="8">
         <v>1</v>
       </c>
       <c r="X13" t="s">
         <v>98</v>
       </c>
-      <c r="Y13" s="11">
+      <c r="Y13" s="9">
         <v>0</v>
       </c>
       <c r="Z13" s="1" t="s">
@@ -6277,7 +6280,7 @@
         <v>90</v>
       </c>
       <c r="AD13" s="1"/>
-      <c r="AE13" s="18" t="s">
+      <c r="AE13" s="17" t="s">
         <v>100</v>
       </c>
       <c r="AF13" s="1"/>
@@ -6542,7 +6545,7 @@
       <c r="KE13" s="1"/>
       <c r="KF13" s="1"/>
     </row>
-    <row r="14" ht="17.6" spans="1:292">
+    <row r="14" ht="15.5" spans="1:292">
       <c r="A14" s="1" t="s">
         <v>101</v>
       </c>
@@ -6606,13 +6609,13 @@
       </c>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
-      <c r="W14" s="10">
+      <c r="W14" s="8">
         <v>1</v>
       </c>
-      <c r="X14" s="11">
+      <c r="X14" s="9">
         <v>0</v>
       </c>
-      <c r="Y14" s="11">
+      <c r="Y14" s="9">
         <v>1</v>
       </c>
       <c r="Z14" s="1" t="s">
@@ -6893,7 +6896,7 @@
       <c r="KE14" s="1"/>
       <c r="KF14" s="1"/>
     </row>
-    <row r="15" ht="17.6" spans="1:292">
+    <row r="15" ht="15.5" spans="1:292">
       <c r="A15" s="1" t="s">
         <v>101</v>
       </c>
@@ -6957,13 +6960,13 @@
       </c>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
-      <c r="W15" s="10">
+      <c r="W15" s="8">
         <v>1</v>
       </c>
-      <c r="X15" s="11">
+      <c r="X15" s="9">
         <v>0</v>
       </c>
-      <c r="Y15" s="11">
+      <c r="Y15" s="9">
         <v>1</v>
       </c>
       <c r="Z15" s="1" t="s">
@@ -7244,7 +7247,7 @@
       <c r="KE15" s="1"/>
       <c r="KF15" s="1"/>
     </row>
-    <row r="16" ht="17.6" spans="1:292">
+    <row r="16" ht="15.5" spans="1:292">
       <c r="A16" s="1"/>
       <c r="B16" s="1">
         <v>15</v>
@@ -7306,13 +7309,13 @@
       </c>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
-      <c r="W16" s="10">
+      <c r="W16" s="8">
         <v>1</v>
       </c>
-      <c r="X16" s="11">
+      <c r="X16" s="9">
         <v>0</v>
       </c>
-      <c r="Y16" s="11">
+      <c r="Y16" s="9">
         <v>0</v>
       </c>
       <c r="Z16" s="1"/>
@@ -7591,7 +7594,7 @@
       <c r="KE16" s="1"/>
       <c r="KF16" s="1"/>
     </row>
-    <row r="17" ht="17.6" spans="1:292">
+    <row r="17" ht="15.5" spans="1:292">
       <c r="A17" s="1"/>
       <c r="B17" s="1">
         <v>16</v>
@@ -7651,13 +7654,13 @@
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
-      <c r="W17" s="10">
+      <c r="W17" s="8">
         <v>1</v>
       </c>
-      <c r="X17" s="11">
+      <c r="X17" s="9">
         <v>0</v>
       </c>
-      <c r="Y17" s="11">
+      <c r="Y17" s="9">
         <v>0</v>
       </c>
       <c r="Z17" s="1"/>
@@ -7936,7 +7939,7 @@
       <c r="KE17" s="1"/>
       <c r="KF17" s="1"/>
     </row>
-    <row r="18" ht="17.6" spans="1:292">
+    <row r="18" ht="15.5" spans="1:292">
       <c r="A18" s="1"/>
       <c r="B18" s="1">
         <v>17</v>
@@ -7994,13 +7997,13 @@
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
-      <c r="W18" s="10">
+      <c r="W18" s="8">
         <v>1</v>
       </c>
-      <c r="X18" s="11">
+      <c r="X18" s="9">
         <v>0</v>
       </c>
-      <c r="Y18" s="11">
+      <c r="Y18" s="9">
         <v>0</v>
       </c>
       <c r="Z18" s="1" t="s">
@@ -8279,7 +8282,7 @@
       <c r="KE18" s="1"/>
       <c r="KF18" s="1"/>
     </row>
-    <row r="19" ht="17.6" spans="1:292">
+    <row r="19" ht="15.5" spans="1:292">
       <c r="A19" s="1"/>
       <c r="B19" s="1">
         <v>18</v>
@@ -8303,7 +8306,7 @@
       <c r="I19" s="1">
         <v>2</v>
       </c>
-      <c r="J19" s="6" t="s">
+      <c r="J19" s="7" t="s">
         <v>119</v>
       </c>
       <c r="K19" s="1" t="s">
@@ -8337,13 +8340,13 @@
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
-      <c r="W19" s="10">
+      <c r="W19" s="8">
         <v>1</v>
       </c>
-      <c r="X19" s="11">
+      <c r="X19" s="9">
         <v>0</v>
       </c>
-      <c r="Y19" s="11">
+      <c r="Y19" s="9">
         <v>0</v>
       </c>
       <c r="Z19" s="1" t="s">
@@ -8622,7 +8625,7 @@
       <c r="KE19" s="1"/>
       <c r="KF19" s="1"/>
     </row>
-    <row r="20" ht="17.6" spans="1:292">
+    <row r="20" ht="15.5" spans="1:292">
       <c r="A20" s="1"/>
       <c r="B20" s="1">
         <v>19</v>
@@ -8680,13 +8683,13 @@
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
-      <c r="W20" s="10">
+      <c r="W20" s="8">
         <v>1</v>
       </c>
-      <c r="X20" s="11">
+      <c r="X20" s="9">
         <v>0</v>
       </c>
-      <c r="Y20" s="11">
+      <c r="Y20" s="9">
         <v>0</v>
       </c>
       <c r="Z20" s="1" t="s">
@@ -8965,7 +8968,7 @@
       <c r="KE20" s="1"/>
       <c r="KF20" s="1"/>
     </row>
-    <row r="21" ht="17.6" spans="1:292">
+    <row r="21" ht="15.5" spans="1:292">
       <c r="A21" s="1"/>
       <c r="B21" s="1">
         <v>20</v>
@@ -9023,13 +9026,13 @@
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
-      <c r="W21" s="10">
+      <c r="W21" s="8">
         <v>1</v>
       </c>
-      <c r="X21" s="11">
+      <c r="X21" s="9">
         <v>0</v>
       </c>
-      <c r="Y21" s="11">
+      <c r="Y21" s="9">
         <v>0</v>
       </c>
       <c r="Z21" s="1" t="s">
@@ -9308,7 +9311,7 @@
       <c r="KE21" s="1"/>
       <c r="KF21" s="1"/>
     </row>
-    <row r="22" ht="18" spans="1:292">
+    <row r="22" ht="15.5" spans="1:292">
       <c r="A22" s="1"/>
       <c r="B22" s="1">
         <v>21</v>
@@ -9366,13 +9369,13 @@
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
-      <c r="W22" s="10">
+      <c r="W22" s="8">
         <v>1</v>
       </c>
-      <c r="X22" s="11">
+      <c r="X22" s="9">
         <v>0</v>
       </c>
-      <c r="Y22" s="11">
+      <c r="Y22" s="9">
         <v>0</v>
       </c>
       <c r="Z22" s="1" t="s">
@@ -9653,7 +9656,7 @@
       <c r="KE22" s="1"/>
       <c r="KF22" s="1"/>
     </row>
-    <row r="23" ht="17.6" spans="1:292">
+    <row r="23" ht="15.5" spans="1:292">
       <c r="A23" s="1"/>
       <c r="B23" s="1">
         <v>22</v>
@@ -9711,13 +9714,13 @@
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
-      <c r="W23" s="10">
+      <c r="W23" s="8">
         <v>1</v>
       </c>
-      <c r="X23" s="11">
+      <c r="X23" s="9">
         <v>0</v>
       </c>
-      <c r="Y23" s="11">
+      <c r="Y23" s="9">
         <v>0</v>
       </c>
       <c r="Z23" s="1" t="s">
@@ -9733,7 +9736,7 @@
         <v>26</v>
       </c>
       <c r="AD23" s="1"/>
-      <c r="AE23" s="18" t="s">
+      <c r="AE23" s="17" t="s">
         <v>129</v>
       </c>
       <c r="AF23" s="1"/>
@@ -9998,7 +10001,7 @@
       <c r="KE23" s="1"/>
       <c r="KF23" s="1"/>
     </row>
-    <row r="24" ht="18" spans="1:292">
+    <row r="24" ht="15.5" spans="1:292">
       <c r="A24" s="1"/>
       <c r="B24" s="1">
         <v>23</v>
@@ -10056,13 +10059,13 @@
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
-      <c r="W24" s="10">
+      <c r="W24" s="8">
         <v>1</v>
       </c>
-      <c r="X24" s="11">
+      <c r="X24" s="9">
         <v>0</v>
       </c>
-      <c r="Y24" s="11">
+      <c r="Y24" s="9">
         <v>0</v>
       </c>
       <c r="Z24" s="1" t="s">
@@ -10078,7 +10081,7 @@
         <v>29</v>
       </c>
       <c r="AD24" s="1"/>
-      <c r="AE24" s="18" t="s">
+      <c r="AE24" s="17" t="s">
         <v>131</v>
       </c>
       <c r="AF24" s="1"/>
@@ -10343,7 +10346,7 @@
       <c r="KE24" s="1"/>
       <c r="KF24" s="1"/>
     </row>
-    <row r="25" ht="17.6" spans="1:292">
+    <row r="25" ht="15.5" spans="1:292">
       <c r="A25" s="1"/>
       <c r="B25" s="1">
         <v>24</v>
@@ -10401,13 +10404,13 @@
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
-      <c r="W25" s="10">
+      <c r="W25" s="8">
         <v>1</v>
       </c>
-      <c r="X25" s="11">
+      <c r="X25" s="9">
         <v>0</v>
       </c>
-      <c r="Y25" s="11">
+      <c r="Y25" s="9">
         <v>0</v>
       </c>
       <c r="Z25" s="1"/>
@@ -10684,7 +10687,7 @@
       <c r="KE25" s="1"/>
       <c r="KF25" s="1"/>
     </row>
-    <row r="26" ht="18" spans="1:292">
+    <row r="26" ht="15.5" spans="1:292">
       <c r="A26" s="1"/>
       <c r="B26" s="1">
         <v>25</v>
@@ -10744,13 +10747,13 @@
       </c>
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
-      <c r="W26" s="10">
+      <c r="W26" s="8">
         <v>1</v>
       </c>
-      <c r="X26" s="11">
+      <c r="X26" s="9">
         <v>0</v>
       </c>
-      <c r="Y26" s="11">
+      <c r="Y26" s="9">
         <v>0</v>
       </c>
       <c r="Z26" s="1"/>
@@ -10762,7 +10765,7 @@
         <v>16</v>
       </c>
       <c r="AD26" s="1"/>
-      <c r="AE26" s="18" t="s">
+      <c r="AE26" s="17" t="s">
         <v>139</v>
       </c>
       <c r="AF26" s="1"/>
@@ -11027,7 +11030,7 @@
       <c r="KE26" s="1"/>
       <c r="KF26" s="1"/>
     </row>
-    <row r="27" ht="17.6" spans="1:292">
+    <row r="27" ht="15.5" spans="1:292">
       <c r="A27" s="1"/>
       <c r="B27" s="1">
         <v>26</v>
@@ -11087,13 +11090,13 @@
       </c>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
-      <c r="W27" s="10">
+      <c r="W27" s="8">
         <v>1</v>
       </c>
-      <c r="X27" s="11">
+      <c r="X27" s="9">
         <v>0</v>
       </c>
-      <c r="Y27" s="11">
+      <c r="Y27" s="9">
         <v>0</v>
       </c>
       <c r="Z27" s="1"/>
@@ -11105,7 +11108,7 @@
         <v>18</v>
       </c>
       <c r="AD27" s="1"/>
-      <c r="AE27" s="18" t="s">
+      <c r="AE27" s="17" t="s">
         <v>142</v>
       </c>
       <c r="AF27" s="1"/>
@@ -11370,7 +11373,7 @@
       <c r="KE27" s="1"/>
       <c r="KF27" s="1"/>
     </row>
-    <row r="28" ht="17.6" spans="1:292">
+    <row r="28" ht="15.5" spans="1:292">
       <c r="A28" s="1"/>
       <c r="B28" s="1">
         <v>27</v>
@@ -11427,18 +11430,18 @@
         <f t="shared" si="2"/>
         <v>105</v>
       </c>
-      <c r="T28" s="9" t="s">
+      <c r="T28" s="11" t="s">
         <v>147</v>
       </c>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
-      <c r="W28" s="10">
+      <c r="W28" s="8">
         <v>1</v>
       </c>
-      <c r="X28" s="11">
+      <c r="X28" s="9">
         <v>0</v>
       </c>
-      <c r="Y28" s="11">
+      <c r="Y28" s="9">
         <v>0</v>
       </c>
       <c r="Z28" s="1" t="s">
@@ -11777,16 +11780,16 @@
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
-      <c r="W29" s="10">
+      <c r="W29" s="8">
         <v>1</v>
       </c>
       <c r="X29" t="s">
         <v>98</v>
       </c>
-      <c r="Y29" s="11">
+      <c r="Y29" s="9">
         <v>0</v>
       </c>
-      <c r="Z29" s="17" t="s">
+      <c r="Z29" s="18" t="s">
         <v>152</v>
       </c>
       <c r="AA29" s="1" t="s">
@@ -12062,7 +12065,7 @@
       <c r="KE29" s="1"/>
       <c r="KF29" s="1"/>
     </row>
-    <row r="30" ht="17.6" spans="1:292">
+    <row r="30" ht="15.5" spans="1:292">
       <c r="A30" s="1" t="s">
         <v>153</v>
       </c>
@@ -12124,16 +12127,16 @@
       <c r="V30" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="W30" s="10">
+      <c r="W30" s="8">
         <v>1</v>
       </c>
-      <c r="X30" s="11">
+      <c r="X30" s="9">
         <v>0</v>
       </c>
-      <c r="Y30" s="10">
+      <c r="Y30" s="8">
         <v>1</v>
       </c>
-      <c r="Z30" s="17"/>
+      <c r="Z30" s="18"/>
       <c r="AA30" s="1" t="s">
         <v>64</v>
       </c>
@@ -12407,7 +12410,7 @@
       <c r="KE30" s="1"/>
       <c r="KF30" s="1"/>
     </row>
-    <row r="31" ht="17.6" spans="1:292">
+    <row r="31" ht="15.5" spans="1:292">
       <c r="A31" s="1" t="s">
         <v>160</v>
       </c>
@@ -12730,7 +12733,7 @@
       <c r="KE31" s="1"/>
       <c r="KF31" s="1"/>
     </row>
-    <row r="32" ht="17.6" spans="1:292">
+    <row r="32" ht="15.5" spans="1:292">
       <c r="A32" s="1" t="s">
         <v>160</v>
       </c>
@@ -13053,7 +13056,7 @@
       <c r="KE32" s="1"/>
       <c r="KF32" s="1"/>
     </row>
-    <row r="33" ht="17.6" spans="1:292">
+    <row r="33" ht="15.5" spans="1:292">
       <c r="A33" s="1" t="s">
         <v>160</v>
       </c>
@@ -13376,7 +13379,7 @@
       <c r="KE33" s="1"/>
       <c r="KF33" s="1"/>
     </row>
-    <row r="34" ht="17.6" spans="1:292">
+    <row r="34" ht="15.5" spans="1:292">
       <c r="A34" s="1" t="s">
         <v>167</v>
       </c>
@@ -13703,7 +13706,7 @@
       <c r="KE34" s="1"/>
       <c r="KF34" s="1"/>
     </row>
-    <row r="35" ht="17.6" spans="1:292">
+    <row r="35" ht="15.5" spans="1:292">
       <c r="A35" s="1" t="s">
         <v>174</v>
       </c>
@@ -14030,7 +14033,7 @@
       <c r="KE35" s="1"/>
       <c r="KF35" s="1"/>
     </row>
-    <row r="36" ht="17.6" spans="1:292">
+    <row r="36" ht="15.5" spans="1:292">
       <c r="A36" s="1" t="s">
         <v>177</v>
       </c>
@@ -14357,7 +14360,7 @@
       <c r="KE36" s="1"/>
       <c r="KF36" s="1"/>
     </row>
-    <row r="37" ht="17.6" spans="1:292">
+    <row r="37" ht="15.5" spans="1:292">
       <c r="A37" s="1" t="s">
         <v>180</v>
       </c>
@@ -14684,7 +14687,7 @@
       <c r="KE37" s="1"/>
       <c r="KF37" s="1"/>
     </row>
-    <row r="38" ht="17.6" spans="1:292">
+    <row r="38" ht="15.5" spans="1:292">
       <c r="A38" s="1"/>
       <c r="B38" s="1">
         <v>37</v>
@@ -14740,13 +14743,13 @@
       <c r="T38" s="1"/>
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
-      <c r="W38" s="10">
+      <c r="W38" s="8">
         <v>1</v>
       </c>
       <c r="X38" s="13">
         <v>0</v>
       </c>
-      <c r="Y38" s="10">
+      <c r="Y38" s="8">
         <v>1</v>
       </c>
       <c r="Z38" s="1" t="s">
@@ -15027,7 +15030,7 @@
       <c r="KE38" s="1"/>
       <c r="KF38" s="1"/>
     </row>
-    <row r="39" ht="17.6" spans="1:292">
+    <row r="39" ht="15.5" spans="1:292">
       <c r="A39" s="1"/>
       <c r="B39" s="1">
         <v>38</v>
@@ -15087,7 +15090,7 @@
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
-      <c r="W39" s="10">
+      <c r="W39" s="8">
         <v>1</v>
       </c>
       <c r="X39" s="14" t="s">
@@ -15370,7 +15373,7 @@
       <c r="KE39" s="1"/>
       <c r="KF39" s="1"/>
     </row>
-    <row r="40" ht="17.6" spans="1:292">
+    <row r="40" ht="15.5" spans="1:292">
       <c r="A40" s="1"/>
       <c r="B40" s="1">
         <v>39</v>
@@ -15434,7 +15437,7 @@
         <v>196</v>
       </c>
       <c r="V40" s="1"/>
-      <c r="W40" s="10">
+      <c r="W40" s="8">
         <v>1</v>
       </c>
       <c r="X40" s="13">
@@ -15719,7 +15722,7 @@
       <c r="KE40" s="1"/>
       <c r="KF40" s="1"/>
     </row>
-    <row r="41" ht="17.6" spans="1:292">
+    <row r="41" ht="15.5" spans="1:292">
       <c r="A41" s="1" t="s">
         <v>197</v>
       </c>
@@ -15779,7 +15782,7 @@
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
       <c r="V41" s="1"/>
-      <c r="W41" s="10">
+      <c r="W41" s="8">
         <v>1</v>
       </c>
       <c r="X41" s="13">
@@ -16066,7 +16069,7 @@
       <c r="KE41" s="1"/>
       <c r="KF41" s="1"/>
     </row>
-    <row r="42" ht="17.6" spans="1:292">
+    <row r="42" ht="15.5" spans="1:292">
       <c r="A42" s="1"/>
       <c r="B42" s="1">
         <v>41</v>
@@ -16126,7 +16129,7 @@
       </c>
       <c r="U42" s="1"/>
       <c r="V42" s="1"/>
-      <c r="W42" s="10">
+      <c r="W42" s="8">
         <v>1</v>
       </c>
       <c r="X42" s="13">
@@ -16413,7 +16416,7 @@
       <c r="KE42" s="1"/>
       <c r="KF42" s="1"/>
     </row>
-    <row r="43" ht="17.6" spans="1:292">
+    <row r="43" ht="15.5" spans="1:292">
       <c r="A43" s="1"/>
       <c r="B43" s="1">
         <v>42</v>
@@ -16473,7 +16476,7 @@
       </c>
       <c r="U43" s="1"/>
       <c r="V43" s="1"/>
-      <c r="W43" s="10">
+      <c r="W43" s="8">
         <v>1</v>
       </c>
       <c r="X43" s="13">
@@ -16760,7 +16763,7 @@
       <c r="KE43" s="1"/>
       <c r="KF43" s="1"/>
     </row>
-    <row r="44" ht="17.6" spans="1:292">
+    <row r="44" ht="15.5" spans="1:292">
       <c r="A44" s="1" t="s">
         <v>211</v>
       </c>
@@ -16822,7 +16825,7 @@
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
       <c r="V44" s="1"/>
-      <c r="W44" s="10">
+      <c r="W44" s="8">
         <v>1</v>
       </c>
       <c r="X44" s="15" t="s">
@@ -17105,7 +17108,7 @@
       <c r="KE44" s="1"/>
       <c r="KF44" s="1"/>
     </row>
-    <row r="45" ht="17.6" spans="1:292">
+    <row r="45" ht="15.5" spans="1:292">
       <c r="A45" s="1"/>
       <c r="B45" s="1">
         <v>44</v>
@@ -17165,7 +17168,7 @@
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
       <c r="V45" s="1"/>
-      <c r="W45" s="10">
+      <c r="W45" s="8">
         <v>1</v>
       </c>
       <c r="X45" s="13">
@@ -17452,7 +17455,7 @@
       <c r="KE45" s="1"/>
       <c r="KF45" s="1"/>
     </row>
-    <row r="46" ht="17.6" spans="1:292">
+    <row r="46" ht="15.5" spans="1:292">
       <c r="A46" s="1"/>
       <c r="B46" s="1">
         <v>45</v>
@@ -17512,7 +17515,7 @@
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
       <c r="V46" s="1"/>
-      <c r="W46" s="10">
+      <c r="W46" s="8">
         <v>1</v>
       </c>
       <c r="X46" s="13">
@@ -17799,7 +17802,7 @@
       <c r="KE46" s="1"/>
       <c r="KF46" s="1"/>
     </row>
-    <row r="47" ht="17.6" spans="1:292">
+    <row r="47" ht="15.5" spans="1:292">
       <c r="A47" s="1"/>
       <c r="B47" s="1">
         <v>46</v>
@@ -17859,7 +17862,7 @@
       <c r="T47" s="1"/>
       <c r="U47" s="1"/>
       <c r="V47" s="1"/>
-      <c r="W47" s="10">
+      <c r="W47" s="8">
         <v>1</v>
       </c>
       <c r="X47" s="13">
@@ -18146,7 +18149,7 @@
       <c r="KE47" s="1"/>
       <c r="KF47" s="1"/>
     </row>
-    <row r="48" ht="17.6" spans="1:292">
+    <row r="48" ht="15.5" spans="1:292">
       <c r="A48" s="1"/>
       <c r="B48" s="1">
         <v>47</v>
@@ -18204,7 +18207,7 @@
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
       <c r="V48" s="1"/>
-      <c r="W48" s="10">
+      <c r="W48" s="8">
         <v>1</v>
       </c>
       <c r="X48" s="13">
@@ -18487,7 +18490,7 @@
       <c r="KE48" s="1"/>
       <c r="KF48" s="1"/>
     </row>
-    <row r="49" ht="17.6" spans="1:292">
+    <row r="49" ht="15.5" spans="1:292">
       <c r="A49" s="1"/>
       <c r="B49" s="1">
         <v>48</v>
@@ -18796,7 +18799,7 @@
       <c r="KE49" s="1"/>
       <c r="KF49" s="1"/>
     </row>
-    <row r="50" ht="17.6" spans="1:292">
+    <row r="50" ht="15.5" spans="1:292">
       <c r="A50" s="1"/>
       <c r="B50" s="1">
         <v>49</v>
@@ -19106,7 +19109,7 @@
       <c r="KE50" s="1"/>
       <c r="KF50" s="1"/>
     </row>
-    <row r="51" ht="17.6" spans="1:292">
+    <row r="51" ht="15.5" spans="1:292">
       <c r="A51" s="1"/>
       <c r="B51" s="1">
         <v>50</v>
@@ -19165,7 +19168,7 @@
       <c r="T51" s="1"/>
       <c r="U51" s="1"/>
       <c r="V51" s="1"/>
-      <c r="W51" s="10">
+      <c r="W51" s="8">
         <v>1</v>
       </c>
       <c r="X51" s="15" t="s">
@@ -19446,7 +19449,7 @@
       <c r="KE51" s="1"/>
       <c r="KF51" s="1"/>
     </row>
-    <row r="52" ht="17.6" spans="1:292">
+    <row r="52" ht="15.5" spans="1:292">
       <c r="A52" s="1"/>
       <c r="B52" s="1">
         <v>51</v>
@@ -20066,7 +20069,7 @@
       <c r="KE53" s="1"/>
       <c r="KF53" s="1"/>
     </row>
-    <row r="54" ht="17.6" spans="1:292">
+    <row r="54" ht="15.5" spans="1:292">
       <c r="A54" s="1"/>
       <c r="B54" s="1">
         <v>53</v>
@@ -20125,13 +20128,13 @@
       <c r="T54" s="1"/>
       <c r="U54" s="1"/>
       <c r="V54" s="1"/>
-      <c r="W54" s="10">
+      <c r="W54" s="8">
         <v>1</v>
       </c>
       <c r="X54" s="13">
         <v>0</v>
       </c>
-      <c r="Y54" s="10">
+      <c r="Y54" s="8">
         <v>1</v>
       </c>
       <c r="Z54" s="1"/>
@@ -20408,7 +20411,7 @@
       <c r="KE54" s="1"/>
       <c r="KF54" s="1"/>
     </row>
-    <row r="55" ht="17.6" spans="1:292">
+    <row r="55" ht="15.5" spans="1:292">
       <c r="A55" s="1"/>
       <c r="B55" s="1">
         <v>54</v>
@@ -20467,7 +20470,7 @@
       <c r="T55" s="1"/>
       <c r="U55" s="1"/>
       <c r="V55" s="1"/>
-      <c r="W55" s="10">
+      <c r="W55" s="8">
         <v>1</v>
       </c>
       <c r="X55" s="13">
@@ -20754,7 +20757,7 @@
       <c r="KE55" s="1"/>
       <c r="KF55" s="1"/>
     </row>
-    <row r="56" ht="18" spans="1:292">
+    <row r="56" ht="15.5" spans="1:292">
       <c r="A56" s="1"/>
       <c r="B56" s="1">
         <v>55</v>
@@ -20809,13 +20812,13 @@
       <c r="T56" s="1"/>
       <c r="U56" s="1"/>
       <c r="V56" s="1"/>
-      <c r="W56" s="10">
+      <c r="W56" s="8">
         <v>1</v>
       </c>
       <c r="X56" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="Y56" s="10">
+      <c r="Y56" s="8">
         <v>1</v>
       </c>
       <c r="Z56" s="1"/>
@@ -20827,7 +20830,7 @@
         <v>21</v>
       </c>
       <c r="AD56" s="1"/>
-      <c r="AE56" s="20" t="s">
+      <c r="AE56" s="17" t="s">
         <v>250</v>
       </c>
       <c r="AF56" s="1"/>
@@ -21092,7 +21095,7 @@
       <c r="KE56" s="1"/>
       <c r="KF56" s="1"/>
     </row>
-    <row r="57" ht="17.6" spans="1:292">
+    <row r="57" ht="15.5" spans="1:292">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -21386,7 +21389,7 @@
       <c r="KE57" s="1"/>
       <c r="KF57" s="1"/>
     </row>
-    <row r="58" ht="17.6" spans="1:292">
+    <row r="58" ht="15.5" spans="1:292">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -21680,7 +21683,7 @@
       <c r="KE58" s="1"/>
       <c r="KF58" s="1"/>
     </row>
-    <row r="59" ht="17.6" spans="1:292">
+    <row r="59" ht="15.5" spans="1:292">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -21974,7 +21977,7 @@
       <c r="KE59" s="1"/>
       <c r="KF59" s="1"/>
     </row>
-    <row r="60" ht="17.6" spans="1:292">
+    <row r="60" ht="15.5" spans="1:292">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -22268,7 +22271,7 @@
       <c r="KE60" s="1"/>
       <c r="KF60" s="1"/>
     </row>
-    <row r="61" ht="17.6" spans="1:292">
+    <row r="61" ht="15.5" spans="1:292">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -22562,7 +22565,7 @@
       <c r="KE61" s="1"/>
       <c r="KF61" s="1"/>
     </row>
-    <row r="62" ht="17.6" spans="1:292">
+    <row r="62" ht="15.5" spans="1:292">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -22856,7 +22859,7 @@
       <c r="KE62" s="1"/>
       <c r="KF62" s="1"/>
     </row>
-    <row r="63" ht="17.6" spans="1:292">
+    <row r="63" ht="15.5" spans="1:292">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -23150,7 +23153,7 @@
       <c r="KE63" s="1"/>
       <c r="KF63" s="1"/>
     </row>
-    <row r="64" ht="17.6" spans="1:292">
+    <row r="64" ht="15.5" spans="1:292">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -23444,7 +23447,7 @@
       <c r="KE64" s="1"/>
       <c r="KF64" s="1"/>
     </row>
-    <row r="65" ht="17.6" spans="1:292">
+    <row r="65" ht="15.5" spans="1:292">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -23738,7 +23741,7 @@
       <c r="KE65" s="1"/>
       <c r="KF65" s="1"/>
     </row>
-    <row r="66" ht="17.6" spans="1:292">
+    <row r="66" ht="15.5" spans="1:292">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -24032,7 +24035,7 @@
       <c r="KE66" s="1"/>
       <c r="KF66" s="1"/>
     </row>
-    <row r="67" ht="17.6" spans="1:292">
+    <row r="67" ht="15.5" spans="1:292">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -24326,7 +24329,7 @@
       <c r="KE67" s="1"/>
       <c r="KF67" s="1"/>
     </row>
-    <row r="68" ht="17.6" spans="1:292">
+    <row r="68" ht="15.5" spans="1:292">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -24620,7 +24623,7 @@
       <c r="KE68" s="1"/>
       <c r="KF68" s="1"/>
     </row>
-    <row r="69" ht="17.6" spans="1:292">
+    <row r="69" ht="15.5" spans="1:292">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -24914,7 +24917,7 @@
       <c r="KE69" s="1"/>
       <c r="KF69" s="1"/>
     </row>
-    <row r="70" ht="17.6" spans="1:292">
+    <row r="70" ht="15.5" spans="1:292">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -25208,7 +25211,7 @@
       <c r="KE70" s="1"/>
       <c r="KF70" s="1"/>
     </row>
-    <row r="71" ht="17.6" spans="1:292">
+    <row r="71" ht="15.5" spans="1:292">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -25502,7 +25505,7 @@
       <c r="KE71" s="1"/>
       <c r="KF71" s="1"/>
     </row>
-    <row r="72" ht="17.6" spans="1:12">
+    <row r="72" ht="15.5" spans="1:12">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -25549,15 +25552,15 @@
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66964285714286" defaultRowHeight="16.8" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="6.08035714285714" customWidth="1"/>
+    <col min="1" max="1" width="6.08333333333333" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="7" max="7" width="6.08035714285714" customWidth="1"/>
+    <col min="7" max="7" width="6.08333333333333" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.6" spans="1:8">
+    <row r="1" ht="15.5" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -25577,7 +25580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="17.6" spans="1:8">
+    <row r="2" ht="15.5" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
@@ -25597,7 +25600,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="3" ht="17.6" spans="1:8">
+    <row r="3" ht="15.5" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>33</v>
       </c>
@@ -25617,7 +25620,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" ht="17.6" spans="1:8">
+    <row r="4" ht="15.5" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>33</v>
       </c>
@@ -25637,7 +25640,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="5" ht="17.6" spans="1:8">
+    <row r="5" ht="15.5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
@@ -25657,7 +25660,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="6" ht="17.6" hidden="1" spans="1:8">
+    <row r="6" ht="15.5" hidden="1" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>50</v>
       </c>
@@ -25677,7 +25680,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="7" ht="17.6" hidden="1" spans="1:8">
+    <row r="7" ht="15.5" hidden="1" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>59</v>
       </c>
@@ -25697,7 +25700,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="8" ht="17.6" hidden="1" spans="1:8">
+    <row r="8" ht="15.5" hidden="1" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>66</v>
       </c>
@@ -25717,7 +25720,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="9" ht="17.6" hidden="1" spans="1:8">
+    <row r="9" ht="15.5" hidden="1" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>72</v>
       </c>
@@ -25737,7 +25740,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="10" ht="17.6" hidden="1" spans="1:8">
+    <row r="10" ht="15.5" hidden="1" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>78</v>
       </c>
@@ -25757,7 +25760,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="11" ht="17.6" spans="1:8">
+    <row r="11" ht="15.5" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>83</v>
       </c>
@@ -25777,7 +25780,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="12" ht="17.6" spans="1:8">
+    <row r="12" ht="15.5" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>83</v>
       </c>
@@ -25797,7 +25800,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="13" ht="17.6" spans="1:8">
+    <row r="13" ht="15.5" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>93</v>
       </c>
@@ -25817,7 +25820,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="14" ht="17.6" spans="1:8">
+    <row r="14" ht="15.5" spans="1:8">
       <c r="A14" s="1" t="s">
         <v>93</v>
       </c>
@@ -25837,7 +25840,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="15" ht="17.6" spans="1:8">
+    <row r="15" ht="15.5" spans="1:8">
       <c r="A15" s="1" t="s">
         <v>103</v>
       </c>
@@ -25857,7 +25860,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="16" ht="17.6" spans="1:8">
+    <row r="16" ht="15.5" spans="1:8">
       <c r="A16" s="1" t="s">
         <v>103</v>
       </c>
@@ -25877,7 +25880,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="17" ht="17.6" hidden="1" spans="1:8">
+    <row r="17" ht="15.5" hidden="1" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>109</v>
       </c>
@@ -25897,7 +25900,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="18" ht="17.6" spans="1:8">
+    <row r="18" ht="15.5" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>115</v>
       </c>
@@ -25917,7 +25920,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="19" ht="17.6" spans="1:8">
+    <row r="19" ht="15.5" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>115</v>
       </c>
@@ -25937,7 +25940,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="20" ht="17.6" spans="1:8">
+    <row r="20" ht="15.5" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>115</v>
       </c>
@@ -25957,7 +25960,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="21" ht="17.6" spans="1:8">
+    <row r="21" ht="15.5" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>133</v>
       </c>
@@ -25977,7 +25980,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="22" ht="17.6" spans="1:8">
+    <row r="22" ht="15.5" spans="1:8">
       <c r="A22" s="1" t="s">
         <v>133</v>
       </c>
@@ -25997,7 +26000,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="23" ht="17.6" spans="1:8">
+    <row r="23" ht="15.5" spans="1:8">
       <c r="A23" s="1" t="s">
         <v>133</v>
       </c>
@@ -26017,7 +26020,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="24" ht="17.6" hidden="1" spans="1:8">
+    <row r="24" ht="15.5" hidden="1" spans="1:8">
       <c r="A24" s="1" t="s">
         <v>144</v>
       </c>
@@ -26037,7 +26040,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="25" ht="17.6" hidden="1" spans="1:8">
+    <row r="25" ht="15.5" hidden="1" spans="1:8">
       <c r="A25" s="1" t="s">
         <v>149</v>
       </c>
@@ -26057,7 +26060,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="26" ht="17.6" hidden="1" spans="1:8">
+    <row r="26" ht="15.5" hidden="1" spans="1:8">
       <c r="A26" s="1" t="s">
         <v>155</v>
       </c>
@@ -26077,7 +26080,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="27" ht="17.6" hidden="1" spans="1:8">
+    <row r="27" ht="15.5" hidden="1" spans="1:8">
       <c r="A27" s="1" t="s">
         <v>162</v>
       </c>
@@ -26091,7 +26094,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="28" ht="17.6" spans="1:8">
+    <row r="28" ht="15.5" spans="1:8">
       <c r="A28" s="1" t="s">
         <v>165</v>
       </c>
@@ -26105,7 +26108,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="29" ht="17.6" spans="1:8">
+    <row r="29" ht="15.5" spans="1:8">
       <c r="A29" s="1" t="s">
         <v>165</v>
       </c>
@@ -26119,7 +26122,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="30" ht="17.6" spans="1:8">
+    <row r="30" ht="15.5" spans="1:8">
       <c r="A30" s="1" t="s">
         <v>169</v>
       </c>
@@ -26133,7 +26136,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="31" ht="17.6" spans="1:8">
+    <row r="31" ht="15.5" spans="1:8">
       <c r="A31" s="1" t="s">
         <v>169</v>
       </c>
@@ -26147,7 +26150,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="32" ht="17.6" spans="1:8">
+    <row r="32" ht="15.5" spans="1:8">
       <c r="A32" s="1" t="s">
         <v>169</v>
       </c>
@@ -26161,7 +26164,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="33" ht="17.6" spans="1:8">
+    <row r="33" ht="15.5" spans="1:8">
       <c r="A33" s="1" t="s">
         <v>169</v>
       </c>
@@ -26175,7 +26178,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="34" ht="17.6" hidden="1" spans="1:8">
+    <row r="34" ht="15.5" hidden="1" spans="1:8">
       <c r="A34" s="1" t="s">
         <v>184</v>
       </c>
@@ -26189,7 +26192,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="35" ht="17.6" hidden="1" spans="1:8">
+    <row r="35" ht="15.5" hidden="1" spans="1:8">
       <c r="A35" s="1" t="s">
         <v>189</v>
       </c>
@@ -26203,7 +26206,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="36" ht="17.6" hidden="1" spans="1:8">
+    <row r="36" ht="15.5" hidden="1" spans="1:8">
       <c r="A36" s="1" t="s">
         <v>193</v>
       </c>
@@ -26217,7 +26220,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="37" ht="17.6" hidden="1" spans="1:8">
+    <row r="37" ht="15.5" hidden="1" spans="1:8">
       <c r="A37" s="1" t="s">
         <v>199</v>
       </c>
@@ -26231,7 +26234,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="38" ht="17.6" spans="1:8">
+    <row r="38" ht="15.5" spans="1:8">
       <c r="A38" s="1" t="s">
         <v>203</v>
       </c>
@@ -26245,7 +26248,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="39" ht="17.6" spans="1:8">
+    <row r="39" ht="15.5" spans="1:8">
       <c r="A39" s="1" t="s">
         <v>203</v>
       </c>
@@ -26259,7 +26262,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="40" ht="17.6" hidden="1" spans="1:8">
+    <row r="40" ht="15.5" hidden="1" spans="1:8">
       <c r="A40" s="1" t="s">
         <v>213</v>
       </c>
@@ -26273,7 +26276,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="41" ht="17.6" spans="1:8">
+    <row r="41" ht="15.5" spans="1:8">
       <c r="A41" s="1" t="s">
         <v>217</v>
       </c>
@@ -26287,7 +26290,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="42" ht="17.6" spans="1:8">
+    <row r="42" ht="15.5" spans="1:8">
       <c r="A42" s="1" t="s">
         <v>217</v>
       </c>
@@ -26301,7 +26304,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="43" ht="17.6" spans="1:8">
+    <row r="43" ht="15.5" spans="1:8">
       <c r="A43" s="1" t="s">
         <v>217</v>
       </c>
@@ -26315,7 +26318,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="44" ht="17.6" spans="1:8">
+    <row r="44" ht="15.5" spans="1:8">
       <c r="A44" s="1" t="s">
         <v>223</v>
       </c>
@@ -26329,7 +26332,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="45" ht="17.6" spans="1:8">
+    <row r="45" ht="15.5" spans="1:8">
       <c r="A45" s="1" t="s">
         <v>223</v>
       </c>
@@ -26343,7 +26346,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="46" ht="17.6" spans="1:8">
+    <row r="46" ht="15.5" spans="1:8">
       <c r="A46" s="1" t="s">
         <v>223</v>
       </c>
@@ -26357,7 +26360,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="47" ht="17.6" spans="1:8">
+    <row r="47" ht="15.5" spans="1:8">
       <c r="A47" s="1" t="s">
         <v>229</v>
       </c>
@@ -26371,7 +26374,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="48" ht="17.6" spans="1:8">
+    <row r="48" ht="15.5" spans="1:8">
       <c r="A48" s="1" t="s">
         <v>229</v>
       </c>
@@ -26385,7 +26388,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="49" ht="17.6" spans="1:8">
+    <row r="49" ht="15.5" spans="1:8">
       <c r="A49" s="1" t="s">
         <v>229</v>
       </c>
@@ -26399,7 +26402,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="50" ht="17.6" hidden="1" spans="1:8">
+    <row r="50" ht="15.5" hidden="1" spans="1:8">
       <c r="A50" s="1" t="s">
         <v>235</v>
       </c>
@@ -26413,7 +26416,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="51" ht="17.6" hidden="1" spans="1:8">
+    <row r="51" ht="15.5" hidden="1" spans="1:8">
       <c r="A51" s="1" t="s">
         <v>240</v>
       </c>
@@ -26427,7 +26430,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="52" ht="17.6" hidden="1" spans="1:8">
+    <row r="52" ht="15.5" hidden="1" spans="1:8">
       <c r="A52" s="1" t="s">
         <v>246</v>
       </c>
@@ -26441,97 +26444,97 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="53" ht="17.6" hidden="1" spans="1:8">
+    <row r="53" ht="15.5" hidden="1" spans="1:8">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
     </row>
-    <row r="54" ht="17.6" hidden="1" spans="1:8">
+    <row r="54" ht="15.5" hidden="1" spans="1:8">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" ht="17.6" hidden="1" spans="1:8">
+    <row r="55" ht="15.5" hidden="1" spans="1:8">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
     </row>
-    <row r="56" ht="17.6" hidden="1" spans="1:8">
+    <row r="56" ht="15.5" hidden="1" spans="1:8">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" ht="17.6" hidden="1" spans="1:8">
+    <row r="57" ht="15.5" hidden="1" spans="1:8">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
     </row>
-    <row r="58" ht="17.6" hidden="1" spans="1:8">
+    <row r="58" ht="15.5" hidden="1" spans="1:8">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" ht="17.6" hidden="1" spans="1:8">
+    <row r="59" ht="15.5" hidden="1" spans="1:8">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
     </row>
-    <row r="60" ht="17.6" hidden="1" spans="1:8">
+    <row r="60" ht="15.5" hidden="1" spans="1:8">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
     </row>
-    <row r="61" ht="17.6" hidden="1" spans="1:8">
+    <row r="61" ht="15.5" hidden="1" spans="1:8">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
     </row>
-    <row r="62" ht="17.6" hidden="1" spans="1:8">
+    <row r="62" ht="15.5" hidden="1" spans="1:8">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
     </row>
-    <row r="63" ht="17.6" hidden="1" spans="1:8">
+    <row r="63" ht="15.5" hidden="1" spans="1:8">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
     </row>
-    <row r="64" ht="17.6" hidden="1" spans="1:8">
+    <row r="64" ht="15.5" hidden="1" spans="1:8">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
     </row>
-    <row r="65" ht="17.6" hidden="1" spans="1:8">
+    <row r="65" ht="15.5" hidden="1" spans="1:8">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
     </row>
-    <row r="66" ht="17.6" hidden="1" spans="1:8">
+    <row r="66" ht="15.5" hidden="1" spans="1:8">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
     </row>
-    <row r="67" ht="17.6" hidden="1" spans="1:8">
+    <row r="67" ht="15.5" hidden="1" spans="1:8">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
     </row>
-    <row r="68" ht="17.6" hidden="1" spans="1:8">
+    <row r="68" ht="15.5" hidden="1" spans="1:8">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="G68" s="1"/>

--- a/Label.xlsx
+++ b/Label.xlsx
@@ -2258,12 +2258,12 @@
   <sheetPr/>
   <dimension ref="A1:KF72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D18" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O30" sqref="O30"/>
+      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/Label.xlsx
+++ b/Label.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="10480"/>
+    <workbookView windowWidth="19950" windowHeight="10480" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Label" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Label!$A$1:$V$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Label!$A$1:$V$52</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$A$68</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="248">
   <si>
     <t>Note</t>
   </si>
@@ -1024,12 +1025,6 @@
     <t>NeuroImage</t>
   </si>
   <si>
-    <t>Pt10E2</t>
-  </si>
-  <si>
-    <t>Pt10E3</t>
-  </si>
-  <si>
     <t>Pt13E1</t>
   </si>
   <si>
@@ -1040,12 +1035,6 @@
   </si>
   <si>
     <t>International Journal of Environmental Research and Public Health</t>
-  </si>
-  <si>
-    <t>Pt13Ea</t>
-  </si>
-  <si>
-    <t>Pt13Eb</t>
   </si>
   <si>
     <t>Pt18E1</t>
@@ -2256,14 +2245,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:KF72"/>
+  <dimension ref="A1:KF68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D18" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1:F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2279,11 +2268,13 @@
     <col min="9" max="10" width="9" customWidth="1"/>
     <col min="11" max="11" width="20.0833333333333" customWidth="1"/>
     <col min="12" max="12" width="21.5833333333333" customWidth="1"/>
-    <col min="13" max="13" width="11.625" customWidth="1"/>
-    <col min="14" max="16" width="13.0916666666667" customWidth="1"/>
-    <col min="17" max="17" width="13.5416666666667" customWidth="1"/>
+    <col min="13" max="13" width="11.75" customWidth="1"/>
+    <col min="14" max="14" width="13.0833333333333" customWidth="1"/>
+    <col min="15" max="15" width="14.25" customWidth="1"/>
+    <col min="16" max="16" width="12.9166666666667" customWidth="1"/>
+    <col min="17" max="17" width="13.25" customWidth="1"/>
     <col min="18" max="18" width="12.75" customWidth="1"/>
-    <col min="19" max="19" width="9" customWidth="1"/>
+    <col min="19" max="19" width="7.58333333333333" customWidth="1"/>
     <col min="20" max="20" width="41.6666666666667" customWidth="1"/>
     <col min="21" max="21" width="29" customWidth="1"/>
     <col min="23" max="23" width="13.25" customWidth="1"/>
@@ -5213,7 +5204,7 @@
         <v>5</v>
       </c>
       <c r="S10" s="1">
-        <f t="shared" ref="S10:S24" si="1">M10-R10</f>
+        <f>M10-R10</f>
         <v>51</v>
       </c>
       <c r="T10" s="1"/>
@@ -5558,7 +5549,7 @@
         <v>2</v>
       </c>
       <c r="S11" s="1">
-        <f t="shared" si="1"/>
+        <f>M11-R11</f>
         <v>24</v>
       </c>
       <c r="T11" s="1" t="s">
@@ -5903,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="S12" s="1">
-        <f t="shared" si="1"/>
+        <f>M12-R12</f>
         <v>25</v>
       </c>
       <c r="T12" s="1" t="s">
@@ -6252,7 +6243,7 @@
         <v>0</v>
       </c>
       <c r="S13" s="1">
-        <f t="shared" si="1"/>
+        <f>M13-R13</f>
         <v>103</v>
       </c>
       <c r="T13" s="1"/>
@@ -6601,7 +6592,7 @@
         <v>1</v>
       </c>
       <c r="S14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="S14:S24" si="1">M14-R14</f>
         <v>18</v>
       </c>
       <c r="T14" s="1" t="s">
@@ -18499,42 +18490,73 @@
         <v>226</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="F49" s="1">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="H49" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" s="1">
-        <v>2</v>
-      </c>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="1"/>
-      <c r="R49" s="1"/>
-      <c r="S49" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M49" s="1">
+        <v>84</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O49" s="1">
+        <v>3</v>
+      </c>
+      <c r="P49" s="1">
+        <v>320</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>4</v>
+      </c>
+      <c r="R49" s="1">
+        <v>0</v>
+      </c>
+      <c r="S49" s="1">
+        <v>84</v>
+      </c>
       <c r="T49" s="1"/>
       <c r="U49" s="1"/>
       <c r="V49" s="1"/>
-      <c r="W49" s="1"/>
-      <c r="Y49" s="15"/>
+      <c r="W49" s="8">
+        <v>1</v>
+      </c>
+      <c r="X49" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y49" s="13">
+        <v>0</v>
+      </c>
       <c r="Z49" s="1"/>
       <c r="AA49" s="1"/>
-      <c r="AB49" s="1"/>
-      <c r="AC49" s="1"/>
+      <c r="AB49" s="1">
+        <v>13</v>
+      </c>
+      <c r="AC49" s="1">
+        <v>70</v>
+      </c>
       <c r="AD49" s="1"/>
       <c r="AE49" s="1"/>
       <c r="AF49" s="1"/>
@@ -18805,48 +18827,80 @@
         <v>49</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="F50" s="1">
         <v>2023</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="H50" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I50" s="1">
-        <v>3</v>
-      </c>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
-      <c r="P50" s="1"/>
-      <c r="Q50" s="1"/>
-      <c r="R50" s="1"/>
-      <c r="S50" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M50" s="1">
+        <v>20</v>
+      </c>
+      <c r="N50" s="1">
+        <v>12</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P50" s="1">
+        <v>960</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>16</v>
+      </c>
+      <c r="R50" s="1">
+        <v>0</v>
+      </c>
+      <c r="S50" s="1">
+        <v>20</v>
+      </c>
       <c r="T50" s="1"/>
       <c r="U50" s="1"/>
       <c r="V50" s="1"/>
-      <c r="W50" s="1"/>
-      <c r="X50" s="15"/>
-      <c r="Y50" s="15"/>
+      <c r="W50" s="8">
+        <v>1</v>
+      </c>
+      <c r="X50" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="8">
+        <v>1</v>
+      </c>
       <c r="Z50" s="1"/>
       <c r="AA50" s="1"/>
-      <c r="AB50" s="1"/>
-      <c r="AC50" s="1"/>
+      <c r="AB50" s="1">
+        <v>12</v>
+      </c>
+      <c r="AC50" s="1">
+        <v>8</v>
+      </c>
       <c r="AD50" s="1"/>
-      <c r="AE50" s="1"/>
+      <c r="AE50" s="19" t="s">
+        <v>234</v>
+      </c>
       <c r="AF50" s="1"/>
       <c r="AG50" s="1"/>
       <c r="AH50" s="1"/>
@@ -19115,19 +19169,19 @@
         <v>50</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="F51" s="1">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H51" s="1">
         <v>1</v>
@@ -19145,25 +19199,25 @@
         <v>54</v>
       </c>
       <c r="M51" s="1">
-        <v>84</v>
-      </c>
-      <c r="N51" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
+      </c>
+      <c r="N51" s="1">
+        <v>20</v>
       </c>
       <c r="O51" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P51" s="1">
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="Q51" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R51" s="1">
         <v>0</v>
       </c>
       <c r="S51" s="1">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="T51" s="1"/>
       <c r="U51" s="1"/>
@@ -19171,22 +19225,28 @@
       <c r="W51" s="8">
         <v>1</v>
       </c>
-      <c r="X51" s="15" t="s">
-        <v>98</v>
+      <c r="X51" s="13">
+        <v>0</v>
       </c>
       <c r="Y51" s="13">
         <v>0</v>
       </c>
-      <c r="Z51" s="1"/>
-      <c r="AA51" s="1"/>
+      <c r="Z51" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AA51" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="AB51" s="1">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AC51" s="1">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="AD51" s="1"/>
-      <c r="AE51" s="1"/>
+      <c r="AE51" s="19" t="s">
+        <v>240</v>
+      </c>
       <c r="AF51" s="1"/>
       <c r="AG51" s="1"/>
       <c r="AH51" s="1"/>
@@ -19455,48 +19515,76 @@
         <v>51</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="F52" s="1">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="H52" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52" s="1">
-        <v>2</v>
-      </c>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-      <c r="O52" s="1"/>
-      <c r="P52" s="1"/>
-      <c r="Q52" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M52" s="1">
+        <v>70</v>
+      </c>
+      <c r="N52" s="1">
+        <v>24</v>
+      </c>
+      <c r="O52" s="1">
+        <v>1</v>
+      </c>
+      <c r="P52" s="1">
+        <v>360</v>
+      </c>
+      <c r="Q52" s="1">
+        <v>0</v>
+      </c>
       <c r="R52" s="1"/>
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
       <c r="U52" s="1"/>
       <c r="V52" s="1"/>
-      <c r="W52" s="1"/>
-      <c r="X52" s="15"/>
-      <c r="Y52" s="15"/>
+      <c r="W52" s="8">
+        <v>1</v>
+      </c>
+      <c r="X52" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y52" s="8">
+        <v>1</v>
+      </c>
       <c r="Z52" s="1"/>
       <c r="AA52" s="1"/>
-      <c r="AB52" s="1"/>
-      <c r="AC52" s="1"/>
+      <c r="AB52" s="1">
+        <v>49</v>
+      </c>
+      <c r="AC52" s="1">
+        <v>21</v>
+      </c>
       <c r="AD52" s="1"/>
-      <c r="AE52" s="1"/>
+      <c r="AE52" s="17" t="s">
+        <v>246</v>
+      </c>
       <c r="AF52" s="1"/>
       <c r="AG52" s="1"/>
       <c r="AH52" s="1"/>
@@ -19759,32 +19847,16 @@
       <c r="KE52" s="1"/>
       <c r="KF52" s="1"/>
     </row>
-    <row r="53" ht="18" customHeight="1" spans="1:292">
+    <row r="53" ht="15.5" spans="1:292">
       <c r="A53" s="1"/>
-      <c r="B53" s="1">
-        <v>52</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="F53" s="1">
-        <v>2021</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="H53" s="1">
-        <v>3</v>
-      </c>
-      <c r="I53" s="1">
-        <v>3</v>
-      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
@@ -19799,8 +19871,8 @@
       <c r="U53" s="1"/>
       <c r="V53" s="1"/>
       <c r="W53" s="1"/>
-      <c r="X53" s="15"/>
-      <c r="Y53" s="15"/>
+      <c r="X53" s="1"/>
+      <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
@@ -20071,84 +20143,36 @@
     </row>
     <row r="54" ht="15.5" spans="1:292">
       <c r="A54" s="1"/>
-      <c r="B54" s="1">
-        <v>53</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="F54" s="1">
-        <v>2023</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="H54" s="1">
-        <v>1</v>
-      </c>
-      <c r="I54" s="1">
-        <v>1</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L54" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M54" s="1">
-        <v>20</v>
-      </c>
-      <c r="N54" s="1">
-        <v>12</v>
-      </c>
-      <c r="O54" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P54" s="1">
-        <v>960</v>
-      </c>
-      <c r="Q54" s="1">
-        <v>16</v>
-      </c>
-      <c r="R54" s="1">
-        <v>0</v>
-      </c>
-      <c r="S54" s="1">
-        <v>20</v>
-      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
       <c r="T54" s="1"/>
       <c r="U54" s="1"/>
       <c r="V54" s="1"/>
-      <c r="W54" s="8">
-        <v>1</v>
-      </c>
-      <c r="X54" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y54" s="8">
-        <v>1</v>
-      </c>
+      <c r="W54" s="1"/>
+      <c r="X54" s="1"/>
+      <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
       <c r="AA54" s="1"/>
-      <c r="AB54" s="1">
-        <v>12</v>
-      </c>
-      <c r="AC54" s="1">
-        <v>8</v>
-      </c>
+      <c r="AB54" s="1"/>
+      <c r="AC54" s="1"/>
       <c r="AD54" s="1"/>
-      <c r="AE54" s="19" t="s">
-        <v>238</v>
-      </c>
+      <c r="AE54" s="1"/>
       <c r="AF54" s="1"/>
       <c r="AG54" s="1"/>
       <c r="AH54" s="1"/>
@@ -20413,88 +20437,36 @@
     </row>
     <row r="55" ht="15.5" spans="1:292">
       <c r="A55" s="1"/>
-      <c r="B55" s="1">
-        <v>54</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="F55" s="1">
-        <v>2024</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="H55" s="1">
-        <v>1</v>
-      </c>
-      <c r="I55" s="1">
-        <v>1</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L55" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M55" s="1">
-        <v>32</v>
-      </c>
-      <c r="N55" s="1">
-        <v>20</v>
-      </c>
-      <c r="O55" s="1">
-        <v>1</v>
-      </c>
-      <c r="P55" s="1">
-        <v>240</v>
-      </c>
-      <c r="Q55" s="1">
-        <v>5</v>
-      </c>
-      <c r="R55" s="1">
-        <v>0</v>
-      </c>
-      <c r="S55" s="1">
-        <v>32</v>
-      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
       <c r="T55" s="1"/>
       <c r="U55" s="1"/>
       <c r="V55" s="1"/>
-      <c r="W55" s="8">
-        <v>1</v>
-      </c>
-      <c r="X55" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y55" s="13">
-        <v>0</v>
-      </c>
-      <c r="Z55" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="AA55" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="AB55" s="1">
-        <v>5</v>
-      </c>
-      <c r="AC55" s="1">
-        <v>27</v>
-      </c>
+      <c r="W55" s="1"/>
+      <c r="X55" s="1"/>
+      <c r="Y55" s="1"/>
+      <c r="Z55" s="1"/>
+      <c r="AA55" s="1"/>
+      <c r="AB55" s="1"/>
+      <c r="AC55" s="1"/>
       <c r="AD55" s="1"/>
-      <c r="AE55" s="19" t="s">
-        <v>244</v>
-      </c>
+      <c r="AE55" s="1"/>
       <c r="AF55" s="1"/>
       <c r="AG55" s="1"/>
       <c r="AH55" s="1"/>
@@ -20759,80 +20731,36 @@
     </row>
     <row r="56" ht="15.5" spans="1:292">
       <c r="A56" s="1"/>
-      <c r="B56" s="1">
-        <v>55</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="F56" s="1">
-        <v>2024</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="H56" s="1">
-        <v>1</v>
-      </c>
-      <c r="I56" s="1">
-        <v>1</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="L56" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M56" s="1">
-        <v>70</v>
-      </c>
-      <c r="N56" s="1">
-        <v>24</v>
-      </c>
-      <c r="O56" s="1">
-        <v>1</v>
-      </c>
-      <c r="P56" s="1">
-        <v>360</v>
-      </c>
-      <c r="Q56" s="1">
-        <v>0</v>
-      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
       <c r="U56" s="1"/>
       <c r="V56" s="1"/>
-      <c r="W56" s="8">
-        <v>1</v>
-      </c>
-      <c r="X56" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y56" s="8">
-        <v>1</v>
-      </c>
+      <c r="W56" s="1"/>
+      <c r="X56" s="1"/>
+      <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
       <c r="AA56" s="1"/>
-      <c r="AB56" s="1">
-        <v>49</v>
-      </c>
-      <c r="AC56" s="1">
-        <v>21</v>
-      </c>
+      <c r="AB56" s="1"/>
+      <c r="AC56" s="1"/>
       <c r="AD56" s="1"/>
-      <c r="AE56" s="17" t="s">
-        <v>250</v>
-      </c>
+      <c r="AE56" s="1"/>
       <c r="AF56" s="1"/>
       <c r="AG56" s="1"/>
       <c r="AH56" s="1"/>
@@ -24329,7 +24257,7 @@
       <c r="KE67" s="1"/>
       <c r="KF67" s="1"/>
     </row>
-    <row r="68" ht="15.5" spans="1:292">
+    <row r="68" ht="15.5" spans="1:12">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -24342,1185 +24270,9 @@
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
-      <c r="M68" s="1"/>
-      <c r="N68" s="1"/>
-      <c r="O68" s="1"/>
-      <c r="P68" s="1"/>
-      <c r="Q68" s="1"/>
-      <c r="R68" s="1"/>
-      <c r="S68" s="1"/>
-      <c r="T68" s="1"/>
-      <c r="U68" s="1"/>
-      <c r="V68" s="1"/>
-      <c r="W68" s="1"/>
-      <c r="X68" s="1"/>
-      <c r="Y68" s="1"/>
-      <c r="Z68" s="1"/>
-      <c r="AA68" s="1"/>
-      <c r="AB68" s="1"/>
-      <c r="AC68" s="1"/>
-      <c r="AD68" s="1"/>
-      <c r="AE68" s="1"/>
-      <c r="AF68" s="1"/>
-      <c r="AG68" s="1"/>
-      <c r="AH68" s="1"/>
-      <c r="AI68" s="1"/>
-      <c r="AJ68" s="1"/>
-      <c r="AK68" s="1"/>
-      <c r="AL68" s="1"/>
-      <c r="AM68" s="1"/>
-      <c r="AN68" s="1"/>
-      <c r="AO68" s="1"/>
-      <c r="AP68" s="1"/>
-      <c r="AQ68" s="1"/>
-      <c r="AR68" s="1"/>
-      <c r="AS68" s="1"/>
-      <c r="AT68" s="1"/>
-      <c r="AU68" s="1"/>
-      <c r="AV68" s="1"/>
-      <c r="AW68" s="1"/>
-      <c r="AX68" s="1"/>
-      <c r="AY68" s="1"/>
-      <c r="AZ68" s="1"/>
-      <c r="BA68" s="1"/>
-      <c r="BB68" s="1"/>
-      <c r="BC68" s="1"/>
-      <c r="BD68" s="1"/>
-      <c r="BE68" s="1"/>
-      <c r="BF68" s="1"/>
-      <c r="BG68" s="1"/>
-      <c r="BH68" s="1"/>
-      <c r="BI68" s="1"/>
-      <c r="BJ68" s="1"/>
-      <c r="BK68" s="1"/>
-      <c r="BL68" s="1"/>
-      <c r="BM68" s="1"/>
-      <c r="BN68" s="1"/>
-      <c r="BO68" s="1"/>
-      <c r="BP68" s="1"/>
-      <c r="BQ68" s="1"/>
-      <c r="BR68" s="1"/>
-      <c r="BS68" s="1"/>
-      <c r="BT68" s="1"/>
-      <c r="BU68" s="1"/>
-      <c r="BV68" s="1"/>
-      <c r="BW68" s="1"/>
-      <c r="BX68" s="1"/>
-      <c r="BY68" s="1"/>
-      <c r="BZ68" s="1"/>
-      <c r="CA68" s="1"/>
-      <c r="CB68" s="1"/>
-      <c r="CC68" s="1"/>
-      <c r="CD68" s="1"/>
-      <c r="CE68" s="1"/>
-      <c r="CF68" s="1"/>
-      <c r="CG68" s="1"/>
-      <c r="CH68" s="1"/>
-      <c r="CI68" s="1"/>
-      <c r="CJ68" s="1"/>
-      <c r="CK68" s="1"/>
-      <c r="CL68" s="1"/>
-      <c r="CM68" s="1"/>
-      <c r="CN68" s="1"/>
-      <c r="CO68" s="1"/>
-      <c r="CP68" s="1"/>
-      <c r="CQ68" s="1"/>
-      <c r="CR68" s="1"/>
-      <c r="CS68" s="1"/>
-      <c r="CT68" s="1"/>
-      <c r="CU68" s="1"/>
-      <c r="CV68" s="1"/>
-      <c r="CW68" s="1"/>
-      <c r="CX68" s="1"/>
-      <c r="CY68" s="1"/>
-      <c r="CZ68" s="1"/>
-      <c r="DA68" s="1"/>
-      <c r="DB68" s="1"/>
-      <c r="DC68" s="1"/>
-      <c r="DD68" s="1"/>
-      <c r="DE68" s="1"/>
-      <c r="DF68" s="1"/>
-      <c r="DG68" s="1"/>
-      <c r="DH68" s="1"/>
-      <c r="DI68" s="1"/>
-      <c r="DJ68" s="1"/>
-      <c r="DK68" s="1"/>
-      <c r="DL68" s="1"/>
-      <c r="DM68" s="1"/>
-      <c r="DN68" s="1"/>
-      <c r="DO68" s="1"/>
-      <c r="DP68" s="1"/>
-      <c r="DQ68" s="1"/>
-      <c r="DR68" s="1"/>
-      <c r="DS68" s="1"/>
-      <c r="DT68" s="1"/>
-      <c r="DU68" s="1"/>
-      <c r="DV68" s="1"/>
-      <c r="DW68" s="1"/>
-      <c r="DX68" s="1"/>
-      <c r="DY68" s="1"/>
-      <c r="DZ68" s="1"/>
-      <c r="EA68" s="1"/>
-      <c r="EB68" s="1"/>
-      <c r="EC68" s="1"/>
-      <c r="ED68" s="1"/>
-      <c r="EE68" s="1"/>
-      <c r="EF68" s="1"/>
-      <c r="EG68" s="1"/>
-      <c r="EH68" s="1"/>
-      <c r="EI68" s="1"/>
-      <c r="EJ68" s="1"/>
-      <c r="EK68" s="1"/>
-      <c r="EL68" s="1"/>
-      <c r="EM68" s="1"/>
-      <c r="EN68" s="1"/>
-      <c r="EO68" s="1"/>
-      <c r="EP68" s="1"/>
-      <c r="EQ68" s="1"/>
-      <c r="ER68" s="1"/>
-      <c r="ES68" s="1"/>
-      <c r="ET68" s="1"/>
-      <c r="EU68" s="1"/>
-      <c r="EV68" s="1"/>
-      <c r="EW68" s="1"/>
-      <c r="EX68" s="1"/>
-      <c r="EY68" s="1"/>
-      <c r="EZ68" s="1"/>
-      <c r="FA68" s="1"/>
-      <c r="FB68" s="1"/>
-      <c r="FC68" s="1"/>
-      <c r="FD68" s="1"/>
-      <c r="FE68" s="1"/>
-      <c r="FF68" s="1"/>
-      <c r="FG68" s="1"/>
-      <c r="FH68" s="1"/>
-      <c r="FI68" s="1"/>
-      <c r="FJ68" s="1"/>
-      <c r="FK68" s="1"/>
-      <c r="FL68" s="1"/>
-      <c r="FM68" s="1"/>
-      <c r="FN68" s="1"/>
-      <c r="FO68" s="1"/>
-      <c r="FP68" s="1"/>
-      <c r="FQ68" s="1"/>
-      <c r="FR68" s="1"/>
-      <c r="FS68" s="1"/>
-      <c r="FT68" s="1"/>
-      <c r="FU68" s="1"/>
-      <c r="FV68" s="1"/>
-      <c r="FW68" s="1"/>
-      <c r="FX68" s="1"/>
-      <c r="FY68" s="1"/>
-      <c r="FZ68" s="1"/>
-      <c r="GA68" s="1"/>
-      <c r="GB68" s="1"/>
-      <c r="GC68" s="1"/>
-      <c r="GD68" s="1"/>
-      <c r="GE68" s="1"/>
-      <c r="GF68" s="1"/>
-      <c r="GG68" s="1"/>
-      <c r="GH68" s="1"/>
-      <c r="GI68" s="1"/>
-      <c r="GJ68" s="1"/>
-      <c r="GK68" s="1"/>
-      <c r="GL68" s="1"/>
-      <c r="GM68" s="1"/>
-      <c r="GN68" s="1"/>
-      <c r="GO68" s="1"/>
-      <c r="GP68" s="1"/>
-      <c r="GQ68" s="1"/>
-      <c r="GR68" s="1"/>
-      <c r="GS68" s="1"/>
-      <c r="GT68" s="1"/>
-      <c r="GU68" s="1"/>
-      <c r="GV68" s="1"/>
-      <c r="GW68" s="1"/>
-      <c r="GX68" s="1"/>
-      <c r="GY68" s="1"/>
-      <c r="GZ68" s="1"/>
-      <c r="HA68" s="1"/>
-      <c r="HB68" s="1"/>
-      <c r="HC68" s="1"/>
-      <c r="HD68" s="1"/>
-      <c r="HE68" s="1"/>
-      <c r="HF68" s="1"/>
-      <c r="HG68" s="1"/>
-      <c r="HH68" s="1"/>
-      <c r="HI68" s="1"/>
-      <c r="HJ68" s="1"/>
-      <c r="HK68" s="1"/>
-      <c r="HL68" s="1"/>
-      <c r="HM68" s="1"/>
-      <c r="HN68" s="1"/>
-      <c r="HO68" s="1"/>
-      <c r="HP68" s="1"/>
-      <c r="HQ68" s="1"/>
-      <c r="HR68" s="1"/>
-      <c r="HS68" s="1"/>
-      <c r="HT68" s="1"/>
-      <c r="HU68" s="1"/>
-      <c r="HV68" s="1"/>
-      <c r="HW68" s="1"/>
-      <c r="HX68" s="1"/>
-      <c r="HY68" s="1"/>
-      <c r="HZ68" s="1"/>
-      <c r="IA68" s="1"/>
-      <c r="IB68" s="1"/>
-      <c r="IC68" s="1"/>
-      <c r="ID68" s="1"/>
-      <c r="IE68" s="1"/>
-      <c r="IF68" s="1"/>
-      <c r="IG68" s="1"/>
-      <c r="IH68" s="1"/>
-      <c r="II68" s="1"/>
-      <c r="IJ68" s="1"/>
-      <c r="IK68" s="1"/>
-      <c r="IL68" s="1"/>
-      <c r="IM68" s="1"/>
-      <c r="IN68" s="1"/>
-      <c r="IO68" s="1"/>
-      <c r="IP68" s="1"/>
-      <c r="IQ68" s="1"/>
-      <c r="IR68" s="1"/>
-      <c r="IS68" s="1"/>
-      <c r="IT68" s="1"/>
-      <c r="IU68" s="1"/>
-      <c r="IV68" s="1"/>
-      <c r="IW68" s="1"/>
-      <c r="IX68" s="1"/>
-      <c r="IY68" s="1"/>
-      <c r="IZ68" s="1"/>
-      <c r="JA68" s="1"/>
-      <c r="JB68" s="1"/>
-      <c r="JC68" s="1"/>
-      <c r="JD68" s="1"/>
-      <c r="JE68" s="1"/>
-      <c r="JF68" s="1"/>
-      <c r="JG68" s="1"/>
-      <c r="JH68" s="1"/>
-      <c r="JI68" s="1"/>
-      <c r="JJ68" s="1"/>
-      <c r="JK68" s="1"/>
-      <c r="JL68" s="1"/>
-      <c r="JM68" s="1"/>
-      <c r="JN68" s="1"/>
-      <c r="JO68" s="1"/>
-      <c r="JP68" s="1"/>
-      <c r="JQ68" s="1"/>
-      <c r="JR68" s="1"/>
-      <c r="JS68" s="1"/>
-      <c r="JT68" s="1"/>
-      <c r="JU68" s="1"/>
-      <c r="JV68" s="1"/>
-      <c r="JW68" s="1"/>
-      <c r="JX68" s="1"/>
-      <c r="JY68" s="1"/>
-      <c r="JZ68" s="1"/>
-      <c r="KA68" s="1"/>
-      <c r="KB68" s="1"/>
-      <c r="KC68" s="1"/>
-      <c r="KD68" s="1"/>
-      <c r="KE68" s="1"/>
-      <c r="KF68" s="1"/>
-    </row>
-    <row r="69" ht="15.5" spans="1:292">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-      <c r="K69" s="1"/>
-      <c r="L69" s="1"/>
-      <c r="M69" s="1"/>
-      <c r="N69" s="1"/>
-      <c r="O69" s="1"/>
-      <c r="P69" s="1"/>
-      <c r="Q69" s="1"/>
-      <c r="R69" s="1"/>
-      <c r="S69" s="1"/>
-      <c r="T69" s="1"/>
-      <c r="U69" s="1"/>
-      <c r="V69" s="1"/>
-      <c r="W69" s="1"/>
-      <c r="X69" s="1"/>
-      <c r="Y69" s="1"/>
-      <c r="Z69" s="1"/>
-      <c r="AA69" s="1"/>
-      <c r="AB69" s="1"/>
-      <c r="AC69" s="1"/>
-      <c r="AD69" s="1"/>
-      <c r="AE69" s="1"/>
-      <c r="AF69" s="1"/>
-      <c r="AG69" s="1"/>
-      <c r="AH69" s="1"/>
-      <c r="AI69" s="1"/>
-      <c r="AJ69" s="1"/>
-      <c r="AK69" s="1"/>
-      <c r="AL69" s="1"/>
-      <c r="AM69" s="1"/>
-      <c r="AN69" s="1"/>
-      <c r="AO69" s="1"/>
-      <c r="AP69" s="1"/>
-      <c r="AQ69" s="1"/>
-      <c r="AR69" s="1"/>
-      <c r="AS69" s="1"/>
-      <c r="AT69" s="1"/>
-      <c r="AU69" s="1"/>
-      <c r="AV69" s="1"/>
-      <c r="AW69" s="1"/>
-      <c r="AX69" s="1"/>
-      <c r="AY69" s="1"/>
-      <c r="AZ69" s="1"/>
-      <c r="BA69" s="1"/>
-      <c r="BB69" s="1"/>
-      <c r="BC69" s="1"/>
-      <c r="BD69" s="1"/>
-      <c r="BE69" s="1"/>
-      <c r="BF69" s="1"/>
-      <c r="BG69" s="1"/>
-      <c r="BH69" s="1"/>
-      <c r="BI69" s="1"/>
-      <c r="BJ69" s="1"/>
-      <c r="BK69" s="1"/>
-      <c r="BL69" s="1"/>
-      <c r="BM69" s="1"/>
-      <c r="BN69" s="1"/>
-      <c r="BO69" s="1"/>
-      <c r="BP69" s="1"/>
-      <c r="BQ69" s="1"/>
-      <c r="BR69" s="1"/>
-      <c r="BS69" s="1"/>
-      <c r="BT69" s="1"/>
-      <c r="BU69" s="1"/>
-      <c r="BV69" s="1"/>
-      <c r="BW69" s="1"/>
-      <c r="BX69" s="1"/>
-      <c r="BY69" s="1"/>
-      <c r="BZ69" s="1"/>
-      <c r="CA69" s="1"/>
-      <c r="CB69" s="1"/>
-      <c r="CC69" s="1"/>
-      <c r="CD69" s="1"/>
-      <c r="CE69" s="1"/>
-      <c r="CF69" s="1"/>
-      <c r="CG69" s="1"/>
-      <c r="CH69" s="1"/>
-      <c r="CI69" s="1"/>
-      <c r="CJ69" s="1"/>
-      <c r="CK69" s="1"/>
-      <c r="CL69" s="1"/>
-      <c r="CM69" s="1"/>
-      <c r="CN69" s="1"/>
-      <c r="CO69" s="1"/>
-      <c r="CP69" s="1"/>
-      <c r="CQ69" s="1"/>
-      <c r="CR69" s="1"/>
-      <c r="CS69" s="1"/>
-      <c r="CT69" s="1"/>
-      <c r="CU69" s="1"/>
-      <c r="CV69" s="1"/>
-      <c r="CW69" s="1"/>
-      <c r="CX69" s="1"/>
-      <c r="CY69" s="1"/>
-      <c r="CZ69" s="1"/>
-      <c r="DA69" s="1"/>
-      <c r="DB69" s="1"/>
-      <c r="DC69" s="1"/>
-      <c r="DD69" s="1"/>
-      <c r="DE69" s="1"/>
-      <c r="DF69" s="1"/>
-      <c r="DG69" s="1"/>
-      <c r="DH69" s="1"/>
-      <c r="DI69" s="1"/>
-      <c r="DJ69" s="1"/>
-      <c r="DK69" s="1"/>
-      <c r="DL69" s="1"/>
-      <c r="DM69" s="1"/>
-      <c r="DN69" s="1"/>
-      <c r="DO69" s="1"/>
-      <c r="DP69" s="1"/>
-      <c r="DQ69" s="1"/>
-      <c r="DR69" s="1"/>
-      <c r="DS69" s="1"/>
-      <c r="DT69" s="1"/>
-      <c r="DU69" s="1"/>
-      <c r="DV69" s="1"/>
-      <c r="DW69" s="1"/>
-      <c r="DX69" s="1"/>
-      <c r="DY69" s="1"/>
-      <c r="DZ69" s="1"/>
-      <c r="EA69" s="1"/>
-      <c r="EB69" s="1"/>
-      <c r="EC69" s="1"/>
-      <c r="ED69" s="1"/>
-      <c r="EE69" s="1"/>
-      <c r="EF69" s="1"/>
-      <c r="EG69" s="1"/>
-      <c r="EH69" s="1"/>
-      <c r="EI69" s="1"/>
-      <c r="EJ69" s="1"/>
-      <c r="EK69" s="1"/>
-      <c r="EL69" s="1"/>
-      <c r="EM69" s="1"/>
-      <c r="EN69" s="1"/>
-      <c r="EO69" s="1"/>
-      <c r="EP69" s="1"/>
-      <c r="EQ69" s="1"/>
-      <c r="ER69" s="1"/>
-      <c r="ES69" s="1"/>
-      <c r="ET69" s="1"/>
-      <c r="EU69" s="1"/>
-      <c r="EV69" s="1"/>
-      <c r="EW69" s="1"/>
-      <c r="EX69" s="1"/>
-      <c r="EY69" s="1"/>
-      <c r="EZ69" s="1"/>
-      <c r="FA69" s="1"/>
-      <c r="FB69" s="1"/>
-      <c r="FC69" s="1"/>
-      <c r="FD69" s="1"/>
-      <c r="FE69" s="1"/>
-      <c r="FF69" s="1"/>
-      <c r="FG69" s="1"/>
-      <c r="FH69" s="1"/>
-      <c r="FI69" s="1"/>
-      <c r="FJ69" s="1"/>
-      <c r="FK69" s="1"/>
-      <c r="FL69" s="1"/>
-      <c r="FM69" s="1"/>
-      <c r="FN69" s="1"/>
-      <c r="FO69" s="1"/>
-      <c r="FP69" s="1"/>
-      <c r="FQ69" s="1"/>
-      <c r="FR69" s="1"/>
-      <c r="FS69" s="1"/>
-      <c r="FT69" s="1"/>
-      <c r="FU69" s="1"/>
-      <c r="FV69" s="1"/>
-      <c r="FW69" s="1"/>
-      <c r="FX69" s="1"/>
-      <c r="FY69" s="1"/>
-      <c r="FZ69" s="1"/>
-      <c r="GA69" s="1"/>
-      <c r="GB69" s="1"/>
-      <c r="GC69" s="1"/>
-      <c r="GD69" s="1"/>
-      <c r="GE69" s="1"/>
-      <c r="GF69" s="1"/>
-      <c r="GG69" s="1"/>
-      <c r="GH69" s="1"/>
-      <c r="GI69" s="1"/>
-      <c r="GJ69" s="1"/>
-      <c r="GK69" s="1"/>
-      <c r="GL69" s="1"/>
-      <c r="GM69" s="1"/>
-      <c r="GN69" s="1"/>
-      <c r="GO69" s="1"/>
-      <c r="GP69" s="1"/>
-      <c r="GQ69" s="1"/>
-      <c r="GR69" s="1"/>
-      <c r="GS69" s="1"/>
-      <c r="GT69" s="1"/>
-      <c r="GU69" s="1"/>
-      <c r="GV69" s="1"/>
-      <c r="GW69" s="1"/>
-      <c r="GX69" s="1"/>
-      <c r="GY69" s="1"/>
-      <c r="GZ69" s="1"/>
-      <c r="HA69" s="1"/>
-      <c r="HB69" s="1"/>
-      <c r="HC69" s="1"/>
-      <c r="HD69" s="1"/>
-      <c r="HE69" s="1"/>
-      <c r="HF69" s="1"/>
-      <c r="HG69" s="1"/>
-      <c r="HH69" s="1"/>
-      <c r="HI69" s="1"/>
-      <c r="HJ69" s="1"/>
-      <c r="HK69" s="1"/>
-      <c r="HL69" s="1"/>
-      <c r="HM69" s="1"/>
-      <c r="HN69" s="1"/>
-      <c r="HO69" s="1"/>
-      <c r="HP69" s="1"/>
-      <c r="HQ69" s="1"/>
-      <c r="HR69" s="1"/>
-      <c r="HS69" s="1"/>
-      <c r="HT69" s="1"/>
-      <c r="HU69" s="1"/>
-      <c r="HV69" s="1"/>
-      <c r="HW69" s="1"/>
-      <c r="HX69" s="1"/>
-      <c r="HY69" s="1"/>
-      <c r="HZ69" s="1"/>
-      <c r="IA69" s="1"/>
-      <c r="IB69" s="1"/>
-      <c r="IC69" s="1"/>
-      <c r="ID69" s="1"/>
-      <c r="IE69" s="1"/>
-      <c r="IF69" s="1"/>
-      <c r="IG69" s="1"/>
-      <c r="IH69" s="1"/>
-      <c r="II69" s="1"/>
-      <c r="IJ69" s="1"/>
-      <c r="IK69" s="1"/>
-      <c r="IL69" s="1"/>
-      <c r="IM69" s="1"/>
-      <c r="IN69" s="1"/>
-      <c r="IO69" s="1"/>
-      <c r="IP69" s="1"/>
-      <c r="IQ69" s="1"/>
-      <c r="IR69" s="1"/>
-      <c r="IS69" s="1"/>
-      <c r="IT69" s="1"/>
-      <c r="IU69" s="1"/>
-      <c r="IV69" s="1"/>
-      <c r="IW69" s="1"/>
-      <c r="IX69" s="1"/>
-      <c r="IY69" s="1"/>
-      <c r="IZ69" s="1"/>
-      <c r="JA69" s="1"/>
-      <c r="JB69" s="1"/>
-      <c r="JC69" s="1"/>
-      <c r="JD69" s="1"/>
-      <c r="JE69" s="1"/>
-      <c r="JF69" s="1"/>
-      <c r="JG69" s="1"/>
-      <c r="JH69" s="1"/>
-      <c r="JI69" s="1"/>
-      <c r="JJ69" s="1"/>
-      <c r="JK69" s="1"/>
-      <c r="JL69" s="1"/>
-      <c r="JM69" s="1"/>
-      <c r="JN69" s="1"/>
-      <c r="JO69" s="1"/>
-      <c r="JP69" s="1"/>
-      <c r="JQ69" s="1"/>
-      <c r="JR69" s="1"/>
-      <c r="JS69" s="1"/>
-      <c r="JT69" s="1"/>
-      <c r="JU69" s="1"/>
-      <c r="JV69" s="1"/>
-      <c r="JW69" s="1"/>
-      <c r="JX69" s="1"/>
-      <c r="JY69" s="1"/>
-      <c r="JZ69" s="1"/>
-      <c r="KA69" s="1"/>
-      <c r="KB69" s="1"/>
-      <c r="KC69" s="1"/>
-      <c r="KD69" s="1"/>
-      <c r="KE69" s="1"/>
-      <c r="KF69" s="1"/>
-    </row>
-    <row r="70" ht="15.5" spans="1:292">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
-      <c r="L70" s="1"/>
-      <c r="M70" s="1"/>
-      <c r="N70" s="1"/>
-      <c r="O70" s="1"/>
-      <c r="P70" s="1"/>
-      <c r="Q70" s="1"/>
-      <c r="R70" s="1"/>
-      <c r="S70" s="1"/>
-      <c r="T70" s="1"/>
-      <c r="U70" s="1"/>
-      <c r="V70" s="1"/>
-      <c r="W70" s="1"/>
-      <c r="X70" s="1"/>
-      <c r="Y70" s="1"/>
-      <c r="Z70" s="1"/>
-      <c r="AA70" s="1"/>
-      <c r="AB70" s="1"/>
-      <c r="AC70" s="1"/>
-      <c r="AD70" s="1"/>
-      <c r="AE70" s="1"/>
-      <c r="AF70" s="1"/>
-      <c r="AG70" s="1"/>
-      <c r="AH70" s="1"/>
-      <c r="AI70" s="1"/>
-      <c r="AJ70" s="1"/>
-      <c r="AK70" s="1"/>
-      <c r="AL70" s="1"/>
-      <c r="AM70" s="1"/>
-      <c r="AN70" s="1"/>
-      <c r="AO70" s="1"/>
-      <c r="AP70" s="1"/>
-      <c r="AQ70" s="1"/>
-      <c r="AR70" s="1"/>
-      <c r="AS70" s="1"/>
-      <c r="AT70" s="1"/>
-      <c r="AU70" s="1"/>
-      <c r="AV70" s="1"/>
-      <c r="AW70" s="1"/>
-      <c r="AX70" s="1"/>
-      <c r="AY70" s="1"/>
-      <c r="AZ70" s="1"/>
-      <c r="BA70" s="1"/>
-      <c r="BB70" s="1"/>
-      <c r="BC70" s="1"/>
-      <c r="BD70" s="1"/>
-      <c r="BE70" s="1"/>
-      <c r="BF70" s="1"/>
-      <c r="BG70" s="1"/>
-      <c r="BH70" s="1"/>
-      <c r="BI70" s="1"/>
-      <c r="BJ70" s="1"/>
-      <c r="BK70" s="1"/>
-      <c r="BL70" s="1"/>
-      <c r="BM70" s="1"/>
-      <c r="BN70" s="1"/>
-      <c r="BO70" s="1"/>
-      <c r="BP70" s="1"/>
-      <c r="BQ70" s="1"/>
-      <c r="BR70" s="1"/>
-      <c r="BS70" s="1"/>
-      <c r="BT70" s="1"/>
-      <c r="BU70" s="1"/>
-      <c r="BV70" s="1"/>
-      <c r="BW70" s="1"/>
-      <c r="BX70" s="1"/>
-      <c r="BY70" s="1"/>
-      <c r="BZ70" s="1"/>
-      <c r="CA70" s="1"/>
-      <c r="CB70" s="1"/>
-      <c r="CC70" s="1"/>
-      <c r="CD70" s="1"/>
-      <c r="CE70" s="1"/>
-      <c r="CF70" s="1"/>
-      <c r="CG70" s="1"/>
-      <c r="CH70" s="1"/>
-      <c r="CI70" s="1"/>
-      <c r="CJ70" s="1"/>
-      <c r="CK70" s="1"/>
-      <c r="CL70" s="1"/>
-      <c r="CM70" s="1"/>
-      <c r="CN70" s="1"/>
-      <c r="CO70" s="1"/>
-      <c r="CP70" s="1"/>
-      <c r="CQ70" s="1"/>
-      <c r="CR70" s="1"/>
-      <c r="CS70" s="1"/>
-      <c r="CT70" s="1"/>
-      <c r="CU70" s="1"/>
-      <c r="CV70" s="1"/>
-      <c r="CW70" s="1"/>
-      <c r="CX70" s="1"/>
-      <c r="CY70" s="1"/>
-      <c r="CZ70" s="1"/>
-      <c r="DA70" s="1"/>
-      <c r="DB70" s="1"/>
-      <c r="DC70" s="1"/>
-      <c r="DD70" s="1"/>
-      <c r="DE70" s="1"/>
-      <c r="DF70" s="1"/>
-      <c r="DG70" s="1"/>
-      <c r="DH70" s="1"/>
-      <c r="DI70" s="1"/>
-      <c r="DJ70" s="1"/>
-      <c r="DK70" s="1"/>
-      <c r="DL70" s="1"/>
-      <c r="DM70" s="1"/>
-      <c r="DN70" s="1"/>
-      <c r="DO70" s="1"/>
-      <c r="DP70" s="1"/>
-      <c r="DQ70" s="1"/>
-      <c r="DR70" s="1"/>
-      <c r="DS70" s="1"/>
-      <c r="DT70" s="1"/>
-      <c r="DU70" s="1"/>
-      <c r="DV70" s="1"/>
-      <c r="DW70" s="1"/>
-      <c r="DX70" s="1"/>
-      <c r="DY70" s="1"/>
-      <c r="DZ70" s="1"/>
-      <c r="EA70" s="1"/>
-      <c r="EB70" s="1"/>
-      <c r="EC70" s="1"/>
-      <c r="ED70" s="1"/>
-      <c r="EE70" s="1"/>
-      <c r="EF70" s="1"/>
-      <c r="EG70" s="1"/>
-      <c r="EH70" s="1"/>
-      <c r="EI70" s="1"/>
-      <c r="EJ70" s="1"/>
-      <c r="EK70" s="1"/>
-      <c r="EL70" s="1"/>
-      <c r="EM70" s="1"/>
-      <c r="EN70" s="1"/>
-      <c r="EO70" s="1"/>
-      <c r="EP70" s="1"/>
-      <c r="EQ70" s="1"/>
-      <c r="ER70" s="1"/>
-      <c r="ES70" s="1"/>
-      <c r="ET70" s="1"/>
-      <c r="EU70" s="1"/>
-      <c r="EV70" s="1"/>
-      <c r="EW70" s="1"/>
-      <c r="EX70" s="1"/>
-      <c r="EY70" s="1"/>
-      <c r="EZ70" s="1"/>
-      <c r="FA70" s="1"/>
-      <c r="FB70" s="1"/>
-      <c r="FC70" s="1"/>
-      <c r="FD70" s="1"/>
-      <c r="FE70" s="1"/>
-      <c r="FF70" s="1"/>
-      <c r="FG70" s="1"/>
-      <c r="FH70" s="1"/>
-      <c r="FI70" s="1"/>
-      <c r="FJ70" s="1"/>
-      <c r="FK70" s="1"/>
-      <c r="FL70" s="1"/>
-      <c r="FM70" s="1"/>
-      <c r="FN70" s="1"/>
-      <c r="FO70" s="1"/>
-      <c r="FP70" s="1"/>
-      <c r="FQ70" s="1"/>
-      <c r="FR70" s="1"/>
-      <c r="FS70" s="1"/>
-      <c r="FT70" s="1"/>
-      <c r="FU70" s="1"/>
-      <c r="FV70" s="1"/>
-      <c r="FW70" s="1"/>
-      <c r="FX70" s="1"/>
-      <c r="FY70" s="1"/>
-      <c r="FZ70" s="1"/>
-      <c r="GA70" s="1"/>
-      <c r="GB70" s="1"/>
-      <c r="GC70" s="1"/>
-      <c r="GD70" s="1"/>
-      <c r="GE70" s="1"/>
-      <c r="GF70" s="1"/>
-      <c r="GG70" s="1"/>
-      <c r="GH70" s="1"/>
-      <c r="GI70" s="1"/>
-      <c r="GJ70" s="1"/>
-      <c r="GK70" s="1"/>
-      <c r="GL70" s="1"/>
-      <c r="GM70" s="1"/>
-      <c r="GN70" s="1"/>
-      <c r="GO70" s="1"/>
-      <c r="GP70" s="1"/>
-      <c r="GQ70" s="1"/>
-      <c r="GR70" s="1"/>
-      <c r="GS70" s="1"/>
-      <c r="GT70" s="1"/>
-      <c r="GU70" s="1"/>
-      <c r="GV70" s="1"/>
-      <c r="GW70" s="1"/>
-      <c r="GX70" s="1"/>
-      <c r="GY70" s="1"/>
-      <c r="GZ70" s="1"/>
-      <c r="HA70" s="1"/>
-      <c r="HB70" s="1"/>
-      <c r="HC70" s="1"/>
-      <c r="HD70" s="1"/>
-      <c r="HE70" s="1"/>
-      <c r="HF70" s="1"/>
-      <c r="HG70" s="1"/>
-      <c r="HH70" s="1"/>
-      <c r="HI70" s="1"/>
-      <c r="HJ70" s="1"/>
-      <c r="HK70" s="1"/>
-      <c r="HL70" s="1"/>
-      <c r="HM70" s="1"/>
-      <c r="HN70" s="1"/>
-      <c r="HO70" s="1"/>
-      <c r="HP70" s="1"/>
-      <c r="HQ70" s="1"/>
-      <c r="HR70" s="1"/>
-      <c r="HS70" s="1"/>
-      <c r="HT70" s="1"/>
-      <c r="HU70" s="1"/>
-      <c r="HV70" s="1"/>
-      <c r="HW70" s="1"/>
-      <c r="HX70" s="1"/>
-      <c r="HY70" s="1"/>
-      <c r="HZ70" s="1"/>
-      <c r="IA70" s="1"/>
-      <c r="IB70" s="1"/>
-      <c r="IC70" s="1"/>
-      <c r="ID70" s="1"/>
-      <c r="IE70" s="1"/>
-      <c r="IF70" s="1"/>
-      <c r="IG70" s="1"/>
-      <c r="IH70" s="1"/>
-      <c r="II70" s="1"/>
-      <c r="IJ70" s="1"/>
-      <c r="IK70" s="1"/>
-      <c r="IL70" s="1"/>
-      <c r="IM70" s="1"/>
-      <c r="IN70" s="1"/>
-      <c r="IO70" s="1"/>
-      <c r="IP70" s="1"/>
-      <c r="IQ70" s="1"/>
-      <c r="IR70" s="1"/>
-      <c r="IS70" s="1"/>
-      <c r="IT70" s="1"/>
-      <c r="IU70" s="1"/>
-      <c r="IV70" s="1"/>
-      <c r="IW70" s="1"/>
-      <c r="IX70" s="1"/>
-      <c r="IY70" s="1"/>
-      <c r="IZ70" s="1"/>
-      <c r="JA70" s="1"/>
-      <c r="JB70" s="1"/>
-      <c r="JC70" s="1"/>
-      <c r="JD70" s="1"/>
-      <c r="JE70" s="1"/>
-      <c r="JF70" s="1"/>
-      <c r="JG70" s="1"/>
-      <c r="JH70" s="1"/>
-      <c r="JI70" s="1"/>
-      <c r="JJ70" s="1"/>
-      <c r="JK70" s="1"/>
-      <c r="JL70" s="1"/>
-      <c r="JM70" s="1"/>
-      <c r="JN70" s="1"/>
-      <c r="JO70" s="1"/>
-      <c r="JP70" s="1"/>
-      <c r="JQ70" s="1"/>
-      <c r="JR70" s="1"/>
-      <c r="JS70" s="1"/>
-      <c r="JT70" s="1"/>
-      <c r="JU70" s="1"/>
-      <c r="JV70" s="1"/>
-      <c r="JW70" s="1"/>
-      <c r="JX70" s="1"/>
-      <c r="JY70" s="1"/>
-      <c r="JZ70" s="1"/>
-      <c r="KA70" s="1"/>
-      <c r="KB70" s="1"/>
-      <c r="KC70" s="1"/>
-      <c r="KD70" s="1"/>
-      <c r="KE70" s="1"/>
-      <c r="KF70" s="1"/>
-    </row>
-    <row r="71" ht="15.5" spans="1:292">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
-      <c r="K71" s="1"/>
-      <c r="L71" s="1"/>
-      <c r="M71" s="1"/>
-      <c r="N71" s="1"/>
-      <c r="O71" s="1"/>
-      <c r="P71" s="1"/>
-      <c r="Q71" s="1"/>
-      <c r="R71" s="1"/>
-      <c r="S71" s="1"/>
-      <c r="T71" s="1"/>
-      <c r="U71" s="1"/>
-      <c r="V71" s="1"/>
-      <c r="W71" s="1"/>
-      <c r="X71" s="1"/>
-      <c r="Y71" s="1"/>
-      <c r="Z71" s="1"/>
-      <c r="AA71" s="1"/>
-      <c r="AB71" s="1"/>
-      <c r="AC71" s="1"/>
-      <c r="AD71" s="1"/>
-      <c r="AE71" s="1"/>
-      <c r="AF71" s="1"/>
-      <c r="AG71" s="1"/>
-      <c r="AH71" s="1"/>
-      <c r="AI71" s="1"/>
-      <c r="AJ71" s="1"/>
-      <c r="AK71" s="1"/>
-      <c r="AL71" s="1"/>
-      <c r="AM71" s="1"/>
-      <c r="AN71" s="1"/>
-      <c r="AO71" s="1"/>
-      <c r="AP71" s="1"/>
-      <c r="AQ71" s="1"/>
-      <c r="AR71" s="1"/>
-      <c r="AS71" s="1"/>
-      <c r="AT71" s="1"/>
-      <c r="AU71" s="1"/>
-      <c r="AV71" s="1"/>
-      <c r="AW71" s="1"/>
-      <c r="AX71" s="1"/>
-      <c r="AY71" s="1"/>
-      <c r="AZ71" s="1"/>
-      <c r="BA71" s="1"/>
-      <c r="BB71" s="1"/>
-      <c r="BC71" s="1"/>
-      <c r="BD71" s="1"/>
-      <c r="BE71" s="1"/>
-      <c r="BF71" s="1"/>
-      <c r="BG71" s="1"/>
-      <c r="BH71" s="1"/>
-      <c r="BI71" s="1"/>
-      <c r="BJ71" s="1"/>
-      <c r="BK71" s="1"/>
-      <c r="BL71" s="1"/>
-      <c r="BM71" s="1"/>
-      <c r="BN71" s="1"/>
-      <c r="BO71" s="1"/>
-      <c r="BP71" s="1"/>
-      <c r="BQ71" s="1"/>
-      <c r="BR71" s="1"/>
-      <c r="BS71" s="1"/>
-      <c r="BT71" s="1"/>
-      <c r="BU71" s="1"/>
-      <c r="BV71" s="1"/>
-      <c r="BW71" s="1"/>
-      <c r="BX71" s="1"/>
-      <c r="BY71" s="1"/>
-      <c r="BZ71" s="1"/>
-      <c r="CA71" s="1"/>
-      <c r="CB71" s="1"/>
-      <c r="CC71" s="1"/>
-      <c r="CD71" s="1"/>
-      <c r="CE71" s="1"/>
-      <c r="CF71" s="1"/>
-      <c r="CG71" s="1"/>
-      <c r="CH71" s="1"/>
-      <c r="CI71" s="1"/>
-      <c r="CJ71" s="1"/>
-      <c r="CK71" s="1"/>
-      <c r="CL71" s="1"/>
-      <c r="CM71" s="1"/>
-      <c r="CN71" s="1"/>
-      <c r="CO71" s="1"/>
-      <c r="CP71" s="1"/>
-      <c r="CQ71" s="1"/>
-      <c r="CR71" s="1"/>
-      <c r="CS71" s="1"/>
-      <c r="CT71" s="1"/>
-      <c r="CU71" s="1"/>
-      <c r="CV71" s="1"/>
-      <c r="CW71" s="1"/>
-      <c r="CX71" s="1"/>
-      <c r="CY71" s="1"/>
-      <c r="CZ71" s="1"/>
-      <c r="DA71" s="1"/>
-      <c r="DB71" s="1"/>
-      <c r="DC71" s="1"/>
-      <c r="DD71" s="1"/>
-      <c r="DE71" s="1"/>
-      <c r="DF71" s="1"/>
-      <c r="DG71" s="1"/>
-      <c r="DH71" s="1"/>
-      <c r="DI71" s="1"/>
-      <c r="DJ71" s="1"/>
-      <c r="DK71" s="1"/>
-      <c r="DL71" s="1"/>
-      <c r="DM71" s="1"/>
-      <c r="DN71" s="1"/>
-      <c r="DO71" s="1"/>
-      <c r="DP71" s="1"/>
-      <c r="DQ71" s="1"/>
-      <c r="DR71" s="1"/>
-      <c r="DS71" s="1"/>
-      <c r="DT71" s="1"/>
-      <c r="DU71" s="1"/>
-      <c r="DV71" s="1"/>
-      <c r="DW71" s="1"/>
-      <c r="DX71" s="1"/>
-      <c r="DY71" s="1"/>
-      <c r="DZ71" s="1"/>
-      <c r="EA71" s="1"/>
-      <c r="EB71" s="1"/>
-      <c r="EC71" s="1"/>
-      <c r="ED71" s="1"/>
-      <c r="EE71" s="1"/>
-      <c r="EF71" s="1"/>
-      <c r="EG71" s="1"/>
-      <c r="EH71" s="1"/>
-      <c r="EI71" s="1"/>
-      <c r="EJ71" s="1"/>
-      <c r="EK71" s="1"/>
-      <c r="EL71" s="1"/>
-      <c r="EM71" s="1"/>
-      <c r="EN71" s="1"/>
-      <c r="EO71" s="1"/>
-      <c r="EP71" s="1"/>
-      <c r="EQ71" s="1"/>
-      <c r="ER71" s="1"/>
-      <c r="ES71" s="1"/>
-      <c r="ET71" s="1"/>
-      <c r="EU71" s="1"/>
-      <c r="EV71" s="1"/>
-      <c r="EW71" s="1"/>
-      <c r="EX71" s="1"/>
-      <c r="EY71" s="1"/>
-      <c r="EZ71" s="1"/>
-      <c r="FA71" s="1"/>
-      <c r="FB71" s="1"/>
-      <c r="FC71" s="1"/>
-      <c r="FD71" s="1"/>
-      <c r="FE71" s="1"/>
-      <c r="FF71" s="1"/>
-      <c r="FG71" s="1"/>
-      <c r="FH71" s="1"/>
-      <c r="FI71" s="1"/>
-      <c r="FJ71" s="1"/>
-      <c r="FK71" s="1"/>
-      <c r="FL71" s="1"/>
-      <c r="FM71" s="1"/>
-      <c r="FN71" s="1"/>
-      <c r="FO71" s="1"/>
-      <c r="FP71" s="1"/>
-      <c r="FQ71" s="1"/>
-      <c r="FR71" s="1"/>
-      <c r="FS71" s="1"/>
-      <c r="FT71" s="1"/>
-      <c r="FU71" s="1"/>
-      <c r="FV71" s="1"/>
-      <c r="FW71" s="1"/>
-      <c r="FX71" s="1"/>
-      <c r="FY71" s="1"/>
-      <c r="FZ71" s="1"/>
-      <c r="GA71" s="1"/>
-      <c r="GB71" s="1"/>
-      <c r="GC71" s="1"/>
-      <c r="GD71" s="1"/>
-      <c r="GE71" s="1"/>
-      <c r="GF71" s="1"/>
-      <c r="GG71" s="1"/>
-      <c r="GH71" s="1"/>
-      <c r="GI71" s="1"/>
-      <c r="GJ71" s="1"/>
-      <c r="GK71" s="1"/>
-      <c r="GL71" s="1"/>
-      <c r="GM71" s="1"/>
-      <c r="GN71" s="1"/>
-      <c r="GO71" s="1"/>
-      <c r="GP71" s="1"/>
-      <c r="GQ71" s="1"/>
-      <c r="GR71" s="1"/>
-      <c r="GS71" s="1"/>
-      <c r="GT71" s="1"/>
-      <c r="GU71" s="1"/>
-      <c r="GV71" s="1"/>
-      <c r="GW71" s="1"/>
-      <c r="GX71" s="1"/>
-      <c r="GY71" s="1"/>
-      <c r="GZ71" s="1"/>
-      <c r="HA71" s="1"/>
-      <c r="HB71" s="1"/>
-      <c r="HC71" s="1"/>
-      <c r="HD71" s="1"/>
-      <c r="HE71" s="1"/>
-      <c r="HF71" s="1"/>
-      <c r="HG71" s="1"/>
-      <c r="HH71" s="1"/>
-      <c r="HI71" s="1"/>
-      <c r="HJ71" s="1"/>
-      <c r="HK71" s="1"/>
-      <c r="HL71" s="1"/>
-      <c r="HM71" s="1"/>
-      <c r="HN71" s="1"/>
-      <c r="HO71" s="1"/>
-      <c r="HP71" s="1"/>
-      <c r="HQ71" s="1"/>
-      <c r="HR71" s="1"/>
-      <c r="HS71" s="1"/>
-      <c r="HT71" s="1"/>
-      <c r="HU71" s="1"/>
-      <c r="HV71" s="1"/>
-      <c r="HW71" s="1"/>
-      <c r="HX71" s="1"/>
-      <c r="HY71" s="1"/>
-      <c r="HZ71" s="1"/>
-      <c r="IA71" s="1"/>
-      <c r="IB71" s="1"/>
-      <c r="IC71" s="1"/>
-      <c r="ID71" s="1"/>
-      <c r="IE71" s="1"/>
-      <c r="IF71" s="1"/>
-      <c r="IG71" s="1"/>
-      <c r="IH71" s="1"/>
-      <c r="II71" s="1"/>
-      <c r="IJ71" s="1"/>
-      <c r="IK71" s="1"/>
-      <c r="IL71" s="1"/>
-      <c r="IM71" s="1"/>
-      <c r="IN71" s="1"/>
-      <c r="IO71" s="1"/>
-      <c r="IP71" s="1"/>
-      <c r="IQ71" s="1"/>
-      <c r="IR71" s="1"/>
-      <c r="IS71" s="1"/>
-      <c r="IT71" s="1"/>
-      <c r="IU71" s="1"/>
-      <c r="IV71" s="1"/>
-      <c r="IW71" s="1"/>
-      <c r="IX71" s="1"/>
-      <c r="IY71" s="1"/>
-      <c r="IZ71" s="1"/>
-      <c r="JA71" s="1"/>
-      <c r="JB71" s="1"/>
-      <c r="JC71" s="1"/>
-      <c r="JD71" s="1"/>
-      <c r="JE71" s="1"/>
-      <c r="JF71" s="1"/>
-      <c r="JG71" s="1"/>
-      <c r="JH71" s="1"/>
-      <c r="JI71" s="1"/>
-      <c r="JJ71" s="1"/>
-      <c r="JK71" s="1"/>
-      <c r="JL71" s="1"/>
-      <c r="JM71" s="1"/>
-      <c r="JN71" s="1"/>
-      <c r="JO71" s="1"/>
-      <c r="JP71" s="1"/>
-      <c r="JQ71" s="1"/>
-      <c r="JR71" s="1"/>
-      <c r="JS71" s="1"/>
-      <c r="JT71" s="1"/>
-      <c r="JU71" s="1"/>
-      <c r="JV71" s="1"/>
-      <c r="JW71" s="1"/>
-      <c r="JX71" s="1"/>
-      <c r="JY71" s="1"/>
-      <c r="JZ71" s="1"/>
-      <c r="KA71" s="1"/>
-      <c r="KB71" s="1"/>
-      <c r="KC71" s="1"/>
-      <c r="KD71" s="1"/>
-      <c r="KE71" s="1"/>
-      <c r="KF71" s="1"/>
-    </row>
-    <row r="72" ht="15.5" spans="1:12">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
-      <c r="L72" s="1"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:V56" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:V52" etc:filterBottomFollowUsedRange="0">
     <extLst>
       <etc:autoFilterAnalysis etc:version="v1" etc:showPane="0">
         <etc:analysisCharts>
@@ -25535,7 +24287,7 @@
     </extLst>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="G56" r:id="rId1" display="Cognitive, Affective, &amp; Behavioral Neuroscience" tooltip="https://link.springer.com/journal/13415"/>
+    <hyperlink ref="G52" r:id="rId1" display="Cognitive, Affective, &amp; Behavioral Neuroscience" tooltip="https://link.springer.com/journal/13415"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -25548,7 +24300,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A83" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
@@ -26068,10 +24820,10 @@
         <v>2023</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>155</v>
@@ -26362,13 +25114,13 @@
     </row>
     <row r="47" ht="15.5" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B47" s="1">
         <v>2021</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H47" s="1">
         <v>2021</v>
@@ -26376,13 +25128,13 @@
     </row>
     <row r="48" ht="15.5" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B48" s="1">
         <v>2021</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H48" s="1">
         <v>2021</v>
@@ -26390,13 +25142,13 @@
     </row>
     <row r="49" ht="15.5" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B49" s="1">
         <v>2021</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H49" s="1">
         <v>2021</v>
@@ -26404,13 +25156,13 @@
     </row>
     <row r="50" ht="15.5" hidden="1" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B50" s="1">
         <v>2023</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H50" s="1">
         <v>2023</v>
@@ -26418,13 +25170,13 @@
     </row>
     <row r="51" ht="15.5" hidden="1" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B51" s="1">
         <v>2024</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H51" s="1">
         <v>2024</v>
@@ -26432,13 +25184,13 @@
     </row>
     <row r="52" ht="15.5" hidden="1" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B52" s="1">
         <v>2024</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H52" s="1">
         <v>2024</v>
@@ -26551,4 +25303,765 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A52" sqref="D1:D52 A1:A52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="11.8333333333333" customWidth="1"/>
+    <col min="3" max="3" width="11.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.5" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="15.5" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="1">
+        <v>96</v>
+      </c>
+      <c r="C2" s="1">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="3" ht="15.5" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="1">
+        <v>96</v>
+      </c>
+      <c r="C3" s="1">
+        <v>28</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="4" ht="15.5" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="1">
+        <v>96</v>
+      </c>
+      <c r="C4" s="1">
+        <v>28</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="5" ht="15.5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="1">
+        <v>80</v>
+      </c>
+      <c r="C5" s="1">
+        <v>40</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="6" ht="15.5" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="1">
+        <v>240</v>
+      </c>
+      <c r="C6" s="1">
+        <v>92</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="7" ht="15.5" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="1">
+        <v>312</v>
+      </c>
+      <c r="C7" s="1">
+        <v>46</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="8" ht="15.5" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="1">
+        <v>100</v>
+      </c>
+      <c r="C8" s="1">
+        <v>31</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="9" ht="15.5" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="1">
+        <v>960</v>
+      </c>
+      <c r="C9" s="1">
+        <v>40</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="10" ht="15.5" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="1">
+        <v>192</v>
+      </c>
+      <c r="C10" s="1">
+        <v>56</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="11" ht="15.5" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="1">
+        <v>144</v>
+      </c>
+      <c r="C11" s="1">
+        <v>26</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="12" ht="15.5" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="1">
+        <v>100</v>
+      </c>
+      <c r="C12" s="1">
+        <v>26</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="13" ht="15.5" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="1">
+        <v>144</v>
+      </c>
+      <c r="C13" s="1">
+        <v>103</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="14" ht="15.5" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="1">
+        <v>672</v>
+      </c>
+      <c r="C14" s="1">
+        <v>19</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="15" ht="15.5" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" s="1">
+        <v>672</v>
+      </c>
+      <c r="C15" s="1">
+        <v>20</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="16" ht="15.5" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" s="1">
+        <v>360</v>
+      </c>
+      <c r="C16" s="1">
+        <v>30</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="17" ht="15.5" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" s="1">
+        <v>360</v>
+      </c>
+      <c r="C17" s="1">
+        <v>30</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="18" ht="15.5" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" s="1">
+        <v>360</v>
+      </c>
+      <c r="C18" s="1">
+        <v>13</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="19" ht="15.5" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B19" s="1">
+        <v>360</v>
+      </c>
+      <c r="C19" s="1">
+        <v>27</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="20" ht="15.5" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" s="1">
+        <v>360</v>
+      </c>
+      <c r="C20" s="1">
+        <v>27</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="21" ht="15.5" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B21" s="1">
+        <v>360</v>
+      </c>
+      <c r="C21" s="1">
+        <v>26</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="22" ht="15.5" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B22" s="1">
+        <v>128</v>
+      </c>
+      <c r="C22" s="1">
+        <v>38</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="23" ht="15.5" spans="1:4">
+      <c r="A23" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B23" s="1">
+        <v>240</v>
+      </c>
+      <c r="C23" s="1">
+        <v>33</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="24" ht="15.5" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24" s="1">
+        <v>240</v>
+      </c>
+      <c r="C24" s="1">
+        <v>36</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="25" ht="15.5" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B25" s="1">
+        <v>200</v>
+      </c>
+      <c r="C25" s="1">
+        <v>20</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="26" ht="15.5" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" s="1">
+        <v>400</v>
+      </c>
+      <c r="C26" s="1">
+        <v>24</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="27" ht="15.5" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B27" s="1">
+        <v>400</v>
+      </c>
+      <c r="C27" s="1">
+        <v>25</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="28" ht="15.5" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B28" s="1">
+        <v>360</v>
+      </c>
+      <c r="C28" s="1">
+        <v>105</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="29" ht="15.5" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B29" s="1">
+        <v>64</v>
+      </c>
+      <c r="C29" s="1">
+        <v>302</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="30" ht="15.5" spans="1:4">
+      <c r="A30" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B30" s="1">
+        <v>90</v>
+      </c>
+      <c r="C30" s="1">
+        <v>23</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="31" ht="15.5" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B31" s="1">
+        <v>40</v>
+      </c>
+      <c r="C31" s="1">
+        <v>24</v>
+      </c>
+      <c r="D31" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="32" ht="15.5" spans="1:4">
+      <c r="A32" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B32" s="1">
+        <v>40</v>
+      </c>
+      <c r="C32" s="1">
+        <v>20</v>
+      </c>
+      <c r="D32" s="1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="33" ht="15.5" spans="1:4">
+      <c r="A33" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B33" s="1">
+        <v>40</v>
+      </c>
+      <c r="C33" s="1">
+        <v>21</v>
+      </c>
+      <c r="D33" s="1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="34" ht="15.5" spans="1:4">
+      <c r="A34" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B34" s="1">
+        <v>60</v>
+      </c>
+      <c r="C34" s="1">
+        <v>24</v>
+      </c>
+      <c r="D34" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="35" ht="15.5" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B35" s="1">
+        <v>60</v>
+      </c>
+      <c r="C35" s="1">
+        <v>18</v>
+      </c>
+      <c r="D35" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="36" ht="15.5" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B36" s="1">
+        <v>60</v>
+      </c>
+      <c r="C36" s="1">
+        <v>22</v>
+      </c>
+      <c r="D36" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="37" ht="15.5" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B37" s="1">
+        <v>60</v>
+      </c>
+      <c r="C37" s="1">
+        <v>20</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="38" ht="15.5" spans="1:4">
+      <c r="A38" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B38" s="1">
+        <v>240</v>
+      </c>
+      <c r="C38" s="1">
+        <v>40</v>
+      </c>
+      <c r="D38" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="39" ht="15.5" spans="1:4">
+      <c r="A39" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B39" s="1">
+        <v>60</v>
+      </c>
+      <c r="C39" s="1">
+        <v>144</v>
+      </c>
+      <c r="D39" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="40" ht="15.5" spans="1:4">
+      <c r="A40" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B40" s="1">
+        <v>360</v>
+      </c>
+      <c r="C40" s="1">
+        <v>109</v>
+      </c>
+      <c r="D40" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="41" ht="15.5" spans="1:4">
+      <c r="A41" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B41" s="1">
+        <v>300</v>
+      </c>
+      <c r="C41" s="1">
+        <v>40</v>
+      </c>
+      <c r="D41" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="42" ht="15.5" spans="1:4">
+      <c r="A42" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B42" s="1">
+        <v>240</v>
+      </c>
+      <c r="C42" s="1">
+        <v>30</v>
+      </c>
+      <c r="D42" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="43" ht="15.5" spans="1:4">
+      <c r="A43" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B43" s="1">
+        <v>240</v>
+      </c>
+      <c r="C43" s="1">
+        <v>104</v>
+      </c>
+      <c r="D43" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="44" ht="15.5" spans="1:4">
+      <c r="A44" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B44" s="1">
+        <v>360</v>
+      </c>
+      <c r="C44" s="1">
+        <v>328</v>
+      </c>
+      <c r="D44" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="45" ht="15.5" spans="1:4">
+      <c r="A45" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B45" s="1">
+        <v>360</v>
+      </c>
+      <c r="C45" s="1">
+        <v>23</v>
+      </c>
+      <c r="D45" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="46" ht="15.5" spans="1:4">
+      <c r="A46" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B46" s="1">
+        <v>360</v>
+      </c>
+      <c r="C46" s="1">
+        <v>21</v>
+      </c>
+      <c r="D46" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="47" ht="15.5" spans="1:4">
+      <c r="A47" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B47" s="1">
+        <v>360</v>
+      </c>
+      <c r="C47" s="1">
+        <v>18</v>
+      </c>
+      <c r="D47" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="48" ht="15.5" spans="1:4">
+      <c r="A48" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B48" s="1">
+        <v>96</v>
+      </c>
+      <c r="C48" s="1">
+        <v>380</v>
+      </c>
+      <c r="D48" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="49" ht="15.5" spans="1:4">
+      <c r="A49" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B49" s="1">
+        <v>320</v>
+      </c>
+      <c r="C49" s="1">
+        <v>84</v>
+      </c>
+      <c r="D49" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="50" ht="15.5" spans="1:4">
+      <c r="A50" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B50" s="1">
+        <v>960</v>
+      </c>
+      <c r="C50" s="1">
+        <v>20</v>
+      </c>
+      <c r="D50" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="51" ht="15.5" spans="1:4">
+      <c r="A51" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B51" s="1">
+        <v>240</v>
+      </c>
+      <c r="C51" s="1">
+        <v>32</v>
+      </c>
+      <c r="D51" s="1">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="52" ht="15.5" spans="1:4">
+      <c r="A52" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B52" s="1">
+        <v>360</v>
+      </c>
+      <c r="C52" s="1">
+        <v>70</v>
+      </c>
+      <c r="D52" s="1">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="53" ht="15.5" spans="1:1">
+      <c r="A53" s="1"/>
+    </row>
+    <row r="54" ht="15.5" spans="1:1">
+      <c r="A54" s="1"/>
+    </row>
+    <row r="55" ht="15.5" spans="1:1">
+      <c r="A55" s="1"/>
+    </row>
+    <row r="56" ht="15.5" spans="1:1">
+      <c r="A56" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Label.xlsx
+++ b/Label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19950" windowHeight="10480" activeTab="2"/>
+    <workbookView windowWidth="17880" windowHeight="7440"/>
   </bookViews>
   <sheets>
     <sheet name="Label" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Label!$A$1:$V$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Label!$A$1:$W$52</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$A$68</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="250">
   <si>
     <t>Note</t>
   </si>
@@ -188,6 +188,9 @@
     <t>P6</t>
   </si>
   <si>
+    <t>✅</t>
+  </si>
+  <si>
     <t>Constable &amp; Knoblich</t>
   </si>
   <si>
@@ -291,6 +294,9 @@
   </si>
   <si>
     <t>P46</t>
+  </si>
+  <si>
+    <t>❓</t>
   </si>
   <si>
     <t>Cognition and Emotion</t>
@@ -1151,9 +1157,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体-简"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11.05"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.8"/>
+      <color rgb="FF000000"/>
+      <name val="WarnockPro-Regular"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1165,12 +1183,6 @@
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9.8"/>
-      <color rgb="FF000000"/>
-      <name val="WarnockPro-Regular"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1311,12 +1323,6 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体-简"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1673,16 +1679,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1691,46 +1694,49 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1742,7 +1748,7 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1754,7 +1760,7 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1766,7 +1772,7 @@
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1778,7 +1784,7 @@
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1790,7 +1796,7 @@
     <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1803,7 +1809,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1822,16 +1828,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1840,28 +1846,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1970,8 +1979,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6699250" y="50800"/>
-          <a:ext cx="3238500" cy="2387600"/>
+          <a:off x="6282690" y="50800"/>
+          <a:ext cx="3019425" cy="2707640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2245,49 +2254,49 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:KF68"/>
+  <dimension ref="A1:KG68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D40" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1:F52"/>
+      <selection pane="bottomRight" activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="14.4166666666667" customWidth="1"/>
+    <col min="1" max="1" width="14.4196428571429" customWidth="1"/>
     <col min="2" max="2" width="3.625" customWidth="1"/>
-    <col min="3" max="3" width="9.16666666666667" customWidth="1"/>
-    <col min="4" max="4" width="6.08333333333333" customWidth="1"/>
-    <col min="5" max="5" width="23.4166666666667" customWidth="1"/>
-    <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="67.0833333333333" customWidth="1"/>
-    <col min="8" max="8" width="4.625" customWidth="1"/>
-    <col min="9" max="10" width="9" customWidth="1"/>
-    <col min="11" max="11" width="20.0833333333333" customWidth="1"/>
-    <col min="12" max="12" width="21.5833333333333" customWidth="1"/>
-    <col min="13" max="13" width="11.75" customWidth="1"/>
-    <col min="14" max="14" width="13.0833333333333" customWidth="1"/>
-    <col min="15" max="15" width="14.25" customWidth="1"/>
-    <col min="16" max="16" width="12.9166666666667" customWidth="1"/>
-    <col min="17" max="17" width="13.25" customWidth="1"/>
-    <col min="18" max="18" width="12.75" customWidth="1"/>
-    <col min="19" max="19" width="7.58333333333333" customWidth="1"/>
-    <col min="20" max="20" width="41.6666666666667" customWidth="1"/>
-    <col min="21" max="21" width="29" customWidth="1"/>
-    <col min="23" max="23" width="13.25" customWidth="1"/>
-    <col min="24" max="24" width="17.4166666666667" customWidth="1"/>
-    <col min="25" max="25" width="8.66666666666667" customWidth="1"/>
-    <col min="26" max="26" width="23.8333333333333" style="4" customWidth="1"/>
-    <col min="27" max="27" width="14.5" customWidth="1"/>
-    <col min="29" max="29" width="9.925"/>
-    <col min="30" max="30" width="15.1666666666667" customWidth="1"/>
-    <col min="32" max="32" width="12.625" customWidth="1"/>
+    <col min="3" max="3" width="9.16964285714286" customWidth="1"/>
+    <col min="4" max="5" width="6.08035714285714" customWidth="1"/>
+    <col min="6" max="6" width="23.4196428571429" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="8" max="8" width="67.0803571428571" customWidth="1"/>
+    <col min="9" max="9" width="4.625" customWidth="1"/>
+    <col min="10" max="11" width="9" customWidth="1"/>
+    <col min="12" max="12" width="20.0803571428571" customWidth="1"/>
+    <col min="13" max="13" width="21.5803571428571" customWidth="1"/>
+    <col min="14" max="14" width="11.75" customWidth="1"/>
+    <col min="15" max="15" width="13.0803571428571" customWidth="1"/>
+    <col min="16" max="16" width="14.25" customWidth="1"/>
+    <col min="17" max="17" width="12.9196428571429" customWidth="1"/>
+    <col min="18" max="18" width="13.25" customWidth="1"/>
+    <col min="19" max="19" width="12.75" customWidth="1"/>
+    <col min="20" max="20" width="7.58035714285714" customWidth="1"/>
+    <col min="21" max="21" width="41.6696428571429" customWidth="1"/>
+    <col min="22" max="22" width="29" customWidth="1"/>
+    <col min="24" max="24" width="13.25" customWidth="1"/>
+    <col min="25" max="25" width="17.4196428571429" customWidth="1"/>
+    <col min="26" max="26" width="8.66964285714286" customWidth="1"/>
+    <col min="27" max="27" width="23.8303571428571" style="4" customWidth="1"/>
+    <col min="28" max="28" width="14.5" customWidth="1"/>
+    <col min="30" max="30" width="9.92857142857143"/>
+    <col min="31" max="31" width="15.1696428571429" customWidth="1"/>
+    <col min="33" max="33" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.5" spans="1:32">
+    <row r="1" ht="17.6" spans="1:33">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2300,90 +2309,91 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="16" t="s">
+      <c r="AB1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="16" t="s">
+      <c r="AC1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="16" t="s">
+      <c r="AD1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="16" t="s">
+      <c r="AF1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="16"/>
+      <c r="AG1" s="12"/>
     </row>
-    <row r="2" ht="15.5" spans="1:292">
+    <row r="2" ht="17.6" spans="1:293">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
@@ -2396,79 +2406,79 @@
       <c r="D2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>2019</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1</v>
       </c>
       <c r="I2" s="1">
         <v>1</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M2" s="1">
+      <c r="N2" s="1">
         <v>28</v>
       </c>
-      <c r="N2" s="1">
+      <c r="O2" s="1">
         <v>20</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="1">
+      <c r="Q2" s="1">
         <v>96</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="R2" s="1">
         <v>3</v>
       </c>
-      <c r="R2" s="1">
+      <c r="S2" s="1">
         <v>0</v>
       </c>
-      <c r="S2" s="1">
-        <f t="shared" ref="S2:S7" si="0">M2-R2</f>
+      <c r="T2" s="1">
+        <f t="shared" ref="T2:T7" si="0">N2-S2</f>
         <v>28</v>
       </c>
-      <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
-      <c r="W2" s="8">
+      <c r="W2" s="1"/>
+      <c r="X2" s="9">
         <v>1</v>
       </c>
-      <c r="X2" s="9">
+      <c r="Y2" s="13">
         <v>0</v>
       </c>
-      <c r="Y2" s="9">
+      <c r="Z2" s="13">
         <v>0</v>
       </c>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1" t="s">
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AB2" s="1">
+      <c r="AC2" s="1">
         <v>12</v>
       </c>
-      <c r="AC2" s="1">
+      <c r="AD2" s="1">
         <v>16</v>
       </c>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1" t="s">
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AF2" s="1"/>
       <c r="AG2" s="1"/>
       <c r="AH2" s="1"/>
       <c r="AI2" s="1"/>
@@ -2729,8 +2739,9 @@
       <c r="KD2" s="1"/>
       <c r="KE2" s="1"/>
       <c r="KF2" s="1"/>
+      <c r="KG2" s="1"/>
     </row>
-    <row r="3" ht="15.5" spans="1:292">
+    <row r="3" ht="17.6" spans="1:293">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
@@ -2743,79 +2754,79 @@
       <c r="D3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>2019</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="H3" s="1">
-        <v>2</v>
       </c>
       <c r="I3" s="1">
         <v>2</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="1">
+        <v>2</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="1">
+      <c r="N3" s="1">
         <v>28</v>
       </c>
-      <c r="N3" s="1">
+      <c r="O3" s="1">
         <v>20</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="P3" s="1">
+      <c r="Q3" s="1">
         <v>96</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="R3" s="1">
         <v>3</v>
       </c>
-      <c r="R3" s="1">
+      <c r="S3" s="1">
         <v>0</v>
       </c>
-      <c r="S3" s="1">
+      <c r="T3" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
-      <c r="W3" s="8">
+      <c r="W3" s="1"/>
+      <c r="X3" s="9">
         <v>1</v>
       </c>
-      <c r="X3" s="9">
+      <c r="Y3" s="13">
         <v>0</v>
       </c>
-      <c r="Y3" s="9">
+      <c r="Z3" s="13">
         <v>0</v>
       </c>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1" t="s">
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AB3" s="1">
+      <c r="AC3" s="1">
         <v>6</v>
       </c>
-      <c r="AC3" s="1">
+      <c r="AD3" s="1">
         <v>22</v>
       </c>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1" t="s">
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AF3" s="1"/>
       <c r="AG3" s="1"/>
       <c r="AH3" s="1"/>
       <c r="AI3" s="1"/>
@@ -3076,8 +3087,9 @@
       <c r="KD3" s="1"/>
       <c r="KE3" s="1"/>
       <c r="KF3" s="1"/>
+      <c r="KG3" s="1"/>
     </row>
-    <row r="4" ht="15.5" spans="1:292">
+    <row r="4" ht="17.6" spans="1:293">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
@@ -3090,79 +3102,79 @@
       <c r="D4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>2019</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="H4" s="1">
-        <v>3</v>
       </c>
       <c r="I4" s="1">
         <v>3</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="1">
+        <v>3</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="1">
+      <c r="N4" s="1">
         <v>28</v>
       </c>
-      <c r="N4" s="1">
+      <c r="O4" s="1">
         <v>20</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="P4" s="1">
+      <c r="Q4" s="1">
         <v>96</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="R4" s="1">
         <v>3</v>
       </c>
-      <c r="R4" s="1">
+      <c r="S4" s="1">
         <v>0</v>
       </c>
-      <c r="S4" s="1">
+      <c r="T4" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
-      <c r="W4" s="8">
+      <c r="W4" s="1"/>
+      <c r="X4" s="9">
         <v>1</v>
       </c>
-      <c r="X4" s="9">
+      <c r="Y4" s="13">
         <v>0</v>
       </c>
-      <c r="Y4" s="9">
+      <c r="Z4" s="13">
         <v>0</v>
       </c>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1" t="s">
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AB4" s="1">
+      <c r="AC4" s="1">
         <v>8</v>
       </c>
-      <c r="AC4" s="1">
+      <c r="AD4" s="1">
         <v>14</v>
       </c>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1" t="s">
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AF4" s="1"/>
       <c r="AG4" s="1"/>
       <c r="AH4" s="1"/>
       <c r="AI4" s="1"/>
@@ -3423,8 +3435,9 @@
       <c r="KD4" s="1"/>
       <c r="KE4" s="1"/>
       <c r="KF4" s="1"/>
+      <c r="KG4" s="1"/>
     </row>
-    <row r="5" ht="15.5" spans="1:292">
+    <row r="5" ht="17.6" spans="1:293">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -3437,75 +3450,75 @@
       <c r="D5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>2019</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="H5" s="1">
-        <v>4</v>
       </c>
       <c r="I5" s="1">
         <v>4</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="1">
+        <v>4</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="M5" s="1">
+      <c r="N5" s="1">
         <v>40</v>
       </c>
-      <c r="N5" s="1">
+      <c r="O5" s="1">
         <v>50</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="P5" s="1">
+      <c r="Q5" s="1">
         <v>80</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="R5" s="1">
         <v>8</v>
       </c>
-      <c r="R5" s="1">
+      <c r="S5" s="1">
         <v>0</v>
       </c>
-      <c r="S5" s="1">
+      <c r="T5" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
-      <c r="W5" s="8">
+      <c r="W5" s="1"/>
+      <c r="X5" s="9">
         <v>1</v>
       </c>
-      <c r="X5" s="9">
+      <c r="Y5" s="13">
         <v>0</v>
       </c>
-      <c r="Y5" s="9">
+      <c r="Z5" s="13">
         <v>0</v>
       </c>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1" t="s">
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="AB5" s="1">
-        <v>14</v>
       </c>
       <c r="AC5" s="1">
         <v>14</v>
       </c>
-      <c r="AD5" s="1"/>
+      <c r="AD5" s="1">
+        <v>14</v>
+      </c>
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
       <c r="AG5" s="1"/>
@@ -3768,8 +3781,9 @@
       <c r="KD5" s="1"/>
       <c r="KE5" s="1"/>
       <c r="KF5" s="1"/>
+      <c r="KG5" s="1"/>
     </row>
-    <row r="6" ht="18" customHeight="1" spans="1:292">
+    <row r="6" ht="18" customHeight="1" spans="1:293">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
@@ -3782,85 +3796,87 @@
       <c r="D6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="1">
         <v>2020</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1</v>
+      <c r="H6" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="I6" s="1">
         <v>1</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N6" s="1">
         <v>92</v>
       </c>
-      <c r="N6" s="1">
+      <c r="O6" s="1">
         <v>24</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="P6" s="1">
+      <c r="Q6" s="1">
         <v>240</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="R6" s="1">
         <v>4</v>
       </c>
-      <c r="R6" s="1">
+      <c r="S6" s="1">
         <v>0</v>
       </c>
-      <c r="S6" s="1">
+      <c r="T6" s="1">
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
-      <c r="T6" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="U6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="V6" s="1"/>
-      <c r="W6" s="8">
+      <c r="V6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="W6" s="1"/>
+      <c r="X6" s="9">
         <v>1</v>
       </c>
-      <c r="X6" s="9">
+      <c r="Y6" s="13">
         <v>0</v>
       </c>
-      <c r="Y6" s="9">
+      <c r="Z6" s="13">
         <v>0</v>
       </c>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1" t="s">
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AB6" s="1">
+      <c r="AC6" s="1">
         <v>19</v>
       </c>
-      <c r="AC6" s="1">
+      <c r="AD6" s="1">
         <v>73</v>
       </c>
-      <c r="AD6" s="1" t="s">
+      <c r="AE6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE6" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF6" s="1"/>
+      <c r="AF6" s="19" t="s">
+        <v>58</v>
+      </c>
       <c r="AG6" s="1"/>
       <c r="AH6" s="1"/>
       <c r="AI6" s="1"/>
@@ -4121,87 +4137,88 @@
       <c r="KD6" s="1"/>
       <c r="KE6" s="1"/>
       <c r="KF6" s="1"/>
+      <c r="KG6" s="1"/>
     </row>
-    <row r="7" ht="15.5" spans="1:292">
+    <row r="7" ht="17.6" spans="1:293">
       <c r="A7" s="1"/>
       <c r="B7" s="1">
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F7" s="1">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="1">
         <v>2020</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1</v>
+      <c r="H7" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="I7" s="1">
         <v>1</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M7" s="1">
+      <c r="L7" s="1"/>
+      <c r="M7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N7" s="1">
         <v>46</v>
       </c>
-      <c r="N7" s="1">
+      <c r="O7" s="1">
         <v>48</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="P7" s="1">
+      <c r="Q7" s="1">
         <v>312</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="R7" s="1">
         <v>14</v>
       </c>
-      <c r="R7" s="1">
+      <c r="S7" s="1">
         <v>5</v>
       </c>
-      <c r="S7" s="1">
+      <c r="T7" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
-      <c r="W7" s="8">
+      <c r="W7" s="1"/>
+      <c r="X7" s="9">
         <v>1</v>
       </c>
-      <c r="X7" s="9">
+      <c r="Y7" s="13">
         <v>0</v>
       </c>
-      <c r="Y7" s="9">
+      <c r="Z7" s="13">
         <v>0</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="AA7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AB7" s="1">
+      <c r="AB7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC7" s="1">
         <v>19</v>
       </c>
-      <c r="AC7" s="1">
+      <c r="AD7" s="1">
         <v>27</v>
       </c>
-      <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
@@ -4464,89 +4481,92 @@
       <c r="KD7" s="1"/>
       <c r="KE7" s="1"/>
       <c r="KF7" s="1"/>
+      <c r="KG7" s="1"/>
     </row>
-    <row r="8" ht="17" customHeight="1" spans="1:292">
+    <row r="8" ht="17" customHeight="1" spans="1:293">
       <c r="A8" s="1"/>
       <c r="B8" s="1">
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F8" s="1">
+      <c r="E8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="1">
         <v>2020</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1</v>
+      <c r="H8" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="L8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M8" s="1">
+        <v>70</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N8" s="1">
         <v>31</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="O8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="P8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="P8" s="1">
+      <c r="Q8" s="1">
         <v>100</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="R8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="R8" s="1">
+      <c r="S8" s="1">
         <v>0</v>
       </c>
-      <c r="S8" s="1">
+      <c r="T8" s="1">
         <v>31</v>
       </c>
-      <c r="U8" s="1"/>
       <c r="V8" s="1"/>
-      <c r="W8" s="8">
+      <c r="W8" s="1"/>
+      <c r="X8" s="9">
         <v>1</v>
       </c>
-      <c r="X8" s="9">
+      <c r="Y8" s="13">
         <v>0</v>
       </c>
-      <c r="Y8" s="8">
+      <c r="Z8" s="9">
         <v>1</v>
       </c>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1" t="s">
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AB8" s="1">
+      <c r="AC8" s="1">
         <v>17</v>
       </c>
-      <c r="AC8" s="1">
+      <c r="AD8" s="1">
         <v>14</v>
       </c>
-      <c r="AD8" s="1"/>
-      <c r="AE8" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="19" t="s">
+        <v>71</v>
+      </c>
       <c r="AG8" s="1"/>
       <c r="AH8" s="1"/>
       <c r="AI8" s="1"/>
@@ -4807,88 +4827,89 @@
       <c r="KD8" s="1"/>
       <c r="KE8" s="1"/>
       <c r="KF8" s="1"/>
+      <c r="KG8" s="1"/>
     </row>
-    <row r="9" ht="15" customHeight="1" spans="1:292">
+    <row r="9" ht="15" customHeight="1" spans="1:293">
       <c r="A9" s="1"/>
       <c r="B9" s="1">
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="1">
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="1">
         <v>2021</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1</v>
+      <c r="H9" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="I9" s="1">
         <v>1</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M9" s="1">
+      <c r="L9" s="1"/>
+      <c r="M9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N9" s="1">
         <v>40</v>
       </c>
-      <c r="N9" s="1">
+      <c r="O9" s="1">
         <v>12</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="P9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="P9" s="1">
+      <c r="Q9" s="1">
         <v>960</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>7</v>
       </c>
       <c r="R9" s="1">
         <v>7</v>
       </c>
       <c r="S9" s="1">
+        <v>7</v>
+      </c>
+      <c r="T9" s="1">
         <v>33</v>
       </c>
-      <c r="T9" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="U9" s="1"/>
+      <c r="U9" s="10" t="s">
+        <v>76</v>
+      </c>
       <c r="V9" s="1"/>
-      <c r="W9" s="8">
+      <c r="W9" s="1"/>
+      <c r="X9" s="9">
         <v>1</v>
       </c>
-      <c r="X9" s="9">
+      <c r="Y9" s="13">
         <v>0</v>
       </c>
-      <c r="Y9" s="9">
+      <c r="Z9" s="13">
         <v>0</v>
       </c>
-      <c r="Z9" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="AA9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AB9" s="1">
+      <c r="AC9" s="1">
         <v>8</v>
       </c>
-      <c r="AC9" s="1">
+      <c r="AD9" s="1">
         <v>32</v>
       </c>
-      <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
       <c r="AF9" s="1"/>
       <c r="AG9" s="1"/>
@@ -5151,89 +5172,92 @@
       <c r="KD9" s="1"/>
       <c r="KE9" s="1"/>
       <c r="KF9" s="1"/>
+      <c r="KG9" s="1"/>
     </row>
-    <row r="10" ht="15.5" spans="1:292">
+    <row r="10" ht="18" spans="1:293">
       <c r="A10" s="1"/>
       <c r="B10" s="1">
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>2020</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H10" s="1">
-        <v>2</v>
+      <c r="H10" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="I10" s="1">
         <v>2</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="1">
+        <v>2</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M10" s="1">
+      <c r="L10" s="1"/>
+      <c r="M10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N10" s="1">
         <v>56</v>
       </c>
-      <c r="N10" s="1">
+      <c r="O10" s="1">
         <v>8</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="P10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="P10" s="1">
+      <c r="Q10" s="1">
         <v>192</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="R10" s="1">
         <v>4</v>
       </c>
-      <c r="R10" s="1">
+      <c r="S10" s="1">
         <v>5</v>
       </c>
-      <c r="S10" s="1">
-        <f>M10-R10</f>
+      <c r="T10" s="1">
+        <f>N10-S10</f>
         <v>51</v>
       </c>
-      <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
-      <c r="W10" s="8">
+      <c r="W10" s="1"/>
+      <c r="X10" s="9">
         <v>1</v>
       </c>
-      <c r="X10" s="9">
+      <c r="Y10" s="13">
         <v>0</v>
       </c>
-      <c r="Y10" s="9">
+      <c r="Z10" s="13">
         <v>0</v>
       </c>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1" t="s">
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AB10" s="1">
+      <c r="AC10" s="1">
         <v>25</v>
       </c>
-      <c r="AC10" s="1">
+      <c r="AD10" s="1">
         <v>31</v>
       </c>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="AG10" s="1"/>
       <c r="AH10" s="1"/>
       <c r="AI10" s="1"/>
@@ -5494,91 +5518,94 @@
       <c r="KD10" s="1"/>
       <c r="KE10" s="1"/>
       <c r="KF10" s="1"/>
+      <c r="KG10" s="1"/>
     </row>
-    <row r="11" ht="15.5" spans="1:292">
+    <row r="11" ht="17.6" spans="1:293">
       <c r="A11" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B11" s="1">
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F11" s="1">
+        <v>85</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="1">
         <v>2020</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H11" s="1">
-        <v>1</v>
+      <c r="H11" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="I11" s="1">
         <v>1</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="M11" s="1">
+      <c r="L11" s="1"/>
+      <c r="M11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="N11" s="1">
         <v>26</v>
       </c>
-      <c r="N11" s="1">
+      <c r="O11" s="1">
         <v>10</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="P11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="P11" s="1">
+      <c r="Q11" s="1">
         <v>144</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="R11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="R11" s="1">
+      <c r="S11" s="1">
         <v>2</v>
       </c>
-      <c r="S11" s="1">
-        <f>M11-R11</f>
+      <c r="T11" s="1">
+        <f>N11-S11</f>
         <v>24</v>
       </c>
-      <c r="T11" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="U11" s="1"/>
+      <c r="U11" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="V11" s="1"/>
-      <c r="W11" s="8">
+      <c r="W11" s="1"/>
+      <c r="X11" s="9">
         <v>1</v>
       </c>
-      <c r="X11" s="9">
+      <c r="Y11" s="13">
         <v>0</v>
       </c>
-      <c r="Y11" s="9">
+      <c r="Z11" s="13">
         <v>0</v>
       </c>
-      <c r="Z11" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="AA11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB11" s="1">
+        <v>77</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC11" s="1">
         <v>10</v>
       </c>
-      <c r="AC11" s="1">
+      <c r="AD11" s="1">
         <v>16</v>
       </c>
-      <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
@@ -5841,93 +5868,96 @@
       <c r="KD11" s="1"/>
       <c r="KE11" s="1"/>
       <c r="KF11" s="1"/>
+      <c r="KG11" s="1"/>
     </row>
-    <row r="12" ht="15.5" spans="1:292">
+    <row r="12" ht="17.6" spans="1:293">
       <c r="A12" s="1"/>
       <c r="B12" s="1">
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F12" s="1">
+        <v>85</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" s="1">
         <v>2020</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H12" s="1">
-        <v>2</v>
+      <c r="H12" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="I12" s="1">
         <v>2</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="1">
+        <v>2</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="M12" s="1">
+      <c r="L12" s="1"/>
+      <c r="M12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="N12" s="1">
         <v>26</v>
       </c>
-      <c r="N12" s="1">
+      <c r="O12" s="1">
         <v>20</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="P12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="P12" s="1">
+      <c r="Q12" s="1">
         <v>100</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="R12" s="1">
         <v>2</v>
       </c>
-      <c r="R12" s="1">
+      <c r="S12" s="1">
         <v>1</v>
       </c>
-      <c r="S12" s="1">
-        <f>M12-R12</f>
+      <c r="T12" s="1">
+        <f>N12-S12</f>
         <v>25</v>
       </c>
-      <c r="T12" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="U12" s="1"/>
+      <c r="U12" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="V12" s="1"/>
-      <c r="W12" s="8">
+      <c r="W12" s="1"/>
+      <c r="X12" s="9">
         <v>1</v>
       </c>
-      <c r="X12" s="9">
+      <c r="Y12" s="13">
         <v>0</v>
       </c>
-      <c r="Y12" s="9">
+      <c r="Z12" s="13">
         <v>0</v>
       </c>
-      <c r="Z12" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="AA12" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB12" s="1">
+        <v>77</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC12" s="1">
         <v>7</v>
       </c>
-      <c r="AC12" s="1">
+      <c r="AD12" s="1">
         <v>19</v>
       </c>
-      <c r="AD12" s="1"/>
-      <c r="AE12" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="19" t="s">
+        <v>93</v>
+      </c>
       <c r="AG12" s="1"/>
       <c r="AH12" s="1"/>
       <c r="AI12" s="1"/>
@@ -6188,93 +6218,96 @@
       <c r="KD12" s="1"/>
       <c r="KE12" s="1"/>
       <c r="KF12" s="1"/>
+      <c r="KG12" s="1"/>
     </row>
-    <row r="13" ht="15.5" spans="1:292">
+    <row r="13" ht="17.6" spans="1:293">
       <c r="A13" s="1"/>
       <c r="B13" s="1">
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F13" s="1">
+        <v>95</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" s="1">
         <v>2019</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H13" s="1">
-        <v>1</v>
+      <c r="H13" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="I13" s="1">
         <v>1</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="L13" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="M13" s="1">
+        <v>98</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N13" s="1">
         <v>103</v>
       </c>
-      <c r="N13" s="1">
+      <c r="O13" s="1">
         <v>48</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="P13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="P13" s="1">
+      <c r="Q13" s="1">
         <v>144</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="R13" s="1">
         <v>3</v>
       </c>
-      <c r="R13" s="1">
+      <c r="S13" s="1">
         <v>0</v>
       </c>
-      <c r="S13" s="1">
-        <f>M13-R13</f>
+      <c r="T13" s="1">
+        <f>N13-S13</f>
         <v>103</v>
       </c>
-      <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
-      <c r="W13" s="8">
+      <c r="W13" s="1"/>
+      <c r="X13" s="9">
         <v>1</v>
       </c>
-      <c r="X13" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y13" s="9">
+      <c r="Y13" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z13" s="13">
         <v>0</v>
       </c>
-      <c r="Z13" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="AA13" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AB13" s="1">
+        <v>77</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC13" s="1">
         <v>13</v>
       </c>
-      <c r="AC13" s="1">
+      <c r="AD13" s="1">
         <v>90</v>
       </c>
-      <c r="AD13" s="1"/>
-      <c r="AE13" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="AF13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="19" t="s">
+        <v>102</v>
+      </c>
       <c r="AG13" s="1"/>
       <c r="AH13" s="1"/>
       <c r="AI13" s="1"/>
@@ -6535,96 +6568,99 @@
       <c r="KD13" s="1"/>
       <c r="KE13" s="1"/>
       <c r="KF13" s="1"/>
+      <c r="KG13" s="1"/>
     </row>
-    <row r="14" ht="15.5" spans="1:292">
+    <row r="14" ht="17.6" spans="1:293">
       <c r="A14" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B14" s="1">
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F14" s="1">
+        <v>105</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G14" s="1">
         <v>2018</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H14" s="1">
-        <v>1</v>
+      <c r="H14" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="I14" s="1">
         <v>1</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="L14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M14" s="1">
+        <v>70</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N14" s="1">
         <v>19</v>
       </c>
-      <c r="N14" s="1">
+      <c r="O14" s="1">
         <v>24</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="P14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="P14" s="1">
+      <c r="Q14" s="1">
         <v>672</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="R14" s="1">
         <v>4</v>
       </c>
-      <c r="R14" s="1">
+      <c r="S14" s="1">
         <v>1</v>
       </c>
-      <c r="S14" s="1">
-        <f t="shared" ref="S14:S24" si="1">M14-R14</f>
+      <c r="T14" s="1">
+        <f t="shared" ref="T14:T24" si="1">N14-S14</f>
         <v>18</v>
       </c>
-      <c r="T14" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="U14" s="1"/>
+      <c r="U14" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="V14" s="1"/>
-      <c r="W14" s="8">
+      <c r="W14" s="1"/>
+      <c r="X14" s="9">
         <v>1</v>
       </c>
-      <c r="X14" s="9">
+      <c r="Y14" s="13">
         <v>0</v>
       </c>
-      <c r="Y14" s="9">
+      <c r="Z14" s="13">
         <v>1</v>
       </c>
-      <c r="Z14" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="AA14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB14" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="AB14" s="1">
-        <v>9</v>
       </c>
       <c r="AC14" s="1">
         <v>9</v>
       </c>
-      <c r="AD14" s="1" t="s">
+      <c r="AD14" s="1">
+        <v>9</v>
+      </c>
+      <c r="AE14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE14" s="1"/>
       <c r="AF14" s="1"/>
       <c r="AG14" s="1"/>
       <c r="AH14" s="1"/>
@@ -6886,96 +6922,99 @@
       <c r="KD14" s="1"/>
       <c r="KE14" s="1"/>
       <c r="KF14" s="1"/>
+      <c r="KG14" s="1"/>
     </row>
-    <row r="15" ht="15.5" spans="1:292">
+    <row r="15" ht="17.6" spans="1:293">
       <c r="A15" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B15" s="1">
         <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G15" s="1">
+        <v>2018</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F15" s="1">
-        <v>2018</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H15" s="1">
-        <v>2</v>
       </c>
       <c r="I15" s="1">
         <v>2</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" s="1">
+        <v>2</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="L15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M15" s="1">
+        <v>70</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N15" s="1">
         <v>20</v>
       </c>
-      <c r="N15" s="1">
+      <c r="O15" s="1">
         <v>24</v>
       </c>
-      <c r="O15" s="1" t="s">
+      <c r="P15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="P15" s="1">
+      <c r="Q15" s="1">
         <v>672</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="R15" s="1">
         <v>4</v>
       </c>
-      <c r="R15" s="1">
+      <c r="S15" s="1">
         <v>2</v>
       </c>
-      <c r="S15" s="1">
+      <c r="T15" s="1">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="T15" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="U15" s="1"/>
+      <c r="U15" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="V15" s="1"/>
-      <c r="W15" s="8">
+      <c r="W15" s="1"/>
+      <c r="X15" s="9">
         <v>1</v>
       </c>
-      <c r="X15" s="9">
+      <c r="Y15" s="13">
         <v>0</v>
       </c>
-      <c r="Y15" s="9">
+      <c r="Z15" s="13">
         <v>1</v>
       </c>
-      <c r="Z15" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="AA15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB15" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="AB15" s="1">
-        <v>9</v>
       </c>
       <c r="AC15" s="1">
         <v>9</v>
       </c>
-      <c r="AD15" s="1" t="s">
+      <c r="AD15" s="1">
+        <v>9</v>
+      </c>
+      <c r="AE15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
       <c r="AG15" s="1"/>
       <c r="AH15" s="1"/>
@@ -7237,93 +7276,96 @@
       <c r="KD15" s="1"/>
       <c r="KE15" s="1"/>
       <c r="KF15" s="1"/>
+      <c r="KG15" s="1"/>
     </row>
-    <row r="16" ht="15.5" spans="1:292">
+    <row r="16" ht="17.6" spans="1:293">
       <c r="A16" s="1"/>
       <c r="B16" s="1">
         <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F16" s="1">
+        <v>111</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G16" s="1">
         <v>2021</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H16" s="1">
-        <v>1</v>
+      <c r="H16" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="I16" s="1">
         <v>1</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="L16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M16" s="1">
+        <v>70</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N16" s="1">
         <v>30</v>
       </c>
-      <c r="N16" s="1">
+      <c r="O16" s="1">
         <v>12</v>
       </c>
-      <c r="O16" s="1" t="s">
+      <c r="P16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="P16" s="1">
+      <c r="Q16" s="1">
         <v>360</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="R16" s="1">
         <v>6</v>
       </c>
-      <c r="R16" s="1">
+      <c r="S16" s="1">
         <v>5</v>
       </c>
-      <c r="S16" s="1">
+      <c r="T16" s="1">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="T16" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="U16" s="1"/>
+      <c r="U16" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="V16" s="1"/>
-      <c r="W16" s="8">
+      <c r="W16" s="1"/>
+      <c r="X16" s="9">
         <v>1</v>
       </c>
-      <c r="X16" s="9">
+      <c r="Y16" s="13">
         <v>0</v>
       </c>
-      <c r="Y16" s="9">
+      <c r="Z16" s="13">
         <v>0</v>
       </c>
-      <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
-      <c r="AB16" s="1">
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1">
         <v>9</v>
       </c>
-      <c r="AC16" s="1">
+      <c r="AD16" s="1">
         <v>21</v>
       </c>
-      <c r="AD16" s="1" t="s">
+      <c r="AE16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE16" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AF16" s="1"/>
+      <c r="AF16" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="AG16" s="1"/>
       <c r="AH16" s="1"/>
       <c r="AI16" s="1"/>
@@ -7584,91 +7626,94 @@
       <c r="KD16" s="1"/>
       <c r="KE16" s="1"/>
       <c r="KF16" s="1"/>
+      <c r="KG16" s="1"/>
     </row>
-    <row r="17" ht="15.5" spans="1:292">
+    <row r="17" ht="17.6" spans="1:293">
       <c r="A17" s="1"/>
       <c r="B17" s="1">
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F17" s="1">
+        <v>111</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G17" s="1">
         <v>2021</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H17" s="1">
-        <v>2</v>
+      <c r="H17" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="I17" s="1">
         <v>2</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="J17" s="1">
+        <v>2</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="L17" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M17" s="1">
+        <v>70</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N17" s="1">
         <v>30</v>
       </c>
-      <c r="N17" s="1">
+      <c r="O17" s="1">
         <v>12</v>
       </c>
-      <c r="O17" s="1" t="s">
+      <c r="P17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="P17" s="1">
+      <c r="Q17" s="1">
         <v>360</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="R17" s="1">
         <v>6</v>
       </c>
-      <c r="R17" s="1">
+      <c r="S17" s="1">
         <v>5</v>
       </c>
-      <c r="S17" s="1">
+      <c r="T17" s="1">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
-      <c r="W17" s="8">
+      <c r="W17" s="1"/>
+      <c r="X17" s="9">
         <v>1</v>
       </c>
-      <c r="X17" s="9">
+      <c r="Y17" s="13">
         <v>0</v>
       </c>
-      <c r="Y17" s="9">
+      <c r="Z17" s="13">
         <v>0</v>
       </c>
-      <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
-      <c r="AB17" s="1">
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1">
         <v>10</v>
       </c>
-      <c r="AC17" s="1">
+      <c r="AD17" s="1">
         <v>20</v>
       </c>
-      <c r="AD17" s="1" t="s">
+      <c r="AE17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE17" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AF17" s="1"/>
+      <c r="AF17" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="AG17" s="1"/>
       <c r="AH17" s="1"/>
       <c r="AI17" s="1"/>
@@ -7929,87 +7974,90 @@
       <c r="KD17" s="1"/>
       <c r="KE17" s="1"/>
       <c r="KF17" s="1"/>
+      <c r="KG17" s="1"/>
     </row>
-    <row r="18" ht="15.5" spans="1:292">
+    <row r="18" ht="17.6" spans="1:293">
       <c r="A18" s="1"/>
       <c r="B18" s="1">
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F18" s="1">
+        <v>117</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G18" s="1">
         <v>2021</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1">
-        <v>1</v>
-      </c>
+      <c r="H18" s="1"/>
       <c r="I18" s="1">
         <v>1</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
+      <c r="K18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="L18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M18" s="1">
+        <v>70</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N18" s="1">
         <v>13</v>
       </c>
-      <c r="N18" s="1">
+      <c r="O18" s="1">
         <v>12</v>
       </c>
-      <c r="O18" s="1">
+      <c r="P18" s="1">
         <v>1</v>
       </c>
-      <c r="P18" s="1">
+      <c r="Q18" s="1">
         <v>360</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="R18" s="1">
         <v>3</v>
       </c>
-      <c r="R18" s="1">
+      <c r="S18" s="1">
         <v>0</v>
       </c>
-      <c r="S18" s="1">
+      <c r="T18" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
-      <c r="W18" s="8">
+      <c r="W18" s="1"/>
+      <c r="X18" s="9">
         <v>1</v>
       </c>
-      <c r="X18" s="9">
+      <c r="Y18" s="13">
         <v>0</v>
       </c>
-      <c r="Y18" s="9">
+      <c r="Z18" s="13">
         <v>0</v>
       </c>
-      <c r="Z18" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="AA18" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB18" s="1">
+        <v>77</v>
+      </c>
+      <c r="AB18" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC18" s="1">
         <v>3</v>
       </c>
-      <c r="AC18" s="1">
+      <c r="AD18" s="1">
         <v>10</v>
       </c>
-      <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
       <c r="AF18" s="1"/>
       <c r="AG18" s="1"/>
@@ -8272,87 +8320,90 @@
       <c r="KD18" s="1"/>
       <c r="KE18" s="1"/>
       <c r="KF18" s="1"/>
+      <c r="KG18" s="1"/>
     </row>
-    <row r="19" ht="15.5" spans="1:292">
+    <row r="19" ht="17.6" spans="1:293">
       <c r="A19" s="1"/>
       <c r="B19" s="1">
         <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F19" s="1">
+      <c r="G19" s="1">
         <v>2021</v>
       </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1">
-        <v>2</v>
-      </c>
+      <c r="H19" s="1"/>
       <c r="I19" s="1">
         <v>2</v>
       </c>
-      <c r="J19" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>120</v>
+      <c r="J19" s="1">
+        <v>2</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>121</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M19" s="1">
+        <v>122</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N19" s="1">
         <v>27</v>
       </c>
-      <c r="N19" s="1">
+      <c r="O19" s="1">
         <v>12</v>
       </c>
-      <c r="O19" s="1">
+      <c r="P19" s="1">
         <v>1</v>
       </c>
-      <c r="P19" s="1">
+      <c r="Q19" s="1">
         <v>360</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="R19" s="1">
         <v>3</v>
       </c>
-      <c r="R19" s="1">
+      <c r="S19" s="1">
         <v>0</v>
       </c>
-      <c r="S19" s="1">
+      <c r="T19" s="1">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
-      <c r="W19" s="8">
+      <c r="W19" s="1"/>
+      <c r="X19" s="9">
         <v>1</v>
       </c>
-      <c r="X19" s="9">
+      <c r="Y19" s="13">
         <v>0</v>
       </c>
-      <c r="Y19" s="9">
+      <c r="Z19" s="13">
         <v>0</v>
       </c>
-      <c r="Z19" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="AA19" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB19" s="1">
+        <v>77</v>
+      </c>
+      <c r="AB19" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC19" s="1">
         <v>9</v>
       </c>
-      <c r="AC19" s="1">
+      <c r="AD19" s="1">
         <v>18</v>
       </c>
-      <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
       <c r="AF19" s="1"/>
       <c r="AG19" s="1"/>
@@ -8615,87 +8666,90 @@
       <c r="KD19" s="1"/>
       <c r="KE19" s="1"/>
       <c r="KF19" s="1"/>
+      <c r="KG19" s="1"/>
     </row>
-    <row r="20" ht="15.5" spans="1:292">
+    <row r="20" ht="17.6" spans="1:293">
       <c r="A20" s="1"/>
       <c r="B20" s="1">
         <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="1">
+        <v>117</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G20" s="1">
         <v>2021</v>
       </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1">
-        <v>3</v>
-      </c>
+      <c r="H20" s="1"/>
       <c r="I20" s="1">
         <v>3</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="J20" s="1">
+        <v>3</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K20" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="L20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M20" s="1">
+        <v>121</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N20" s="1">
         <v>27</v>
       </c>
-      <c r="N20" s="1">
+      <c r="O20" s="1">
         <v>12</v>
       </c>
-      <c r="O20" s="1">
+      <c r="P20" s="1">
         <v>1</v>
       </c>
-      <c r="P20" s="1">
+      <c r="Q20" s="1">
         <v>360</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="R20" s="1">
         <v>3</v>
       </c>
-      <c r="R20" s="1">
+      <c r="S20" s="1">
         <v>0</v>
       </c>
-      <c r="S20" s="1">
+      <c r="T20" s="1">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
-      <c r="W20" s="8">
+      <c r="W20" s="1"/>
+      <c r="X20" s="9">
         <v>1</v>
       </c>
-      <c r="X20" s="9">
+      <c r="Y20" s="13">
         <v>0</v>
       </c>
-      <c r="Y20" s="9">
+      <c r="Z20" s="13">
         <v>0</v>
       </c>
-      <c r="Z20" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="AA20" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB20" s="1">
+        <v>77</v>
+      </c>
+      <c r="AB20" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC20" s="1">
         <v>12</v>
       </c>
-      <c r="AC20" s="1">
+      <c r="AD20" s="1">
         <v>15</v>
       </c>
-      <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
       <c r="AF20" s="1"/>
       <c r="AG20" s="1"/>
@@ -8958,87 +9012,90 @@
       <c r="KD20" s="1"/>
       <c r="KE20" s="1"/>
       <c r="KF20" s="1"/>
+      <c r="KG20" s="1"/>
     </row>
-    <row r="21" ht="15.5" spans="1:292">
+    <row r="21" ht="17.6" spans="1:293">
       <c r="A21" s="1"/>
       <c r="B21" s="1">
         <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F21" s="1">
+        <v>117</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G21" s="1">
         <v>2021</v>
       </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1">
-        <v>4</v>
-      </c>
+      <c r="H21" s="1"/>
       <c r="I21" s="1">
         <v>4</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="J21" s="1">
+        <v>4</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K21" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="L21" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M21" s="1">
+        <v>70</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N21" s="1">
         <v>26</v>
       </c>
-      <c r="N21" s="1">
+      <c r="O21" s="1">
         <v>12</v>
       </c>
-      <c r="O21" s="1">
+      <c r="P21" s="1">
         <v>1</v>
       </c>
-      <c r="P21" s="1">
+      <c r="Q21" s="1">
         <v>360</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="R21" s="1">
         <v>3</v>
       </c>
-      <c r="R21" s="1">
+      <c r="S21" s="1">
         <v>1</v>
       </c>
-      <c r="S21" s="1">
+      <c r="T21" s="1">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
-      <c r="W21" s="8">
+      <c r="W21" s="1"/>
+      <c r="X21" s="9">
         <v>1</v>
       </c>
-      <c r="X21" s="9">
+      <c r="Y21" s="13">
         <v>0</v>
       </c>
-      <c r="Y21" s="9">
+      <c r="Z21" s="13">
         <v>0</v>
       </c>
-      <c r="Z21" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="AA21" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB21" s="1">
+        <v>77</v>
+      </c>
+      <c r="AB21" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC21" s="1">
         <v>9</v>
       </c>
-      <c r="AC21" s="1">
+      <c r="AD21" s="1">
         <v>18</v>
       </c>
-      <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
       <c r="AF21" s="1"/>
       <c r="AG21" s="1"/>
@@ -9301,91 +9358,92 @@
       <c r="KD21" s="1"/>
       <c r="KE21" s="1"/>
       <c r="KF21" s="1"/>
+      <c r="KG21" s="1"/>
     </row>
-    <row r="22" ht="15.5" spans="1:292">
+    <row r="22" ht="18" spans="1:293">
       <c r="A22" s="1"/>
       <c r="B22" s="1">
         <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F22" s="1">
+        <v>126</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G22" s="1">
         <v>2020</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H22" s="1">
-        <v>1</v>
+      <c r="H22" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="I22" s="1">
         <v>1</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="J22" s="1">
+        <v>1</v>
+      </c>
+      <c r="K22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M22" s="1">
+      <c r="L22" s="1"/>
+      <c r="M22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N22" s="1">
         <v>38</v>
       </c>
-      <c r="N22" s="1">
+      <c r="O22" s="1">
         <v>84</v>
       </c>
-      <c r="O22" s="1" t="s">
+      <c r="P22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="P22" s="1">
+      <c r="Q22" s="1">
         <v>128</v>
       </c>
-      <c r="Q22" s="1" t="s">
+      <c r="R22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="R22" s="1">
+      <c r="S22" s="1">
         <v>4</v>
       </c>
-      <c r="S22" s="1">
+      <c r="T22" s="1">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="T22" s="1"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
-      <c r="W22" s="8">
+      <c r="W22" s="1"/>
+      <c r="X22" s="9">
         <v>1</v>
       </c>
-      <c r="X22" s="9">
+      <c r="Y22" s="13">
         <v>0</v>
       </c>
-      <c r="Y22" s="9">
+      <c r="Z22" s="13">
         <v>0</v>
       </c>
-      <c r="Z22" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="AA22" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AB22" s="1">
+        <v>77</v>
+      </c>
+      <c r="AB22" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC22" s="1">
         <v>9</v>
       </c>
-      <c r="AC22" s="1">
+      <c r="AD22" s="1">
         <v>29</v>
       </c>
-      <c r="AD22" s="1"/>
-      <c r="AE22" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AF22" s="1"/>
+      <c r="AE22" s="1"/>
+      <c r="AF22" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="AG22" s="1"/>
       <c r="AH22" s="1"/>
       <c r="AI22" s="1"/>
@@ -9646,91 +9704,92 @@
       <c r="KD22" s="1"/>
       <c r="KE22" s="1"/>
       <c r="KF22" s="1"/>
+      <c r="KG22" s="1"/>
     </row>
-    <row r="23" ht="15.5" spans="1:292">
+    <row r="23" ht="17.6" spans="1:293">
       <c r="A23" s="1"/>
       <c r="B23" s="1">
         <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G23" s="1">
+        <v>2020</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F23" s="1">
-        <v>2020</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H23" s="1">
-        <v>2</v>
       </c>
       <c r="I23" s="1">
         <v>2</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="J23" s="1">
+        <v>2</v>
+      </c>
+      <c r="K23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M23" s="1">
+      <c r="L23" s="1"/>
+      <c r="M23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N23" s="1">
         <v>33</v>
       </c>
-      <c r="N23" s="1">
+      <c r="O23" s="1">
         <v>24</v>
       </c>
-      <c r="O23" s="1" t="s">
+      <c r="P23" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="P23" s="1">
+      <c r="Q23" s="1">
         <v>240</v>
       </c>
-      <c r="Q23" s="1" t="s">
+      <c r="R23" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="R23" s="1">
+      <c r="S23" s="1">
         <v>2</v>
       </c>
-      <c r="S23" s="1">
+      <c r="T23" s="1">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="T23" s="1"/>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
-      <c r="W23" s="8">
+      <c r="W23" s="1"/>
+      <c r="X23" s="9">
         <v>1</v>
       </c>
-      <c r="X23" s="9">
+      <c r="Y23" s="13">
         <v>0</v>
       </c>
-      <c r="Y23" s="9">
+      <c r="Z23" s="13">
         <v>0</v>
       </c>
-      <c r="Z23" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="AA23" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AB23" s="1">
+        <v>77</v>
+      </c>
+      <c r="AB23" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC23" s="1">
         <v>7</v>
       </c>
-      <c r="AC23" s="1">
+      <c r="AD23" s="1">
         <v>26</v>
       </c>
-      <c r="AD23" s="1"/>
-      <c r="AE23" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="AF23" s="1"/>
+      <c r="AE23" s="1"/>
+      <c r="AF23" s="19" t="s">
+        <v>131</v>
+      </c>
       <c r="AG23" s="1"/>
       <c r="AH23" s="1"/>
       <c r="AI23" s="1"/>
@@ -9991,91 +10050,92 @@
       <c r="KD23" s="1"/>
       <c r="KE23" s="1"/>
       <c r="KF23" s="1"/>
+      <c r="KG23" s="1"/>
     </row>
-    <row r="24" ht="15.5" spans="1:292">
+    <row r="24" ht="18" spans="1:293">
       <c r="A24" s="1"/>
       <c r="B24" s="1">
         <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F24" s="1">
+        <v>126</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G24" s="1">
         <v>2020</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H24" s="1">
-        <v>3</v>
+      <c r="H24" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="I24" s="1">
         <v>3</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="J24" s="1">
+        <v>3</v>
+      </c>
+      <c r="K24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M24" s="1">
+      <c r="L24" s="1"/>
+      <c r="M24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N24" s="1">
         <v>36</v>
       </c>
-      <c r="N24" s="1">
+      <c r="O24" s="1">
         <v>24</v>
       </c>
-      <c r="O24" s="1" t="s">
+      <c r="P24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="P24" s="1">
+      <c r="Q24" s="1">
         <v>240</v>
       </c>
-      <c r="Q24" s="1" t="s">
+      <c r="R24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="R24" s="1">
+      <c r="S24" s="1">
         <v>1</v>
       </c>
-      <c r="S24" s="1">
+      <c r="T24" s="1">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="T24" s="1"/>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
-      <c r="W24" s="8">
+      <c r="W24" s="1"/>
+      <c r="X24" s="9">
         <v>1</v>
       </c>
-      <c r="X24" s="9">
+      <c r="Y24" s="13">
         <v>0</v>
       </c>
-      <c r="Y24" s="9">
+      <c r="Z24" s="13">
         <v>0</v>
       </c>
-      <c r="Z24" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="AA24" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AB24" s="1">
+        <v>77</v>
+      </c>
+      <c r="AB24" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC24" s="1">
         <v>7</v>
       </c>
-      <c r="AC24" s="1">
+      <c r="AD24" s="1">
         <v>29</v>
       </c>
-      <c r="AD24" s="1"/>
-      <c r="AE24" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="AF24" s="1"/>
+      <c r="AE24" s="1"/>
+      <c r="AF24" s="19" t="s">
+        <v>133</v>
+      </c>
       <c r="AG24" s="1"/>
       <c r="AH24" s="1"/>
       <c r="AI24" s="1"/>
@@ -10336,87 +10396,90 @@
       <c r="KD24" s="1"/>
       <c r="KE24" s="1"/>
       <c r="KF24" s="1"/>
+      <c r="KG24" s="1"/>
     </row>
-    <row r="25" ht="15.5" spans="1:292">
+    <row r="25" ht="17.6" spans="1:293">
       <c r="A25" s="1"/>
       <c r="B25" s="1">
         <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F25" s="1">
+        <v>135</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G25" s="1">
         <v>2022</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H25" s="1">
-        <v>1</v>
+      <c r="H25" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="I25" s="1">
         <v>1</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="J25" s="1">
+        <v>1</v>
+      </c>
+      <c r="K25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K25" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1">
+      <c r="L25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1">
         <v>20</v>
       </c>
-      <c r="N25" s="1">
+      <c r="O25" s="1">
         <v>10</v>
       </c>
-      <c r="O25" s="1" t="s">
+      <c r="P25" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="P25" s="1">
+      <c r="Q25" s="1">
         <v>200</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="R25" s="1">
         <v>4</v>
       </c>
-      <c r="R25" s="1">
+      <c r="S25" s="1">
         <v>0</v>
       </c>
-      <c r="S25" s="1">
-        <f t="shared" ref="S25:S48" si="2">M25-R25</f>
+      <c r="T25" s="1">
+        <f t="shared" ref="T25:T48" si="2">N25-S25</f>
         <v>20</v>
       </c>
-      <c r="T25" s="1"/>
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
-      <c r="W25" s="8">
+      <c r="W25" s="1"/>
+      <c r="X25" s="9">
         <v>1</v>
       </c>
-      <c r="X25" s="9">
+      <c r="Y25" s="13">
         <v>0</v>
       </c>
-      <c r="Y25" s="9">
+      <c r="Z25" s="13">
         <v>0</v>
       </c>
-      <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
-      <c r="AB25" s="1">
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1">
         <v>6</v>
       </c>
-      <c r="AC25" s="1">
+      <c r="AD25" s="1">
         <v>14</v>
       </c>
-      <c r="AD25" s="1"/>
-      <c r="AE25" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AF25" s="1"/>
+      <c r="AE25" s="1"/>
+      <c r="AF25" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="AG25" s="1"/>
       <c r="AH25" s="1"/>
       <c r="AI25" s="1"/>
@@ -10677,89 +10740,92 @@
       <c r="KD25" s="1"/>
       <c r="KE25" s="1"/>
       <c r="KF25" s="1"/>
+      <c r="KG25" s="1"/>
     </row>
-    <row r="26" ht="15.5" spans="1:292">
+    <row r="26" ht="18" spans="1:293">
       <c r="A26" s="1"/>
       <c r="B26" s="1">
         <v>25</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G26" s="1">
+        <v>2022</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F26" s="1">
-        <v>2022</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H26" s="1">
-        <v>2</v>
       </c>
       <c r="I26" s="1">
         <v>2</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="J26" s="1">
+        <v>2</v>
+      </c>
+      <c r="K26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K26" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1">
+      <c r="L26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1">
         <v>24</v>
       </c>
-      <c r="N26" s="1">
+      <c r="O26" s="1">
         <v>10</v>
       </c>
-      <c r="O26" s="1" t="s">
+      <c r="P26" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="P26" s="1">
+      <c r="Q26" s="1">
         <v>400</v>
       </c>
-      <c r="Q26" s="1">
+      <c r="R26" s="1">
         <v>2</v>
       </c>
-      <c r="R26" s="1">
+      <c r="S26" s="1">
         <v>0</v>
       </c>
-      <c r="S26" s="1">
+      <c r="T26" s="1">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="T26" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="U26" s="1"/>
+      <c r="U26" s="1" t="s">
+        <v>140</v>
+      </c>
       <c r="V26" s="1"/>
-      <c r="W26" s="8">
+      <c r="W26" s="1"/>
+      <c r="X26" s="9">
         <v>1</v>
       </c>
-      <c r="X26" s="9">
+      <c r="Y26" s="13">
         <v>0</v>
       </c>
-      <c r="Y26" s="9">
+      <c r="Z26" s="13">
         <v>0</v>
       </c>
-      <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
-      <c r="AB26" s="1">
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1">
         <v>8</v>
       </c>
-      <c r="AC26" s="1">
+      <c r="AD26" s="1">
         <v>16</v>
       </c>
-      <c r="AD26" s="1"/>
-      <c r="AE26" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="AF26" s="1"/>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="19" t="s">
+        <v>141</v>
+      </c>
       <c r="AG26" s="1"/>
       <c r="AH26" s="1"/>
       <c r="AI26" s="1"/>
@@ -11020,89 +11086,92 @@
       <c r="KD26" s="1"/>
       <c r="KE26" s="1"/>
       <c r="KF26" s="1"/>
+      <c r="KG26" s="1"/>
     </row>
-    <row r="27" ht="15.5" spans="1:292">
+    <row r="27" ht="17.6" spans="1:293">
       <c r="A27" s="1"/>
       <c r="B27" s="1">
         <v>26</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F27" s="1">
+        <v>135</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G27" s="1">
         <v>2022</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H27" s="1">
-        <v>3</v>
+      <c r="H27" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="I27" s="1">
         <v>3</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="J27" s="1">
+        <v>3</v>
+      </c>
+      <c r="K27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K27" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1">
+      <c r="L27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1">
         <v>25</v>
       </c>
-      <c r="N27" s="1">
+      <c r="O27" s="1">
         <v>10</v>
       </c>
-      <c r="O27" s="1" t="s">
+      <c r="P27" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="P27" s="1">
+      <c r="Q27" s="1">
         <v>400</v>
       </c>
-      <c r="Q27" s="1">
+      <c r="R27" s="1">
         <v>2</v>
       </c>
-      <c r="R27" s="1">
+      <c r="S27" s="1">
         <v>0</v>
       </c>
-      <c r="S27" s="1">
+      <c r="T27" s="1">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="T27" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="U27" s="1"/>
+      <c r="U27" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="V27" s="1"/>
-      <c r="W27" s="8">
+      <c r="W27" s="1"/>
+      <c r="X27" s="9">
         <v>1</v>
       </c>
-      <c r="X27" s="9">
+      <c r="Y27" s="13">
         <v>0</v>
       </c>
-      <c r="Y27" s="9">
+      <c r="Z27" s="13">
         <v>0</v>
       </c>
-      <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
-      <c r="AB27" s="1">
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1">
         <v>7</v>
       </c>
-      <c r="AC27" s="1">
+      <c r="AD27" s="1">
         <v>18</v>
       </c>
-      <c r="AD27" s="1"/>
-      <c r="AE27" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="AF27" s="1"/>
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="19" t="s">
+        <v>144</v>
+      </c>
       <c r="AG27" s="1"/>
       <c r="AH27" s="1"/>
       <c r="AI27" s="1"/>
@@ -11363,91 +11432,94 @@
       <c r="KD27" s="1"/>
       <c r="KE27" s="1"/>
       <c r="KF27" s="1"/>
+      <c r="KG27" s="1"/>
     </row>
-    <row r="28" ht="15.5" spans="1:292">
+    <row r="28" ht="17.6" spans="1:293">
       <c r="A28" s="1"/>
       <c r="B28" s="1">
         <v>27</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F28" s="1">
+        <v>146</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G28" s="1">
         <v>2021</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="H28" s="1">
-        <v>1</v>
+      <c r="H28" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="I28" s="1">
         <v>1</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="J28" s="1">
+        <v>1</v>
+      </c>
+      <c r="K28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K28" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="L28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M28" s="1">
+        <v>70</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N28" s="1">
         <v>105</v>
       </c>
-      <c r="N28" s="1">
+      <c r="O28" s="1">
         <v>12</v>
       </c>
-      <c r="O28" s="1" t="s">
+      <c r="P28" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="P28" s="1">
+      <c r="Q28" s="1">
         <v>360</v>
       </c>
-      <c r="Q28" s="1">
+      <c r="R28" s="1">
         <v>3</v>
       </c>
-      <c r="R28" s="1">
+      <c r="S28" s="1">
         <v>0</v>
       </c>
-      <c r="S28" s="1">
+      <c r="T28" s="1">
         <f t="shared" si="2"/>
         <v>105</v>
       </c>
-      <c r="T28" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="U28" s="1"/>
+      <c r="U28" s="11" t="s">
+        <v>149</v>
+      </c>
       <c r="V28" s="1"/>
-      <c r="W28" s="8">
+      <c r="W28" s="1"/>
+      <c r="X28" s="9">
         <v>1</v>
       </c>
-      <c r="X28" s="9">
+      <c r="Y28" s="13">
         <v>0</v>
       </c>
-      <c r="Y28" s="9">
+      <c r="Z28" s="13">
         <v>0</v>
       </c>
-      <c r="Z28" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="AA28" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB28" s="1">
+        <v>77</v>
+      </c>
+      <c r="AB28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC28" s="1">
         <v>51</v>
       </c>
-      <c r="AC28" s="1">
+      <c r="AD28" s="1">
         <v>54</v>
       </c>
-      <c r="AD28" s="1"/>
       <c r="AE28" s="1"/>
       <c r="AF28" s="1"/>
       <c r="AG28" s="1"/>
@@ -11710,89 +11782,92 @@
       <c r="KD28" s="1"/>
       <c r="KE28" s="1"/>
       <c r="KF28" s="1"/>
+      <c r="KG28" s="1"/>
     </row>
-    <row r="29" ht="17" customHeight="1" spans="1:292">
+    <row r="29" ht="17" customHeight="1" spans="1:293">
       <c r="A29" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B29" s="1">
         <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F29" s="1">
+        <v>151</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G29" s="1">
         <v>2023</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H29" s="1">
-        <v>1</v>
+      <c r="H29" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="I29" s="1">
         <v>1</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="J29" s="1">
+        <v>1</v>
+      </c>
+      <c r="K29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M29" s="1">
+      <c r="L29" s="1"/>
+      <c r="M29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N29" s="1">
         <v>302</v>
       </c>
-      <c r="N29" s="1">
+      <c r="O29" s="1">
         <v>1</v>
       </c>
-      <c r="O29" s="1" t="s">
+      <c r="P29" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="P29" s="1">
+      <c r="Q29" s="1">
         <v>64</v>
       </c>
-      <c r="Q29" s="1" t="s">
+      <c r="R29" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="R29" s="1">
+      <c r="S29" s="1">
         <v>3</v>
       </c>
-      <c r="S29" s="1">
+      <c r="T29" s="1">
         <f t="shared" si="2"/>
         <v>299</v>
       </c>
-      <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
-      <c r="W29" s="8">
+      <c r="W29" s="1"/>
+      <c r="X29" s="9">
         <v>1</v>
       </c>
-      <c r="X29" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y29" s="9">
+      <c r="Y29" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z29" s="13">
         <v>0</v>
       </c>
-      <c r="Z29" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="AA29" s="1" t="s">
+      <c r="AA29" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB29" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AB29" s="1">
+      <c r="AC29" s="1">
         <v>132</v>
       </c>
-      <c r="AC29" s="1">
+      <c r="AD29" s="1">
         <v>161</v>
       </c>
-      <c r="AD29" s="1"/>
       <c r="AE29" s="1"/>
       <c r="AF29" s="1"/>
       <c r="AG29" s="1"/>
@@ -12055,91 +12130,94 @@
       <c r="KD29" s="1"/>
       <c r="KE29" s="1"/>
       <c r="KF29" s="1"/>
+      <c r="KG29" s="1"/>
     </row>
-    <row r="30" ht="15.5" spans="1:292">
+    <row r="30" ht="17.6" spans="1:293">
       <c r="A30" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B30" s="1">
         <v>29</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F30" s="1">
+        <v>157</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G30" s="1">
         <v>2023</v>
       </c>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1">
+      <c r="H30" s="1"/>
+      <c r="I30" s="1">
         <v>1</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="J30" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K30" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M30" s="1">
+      <c r="L30" s="1"/>
+      <c r="M30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N30" s="1">
         <v>23</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="O30" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="P30" s="1">
+      <c r="P30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q30" s="1">
         <v>90</v>
       </c>
-      <c r="Q30" s="1">
+      <c r="R30" s="1">
         <v>2</v>
       </c>
-      <c r="R30" s="1">
+      <c r="S30" s="1">
         <v>1</v>
       </c>
-      <c r="S30" s="1">
+      <c r="T30" s="1">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="T30" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="W30" s="8">
+      <c r="U30" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="X30" s="9">
         <v>1</v>
       </c>
-      <c r="X30" s="9">
+      <c r="Y30" s="13">
         <v>0</v>
       </c>
-      <c r="Y30" s="8">
+      <c r="Z30" s="9">
         <v>1</v>
       </c>
-      <c r="Z30" s="18"/>
-      <c r="AA30" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB30" s="1"/>
+      <c r="AA30" s="14"/>
+      <c r="AB30" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="AC30" s="1"/>
-      <c r="AD30" s="1" t="s">
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE30" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF30" s="1"/>
+      <c r="AF30" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="AG30" s="1"/>
       <c r="AH30" s="1"/>
       <c r="AI30" s="1"/>
@@ -12400,57 +12478,60 @@
       <c r="KD30" s="1"/>
       <c r="KE30" s="1"/>
       <c r="KF30" s="1"/>
+      <c r="KG30" s="1"/>
     </row>
-    <row r="31" ht="15.5" spans="1:292">
+    <row r="31" ht="17.6" spans="1:293">
       <c r="A31" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B31" s="1">
         <v>30</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F31" s="1">
+        <v>164</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G31" s="1">
         <v>2014</v>
       </c>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1">
+      <c r="H31" s="1"/>
+      <c r="I31" s="1">
         <v>1</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="J31" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="K31" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K31" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="L31" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M31" s="1">
+        <v>70</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N31" s="1">
         <v>24</v>
       </c>
-      <c r="N31" s="1"/>
       <c r="O31" s="1"/>
-      <c r="P31" s="1">
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1">
         <v>40</v>
       </c>
-      <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
-      <c r="S31" s="1">
+      <c r="S31" s="1"/>
+      <c r="T31" s="1">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="T31" s="1"/>
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
@@ -12723,57 +12804,60 @@
       <c r="KD31" s="1"/>
       <c r="KE31" s="1"/>
       <c r="KF31" s="1"/>
+      <c r="KG31" s="1"/>
     </row>
-    <row r="32" ht="15.5" spans="1:292">
+    <row r="32" ht="17.6" spans="1:293">
       <c r="A32" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B32" s="1">
         <v>31</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F32" s="1">
+      <c r="G32" s="1">
         <v>2015</v>
       </c>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1">
+      <c r="H32" s="1"/>
+      <c r="I32" s="1">
         <v>1</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="J32" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="K32" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K32" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="L32" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M32" s="1">
+        <v>70</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N32" s="1">
         <v>20</v>
       </c>
-      <c r="N32" s="1"/>
       <c r="O32" s="1"/>
-      <c r="P32" s="1">
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1">
         <v>40</v>
       </c>
-      <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
-      <c r="S32" s="1">
+      <c r="S32" s="1"/>
+      <c r="T32" s="1">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="T32" s="1"/>
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
@@ -13046,57 +13130,60 @@
       <c r="KD32" s="1"/>
       <c r="KE32" s="1"/>
       <c r="KF32" s="1"/>
+      <c r="KG32" s="1"/>
     </row>
-    <row r="33" ht="15.5" spans="1:292">
+    <row r="33" ht="17.6" spans="1:293">
       <c r="A33" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B33" s="1">
         <v>32</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F33" s="1">
+      <c r="G33" s="1">
         <v>2015</v>
       </c>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1">
+      <c r="H33" s="1"/>
+      <c r="I33" s="1">
         <v>2</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="J33" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J33" s="1" t="s">
+      <c r="K33" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K33" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="L33" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M33" s="1">
+        <v>70</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N33" s="1">
         <v>21</v>
       </c>
-      <c r="N33" s="1"/>
       <c r="O33" s="1"/>
-      <c r="P33" s="1">
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1">
         <v>40</v>
       </c>
-      <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
-      <c r="S33" s="1">
+      <c r="S33" s="1"/>
+      <c r="T33" s="1">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="T33" s="1"/>
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
@@ -13369,62 +13456,65 @@
       <c r="KD33" s="1"/>
       <c r="KE33" s="1"/>
       <c r="KF33" s="1"/>
+      <c r="KG33" s="1"/>
     </row>
-    <row r="34" ht="15.5" spans="1:292">
+    <row r="34" ht="17.6" spans="1:293">
       <c r="A34" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B34" s="1">
         <v>33</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F34" s="1">
+        <v>171</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G34" s="1">
         <v>2014</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="H34" s="1">
-        <v>1</v>
+      <c r="H34" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="I34" s="1">
         <v>1</v>
       </c>
-      <c r="J34" s="1" t="s">
+      <c r="J34" s="1">
+        <v>1</v>
+      </c>
+      <c r="K34" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K34" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="L34" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M34" s="1">
+        <v>174</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N34" s="1">
         <v>24</v>
       </c>
-      <c r="N34" s="1"/>
       <c r="O34" s="1"/>
-      <c r="P34" s="1">
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1">
         <v>60</v>
       </c>
-      <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
-      <c r="S34" s="1">
+      <c r="S34" s="1"/>
+      <c r="T34" s="1">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="T34" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="U34" s="1"/>
+      <c r="U34" s="1" t="s">
+        <v>175</v>
+      </c>
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
@@ -13696,66 +13786,69 @@
       <c r="KD34" s="1"/>
       <c r="KE34" s="1"/>
       <c r="KF34" s="1"/>
+      <c r="KG34" s="1"/>
     </row>
-    <row r="35" ht="15.5" spans="1:292">
+    <row r="35" ht="17.6" spans="1:293">
       <c r="A35" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B35" s="1">
         <v>34</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F35" s="1">
+        <v>171</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G35" s="1">
         <v>2014</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="H35" s="1">
-        <v>2</v>
+      <c r="H35" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="I35" s="1">
         <v>2</v>
       </c>
-      <c r="J35" s="1" t="s">
+      <c r="J35" s="1">
+        <v>2</v>
+      </c>
+      <c r="K35" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K35" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="L35" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M35" s="1">
+        <v>174</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N35" s="1">
         <v>18</v>
       </c>
-      <c r="N35" s="1"/>
       <c r="O35" s="1"/>
-      <c r="P35" s="1">
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1">
         <v>60</v>
       </c>
-      <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
-      <c r="S35" s="1">
+      <c r="S35" s="1"/>
+      <c r="T35" s="1">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="T35" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="U35" s="1"/>
+      <c r="U35" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
-      <c r="X35" s="12"/>
-      <c r="Y35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="15"/>
       <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
@@ -14023,62 +14116,65 @@
       <c r="KD35" s="1"/>
       <c r="KE35" s="1"/>
       <c r="KF35" s="1"/>
+      <c r="KG35" s="1"/>
     </row>
-    <row r="36" ht="15.5" spans="1:292">
+    <row r="36" ht="17.6" spans="1:293">
       <c r="A36" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B36" s="1">
         <v>35</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F36" s="1">
+        <v>171</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G36" s="1">
         <v>2014</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="H36" s="1">
-        <v>3</v>
+      <c r="H36" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="I36" s="1">
         <v>3</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="J36" s="1">
+        <v>3</v>
+      </c>
+      <c r="K36" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K36" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="L36" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M36" s="1">
+        <v>174</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N36" s="1">
         <v>22</v>
       </c>
-      <c r="N36" s="1"/>
       <c r="O36" s="1"/>
-      <c r="P36" s="1">
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1">
         <v>60</v>
       </c>
-      <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
-      <c r="S36" s="1">
+      <c r="S36" s="1"/>
+      <c r="T36" s="1">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="T36" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="U36" s="1"/>
+      <c r="U36" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
@@ -14350,62 +14446,65 @@
       <c r="KD36" s="1"/>
       <c r="KE36" s="1"/>
       <c r="KF36" s="1"/>
+      <c r="KG36" s="1"/>
     </row>
-    <row r="37" ht="15.5" spans="1:292">
+    <row r="37" ht="17.6" spans="1:293">
       <c r="A37" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B37" s="1">
         <v>36</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F37" s="1">
+        <v>171</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G37" s="1">
         <v>2014</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="H37" s="1">
-        <v>4</v>
+      <c r="H37" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="I37" s="1">
         <v>4</v>
       </c>
-      <c r="J37" s="1" t="s">
+      <c r="J37" s="1">
+        <v>4</v>
+      </c>
+      <c r="K37" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K37" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="L37" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M37" s="1">
+        <v>174</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N37" s="1">
         <v>20</v>
       </c>
-      <c r="N37" s="1"/>
       <c r="O37" s="1"/>
-      <c r="P37" s="1">
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1">
         <v>60</v>
       </c>
-      <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
-      <c r="S37" s="1">
+      <c r="S37" s="1"/>
+      <c r="T37" s="1">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="T37" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="U37" s="1"/>
+      <c r="U37" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
@@ -14677,89 +14776,92 @@
       <c r="KD37" s="1"/>
       <c r="KE37" s="1"/>
       <c r="KF37" s="1"/>
+      <c r="KG37" s="1"/>
     </row>
-    <row r="38" ht="15.5" spans="1:292">
+    <row r="38" ht="17.6" spans="1:293">
       <c r="A38" s="1"/>
       <c r="B38" s="1">
         <v>37</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="F38" s="1">
+        <v>186</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G38" s="1">
         <v>2023</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="H38" s="1">
-        <v>1</v>
+      <c r="H38" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="I38" s="1">
         <v>1</v>
       </c>
-      <c r="J38" s="1" t="s">
+      <c r="J38" s="1">
+        <v>1</v>
+      </c>
+      <c r="K38" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M38" s="1">
+      <c r="L38" s="1"/>
+      <c r="M38" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N38" s="1">
         <v>40</v>
       </c>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1">
+      <c r="O38" s="1"/>
+      <c r="P38" s="1">
         <v>24</v>
       </c>
-      <c r="P38" s="1">
+      <c r="Q38" s="1">
         <v>240</v>
       </c>
-      <c r="Q38" s="1">
+      <c r="R38" s="1">
         <v>4</v>
       </c>
-      <c r="R38" s="1">
+      <c r="S38" s="1">
         <v>3</v>
       </c>
-      <c r="S38" s="1">
+      <c r="T38" s="1">
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="T38" s="1"/>
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
-      <c r="W38" s="8">
+      <c r="W38" s="1"/>
+      <c r="X38" s="9">
         <v>1</v>
       </c>
-      <c r="X38" s="13">
+      <c r="Y38" s="16">
         <v>0</v>
       </c>
-      <c r="Y38" s="8">
+      <c r="Z38" s="9">
         <v>1</v>
       </c>
-      <c r="Z38" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="AA38" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AB38" s="1">
+        <v>77</v>
+      </c>
+      <c r="AB38" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC38" s="1">
         <v>8</v>
       </c>
-      <c r="AC38" s="1">
+      <c r="AD38" s="1">
         <v>32</v>
       </c>
-      <c r="AD38" s="1"/>
-      <c r="AE38" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="AF38" s="1"/>
+      <c r="AE38" s="1"/>
+      <c r="AF38" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="AG38" s="1"/>
       <c r="AH38" s="1"/>
       <c r="AI38" s="1"/>
@@ -15020,87 +15122,90 @@
       <c r="KD38" s="1"/>
       <c r="KE38" s="1"/>
       <c r="KF38" s="1"/>
+      <c r="KG38" s="1"/>
     </row>
-    <row r="39" ht="15.5" spans="1:292">
+    <row r="39" ht="17.6" spans="1:293">
       <c r="A39" s="1"/>
       <c r="B39" s="1">
         <v>38</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F39" s="1">
+        <v>191</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G39" s="1">
         <v>2023</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="H39" s="1">
-        <v>1</v>
+      <c r="H39" s="1" t="s">
+        <v>193</v>
       </c>
       <c r="I39" s="1">
         <v>1</v>
       </c>
-      <c r="J39" s="1" t="s">
+      <c r="J39" s="1">
+        <v>1</v>
+      </c>
+      <c r="K39" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K39" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="L39" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M39" s="1">
+        <v>70</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N39" s="1">
         <v>144</v>
-      </c>
-      <c r="N39" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="O39" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="P39" s="1">
+      <c r="P39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q39" s="1">
         <v>60</v>
-      </c>
-      <c r="Q39" s="1">
-        <v>2</v>
       </c>
       <c r="R39" s="1">
         <v>2</v>
       </c>
       <c r="S39" s="1">
-        <f t="shared" ref="S39:S48" si="3">M39-R39</f>
+        <v>2</v>
+      </c>
+      <c r="T39" s="1">
+        <f t="shared" ref="T39:T48" si="3">N39-S39</f>
         <v>142</v>
       </c>
-      <c r="T39" s="1"/>
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
-      <c r="W39" s="8">
+      <c r="W39" s="1"/>
+      <c r="X39" s="9">
         <v>1</v>
       </c>
-      <c r="X39" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y39" s="13">
+      <c r="Y39" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z39" s="16">
         <v>0</v>
       </c>
-      <c r="Z39" s="1"/>
-      <c r="AA39" s="1" t="s">
+      <c r="AA39" s="1"/>
+      <c r="AB39" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AB39" s="1">
+      <c r="AC39" s="1">
         <v>31</v>
       </c>
-      <c r="AC39" s="1">
+      <c r="AD39" s="1">
         <v>112</v>
       </c>
-      <c r="AD39" s="1"/>
       <c r="AE39" s="1"/>
       <c r="AF39" s="1"/>
       <c r="AG39" s="1"/>
@@ -15363,93 +15468,96 @@
       <c r="KD39" s="1"/>
       <c r="KE39" s="1"/>
       <c r="KF39" s="1"/>
+      <c r="KG39" s="1"/>
     </row>
-    <row r="40" ht="15.5" spans="1:292">
+    <row r="40" ht="17.6" spans="1:293">
       <c r="A40" s="1"/>
       <c r="B40" s="1">
         <v>39</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="F40" s="1">
+        <v>195</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G40" s="1">
         <v>2021</v>
       </c>
-      <c r="G40" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H40" s="1">
-        <v>1</v>
+      <c r="H40" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="I40" s="1">
         <v>1</v>
       </c>
-      <c r="J40" s="1" t="s">
+      <c r="J40" s="1">
+        <v>1</v>
+      </c>
+      <c r="K40" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K40" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="L40" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M40" s="1">
+        <v>70</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N40" s="1">
         <v>109</v>
-      </c>
-      <c r="N40" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="O40" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="P40" s="1">
+      <c r="P40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q40" s="1">
         <v>360</v>
       </c>
-      <c r="Q40" s="1">
+      <c r="R40" s="1">
         <v>6</v>
       </c>
-      <c r="R40" s="1">
+      <c r="S40" s="1">
         <v>1</v>
       </c>
-      <c r="S40" s="1">
+      <c r="T40" s="1">
         <f t="shared" si="3"/>
         <v>108</v>
       </c>
-      <c r="T40" s="1" t="s">
-        <v>195</v>
-      </c>
       <c r="U40" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="V40" s="1"/>
-      <c r="W40" s="8">
+        <v>197</v>
+      </c>
+      <c r="V40" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="W40" s="1"/>
+      <c r="X40" s="9">
         <v>1</v>
       </c>
-      <c r="X40" s="13">
+      <c r="Y40" s="16">
         <v>0</v>
       </c>
-      <c r="Y40" s="13">
+      <c r="Z40" s="16">
         <v>0</v>
       </c>
-      <c r="Z40" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="AA40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB40" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AB40" s="1">
+      <c r="AC40" s="1">
         <v>50</v>
       </c>
-      <c r="AC40" s="1">
+      <c r="AD40" s="1">
         <v>59</v>
       </c>
-      <c r="AD40" s="1"/>
       <c r="AE40" s="1"/>
       <c r="AF40" s="1"/>
       <c r="AG40" s="1"/>
@@ -15712,93 +15820,94 @@
       <c r="KD40" s="1"/>
       <c r="KE40" s="1"/>
       <c r="KF40" s="1"/>
+      <c r="KG40" s="1"/>
     </row>
-    <row r="41" ht="15.5" spans="1:292">
+    <row r="41" ht="17.6" spans="1:293">
       <c r="A41" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B41" s="1">
         <v>40</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="F41" s="1">
+        <v>201</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G41" s="1">
         <v>2023</v>
       </c>
-      <c r="G41" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H41" s="1">
-        <v>1</v>
+      <c r="H41" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="I41" s="1">
         <v>1</v>
       </c>
-      <c r="J41" s="1" t="s">
+      <c r="J41" s="1">
+        <v>1</v>
+      </c>
+      <c r="K41" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K41" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1">
+      <c r="L41" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1">
         <v>40</v>
       </c>
-      <c r="N41" s="1">
+      <c r="O41" s="1">
         <v>24</v>
       </c>
-      <c r="O41" s="1">
+      <c r="P41" s="1">
         <v>1</v>
       </c>
-      <c r="P41" s="1">
+      <c r="Q41" s="1">
         <v>300</v>
-      </c>
-      <c r="Q41" s="1">
-        <v>1</v>
       </c>
       <c r="R41" s="1">
         <v>1</v>
       </c>
       <c r="S41" s="1">
+        <v>1</v>
+      </c>
+      <c r="T41" s="1">
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="T41" s="1"/>
       <c r="U41" s="1"/>
       <c r="V41" s="1"/>
-      <c r="W41" s="8">
+      <c r="W41" s="1"/>
+      <c r="X41" s="9">
         <v>1</v>
       </c>
-      <c r="X41" s="13">
+      <c r="Y41" s="16">
         <v>0</v>
       </c>
-      <c r="Y41" s="13">
+      <c r="Z41" s="16">
         <v>0</v>
       </c>
-      <c r="Z41" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="AA41" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AB41" s="1">
+        <v>77</v>
+      </c>
+      <c r="AB41" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC41" s="1">
         <v>8</v>
       </c>
-      <c r="AC41" s="1">
+      <c r="AD41" s="1">
         <v>32</v>
       </c>
-      <c r="AD41" s="1"/>
-      <c r="AE41" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="AF41" s="1"/>
+      <c r="AE41" s="1"/>
+      <c r="AF41" s="1" t="s">
+        <v>203</v>
+      </c>
       <c r="AG41" s="1"/>
       <c r="AH41" s="1"/>
       <c r="AI41" s="1"/>
@@ -16059,93 +16168,96 @@
       <c r="KD41" s="1"/>
       <c r="KE41" s="1"/>
       <c r="KF41" s="1"/>
+      <c r="KG41" s="1"/>
     </row>
-    <row r="42" ht="15.5" spans="1:292">
+    <row r="42" ht="17.6" spans="1:293">
       <c r="A42" s="1"/>
       <c r="B42" s="1">
         <v>41</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="F42" s="1">
+        <v>205</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G42" s="1">
         <v>2022</v>
       </c>
-      <c r="G42" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="H42" s="1">
-        <v>1</v>
+      <c r="H42" s="1" t="s">
+        <v>207</v>
       </c>
       <c r="I42" s="1">
         <v>1</v>
       </c>
-      <c r="J42" s="1" t="s">
+      <c r="J42" s="1">
+        <v>1</v>
+      </c>
+      <c r="K42" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M42" s="1">
+      <c r="L42" s="1"/>
+      <c r="M42" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N42" s="1">
         <v>30</v>
       </c>
-      <c r="N42" s="1">
+      <c r="O42" s="1">
         <v>24</v>
       </c>
-      <c r="O42" s="1">
+      <c r="P42" s="1">
         <v>1</v>
       </c>
-      <c r="P42" s="1">
+      <c r="Q42" s="1">
         <v>240</v>
       </c>
-      <c r="Q42" s="1">
+      <c r="R42" s="1">
         <v>2</v>
       </c>
-      <c r="R42" s="1">
+      <c r="S42" s="1">
         <v>3</v>
       </c>
-      <c r="S42" s="1">
+      <c r="T42" s="1">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="T42" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="U42" s="1"/>
+      <c r="U42" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="V42" s="1"/>
-      <c r="W42" s="8">
+      <c r="W42" s="1"/>
+      <c r="X42" s="9">
         <v>1</v>
       </c>
-      <c r="X42" s="13">
+      <c r="Y42" s="16">
         <v>0</v>
       </c>
-      <c r="Y42" s="13">
+      <c r="Z42" s="16">
         <v>0</v>
       </c>
-      <c r="Z42" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="AA42" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="AB42" s="1">
+        <v>209</v>
+      </c>
+      <c r="AB42" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC42" s="1">
         <v>14</v>
       </c>
-      <c r="AC42" s="1">
+      <c r="AD42" s="1">
         <v>16</v>
       </c>
-      <c r="AD42" s="1"/>
-      <c r="AE42" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="AF42" s="1"/>
+      <c r="AE42" s="1"/>
+      <c r="AF42" s="1" t="s">
+        <v>211</v>
+      </c>
       <c r="AG42" s="1"/>
       <c r="AH42" s="1"/>
       <c r="AI42" s="1"/>
@@ -16406,93 +16518,96 @@
       <c r="KD42" s="1"/>
       <c r="KE42" s="1"/>
       <c r="KF42" s="1"/>
+      <c r="KG42" s="1"/>
     </row>
-    <row r="43" ht="15.5" spans="1:292">
+    <row r="43" ht="17.6" spans="1:293">
       <c r="A43" s="1"/>
       <c r="B43" s="1">
         <v>42</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="F43" s="1">
+        <v>205</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G43" s="1">
         <v>2022</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="H43" s="1">
-        <v>2</v>
+      <c r="H43" s="1" t="s">
+        <v>207</v>
       </c>
       <c r="I43" s="1">
         <v>2</v>
       </c>
-      <c r="J43" s="1" t="s">
+      <c r="J43" s="1">
+        <v>2</v>
+      </c>
+      <c r="K43" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M43" s="1">
+      <c r="L43" s="1"/>
+      <c r="M43" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N43" s="1">
         <v>104</v>
       </c>
-      <c r="N43" s="1">
+      <c r="O43" s="1">
         <v>24</v>
       </c>
-      <c r="O43" s="1">
+      <c r="P43" s="1">
         <v>1</v>
       </c>
-      <c r="P43" s="1">
+      <c r="Q43" s="1">
         <v>240</v>
-      </c>
-      <c r="Q43" s="1">
-        <v>2</v>
       </c>
       <c r="R43" s="1">
         <v>2</v>
       </c>
       <c r="S43" s="1">
+        <v>2</v>
+      </c>
+      <c r="T43" s="1">
         <f t="shared" si="3"/>
         <v>102</v>
       </c>
-      <c r="T43" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="U43" s="1"/>
+      <c r="U43" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="V43" s="1"/>
-      <c r="W43" s="8">
+      <c r="W43" s="1"/>
+      <c r="X43" s="9">
         <v>1</v>
       </c>
-      <c r="X43" s="13">
+      <c r="Y43" s="16">
         <v>0</v>
       </c>
-      <c r="Y43" s="13">
+      <c r="Z43" s="16">
         <v>0</v>
       </c>
-      <c r="Z43" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="AA43" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="AB43" s="1">
+        <v>209</v>
+      </c>
+      <c r="AB43" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC43" s="1">
         <v>14</v>
       </c>
-      <c r="AC43" s="1">
+      <c r="AD43" s="1">
         <v>90</v>
       </c>
-      <c r="AD43" s="1"/>
-      <c r="AE43" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="AF43" s="1"/>
+      <c r="AE43" s="1"/>
+      <c r="AF43" s="1" t="s">
+        <v>211</v>
+      </c>
       <c r="AG43" s="1"/>
       <c r="AH43" s="1"/>
       <c r="AI43" s="1"/>
@@ -16753,90 +16868,93 @@
       <c r="KD43" s="1"/>
       <c r="KE43" s="1"/>
       <c r="KF43" s="1"/>
+      <c r="KG43" s="1"/>
     </row>
-    <row r="44" ht="15.5" spans="1:292">
+    <row r="44" ht="17.6" spans="1:293">
       <c r="A44" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B44" s="1">
         <v>43</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="F44" s="1">
+        <v>215</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G44" s="1">
         <v>2022</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="H44" s="1">
-        <v>1</v>
+      <c r="H44" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="I44" s="1">
         <v>1</v>
       </c>
-      <c r="J44" s="1" t="s">
+      <c r="J44" s="1">
+        <v>1</v>
+      </c>
+      <c r="K44" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K44" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="L44" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M44" s="1">
+        <v>70</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N44" s="1">
         <v>328</v>
-      </c>
-      <c r="N44" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="O44" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="P44" s="1">
+      <c r="P44" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q44" s="1">
         <v>360</v>
       </c>
-      <c r="Q44" s="1">
+      <c r="R44" s="1">
         <v>3</v>
       </c>
-      <c r="R44" s="1">
+      <c r="S44" s="1">
         <v>40</v>
       </c>
-      <c r="S44" s="1">
+      <c r="T44" s="1">
         <f t="shared" si="3"/>
         <v>288</v>
       </c>
-      <c r="T44" s="1"/>
       <c r="U44" s="1"/>
       <c r="V44" s="1"/>
-      <c r="W44" s="8">
+      <c r="W44" s="1"/>
+      <c r="X44" s="9">
         <v>1</v>
       </c>
-      <c r="X44" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y44" s="13">
+      <c r="Y44" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z44" s="16">
         <v>0</v>
       </c>
-      <c r="Z44" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="AA44" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB44" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AB44" s="1"/>
       <c r="AC44" s="1"/>
-      <c r="AD44" s="1" t="s">
+      <c r="AD44" s="1"/>
+      <c r="AE44" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE44" s="1"/>
       <c r="AF44" s="1"/>
       <c r="AG44" s="1"/>
       <c r="AH44" s="1"/>
@@ -17098,93 +17216,94 @@
       <c r="KD44" s="1"/>
       <c r="KE44" s="1"/>
       <c r="KF44" s="1"/>
+      <c r="KG44" s="1"/>
     </row>
-    <row r="45" ht="15.5" spans="1:292">
+    <row r="45" ht="17.6" spans="1:293">
       <c r="A45" s="1"/>
       <c r="B45" s="1">
         <v>44</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F45" s="1">
+        <v>219</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G45" s="1">
         <v>2020</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H45" s="1">
-        <v>1</v>
+      <c r="H45" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="I45" s="1">
         <v>1</v>
       </c>
-      <c r="J45" s="1" t="s">
+      <c r="J45" s="1">
+        <v>1</v>
+      </c>
+      <c r="K45" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K45" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="L45" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="M45" s="1">
+        <v>70</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N45" s="1">
         <v>23</v>
       </c>
-      <c r="N45" s="1">
+      <c r="O45" s="1">
         <v>24</v>
       </c>
-      <c r="O45" s="1">
+      <c r="P45" s="1">
         <v>1</v>
       </c>
-      <c r="P45" s="1">
+      <c r="Q45" s="1">
         <v>360</v>
       </c>
-      <c r="Q45" s="1">
+      <c r="R45" s="1">
         <v>3</v>
       </c>
-      <c r="R45" s="1">
+      <c r="S45" s="1">
         <v>5</v>
       </c>
-      <c r="S45" s="1">
+      <c r="T45" s="1">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="T45" s="1"/>
       <c r="U45" s="1"/>
       <c r="V45" s="1"/>
-      <c r="W45" s="8">
+      <c r="W45" s="1"/>
+      <c r="X45" s="9">
         <v>1</v>
       </c>
-      <c r="X45" s="13">
+      <c r="Y45" s="16">
         <v>0</v>
       </c>
-      <c r="Y45" s="13">
+      <c r="Z45" s="16">
         <v>0</v>
       </c>
-      <c r="Z45" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="AA45" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AB45" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AB45" s="1">
+      <c r="AC45" s="1">
         <v>7</v>
       </c>
-      <c r="AC45" s="1">
+      <c r="AD45" s="1">
         <v>11</v>
       </c>
-      <c r="AD45" s="1"/>
-      <c r="AE45" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="AF45" s="1"/>
+      <c r="AE45" s="1"/>
+      <c r="AF45" s="1" t="s">
+        <v>221</v>
+      </c>
       <c r="AG45" s="1"/>
       <c r="AH45" s="1"/>
       <c r="AI45" s="1"/>
@@ -17445,93 +17564,94 @@
       <c r="KD45" s="1"/>
       <c r="KE45" s="1"/>
       <c r="KF45" s="1"/>
+      <c r="KG45" s="1"/>
     </row>
-    <row r="46" ht="15.5" spans="1:292">
+    <row r="46" ht="17.6" spans="1:293">
       <c r="A46" s="1"/>
       <c r="B46" s="1">
         <v>45</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F46" s="1">
+        <v>219</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G46" s="1">
         <v>2020</v>
       </c>
-      <c r="G46" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H46" s="1">
-        <v>1</v>
+      <c r="H46" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="I46" s="1">
         <v>1</v>
       </c>
-      <c r="J46" s="1" t="s">
+      <c r="J46" s="1">
+        <v>1</v>
+      </c>
+      <c r="K46" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K46" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="L46" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="M46" s="1">
+        <v>70</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N46" s="1">
         <v>21</v>
       </c>
-      <c r="N46" s="1">
+      <c r="O46" s="1">
         <v>24</v>
       </c>
-      <c r="O46" s="1">
+      <c r="P46" s="1">
         <v>1</v>
       </c>
-      <c r="P46" s="1">
+      <c r="Q46" s="1">
         <v>360</v>
-      </c>
-      <c r="Q46" s="1">
-        <v>3</v>
       </c>
       <c r="R46" s="1">
         <v>3</v>
       </c>
       <c r="S46" s="1">
+        <v>3</v>
+      </c>
+      <c r="T46" s="1">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="T46" s="1"/>
       <c r="U46" s="1"/>
       <c r="V46" s="1"/>
-      <c r="W46" s="8">
+      <c r="W46" s="1"/>
+      <c r="X46" s="9">
         <v>1</v>
       </c>
-      <c r="X46" s="13">
+      <c r="Y46" s="16">
         <v>0</v>
       </c>
-      <c r="Y46" s="13">
+      <c r="Z46" s="16">
         <v>0</v>
       </c>
-      <c r="Z46" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="AA46" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AB46" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AB46" s="1">
+      <c r="AC46" s="1">
         <v>6</v>
       </c>
-      <c r="AC46" s="1">
+      <c r="AD46" s="1">
         <v>12</v>
       </c>
-      <c r="AD46" s="1"/>
-      <c r="AE46" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="AF46" s="1"/>
+      <c r="AE46" s="1"/>
+      <c r="AF46" s="1" t="s">
+        <v>221</v>
+      </c>
       <c r="AG46" s="1"/>
       <c r="AH46" s="1"/>
       <c r="AI46" s="1"/>
@@ -17792,93 +17912,94 @@
       <c r="KD46" s="1"/>
       <c r="KE46" s="1"/>
       <c r="KF46" s="1"/>
+      <c r="KG46" s="1"/>
     </row>
-    <row r="47" ht="15.5" spans="1:292">
+    <row r="47" ht="17.6" spans="1:293">
       <c r="A47" s="1"/>
       <c r="B47" s="1">
         <v>46</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F47" s="1">
+        <v>219</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G47" s="1">
         <v>2020</v>
       </c>
-      <c r="G47" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H47" s="1">
-        <v>1</v>
+      <c r="H47" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="I47" s="1">
         <v>1</v>
       </c>
-      <c r="J47" s="1" t="s">
+      <c r="J47" s="1">
+        <v>1</v>
+      </c>
+      <c r="K47" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K47" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="L47" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="M47" s="1">
+        <v>70</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N47" s="1">
         <v>18</v>
       </c>
-      <c r="N47" s="1">
+      <c r="O47" s="1">
         <v>24</v>
       </c>
-      <c r="O47" s="1">
+      <c r="P47" s="1">
         <v>1</v>
       </c>
-      <c r="P47" s="1">
+      <c r="Q47" s="1">
         <v>360</v>
       </c>
-      <c r="Q47" s="1">
+      <c r="R47" s="1">
         <v>3</v>
       </c>
-      <c r="R47" s="1">
+      <c r="S47" s="1">
         <v>0</v>
       </c>
-      <c r="S47" s="1">
+      <c r="T47" s="1">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="T47" s="1"/>
       <c r="U47" s="1"/>
       <c r="V47" s="1"/>
-      <c r="W47" s="8">
+      <c r="W47" s="1"/>
+      <c r="X47" s="9">
         <v>1</v>
       </c>
-      <c r="X47" s="13">
+      <c r="Y47" s="16">
         <v>0</v>
       </c>
-      <c r="Y47" s="13">
+      <c r="Z47" s="16">
         <v>0</v>
       </c>
-      <c r="Z47" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="AA47" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AB47" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AB47" s="1">
+      <c r="AC47" s="1">
         <v>0</v>
       </c>
-      <c r="AC47" s="1">
+      <c r="AD47" s="1">
         <v>18</v>
       </c>
-      <c r="AD47" s="1"/>
-      <c r="AE47" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="AF47" s="1"/>
+      <c r="AE47" s="1"/>
+      <c r="AF47" s="1" t="s">
+        <v>221</v>
+      </c>
       <c r="AG47" s="1"/>
       <c r="AH47" s="1"/>
       <c r="AI47" s="1"/>
@@ -18139,86 +18260,89 @@
       <c r="KD47" s="1"/>
       <c r="KE47" s="1"/>
       <c r="KF47" s="1"/>
+      <c r="KG47" s="1"/>
     </row>
-    <row r="48" ht="15.5" spans="1:292">
+    <row r="48" ht="17.6" spans="1:293">
       <c r="A48" s="1"/>
       <c r="B48" s="1">
         <v>47</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F48" s="1">
+        <v>225</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G48" s="1">
         <v>2023</v>
       </c>
-      <c r="G48" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="H48" s="1">
-        <v>1</v>
+      <c r="H48" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="I48" s="1">
         <v>1</v>
       </c>
-      <c r="J48" s="1" t="s">
+      <c r="J48" s="1">
+        <v>1</v>
+      </c>
+      <c r="K48" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M48" s="1">
+      <c r="L48" s="1"/>
+      <c r="M48" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N48" s="1">
         <v>380</v>
       </c>
-      <c r="N48" s="1">
+      <c r="O48" s="1">
         <v>12</v>
       </c>
-      <c r="O48" s="1" t="s">
+      <c r="P48" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="P48" s="1">
+      <c r="Q48" s="1">
         <v>96</v>
       </c>
-      <c r="Q48" s="1" t="s">
+      <c r="R48" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="R48" s="1">
+      <c r="S48" s="1">
         <v>32</v>
       </c>
-      <c r="S48" s="1">
+      <c r="T48" s="1">
         <f t="shared" si="3"/>
         <v>348</v>
       </c>
-      <c r="T48" s="1"/>
       <c r="U48" s="1"/>
       <c r="V48" s="1"/>
-      <c r="W48" s="8">
+      <c r="W48" s="1"/>
+      <c r="X48" s="9">
         <v>1</v>
       </c>
-      <c r="X48" s="13">
+      <c r="Y48" s="16">
         <v>0</v>
       </c>
-      <c r="Y48" s="13">
+      <c r="Z48" s="16">
         <v>0</v>
       </c>
-      <c r="Z48" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="AA48" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB48" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AB48" s="1"/>
       <c r="AC48" s="1"/>
-      <c r="AD48" s="1" t="s">
+      <c r="AD48" s="1"/>
+      <c r="AE48" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE48" s="1"/>
       <c r="AF48" s="1"/>
       <c r="AG48" s="1"/>
       <c r="AH48" s="1"/>
@@ -18480,84 +18604,87 @@
       <c r="KD48" s="1"/>
       <c r="KE48" s="1"/>
       <c r="KF48" s="1"/>
+      <c r="KG48" s="1"/>
     </row>
-    <row r="49" ht="15.5" spans="1:292">
+    <row r="49" ht="17.6" spans="1:293">
       <c r="A49" s="1"/>
       <c r="B49" s="1">
         <v>48</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="F49" s="1">
+        <v>229</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G49" s="1">
         <v>2021</v>
       </c>
-      <c r="G49" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="H49" s="1">
-        <v>1</v>
+      <c r="H49" s="1" t="s">
+        <v>231</v>
       </c>
       <c r="I49" s="1">
         <v>1</v>
       </c>
-      <c r="J49" s="1" t="s">
+      <c r="J49" s="1">
+        <v>1</v>
+      </c>
+      <c r="K49" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K49" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="L49" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M49" s="1">
+        <v>70</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N49" s="1">
         <v>84</v>
       </c>
-      <c r="N49" s="1" t="s">
+      <c r="O49" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O49" s="1">
+      <c r="P49" s="1">
         <v>3</v>
       </c>
-      <c r="P49" s="1">
+      <c r="Q49" s="1">
         <v>320</v>
       </c>
-      <c r="Q49" s="1">
+      <c r="R49" s="1">
         <v>4</v>
       </c>
-      <c r="R49" s="1">
+      <c r="S49" s="1">
         <v>0</v>
       </c>
-      <c r="S49" s="1">
+      <c r="T49" s="1">
         <v>84</v>
       </c>
-      <c r="T49" s="1"/>
       <c r="U49" s="1"/>
       <c r="V49" s="1"/>
-      <c r="W49" s="8">
+      <c r="W49" s="1"/>
+      <c r="X49" s="9">
         <v>1</v>
       </c>
-      <c r="X49" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y49" s="13">
+      <c r="Y49" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z49" s="16">
         <v>0</v>
       </c>
-      <c r="Z49" s="1"/>
       <c r="AA49" s="1"/>
-      <c r="AB49" s="1">
+      <c r="AB49" s="1"/>
+      <c r="AC49" s="1">
         <v>13</v>
       </c>
-      <c r="AC49" s="1">
+      <c r="AD49" s="1">
         <v>70</v>
       </c>
-      <c r="AD49" s="1"/>
       <c r="AE49" s="1"/>
       <c r="AF49" s="1"/>
       <c r="AG49" s="1"/>
@@ -18820,88 +18947,91 @@
       <c r="KD49" s="1"/>
       <c r="KE49" s="1"/>
       <c r="KF49" s="1"/>
+      <c r="KG49" s="1"/>
     </row>
-    <row r="50" ht="15.5" spans="1:292">
+    <row r="50" ht="17.6" spans="1:293">
       <c r="A50" s="1"/>
       <c r="B50" s="1">
         <v>49</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="F50" s="1">
+        <v>233</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G50" s="1">
         <v>2023</v>
       </c>
-      <c r="G50" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="H50" s="1">
-        <v>1</v>
+      <c r="H50" s="1" t="s">
+        <v>235</v>
       </c>
       <c r="I50" s="1">
         <v>1</v>
       </c>
-      <c r="J50" s="1" t="s">
+      <c r="J50" s="1">
+        <v>1</v>
+      </c>
+      <c r="K50" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K50" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="L50" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M50" s="1">
+        <v>70</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N50" s="1">
         <v>20</v>
       </c>
-      <c r="N50" s="1">
+      <c r="O50" s="1">
         <v>12</v>
       </c>
-      <c r="O50" s="1" t="s">
+      <c r="P50" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="P50" s="1">
+      <c r="Q50" s="1">
         <v>960</v>
       </c>
-      <c r="Q50" s="1">
+      <c r="R50" s="1">
         <v>16</v>
       </c>
-      <c r="R50" s="1">
+      <c r="S50" s="1">
         <v>0</v>
       </c>
-      <c r="S50" s="1">
+      <c r="T50" s="1">
         <v>20</v>
       </c>
-      <c r="T50" s="1"/>
       <c r="U50" s="1"/>
       <c r="V50" s="1"/>
-      <c r="W50" s="8">
+      <c r="W50" s="1"/>
+      <c r="X50" s="9">
         <v>1</v>
       </c>
-      <c r="X50" s="13">
+      <c r="Y50" s="16">
         <v>0</v>
       </c>
-      <c r="Y50" s="8">
+      <c r="Z50" s="9">
         <v>1</v>
       </c>
-      <c r="Z50" s="1"/>
       <c r="AA50" s="1"/>
-      <c r="AB50" s="1">
+      <c r="AB50" s="1"/>
+      <c r="AC50" s="1">
         <v>12</v>
       </c>
-      <c r="AC50" s="1">
+      <c r="AD50" s="1">
         <v>8</v>
       </c>
-      <c r="AD50" s="1"/>
-      <c r="AE50" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="AF50" s="1"/>
+      <c r="AE50" s="1"/>
+      <c r="AF50" s="20" t="s">
+        <v>236</v>
+      </c>
       <c r="AG50" s="1"/>
       <c r="AH50" s="1"/>
       <c r="AI50" s="1"/>
@@ -19162,92 +19292,95 @@
       <c r="KD50" s="1"/>
       <c r="KE50" s="1"/>
       <c r="KF50" s="1"/>
+      <c r="KG50" s="1"/>
     </row>
-    <row r="51" ht="15.5" spans="1:292">
+    <row r="51" ht="17.6" spans="1:293">
       <c r="A51" s="1"/>
       <c r="B51" s="1">
         <v>50</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G51" s="1">
+        <v>2024</v>
+      </c>
+      <c r="H51" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F51" s="1">
-        <v>2024</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="H51" s="1">
-        <v>1</v>
       </c>
       <c r="I51" s="1">
         <v>1</v>
       </c>
-      <c r="J51" s="1" t="s">
+      <c r="J51" s="1">
+        <v>1</v>
+      </c>
+      <c r="K51" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K51" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="L51" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M51" s="1">
+        <v>70</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N51" s="1">
         <v>32</v>
       </c>
-      <c r="N51" s="1">
+      <c r="O51" s="1">
         <v>20</v>
       </c>
-      <c r="O51" s="1">
+      <c r="P51" s="1">
         <v>1</v>
       </c>
-      <c r="P51" s="1">
+      <c r="Q51" s="1">
         <v>240</v>
       </c>
-      <c r="Q51" s="1">
+      <c r="R51" s="1">
         <v>5</v>
       </c>
-      <c r="R51" s="1">
+      <c r="S51" s="1">
         <v>0</v>
       </c>
-      <c r="S51" s="1">
+      <c r="T51" s="1">
         <v>32</v>
       </c>
-      <c r="T51" s="1"/>
       <c r="U51" s="1"/>
       <c r="V51" s="1"/>
-      <c r="W51" s="8">
+      <c r="W51" s="1"/>
+      <c r="X51" s="9">
         <v>1</v>
       </c>
-      <c r="X51" s="13">
+      <c r="Y51" s="16">
         <v>0</v>
       </c>
-      <c r="Y51" s="13">
+      <c r="Z51" s="16">
         <v>0</v>
       </c>
-      <c r="Z51" s="1" t="s">
-        <v>238</v>
-      </c>
       <c r="AA51" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="AB51" s="1">
+        <v>240</v>
+      </c>
+      <c r="AB51" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AC51" s="1">
         <v>5</v>
       </c>
-      <c r="AC51" s="1">
+      <c r="AD51" s="1">
         <v>27</v>
       </c>
-      <c r="AD51" s="1"/>
-      <c r="AE51" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="AF51" s="1"/>
+      <c r="AE51" s="1"/>
+      <c r="AF51" s="20" t="s">
+        <v>242</v>
+      </c>
       <c r="AG51" s="1"/>
       <c r="AH51" s="1"/>
       <c r="AI51" s="1"/>
@@ -19508,84 +19641,87 @@
       <c r="KD51" s="1"/>
       <c r="KE51" s="1"/>
       <c r="KF51" s="1"/>
+      <c r="KG51" s="1"/>
     </row>
-    <row r="52" ht="15.5" spans="1:292">
+    <row r="52" ht="18" spans="1:293">
       <c r="A52" s="1"/>
       <c r="B52" s="1">
         <v>51</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="F52" s="1">
+        <v>244</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G52" s="1">
         <v>2024</v>
       </c>
-      <c r="G52" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="H52" s="1">
-        <v>1</v>
+      <c r="H52" s="1" t="s">
+        <v>246</v>
       </c>
       <c r="I52" s="1">
         <v>1</v>
       </c>
-      <c r="J52" s="1" t="s">
+      <c r="J52" s="1">
+        <v>1</v>
+      </c>
+      <c r="K52" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K52" s="1" t="s">
-        <v>245</v>
-      </c>
       <c r="L52" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M52" s="1">
+        <v>247</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N52" s="1">
         <v>70</v>
       </c>
-      <c r="N52" s="1">
+      <c r="O52" s="1">
         <v>24</v>
       </c>
-      <c r="O52" s="1">
+      <c r="P52" s="1">
         <v>1</v>
       </c>
-      <c r="P52" s="1">
+      <c r="Q52" s="1">
         <v>360</v>
       </c>
-      <c r="Q52" s="1">
+      <c r="R52" s="1">
         <v>0</v>
       </c>
-      <c r="R52" s="1"/>
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
       <c r="U52" s="1"/>
       <c r="V52" s="1"/>
-      <c r="W52" s="8">
+      <c r="W52" s="1"/>
+      <c r="X52" s="9">
         <v>1</v>
       </c>
-      <c r="X52" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y52" s="8">
+      <c r="Y52" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z52" s="9">
         <v>1</v>
       </c>
-      <c r="Z52" s="1"/>
       <c r="AA52" s="1"/>
-      <c r="AB52" s="1">
+      <c r="AB52" s="1"/>
+      <c r="AC52" s="1">
         <v>49</v>
       </c>
-      <c r="AC52" s="1">
+      <c r="AD52" s="1">
         <v>21</v>
       </c>
-      <c r="AD52" s="1"/>
-      <c r="AE52" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="AF52" s="1"/>
+      <c r="AE52" s="1"/>
+      <c r="AF52" s="19" t="s">
+        <v>248</v>
+      </c>
       <c r="AG52" s="1"/>
       <c r="AH52" s="1"/>
       <c r="AI52" s="1"/>
@@ -19846,8 +19982,9 @@
       <c r="KD52" s="1"/>
       <c r="KE52" s="1"/>
       <c r="KF52" s="1"/>
+      <c r="KG52" s="1"/>
     </row>
-    <row r="53" ht="15.5" spans="1:292">
+    <row r="53" ht="17.6" spans="1:293">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -20140,8 +20277,9 @@
       <c r="KD53" s="1"/>
       <c r="KE53" s="1"/>
       <c r="KF53" s="1"/>
+      <c r="KG53" s="1"/>
     </row>
-    <row r="54" ht="15.5" spans="1:292">
+    <row r="54" ht="17.6" spans="1:293">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -20434,8 +20572,9 @@
       <c r="KD54" s="1"/>
       <c r="KE54" s="1"/>
       <c r="KF54" s="1"/>
+      <c r="KG54" s="1"/>
     </row>
-    <row r="55" ht="15.5" spans="1:292">
+    <row r="55" ht="17.6" spans="1:293">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -20728,8 +20867,9 @@
       <c r="KD55" s="1"/>
       <c r="KE55" s="1"/>
       <c r="KF55" s="1"/>
+      <c r="KG55" s="1"/>
     </row>
-    <row r="56" ht="15.5" spans="1:292">
+    <row r="56" ht="17.6" spans="1:293">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -21022,8 +21162,9 @@
       <c r="KD56" s="1"/>
       <c r="KE56" s="1"/>
       <c r="KF56" s="1"/>
+      <c r="KG56" s="1"/>
     </row>
-    <row r="57" ht="15.5" spans="1:292">
+    <row r="57" ht="17.6" spans="1:293">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -21316,8 +21457,9 @@
       <c r="KD57" s="1"/>
       <c r="KE57" s="1"/>
       <c r="KF57" s="1"/>
+      <c r="KG57" s="1"/>
     </row>
-    <row r="58" ht="15.5" spans="1:292">
+    <row r="58" ht="17.6" spans="1:293">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -21610,8 +21752,9 @@
       <c r="KD58" s="1"/>
       <c r="KE58" s="1"/>
       <c r="KF58" s="1"/>
+      <c r="KG58" s="1"/>
     </row>
-    <row r="59" ht="15.5" spans="1:292">
+    <row r="59" ht="17.6" spans="1:293">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -21904,8 +22047,9 @@
       <c r="KD59" s="1"/>
       <c r="KE59" s="1"/>
       <c r="KF59" s="1"/>
+      <c r="KG59" s="1"/>
     </row>
-    <row r="60" ht="15.5" spans="1:292">
+    <row r="60" ht="17.6" spans="1:293">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -22198,8 +22342,9 @@
       <c r="KD60" s="1"/>
       <c r="KE60" s="1"/>
       <c r="KF60" s="1"/>
+      <c r="KG60" s="1"/>
     </row>
-    <row r="61" ht="15.5" spans="1:292">
+    <row r="61" ht="17.6" spans="1:293">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -22492,8 +22637,9 @@
       <c r="KD61" s="1"/>
       <c r="KE61" s="1"/>
       <c r="KF61" s="1"/>
+      <c r="KG61" s="1"/>
     </row>
-    <row r="62" ht="15.5" spans="1:292">
+    <row r="62" ht="17.6" spans="1:293">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -22786,8 +22932,9 @@
       <c r="KD62" s="1"/>
       <c r="KE62" s="1"/>
       <c r="KF62" s="1"/>
+      <c r="KG62" s="1"/>
     </row>
-    <row r="63" ht="15.5" spans="1:292">
+    <row r="63" ht="17.6" spans="1:293">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -23080,8 +23227,9 @@
       <c r="KD63" s="1"/>
       <c r="KE63" s="1"/>
       <c r="KF63" s="1"/>
+      <c r="KG63" s="1"/>
     </row>
-    <row r="64" ht="15.5" spans="1:292">
+    <row r="64" ht="17.6" spans="1:293">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -23374,8 +23522,9 @@
       <c r="KD64" s="1"/>
       <c r="KE64" s="1"/>
       <c r="KF64" s="1"/>
+      <c r="KG64" s="1"/>
     </row>
-    <row r="65" ht="15.5" spans="1:292">
+    <row r="65" ht="17.6" spans="1:293">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -23668,8 +23817,9 @@
       <c r="KD65" s="1"/>
       <c r="KE65" s="1"/>
       <c r="KF65" s="1"/>
+      <c r="KG65" s="1"/>
     </row>
-    <row r="66" ht="15.5" spans="1:292">
+    <row r="66" ht="17.6" spans="1:293">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -23962,8 +24112,9 @@
       <c r="KD66" s="1"/>
       <c r="KE66" s="1"/>
       <c r="KF66" s="1"/>
+      <c r="KG66" s="1"/>
     </row>
-    <row r="67" ht="15.5" spans="1:292">
+    <row r="67" ht="17.6" spans="1:293">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -24256,8 +24407,9 @@
       <c r="KD67" s="1"/>
       <c r="KE67" s="1"/>
       <c r="KF67" s="1"/>
+      <c r="KG67" s="1"/>
     </row>
-    <row r="68" ht="15.5" spans="1:12">
+    <row r="68" ht="17.6" spans="1:13">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -24270,9 +24422,10 @@
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:V52" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:W52" etc:filterBottomFollowUsedRange="0">
     <extLst>
       <etc:autoFilterAnalysis etc:version="v1" etc:showPane="0">
         <etc:analysisCharts>
@@ -24287,7 +24440,7 @@
     </extLst>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="G52" r:id="rId1" display="Cognitive, Affective, &amp; Behavioral Neuroscience" tooltip="https://link.springer.com/journal/13415"/>
+    <hyperlink ref="H52" r:id="rId1" display="Cognitive, Affective, &amp; Behavioral Neuroscience" tooltip="https://link.springer.com/journal/13415"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -24300,19 +24453,19 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.66964285714286" defaultRowHeight="16.8" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="6.08333333333333" customWidth="1"/>
+    <col min="1" max="1" width="6.08035714285714" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="7" max="7" width="6.08333333333333" customWidth="1"/>
+    <col min="7" max="7" width="6.08035714285714" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.5" spans="1:8">
+    <row r="1" ht="17.6" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -24332,7 +24485,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="15.5" spans="1:8">
+    <row r="2" ht="17.6" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
@@ -24352,7 +24505,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="3" ht="15.5" spans="1:8">
+    <row r="3" ht="17.6" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>33</v>
       </c>
@@ -24372,7 +24525,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" ht="15.5" spans="1:8">
+    <row r="4" ht="17.6" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>33</v>
       </c>
@@ -24380,7 +24533,7 @@
         <v>2019</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E4" s="3">
         <v>2020</v>
@@ -24392,7 +24545,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="5" ht="15.5" spans="1:8">
+    <row r="5" ht="17.6" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
@@ -24400,7 +24553,7 @@
         <v>2019</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E5" s="3">
         <v>2020</v>
@@ -24412,7 +24565,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="6" ht="15.5" hidden="1" spans="1:8">
+    <row r="6" ht="17.6" hidden="1" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>50</v>
       </c>
@@ -24420,7 +24573,7 @@
         <v>2020</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E6" s="3">
         <v>2020</v>
@@ -24432,861 +24585,861 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="7" ht="15.5" hidden="1" spans="1:8">
+    <row r="7" ht="17.6" hidden="1" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B7" s="1">
         <v>2020</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E7" s="3">
         <v>2019</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H7" s="1">
         <v>2020</v>
       </c>
     </row>
-    <row r="8" ht="15.5" hidden="1" spans="1:8">
+    <row r="8" ht="17.6" hidden="1" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="1">
         <v>2020</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E8" s="3">
         <v>2018</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H8" s="1">
         <v>2020</v>
       </c>
     </row>
-    <row r="9" ht="15.5" hidden="1" spans="1:8">
+    <row r="9" ht="17.6" hidden="1" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B9" s="1">
         <v>2021</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E9" s="3">
         <v>2021</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H9" s="1">
         <v>2021</v>
       </c>
     </row>
-    <row r="10" ht="15.5" hidden="1" spans="1:8">
+    <row r="10" ht="17.6" hidden="1" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B10" s="1">
         <v>2020</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E10" s="3">
         <v>2021</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H10" s="1">
         <v>2020</v>
       </c>
     </row>
-    <row r="11" ht="15.5" spans="1:8">
+    <row r="11" ht="17.6" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B11" s="1">
         <v>2020</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E11" s="3">
         <v>2022</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H11" s="1">
         <v>2020</v>
       </c>
     </row>
-    <row r="12" ht="15.5" spans="1:8">
+    <row r="12" ht="17.6" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B12" s="1">
         <v>2020</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E12" s="3">
         <v>2021</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H12" s="1">
         <v>2020</v>
       </c>
     </row>
-    <row r="13" ht="15.5" spans="1:8">
+    <row r="13" ht="17.6" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B13" s="1">
         <v>2019</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E13" s="3">
         <v>2023</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H13" s="1">
         <v>2019</v>
       </c>
     </row>
-    <row r="14" ht="15.5" spans="1:8">
+    <row r="14" ht="17.6" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B14" s="1">
         <v>2019</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E14" s="3">
         <v>2023</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H14" s="1">
         <v>2019</v>
       </c>
     </row>
-    <row r="15" ht="15.5" spans="1:8">
+    <row r="15" ht="17.6" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B15" s="1">
         <v>2018</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E15" s="3">
         <v>2014</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H15" s="1">
         <v>2018</v>
       </c>
     </row>
-    <row r="16" ht="15.5" spans="1:8">
+    <row r="16" ht="17.6" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B16" s="1">
         <v>2018</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E16" s="3">
         <v>2015</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H16" s="1">
         <v>2018</v>
       </c>
     </row>
-    <row r="17" ht="15.5" hidden="1" spans="1:8">
+    <row r="17" ht="17.6" hidden="1" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B17" s="1">
         <v>2021</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E17" s="3">
         <v>2014</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H17" s="1">
         <v>2021</v>
       </c>
     </row>
-    <row r="18" ht="15.5" spans="1:8">
+    <row r="18" ht="17.6" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B18" s="1">
         <v>2021</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E18" s="3">
         <v>2023</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H18" s="1">
         <v>2021</v>
       </c>
     </row>
-    <row r="19" ht="15.5" spans="1:8">
+    <row r="19" ht="17.6" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B19" s="1">
         <v>2021</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E19" s="3">
         <v>2023</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H19" s="1">
         <v>2021</v>
       </c>
     </row>
-    <row r="20" ht="15.5" spans="1:8">
+    <row r="20" ht="17.6" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B20" s="1">
         <v>2021</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E20" s="3">
         <v>2021</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H20" s="1">
         <v>2021</v>
       </c>
     </row>
-    <row r="21" ht="15.5" spans="1:8">
+    <row r="21" ht="17.6" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B21" s="1">
         <v>2022</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E21" s="3">
         <v>2023</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H21" s="1">
         <v>2022</v>
       </c>
     </row>
-    <row r="22" ht="15.5" spans="1:8">
+    <row r="22" ht="17.6" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B22" s="1">
         <v>2022</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E22" s="3">
         <v>2022</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H22" s="1">
         <v>2022</v>
       </c>
     </row>
-    <row r="23" ht="15.5" spans="1:8">
+    <row r="23" ht="17.6" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B23" s="1">
         <v>2022</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E23" s="3">
         <v>2022</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H23" s="1">
         <v>2022</v>
       </c>
     </row>
-    <row r="24" ht="15.5" hidden="1" spans="1:8">
+    <row r="24" ht="17.6" hidden="1" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B24" s="1">
         <v>2021</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E24" s="3">
         <v>2020</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H24" s="1">
         <v>2021</v>
       </c>
     </row>
-    <row r="25" ht="15.5" hidden="1" spans="1:8">
+    <row r="25" ht="17.6" hidden="1" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B25" s="1">
         <v>2023</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E25" s="3">
         <v>2023</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H25" s="1">
         <v>2023</v>
       </c>
     </row>
-    <row r="26" ht="15.5" hidden="1" spans="1:8">
+    <row r="26" ht="17.6" hidden="1" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B26" s="1">
         <v>2023</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H26" s="1">
         <v>2023</v>
       </c>
     </row>
-    <row r="27" ht="15.5" hidden="1" spans="1:8">
+    <row r="27" ht="17.6" hidden="1" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B27" s="1">
         <v>2014</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H27" s="1">
         <v>2014</v>
       </c>
     </row>
-    <row r="28" ht="15.5" spans="1:8">
+    <row r="28" ht="17.6" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B28" s="1">
         <v>2015</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H28" s="1">
         <v>2015</v>
       </c>
     </row>
-    <row r="29" ht="15.5" spans="1:8">
+    <row r="29" ht="17.6" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B29" s="1">
         <v>2015</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H29" s="1">
         <v>2015</v>
       </c>
     </row>
-    <row r="30" ht="15.5" spans="1:8">
+    <row r="30" ht="17.6" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B30" s="1">
         <v>2014</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H30" s="1">
         <v>2014</v>
       </c>
     </row>
-    <row r="31" ht="15.5" spans="1:8">
+    <row r="31" ht="17.6" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B31" s="1">
         <v>2014</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H31" s="1">
         <v>2014</v>
       </c>
     </row>
-    <row r="32" ht="15.5" spans="1:8">
+    <row r="32" ht="17.6" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B32" s="1">
         <v>2014</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H32" s="1">
         <v>2014</v>
       </c>
     </row>
-    <row r="33" ht="15.5" spans="1:8">
+    <row r="33" ht="17.6" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B33" s="1">
         <v>2014</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H33" s="1">
         <v>2014</v>
       </c>
     </row>
-    <row r="34" ht="15.5" hidden="1" spans="1:8">
+    <row r="34" ht="17.6" hidden="1" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B34" s="1">
         <v>2023</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H34" s="1">
         <v>2023</v>
       </c>
     </row>
-    <row r="35" ht="15.5" hidden="1" spans="1:8">
+    <row r="35" ht="17.6" hidden="1" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B35" s="1">
         <v>2023</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H35" s="1">
         <v>2023</v>
       </c>
     </row>
-    <row r="36" ht="15.5" hidden="1" spans="1:8">
+    <row r="36" ht="17.6" hidden="1" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B36" s="1">
         <v>2021</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H36" s="1">
         <v>2021</v>
       </c>
     </row>
-    <row r="37" ht="15.5" hidden="1" spans="1:8">
+    <row r="37" ht="17.6" hidden="1" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B37" s="1">
         <v>2023</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H37" s="1">
         <v>2023</v>
       </c>
     </row>
-    <row r="38" ht="15.5" spans="1:8">
+    <row r="38" ht="17.6" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B38" s="1">
         <v>2022</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H38" s="1">
         <v>2022</v>
       </c>
     </row>
-    <row r="39" ht="15.5" spans="1:8">
+    <row r="39" ht="17.6" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B39" s="1">
         <v>2022</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H39" s="1">
         <v>2022</v>
       </c>
     </row>
-    <row r="40" ht="15.5" hidden="1" spans="1:8">
+    <row r="40" ht="17.6" hidden="1" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B40" s="1">
         <v>2022</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H40" s="1">
         <v>2022</v>
       </c>
     </row>
-    <row r="41" ht="15.5" spans="1:8">
+    <row r="41" ht="17.6" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B41" s="1">
         <v>2020</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H41" s="1">
         <v>2020</v>
       </c>
     </row>
-    <row r="42" ht="15.5" spans="1:8">
+    <row r="42" ht="17.6" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B42" s="1">
         <v>2020</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H42" s="1">
         <v>2020</v>
       </c>
     </row>
-    <row r="43" ht="15.5" spans="1:8">
+    <row r="43" ht="17.6" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B43" s="1">
         <v>2020</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H43" s="1">
         <v>2020</v>
       </c>
     </row>
-    <row r="44" ht="15.5" spans="1:8">
+    <row r="44" ht="17.6" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B44" s="1">
         <v>2023</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H44" s="1">
         <v>2023</v>
       </c>
     </row>
-    <row r="45" ht="15.5" spans="1:8">
+    <row r="45" ht="17.6" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B45" s="1">
         <v>2023</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H45" s="1">
         <v>2023</v>
       </c>
     </row>
-    <row r="46" ht="15.5" spans="1:8">
+    <row r="46" ht="17.6" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B46" s="1">
         <v>2023</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H46" s="1">
         <v>2023</v>
       </c>
     </row>
-    <row r="47" ht="15.5" spans="1:8">
+    <row r="47" ht="17.6" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B47" s="1">
         <v>2021</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H47" s="1">
         <v>2021</v>
       </c>
     </row>
-    <row r="48" ht="15.5" spans="1:8">
+    <row r="48" ht="17.6" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B48" s="1">
         <v>2021</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H48" s="1">
         <v>2021</v>
       </c>
     </row>
-    <row r="49" ht="15.5" spans="1:8">
+    <row r="49" ht="17.6" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B49" s="1">
         <v>2021</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H49" s="1">
         <v>2021</v>
       </c>
     </row>
-    <row r="50" ht="15.5" hidden="1" spans="1:8">
+    <row r="50" ht="17.6" hidden="1" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B50" s="1">
         <v>2023</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H50" s="1">
         <v>2023</v>
       </c>
     </row>
-    <row r="51" ht="15.5" hidden="1" spans="1:8">
+    <row r="51" ht="17.6" hidden="1" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B51" s="1">
         <v>2024</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H51" s="1">
         <v>2024</v>
       </c>
     </row>
-    <row r="52" ht="15.5" hidden="1" spans="1:8">
+    <row r="52" ht="17.6" hidden="1" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B52" s="1">
         <v>2024</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H52" s="1">
         <v>2024</v>
       </c>
     </row>
-    <row r="53" ht="15.5" hidden="1" spans="1:8">
+    <row r="53" ht="17.6" hidden="1" spans="1:8">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
     </row>
-    <row r="54" ht="15.5" hidden="1" spans="1:8">
+    <row r="54" ht="17.6" hidden="1" spans="1:8">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" ht="15.5" hidden="1" spans="1:8">
+    <row r="55" ht="17.6" hidden="1" spans="1:8">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
     </row>
-    <row r="56" ht="15.5" hidden="1" spans="1:8">
+    <row r="56" ht="17.6" hidden="1" spans="1:8">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" ht="15.5" hidden="1" spans="1:8">
+    <row r="57" ht="17.6" hidden="1" spans="1:8">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
     </row>
-    <row r="58" ht="15.5" hidden="1" spans="1:8">
+    <row r="58" ht="17.6" hidden="1" spans="1:8">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" ht="15.5" hidden="1" spans="1:8">
+    <row r="59" ht="17.6" hidden="1" spans="1:8">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
     </row>
-    <row r="60" ht="15.5" hidden="1" spans="1:8">
+    <row r="60" ht="17.6" hidden="1" spans="1:8">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
     </row>
-    <row r="61" ht="15.5" hidden="1" spans="1:8">
+    <row r="61" ht="17.6" hidden="1" spans="1:8">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
     </row>
-    <row r="62" ht="15.5" hidden="1" spans="1:8">
+    <row r="62" ht="17.6" hidden="1" spans="1:8">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
     </row>
-    <row r="63" ht="15.5" hidden="1" spans="1:8">
+    <row r="63" ht="17.6" hidden="1" spans="1:8">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
     </row>
-    <row r="64" ht="15.5" hidden="1" spans="1:8">
+    <row r="64" ht="17.6" hidden="1" spans="1:8">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
     </row>
-    <row r="65" ht="15.5" hidden="1" spans="1:8">
+    <row r="65" ht="17.6" hidden="1" spans="1:8">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
     </row>
-    <row r="66" ht="15.5" hidden="1" spans="1:8">
+    <row r="66" ht="17.6" hidden="1" spans="1:8">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
     </row>
-    <row r="67" ht="15.5" hidden="1" spans="1:8">
+    <row r="67" ht="17.6" hidden="1" spans="1:8">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
     </row>
-    <row r="68" ht="15.5" hidden="1" spans="1:8">
+    <row r="68" ht="17.6" hidden="1" spans="1:8">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="G68" s="1"/>
@@ -25310,17 +25463,17 @@
   <sheetPr/>
   <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A52" sqref="D1:D52 A1:A52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.66964285714286" defaultRowHeight="16.8" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="11.8333333333333" customWidth="1"/>
+    <col min="2" max="2" width="11.8303571428571" customWidth="1"/>
     <col min="3" max="3" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.5" spans="1:4">
+    <row r="1" ht="17.6" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -25334,7 +25487,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="15.5" spans="1:4">
+    <row r="2" ht="17.6" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
@@ -25348,7 +25501,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="3" ht="15.5" spans="1:4">
+    <row r="3" ht="17.6" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>33</v>
       </c>
@@ -25362,7 +25515,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" ht="15.5" spans="1:4">
+    <row r="4" ht="17.6" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>33</v>
       </c>
@@ -25376,7 +25529,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="5" ht="15.5" spans="1:4">
+    <row r="5" ht="17.6" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
@@ -25390,7 +25543,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="6" ht="15.5" spans="1:4">
+    <row r="6" ht="17.6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>50</v>
       </c>
@@ -25404,9 +25557,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="7" ht="15.5" spans="1:4">
+    <row r="7" ht="17.6" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B7" s="1">
         <v>312</v>
@@ -25418,9 +25571,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="8" ht="15.5" spans="1:4">
+    <row r="8" ht="17.6" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="1">
         <v>100</v>
@@ -25432,9 +25585,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="9" ht="15.5" spans="1:4">
+    <row r="9" ht="17.6" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B9" s="1">
         <v>960</v>
@@ -25446,9 +25599,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="10" ht="15.5" spans="1:4">
+    <row r="10" ht="17.6" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B10" s="1">
         <v>192</v>
@@ -25460,9 +25613,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="11" ht="15.5" spans="1:4">
+    <row r="11" ht="17.6" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B11" s="1">
         <v>144</v>
@@ -25474,9 +25627,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="12" ht="15.5" spans="1:4">
+    <row r="12" ht="17.6" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B12" s="1">
         <v>100</v>
@@ -25488,9 +25641,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="13" ht="15.5" spans="1:4">
+    <row r="13" ht="17.6" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B13" s="1">
         <v>144</v>
@@ -25502,9 +25655,9 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="14" ht="15.5" spans="1:4">
+    <row r="14" ht="17.6" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B14" s="1">
         <v>672</v>
@@ -25516,9 +25669,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="15" ht="15.5" spans="1:4">
+    <row r="15" ht="17.6" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B15" s="1">
         <v>672</v>
@@ -25530,9 +25683,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="16" ht="15.5" spans="1:4">
+    <row r="16" ht="17.6" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B16" s="1">
         <v>360</v>
@@ -25544,9 +25697,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="17" ht="15.5" spans="1:4">
+    <row r="17" ht="17.6" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B17" s="1">
         <v>360</v>
@@ -25558,9 +25711,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="18" ht="15.5" spans="1:4">
+    <row r="18" ht="17.6" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B18" s="1">
         <v>360</v>
@@ -25572,9 +25725,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="19" ht="15.5" spans="1:4">
+    <row r="19" ht="17.6" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B19" s="1">
         <v>360</v>
@@ -25586,9 +25739,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="20" ht="15.5" spans="1:4">
+    <row r="20" ht="17.6" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B20" s="1">
         <v>360</v>
@@ -25600,9 +25753,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="21" ht="15.5" spans="1:4">
+    <row r="21" ht="17.6" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B21" s="1">
         <v>360</v>
@@ -25614,9 +25767,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="22" ht="15.5" spans="1:4">
+    <row r="22" ht="17.6" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="1">
         <v>128</v>
@@ -25628,9 +25781,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="23" ht="15.5" spans="1:4">
+    <row r="23" ht="17.6" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B23" s="1">
         <v>240</v>
@@ -25642,9 +25795,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="24" ht="15.5" spans="1:4">
+    <row r="24" ht="17.6" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B24" s="1">
         <v>240</v>
@@ -25656,9 +25809,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="25" ht="15.5" spans="1:4">
+    <row r="25" ht="17.6" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B25" s="1">
         <v>200</v>
@@ -25670,9 +25823,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="26" ht="15.5" spans="1:4">
+    <row r="26" ht="17.6" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B26" s="1">
         <v>400</v>
@@ -25684,9 +25837,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="27" ht="15.5" spans="1:4">
+    <row r="27" ht="17.6" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B27" s="1">
         <v>400</v>
@@ -25698,9 +25851,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="28" ht="15.5" spans="1:4">
+    <row r="28" ht="17.6" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B28" s="1">
         <v>360</v>
@@ -25712,9 +25865,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="29" ht="15.5" spans="1:4">
+    <row r="29" ht="17.6" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B29" s="1">
         <v>64</v>
@@ -25726,9 +25879,9 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="30" ht="15.5" spans="1:4">
+    <row r="30" ht="17.6" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B30" s="1">
         <v>90</v>
@@ -25740,9 +25893,9 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="31" ht="15.5" spans="1:4">
+    <row r="31" ht="17.6" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B31" s="1">
         <v>40</v>
@@ -25754,9 +25907,9 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="32" ht="15.5" spans="1:4">
+    <row r="32" ht="17.6" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B32" s="1">
         <v>40</v>
@@ -25768,9 +25921,9 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="33" ht="15.5" spans="1:4">
+    <row r="33" ht="17.6" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B33" s="1">
         <v>40</v>
@@ -25782,9 +25935,9 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="34" ht="15.5" spans="1:4">
+    <row r="34" ht="17.6" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B34" s="1">
         <v>60</v>
@@ -25796,9 +25949,9 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="35" ht="15.5" spans="1:4">
+    <row r="35" ht="17.6" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B35" s="1">
         <v>60</v>
@@ -25810,9 +25963,9 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="36" ht="15.5" spans="1:4">
+    <row r="36" ht="17.6" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B36" s="1">
         <v>60</v>
@@ -25824,9 +25977,9 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="37" ht="15.5" spans="1:4">
+    <row r="37" ht="17.6" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B37" s="1">
         <v>60</v>
@@ -25838,9 +25991,9 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="38" ht="15.5" spans="1:4">
+    <row r="38" ht="17.6" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B38" s="1">
         <v>240</v>
@@ -25852,9 +26005,9 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="39" ht="15.5" spans="1:4">
+    <row r="39" ht="17.6" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B39" s="1">
         <v>60</v>
@@ -25866,9 +26019,9 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="40" ht="15.5" spans="1:4">
+    <row r="40" ht="17.6" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B40" s="1">
         <v>360</v>
@@ -25880,9 +26033,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="41" ht="15.5" spans="1:4">
+    <row r="41" ht="17.6" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B41" s="1">
         <v>300</v>
@@ -25894,9 +26047,9 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="42" ht="15.5" spans="1:4">
+    <row r="42" ht="17.6" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B42" s="1">
         <v>240</v>
@@ -25908,9 +26061,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="43" ht="15.5" spans="1:4">
+    <row r="43" ht="17.6" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B43" s="1">
         <v>240</v>
@@ -25922,9 +26075,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="44" ht="15.5" spans="1:4">
+    <row r="44" ht="17.6" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B44" s="1">
         <v>360</v>
@@ -25936,9 +26089,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="45" ht="15.5" spans="1:4">
+    <row r="45" ht="17.6" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B45" s="1">
         <v>360</v>
@@ -25950,9 +26103,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="46" ht="15.5" spans="1:4">
+    <row r="46" ht="17.6" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B46" s="1">
         <v>360</v>
@@ -25964,9 +26117,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="47" ht="15.5" spans="1:4">
+    <row r="47" ht="17.6" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B47" s="1">
         <v>360</v>
@@ -25978,9 +26131,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="48" ht="15.5" spans="1:4">
+    <row r="48" ht="17.6" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B48" s="1">
         <v>96</v>
@@ -25992,9 +26145,9 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="49" ht="15.5" spans="1:4">
+    <row r="49" ht="17.6" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B49" s="1">
         <v>320</v>
@@ -26006,9 +26159,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="50" ht="15.5" spans="1:4">
+    <row r="50" ht="17.6" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B50" s="1">
         <v>960</v>
@@ -26020,9 +26173,9 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="51" ht="15.5" spans="1:4">
+    <row r="51" ht="17.6" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B51" s="1">
         <v>240</v>
@@ -26034,9 +26187,9 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="52" ht="15.5" spans="1:4">
+    <row r="52" ht="17.6" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B52" s="1">
         <v>360</v>
@@ -26048,16 +26201,16 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="53" ht="15.5" spans="1:1">
+    <row r="53" ht="17.6" spans="1:1">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" ht="15.5" spans="1:1">
+    <row r="54" ht="17.6" spans="1:1">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" ht="15.5" spans="1:1">
+    <row r="55" ht="17.6" spans="1:1">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" ht="15.5" spans="1:1">
+    <row r="56" ht="17.6" spans="1:1">
       <c r="A56" s="1"/>
     </row>
   </sheetData>

--- a/Label.xlsx
+++ b/Label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17880" windowHeight="7440"/>
+    <workbookView windowWidth="24750" windowHeight="10480"/>
   </bookViews>
   <sheets>
     <sheet name="Label" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Label!$A$1:$W$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Label!$A$1:$Y$52</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$A$68</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="261">
   <si>
     <t>Note</t>
   </si>
@@ -45,6 +45,12 @@
   </si>
   <si>
     <t>Paper</t>
+  </si>
+  <si>
+    <t>Corresponding author</t>
+  </si>
+  <si>
+    <t>Email</t>
   </si>
   <si>
     <t>Author</t>
@@ -135,6 +141,12 @@
   </si>
   <si>
     <t>P5</t>
+  </si>
+  <si>
+    <t>Merryn D. Constable</t>
+  </si>
+  <si>
+    <t>merryndconstable@gmail.com</t>
   </si>
   <si>
     <t>Constable et al.</t>
@@ -239,6 +251,12 @@
     <t>P20</t>
   </si>
   <si>
+    <t>Chuan-Peng Hu</t>
+  </si>
+  <si>
+    <t>hcp4715@gmail.com</t>
+  </si>
+  <si>
     <t>Hu et al.</t>
   </si>
   <si>
@@ -260,6 +278,12 @@
     <t>P34</t>
   </si>
   <si>
+    <t>Ivar R. Kolvoort</t>
+  </si>
+  <si>
+    <t>i.r.kolvoort@uva.nl</t>
+  </si>
+  <si>
     <t>IR Kolvoort et al.</t>
   </si>
   <si>
@@ -276,6 +300,12 @@
   </si>
   <si>
     <t>P45</t>
+  </si>
+  <si>
+    <t>Sanjay Kumar</t>
+  </si>
+  <si>
+    <t>skumar@brookes.ac.uk</t>
   </si>
   <si>
     <t>L McIvor et al.</t>
@@ -297,6 +327,9 @@
   </si>
   <si>
     <t>❓</t>
+  </si>
+  <si>
+    <t>Merryn Dale Constable</t>
   </si>
   <si>
     <t>Cognition and Emotion</t>
@@ -1134,7 +1167,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1157,9 +1190,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体-简"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1190,14 +1237,6 @@
       <color rgb="FF000000"/>
       <name val="CharisSIL"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1679,16 +1718,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1697,46 +1733,49 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1748,7 +1787,7 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1760,7 +1799,7 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1772,7 +1811,7 @@
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1784,7 +1823,7 @@
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1796,7 +1835,7 @@
     <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1809,7 +1848,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1828,16 +1867,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1849,28 +1891,34 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1979,8 +2027,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6282690" y="50800"/>
-          <a:ext cx="3019425" cy="2707640"/>
+          <a:off x="6699250" y="50800"/>
+          <a:ext cx="3238500" cy="2387600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2254,49 +2302,50 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:KG68"/>
+  <dimension ref="A1:KI68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E52" sqref="E52"/>
+      <selection pane="topRight" activeCell="AH8" sqref="AH8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="14.4196428571429" customWidth="1"/>
+    <col min="1" max="1" width="14.4166666666667" customWidth="1"/>
     <col min="2" max="2" width="3.625" customWidth="1"/>
-    <col min="3" max="3" width="9.16964285714286" customWidth="1"/>
-    <col min="4" max="5" width="6.08035714285714" customWidth="1"/>
-    <col min="6" max="6" width="23.4196428571429" customWidth="1"/>
-    <col min="7" max="7" width="9" customWidth="1"/>
-    <col min="8" max="8" width="67.0803571428571" customWidth="1"/>
-    <col min="9" max="9" width="4.625" customWidth="1"/>
-    <col min="10" max="11" width="9" customWidth="1"/>
-    <col min="12" max="12" width="20.0803571428571" customWidth="1"/>
-    <col min="13" max="13" width="21.5803571428571" customWidth="1"/>
-    <col min="14" max="14" width="11.75" customWidth="1"/>
-    <col min="15" max="15" width="13.0803571428571" customWidth="1"/>
-    <col min="16" max="16" width="14.25" customWidth="1"/>
-    <col min="17" max="17" width="12.9196428571429" customWidth="1"/>
-    <col min="18" max="18" width="13.25" customWidth="1"/>
-    <col min="19" max="19" width="12.75" customWidth="1"/>
-    <col min="20" max="20" width="7.58035714285714" customWidth="1"/>
-    <col min="21" max="21" width="41.6696428571429" customWidth="1"/>
-    <col min="22" max="22" width="29" customWidth="1"/>
-    <col min="24" max="24" width="13.25" customWidth="1"/>
-    <col min="25" max="25" width="17.4196428571429" customWidth="1"/>
-    <col min="26" max="26" width="8.66964285714286" customWidth="1"/>
-    <col min="27" max="27" width="23.8303571428571" style="4" customWidth="1"/>
-    <col min="28" max="28" width="14.5" customWidth="1"/>
-    <col min="30" max="30" width="9.92857142857143"/>
-    <col min="31" max="31" width="15.1696428571429" customWidth="1"/>
-    <col min="33" max="33" width="12.625" customWidth="1"/>
+    <col min="3" max="3" width="9.16666666666667" customWidth="1"/>
+    <col min="4" max="5" width="6.08333333333333" customWidth="1"/>
+    <col min="6" max="6" width="19.9166666666667" customWidth="1"/>
+    <col min="7" max="7" width="27.5" customWidth="1"/>
+    <col min="8" max="8" width="23.4166666666667" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="10" max="10" width="67.0833333333333" customWidth="1"/>
+    <col min="11" max="11" width="4.625" customWidth="1"/>
+    <col min="12" max="13" width="9" customWidth="1"/>
+    <col min="14" max="14" width="20.0833333333333" customWidth="1"/>
+    <col min="15" max="15" width="21.5833333333333" customWidth="1"/>
+    <col min="16" max="16" width="11.75" customWidth="1"/>
+    <col min="17" max="17" width="13.0833333333333" customWidth="1"/>
+    <col min="18" max="18" width="14.25" customWidth="1"/>
+    <col min="19" max="19" width="12.9166666666667" customWidth="1"/>
+    <col min="20" max="20" width="13.25" customWidth="1"/>
+    <col min="21" max="21" width="12.75" customWidth="1"/>
+    <col min="22" max="22" width="7.58333333333333" customWidth="1"/>
+    <col min="23" max="23" width="41.6666666666667" customWidth="1"/>
+    <col min="24" max="24" width="29" customWidth="1"/>
+    <col min="26" max="26" width="13.25" customWidth="1"/>
+    <col min="27" max="27" width="17.4166666666667" customWidth="1"/>
+    <col min="28" max="28" width="8.66666666666667" customWidth="1"/>
+    <col min="29" max="29" width="23.8333333333333" style="4" customWidth="1"/>
+    <col min="30" max="30" width="14.5" customWidth="1"/>
+    <col min="32" max="32" width="9.925"/>
+    <col min="33" max="33" width="15.1666666666667" customWidth="1"/>
+    <col min="34" max="34" width="134.25" customWidth="1"/>
+    <col min="35" max="35" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.6" spans="1:33">
+    <row r="1" ht="15.5" spans="1:35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2334,37 +2383,37 @@
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="S1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="T1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Y1" t="s">
@@ -2373,114 +2422,124 @@
       <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="12" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="12" t="s">
+      <c r="AC1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="12" t="s">
+      <c r="AD1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="12" t="s">
+      <c r="AF1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="12"/>
+      <c r="AG1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="21"/>
     </row>
-    <row r="2" ht="17.6" spans="1:293">
+    <row r="2" ht="15.5" spans="1:295">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="1">
+        <v>36</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="1">
         <v>2019</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="1">
         <v>1</v>
       </c>
-      <c r="J2" s="1">
+      <c r="L2" s="1">
         <v>1</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="M2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" s="1">
+        <v>11</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" s="1">
         <v>28</v>
       </c>
-      <c r="O2" s="1">
+      <c r="Q2" s="1">
         <v>20</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q2" s="1">
+      <c r="R2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S2" s="1">
         <v>96</v>
       </c>
-      <c r="R2" s="1">
+      <c r="T2" s="1">
         <v>3</v>
       </c>
-      <c r="S2" s="1">
+      <c r="U2" s="1">
         <v>0</v>
       </c>
-      <c r="T2" s="1">
-        <f t="shared" ref="T2:T7" si="0">N2-S2</f>
+      <c r="V2" s="1">
+        <f t="shared" ref="V2:V7" si="0">P2-U2</f>
         <v>28</v>
       </c>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
       <c r="W2" s="1"/>
-      <c r="X2" s="9">
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="14">
         <v>1</v>
       </c>
-      <c r="Y2" s="13">
+      <c r="AA2" s="15">
         <v>0</v>
       </c>
-      <c r="Z2" s="13">
+      <c r="AB2" s="15">
         <v>0</v>
       </c>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC2" s="1">
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE2" s="1">
         <v>12</v>
       </c>
-      <c r="AD2" s="1">
+      <c r="AF2" s="1">
         <v>16</v>
       </c>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="AG2" s="1"/>
-      <c r="AH2" s="1"/>
+      <c r="AH2" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="AI2" s="1"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
@@ -2740,95 +2799,97 @@
       <c r="KE2" s="1"/>
       <c r="KF2" s="1"/>
       <c r="KG2" s="1"/>
+      <c r="KH2" s="1"/>
+      <c r="KI2" s="1"/>
     </row>
-    <row r="3" ht="17.6" spans="1:293">
+    <row r="3" ht="15.5" spans="1:295">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="1">
+        <v>2019</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="1">
+        <v>2</v>
+      </c>
+      <c r="L3" s="1">
+        <v>2</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2019</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" s="1">
-        <v>2</v>
-      </c>
-      <c r="J3" s="1">
-        <v>2</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" s="1">
+      <c r="P3" s="1">
         <v>28</v>
       </c>
-      <c r="O3" s="1">
+      <c r="Q3" s="1">
         <v>20</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q3" s="1">
+      <c r="R3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S3" s="1">
         <v>96</v>
       </c>
-      <c r="R3" s="1">
+      <c r="T3" s="1">
         <v>3</v>
       </c>
-      <c r="S3" s="1">
+      <c r="U3" s="1">
         <v>0</v>
       </c>
-      <c r="T3" s="1">
+      <c r="V3" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
       <c r="W3" s="1"/>
-      <c r="X3" s="9">
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="14">
         <v>1</v>
       </c>
-      <c r="Y3" s="13">
+      <c r="AA3" s="15">
         <v>0</v>
       </c>
-      <c r="Z3" s="13">
+      <c r="AB3" s="15">
         <v>0</v>
       </c>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC3" s="1">
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE3" s="1">
         <v>6</v>
       </c>
-      <c r="AD3" s="1">
+      <c r="AF3" s="1">
         <v>22</v>
       </c>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="AG3" s="1"/>
-      <c r="AH3" s="1"/>
+      <c r="AH3" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="AI3" s="1"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
@@ -3088,95 +3149,97 @@
       <c r="KE3" s="1"/>
       <c r="KF3" s="1"/>
       <c r="KG3" s="1"/>
+      <c r="KH3" s="1"/>
+      <c r="KI3" s="1"/>
     </row>
-    <row r="4" ht="17.6" spans="1:293">
+    <row r="4" ht="15.5" spans="1:295">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="1">
         <v>2019</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="1">
         <v>3</v>
       </c>
-      <c r="J4" s="1">
+      <c r="L4" s="1">
         <v>3</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="M4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N4" s="1">
+        <v>11</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P4" s="1">
         <v>28</v>
       </c>
-      <c r="O4" s="1">
+      <c r="Q4" s="1">
         <v>20</v>
       </c>
-      <c r="P4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q4" s="1">
+      <c r="R4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S4" s="1">
         <v>96</v>
       </c>
-      <c r="R4" s="1">
+      <c r="T4" s="1">
         <v>3</v>
       </c>
-      <c r="S4" s="1">
+      <c r="U4" s="1">
         <v>0</v>
       </c>
-      <c r="T4" s="1">
+      <c r="V4" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
       <c r="W4" s="1"/>
-      <c r="X4" s="9">
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="14">
         <v>1</v>
       </c>
-      <c r="Y4" s="13">
+      <c r="AA4" s="15">
         <v>0</v>
       </c>
-      <c r="Z4" s="13">
+      <c r="AB4" s="15">
         <v>0</v>
       </c>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC4" s="1">
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE4" s="1">
         <v>8</v>
       </c>
-      <c r="AD4" s="1">
+      <c r="AF4" s="1">
         <v>14</v>
       </c>
-      <c r="AE4" s="1"/>
-      <c r="AF4" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="AG4" s="1"/>
-      <c r="AH4" s="1"/>
+      <c r="AH4" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="AI4" s="1"/>
       <c r="AJ4" s="1"/>
       <c r="AK4" s="1"/>
@@ -3436,91 +3499,93 @@
       <c r="KE4" s="1"/>
       <c r="KF4" s="1"/>
       <c r="KG4" s="1"/>
+      <c r="KH4" s="1"/>
+      <c r="KI4" s="1"/>
     </row>
-    <row r="5" ht="17.6" spans="1:293">
+    <row r="5" ht="15.5" spans="1:295">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="1">
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="1">
         <v>2019</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="1">
         <v>4</v>
       </c>
-      <c r="J5" s="1">
+      <c r="L5" s="1">
         <v>4</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P5" s="1">
+        <v>40</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>50</v>
+      </c>
+      <c r="R5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="N5" s="1">
-        <v>40</v>
-      </c>
-      <c r="O5" s="1">
-        <v>50</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q5" s="1">
+      <c r="S5" s="1">
         <v>80</v>
       </c>
-      <c r="R5" s="1">
+      <c r="T5" s="1">
         <v>8</v>
       </c>
-      <c r="S5" s="1">
+      <c r="U5" s="1">
         <v>0</v>
       </c>
-      <c r="T5" s="1">
+      <c r="V5" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
       <c r="W5" s="1"/>
-      <c r="X5" s="9">
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="14">
         <v>1</v>
       </c>
-      <c r="Y5" s="13">
+      <c r="AA5" s="15">
         <v>0</v>
       </c>
-      <c r="Z5" s="13">
+      <c r="AB5" s="15">
         <v>0</v>
       </c>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC5" s="1">
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE5" s="1">
         <v>14</v>
       </c>
-      <c r="AD5" s="1">
+      <c r="AF5" s="1">
         <v>14</v>
       </c>
-      <c r="AE5" s="1"/>
-      <c r="AF5" s="1"/>
       <c r="AG5" s="1"/>
       <c r="AH5" s="1"/>
       <c r="AI5" s="1"/>
@@ -3782,103 +3847,109 @@
       <c r="KE5" s="1"/>
       <c r="KF5" s="1"/>
       <c r="KG5" s="1"/>
+      <c r="KH5" s="1"/>
+      <c r="KI5" s="1"/>
     </row>
-    <row r="6" ht="18" customHeight="1" spans="1:293">
+    <row r="6" ht="18" customHeight="1" spans="1:295">
       <c r="A6" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="1">
+        <v>36</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="1">
         <v>2020</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" s="1">
         <v>1</v>
       </c>
-      <c r="J6" s="1">
+      <c r="L6" s="1">
         <v>1</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="M6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N6" s="1">
+        <v>11</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P6" s="1">
         <v>92</v>
       </c>
-      <c r="O6" s="1">
+      <c r="Q6" s="1">
         <v>24</v>
       </c>
-      <c r="P6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q6" s="1">
+      <c r="R6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S6" s="1">
         <v>240</v>
       </c>
-      <c r="R6" s="1">
+      <c r="T6" s="1">
         <v>4</v>
       </c>
-      <c r="S6" s="1">
+      <c r="U6" s="1">
         <v>0</v>
       </c>
-      <c r="T6" s="1">
+      <c r="V6" s="1">
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
-      <c r="U6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="W6" s="1"/>
-      <c r="X6" s="9">
+      <c r="W6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="14">
         <v>1</v>
       </c>
-      <c r="Y6" s="13">
+      <c r="AA6" s="15">
         <v>0</v>
       </c>
-      <c r="Z6" s="13">
+      <c r="AB6" s="15">
         <v>0</v>
       </c>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC6" s="1">
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE6" s="1">
         <v>19</v>
       </c>
-      <c r="AD6" s="1">
+      <c r="AF6" s="1">
         <v>73</v>
       </c>
-      <c r="AE6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF6" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG6" s="1"/>
-      <c r="AH6" s="1"/>
+      <c r="AG6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH6" s="22" t="s">
+        <v>62</v>
+      </c>
       <c r="AI6" s="1"/>
       <c r="AJ6" s="1"/>
       <c r="AK6" s="1"/>
@@ -4138,89 +4209,95 @@
       <c r="KE6" s="1"/>
       <c r="KF6" s="1"/>
       <c r="KG6" s="1"/>
+      <c r="KH6" s="1"/>
+      <c r="KI6" s="1"/>
     </row>
-    <row r="7" ht="17.6" spans="1:293">
+    <row r="7" ht="15.5" spans="1:295">
       <c r="A7" s="1"/>
       <c r="B7" s="1">
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7" s="1">
+      <c r="F7" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="1">
         <v>2020</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7" s="1">
         <v>1</v>
       </c>
-      <c r="J7" s="1">
+      <c r="L7" s="1">
         <v>1</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L7" s="1"/>
       <c r="M7" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="N7" s="1">
+        <v>11</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P7" s="1">
         <v>46</v>
       </c>
-      <c r="O7" s="1">
+      <c r="Q7" s="1">
         <v>48</v>
       </c>
-      <c r="P7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q7" s="1">
+      <c r="R7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S7" s="1">
         <v>312</v>
       </c>
-      <c r="R7" s="1">
+      <c r="T7" s="1">
         <v>14</v>
       </c>
-      <c r="S7" s="1">
+      <c r="U7" s="1">
         <v>5</v>
       </c>
-      <c r="T7" s="1">
+      <c r="V7" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
       <c r="W7" s="1"/>
-      <c r="X7" s="9">
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="14">
         <v>1</v>
       </c>
-      <c r="Y7" s="13">
+      <c r="AA7" s="15">
         <v>0</v>
       </c>
-      <c r="Z7" s="13">
+      <c r="AB7" s="15">
         <v>0</v>
       </c>
-      <c r="AA7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC7" s="1">
+      <c r="AC7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE7" s="1">
         <v>19</v>
       </c>
-      <c r="AD7" s="1">
+      <c r="AF7" s="1">
         <v>27</v>
       </c>
-      <c r="AE7" s="1"/>
-      <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
       <c r="AH7" s="1"/>
       <c r="AI7" s="1"/>
@@ -4482,93 +4559,99 @@
       <c r="KE7" s="1"/>
       <c r="KF7" s="1"/>
       <c r="KG7" s="1"/>
+      <c r="KH7" s="1"/>
+      <c r="KI7" s="1"/>
     </row>
-    <row r="8" ht="17" customHeight="1" spans="1:293">
+    <row r="8" ht="17" customHeight="1" spans="1:295">
       <c r="A8" s="1"/>
       <c r="B8" s="1">
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G8" s="1">
+        <v>73</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I8" s="1">
         <v>2020</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K8" s="1">
         <v>1</v>
       </c>
-      <c r="J8" s="1">
+      <c r="L8" s="1">
         <v>1</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="M8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N8" s="1">
+        <v>11</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P8" s="1">
         <v>31</v>
       </c>
-      <c r="O8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="R8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S8" s="1">
         <v>100</v>
       </c>
-      <c r="R8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="S8" s="1">
+      <c r="T8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U8" s="1">
         <v>0</v>
       </c>
-      <c r="T8" s="1">
+      <c r="V8" s="1">
         <v>31</v>
       </c>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="9">
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="14">
         <v>1</v>
       </c>
-      <c r="Y8" s="13">
+      <c r="AA8" s="15">
         <v>0</v>
       </c>
-      <c r="Z8" s="9">
+      <c r="AB8" s="14">
         <v>1</v>
       </c>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC8" s="1">
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE8" s="1">
         <v>17</v>
       </c>
-      <c r="AD8" s="1">
+      <c r="AF8" s="1">
         <v>14</v>
       </c>
-      <c r="AE8" s="1"/>
-      <c r="AF8" s="19" t="s">
-        <v>71</v>
-      </c>
       <c r="AG8" s="1"/>
-      <c r="AH8" s="1"/>
+      <c r="AH8" s="22" t="s">
+        <v>79</v>
+      </c>
       <c r="AI8" s="1"/>
       <c r="AJ8" s="1"/>
       <c r="AK8" s="1"/>
@@ -4828,90 +4911,96 @@
       <c r="KE8" s="1"/>
       <c r="KF8" s="1"/>
       <c r="KG8" s="1"/>
+      <c r="KH8" s="1"/>
+      <c r="KI8" s="1"/>
     </row>
-    <row r="9" ht="15" customHeight="1" spans="1:293">
+    <row r="9" ht="15" customHeight="1" spans="1:295">
       <c r="A9" s="1"/>
       <c r="B9" s="1">
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G9" s="1">
+        <v>82</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I9" s="1">
         <v>2021</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K9" s="1">
         <v>1</v>
       </c>
-      <c r="J9" s="1">
+      <c r="L9" s="1">
         <v>1</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L9" s="1"/>
       <c r="M9" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="N9" s="1">
+        <v>11</v>
+      </c>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P9" s="1">
         <v>40</v>
       </c>
-      <c r="O9" s="1">
+      <c r="Q9" s="1">
         <v>12</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="R9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S9" s="1">
+        <v>960</v>
+      </c>
+      <c r="T9" s="1">
+        <v>7</v>
+      </c>
+      <c r="U9" s="1">
+        <v>7</v>
+      </c>
+      <c r="V9" s="1">
+        <v>33</v>
+      </c>
+      <c r="W9" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="14">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q9" s="1">
-        <v>960</v>
-      </c>
-      <c r="R9" s="1">
-        <v>7</v>
-      </c>
-      <c r="S9" s="1">
-        <v>7</v>
-      </c>
-      <c r="T9" s="1">
-        <v>33</v>
-      </c>
-      <c r="U9" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="9">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="13">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC9" s="1">
+      <c r="AE9" s="1">
         <v>8</v>
       </c>
-      <c r="AD9" s="1">
+      <c r="AF9" s="1">
         <v>32</v>
       </c>
-      <c r="AE9" s="1"/>
-      <c r="AF9" s="1"/>
       <c r="AG9" s="1"/>
       <c r="AH9" s="1"/>
       <c r="AI9" s="1"/>
@@ -5173,93 +5262,99 @@
       <c r="KE9" s="1"/>
       <c r="KF9" s="1"/>
       <c r="KG9" s="1"/>
+      <c r="KH9" s="1"/>
+      <c r="KI9" s="1"/>
     </row>
-    <row r="10" ht="18" spans="1:293">
+    <row r="10" ht="15.5" spans="1:295">
       <c r="A10" s="1"/>
       <c r="B10" s="1">
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>80</v>
+        <v>89</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>90</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="1">
+        <v>91</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="1">
         <v>2020</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I10" s="1">
+      <c r="J10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K10" s="1">
         <v>2</v>
       </c>
-      <c r="J10" s="1">
+      <c r="L10" s="1">
         <v>2</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L10" s="1"/>
       <c r="M10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N10" s="1">
+        <v>11</v>
+      </c>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P10" s="1">
         <v>56</v>
       </c>
-      <c r="O10" s="1">
+      <c r="Q10" s="1">
         <v>8</v>
       </c>
-      <c r="P10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q10" s="1">
+      <c r="R10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S10" s="1">
         <v>192</v>
       </c>
-      <c r="R10" s="1">
+      <c r="T10" s="1">
         <v>4</v>
       </c>
-      <c r="S10" s="1">
+      <c r="U10" s="1">
         <v>5</v>
       </c>
-      <c r="T10" s="1">
-        <f>N10-S10</f>
+      <c r="V10" s="1">
+        <f>P10-U10</f>
         <v>51</v>
       </c>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
       <c r="W10" s="1"/>
-      <c r="X10" s="9">
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="14">
         <v>1</v>
       </c>
-      <c r="Y10" s="13">
+      <c r="AA10" s="15">
         <v>0</v>
       </c>
-      <c r="Z10" s="13">
+      <c r="AB10" s="15">
         <v>0</v>
       </c>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC10" s="1">
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE10" s="1">
         <v>25</v>
       </c>
-      <c r="AD10" s="1">
+      <c r="AF10" s="1">
         <v>31</v>
       </c>
-      <c r="AE10" s="1"/>
-      <c r="AF10" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="AG10" s="1"/>
-      <c r="AH10" s="1"/>
+      <c r="AH10" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="AI10" s="1"/>
       <c r="AJ10" s="1"/>
       <c r="AK10" s="1"/>
@@ -5519,95 +5614,97 @@
       <c r="KE10" s="1"/>
       <c r="KF10" s="1"/>
       <c r="KG10" s="1"/>
+      <c r="KH10" s="1"/>
+      <c r="KI10" s="1"/>
     </row>
-    <row r="11" ht="17.6" spans="1:293">
+    <row r="11" ht="15.5" spans="1:295">
       <c r="A11" s="1" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="B11" s="1">
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G11" s="1">
+        <v>96</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I11" s="1">
         <v>2020</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="J11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="P11" s="1">
+        <v>26</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>10</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S11" s="1">
+        <v>144</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U11" s="1">
+        <v>2</v>
+      </c>
+      <c r="V11" s="1">
+        <f>P11-U11</f>
+        <v>24</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="14">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="I11" s="1">
-        <v>1</v>
-      </c>
-      <c r="J11" s="1">
-        <v>1</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="N11" s="1">
-        <v>26</v>
-      </c>
-      <c r="O11" s="1">
+      <c r="AD11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE11" s="1">
         <v>10</v>
       </c>
-      <c r="P11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>144</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="S11" s="1">
-        <v>2</v>
-      </c>
-      <c r="T11" s="1">
-        <f>N11-S11</f>
-        <v>24</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="9">
-        <v>1</v>
-      </c>
-      <c r="Y11" s="13">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC11" s="1">
-        <v>10</v>
-      </c>
-      <c r="AD11" s="1">
+      <c r="AF11" s="1">
         <v>16</v>
       </c>
-      <c r="AE11" s="1"/>
-      <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
       <c r="AH11" s="1"/>
       <c r="AI11" s="1"/>
@@ -5869,97 +5966,99 @@
       <c r="KE11" s="1"/>
       <c r="KF11" s="1"/>
       <c r="KG11" s="1"/>
+      <c r="KH11" s="1"/>
+      <c r="KI11" s="1"/>
     </row>
-    <row r="12" ht="17.6" spans="1:293">
+    <row r="12" ht="15.5" spans="1:295">
       <c r="A12" s="1"/>
       <c r="B12" s="1">
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G12" s="1">
+        <v>96</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I12" s="1">
         <v>2020</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="J12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K12" s="1">
+        <v>2</v>
+      </c>
+      <c r="L12" s="1">
+        <v>2</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="P12" s="1">
+        <v>26</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>20</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S12" s="1">
+        <v>100</v>
+      </c>
+      <c r="T12" s="1">
+        <v>2</v>
+      </c>
+      <c r="U12" s="1">
+        <v>1</v>
+      </c>
+      <c r="V12" s="1">
+        <f>P12-U12</f>
+        <v>25</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="14">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="I12" s="1">
-        <v>2</v>
-      </c>
-      <c r="J12" s="1">
-        <v>2</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="N12" s="1">
-        <v>26</v>
-      </c>
-      <c r="O12" s="1">
-        <v>20</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>100</v>
-      </c>
-      <c r="R12" s="1">
-        <v>2</v>
-      </c>
-      <c r="S12" s="1">
-        <v>1</v>
-      </c>
-      <c r="T12" s="1">
-        <f>N12-S12</f>
-        <v>25</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="9">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="13">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB12" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC12" s="1">
+      <c r="AD12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE12" s="1">
         <v>7</v>
       </c>
-      <c r="AD12" s="1">
+      <c r="AF12" s="1">
         <v>19</v>
       </c>
-      <c r="AE12" s="1"/>
-      <c r="AF12" s="19" t="s">
-        <v>93</v>
-      </c>
       <c r="AG12" s="1"/>
-      <c r="AH12" s="1"/>
+      <c r="AH12" s="22" t="s">
+        <v>104</v>
+      </c>
       <c r="AI12" s="1"/>
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1"/>
@@ -6219,97 +6318,99 @@
       <c r="KE12" s="1"/>
       <c r="KF12" s="1"/>
       <c r="KG12" s="1"/>
+      <c r="KH12" s="1"/>
+      <c r="KI12" s="1"/>
     </row>
-    <row r="13" ht="17.6" spans="1:293">
+    <row r="13" ht="15.5" spans="1:295">
       <c r="A13" s="1"/>
       <c r="B13" s="1">
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G13" s="1">
+        <v>106</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I13" s="1">
         <v>2019</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I13" s="1">
+      <c r="J13" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K13" s="1">
         <v>1</v>
       </c>
-      <c r="J13" s="1">
+      <c r="L13" s="1">
         <v>1</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="M13" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="N13" s="1">
+        <v>11</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P13" s="1">
         <v>103</v>
       </c>
-      <c r="O13" s="1">
+      <c r="Q13" s="1">
         <v>48</v>
       </c>
-      <c r="P13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q13" s="1">
+      <c r="R13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S13" s="1">
         <v>144</v>
       </c>
-      <c r="R13" s="1">
+      <c r="T13" s="1">
         <v>3</v>
       </c>
-      <c r="S13" s="1">
+      <c r="U13" s="1">
         <v>0</v>
       </c>
-      <c r="T13" s="1">
-        <f>N13-S13</f>
+      <c r="V13" s="1">
+        <f>P13-U13</f>
         <v>103</v>
       </c>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
       <c r="W13" s="1"/>
-      <c r="X13" s="9">
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="14">
         <v>1</v>
       </c>
-      <c r="Y13" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z13" s="13">
+      <c r="AA13" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB13" s="15">
         <v>0</v>
       </c>
-      <c r="AA13" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB13" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC13" s="1">
+      <c r="AC13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD13" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE13" s="1">
         <v>13</v>
       </c>
-      <c r="AD13" s="1">
+      <c r="AF13" s="1">
         <v>90</v>
       </c>
-      <c r="AE13" s="1"/>
-      <c r="AF13" s="19" t="s">
-        <v>102</v>
-      </c>
       <c r="AG13" s="1"/>
-      <c r="AH13" s="1"/>
+      <c r="AH13" s="22" t="s">
+        <v>113</v>
+      </c>
       <c r="AI13" s="1"/>
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1"/>
@@ -6569,100 +6670,102 @@
       <c r="KE13" s="1"/>
       <c r="KF13" s="1"/>
       <c r="KG13" s="1"/>
+      <c r="KH13" s="1"/>
+      <c r="KI13" s="1"/>
     </row>
-    <row r="14" ht="17.6" spans="1:293">
+    <row r="14" ht="15.5" spans="1:295">
       <c r="A14" s="1" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="B14" s="1">
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G14" s="1">
+        <v>116</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I14" s="1">
         <v>2018</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I14" s="1">
+      <c r="J14" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K14" s="1">
         <v>1</v>
       </c>
-      <c r="J14" s="1">
+      <c r="L14" s="1">
         <v>1</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="M14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P14" s="1">
+        <v>19</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>24</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S14" s="1">
+        <v>672</v>
+      </c>
+      <c r="T14" s="1">
+        <v>4</v>
+      </c>
+      <c r="U14" s="1">
+        <v>1</v>
+      </c>
+      <c r="V14" s="1">
+        <f t="shared" ref="V14:V24" si="1">P14-U14</f>
+        <v>18</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="14">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE14" s="1">
         <v>9</v>
       </c>
-      <c r="L14" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N14" s="1">
-        <v>19</v>
-      </c>
-      <c r="O14" s="1">
-        <v>24</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>672</v>
-      </c>
-      <c r="R14" s="1">
-        <v>4</v>
-      </c>
-      <c r="S14" s="1">
-        <v>1</v>
-      </c>
-      <c r="T14" s="1">
-        <f t="shared" ref="T14:T24" si="1">N14-S14</f>
-        <v>18</v>
-      </c>
-      <c r="U14" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="9">
-        <v>1</v>
-      </c>
-      <c r="Y14" s="13">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="13">
-        <v>1</v>
-      </c>
-      <c r="AA14" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC14" s="1">
+      <c r="AF14" s="1">
         <v>9</v>
       </c>
-      <c r="AD14" s="1">
-        <v>9</v>
-      </c>
-      <c r="AE14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF14" s="1"/>
-      <c r="AG14" s="1"/>
+      <c r="AG14" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="AH14" s="1"/>
       <c r="AI14" s="1"/>
       <c r="AJ14" s="1"/>
@@ -6923,100 +7026,102 @@
       <c r="KE14" s="1"/>
       <c r="KF14" s="1"/>
       <c r="KG14" s="1"/>
+      <c r="KH14" s="1"/>
+      <c r="KI14" s="1"/>
     </row>
-    <row r="15" ht="17.6" spans="1:293">
+    <row r="15" ht="15.5" spans="1:295">
       <c r="A15" s="1" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="B15" s="1">
         <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G15" s="1">
+        <v>116</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I15" s="1">
         <v>2018</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I15" s="1">
+      <c r="J15" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K15" s="1">
         <v>2</v>
       </c>
-      <c r="J15" s="1">
+      <c r="L15" s="1">
         <v>2</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="M15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N15" s="1">
+        <v>11</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P15" s="1">
         <v>20</v>
       </c>
-      <c r="O15" s="1">
+      <c r="Q15" s="1">
         <v>24</v>
       </c>
-      <c r="P15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q15" s="1">
+      <c r="R15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S15" s="1">
         <v>672</v>
       </c>
-      <c r="R15" s="1">
+      <c r="T15" s="1">
         <v>4</v>
       </c>
-      <c r="S15" s="1">
+      <c r="U15" s="1">
         <v>2</v>
       </c>
-      <c r="T15" s="1">
+      <c r="V15" s="1">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="U15" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="9">
+      <c r="W15" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="14">
         <v>1</v>
       </c>
-      <c r="Y15" s="13">
+      <c r="AA15" s="15">
         <v>0</v>
       </c>
-      <c r="Z15" s="13">
+      <c r="AB15" s="15">
         <v>1</v>
       </c>
-      <c r="AA15" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC15" s="1">
+      <c r="AC15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE15" s="1">
         <v>9</v>
       </c>
-      <c r="AD15" s="1">
+      <c r="AF15" s="1">
         <v>9</v>
       </c>
-      <c r="AE15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF15" s="1"/>
-      <c r="AG15" s="1"/>
+      <c r="AG15" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="AH15" s="1"/>
       <c r="AI15" s="1"/>
       <c r="AJ15" s="1"/>
@@ -7277,97 +7382,99 @@
       <c r="KE15" s="1"/>
       <c r="KF15" s="1"/>
       <c r="KG15" s="1"/>
+      <c r="KH15" s="1"/>
+      <c r="KI15" s="1"/>
     </row>
-    <row r="16" ht="17.6" spans="1:293">
+    <row r="16" ht="15.5" spans="1:295">
       <c r="A16" s="1"/>
       <c r="B16" s="1">
         <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G16" s="1">
+        <v>122</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I16" s="1">
         <v>2021</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I16" s="1">
+      <c r="J16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K16" s="1">
         <v>1</v>
       </c>
-      <c r="J16" s="1">
+      <c r="L16" s="1">
         <v>1</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="M16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N16" s="1">
+        <v>11</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P16" s="1">
         <v>30</v>
       </c>
-      <c r="O16" s="1">
+      <c r="Q16" s="1">
         <v>12</v>
       </c>
-      <c r="P16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q16" s="1">
+      <c r="R16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S16" s="1">
         <v>360</v>
       </c>
-      <c r="R16" s="1">
+      <c r="T16" s="1">
         <v>6</v>
       </c>
-      <c r="S16" s="1">
+      <c r="U16" s="1">
         <v>5</v>
       </c>
-      <c r="T16" s="1">
+      <c r="V16" s="1">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="U16" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="9">
+      <c r="W16" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="14">
         <v>1</v>
       </c>
-      <c r="Y16" s="13">
+      <c r="AA16" s="15">
         <v>0</v>
       </c>
-      <c r="Z16" s="13">
+      <c r="AB16" s="15">
         <v>0</v>
       </c>
-      <c r="AA16" s="1"/>
-      <c r="AB16" s="1"/>
-      <c r="AC16" s="1">
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1">
         <v>9</v>
       </c>
-      <c r="AD16" s="1">
+      <c r="AF16" s="1">
         <v>21</v>
       </c>
-      <c r="AE16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF16" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AG16" s="1"/>
-      <c r="AH16" s="1"/>
+      <c r="AG16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH16" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="AI16" s="1"/>
       <c r="AJ16" s="1"/>
       <c r="AK16" s="1"/>
@@ -7627,95 +7734,97 @@
       <c r="KE16" s="1"/>
       <c r="KF16" s="1"/>
       <c r="KG16" s="1"/>
+      <c r="KH16" s="1"/>
+      <c r="KI16" s="1"/>
     </row>
-    <row r="17" ht="17.6" spans="1:293">
+    <row r="17" ht="15.5" spans="1:295">
       <c r="A17" s="1"/>
       <c r="B17" s="1">
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G17" s="1">
+        <v>122</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I17" s="1">
         <v>2021</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I17" s="1">
+      <c r="J17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K17" s="1">
         <v>2</v>
       </c>
-      <c r="J17" s="1">
+      <c r="L17" s="1">
         <v>2</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="M17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N17" s="1">
+        <v>11</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P17" s="1">
         <v>30</v>
       </c>
-      <c r="O17" s="1">
+      <c r="Q17" s="1">
         <v>12</v>
       </c>
-      <c r="P17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q17" s="1">
+      <c r="R17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S17" s="1">
         <v>360</v>
       </c>
-      <c r="R17" s="1">
+      <c r="T17" s="1">
         <v>6</v>
       </c>
-      <c r="S17" s="1">
+      <c r="U17" s="1">
         <v>5</v>
       </c>
-      <c r="T17" s="1">
+      <c r="V17" s="1">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
       <c r="W17" s="1"/>
-      <c r="X17" s="9">
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="14">
         <v>1</v>
       </c>
-      <c r="Y17" s="13">
+      <c r="AA17" s="15">
         <v>0</v>
       </c>
-      <c r="Z17" s="13">
+      <c r="AB17" s="15">
         <v>0</v>
       </c>
-      <c r="AA17" s="1"/>
-      <c r="AB17" s="1"/>
-      <c r="AC17" s="1">
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1">
         <v>10</v>
       </c>
-      <c r="AD17" s="1">
+      <c r="AF17" s="1">
         <v>20</v>
       </c>
-      <c r="AE17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF17" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="AG17" s="1"/>
-      <c r="AH17" s="1"/>
+      <c r="AG17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH17" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="AI17" s="1"/>
       <c r="AJ17" s="1"/>
       <c r="AK17" s="1"/>
@@ -7975,91 +8084,93 @@
       <c r="KE17" s="1"/>
       <c r="KF17" s="1"/>
       <c r="KG17" s="1"/>
+      <c r="KH17" s="1"/>
+      <c r="KI17" s="1"/>
     </row>
-    <row r="18" ht="17.6" spans="1:293">
+    <row r="18" ht="15.5" spans="1:295">
       <c r="A18" s="1"/>
       <c r="B18" s="1">
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G18" s="1">
+        <v>128</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I18" s="1">
         <v>2021</v>
       </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1">
+      <c r="J18" s="1"/>
+      <c r="K18" s="1">
         <v>1</v>
       </c>
-      <c r="J18" s="1">
+      <c r="L18" s="1">
         <v>1</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="M18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N18" s="1">
+        <v>11</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P18" s="1">
         <v>13</v>
       </c>
-      <c r="O18" s="1">
+      <c r="Q18" s="1">
         <v>12</v>
       </c>
-      <c r="P18" s="1">
+      <c r="R18" s="1">
         <v>1</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="S18" s="1">
         <v>360</v>
       </c>
-      <c r="R18" s="1">
+      <c r="T18" s="1">
         <v>3</v>
       </c>
-      <c r="S18" s="1">
+      <c r="U18" s="1">
         <v>0</v>
       </c>
-      <c r="T18" s="1">
+      <c r="V18" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
       <c r="W18" s="1"/>
-      <c r="X18" s="9">
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="14">
         <v>1</v>
       </c>
-      <c r="Y18" s="13">
+      <c r="AA18" s="15">
         <v>0</v>
       </c>
-      <c r="Z18" s="13">
+      <c r="AB18" s="15">
         <v>0</v>
       </c>
-      <c r="AA18" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB18" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC18" s="1">
+      <c r="AC18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD18" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE18" s="1">
         <v>3</v>
       </c>
-      <c r="AD18" s="1">
+      <c r="AF18" s="1">
         <v>10</v>
       </c>
-      <c r="AE18" s="1"/>
-      <c r="AF18" s="1"/>
       <c r="AG18" s="1"/>
       <c r="AH18" s="1"/>
       <c r="AI18" s="1"/>
@@ -8321,91 +8432,93 @@
       <c r="KE18" s="1"/>
       <c r="KF18" s="1"/>
       <c r="KG18" s="1"/>
+      <c r="KH18" s="1"/>
+      <c r="KI18" s="1"/>
     </row>
-    <row r="19" ht="17.6" spans="1:293">
+    <row r="19" ht="15.5" spans="1:295">
       <c r="A19" s="1"/>
       <c r="B19" s="1">
         <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G19" s="1">
+        <v>128</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I19" s="1">
         <v>2021</v>
       </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1">
+      <c r="J19" s="1"/>
+      <c r="K19" s="1">
         <v>2</v>
       </c>
-      <c r="J19" s="1">
+      <c r="L19" s="1">
         <v>2</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N19" s="1">
+      <c r="M19" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P19" s="1">
         <v>27</v>
       </c>
-      <c r="O19" s="1">
+      <c r="Q19" s="1">
         <v>12</v>
       </c>
-      <c r="P19" s="1">
+      <c r="R19" s="1">
         <v>1</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="S19" s="1">
         <v>360</v>
       </c>
-      <c r="R19" s="1">
+      <c r="T19" s="1">
         <v>3</v>
       </c>
-      <c r="S19" s="1">
+      <c r="U19" s="1">
         <v>0</v>
       </c>
-      <c r="T19" s="1">
+      <c r="V19" s="1">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
       <c r="W19" s="1"/>
-      <c r="X19" s="9">
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="14">
         <v>1</v>
       </c>
-      <c r="Y19" s="13">
+      <c r="AA19" s="15">
         <v>0</v>
       </c>
-      <c r="Z19" s="13">
+      <c r="AB19" s="15">
         <v>0</v>
       </c>
-      <c r="AA19" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB19" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC19" s="1">
+      <c r="AC19" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD19" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE19" s="1">
         <v>9</v>
       </c>
-      <c r="AD19" s="1">
+      <c r="AF19" s="1">
         <v>18</v>
       </c>
-      <c r="AE19" s="1"/>
-      <c r="AF19" s="1"/>
       <c r="AG19" s="1"/>
       <c r="AH19" s="1"/>
       <c r="AI19" s="1"/>
@@ -8667,91 +8780,93 @@
       <c r="KE19" s="1"/>
       <c r="KF19" s="1"/>
       <c r="KG19" s="1"/>
+      <c r="KH19" s="1"/>
+      <c r="KI19" s="1"/>
     </row>
-    <row r="20" ht="17.6" spans="1:293">
+    <row r="20" ht="15.5" spans="1:295">
       <c r="A20" s="1"/>
       <c r="B20" s="1">
         <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="1">
+        <v>128</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I20" s="1">
         <v>2021</v>
       </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1">
+      <c r="J20" s="1"/>
+      <c r="K20" s="1">
         <v>3</v>
       </c>
-      <c r="J20" s="1">
+      <c r="L20" s="1">
         <v>3</v>
       </c>
-      <c r="K20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="M20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N20" s="1">
+        <v>11</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P20" s="1">
         <v>27</v>
       </c>
-      <c r="O20" s="1">
+      <c r="Q20" s="1">
         <v>12</v>
       </c>
-      <c r="P20" s="1">
+      <c r="R20" s="1">
         <v>1</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="S20" s="1">
         <v>360</v>
       </c>
-      <c r="R20" s="1">
+      <c r="T20" s="1">
         <v>3</v>
       </c>
-      <c r="S20" s="1">
+      <c r="U20" s="1">
         <v>0</v>
       </c>
-      <c r="T20" s="1">
+      <c r="V20" s="1">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
       <c r="W20" s="1"/>
-      <c r="X20" s="9">
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="14">
         <v>1</v>
       </c>
-      <c r="Y20" s="13">
+      <c r="AA20" s="15">
         <v>0</v>
       </c>
-      <c r="Z20" s="13">
+      <c r="AB20" s="15">
         <v>0</v>
       </c>
-      <c r="AA20" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB20" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC20" s="1">
+      <c r="AC20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD20" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE20" s="1">
         <v>12</v>
       </c>
-      <c r="AD20" s="1">
+      <c r="AF20" s="1">
         <v>15</v>
       </c>
-      <c r="AE20" s="1"/>
-      <c r="AF20" s="1"/>
       <c r="AG20" s="1"/>
       <c r="AH20" s="1"/>
       <c r="AI20" s="1"/>
@@ -9013,91 +9128,93 @@
       <c r="KE20" s="1"/>
       <c r="KF20" s="1"/>
       <c r="KG20" s="1"/>
+      <c r="KH20" s="1"/>
+      <c r="KI20" s="1"/>
     </row>
-    <row r="21" ht="17.6" spans="1:293">
+    <row r="21" ht="15.5" spans="1:295">
       <c r="A21" s="1"/>
       <c r="B21" s="1">
         <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G21" s="1">
+        <v>128</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I21" s="1">
         <v>2021</v>
       </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1">
+      <c r="J21" s="1"/>
+      <c r="K21" s="1">
         <v>4</v>
       </c>
-      <c r="J21" s="1">
+      <c r="L21" s="1">
         <v>4</v>
       </c>
-      <c r="K21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="M21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N21" s="1">
+        <v>11</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P21" s="1">
         <v>26</v>
       </c>
-      <c r="O21" s="1">
+      <c r="Q21" s="1">
         <v>12</v>
       </c>
-      <c r="P21" s="1">
+      <c r="R21" s="1">
         <v>1</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="S21" s="1">
         <v>360</v>
       </c>
-      <c r="R21" s="1">
+      <c r="T21" s="1">
         <v>3</v>
       </c>
-      <c r="S21" s="1">
+      <c r="U21" s="1">
         <v>1</v>
       </c>
-      <c r="T21" s="1">
+      <c r="V21" s="1">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
       <c r="W21" s="1"/>
-      <c r="X21" s="9">
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="14">
         <v>1</v>
       </c>
-      <c r="Y21" s="13">
+      <c r="AA21" s="15">
         <v>0</v>
       </c>
-      <c r="Z21" s="13">
+      <c r="AB21" s="15">
         <v>0</v>
       </c>
-      <c r="AA21" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB21" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC21" s="1">
+      <c r="AC21" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD21" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE21" s="1">
         <v>9</v>
       </c>
-      <c r="AD21" s="1">
+      <c r="AF21" s="1">
         <v>18</v>
       </c>
-      <c r="AE21" s="1"/>
-      <c r="AF21" s="1"/>
       <c r="AG21" s="1"/>
       <c r="AH21" s="1"/>
       <c r="AI21" s="1"/>
@@ -9359,93 +9476,95 @@
       <c r="KE21" s="1"/>
       <c r="KF21" s="1"/>
       <c r="KG21" s="1"/>
+      <c r="KH21" s="1"/>
+      <c r="KI21" s="1"/>
     </row>
-    <row r="22" ht="18" spans="1:293">
+    <row r="22" ht="15.5" spans="1:295">
       <c r="A22" s="1"/>
       <c r="B22" s="1">
         <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="E22" s="1"/>
-      <c r="F22" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G22" s="1">
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I22" s="1">
         <v>2020</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="J22" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1</v>
+      </c>
+      <c r="L22" s="1">
+        <v>1</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P22" s="1">
+        <v>38</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>84</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S22" s="1">
         <v>128</v>
       </c>
-      <c r="I22" s="1">
-        <v>1</v>
-      </c>
-      <c r="J22" s="1">
-        <v>1</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N22" s="1">
-        <v>38</v>
-      </c>
-      <c r="O22" s="1">
-        <v>84</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q22" s="1">
-        <v>128</v>
-      </c>
-      <c r="R22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="S22" s="1">
+      <c r="T22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U22" s="1">
         <v>4</v>
       </c>
-      <c r="T22" s="1">
+      <c r="V22" s="1">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
       <c r="W22" s="1"/>
-      <c r="X22" s="9">
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="14">
         <v>1</v>
       </c>
-      <c r="Y22" s="13">
+      <c r="AA22" s="15">
         <v>0</v>
       </c>
-      <c r="Z22" s="13">
+      <c r="AB22" s="15">
         <v>0</v>
       </c>
-      <c r="AA22" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB22" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC22" s="1">
+      <c r="AC22" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD22" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE22" s="1">
         <v>9</v>
       </c>
-      <c r="AD22" s="1">
+      <c r="AF22" s="1">
         <v>29</v>
       </c>
-      <c r="AE22" s="1"/>
-      <c r="AF22" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="AG22" s="1"/>
-      <c r="AH22" s="1"/>
+      <c r="AH22" s="1" t="s">
+        <v>140</v>
+      </c>
       <c r="AI22" s="1"/>
       <c r="AJ22" s="1"/>
       <c r="AK22" s="1"/>
@@ -9705,93 +9824,95 @@
       <c r="KE22" s="1"/>
       <c r="KF22" s="1"/>
       <c r="KG22" s="1"/>
+      <c r="KH22" s="1"/>
+      <c r="KI22" s="1"/>
     </row>
-    <row r="23" ht="17.6" spans="1:293">
+    <row r="23" ht="15.5" spans="1:295">
       <c r="A23" s="1"/>
       <c r="B23" s="1">
         <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="E23" s="1"/>
-      <c r="F23" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G23" s="1">
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I23" s="1">
         <v>2020</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="I23" s="1">
+      <c r="J23" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K23" s="1">
         <v>2</v>
       </c>
-      <c r="J23" s="1">
+      <c r="L23" s="1">
         <v>2</v>
       </c>
-      <c r="K23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L23" s="1"/>
       <c r="M23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N23" s="1">
+        <v>11</v>
+      </c>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P23" s="1">
         <v>33</v>
       </c>
-      <c r="O23" s="1">
+      <c r="Q23" s="1">
         <v>24</v>
       </c>
-      <c r="P23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q23" s="1">
+      <c r="R23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S23" s="1">
         <v>240</v>
       </c>
-      <c r="R23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="S23" s="1">
+      <c r="T23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U23" s="1">
         <v>2</v>
       </c>
-      <c r="T23" s="1">
+      <c r="V23" s="1">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
       <c r="W23" s="1"/>
-      <c r="X23" s="9">
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="14">
         <v>1</v>
       </c>
-      <c r="Y23" s="13">
+      <c r="AA23" s="15">
         <v>0</v>
       </c>
-      <c r="Z23" s="13">
+      <c r="AB23" s="15">
         <v>0</v>
       </c>
-      <c r="AA23" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB23" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC23" s="1">
+      <c r="AC23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD23" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE23" s="1">
         <v>7</v>
       </c>
-      <c r="AD23" s="1">
+      <c r="AF23" s="1">
         <v>26</v>
       </c>
-      <c r="AE23" s="1"/>
-      <c r="AF23" s="19" t="s">
-        <v>131</v>
-      </c>
       <c r="AG23" s="1"/>
-      <c r="AH23" s="1"/>
+      <c r="AH23" s="22" t="s">
+        <v>142</v>
+      </c>
       <c r="AI23" s="1"/>
       <c r="AJ23" s="1"/>
       <c r="AK23" s="1"/>
@@ -10051,93 +10172,95 @@
       <c r="KE23" s="1"/>
       <c r="KF23" s="1"/>
       <c r="KG23" s="1"/>
+      <c r="KH23" s="1"/>
+      <c r="KI23" s="1"/>
     </row>
-    <row r="24" ht="18" spans="1:293">
+    <row r="24" ht="15.5" spans="1:295">
       <c r="A24" s="1"/>
       <c r="B24" s="1">
         <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="E24" s="1"/>
-      <c r="F24" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G24" s="1">
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I24" s="1">
         <v>2020</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="I24" s="1">
+      <c r="J24" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K24" s="1">
         <v>3</v>
       </c>
-      <c r="J24" s="1">
+      <c r="L24" s="1">
         <v>3</v>
       </c>
-      <c r="K24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L24" s="1"/>
       <c r="M24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N24" s="1">
+        <v>11</v>
+      </c>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P24" s="1">
         <v>36</v>
       </c>
-      <c r="O24" s="1">
+      <c r="Q24" s="1">
         <v>24</v>
       </c>
-      <c r="P24" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q24" s="1">
+      <c r="R24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S24" s="1">
         <v>240</v>
       </c>
-      <c r="R24" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="S24" s="1">
+      <c r="T24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U24" s="1">
         <v>1</v>
       </c>
-      <c r="T24" s="1">
+      <c r="V24" s="1">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
       <c r="W24" s="1"/>
-      <c r="X24" s="9">
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="14">
         <v>1</v>
       </c>
-      <c r="Y24" s="13">
+      <c r="AA24" s="15">
         <v>0</v>
       </c>
-      <c r="Z24" s="13">
+      <c r="AB24" s="15">
         <v>0</v>
       </c>
-      <c r="AA24" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB24" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC24" s="1">
+      <c r="AC24" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD24" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE24" s="1">
         <v>7</v>
       </c>
-      <c r="AD24" s="1">
+      <c r="AF24" s="1">
         <v>29</v>
       </c>
-      <c r="AE24" s="1"/>
-      <c r="AF24" s="19" t="s">
-        <v>133</v>
-      </c>
       <c r="AG24" s="1"/>
-      <c r="AH24" s="1"/>
+      <c r="AH24" s="22" t="s">
+        <v>144</v>
+      </c>
       <c r="AI24" s="1"/>
       <c r="AJ24" s="1"/>
       <c r="AK24" s="1"/>
@@ -10397,91 +10520,93 @@
       <c r="KE24" s="1"/>
       <c r="KF24" s="1"/>
       <c r="KG24" s="1"/>
+      <c r="KH24" s="1"/>
+      <c r="KI24" s="1"/>
     </row>
-    <row r="25" ht="17.6" spans="1:293">
+    <row r="25" ht="15.5" spans="1:295">
       <c r="A25" s="1"/>
       <c r="B25" s="1">
         <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G25" s="1">
+        <v>146</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I25" s="1">
         <v>2022</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I25" s="1">
+      <c r="J25" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K25" s="1">
         <v>1</v>
       </c>
-      <c r="J25" s="1">
+      <c r="L25" s="1">
         <v>1</v>
       </c>
-      <c r="K25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1">
+      <c r="M25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1">
         <v>20</v>
       </c>
-      <c r="O25" s="1">
+      <c r="Q25" s="1">
         <v>10</v>
       </c>
-      <c r="P25" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q25" s="1">
+      <c r="R25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S25" s="1">
         <v>200</v>
       </c>
-      <c r="R25" s="1">
+      <c r="T25" s="1">
         <v>4</v>
       </c>
-      <c r="S25" s="1">
+      <c r="U25" s="1">
         <v>0</v>
       </c>
-      <c r="T25" s="1">
-        <f t="shared" ref="T25:T48" si="2">N25-S25</f>
+      <c r="V25" s="1">
+        <f t="shared" ref="V25:V48" si="2">P25-U25</f>
         <v>20</v>
       </c>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
       <c r="W25" s="1"/>
-      <c r="X25" s="9">
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="14">
         <v>1</v>
       </c>
-      <c r="Y25" s="13">
+      <c r="AA25" s="15">
         <v>0</v>
       </c>
-      <c r="Z25" s="13">
+      <c r="AB25" s="15">
         <v>0</v>
       </c>
-      <c r="AA25" s="1"/>
-      <c r="AB25" s="1"/>
-      <c r="AC25" s="1">
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="1">
         <v>6</v>
       </c>
-      <c r="AD25" s="1">
+      <c r="AF25" s="1">
         <v>14</v>
       </c>
-      <c r="AE25" s="1"/>
-      <c r="AF25" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="AG25" s="1"/>
-      <c r="AH25" s="1"/>
+      <c r="AH25" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="AI25" s="1"/>
       <c r="AJ25" s="1"/>
       <c r="AK25" s="1"/>
@@ -10741,93 +10866,95 @@
       <c r="KE25" s="1"/>
       <c r="KF25" s="1"/>
       <c r="KG25" s="1"/>
+      <c r="KH25" s="1"/>
+      <c r="KI25" s="1"/>
     </row>
-    <row r="26" ht="18" spans="1:293">
+    <row r="26" ht="15.5" spans="1:295">
       <c r="A26" s="1"/>
       <c r="B26" s="1">
         <v>25</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G26" s="1">
+        <v>146</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I26" s="1">
         <v>2022</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I26" s="1">
+      <c r="J26" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K26" s="1">
         <v>2</v>
       </c>
-      <c r="J26" s="1">
+      <c r="L26" s="1">
         <v>2</v>
       </c>
-      <c r="K26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1">
+      <c r="M26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1">
         <v>24</v>
       </c>
-      <c r="O26" s="1">
+      <c r="Q26" s="1">
         <v>10</v>
       </c>
-      <c r="P26" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q26" s="1">
+      <c r="R26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S26" s="1">
         <v>400</v>
       </c>
-      <c r="R26" s="1">
+      <c r="T26" s="1">
         <v>2</v>
       </c>
-      <c r="S26" s="1">
+      <c r="U26" s="1">
         <v>0</v>
       </c>
-      <c r="T26" s="1">
+      <c r="V26" s="1">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="U26" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="V26" s="1"/>
-      <c r="W26" s="1"/>
-      <c r="X26" s="9">
+      <c r="W26" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="14">
         <v>1</v>
       </c>
-      <c r="Y26" s="13">
+      <c r="AA26" s="15">
         <v>0</v>
       </c>
-      <c r="Z26" s="13">
+      <c r="AB26" s="15">
         <v>0</v>
       </c>
-      <c r="AA26" s="1"/>
-      <c r="AB26" s="1"/>
-      <c r="AC26" s="1">
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="1">
         <v>8</v>
       </c>
-      <c r="AD26" s="1">
+      <c r="AF26" s="1">
         <v>16</v>
       </c>
-      <c r="AE26" s="1"/>
-      <c r="AF26" s="19" t="s">
-        <v>141</v>
-      </c>
       <c r="AG26" s="1"/>
-      <c r="AH26" s="1"/>
+      <c r="AH26" s="22" t="s">
+        <v>152</v>
+      </c>
       <c r="AI26" s="1"/>
       <c r="AJ26" s="1"/>
       <c r="AK26" s="1"/>
@@ -11087,93 +11214,95 @@
       <c r="KE26" s="1"/>
       <c r="KF26" s="1"/>
       <c r="KG26" s="1"/>
+      <c r="KH26" s="1"/>
+      <c r="KI26" s="1"/>
     </row>
-    <row r="27" ht="17.6" spans="1:293">
+    <row r="27" ht="15.5" spans="1:295">
       <c r="A27" s="1"/>
       <c r="B27" s="1">
         <v>26</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G27" s="1">
+        <v>146</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I27" s="1">
         <v>2022</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I27" s="1">
+      <c r="J27" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K27" s="1">
         <v>3</v>
       </c>
-      <c r="J27" s="1">
+      <c r="L27" s="1">
         <v>3</v>
       </c>
-      <c r="K27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1">
+      <c r="M27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1">
         <v>25</v>
       </c>
-      <c r="O27" s="1">
+      <c r="Q27" s="1">
         <v>10</v>
       </c>
-      <c r="P27" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q27" s="1">
+      <c r="R27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S27" s="1">
         <v>400</v>
       </c>
-      <c r="R27" s="1">
+      <c r="T27" s="1">
         <v>2</v>
       </c>
-      <c r="S27" s="1">
+      <c r="U27" s="1">
         <v>0</v>
       </c>
-      <c r="T27" s="1">
+      <c r="V27" s="1">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="U27" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
-      <c r="X27" s="9">
+      <c r="W27" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="14">
         <v>1</v>
       </c>
-      <c r="Y27" s="13">
+      <c r="AA27" s="15">
         <v>0</v>
       </c>
-      <c r="Z27" s="13">
+      <c r="AB27" s="15">
         <v>0</v>
       </c>
-      <c r="AA27" s="1"/>
-      <c r="AB27" s="1"/>
-      <c r="AC27" s="1">
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1">
         <v>7</v>
       </c>
-      <c r="AD27" s="1">
+      <c r="AF27" s="1">
         <v>18</v>
       </c>
-      <c r="AE27" s="1"/>
-      <c r="AF27" s="19" t="s">
-        <v>144</v>
-      </c>
       <c r="AG27" s="1"/>
-      <c r="AH27" s="1"/>
+      <c r="AH27" s="22" t="s">
+        <v>155</v>
+      </c>
       <c r="AI27" s="1"/>
       <c r="AJ27" s="1"/>
       <c r="AK27" s="1"/>
@@ -11433,95 +11562,97 @@
       <c r="KE27" s="1"/>
       <c r="KF27" s="1"/>
       <c r="KG27" s="1"/>
+      <c r="KH27" s="1"/>
+      <c r="KI27" s="1"/>
     </row>
-    <row r="28" ht="17.6" spans="1:293">
+    <row r="28" ht="15.5" spans="1:295">
       <c r="A28" s="1"/>
       <c r="B28" s="1">
         <v>27</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G28" s="1">
+        <v>157</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I28" s="1">
         <v>2021</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="I28" s="1">
+      <c r="J28" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K28" s="1">
         <v>1</v>
       </c>
-      <c r="J28" s="1">
+      <c r="L28" s="1">
         <v>1</v>
       </c>
-      <c r="K28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="M28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N28" s="1">
+        <v>11</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P28" s="1">
         <v>105</v>
       </c>
-      <c r="O28" s="1">
+      <c r="Q28" s="1">
         <v>12</v>
       </c>
-      <c r="P28" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q28" s="1">
+      <c r="R28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S28" s="1">
         <v>360</v>
       </c>
-      <c r="R28" s="1">
+      <c r="T28" s="1">
         <v>3</v>
       </c>
-      <c r="S28" s="1">
+      <c r="U28" s="1">
         <v>0</v>
       </c>
-      <c r="T28" s="1">
+      <c r="V28" s="1">
         <f t="shared" si="2"/>
         <v>105</v>
       </c>
-      <c r="U28" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="V28" s="1"/>
-      <c r="W28" s="1"/>
-      <c r="X28" s="9">
+      <c r="W28" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="14">
         <v>1</v>
       </c>
-      <c r="Y28" s="13">
+      <c r="AA28" s="15">
         <v>0</v>
       </c>
-      <c r="Z28" s="13">
+      <c r="AB28" s="15">
         <v>0</v>
       </c>
-      <c r="AA28" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB28" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC28" s="1">
+      <c r="AC28" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE28" s="1">
         <v>51</v>
       </c>
-      <c r="AD28" s="1">
+      <c r="AF28" s="1">
         <v>54</v>
       </c>
-      <c r="AE28" s="1"/>
-      <c r="AF28" s="1"/>
       <c r="AG28" s="1"/>
       <c r="AH28" s="1"/>
       <c r="AI28" s="1"/>
@@ -11783,93 +11914,95 @@
       <c r="KE28" s="1"/>
       <c r="KF28" s="1"/>
       <c r="KG28" s="1"/>
+      <c r="KH28" s="1"/>
+      <c r="KI28" s="1"/>
     </row>
-    <row r="29" ht="17" customHeight="1" spans="1:293">
+    <row r="29" ht="17" customHeight="1" spans="1:295">
       <c r="A29" s="1" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="B29" s="1">
         <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G29" s="1">
+        <v>162</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="I29" s="1">
         <v>2023</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="I29" s="1">
+      <c r="J29" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="K29" s="1">
         <v>1</v>
       </c>
-      <c r="J29" s="1">
+      <c r="L29" s="1">
         <v>1</v>
       </c>
-      <c r="K29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L29" s="1"/>
       <c r="M29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N29" s="1">
+        <v>11</v>
+      </c>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P29" s="1">
         <v>302</v>
       </c>
-      <c r="O29" s="1">
+      <c r="Q29" s="1">
         <v>1</v>
       </c>
-      <c r="P29" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q29" s="1">
+      <c r="R29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S29" s="1">
         <v>64</v>
       </c>
-      <c r="R29" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="S29" s="1">
+      <c r="T29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U29" s="1">
         <v>3</v>
       </c>
-      <c r="T29" s="1">
+      <c r="V29" s="1">
         <f t="shared" si="2"/>
         <v>299</v>
       </c>
-      <c r="U29" s="1"/>
-      <c r="V29" s="1"/>
       <c r="W29" s="1"/>
-      <c r="X29" s="9">
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="14">
         <v>1</v>
       </c>
-      <c r="Y29" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z29" s="13">
+      <c r="AA29" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB29" s="15">
         <v>0</v>
       </c>
-      <c r="AA29" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB29" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC29" s="1">
+      <c r="AC29" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE29" s="1">
         <v>132</v>
       </c>
-      <c r="AD29" s="1">
+      <c r="AF29" s="1">
         <v>161</v>
       </c>
-      <c r="AE29" s="1"/>
-      <c r="AF29" s="1"/>
       <c r="AG29" s="1"/>
       <c r="AH29" s="1"/>
       <c r="AI29" s="1"/>
@@ -12131,95 +12264,97 @@
       <c r="KE29" s="1"/>
       <c r="KF29" s="1"/>
       <c r="KG29" s="1"/>
+      <c r="KH29" s="1"/>
+      <c r="KI29" s="1"/>
     </row>
-    <row r="30" ht="17.6" spans="1:293">
+    <row r="30" ht="15.5" spans="1:295">
       <c r="A30" s="1" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="B30" s="1">
         <v>29</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G30" s="1">
+        <v>168</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I30" s="1">
         <v>2023</v>
       </c>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1">
+      <c r="J30" s="1"/>
+      <c r="K30" s="1">
         <v>1</v>
       </c>
-      <c r="J30" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L30" s="1"/>
+      <c r="L30" s="1" t="s">
+        <v>169</v>
+      </c>
       <c r="M30" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N30" s="1">
+        <v>11</v>
+      </c>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P30" s="1">
         <v>23</v>
       </c>
-      <c r="O30" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P30" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q30" s="1">
+      <c r="Q30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S30" s="1">
         <v>90</v>
       </c>
-      <c r="R30" s="1">
+      <c r="T30" s="1">
         <v>2</v>
       </c>
-      <c r="S30" s="1">
+      <c r="U30" s="1">
         <v>1</v>
       </c>
-      <c r="T30" s="1">
+      <c r="V30" s="1">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="U30" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="V30" s="1"/>
       <c r="W30" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="X30" s="9">
+        <v>170</v>
+      </c>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z30" s="14">
         <v>1</v>
       </c>
-      <c r="Y30" s="13">
+      <c r="AA30" s="15">
         <v>0</v>
       </c>
-      <c r="Z30" s="9">
+      <c r="AB30" s="14">
         <v>1</v>
       </c>
-      <c r="AA30" s="14"/>
-      <c r="AB30" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC30" s="1"/>
-      <c r="AD30" s="1"/>
-      <c r="AE30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF30" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="AG30" s="1"/>
-      <c r="AH30" s="1"/>
+      <c r="AC30" s="16"/>
+      <c r="AD30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE30" s="1"/>
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH30" s="1" t="s">
+        <v>172</v>
+      </c>
       <c r="AI30" s="1"/>
       <c r="AJ30" s="1"/>
       <c r="AK30" s="1"/>
@@ -12479,61 +12614,63 @@
       <c r="KE30" s="1"/>
       <c r="KF30" s="1"/>
       <c r="KG30" s="1"/>
+      <c r="KH30" s="1"/>
+      <c r="KI30" s="1"/>
     </row>
-    <row r="31" ht="17.6" spans="1:293">
+    <row r="31" ht="15.5" spans="1:295">
       <c r="A31" s="1" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="B31" s="1">
         <v>30</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G31" s="1">
+        <v>175</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I31" s="1">
         <v>2014</v>
       </c>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1">
+      <c r="J31" s="1"/>
+      <c r="K31" s="1">
         <v>1</v>
       </c>
-      <c r="J31" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="L31" s="1" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N31" s="1">
+        <v>11</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P31" s="1">
         <v>24</v>
       </c>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1">
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1">
         <v>40</v>
       </c>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1">
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
@@ -12805,61 +12942,63 @@
       <c r="KE31" s="1"/>
       <c r="KF31" s="1"/>
       <c r="KG31" s="1"/>
+      <c r="KH31" s="1"/>
+      <c r="KI31" s="1"/>
     </row>
-    <row r="32" ht="17.6" spans="1:293">
+    <row r="32" ht="15.5" spans="1:295">
       <c r="A32" s="1" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="B32" s="1">
         <v>31</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G32" s="1">
+        <v>178</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I32" s="1">
         <v>2015</v>
       </c>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1">
+      <c r="J32" s="1"/>
+      <c r="K32" s="1">
         <v>1</v>
       </c>
-      <c r="J32" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="L32" s="1" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N32" s="1">
+        <v>11</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P32" s="1">
         <v>20</v>
       </c>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1">
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1">
         <v>40</v>
       </c>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1">
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
@@ -13131,61 +13270,63 @@
       <c r="KE32" s="1"/>
       <c r="KF32" s="1"/>
       <c r="KG32" s="1"/>
+      <c r="KH32" s="1"/>
+      <c r="KI32" s="1"/>
     </row>
-    <row r="33" ht="17.6" spans="1:293">
+    <row r="33" ht="15.5" spans="1:295">
       <c r="A33" s="1" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="B33" s="1">
         <v>32</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G33" s="1">
+        <v>178</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I33" s="1">
         <v>2015</v>
       </c>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1">
+      <c r="J33" s="1"/>
+      <c r="K33" s="1">
         <v>2</v>
       </c>
-      <c r="J33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="L33" s="1" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N33" s="1">
+        <v>11</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P33" s="1">
         <v>21</v>
       </c>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1">
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1">
         <v>40</v>
       </c>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1">
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
@@ -13457,66 +13598,68 @@
       <c r="KE33" s="1"/>
       <c r="KF33" s="1"/>
       <c r="KG33" s="1"/>
+      <c r="KH33" s="1"/>
+      <c r="KI33" s="1"/>
     </row>
-    <row r="34" ht="17.6" spans="1:293">
+    <row r="34" ht="15.5" spans="1:295">
       <c r="A34" s="1" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B34" s="1">
         <v>33</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G34" s="1">
+        <v>182</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="I34" s="1">
         <v>2014</v>
       </c>
-      <c r="H34" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="I34" s="1">
+      <c r="J34" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="K34" s="1">
         <v>1</v>
       </c>
-      <c r="J34" s="1">
+      <c r="L34" s="1">
         <v>1</v>
       </c>
-      <c r="K34" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="M34" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N34" s="1">
+        <v>11</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P34" s="1">
         <v>24</v>
       </c>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1">
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1">
         <v>60</v>
       </c>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1">
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="U34" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="V34" s="1"/>
-      <c r="W34" s="1"/>
+      <c r="W34" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
@@ -13787,70 +13930,72 @@
       <c r="KE34" s="1"/>
       <c r="KF34" s="1"/>
       <c r="KG34" s="1"/>
+      <c r="KH34" s="1"/>
+      <c r="KI34" s="1"/>
     </row>
-    <row r="35" ht="17.6" spans="1:293">
+    <row r="35" ht="15.5" spans="1:295">
       <c r="A35" s="1" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="B35" s="1">
         <v>34</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G35" s="1">
+        <v>182</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="I35" s="1">
         <v>2014</v>
       </c>
-      <c r="H35" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="I35" s="1">
+      <c r="J35" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="K35" s="1">
         <v>2</v>
       </c>
-      <c r="J35" s="1">
+      <c r="L35" s="1">
         <v>2</v>
       </c>
-      <c r="K35" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="M35" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N35" s="1">
+        <v>11</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P35" s="1">
         <v>18</v>
       </c>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1">
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1">
         <v>60</v>
       </c>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
-      <c r="T35" s="1">
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="U35" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="V35" s="1"/>
-      <c r="W35" s="1"/>
+      <c r="W35" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="X35" s="1"/>
-      <c r="Y35" s="15"/>
+      <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
-      <c r="AA35" s="1"/>
+      <c r="AA35" s="17"/>
       <c r="AB35" s="1"/>
       <c r="AC35" s="1"/>
       <c r="AD35" s="1"/>
@@ -14117,66 +14262,68 @@
       <c r="KE35" s="1"/>
       <c r="KF35" s="1"/>
       <c r="KG35" s="1"/>
+      <c r="KH35" s="1"/>
+      <c r="KI35" s="1"/>
     </row>
-    <row r="36" ht="17.6" spans="1:293">
+    <row r="36" ht="15.5" spans="1:295">
       <c r="A36" s="1" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="B36" s="1">
         <v>35</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G36" s="1">
+        <v>182</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="I36" s="1">
         <v>2014</v>
       </c>
-      <c r="H36" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="I36" s="1">
+      <c r="J36" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="K36" s="1">
         <v>3</v>
       </c>
-      <c r="J36" s="1">
+      <c r="L36" s="1">
         <v>3</v>
       </c>
-      <c r="K36" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="M36" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N36" s="1">
+        <v>11</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P36" s="1">
         <v>22</v>
       </c>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1">
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1">
         <v>60</v>
       </c>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1">
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="U36" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="V36" s="1"/>
-      <c r="W36" s="1"/>
+      <c r="W36" s="1" t="s">
+        <v>192</v>
+      </c>
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
@@ -14447,66 +14594,68 @@
       <c r="KE36" s="1"/>
       <c r="KF36" s="1"/>
       <c r="KG36" s="1"/>
+      <c r="KH36" s="1"/>
+      <c r="KI36" s="1"/>
     </row>
-    <row r="37" ht="17.6" spans="1:293">
+    <row r="37" ht="15.5" spans="1:295">
       <c r="A37" s="1" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="B37" s="1">
         <v>36</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G37" s="1">
+      <c r="I37" s="1">
         <v>2014</v>
       </c>
-      <c r="H37" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="I37" s="1">
+      <c r="J37" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="K37" s="1">
         <v>4</v>
       </c>
-      <c r="J37" s="1">
+      <c r="L37" s="1">
         <v>4</v>
       </c>
-      <c r="K37" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="M37" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N37" s="1">
+        <v>11</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P37" s="1">
         <v>20</v>
       </c>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1">
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1">
         <v>60</v>
       </c>
-      <c r="R37" s="1"/>
-      <c r="S37" s="1"/>
-      <c r="T37" s="1">
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="U37" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="V37" s="1"/>
-      <c r="W37" s="1"/>
+      <c r="W37" s="1" t="s">
+        <v>195</v>
+      </c>
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
@@ -14777,93 +14926,95 @@
       <c r="KE37" s="1"/>
       <c r="KF37" s="1"/>
       <c r="KG37" s="1"/>
+      <c r="KH37" s="1"/>
+      <c r="KI37" s="1"/>
     </row>
-    <row r="38" ht="17.6" spans="1:293">
+    <row r="38" ht="15.5" spans="1:295">
       <c r="A38" s="1"/>
       <c r="B38" s="1">
         <v>37</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="G38" s="1">
+        <v>197</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I38" s="1">
         <v>2023</v>
       </c>
-      <c r="H38" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="I38" s="1">
+      <c r="J38" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="K38" s="1">
         <v>1</v>
       </c>
-      <c r="J38" s="1">
+      <c r="L38" s="1">
         <v>1</v>
       </c>
-      <c r="K38" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L38" s="1"/>
       <c r="M38" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N38" s="1">
+        <v>11</v>
+      </c>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P38" s="1">
         <v>40</v>
       </c>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1">
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1">
         <v>24</v>
       </c>
-      <c r="Q38" s="1">
+      <c r="S38" s="1">
         <v>240</v>
       </c>
-      <c r="R38" s="1">
+      <c r="T38" s="1">
         <v>4</v>
       </c>
-      <c r="S38" s="1">
+      <c r="U38" s="1">
         <v>3</v>
       </c>
-      <c r="T38" s="1">
+      <c r="V38" s="1">
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="U38" s="1"/>
-      <c r="V38" s="1"/>
       <c r="W38" s="1"/>
-      <c r="X38" s="9">
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="14">
         <v>1</v>
       </c>
-      <c r="Y38" s="16">
+      <c r="AA38" s="18">
         <v>0</v>
       </c>
-      <c r="Z38" s="9">
+      <c r="AB38" s="14">
         <v>1</v>
       </c>
-      <c r="AA38" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB38" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC38" s="1">
+      <c r="AC38" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD38" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE38" s="1">
         <v>8</v>
       </c>
-      <c r="AD38" s="1">
+      <c r="AF38" s="1">
         <v>32</v>
       </c>
-      <c r="AE38" s="1"/>
-      <c r="AF38" s="1" t="s">
-        <v>189</v>
-      </c>
       <c r="AG38" s="1"/>
-      <c r="AH38" s="1"/>
+      <c r="AH38" s="1" t="s">
+        <v>200</v>
+      </c>
       <c r="AI38" s="1"/>
       <c r="AJ38" s="1"/>
       <c r="AK38" s="1"/>
@@ -15123,91 +15274,93 @@
       <c r="KE38" s="1"/>
       <c r="KF38" s="1"/>
       <c r="KG38" s="1"/>
+      <c r="KH38" s="1"/>
+      <c r="KI38" s="1"/>
     </row>
-    <row r="39" ht="17.6" spans="1:293">
+    <row r="39" ht="15.5" spans="1:295">
       <c r="A39" s="1"/>
       <c r="B39" s="1">
         <v>38</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="G39" s="1">
+        <v>202</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="I39" s="1">
         <v>2023</v>
       </c>
-      <c r="H39" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="I39" s="1">
+      <c r="J39" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="K39" s="1">
         <v>1</v>
       </c>
-      <c r="J39" s="1">
+      <c r="L39" s="1">
         <v>1</v>
       </c>
-      <c r="K39" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="M39" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N39" s="1">
+        <v>11</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P39" s="1">
         <v>144</v>
       </c>
-      <c r="O39" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P39" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q39" s="1">
+      <c r="Q39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S39" s="1">
         <v>60</v>
       </c>
-      <c r="R39" s="1">
+      <c r="T39" s="1">
         <v>2</v>
       </c>
-      <c r="S39" s="1">
+      <c r="U39" s="1">
         <v>2</v>
       </c>
-      <c r="T39" s="1">
-        <f t="shared" ref="T39:T48" si="3">N39-S39</f>
+      <c r="V39" s="1">
+        <f t="shared" ref="V39:V48" si="3">P39-U39</f>
         <v>142</v>
       </c>
-      <c r="U39" s="1"/>
-      <c r="V39" s="1"/>
       <c r="W39" s="1"/>
-      <c r="X39" s="9">
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="14">
         <v>1</v>
       </c>
-      <c r="Y39" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z39" s="16">
+      <c r="AA39" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB39" s="18">
         <v>0</v>
       </c>
-      <c r="AA39" s="1"/>
-      <c r="AB39" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC39" s="1">
+      <c r="AC39" s="1"/>
+      <c r="AD39" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE39" s="1">
         <v>31</v>
       </c>
-      <c r="AD39" s="1">
+      <c r="AF39" s="1">
         <v>112</v>
       </c>
-      <c r="AE39" s="1"/>
-      <c r="AF39" s="1"/>
       <c r="AG39" s="1"/>
       <c r="AH39" s="1"/>
       <c r="AI39" s="1"/>
@@ -15469,97 +15622,99 @@
       <c r="KE39" s="1"/>
       <c r="KF39" s="1"/>
       <c r="KG39" s="1"/>
+      <c r="KH39" s="1"/>
+      <c r="KI39" s="1"/>
     </row>
-    <row r="40" ht="17.6" spans="1:293">
+    <row r="40" ht="15.5" spans="1:295">
       <c r="A40" s="1"/>
       <c r="B40" s="1">
         <v>39</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="G40" s="1">
+        <v>206</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I40" s="1">
         <v>2021</v>
       </c>
-      <c r="H40" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I40" s="1">
+      <c r="J40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K40" s="1">
         <v>1</v>
       </c>
-      <c r="J40" s="1">
+      <c r="L40" s="1">
         <v>1</v>
       </c>
-      <c r="K40" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="M40" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N40" s="1">
+        <v>11</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P40" s="1">
         <v>109</v>
       </c>
-      <c r="O40" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P40" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q40" s="1">
+      <c r="Q40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S40" s="1">
         <v>360</v>
       </c>
-      <c r="R40" s="1">
+      <c r="T40" s="1">
         <v>6</v>
       </c>
-      <c r="S40" s="1">
+      <c r="U40" s="1">
         <v>1</v>
       </c>
-      <c r="T40" s="1">
+      <c r="V40" s="1">
         <f t="shared" si="3"/>
         <v>108</v>
       </c>
-      <c r="U40" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="V40" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="W40" s="1"/>
-      <c r="X40" s="9">
+      <c r="W40" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="X40" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="14">
         <v>1</v>
       </c>
-      <c r="Y40" s="16">
+      <c r="AA40" s="18">
         <v>0</v>
       </c>
-      <c r="Z40" s="16">
+      <c r="AB40" s="18">
         <v>0</v>
       </c>
-      <c r="AA40" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB40" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC40" s="1">
+      <c r="AC40" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE40" s="1">
         <v>50</v>
       </c>
-      <c r="AD40" s="1">
+      <c r="AF40" s="1">
         <v>59</v>
       </c>
-      <c r="AE40" s="1"/>
-      <c r="AF40" s="1"/>
       <c r="AG40" s="1"/>
       <c r="AH40" s="1"/>
       <c r="AI40" s="1"/>
@@ -15821,95 +15976,97 @@
       <c r="KE40" s="1"/>
       <c r="KF40" s="1"/>
       <c r="KG40" s="1"/>
+      <c r="KH40" s="1"/>
+      <c r="KI40" s="1"/>
     </row>
-    <row r="41" ht="17.6" spans="1:293">
+    <row r="41" ht="15.5" spans="1:295">
       <c r="A41" s="1" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="B41" s="1">
         <v>40</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="E41" s="1"/>
-      <c r="F41" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="G41" s="1">
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I41" s="1">
         <v>2023</v>
       </c>
-      <c r="H41" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="I41" s="1">
+      <c r="J41" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K41" s="1">
         <v>1</v>
       </c>
-      <c r="J41" s="1">
+      <c r="L41" s="1">
         <v>1</v>
       </c>
-      <c r="K41" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1">
+      <c r="M41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1">
         <v>40</v>
       </c>
-      <c r="O41" s="1">
+      <c r="Q41" s="1">
         <v>24</v>
-      </c>
-      <c r="P41" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q41" s="1">
-        <v>300</v>
       </c>
       <c r="R41" s="1">
         <v>1</v>
       </c>
       <c r="S41" s="1">
+        <v>300</v>
+      </c>
+      <c r="T41" s="1">
         <v>1</v>
       </c>
-      <c r="T41" s="1">
+      <c r="U41" s="1">
+        <v>1</v>
+      </c>
+      <c r="V41" s="1">
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="U41" s="1"/>
-      <c r="V41" s="1"/>
       <c r="W41" s="1"/>
-      <c r="X41" s="9">
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="14">
         <v>1</v>
       </c>
-      <c r="Y41" s="16">
+      <c r="AA41" s="18">
         <v>0</v>
       </c>
-      <c r="Z41" s="16">
+      <c r="AB41" s="18">
         <v>0</v>
       </c>
-      <c r="AA41" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB41" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC41" s="1">
+      <c r="AC41" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD41" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE41" s="1">
         <v>8</v>
       </c>
-      <c r="AD41" s="1">
+      <c r="AF41" s="1">
         <v>32</v>
       </c>
-      <c r="AE41" s="1"/>
-      <c r="AF41" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="AG41" s="1"/>
-      <c r="AH41" s="1"/>
+      <c r="AH41" s="1" t="s">
+        <v>214</v>
+      </c>
       <c r="AI41" s="1"/>
       <c r="AJ41" s="1"/>
       <c r="AK41" s="1"/>
@@ -16169,97 +16326,99 @@
       <c r="KE41" s="1"/>
       <c r="KF41" s="1"/>
       <c r="KG41" s="1"/>
+      <c r="KH41" s="1"/>
+      <c r="KI41" s="1"/>
     </row>
-    <row r="42" ht="17.6" spans="1:293">
+    <row r="42" ht="15.5" spans="1:295">
       <c r="A42" s="1"/>
       <c r="B42" s="1">
         <v>41</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="G42" s="1">
+        <v>216</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I42" s="1">
         <v>2022</v>
       </c>
-      <c r="H42" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="I42" s="1">
+      <c r="J42" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="K42" s="1">
         <v>1</v>
       </c>
-      <c r="J42" s="1">
+      <c r="L42" s="1">
         <v>1</v>
       </c>
-      <c r="K42" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L42" s="1"/>
       <c r="M42" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N42" s="1">
+        <v>11</v>
+      </c>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P42" s="1">
         <v>30</v>
       </c>
-      <c r="O42" s="1">
+      <c r="Q42" s="1">
         <v>24</v>
       </c>
-      <c r="P42" s="1">
+      <c r="R42" s="1">
         <v>1</v>
       </c>
-      <c r="Q42" s="1">
+      <c r="S42" s="1">
         <v>240</v>
       </c>
-      <c r="R42" s="1">
+      <c r="T42" s="1">
         <v>2</v>
       </c>
-      <c r="S42" s="1">
+      <c r="U42" s="1">
         <v>3</v>
       </c>
-      <c r="T42" s="1">
+      <c r="V42" s="1">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="U42" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="V42" s="1"/>
-      <c r="W42" s="1"/>
-      <c r="X42" s="9">
+      <c r="W42" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="X42" s="1"/>
+      <c r="Y42" s="1"/>
+      <c r="Z42" s="14">
         <v>1</v>
       </c>
-      <c r="Y42" s="16">
+      <c r="AA42" s="18">
         <v>0</v>
       </c>
-      <c r="Z42" s="16">
+      <c r="AB42" s="18">
         <v>0</v>
       </c>
-      <c r="AA42" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="AB42" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="AC42" s="1">
+      <c r="AC42" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AD42" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AE42" s="1">
         <v>14</v>
       </c>
-      <c r="AD42" s="1">
+      <c r="AF42" s="1">
         <v>16</v>
       </c>
-      <c r="AE42" s="1"/>
-      <c r="AF42" s="1" t="s">
-        <v>211</v>
-      </c>
       <c r="AG42" s="1"/>
-      <c r="AH42" s="1"/>
+      <c r="AH42" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="AI42" s="1"/>
       <c r="AJ42" s="1"/>
       <c r="AK42" s="1"/>
@@ -16519,97 +16678,99 @@
       <c r="KE42" s="1"/>
       <c r="KF42" s="1"/>
       <c r="KG42" s="1"/>
+      <c r="KH42" s="1"/>
+      <c r="KI42" s="1"/>
     </row>
-    <row r="43" ht="17.6" spans="1:293">
+    <row r="43" ht="15.5" spans="1:295">
       <c r="A43" s="1"/>
       <c r="B43" s="1">
         <v>42</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="G43" s="1">
+        <v>216</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I43" s="1">
         <v>2022</v>
       </c>
-      <c r="H43" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="I43" s="1">
+      <c r="J43" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="K43" s="1">
         <v>2</v>
       </c>
-      <c r="J43" s="1">
+      <c r="L43" s="1">
         <v>2</v>
       </c>
-      <c r="K43" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L43" s="1"/>
       <c r="M43" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N43" s="1">
+        <v>11</v>
+      </c>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P43" s="1">
         <v>104</v>
       </c>
-      <c r="O43" s="1">
+      <c r="Q43" s="1">
         <v>24</v>
       </c>
-      <c r="P43" s="1">
+      <c r="R43" s="1">
         <v>1</v>
       </c>
-      <c r="Q43" s="1">
+      <c r="S43" s="1">
         <v>240</v>
       </c>
-      <c r="R43" s="1">
+      <c r="T43" s="1">
         <v>2</v>
       </c>
-      <c r="S43" s="1">
+      <c r="U43" s="1">
         <v>2</v>
       </c>
-      <c r="T43" s="1">
+      <c r="V43" s="1">
         <f t="shared" si="3"/>
         <v>102</v>
       </c>
-      <c r="U43" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="V43" s="1"/>
-      <c r="W43" s="1"/>
-      <c r="X43" s="9">
+      <c r="W43" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="X43" s="1"/>
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="14">
         <v>1</v>
       </c>
-      <c r="Y43" s="16">
+      <c r="AA43" s="18">
         <v>0</v>
       </c>
-      <c r="Z43" s="16">
+      <c r="AB43" s="18">
         <v>0</v>
       </c>
-      <c r="AA43" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="AB43" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="AC43" s="1">
+      <c r="AC43" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AD43" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AE43" s="1">
         <v>14</v>
       </c>
-      <c r="AD43" s="1">
+      <c r="AF43" s="1">
         <v>90</v>
       </c>
-      <c r="AE43" s="1"/>
-      <c r="AF43" s="1" t="s">
-        <v>211</v>
-      </c>
       <c r="AG43" s="1"/>
-      <c r="AH43" s="1"/>
+      <c r="AH43" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="AI43" s="1"/>
       <c r="AJ43" s="1"/>
       <c r="AK43" s="1"/>
@@ -16869,94 +17030,96 @@
       <c r="KE43" s="1"/>
       <c r="KF43" s="1"/>
       <c r="KG43" s="1"/>
+      <c r="KH43" s="1"/>
+      <c r="KI43" s="1"/>
     </row>
-    <row r="44" ht="17.6" spans="1:293">
+    <row r="44" ht="15.5" spans="1:295">
       <c r="A44" s="1" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="B44" s="1">
         <v>43</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="G44" s="1">
+        <v>226</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="I44" s="1">
         <v>2022</v>
       </c>
-      <c r="H44" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I44" s="1">
+      <c r="J44" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="K44" s="1">
         <v>1</v>
       </c>
-      <c r="J44" s="1">
+      <c r="L44" s="1">
         <v>1</v>
       </c>
-      <c r="K44" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="M44" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N44" s="1">
+        <v>11</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P44" s="1">
         <v>328</v>
       </c>
-      <c r="O44" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P44" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q44" s="1">
+      <c r="Q44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S44" s="1">
         <v>360</v>
       </c>
-      <c r="R44" s="1">
+      <c r="T44" s="1">
         <v>3</v>
       </c>
-      <c r="S44" s="1">
+      <c r="U44" s="1">
         <v>40</v>
       </c>
-      <c r="T44" s="1">
+      <c r="V44" s="1">
         <f t="shared" si="3"/>
         <v>288</v>
       </c>
-      <c r="U44" s="1"/>
-      <c r="V44" s="1"/>
       <c r="W44" s="1"/>
-      <c r="X44" s="9">
+      <c r="X44" s="1"/>
+      <c r="Y44" s="1"/>
+      <c r="Z44" s="14">
         <v>1</v>
       </c>
-      <c r="Y44" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z44" s="16">
+      <c r="AA44" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB44" s="18">
         <v>0</v>
       </c>
-      <c r="AA44" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB44" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC44" s="1"/>
-      <c r="AD44" s="1"/>
-      <c r="AE44" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="AC44" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE44" s="1"/>
       <c r="AF44" s="1"/>
-      <c r="AG44" s="1"/>
+      <c r="AG44" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="AH44" s="1"/>
       <c r="AI44" s="1"/>
       <c r="AJ44" s="1"/>
@@ -17217,95 +17380,97 @@
       <c r="KE44" s="1"/>
       <c r="KF44" s="1"/>
       <c r="KG44" s="1"/>
+      <c r="KH44" s="1"/>
+      <c r="KI44" s="1"/>
     </row>
-    <row r="45" ht="17.6" spans="1:293">
+    <row r="45" ht="15.5" spans="1:295">
       <c r="A45" s="1"/>
       <c r="B45" s="1">
         <v>44</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="E45" s="1"/>
-      <c r="F45" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G45" s="1">
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I45" s="1">
         <v>2020</v>
       </c>
-      <c r="H45" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I45" s="1">
+      <c r="J45" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K45" s="1">
         <v>1</v>
       </c>
-      <c r="J45" s="1">
+      <c r="L45" s="1">
         <v>1</v>
       </c>
-      <c r="K45" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="M45" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="N45" s="1">
+        <v>11</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P45" s="1">
         <v>23</v>
       </c>
-      <c r="O45" s="1">
+      <c r="Q45" s="1">
         <v>24</v>
       </c>
-      <c r="P45" s="1">
+      <c r="R45" s="1">
         <v>1</v>
       </c>
-      <c r="Q45" s="1">
+      <c r="S45" s="1">
         <v>360</v>
       </c>
-      <c r="R45" s="1">
+      <c r="T45" s="1">
         <v>3</v>
       </c>
-      <c r="S45" s="1">
+      <c r="U45" s="1">
         <v>5</v>
       </c>
-      <c r="T45" s="1">
+      <c r="V45" s="1">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="U45" s="1"/>
-      <c r="V45" s="1"/>
       <c r="W45" s="1"/>
-      <c r="X45" s="9">
+      <c r="X45" s="1"/>
+      <c r="Y45" s="1"/>
+      <c r="Z45" s="14">
         <v>1</v>
       </c>
-      <c r="Y45" s="16">
+      <c r="AA45" s="18">
         <v>0</v>
       </c>
-      <c r="Z45" s="16">
+      <c r="AB45" s="18">
         <v>0</v>
       </c>
-      <c r="AA45" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="AB45" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC45" s="1">
+      <c r="AC45" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AD45" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE45" s="1">
         <v>7</v>
       </c>
-      <c r="AD45" s="1">
+      <c r="AF45" s="1">
         <v>11</v>
       </c>
-      <c r="AE45" s="1"/>
-      <c r="AF45" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="AG45" s="1"/>
-      <c r="AH45" s="1"/>
+      <c r="AH45" s="1" t="s">
+        <v>232</v>
+      </c>
       <c r="AI45" s="1"/>
       <c r="AJ45" s="1"/>
       <c r="AK45" s="1"/>
@@ -17565,95 +17730,97 @@
       <c r="KE45" s="1"/>
       <c r="KF45" s="1"/>
       <c r="KG45" s="1"/>
+      <c r="KH45" s="1"/>
+      <c r="KI45" s="1"/>
     </row>
-    <row r="46" ht="17.6" spans="1:293">
+    <row r="46" ht="15.5" spans="1:295">
       <c r="A46" s="1"/>
       <c r="B46" s="1">
         <v>45</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="E46" s="1"/>
-      <c r="F46" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G46" s="1">
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I46" s="1">
         <v>2020</v>
       </c>
-      <c r="H46" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I46" s="1">
+      <c r="J46" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K46" s="1">
         <v>1</v>
       </c>
-      <c r="J46" s="1">
+      <c r="L46" s="1">
         <v>1</v>
       </c>
-      <c r="K46" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="M46" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="N46" s="1">
+        <v>11</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P46" s="1">
         <v>21</v>
       </c>
-      <c r="O46" s="1">
+      <c r="Q46" s="1">
         <v>24</v>
       </c>
-      <c r="P46" s="1">
+      <c r="R46" s="1">
         <v>1</v>
       </c>
-      <c r="Q46" s="1">
+      <c r="S46" s="1">
         <v>360</v>
       </c>
-      <c r="R46" s="1">
+      <c r="T46" s="1">
         <v>3</v>
       </c>
-      <c r="S46" s="1">
+      <c r="U46" s="1">
         <v>3</v>
       </c>
-      <c r="T46" s="1">
+      <c r="V46" s="1">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="U46" s="1"/>
-      <c r="V46" s="1"/>
       <c r="W46" s="1"/>
-      <c r="X46" s="9">
+      <c r="X46" s="1"/>
+      <c r="Y46" s="1"/>
+      <c r="Z46" s="14">
         <v>1</v>
       </c>
-      <c r="Y46" s="16">
+      <c r="AA46" s="18">
         <v>0</v>
       </c>
-      <c r="Z46" s="16">
+      <c r="AB46" s="18">
         <v>0</v>
       </c>
-      <c r="AA46" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="AB46" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC46" s="1">
+      <c r="AC46" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AD46" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE46" s="1">
         <v>6</v>
       </c>
-      <c r="AD46" s="1">
+      <c r="AF46" s="1">
         <v>12</v>
       </c>
-      <c r="AE46" s="1"/>
-      <c r="AF46" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="AG46" s="1"/>
-      <c r="AH46" s="1"/>
+      <c r="AH46" s="1" t="s">
+        <v>232</v>
+      </c>
       <c r="AI46" s="1"/>
       <c r="AJ46" s="1"/>
       <c r="AK46" s="1"/>
@@ -17913,95 +18080,97 @@
       <c r="KE46" s="1"/>
       <c r="KF46" s="1"/>
       <c r="KG46" s="1"/>
+      <c r="KH46" s="1"/>
+      <c r="KI46" s="1"/>
     </row>
-    <row r="47" ht="17.6" spans="1:293">
+    <row r="47" ht="15.5" spans="1:295">
       <c r="A47" s="1"/>
       <c r="B47" s="1">
         <v>46</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="E47" s="1"/>
-      <c r="F47" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G47" s="1">
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I47" s="1">
         <v>2020</v>
       </c>
-      <c r="H47" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I47" s="1">
+      <c r="J47" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K47" s="1">
         <v>1</v>
       </c>
-      <c r="J47" s="1">
+      <c r="L47" s="1">
         <v>1</v>
       </c>
-      <c r="K47" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L47" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="M47" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="N47" s="1">
+        <v>11</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P47" s="1">
         <v>18</v>
       </c>
-      <c r="O47" s="1">
+      <c r="Q47" s="1">
         <v>24</v>
       </c>
-      <c r="P47" s="1">
+      <c r="R47" s="1">
         <v>1</v>
       </c>
-      <c r="Q47" s="1">
+      <c r="S47" s="1">
         <v>360</v>
       </c>
-      <c r="R47" s="1">
+      <c r="T47" s="1">
         <v>3</v>
       </c>
-      <c r="S47" s="1">
+      <c r="U47" s="1">
         <v>0</v>
       </c>
-      <c r="T47" s="1">
+      <c r="V47" s="1">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="U47" s="1"/>
-      <c r="V47" s="1"/>
       <c r="W47" s="1"/>
-      <c r="X47" s="9">
+      <c r="X47" s="1"/>
+      <c r="Y47" s="1"/>
+      <c r="Z47" s="14">
         <v>1</v>
       </c>
-      <c r="Y47" s="16">
+      <c r="AA47" s="18">
         <v>0</v>
       </c>
-      <c r="Z47" s="16">
+      <c r="AB47" s="18">
         <v>0</v>
       </c>
-      <c r="AA47" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="AB47" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC47" s="1">
+      <c r="AC47" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AD47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE47" s="1">
         <v>0</v>
       </c>
-      <c r="AD47" s="1">
+      <c r="AF47" s="1">
         <v>18</v>
       </c>
-      <c r="AE47" s="1"/>
-      <c r="AF47" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="AG47" s="1"/>
-      <c r="AH47" s="1"/>
+      <c r="AH47" s="1" t="s">
+        <v>232</v>
+      </c>
       <c r="AI47" s="1"/>
       <c r="AJ47" s="1"/>
       <c r="AK47" s="1"/>
@@ -18261,90 +18430,92 @@
       <c r="KE47" s="1"/>
       <c r="KF47" s="1"/>
       <c r="KG47" s="1"/>
+      <c r="KH47" s="1"/>
+      <c r="KI47" s="1"/>
     </row>
-    <row r="48" ht="17.6" spans="1:293">
+    <row r="48" ht="15.5" spans="1:295">
       <c r="A48" s="1"/>
       <c r="B48" s="1">
         <v>47</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G48" s="1">
+        <v>236</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="I48" s="1">
         <v>2023</v>
       </c>
-      <c r="H48" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="I48" s="1">
+      <c r="J48" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="K48" s="1">
         <v>1</v>
       </c>
-      <c r="J48" s="1">
+      <c r="L48" s="1">
         <v>1</v>
       </c>
-      <c r="K48" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L48" s="1"/>
       <c r="M48" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N48" s="1">
+        <v>11</v>
+      </c>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P48" s="1">
         <v>380</v>
       </c>
-      <c r="O48" s="1">
+      <c r="Q48" s="1">
         <v>12</v>
       </c>
-      <c r="P48" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q48" s="1">
+      <c r="R48" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S48" s="1">
         <v>96</v>
       </c>
-      <c r="R48" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="S48" s="1">
+      <c r="T48" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U48" s="1">
         <v>32</v>
       </c>
-      <c r="T48" s="1">
+      <c r="V48" s="1">
         <f t="shared" si="3"/>
         <v>348</v>
       </c>
-      <c r="U48" s="1"/>
-      <c r="V48" s="1"/>
       <c r="W48" s="1"/>
-      <c r="X48" s="9">
+      <c r="X48" s="1"/>
+      <c r="Y48" s="1"/>
+      <c r="Z48" s="14">
         <v>1</v>
       </c>
-      <c r="Y48" s="16">
+      <c r="AA48" s="18">
         <v>0</v>
       </c>
-      <c r="Z48" s="16">
+      <c r="AB48" s="18">
         <v>0</v>
       </c>
-      <c r="AA48" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB48" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC48" s="1"/>
-      <c r="AD48" s="1"/>
-      <c r="AE48" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="AC48" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD48" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE48" s="1"/>
       <c r="AF48" s="1"/>
-      <c r="AG48" s="1"/>
+      <c r="AG48" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="AH48" s="1"/>
       <c r="AI48" s="1"/>
       <c r="AJ48" s="1"/>
@@ -18605,88 +18776,90 @@
       <c r="KE48" s="1"/>
       <c r="KF48" s="1"/>
       <c r="KG48" s="1"/>
+      <c r="KH48" s="1"/>
+      <c r="KI48" s="1"/>
     </row>
-    <row r="49" ht="17.6" spans="1:293">
+    <row r="49" ht="15.5" spans="1:295">
       <c r="A49" s="1"/>
       <c r="B49" s="1">
         <v>48</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="G49" s="1">
+        <v>240</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="I49" s="1">
         <v>2021</v>
       </c>
-      <c r="H49" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="I49" s="1">
+      <c r="J49" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="K49" s="1">
         <v>1</v>
       </c>
-      <c r="J49" s="1">
+      <c r="L49" s="1">
         <v>1</v>
       </c>
-      <c r="K49" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L49" s="1" t="s">
+      <c r="M49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P49" s="1">
+        <v>84</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R49" s="1">
+        <v>3</v>
+      </c>
+      <c r="S49" s="1">
+        <v>320</v>
+      </c>
+      <c r="T49" s="1">
+        <v>4</v>
+      </c>
+      <c r="U49" s="1">
+        <v>0</v>
+      </c>
+      <c r="V49" s="1">
+        <v>84</v>
+      </c>
+      <c r="W49" s="1"/>
+      <c r="X49" s="1"/>
+      <c r="Y49" s="1"/>
+      <c r="Z49" s="14">
+        <v>1</v>
+      </c>
+      <c r="AA49" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB49" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="1"/>
+      <c r="AD49" s="1"/>
+      <c r="AE49" s="1">
+        <v>13</v>
+      </c>
+      <c r="AF49" s="1">
         <v>70</v>
       </c>
-      <c r="M49" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N49" s="1">
-        <v>84</v>
-      </c>
-      <c r="O49" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P49" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q49" s="1">
-        <v>320</v>
-      </c>
-      <c r="R49" s="1">
-        <v>4</v>
-      </c>
-      <c r="S49" s="1">
-        <v>0</v>
-      </c>
-      <c r="T49" s="1">
-        <v>84</v>
-      </c>
-      <c r="U49" s="1"/>
-      <c r="V49" s="1"/>
-      <c r="W49" s="1"/>
-      <c r="X49" s="9">
-        <v>1</v>
-      </c>
-      <c r="Y49" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z49" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA49" s="1"/>
-      <c r="AB49" s="1"/>
-      <c r="AC49" s="1">
-        <v>13</v>
-      </c>
-      <c r="AD49" s="1">
-        <v>70</v>
-      </c>
-      <c r="AE49" s="1"/>
-      <c r="AF49" s="1"/>
       <c r="AG49" s="1"/>
       <c r="AH49" s="1"/>
       <c r="AI49" s="1"/>
@@ -18948,92 +19121,94 @@
       <c r="KE49" s="1"/>
       <c r="KF49" s="1"/>
       <c r="KG49" s="1"/>
+      <c r="KH49" s="1"/>
+      <c r="KI49" s="1"/>
     </row>
-    <row r="50" ht="17.6" spans="1:293">
+    <row r="50" ht="15.5" spans="1:295">
       <c r="A50" s="1"/>
       <c r="B50" s="1">
         <v>49</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="G50" s="1">
+        <v>244</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="I50" s="1">
         <v>2023</v>
       </c>
-      <c r="H50" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="I50" s="1">
+      <c r="J50" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="K50" s="1">
         <v>1</v>
       </c>
-      <c r="J50" s="1">
+      <c r="L50" s="1">
         <v>1</v>
       </c>
-      <c r="K50" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L50" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="M50" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N50" s="1">
+        <v>11</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P50" s="1">
         <v>20</v>
       </c>
-      <c r="O50" s="1">
+      <c r="Q50" s="1">
         <v>12</v>
       </c>
-      <c r="P50" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q50" s="1">
+      <c r="R50" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S50" s="1">
         <v>960</v>
       </c>
-      <c r="R50" s="1">
+      <c r="T50" s="1">
         <v>16</v>
       </c>
-      <c r="S50" s="1">
+      <c r="U50" s="1">
         <v>0</v>
       </c>
-      <c r="T50" s="1">
+      <c r="V50" s="1">
         <v>20</v>
       </c>
-      <c r="U50" s="1"/>
-      <c r="V50" s="1"/>
       <c r="W50" s="1"/>
-      <c r="X50" s="9">
+      <c r="X50" s="1"/>
+      <c r="Y50" s="1"/>
+      <c r="Z50" s="14">
         <v>1</v>
       </c>
-      <c r="Y50" s="16">
+      <c r="AA50" s="18">
         <v>0</v>
       </c>
-      <c r="Z50" s="9">
+      <c r="AB50" s="14">
         <v>1</v>
       </c>
-      <c r="AA50" s="1"/>
-      <c r="AB50" s="1"/>
-      <c r="AC50" s="1">
+      <c r="AC50" s="1"/>
+      <c r="AD50" s="1"/>
+      <c r="AE50" s="1">
         <v>12</v>
       </c>
-      <c r="AD50" s="1">
+      <c r="AF50" s="1">
         <v>8</v>
       </c>
-      <c r="AE50" s="1"/>
-      <c r="AF50" s="20" t="s">
-        <v>236</v>
-      </c>
       <c r="AG50" s="1"/>
-      <c r="AH50" s="1"/>
+      <c r="AH50" s="23" t="s">
+        <v>247</v>
+      </c>
       <c r="AI50" s="1"/>
       <c r="AJ50" s="1"/>
       <c r="AK50" s="1"/>
@@ -19293,96 +19468,98 @@
       <c r="KE50" s="1"/>
       <c r="KF50" s="1"/>
       <c r="KG50" s="1"/>
+      <c r="KH50" s="1"/>
+      <c r="KI50" s="1"/>
     </row>
-    <row r="51" ht="17.6" spans="1:293">
+    <row r="51" ht="15.5" spans="1:295">
       <c r="A51" s="1"/>
       <c r="B51" s="1">
         <v>50</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="G51" s="1">
+        <v>249</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="I51" s="1">
         <v>2024</v>
       </c>
-      <c r="H51" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="I51" s="1">
+      <c r="J51" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="K51" s="1">
         <v>1</v>
       </c>
-      <c r="J51" s="1">
+      <c r="L51" s="1">
         <v>1</v>
       </c>
-      <c r="K51" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L51" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="M51" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N51" s="1">
+        <v>11</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P51" s="1">
         <v>32</v>
       </c>
-      <c r="O51" s="1">
+      <c r="Q51" s="1">
         <v>20</v>
       </c>
-      <c r="P51" s="1">
+      <c r="R51" s="1">
         <v>1</v>
       </c>
-      <c r="Q51" s="1">
+      <c r="S51" s="1">
         <v>240</v>
       </c>
-      <c r="R51" s="1">
+      <c r="T51" s="1">
         <v>5</v>
       </c>
-      <c r="S51" s="1">
+      <c r="U51" s="1">
         <v>0</v>
       </c>
-      <c r="T51" s="1">
+      <c r="V51" s="1">
         <v>32</v>
       </c>
-      <c r="U51" s="1"/>
-      <c r="V51" s="1"/>
       <c r="W51" s="1"/>
-      <c r="X51" s="9">
+      <c r="X51" s="1"/>
+      <c r="Y51" s="1"/>
+      <c r="Z51" s="14">
         <v>1</v>
       </c>
-      <c r="Y51" s="16">
+      <c r="AA51" s="18">
         <v>0</v>
       </c>
-      <c r="Z51" s="16">
+      <c r="AB51" s="18">
         <v>0</v>
       </c>
-      <c r="AA51" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="AB51" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="AC51" s="1">
+      <c r="AC51" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD51" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="AE51" s="1">
         <v>5</v>
       </c>
-      <c r="AD51" s="1">
+      <c r="AF51" s="1">
         <v>27</v>
       </c>
-      <c r="AE51" s="1"/>
-      <c r="AF51" s="20" t="s">
-        <v>242</v>
-      </c>
       <c r="AG51" s="1"/>
-      <c r="AH51" s="1"/>
+      <c r="AH51" s="23" t="s">
+        <v>253</v>
+      </c>
       <c r="AI51" s="1"/>
       <c r="AJ51" s="1"/>
       <c r="AK51" s="1"/>
@@ -19642,88 +19819,90 @@
       <c r="KE51" s="1"/>
       <c r="KF51" s="1"/>
       <c r="KG51" s="1"/>
+      <c r="KH51" s="1"/>
+      <c r="KI51" s="1"/>
     </row>
-    <row r="52" ht="18" spans="1:293">
+    <row r="52" ht="15.5" spans="1:295">
       <c r="A52" s="1"/>
       <c r="B52" s="1">
         <v>51</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="G52" s="1">
+        <v>255</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="I52" s="1">
         <v>2024</v>
       </c>
-      <c r="H52" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="I52" s="1">
+      <c r="J52" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="K52" s="1">
         <v>1</v>
       </c>
-      <c r="J52" s="1">
+      <c r="L52" s="1">
         <v>1</v>
       </c>
-      <c r="K52" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L52" s="1" t="s">
-        <v>247</v>
-      </c>
       <c r="M52" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N52" s="1">
+        <v>11</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P52" s="1">
         <v>70</v>
       </c>
-      <c r="O52" s="1">
+      <c r="Q52" s="1">
         <v>24</v>
       </c>
-      <c r="P52" s="1">
+      <c r="R52" s="1">
         <v>1</v>
       </c>
-      <c r="Q52" s="1">
+      <c r="S52" s="1">
         <v>360</v>
       </c>
-      <c r="R52" s="1">
+      <c r="T52" s="1">
         <v>0</v>
       </c>
-      <c r="S52" s="1"/>
-      <c r="T52" s="1"/>
       <c r="U52" s="1"/>
       <c r="V52" s="1"/>
       <c r="W52" s="1"/>
-      <c r="X52" s="9">
+      <c r="X52" s="1"/>
+      <c r="Y52" s="1"/>
+      <c r="Z52" s="14">
         <v>1</v>
       </c>
-      <c r="Y52" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z52" s="9">
+      <c r="AA52" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB52" s="14">
         <v>1</v>
       </c>
-      <c r="AA52" s="1"/>
-      <c r="AB52" s="1"/>
-      <c r="AC52" s="1">
+      <c r="AC52" s="1"/>
+      <c r="AD52" s="1"/>
+      <c r="AE52" s="1">
         <v>49</v>
       </c>
-      <c r="AD52" s="1">
+      <c r="AF52" s="1">
         <v>21</v>
       </c>
-      <c r="AE52" s="1"/>
-      <c r="AF52" s="19" t="s">
-        <v>248</v>
-      </c>
       <c r="AG52" s="1"/>
-      <c r="AH52" s="1"/>
+      <c r="AH52" s="22" t="s">
+        <v>259</v>
+      </c>
       <c r="AI52" s="1"/>
       <c r="AJ52" s="1"/>
       <c r="AK52" s="1"/>
@@ -19983,8 +20162,10 @@
       <c r="KE52" s="1"/>
       <c r="KF52" s="1"/>
       <c r="KG52" s="1"/>
+      <c r="KH52" s="1"/>
+      <c r="KI52" s="1"/>
     </row>
-    <row r="53" ht="17.6" spans="1:293">
+    <row r="53" ht="15.5" spans="1:295">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -20278,8 +20459,10 @@
       <c r="KE53" s="1"/>
       <c r="KF53" s="1"/>
       <c r="KG53" s="1"/>
+      <c r="KH53" s="1"/>
+      <c r="KI53" s="1"/>
     </row>
-    <row r="54" ht="17.6" spans="1:293">
+    <row r="54" ht="15.5" spans="1:295">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -20573,8 +20756,10 @@
       <c r="KE54" s="1"/>
       <c r="KF54" s="1"/>
       <c r="KG54" s="1"/>
+      <c r="KH54" s="1"/>
+      <c r="KI54" s="1"/>
     </row>
-    <row r="55" ht="17.6" spans="1:293">
+    <row r="55" ht="15.5" spans="1:295">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -20868,8 +21053,10 @@
       <c r="KE55" s="1"/>
       <c r="KF55" s="1"/>
       <c r="KG55" s="1"/>
+      <c r="KH55" s="1"/>
+      <c r="KI55" s="1"/>
     </row>
-    <row r="56" ht="17.6" spans="1:293">
+    <row r="56" ht="15.5" spans="1:295">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -21163,8 +21350,10 @@
       <c r="KE56" s="1"/>
       <c r="KF56" s="1"/>
       <c r="KG56" s="1"/>
+      <c r="KH56" s="1"/>
+      <c r="KI56" s="1"/>
     </row>
-    <row r="57" ht="17.6" spans="1:293">
+    <row r="57" ht="15.5" spans="1:295">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -21458,8 +21647,10 @@
       <c r="KE57" s="1"/>
       <c r="KF57" s="1"/>
       <c r="KG57" s="1"/>
+      <c r="KH57" s="1"/>
+      <c r="KI57" s="1"/>
     </row>
-    <row r="58" ht="17.6" spans="1:293">
+    <row r="58" ht="15.5" spans="1:295">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -21753,8 +21944,10 @@
       <c r="KE58" s="1"/>
       <c r="KF58" s="1"/>
       <c r="KG58" s="1"/>
+      <c r="KH58" s="1"/>
+      <c r="KI58" s="1"/>
     </row>
-    <row r="59" ht="17.6" spans="1:293">
+    <row r="59" ht="15.5" spans="1:295">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -22048,8 +22241,10 @@
       <c r="KE59" s="1"/>
       <c r="KF59" s="1"/>
       <c r="KG59" s="1"/>
+      <c r="KH59" s="1"/>
+      <c r="KI59" s="1"/>
     </row>
-    <row r="60" ht="17.6" spans="1:293">
+    <row r="60" ht="15.5" spans="1:295">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -22343,8 +22538,10 @@
       <c r="KE60" s="1"/>
       <c r="KF60" s="1"/>
       <c r="KG60" s="1"/>
+      <c r="KH60" s="1"/>
+      <c r="KI60" s="1"/>
     </row>
-    <row r="61" ht="17.6" spans="1:293">
+    <row r="61" ht="15.5" spans="1:295">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -22638,8 +22835,10 @@
       <c r="KE61" s="1"/>
       <c r="KF61" s="1"/>
       <c r="KG61" s="1"/>
+      <c r="KH61" s="1"/>
+      <c r="KI61" s="1"/>
     </row>
-    <row r="62" ht="17.6" spans="1:293">
+    <row r="62" ht="15.5" spans="1:295">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -22933,8 +23132,10 @@
       <c r="KE62" s="1"/>
       <c r="KF62" s="1"/>
       <c r="KG62" s="1"/>
+      <c r="KH62" s="1"/>
+      <c r="KI62" s="1"/>
     </row>
-    <row r="63" ht="17.6" spans="1:293">
+    <row r="63" ht="15.5" spans="1:295">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -23228,8 +23429,10 @@
       <c r="KE63" s="1"/>
       <c r="KF63" s="1"/>
       <c r="KG63" s="1"/>
+      <c r="KH63" s="1"/>
+      <c r="KI63" s="1"/>
     </row>
-    <row r="64" ht="17.6" spans="1:293">
+    <row r="64" ht="15.5" spans="1:295">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -23523,8 +23726,10 @@
       <c r="KE64" s="1"/>
       <c r="KF64" s="1"/>
       <c r="KG64" s="1"/>
+      <c r="KH64" s="1"/>
+      <c r="KI64" s="1"/>
     </row>
-    <row r="65" ht="17.6" spans="1:293">
+    <row r="65" ht="15.5" spans="1:295">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -23818,8 +24023,10 @@
       <c r="KE65" s="1"/>
       <c r="KF65" s="1"/>
       <c r="KG65" s="1"/>
+      <c r="KH65" s="1"/>
+      <c r="KI65" s="1"/>
     </row>
-    <row r="66" ht="17.6" spans="1:293">
+    <row r="66" ht="15.5" spans="1:295">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -24113,8 +24320,10 @@
       <c r="KE66" s="1"/>
       <c r="KF66" s="1"/>
       <c r="KG66" s="1"/>
+      <c r="KH66" s="1"/>
+      <c r="KI66" s="1"/>
     </row>
-    <row r="67" ht="17.6" spans="1:293">
+    <row r="67" ht="15.5" spans="1:295">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -24408,8 +24617,10 @@
       <c r="KE67" s="1"/>
       <c r="KF67" s="1"/>
       <c r="KG67" s="1"/>
+      <c r="KH67" s="1"/>
+      <c r="KI67" s="1"/>
     </row>
-    <row r="68" ht="17.6" spans="1:13">
+    <row r="68" ht="15.5" spans="1:15">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -24423,9 +24634,11 @@
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:W52" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:Y52" etc:filterBottomFollowUsedRange="0">
     <extLst>
       <etc:autoFilterAnalysis etc:version="v1" etc:showPane="0">
         <etc:analysisCharts>
@@ -24440,7 +24653,11 @@
     </extLst>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="H52" r:id="rId1" display="Cognitive, Affective, &amp; Behavioral Neuroscience" tooltip="https://link.springer.com/journal/13415"/>
+    <hyperlink ref="J52" r:id="rId1" display="Cognitive, Affective, &amp; Behavioral Neuroscience" tooltip="https://link.springer.com/journal/13415"/>
+    <hyperlink ref="G2" r:id="rId2" display="merryndconstable@gmail.com"/>
+    <hyperlink ref="G6" r:id="rId2" display="merryndconstable@gmail.com"/>
+    <hyperlink ref="G7" r:id="rId3" display="hcp4715@gmail.com"/>
+    <hyperlink ref="G10" r:id="rId2" display="merryndconstable@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -24457,989 +24674,989 @@
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66964285714286" defaultRowHeight="16.8" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="6.08035714285714" customWidth="1"/>
+    <col min="1" max="1" width="6.08333333333333" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="7" max="7" width="6.08035714285714" customWidth="1"/>
+    <col min="7" max="7" width="6.08333333333333" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.6" spans="1:8">
+    <row r="1" ht="15.5" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="2" ht="17.6" spans="1:8">
+    <row r="2" ht="15.5" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1">
         <v>2019</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E2" s="3">
         <v>2019</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H2" s="1">
         <v>2019</v>
       </c>
     </row>
-    <row r="3" ht="17.6" spans="1:8">
+    <row r="3" ht="15.5" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1">
         <v>2019</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E3" s="3">
         <v>2020</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H3" s="1">
         <v>2019</v>
       </c>
     </row>
-    <row r="4" ht="17.6" spans="1:8">
+    <row r="4" ht="15.5" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1">
         <v>2019</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E4" s="3">
         <v>2020</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H4" s="1">
         <v>2019</v>
       </c>
     </row>
-    <row r="5" ht="17.6" spans="1:8">
+    <row r="5" ht="15.5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B5" s="1">
         <v>2019</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="E5" s="3">
         <v>2020</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H5" s="1">
         <v>2019</v>
       </c>
     </row>
-    <row r="6" ht="17.6" hidden="1" spans="1:8">
+    <row r="6" ht="15.5" hidden="1" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B6" s="1">
         <v>2020</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="E6" s="3">
         <v>2020</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H6" s="1">
         <v>2020</v>
       </c>
     </row>
-    <row r="7" ht="17.6" hidden="1" spans="1:8">
+    <row r="7" ht="15.5" hidden="1" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B7" s="1">
         <v>2020</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="E7" s="3">
         <v>2019</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H7" s="1">
         <v>2020</v>
       </c>
     </row>
-    <row r="8" ht="17.6" hidden="1" spans="1:8">
+    <row r="8" ht="15.5" hidden="1" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B8" s="1">
         <v>2020</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="E8" s="3">
         <v>2018</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="H8" s="1">
         <v>2020</v>
       </c>
     </row>
-    <row r="9" ht="17.6" hidden="1" spans="1:8">
+    <row r="9" ht="15.5" hidden="1" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B9" s="1">
         <v>2021</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="E9" s="3">
         <v>2021</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="H9" s="1">
         <v>2021</v>
       </c>
     </row>
-    <row r="10" ht="17.6" hidden="1" spans="1:8">
+    <row r="10" ht="15.5" hidden="1" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B10" s="1">
         <v>2020</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="E10" s="3">
         <v>2021</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H10" s="1">
         <v>2020</v>
       </c>
     </row>
-    <row r="11" ht="17.6" spans="1:8">
+    <row r="11" ht="15.5" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="B11" s="1">
         <v>2020</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="E11" s="3">
         <v>2022</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="H11" s="1">
         <v>2020</v>
       </c>
     </row>
-    <row r="12" ht="17.6" spans="1:8">
+    <row r="12" ht="15.5" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="B12" s="1">
         <v>2020</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="E12" s="3">
         <v>2021</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="H12" s="1">
         <v>2020</v>
       </c>
     </row>
-    <row r="13" ht="17.6" spans="1:8">
+    <row r="13" ht="15.5" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="B13" s="1">
         <v>2019</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="E13" s="3">
         <v>2023</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="H13" s="1">
         <v>2019</v>
       </c>
     </row>
-    <row r="14" ht="17.6" spans="1:8">
+    <row r="14" ht="15.5" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="B14" s="1">
         <v>2019</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="E14" s="3">
         <v>2023</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="H14" s="1">
         <v>2019</v>
       </c>
     </row>
-    <row r="15" ht="17.6" spans="1:8">
+    <row r="15" ht="15.5" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="B15" s="1">
         <v>2018</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="E15" s="3">
         <v>2014</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H15" s="1">
         <v>2018</v>
       </c>
     </row>
-    <row r="16" ht="17.6" spans="1:8">
+    <row r="16" ht="15.5" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="B16" s="1">
         <v>2018</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="E16" s="3">
         <v>2015</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H16" s="1">
         <v>2018</v>
       </c>
     </row>
-    <row r="17" ht="17.6" hidden="1" spans="1:8">
+    <row r="17" ht="15.5" hidden="1" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="B17" s="1">
         <v>2021</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="E17" s="3">
         <v>2014</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="H17" s="1">
         <v>2021</v>
       </c>
     </row>
-    <row r="18" ht="17.6" spans="1:8">
+    <row r="18" ht="15.5" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="B18" s="1">
         <v>2021</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="E18" s="3">
         <v>2023</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="H18" s="1">
         <v>2021</v>
       </c>
     </row>
-    <row r="19" ht="17.6" spans="1:8">
+    <row r="19" ht="15.5" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="B19" s="1">
         <v>2021</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="E19" s="3">
         <v>2023</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="H19" s="1">
         <v>2021</v>
       </c>
     </row>
-    <row r="20" ht="17.6" spans="1:8">
+    <row r="20" ht="15.5" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="B20" s="1">
         <v>2021</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="E20" s="3">
         <v>2021</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="H20" s="1">
         <v>2021</v>
       </c>
     </row>
-    <row r="21" ht="17.6" spans="1:8">
+    <row r="21" ht="15.5" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B21" s="1">
         <v>2022</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="E21" s="3">
         <v>2023</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="H21" s="1">
         <v>2022</v>
       </c>
     </row>
-    <row r="22" ht="17.6" spans="1:8">
+    <row r="22" ht="15.5" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B22" s="1">
         <v>2022</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="E22" s="3">
         <v>2022</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="H22" s="1">
         <v>2022</v>
       </c>
     </row>
-    <row r="23" ht="17.6" spans="1:8">
+    <row r="23" ht="15.5" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B23" s="1">
         <v>2022</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="E23" s="3">
         <v>2022</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="H23" s="1">
         <v>2022</v>
       </c>
     </row>
-    <row r="24" ht="17.6" hidden="1" spans="1:8">
+    <row r="24" ht="15.5" hidden="1" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="B24" s="1">
         <v>2021</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="E24" s="3">
         <v>2020</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="H24" s="1">
         <v>2021</v>
       </c>
     </row>
-    <row r="25" ht="17.6" hidden="1" spans="1:8">
+    <row r="25" ht="15.5" hidden="1" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="B25" s="1">
         <v>2023</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="E25" s="3">
         <v>2023</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="H25" s="1">
         <v>2023</v>
       </c>
     </row>
-    <row r="26" ht="17.6" hidden="1" spans="1:8">
+    <row r="26" ht="15.5" hidden="1" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="B26" s="1">
         <v>2023</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="H26" s="1">
         <v>2023</v>
       </c>
     </row>
-    <row r="27" ht="17.6" hidden="1" spans="1:8">
+    <row r="27" ht="15.5" hidden="1" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="B27" s="1">
         <v>2014</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="H27" s="1">
         <v>2014</v>
       </c>
     </row>
-    <row r="28" ht="17.6" spans="1:8">
+    <row r="28" ht="15.5" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="B28" s="1">
         <v>2015</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="H28" s="1">
         <v>2015</v>
       </c>
     </row>
-    <row r="29" ht="17.6" spans="1:8">
+    <row r="29" ht="15.5" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="B29" s="1">
         <v>2015</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="H29" s="1">
         <v>2015</v>
       </c>
     </row>
-    <row r="30" ht="17.6" spans="1:8">
+    <row r="30" ht="15.5" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="B30" s="1">
         <v>2014</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="H30" s="1">
         <v>2014</v>
       </c>
     </row>
-    <row r="31" ht="17.6" spans="1:8">
+    <row r="31" ht="15.5" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="B31" s="1">
         <v>2014</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="H31" s="1">
         <v>2014</v>
       </c>
     </row>
-    <row r="32" ht="17.6" spans="1:8">
+    <row r="32" ht="15.5" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="B32" s="1">
         <v>2014</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="H32" s="1">
         <v>2014</v>
       </c>
     </row>
-    <row r="33" ht="17.6" spans="1:8">
+    <row r="33" ht="15.5" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="B33" s="1">
         <v>2014</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="H33" s="1">
         <v>2014</v>
       </c>
     </row>
-    <row r="34" ht="17.6" hidden="1" spans="1:8">
+    <row r="34" ht="15.5" hidden="1" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="B34" s="1">
         <v>2023</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="H34" s="1">
         <v>2023</v>
       </c>
     </row>
-    <row r="35" ht="17.6" hidden="1" spans="1:8">
+    <row r="35" ht="15.5" hidden="1" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="B35" s="1">
         <v>2023</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="H35" s="1">
         <v>2023</v>
       </c>
     </row>
-    <row r="36" ht="17.6" hidden="1" spans="1:8">
+    <row r="36" ht="15.5" hidden="1" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="B36" s="1">
         <v>2021</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="H36" s="1">
         <v>2021</v>
       </c>
     </row>
-    <row r="37" ht="17.6" hidden="1" spans="1:8">
+    <row r="37" ht="15.5" hidden="1" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="B37" s="1">
         <v>2023</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="H37" s="1">
         <v>2023</v>
       </c>
     </row>
-    <row r="38" ht="17.6" spans="1:8">
+    <row r="38" ht="15.5" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="B38" s="1">
         <v>2022</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="H38" s="1">
         <v>2022</v>
       </c>
     </row>
-    <row r="39" ht="17.6" spans="1:8">
+    <row r="39" ht="15.5" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="B39" s="1">
         <v>2022</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="H39" s="1">
         <v>2022</v>
       </c>
     </row>
-    <row r="40" ht="17.6" hidden="1" spans="1:8">
+    <row r="40" ht="15.5" hidden="1" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="B40" s="1">
         <v>2022</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="H40" s="1">
         <v>2022</v>
       </c>
     </row>
-    <row r="41" ht="17.6" spans="1:8">
+    <row r="41" ht="15.5" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="B41" s="1">
         <v>2020</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="H41" s="1">
         <v>2020</v>
       </c>
     </row>
-    <row r="42" ht="17.6" spans="1:8">
+    <row r="42" ht="15.5" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="B42" s="1">
         <v>2020</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="H42" s="1">
         <v>2020</v>
       </c>
     </row>
-    <row r="43" ht="17.6" spans="1:8">
+    <row r="43" ht="15.5" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="B43" s="1">
         <v>2020</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="H43" s="1">
         <v>2020</v>
       </c>
     </row>
-    <row r="44" ht="17.6" spans="1:8">
+    <row r="44" ht="15.5" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="B44" s="1">
         <v>2023</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="H44" s="1">
         <v>2023</v>
       </c>
     </row>
-    <row r="45" ht="17.6" spans="1:8">
+    <row r="45" ht="15.5" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="B45" s="1">
         <v>2023</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="H45" s="1">
         <v>2023</v>
       </c>
     </row>
-    <row r="46" ht="17.6" spans="1:8">
+    <row r="46" ht="15.5" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="B46" s="1">
         <v>2023</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="H46" s="1">
         <v>2023</v>
       </c>
     </row>
-    <row r="47" ht="17.6" spans="1:8">
+    <row r="47" ht="15.5" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="B47" s="1">
         <v>2021</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="H47" s="1">
         <v>2021</v>
       </c>
     </row>
-    <row r="48" ht="17.6" spans="1:8">
+    <row r="48" ht="15.5" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="B48" s="1">
         <v>2021</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="H48" s="1">
         <v>2021</v>
       </c>
     </row>
-    <row r="49" ht="17.6" spans="1:8">
+    <row r="49" ht="15.5" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="B49" s="1">
         <v>2021</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="H49" s="1">
         <v>2021</v>
       </c>
     </row>
-    <row r="50" ht="17.6" hidden="1" spans="1:8">
+    <row r="50" ht="15.5" hidden="1" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="B50" s="1">
         <v>2023</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="H50" s="1">
         <v>2023</v>
       </c>
     </row>
-    <row r="51" ht="17.6" hidden="1" spans="1:8">
+    <row r="51" ht="15.5" hidden="1" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="B51" s="1">
         <v>2024</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="H51" s="1">
         <v>2024</v>
       </c>
     </row>
-    <row r="52" ht="17.6" hidden="1" spans="1:8">
+    <row r="52" ht="15.5" hidden="1" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="B52" s="1">
         <v>2024</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="H52" s="1">
         <v>2024</v>
       </c>
     </row>
-    <row r="53" ht="17.6" hidden="1" spans="1:8">
+    <row r="53" ht="15.5" hidden="1" spans="1:8">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
     </row>
-    <row r="54" ht="17.6" hidden="1" spans="1:8">
+    <row r="54" ht="15.5" hidden="1" spans="1:8">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" ht="17.6" hidden="1" spans="1:8">
+    <row r="55" ht="15.5" hidden="1" spans="1:8">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
     </row>
-    <row r="56" ht="17.6" hidden="1" spans="1:8">
+    <row r="56" ht="15.5" hidden="1" spans="1:8">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" ht="17.6" hidden="1" spans="1:8">
+    <row r="57" ht="15.5" hidden="1" spans="1:8">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
     </row>
-    <row r="58" ht="17.6" hidden="1" spans="1:8">
+    <row r="58" ht="15.5" hidden="1" spans="1:8">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" ht="17.6" hidden="1" spans="1:8">
+    <row r="59" ht="15.5" hidden="1" spans="1:8">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
     </row>
-    <row r="60" ht="17.6" hidden="1" spans="1:8">
+    <row r="60" ht="15.5" hidden="1" spans="1:8">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
     </row>
-    <row r="61" ht="17.6" hidden="1" spans="1:8">
+    <row r="61" ht="15.5" hidden="1" spans="1:8">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
     </row>
-    <row r="62" ht="17.6" hidden="1" spans="1:8">
+    <row r="62" ht="15.5" hidden="1" spans="1:8">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
     </row>
-    <row r="63" ht="17.6" hidden="1" spans="1:8">
+    <row r="63" ht="15.5" hidden="1" spans="1:8">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
     </row>
-    <row r="64" ht="17.6" hidden="1" spans="1:8">
+    <row r="64" ht="15.5" hidden="1" spans="1:8">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
     </row>
-    <row r="65" ht="17.6" hidden="1" spans="1:8">
+    <row r="65" ht="15.5" hidden="1" spans="1:8">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
     </row>
-    <row r="66" ht="17.6" hidden="1" spans="1:8">
+    <row r="66" ht="15.5" hidden="1" spans="1:8">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
     </row>
-    <row r="67" ht="17.6" hidden="1" spans="1:8">
+    <row r="67" ht="15.5" hidden="1" spans="1:8">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
     </row>
-    <row r="68" ht="17.6" hidden="1" spans="1:8">
+    <row r="68" ht="15.5" hidden="1" spans="1:8">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="G68" s="1"/>
@@ -25467,29 +25684,29 @@
       <selection activeCell="A52" sqref="D1:D52 A1:A52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66964285714286" defaultRowHeight="16.8" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="11.8303571428571" customWidth="1"/>
+    <col min="2" max="2" width="11.8333333333333" customWidth="1"/>
     <col min="3" max="3" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.6" spans="1:4">
+    <row r="1" ht="15.5" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="2" ht="17.6" spans="1:4">
+    <row r="2" ht="15.5" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1">
         <v>96</v>
@@ -25501,9 +25718,9 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="3" ht="17.6" spans="1:4">
+    <row r="3" ht="15.5" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1">
         <v>96</v>
@@ -25515,9 +25732,9 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" ht="17.6" spans="1:4">
+    <row r="4" ht="15.5" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1">
         <v>96</v>
@@ -25529,9 +25746,9 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="5" ht="17.6" spans="1:4">
+    <row r="5" ht="15.5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B5" s="1">
         <v>80</v>
@@ -25543,9 +25760,9 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="6" ht="17.6" spans="1:4">
+    <row r="6" ht="15.5" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B6" s="1">
         <v>240</v>
@@ -25557,9 +25774,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="7" ht="17.6" spans="1:4">
+    <row r="7" ht="15.5" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B7" s="1">
         <v>312</v>
@@ -25571,9 +25788,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="8" ht="17.6" spans="1:4">
+    <row r="8" ht="15.5" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B8" s="1">
         <v>100</v>
@@ -25585,9 +25802,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="9" ht="17.6" spans="1:4">
+    <row r="9" ht="15.5" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B9" s="1">
         <v>960</v>
@@ -25599,9 +25816,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="10" ht="17.6" spans="1:4">
+    <row r="10" ht="15.5" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B10" s="1">
         <v>192</v>
@@ -25613,9 +25830,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="11" ht="17.6" spans="1:4">
+    <row r="11" ht="15.5" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="B11" s="1">
         <v>144</v>
@@ -25627,9 +25844,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="12" ht="17.6" spans="1:4">
+    <row r="12" ht="15.5" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="B12" s="1">
         <v>100</v>
@@ -25641,9 +25858,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="13" ht="17.6" spans="1:4">
+    <row r="13" ht="15.5" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="B13" s="1">
         <v>144</v>
@@ -25655,9 +25872,9 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="14" ht="17.6" spans="1:4">
+    <row r="14" ht="15.5" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="B14" s="1">
         <v>672</v>
@@ -25669,9 +25886,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="15" ht="17.6" spans="1:4">
+    <row r="15" ht="15.5" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="B15" s="1">
         <v>672</v>
@@ -25683,9 +25900,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="16" ht="17.6" spans="1:4">
+    <row r="16" ht="15.5" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="B16" s="1">
         <v>360</v>
@@ -25697,9 +25914,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="17" ht="17.6" spans="1:4">
+    <row r="17" ht="15.5" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="B17" s="1">
         <v>360</v>
@@ -25711,9 +25928,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="18" ht="17.6" spans="1:4">
+    <row r="18" ht="15.5" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="B18" s="1">
         <v>360</v>
@@ -25725,9 +25942,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="19" ht="17.6" spans="1:4">
+    <row r="19" ht="15.5" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="B19" s="1">
         <v>360</v>
@@ -25739,9 +25956,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="20" ht="17.6" spans="1:4">
+    <row r="20" ht="15.5" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="B20" s="1">
         <v>360</v>
@@ -25753,9 +25970,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="21" ht="17.6" spans="1:4">
+    <row r="21" ht="15.5" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="B21" s="1">
         <v>360</v>
@@ -25767,9 +25984,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="22" ht="17.6" spans="1:4">
+    <row r="22" ht="15.5" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="B22" s="1">
         <v>128</v>
@@ -25781,9 +25998,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="23" ht="17.6" spans="1:4">
+    <row r="23" ht="15.5" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="B23" s="1">
         <v>240</v>
@@ -25795,9 +26012,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="24" ht="17.6" spans="1:4">
+    <row r="24" ht="15.5" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="B24" s="1">
         <v>240</v>
@@ -25809,9 +26026,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="25" ht="17.6" spans="1:4">
+    <row r="25" ht="15.5" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B25" s="1">
         <v>200</v>
@@ -25823,9 +26040,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="26" ht="17.6" spans="1:4">
+    <row r="26" ht="15.5" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B26" s="1">
         <v>400</v>
@@ -25837,9 +26054,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="27" ht="17.6" spans="1:4">
+    <row r="27" ht="15.5" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B27" s="1">
         <v>400</v>
@@ -25851,9 +26068,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="28" ht="17.6" spans="1:4">
+    <row r="28" ht="15.5" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="B28" s="1">
         <v>360</v>
@@ -25865,9 +26082,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="29" ht="17.6" spans="1:4">
+    <row r="29" ht="15.5" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="B29" s="1">
         <v>64</v>
@@ -25879,9 +26096,9 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="30" ht="17.6" spans="1:4">
+    <row r="30" ht="15.5" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="B30" s="1">
         <v>90</v>
@@ -25893,9 +26110,9 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="31" ht="17.6" spans="1:4">
+    <row r="31" ht="15.5" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="B31" s="1">
         <v>40</v>
@@ -25907,9 +26124,9 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="32" ht="17.6" spans="1:4">
+    <row r="32" ht="15.5" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="B32" s="1">
         <v>40</v>
@@ -25921,9 +26138,9 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="33" ht="17.6" spans="1:4">
+    <row r="33" ht="15.5" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="B33" s="1">
         <v>40</v>
@@ -25935,9 +26152,9 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="34" ht="17.6" spans="1:4">
+    <row r="34" ht="15.5" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="B34" s="1">
         <v>60</v>
@@ -25949,9 +26166,9 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="35" ht="17.6" spans="1:4">
+    <row r="35" ht="15.5" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="B35" s="1">
         <v>60</v>
@@ -25963,9 +26180,9 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="36" ht="17.6" spans="1:4">
+    <row r="36" ht="15.5" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="B36" s="1">
         <v>60</v>
@@ -25977,9 +26194,9 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="37" ht="17.6" spans="1:4">
+    <row r="37" ht="15.5" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="B37" s="1">
         <v>60</v>
@@ -25991,9 +26208,9 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="38" ht="17.6" spans="1:4">
+    <row r="38" ht="15.5" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="B38" s="1">
         <v>240</v>
@@ -26005,9 +26222,9 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="39" ht="17.6" spans="1:4">
+    <row r="39" ht="15.5" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="B39" s="1">
         <v>60</v>
@@ -26019,9 +26236,9 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="40" ht="17.6" spans="1:4">
+    <row r="40" ht="15.5" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="B40" s="1">
         <v>360</v>
@@ -26033,9 +26250,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="41" ht="17.6" spans="1:4">
+    <row r="41" ht="15.5" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="B41" s="1">
         <v>300</v>
@@ -26047,9 +26264,9 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="42" ht="17.6" spans="1:4">
+    <row r="42" ht="15.5" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="B42" s="1">
         <v>240</v>
@@ -26061,9 +26278,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="43" ht="17.6" spans="1:4">
+    <row r="43" ht="15.5" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="B43" s="1">
         <v>240</v>
@@ -26075,9 +26292,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="44" ht="17.6" spans="1:4">
+    <row r="44" ht="15.5" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="B44" s="1">
         <v>360</v>
@@ -26089,9 +26306,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="45" ht="17.6" spans="1:4">
+    <row r="45" ht="15.5" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="B45" s="1">
         <v>360</v>
@@ -26103,9 +26320,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="46" ht="17.6" spans="1:4">
+    <row r="46" ht="15.5" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="B46" s="1">
         <v>360</v>
@@ -26117,9 +26334,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="47" ht="17.6" spans="1:4">
+    <row r="47" ht="15.5" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="B47" s="1">
         <v>360</v>
@@ -26131,9 +26348,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="48" ht="17.6" spans="1:4">
+    <row r="48" ht="15.5" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="B48" s="1">
         <v>96</v>
@@ -26145,9 +26362,9 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="49" ht="17.6" spans="1:4">
+    <row r="49" ht="15.5" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="B49" s="1">
         <v>320</v>
@@ -26159,9 +26376,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="50" ht="17.6" spans="1:4">
+    <row r="50" ht="15.5" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="B50" s="1">
         <v>960</v>
@@ -26173,9 +26390,9 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="51" ht="17.6" spans="1:4">
+    <row r="51" ht="15.5" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="B51" s="1">
         <v>240</v>
@@ -26187,9 +26404,9 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="52" ht="17.6" spans="1:4">
+    <row r="52" ht="15.5" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="B52" s="1">
         <v>360</v>
@@ -26201,16 +26418,16 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="53" ht="17.6" spans="1:1">
+    <row r="53" ht="15.5" spans="1:1">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" ht="17.6" spans="1:1">
+    <row r="54" ht="15.5" spans="1:1">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" ht="17.6" spans="1:1">
+    <row r="55" ht="15.5" spans="1:1">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" ht="17.6" spans="1:1">
+    <row r="56" ht="15.5" spans="1:1">
       <c r="A56" s="1"/>
     </row>
   </sheetData>

--- a/Label.xlsx
+++ b/Label.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="275">
   <si>
     <t>Note</t>
   </si>
@@ -371,6 +371,12 @@
   </si>
   <si>
     <t>P51</t>
+  </si>
+  <si>
+    <t>Xiangping Gao</t>
+  </si>
+  <si>
+    <t>gaoxp@shnu.edu.cn.</t>
   </si>
   <si>
     <t>Qian et al.</t>
@@ -434,6 +440,12 @@
     <t>P54</t>
   </si>
   <si>
+    <t>Sarah Schäfer</t>
+  </si>
+  <si>
+    <t>schaefers@uni-trier.de</t>
+  </si>
+  <si>
     <t>Schäfer &amp; Frings</t>
   </si>
   <si>
@@ -465,6 +477,12 @@
     <t>P95</t>
   </si>
   <si>
+    <t>Mateusz Wozniak</t>
+  </si>
+  <si>
+    <t>mateusz.wozniak@monash.edu</t>
+  </si>
+  <si>
     <t>Woźniak et al.</t>
   </si>
   <si>
@@ -481,6 +499,12 @@
   </si>
   <si>
     <t>Pn4</t>
+  </si>
+  <si>
+    <t>Marius Golubickis</t>
+  </si>
+  <si>
+    <t>marius.golubickis@plymouth.ac.uk</t>
   </si>
   <si>
     <t>Golubickis &amp; Macrae</t>
@@ -531,6 +555,12 @@
     <t>Pn13</t>
   </si>
   <si>
+    <t>Mayan Navon</t>
+  </si>
+  <si>
+    <t>mayanna@post.bgu.ac.il</t>
+  </si>
+  <si>
     <t>Navon &amp; Makovski</t>
   </si>
   <si>
@@ -556,6 +586,12 @@
   </si>
   <si>
     <t>Pn14</t>
+  </si>
+  <si>
+    <t>Gabriela Orellana-Corrales</t>
+  </si>
+  <si>
+    <t>gabriela.orellana-corrales@uni-tuebingen.de</t>
   </si>
   <si>
     <t>G Orellana-Corrales et al.</t>
@@ -711,6 +747,12 @@
     <t>Pn16</t>
   </si>
   <si>
+    <t>Saga L. Svensson</t>
+  </si>
+  <si>
+    <t>s.svensson.19@abdn.ac.uk</t>
+  </si>
+  <si>
     <t>Svensson et al.</t>
   </si>
   <si>
@@ -1167,7 +1209,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1201,12 +1243,6 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体-简"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1721,10 +1757,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1733,49 +1772,46 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1787,7 +1823,7 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1799,7 +1835,7 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1811,7 +1847,7 @@
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1823,7 +1859,7 @@
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1835,7 +1871,7 @@
     <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1848,7 +1884,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1873,13 +1909,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1897,16 +1930,16 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -1918,7 +1951,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2304,10 +2337,10 @@
   <sheetPr/>
   <dimension ref="A1:KI68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="AH8" sqref="AH8"/>
+      <selection pane="topRight" activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2316,8 +2349,8 @@
     <col min="2" max="2" width="3.625" customWidth="1"/>
     <col min="3" max="3" width="9.16666666666667" customWidth="1"/>
     <col min="4" max="5" width="6.08333333333333" customWidth="1"/>
-    <col min="6" max="6" width="19.9166666666667" customWidth="1"/>
-    <col min="7" max="7" width="27.5" customWidth="1"/>
+    <col min="6" max="6" width="24.5833333333333" customWidth="1"/>
+    <col min="7" max="7" width="40.0833333333333" customWidth="1"/>
     <col min="8" max="8" width="23.4166666666667" customWidth="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
     <col min="10" max="10" width="67.0833333333333" customWidth="1"/>
@@ -2389,25 +2422,25 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="T1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="U1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="V1" s="8" t="s">
         <v>20</v>
       </c>
       <c r="W1" s="1" t="s">
@@ -2431,22 +2464,22 @@
       <c r="AC1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="13" t="s">
+      <c r="AD1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="13" t="s">
+      <c r="AE1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="13" t="s">
+      <c r="AF1" s="12" t="s">
         <v>30</v>
       </c>
       <c r="AG1" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="13" t="s">
+      <c r="AH1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="21"/>
+      <c r="AI1" s="20"/>
     </row>
     <row r="2" ht="15.5" spans="1:295">
       <c r="A2" s="1" t="s">
@@ -2517,13 +2550,13 @@
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
-      <c r="Z2" s="14">
+      <c r="Z2" s="13">
         <v>1</v>
       </c>
-      <c r="AA2" s="15">
+      <c r="AA2" s="14">
         <v>0</v>
       </c>
-      <c r="AB2" s="15">
+      <c r="AB2" s="14">
         <v>0</v>
       </c>
       <c r="AC2" s="1"/>
@@ -2817,7 +2850,7 @@
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="G3" s="6"/>
       <c r="H3" s="1" t="s">
         <v>38</v>
       </c>
@@ -2867,13 +2900,13 @@
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
-      <c r="Z3" s="14">
+      <c r="Z3" s="13">
         <v>1</v>
       </c>
-      <c r="AA3" s="15">
+      <c r="AA3" s="14">
         <v>0</v>
       </c>
-      <c r="AB3" s="15">
+      <c r="AB3" s="14">
         <v>0</v>
       </c>
       <c r="AC3" s="1"/>
@@ -3167,7 +3200,7 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="G4" s="6"/>
       <c r="H4" s="1" t="s">
         <v>38</v>
       </c>
@@ -3217,13 +3250,13 @@
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
-      <c r="Z4" s="14">
+      <c r="Z4" s="13">
         <v>1</v>
       </c>
-      <c r="AA4" s="15">
+      <c r="AA4" s="14">
         <v>0</v>
       </c>
-      <c r="AB4" s="15">
+      <c r="AB4" s="14">
         <v>0</v>
       </c>
       <c r="AC4" s="1"/>
@@ -3517,7 +3550,7 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="G5" s="6"/>
       <c r="H5" s="1" t="s">
         <v>38</v>
       </c>
@@ -3567,13 +3600,13 @@
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
-      <c r="Z5" s="14">
+      <c r="Z5" s="13">
         <v>1</v>
       </c>
-      <c r="AA5" s="15">
+      <c r="AA5" s="14">
         <v>0</v>
       </c>
-      <c r="AB5" s="15">
+      <c r="AB5" s="14">
         <v>0</v>
       </c>
       <c r="AC5" s="1"/>
@@ -3925,13 +3958,13 @@
         <v>61</v>
       </c>
       <c r="Y6" s="1"/>
-      <c r="Z6" s="14">
+      <c r="Z6" s="13">
         <v>1</v>
       </c>
-      <c r="AA6" s="15">
+      <c r="AA6" s="14">
         <v>0</v>
       </c>
-      <c r="AB6" s="15">
+      <c r="AB6" s="14">
         <v>0</v>
       </c>
       <c r="AC6" s="1"/>
@@ -3947,7 +3980,7 @@
       <c r="AG6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AH6" s="22" t="s">
+      <c r="AH6" s="21" t="s">
         <v>62</v>
       </c>
       <c r="AI6" s="1"/>
@@ -4224,7 +4257,7 @@
         <v>64</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="1" t="s">
         <v>65</v>
       </c>
       <c r="G7" s="6" t="s">
@@ -4277,13 +4310,13 @@
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
-      <c r="Z7" s="14">
+      <c r="Z7" s="13">
         <v>1</v>
       </c>
-      <c r="AA7" s="15">
+      <c r="AA7" s="14">
         <v>0</v>
       </c>
-      <c r="AB7" s="15">
+      <c r="AB7" s="14">
         <v>0</v>
       </c>
       <c r="AC7" s="1" t="s">
@@ -4576,10 +4609,10 @@
       <c r="E8" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="6" t="s">
         <v>75</v>
       </c>
       <c r="H8" s="1" t="s">
@@ -4629,13 +4662,13 @@
       </c>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
-      <c r="Z8" s="14">
+      <c r="Z8" s="13">
         <v>1</v>
       </c>
-      <c r="AA8" s="15">
+      <c r="AA8" s="14">
         <v>0</v>
       </c>
-      <c r="AB8" s="14">
+      <c r="AB8" s="13">
         <v>1</v>
       </c>
       <c r="AC8" s="1"/>
@@ -4649,7 +4682,7 @@
         <v>14</v>
       </c>
       <c r="AG8" s="1"/>
-      <c r="AH8" s="22" t="s">
+      <c r="AH8" s="21" t="s">
         <v>79</v>
       </c>
       <c r="AI8" s="1"/>
@@ -4929,7 +4962,7 @@
       <c r="F9" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="6" t="s">
         <v>83</v>
       </c>
       <c r="H9" s="1" t="s">
@@ -4975,18 +5008,18 @@
       <c r="V9" s="1">
         <v>33</v>
       </c>
-      <c r="W9" s="11" t="s">
+      <c r="W9" s="10" t="s">
         <v>86</v>
       </c>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
-      <c r="Z9" s="14">
+      <c r="Z9" s="13">
         <v>1</v>
       </c>
-      <c r="AA9" s="15">
+      <c r="AA9" s="14">
         <v>0</v>
       </c>
-      <c r="AB9" s="15">
+      <c r="AB9" s="14">
         <v>0</v>
       </c>
       <c r="AC9" s="1" t="s">
@@ -5332,13 +5365,13 @@
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
-      <c r="Z10" s="14">
+      <c r="Z10" s="13">
         <v>1</v>
       </c>
-      <c r="AA10" s="15">
+      <c r="AA10" s="14">
         <v>0</v>
       </c>
-      <c r="AB10" s="15">
+      <c r="AB10" s="14">
         <v>0</v>
       </c>
       <c r="AC10" s="1"/>
@@ -5633,16 +5666,20 @@
       <c r="E11" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="F11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>98</v>
+      </c>
       <c r="H11" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I11" s="1">
         <v>2020</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K11" s="1">
         <v>1</v>
@@ -5655,7 +5692,7 @@
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="P11" s="1">
         <v>26</v>
@@ -5680,17 +5717,17 @@
         <v>24</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
-      <c r="Z11" s="14">
+      <c r="Z11" s="13">
         <v>1</v>
       </c>
-      <c r="AA11" s="15">
+      <c r="AA11" s="14">
         <v>0</v>
       </c>
-      <c r="AB11" s="15">
+      <c r="AB11" s="14">
         <v>0</v>
       </c>
       <c r="AC11" s="1" t="s">
@@ -5975,7 +6012,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>96</v>
@@ -5983,16 +6020,16 @@
       <c r="E12" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="6"/>
       <c r="H12" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I12" s="1">
         <v>2020</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K12" s="1">
         <v>2</v>
@@ -6005,7 +6042,7 @@
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P12" s="1">
         <v>26</v>
@@ -6030,17 +6067,17 @@
         <v>25</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
-      <c r="Z12" s="14">
+      <c r="Z12" s="13">
         <v>1</v>
       </c>
-      <c r="AA12" s="15">
+      <c r="AA12" s="14">
         <v>0</v>
       </c>
-      <c r="AB12" s="15">
+      <c r="AB12" s="14">
         <v>0</v>
       </c>
       <c r="AC12" s="1" t="s">
@@ -6056,8 +6093,8 @@
         <v>19</v>
       </c>
       <c r="AG12" s="1"/>
-      <c r="AH12" s="22" t="s">
-        <v>104</v>
+      <c r="AH12" s="21" t="s">
+        <v>106</v>
       </c>
       <c r="AI12" s="1"/>
       <c r="AJ12" s="1"/>
@@ -6327,24 +6364,28 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+      <c r="F13" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>110</v>
+      </c>
       <c r="H13" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="I13" s="1">
         <v>2019</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K13" s="1">
         <v>1</v>
@@ -6356,10 +6397,10 @@
         <v>11</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="P13" s="1">
         <v>103</v>
@@ -6386,20 +6427,20 @@
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
-      <c r="Z13" s="14">
+      <c r="Z13" s="13">
         <v>1</v>
       </c>
       <c r="AA13" t="s">
-        <v>111</v>
-      </c>
-      <c r="AB13" s="15">
+        <v>115</v>
+      </c>
+      <c r="AB13" s="14">
         <v>0</v>
       </c>
       <c r="AC13" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AD13" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AE13" s="1">
         <v>13</v>
@@ -6408,8 +6449,8 @@
         <v>90</v>
       </c>
       <c r="AG13" s="1"/>
-      <c r="AH13" s="22" t="s">
-        <v>113</v>
+      <c r="AH13" s="21" t="s">
+        <v>117</v>
       </c>
       <c r="AI13" s="1"/>
       <c r="AJ13" s="1"/>
@@ -6675,30 +6716,34 @@
     </row>
     <row r="14" ht="15.5" spans="1:295">
       <c r="A14" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B14" s="1">
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
+      <c r="F14" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>122</v>
+      </c>
       <c r="H14" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="I14" s="1">
         <v>2018</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="K14" s="1">
         <v>1</v>
@@ -6738,17 +6783,17 @@
         <v>18</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
-      <c r="Z14" s="14">
+      <c r="Z14" s="13">
         <v>1</v>
       </c>
-      <c r="AA14" s="15">
+      <c r="AA14" s="14">
         <v>0</v>
       </c>
-      <c r="AB14" s="15">
+      <c r="AB14" s="14">
         <v>1</v>
       </c>
       <c r="AC14" s="1" t="s">
@@ -7031,30 +7076,30 @@
     </row>
     <row r="15" ht="15.5" spans="1:295">
       <c r="A15" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B15" s="1">
         <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="6"/>
       <c r="H15" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="I15" s="1">
         <v>2018</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="K15" s="1">
         <v>2</v>
@@ -7094,17 +7139,17 @@
         <v>18</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
-      <c r="Z15" s="14">
+      <c r="Z15" s="13">
         <v>1</v>
       </c>
-      <c r="AA15" s="15">
+      <c r="AA15" s="14">
         <v>0</v>
       </c>
-      <c r="AB15" s="15">
+      <c r="AB15" s="14">
         <v>1</v>
       </c>
       <c r="AC15" s="1" t="s">
@@ -7391,18 +7436,22 @@
         <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
+      <c r="F16" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>130</v>
+      </c>
       <c r="H16" s="1" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="I16" s="1">
         <v>2021</v>
@@ -7448,17 +7497,17 @@
         <v>25</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
-      <c r="Z16" s="14">
+      <c r="Z16" s="13">
         <v>1</v>
       </c>
-      <c r="AA16" s="15">
+      <c r="AA16" s="14">
         <v>0</v>
       </c>
-      <c r="AB16" s="15">
+      <c r="AB16" s="14">
         <v>0</v>
       </c>
       <c r="AC16" s="1"/>
@@ -7473,7 +7522,7 @@
         <v>31</v>
       </c>
       <c r="AH16" s="1" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="AI16" s="1"/>
       <c r="AJ16" s="1"/>
@@ -7743,18 +7792,18 @@
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="6"/>
       <c r="H17" s="1" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="I17" s="1">
         <v>2021</v>
@@ -7802,13 +7851,13 @@
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
-      <c r="Z17" s="14">
+      <c r="Z17" s="13">
         <v>1</v>
       </c>
-      <c r="AA17" s="15">
+      <c r="AA17" s="14">
         <v>0</v>
       </c>
-      <c r="AB17" s="15">
+      <c r="AB17" s="14">
         <v>0</v>
       </c>
       <c r="AC17" s="1"/>
@@ -7823,7 +7872,7 @@
         <v>31</v>
       </c>
       <c r="AH17" s="1" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="AI17" s="1"/>
       <c r="AJ17" s="1"/>
@@ -8093,18 +8142,22 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
+      <c r="F18" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>138</v>
+      </c>
       <c r="H18" s="1" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="I18" s="1">
         <v>2021</v>
@@ -8150,20 +8203,20 @@
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
-      <c r="Z18" s="14">
+      <c r="Z18" s="13">
         <v>1</v>
       </c>
-      <c r="AA18" s="15">
+      <c r="AA18" s="14">
         <v>0</v>
       </c>
-      <c r="AB18" s="15">
+      <c r="AB18" s="14">
         <v>0</v>
       </c>
       <c r="AC18" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AD18" s="1" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AE18" s="1">
         <v>3</v>
@@ -8441,18 +8494,18 @@
         <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="6"/>
       <c r="H19" s="1" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="I19" s="1">
         <v>2021</v>
@@ -8464,11 +8517,11 @@
       <c r="L19" s="1">
         <v>2</v>
       </c>
-      <c r="M19" s="10" t="s">
-        <v>132</v>
+      <c r="M19" s="9" t="s">
+        <v>142</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="O19" s="1" t="s">
         <v>59</v>
@@ -8498,20 +8551,20 @@
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
-      <c r="Z19" s="14">
+      <c r="Z19" s="13">
         <v>1</v>
       </c>
-      <c r="AA19" s="15">
+      <c r="AA19" s="14">
         <v>0</v>
       </c>
-      <c r="AB19" s="15">
+      <c r="AB19" s="14">
         <v>0</v>
       </c>
       <c r="AC19" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AD19" s="1" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AE19" s="1">
         <v>9</v>
@@ -8789,18 +8842,18 @@
         <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="6"/>
       <c r="H20" s="1" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="I20" s="1">
         <v>2021</v>
@@ -8816,7 +8869,7 @@
         <v>11</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="O20" s="1" t="s">
         <v>59</v>
@@ -8846,20 +8899,20 @@
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
-      <c r="Z20" s="14">
+      <c r="Z20" s="13">
         <v>1</v>
       </c>
-      <c r="AA20" s="15">
+      <c r="AA20" s="14">
         <v>0</v>
       </c>
-      <c r="AB20" s="15">
+      <c r="AB20" s="14">
         <v>0</v>
       </c>
       <c r="AC20" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AD20" s="1" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AE20" s="1">
         <v>12</v>
@@ -9137,18 +9190,18 @@
         <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="6"/>
       <c r="H21" s="1" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="I21" s="1">
         <v>2021</v>
@@ -9194,20 +9247,20 @@
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
-      <c r="Z21" s="14">
+      <c r="Z21" s="13">
         <v>1</v>
       </c>
-      <c r="AA21" s="15">
+      <c r="AA21" s="14">
         <v>0</v>
       </c>
-      <c r="AB21" s="15">
+      <c r="AB21" s="14">
         <v>0</v>
       </c>
       <c r="AC21" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AD21" s="1" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AE21" s="1">
         <v>9</v>
@@ -9485,22 +9538,26 @@
         <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="F22" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>149</v>
+      </c>
       <c r="H22" s="1" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="I22" s="1">
         <v>2020</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="K22" s="1">
         <v>1</v>
@@ -9540,20 +9597,20 @@
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
-      <c r="Z22" s="14">
+      <c r="Z22" s="13">
         <v>1</v>
       </c>
-      <c r="AA22" s="15">
+      <c r="AA22" s="14">
         <v>0</v>
       </c>
-      <c r="AB22" s="15">
+      <c r="AB22" s="14">
         <v>0</v>
       </c>
       <c r="AC22" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AD22" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AE22" s="1">
         <v>9</v>
@@ -9563,7 +9620,7 @@
       </c>
       <c r="AG22" s="1"/>
       <c r="AH22" s="1" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="AI22" s="1"/>
       <c r="AJ22" s="1"/>
@@ -9833,22 +9890,22 @@
         <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="G23" s="6"/>
       <c r="H23" s="1" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="I23" s="1">
         <v>2020</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="K23" s="1">
         <v>2</v>
@@ -9888,20 +9945,20 @@
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
-      <c r="Z23" s="14">
+      <c r="Z23" s="13">
         <v>1</v>
       </c>
-      <c r="AA23" s="15">
+      <c r="AA23" s="14">
         <v>0</v>
       </c>
-      <c r="AB23" s="15">
+      <c r="AB23" s="14">
         <v>0</v>
       </c>
       <c r="AC23" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AD23" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AE23" s="1">
         <v>7</v>
@@ -9910,8 +9967,8 @@
         <v>26</v>
       </c>
       <c r="AG23" s="1"/>
-      <c r="AH23" s="22" t="s">
-        <v>142</v>
+      <c r="AH23" s="21" t="s">
+        <v>154</v>
       </c>
       <c r="AI23" s="1"/>
       <c r="AJ23" s="1"/>
@@ -10181,22 +10238,22 @@
         <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="G24" s="6"/>
       <c r="H24" s="1" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="I24" s="1">
         <v>2020</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="K24" s="1">
         <v>3</v>
@@ -10236,20 +10293,20 @@
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
-      <c r="Z24" s="14">
+      <c r="Z24" s="13">
         <v>1</v>
       </c>
-      <c r="AA24" s="15">
+      <c r="AA24" s="14">
         <v>0</v>
       </c>
-      <c r="AB24" s="15">
+      <c r="AB24" s="14">
         <v>0</v>
       </c>
       <c r="AC24" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AD24" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AE24" s="1">
         <v>7</v>
@@ -10258,8 +10315,8 @@
         <v>29</v>
       </c>
       <c r="AG24" s="1"/>
-      <c r="AH24" s="22" t="s">
-        <v>144</v>
+      <c r="AH24" s="21" t="s">
+        <v>156</v>
       </c>
       <c r="AI24" s="1"/>
       <c r="AJ24" s="1"/>
@@ -10529,24 +10586,28 @@
         <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
+      <c r="F25" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>160</v>
+      </c>
       <c r="H25" s="1" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="I25" s="1">
         <v>2022</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="K25" s="1">
         <v>1</v>
@@ -10586,13 +10647,13 @@
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
-      <c r="Z25" s="14">
+      <c r="Z25" s="13">
         <v>1</v>
       </c>
-      <c r="AA25" s="15">
+      <c r="AA25" s="14">
         <v>0</v>
       </c>
-      <c r="AB25" s="15">
+      <c r="AB25" s="14">
         <v>0</v>
       </c>
       <c r="AC25" s="1"/>
@@ -10605,7 +10666,7 @@
       </c>
       <c r="AG25" s="1"/>
       <c r="AH25" s="1" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="AI25" s="1"/>
       <c r="AJ25" s="1"/>
@@ -10875,24 +10936,23 @@
         <v>25</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
+      <c r="G26" s="6"/>
       <c r="H26" s="1" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="I26" s="1">
         <v>2022</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="K26" s="1">
         <v>2</v>
@@ -10930,17 +10990,17 @@
         <v>24</v>
       </c>
       <c r="W26" s="1" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
-      <c r="Z26" s="14">
+      <c r="Z26" s="13">
         <v>1</v>
       </c>
-      <c r="AA26" s="15">
+      <c r="AA26" s="14">
         <v>0</v>
       </c>
-      <c r="AB26" s="15">
+      <c r="AB26" s="14">
         <v>0</v>
       </c>
       <c r="AC26" s="1"/>
@@ -10952,8 +11012,8 @@
         <v>16</v>
       </c>
       <c r="AG26" s="1"/>
-      <c r="AH26" s="22" t="s">
-        <v>152</v>
+      <c r="AH26" s="21" t="s">
+        <v>166</v>
       </c>
       <c r="AI26" s="1"/>
       <c r="AJ26" s="1"/>
@@ -11223,24 +11283,24 @@
         <v>26</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>55</v>
       </c>
       <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
+      <c r="G27" s="6"/>
       <c r="H27" s="1" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="I27" s="1">
         <v>2022</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="K27" s="1">
         <v>3</v>
@@ -11278,17 +11338,17 @@
         <v>25</v>
       </c>
       <c r="W27" s="1" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
-      <c r="Z27" s="14">
+      <c r="Z27" s="13">
         <v>1</v>
       </c>
-      <c r="AA27" s="15">
+      <c r="AA27" s="14">
         <v>0</v>
       </c>
-      <c r="AB27" s="15">
+      <c r="AB27" s="14">
         <v>0</v>
       </c>
       <c r="AC27" s="1"/>
@@ -11300,8 +11360,8 @@
         <v>18</v>
       </c>
       <c r="AG27" s="1"/>
-      <c r="AH27" s="22" t="s">
-        <v>155</v>
+      <c r="AH27" s="21" t="s">
+        <v>169</v>
       </c>
       <c r="AI27" s="1"/>
       <c r="AJ27" s="1"/>
@@ -11571,24 +11631,24 @@
         <v>27</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>55</v>
       </c>
       <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
+      <c r="G28" s="6"/>
       <c r="H28" s="1" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="I28" s="1">
         <v>2021</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="K28" s="1">
         <v>1</v>
@@ -11627,18 +11687,18 @@
         <f t="shared" si="2"/>
         <v>105</v>
       </c>
-      <c r="W28" s="12" t="s">
-        <v>160</v>
+      <c r="W28" s="11" t="s">
+        <v>174</v>
       </c>
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
-      <c r="Z28" s="14">
+      <c r="Z28" s="13">
         <v>1</v>
       </c>
-      <c r="AA28" s="15">
+      <c r="AA28" s="14">
         <v>0</v>
       </c>
-      <c r="AB28" s="15">
+      <c r="AB28" s="14">
         <v>0</v>
       </c>
       <c r="AC28" s="1" t="s">
@@ -11919,30 +11979,30 @@
     </row>
     <row r="29" ht="17" customHeight="1" spans="1:295">
       <c r="A29" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B29" s="1">
         <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>55</v>
       </c>
       <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
+      <c r="G29" s="6"/>
       <c r="H29" s="1" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="I29" s="1">
         <v>2023</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="K29" s="1">
         <v>1</v>
@@ -11982,17 +12042,17 @@
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
-      <c r="Z29" s="14">
+      <c r="Z29" s="13">
         <v>1</v>
       </c>
       <c r="AA29" t="s">
-        <v>111</v>
-      </c>
-      <c r="AB29" s="15">
+        <v>115</v>
+      </c>
+      <c r="AB29" s="14">
         <v>0</v>
       </c>
-      <c r="AC29" s="16" t="s">
-        <v>165</v>
+      <c r="AC29" s="15" t="s">
+        <v>179</v>
       </c>
       <c r="AD29" s="1" t="s">
         <v>52</v>
@@ -12269,16 +12329,16 @@
     </row>
     <row r="30" ht="15.5" spans="1:295">
       <c r="A30" s="1" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="B30" s="1">
         <v>29</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>55</v>
@@ -12296,7 +12356,7 @@
         <v>1</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>11</v>
@@ -12328,22 +12388,22 @@
         <v>22</v>
       </c>
       <c r="W30" s="1" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="X30" s="1"/>
       <c r="Y30" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="Z30" s="14">
+        <v>185</v>
+      </c>
+      <c r="Z30" s="13">
         <v>1</v>
       </c>
-      <c r="AA30" s="15">
+      <c r="AA30" s="14">
         <v>0</v>
       </c>
-      <c r="AB30" s="14">
+      <c r="AB30" s="13">
         <v>1</v>
       </c>
-      <c r="AC30" s="16"/>
+      <c r="AC30" s="15"/>
       <c r="AD30" s="1" t="s">
         <v>71</v>
       </c>
@@ -12353,7 +12413,7 @@
         <v>31</v>
       </c>
       <c r="AH30" s="1" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="AI30" s="1"/>
       <c r="AJ30" s="1"/>
@@ -12619,16 +12679,16 @@
     </row>
     <row r="31" ht="15.5" spans="1:295">
       <c r="A31" s="1" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="B31" s="1">
         <v>30</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>55</v>
@@ -12636,7 +12696,7 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="1" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="I31" s="1">
         <v>2014</v>
@@ -12947,16 +13007,16 @@
     </row>
     <row r="32" ht="15.5" spans="1:295">
       <c r="A32" s="1" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="B32" s="1">
         <v>31</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>55</v>
@@ -12964,7 +13024,7 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="H32" s="1" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="I32" s="1">
         <v>2015</v>
@@ -13275,16 +13335,16 @@
     </row>
     <row r="33" ht="15.5" spans="1:295">
       <c r="A33" s="1" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="B33" s="1">
         <v>32</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>55</v>
@@ -13292,7 +13352,7 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="1" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="I33" s="1">
         <v>2015</v>
@@ -13603,16 +13663,16 @@
     </row>
     <row r="34" ht="15.5" spans="1:295">
       <c r="A34" s="1" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="B34" s="1">
         <v>33</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>55</v>
@@ -13620,13 +13680,13 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="1" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="I34" s="1">
         <v>2014</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="K34" s="1">
         <v>1</v>
@@ -13638,7 +13698,7 @@
         <v>11</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="O34" s="1" t="s">
         <v>59</v>
@@ -13658,7 +13718,7 @@
         <v>24</v>
       </c>
       <c r="W34" s="1" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
@@ -13935,16 +13995,16 @@
     </row>
     <row r="35" ht="15.5" spans="1:295">
       <c r="A35" s="1" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="B35" s="1">
         <v>34</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>55</v>
@@ -13952,13 +14012,13 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="H35" s="1" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="I35" s="1">
         <v>2014</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="K35" s="1">
         <v>2</v>
@@ -13970,7 +14030,7 @@
         <v>11</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="O35" s="1" t="s">
         <v>59</v>
@@ -13990,12 +14050,12 @@
         <v>18</v>
       </c>
       <c r="W35" s="1" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
-      <c r="AA35" s="17"/>
+      <c r="AA35" s="16"/>
       <c r="AB35" s="1"/>
       <c r="AC35" s="1"/>
       <c r="AD35" s="1"/>
@@ -14267,16 +14327,16 @@
     </row>
     <row r="36" ht="15.5" spans="1:295">
       <c r="A36" s="1" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="B36" s="1">
         <v>35</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>55</v>
@@ -14284,13 +14344,13 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="1" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="I36" s="1">
         <v>2014</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="K36" s="1">
         <v>3</v>
@@ -14302,7 +14362,7 @@
         <v>11</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="O36" s="1" t="s">
         <v>59</v>
@@ -14322,7 +14382,7 @@
         <v>22</v>
       </c>
       <c r="W36" s="1" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
@@ -14599,16 +14659,16 @@
     </row>
     <row r="37" ht="15.5" spans="1:295">
       <c r="A37" s="1" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="B37" s="1">
         <v>36</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>55</v>
@@ -14616,13 +14676,13 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c r="H37" s="1" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="I37" s="1">
         <v>2014</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="K37" s="1">
         <v>4</v>
@@ -14634,7 +14694,7 @@
         <v>11</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="O37" s="1" t="s">
         <v>59</v>
@@ -14654,7 +14714,7 @@
         <v>20</v>
       </c>
       <c r="W37" s="1" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
@@ -14935,10 +14995,10 @@
         <v>37</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>55</v>
@@ -14946,13 +15006,13 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c r="H38" s="1" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="I38" s="1">
         <v>2023</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="K38" s="1">
         <v>1</v>
@@ -14990,20 +15050,20 @@
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
-      <c r="Z38" s="14">
+      <c r="Z38" s="13">
         <v>1</v>
       </c>
-      <c r="AA38" s="18">
+      <c r="AA38" s="17">
         <v>0</v>
       </c>
-      <c r="AB38" s="14">
+      <c r="AB38" s="13">
         <v>1</v>
       </c>
       <c r="AC38" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AD38" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AE38" s="1">
         <v>8</v>
@@ -15013,7 +15073,7 @@
       </c>
       <c r="AG38" s="1"/>
       <c r="AH38" s="1" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="AI38" s="1"/>
       <c r="AJ38" s="1"/>
@@ -15283,10 +15343,10 @@
         <v>38</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>55</v>
@@ -15294,13 +15354,13 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="1" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="I39" s="1">
         <v>2023</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="K39" s="1">
         <v>1</v>
@@ -15342,13 +15402,13 @@
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
-      <c r="Z39" s="14">
+      <c r="Z39" s="13">
         <v>1</v>
       </c>
-      <c r="AA39" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="AB39" s="18">
+      <c r="AA39" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB39" s="17">
         <v>0</v>
       </c>
       <c r="AC39" s="1"/>
@@ -15631,10 +15691,10 @@
         <v>39</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>55</v>
@@ -15642,7 +15702,7 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="1" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="I40" s="1">
         <v>2021</v>
@@ -15688,19 +15748,19 @@
         <v>108</v>
       </c>
       <c r="W40" s="1" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="X40" s="1" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="Y40" s="1"/>
-      <c r="Z40" s="14">
+      <c r="Z40" s="13">
         <v>1</v>
       </c>
-      <c r="AA40" s="18">
+      <c r="AA40" s="17">
         <v>0</v>
       </c>
-      <c r="AB40" s="18">
+      <c r="AB40" s="17">
         <v>0</v>
       </c>
       <c r="AC40" s="1" t="s">
@@ -15981,28 +16041,28 @@
     </row>
     <row r="41" ht="15.5" spans="1:295">
       <c r="A41" s="1" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="B41" s="1">
         <v>40</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="I41" s="1">
         <v>2023</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="K41" s="1">
         <v>1</v>
@@ -16014,7 +16074,7 @@
         <v>11</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="O41" s="1"/>
       <c r="P41" s="1">
@@ -16042,20 +16102,20 @@
       <c r="W41" s="1"/>
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
-      <c r="Z41" s="14">
+      <c r="Z41" s="13">
         <v>1</v>
       </c>
-      <c r="AA41" s="18">
+      <c r="AA41" s="17">
         <v>0</v>
       </c>
-      <c r="AB41" s="18">
+      <c r="AB41" s="17">
         <v>0</v>
       </c>
       <c r="AC41" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AD41" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AE41" s="1">
         <v>8</v>
@@ -16065,7 +16125,7 @@
       </c>
       <c r="AG41" s="1"/>
       <c r="AH41" s="1" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="AI41" s="1"/>
       <c r="AJ41" s="1"/>
@@ -16335,10 +16395,10 @@
         <v>41</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>55</v>
@@ -16346,13 +16406,13 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c r="H42" s="1" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="I42" s="1">
         <v>2022</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="K42" s="1">
         <v>1</v>
@@ -16390,24 +16450,24 @@
         <v>27</v>
       </c>
       <c r="W42" s="1" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
-      <c r="Z42" s="14">
+      <c r="Z42" s="13">
         <v>1</v>
       </c>
-      <c r="AA42" s="18">
+      <c r="AA42" s="17">
         <v>0</v>
       </c>
-      <c r="AB42" s="18">
+      <c r="AB42" s="17">
         <v>0</v>
       </c>
       <c r="AC42" s="1" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="AD42" s="1" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="AE42" s="1">
         <v>14</v>
@@ -16417,7 +16477,7 @@
       </c>
       <c r="AG42" s="1"/>
       <c r="AH42" s="1" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="AI42" s="1"/>
       <c r="AJ42" s="1"/>
@@ -16687,10 +16747,10 @@
         <v>42</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>55</v>
@@ -16698,13 +16758,13 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c r="H43" s="1" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="I43" s="1">
         <v>2022</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="K43" s="1">
         <v>2</v>
@@ -16742,24 +16802,24 @@
         <v>102</v>
       </c>
       <c r="W43" s="1" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
-      <c r="Z43" s="14">
+      <c r="Z43" s="13">
         <v>1</v>
       </c>
-      <c r="AA43" s="18">
+      <c r="AA43" s="17">
         <v>0</v>
       </c>
-      <c r="AB43" s="18">
+      <c r="AB43" s="17">
         <v>0</v>
       </c>
       <c r="AC43" s="1" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="AD43" s="1" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="AE43" s="1">
         <v>14</v>
@@ -16769,7 +16829,7 @@
       </c>
       <c r="AG43" s="1"/>
       <c r="AH43" s="1" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="AI43" s="1"/>
       <c r="AJ43" s="1"/>
@@ -17035,16 +17095,16 @@
     </row>
     <row r="44" ht="15.5" spans="1:295">
       <c r="A44" s="1" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="B44" s="1">
         <v>43</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>55</v>
@@ -17052,13 +17112,13 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="1" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="I44" s="1">
         <v>2022</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="K44" s="1">
         <v>1</v>
@@ -17100,13 +17160,13 @@
       <c r="W44" s="1"/>
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
-      <c r="Z44" s="14">
+      <c r="Z44" s="13">
         <v>1</v>
       </c>
-      <c r="AA44" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="AB44" s="18">
+      <c r="AA44" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB44" s="17">
         <v>0</v>
       </c>
       <c r="AC44" s="1" t="s">
@@ -17389,22 +17449,22 @@
         <v>44</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="I45" s="1">
         <v>2020</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="K45" s="1">
         <v>1</v>
@@ -17419,7 +17479,7 @@
         <v>78</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="P45" s="1">
         <v>23</v>
@@ -17446,17 +17506,17 @@
       <c r="W45" s="1"/>
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
-      <c r="Z45" s="14">
+      <c r="Z45" s="13">
         <v>1</v>
       </c>
-      <c r="AA45" s="18">
+      <c r="AA45" s="17">
         <v>0</v>
       </c>
-      <c r="AB45" s="18">
+      <c r="AB45" s="17">
         <v>0</v>
       </c>
       <c r="AC45" s="1" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AD45" s="1" t="s">
         <v>52</v>
@@ -17469,7 +17529,7 @@
       </c>
       <c r="AG45" s="1"/>
       <c r="AH45" s="1" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AI45" s="1"/>
       <c r="AJ45" s="1"/>
@@ -17739,22 +17799,22 @@
         <v>45</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="I46" s="1">
         <v>2020</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="K46" s="1">
         <v>1</v>
@@ -17769,7 +17829,7 @@
         <v>78</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="P46" s="1">
         <v>21</v>
@@ -17796,17 +17856,17 @@
       <c r="W46" s="1"/>
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
-      <c r="Z46" s="14">
+      <c r="Z46" s="13">
         <v>1</v>
       </c>
-      <c r="AA46" s="18">
+      <c r="AA46" s="17">
         <v>0</v>
       </c>
-      <c r="AB46" s="18">
+      <c r="AB46" s="17">
         <v>0</v>
       </c>
       <c r="AC46" s="1" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AD46" s="1" t="s">
         <v>52</v>
@@ -17819,7 +17879,7 @@
       </c>
       <c r="AG46" s="1"/>
       <c r="AH46" s="1" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AI46" s="1"/>
       <c r="AJ46" s="1"/>
@@ -18089,22 +18149,22 @@
         <v>46</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="I47" s="1">
         <v>2020</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="K47" s="1">
         <v>1</v>
@@ -18119,7 +18179,7 @@
         <v>78</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="P47" s="1">
         <v>18</v>
@@ -18146,17 +18206,17 @@
       <c r="W47" s="1"/>
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
-      <c r="Z47" s="14">
+      <c r="Z47" s="13">
         <v>1</v>
       </c>
-      <c r="AA47" s="18">
+      <c r="AA47" s="17">
         <v>0</v>
       </c>
-      <c r="AB47" s="18">
+      <c r="AB47" s="17">
         <v>0</v>
       </c>
       <c r="AC47" s="1" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AD47" s="1" t="s">
         <v>52</v>
@@ -18169,7 +18229,7 @@
       </c>
       <c r="AG47" s="1"/>
       <c r="AH47" s="1" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AI47" s="1"/>
       <c r="AJ47" s="1"/>
@@ -18439,10 +18499,10 @@
         <v>47</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>55</v>
@@ -18450,13 +18510,13 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="1" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="I48" s="1">
         <v>2023</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="K48" s="1">
         <v>1</v>
@@ -18496,13 +18556,13 @@
       <c r="W48" s="1"/>
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
-      <c r="Z48" s="14">
+      <c r="Z48" s="13">
         <v>1</v>
       </c>
-      <c r="AA48" s="18">
+      <c r="AA48" s="17">
         <v>0</v>
       </c>
-      <c r="AB48" s="18">
+      <c r="AB48" s="17">
         <v>0</v>
       </c>
       <c r="AC48" s="1" t="s">
@@ -18785,10 +18845,10 @@
         <v>48</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>55</v>
@@ -18796,13 +18856,13 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c r="H49" s="1" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="I49" s="1">
         <v>2021</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="K49" s="1">
         <v>1</v>
@@ -18843,13 +18903,13 @@
       <c r="W49" s="1"/>
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
-      <c r="Z49" s="14">
+      <c r="Z49" s="13">
         <v>1</v>
       </c>
-      <c r="AA49" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="AB49" s="18">
+      <c r="AA49" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB49" s="17">
         <v>0</v>
       </c>
       <c r="AC49" s="1"/>
@@ -19130,10 +19190,10 @@
         <v>49</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>55</v>
@@ -19141,13 +19201,13 @@
       